--- a/data/02_intermediate/cleaned_Ademo_songs.xlsx
+++ b/data/02_intermediate/cleaned_Ademo_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas t'cacher que la vie est belle Seul avec du monde autour, seul avec du monde autour Seul avec du monde autour J'habitais dans une ville de merde avec la Tour Eiffel dedans Où les gens sont tristes et pressés, où les gens pleurent en marchant Mais j'viens de prendre une maison près d'Caen où ma famille passe les dimanches Ma grand-mère part à la messe pendant que ma nièce regarde Les Anges En chausson dans mes crocs, j'emmène ma zouz' au mini-golf On vit avant d'avoir des gosses, ouais, ouais Ensemble comme alcool et clope, j'm'en branle, j'écoute que d'la K-Pop Trottinette électrique de cross, ouais, ouais Mon meilleur pote vient faire d'la boxe, j'fais que d'me faire péter la gueule On retrouve les gars, parle de vrais trucs genre La vérité sur les meufs J'me lève à huit heures pour écrire, j'suis clairement pas un vrai rappeur Soirée karaoké, j'chante Au DD, Ademo, c'est ma sur Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Seul avec du monde autour, seul avec du monde autour Seul avec du monde autour You might also like J'habite juste à côté de la mer, on se baigne jamais parce qu'elle est froide J'suis content rien que d'la voir, avant, j'voyais que l'immeuble d'en face J'essaie d'apprendre à cuisiner, genre de faire autre chose que des pâtes Une fois sur deux, j'rate mes plats donc en attendant, j'mange des pâtes J'ai max une barre de 3G, lève le bras pour capter Vingt minutes pour mater une vidéo qu'en fait quatre, ouais J'rejoins mon père au stade, on prend deux buts, on prend deux bières J'retourne chez moi j'allume Fifa, j'reprends Malherbe, j'continue d'perdre, ouais Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Seul avec du monde autour1</t>
+          <t>Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas t'cacher que la vie est belle Seul avec du monde autour, seul avec du monde autour Seul avec du monde autour J'habitais dans une ville de merde avec la Tour Eiffel dedans Où les gens sont tristes et pressés, où les gens pleurent en marchant Mais j'viens de prendre une maison près d'Caen où ma famille passe les dimanches Ma grand-mère part à la messe pendant que ma nièce regarde Les Anges En chausson dans mes crocs, j'emmène ma zouz' au mini-golf On vit avant d'avoir des gosses, ouais, ouais Ensemble comme alcool et clope, j'm'en branle, j'écoute que d'la K-Pop Trottinette électrique de cross, ouais, ouais Mon meilleur pote vient faire d'la boxe, j'fais que d'me faire péter la gueule On retrouve les gars, parle de vrais trucs genre La vérité sur les meufs J'me lève à huit heures pour écrire, j'suis clairement pas un vrai rappeur Soirée karaoké, j'chante Au DD, Ademo, c'est ma sur Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Seul avec du monde autour, seul avec du monde autour Seul avec du monde autour J'habite juste à côté de la mer, on se baigne jamais parce qu'elle est froide J'suis content rien que d'la voir, avant, j'voyais que l'immeuble d'en face J'essaie d'apprendre à cuisiner, genre de faire autre chose que des pâtes Une fois sur deux, j'rate mes plats donc en attendant, j'mange des pâtes J'ai max une barre de 3G, lève le bras pour capter Vingt minutes pour mater une vidéo qu'en fait quatre, ouais J'rejoins mon père au stade, on prend deux buts, on prend deux bières J'retourne chez moi j'allume Fifa, j'reprends Malherbe, j'continue d'perdre, ouais Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Seul avec du monde autour1</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mi sono sentita stupida Si parla ma non si comunica Mi hai fatto sentire la sola Nel senso da sola non l'unica Volete femmine commosse di fronte A delle scarpe o delle borse Vi andiamo bene come siamo Ma con le tette un po' più grosse Ma qui tutte le sere ti offrono cene e da bere Tu dici che sei indipendente Io invece se non faccio soldi Mi guardate come se fossi impotente E ogni volta che incontro una donna C'è una parte di me che rinuncia Che se faccio battute poi sembra che flirto E dieci anni dopo becco una denuncia Ci facciamo del male da Adamo ed Eva Da quando il fuoco cancellava la strega Non siamo tutte cicatrici Uomo, non siamo tutte meretrici Io non so il lavoro quando parlo Non guardo il conto in banca quando ballo E il mio culo tu non puoi toccarlo Quando nessuno ti ha chiesto di farlo You might also like Quanto siamo bravi noi con le parole Quanto ci mettiamo per mangiarci il cuore Prima siamo complici dopo puoi distruggermi A metà tra le carezze e la guerra Se siamo ancora qui si può sbagliare Anche un abbraccio ci può fare male Odiarci è meraviglioso, l'amore è pericoloso, pericoloso Pericoloso, pericoloso Se ti tocco io sono molestie Però sei felice quando lo fa un figo Io t'ho sempre portato rispetto Però tu m'hai detto Sei solo un amico Che hai bisogno di stare da sola Che non è una storia che stavi cercando Però poi limonavi un belloccio E dopo due ore vi sentivo gemere in bagno Quindi se tu scopi tanto Uomini e dei ti avranno sempre in gloria Se io solo penso di farlo Uomini e dei mi danno della troia Gli uomini vengono e scappano E solo le donne vanno in paranoia Donne che mettono uomini al mondo E poi sono escluse dalla storia Ma quale storia tu hai studiato lingue all'erasmus Si chiamavano Tyrone e Marcus Sei femminista perché va di moda Sai fingerlo bene come con l'orgasmo Ora fingo distacco Perché ormai non ci casco Dite che cercate un bravo ragazzo Ma vi innamorate di chi fa il bastardo, o no? Quanto siamo bravi noi con le parole Quanto ci mettiamo per mangiarci il cuore Prima siamo complici dopo puoi distruggermi A metà tra le carezze e la guerra Un anello rimane per sempre È chi te lo regala che mente Occhio per occhio, dente per dente Quindi se chiedi cos'ho non ho niente Non dici cos'hai e dopo m'accusi D'essere insensibile ai tuoi problemi E non so mai se domani mi sveglierò Con Mr. Hyde o con Dr. Jekyll, baby Non chiamarmi baby né bambina Come una bambola che cammina A fare da sola si fa prima Sei pure meno di una sveltina Più facevi la groupie più mi imbastardivo È che a te per godere ti basta un divo E adesso che oramai mi sono imbastardito Fa' pure da sola che ti basta un dito Quanto siamo bravi noi con le parole Quanto ci mettiamo per mangiarci il cuore Prima siamo complici dopo puoi distruggermi A metà tra le carezze e la guerra Se siamo ancora qui si può sbagliare Anche un abbraccio ci può fare male Odiarci è meraviglioso, l'amore è pericoloso, pericoloso Pericoloso, pericoloso2</t>
+          <t>Mi sono sentita stupida Si parla ma non si comunica Mi hai fatto sentire la sola Nel senso da sola non l'unica Volete femmine commosse di fronte A delle scarpe o delle borse Vi andiamo bene come siamo Ma con le tette un po' più grosse Ma qui tutte le sere ti offrono cene e da bere Tu dici che sei indipendente Io invece se non faccio soldi Mi guardate come se fossi impotente E ogni volta che incontro una donna C'è una parte di me che rinuncia Che se faccio battute poi sembra che flirto E dieci anni dopo becco una denuncia Ci facciamo del male da Adamo ed Eva Da quando il fuoco cancellava la strega Non siamo tutte cicatrici Uomo, non siamo tutte meretrici Io non so il lavoro quando parlo Non guardo il conto in banca quando ballo E il mio culo tu non puoi toccarlo Quando nessuno ti ha chiesto di farlo Quanto siamo bravi noi con le parole Quanto ci mettiamo per mangiarci il cuore Prima siamo complici dopo puoi distruggermi A metà tra le carezze e la guerra Se siamo ancora qui si può sbagliare Anche un abbraccio ci può fare male Odiarci è meraviglioso, l'amore è pericoloso, pericoloso Pericoloso, pericoloso Se ti tocco io sono molestie Però sei felice quando lo fa un figo Io t'ho sempre portato rispetto Però tu m'hai detto Sei solo un amico Che hai bisogno di stare da sola Che non è una storia che stavi cercando Però poi limonavi un belloccio E dopo due ore vi sentivo gemere in bagno Quindi se tu scopi tanto Uomini e dei ti avranno sempre in gloria Se io solo penso di farlo Uomini e dei mi danno della troia Gli uomini vengono e scappano E solo le donne vanno in paranoia Donne che mettono uomini al mondo E poi sono escluse dalla storia Ma quale storia tu hai studiato lingue all'erasmus Si chiamavano Tyrone e Marcus Sei femminista perché va di moda Sai fingerlo bene come con l'orgasmo Ora fingo distacco Perché ormai non ci casco Dite che cercate un bravo ragazzo Ma vi innamorate di chi fa il bastardo, o no? Quanto siamo bravi noi con le parole Quanto ci mettiamo per mangiarci il cuore Prima siamo complici dopo puoi distruggermi A metà tra le carezze e la guerra Un anello rimane per sempre È chi te lo regala che mente Occhio per occhio, dente per dente Quindi se chiedi cos'ho non ho niente Non dici cos'hai e dopo m'accusi D'essere insensibile ai tuoi problemi E non so mai se domani mi sveglierò Con Mr. Hyde o con Dr. Jekyll, baby Non chiamarmi baby né bambina Come una bambola che cammina A fare da sola si fa prima Sei pure meno di una sveltina Più facevi la groupie più mi imbastardivo È che a te per godere ti basta un divo E adesso che oramai mi sono imbastardito Fa' pure da sola che ti basta un dito Quanto siamo bravi noi con le parole Quanto ci mettiamo per mangiarci il cuore Prima siamo complici dopo puoi distruggermi A metà tra le carezze e la guerra Se siamo ancora qui si può sbagliare Anche un abbraccio ci può fare male Odiarci è meraviglioso, l'amore è pericoloso, pericoloso Pericoloso, pericoloso2</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Maintenant, t'as compris pourquoi jai mal au cur C'est pour ceux qui ont pas choisi d'grandir avant lheure Tu sais, l'avenir, j'l'ai pas lu dans mes mains J'suis passé par le pire alors j'veux l'meilleur pour demain Devant ma feuille, j'ai pas les mots, le monde ou rien comme Ademo Jfais des rêves dans lesquels jrepars à zéro J'vise loin, le sommet, cest pas assez haut J'veux pas d'leur gâteau, ma gueule, il est pas assez gros Oui, j'ai souvent rêvé dencaisser la cagnotte Puis, j'me revois galérer, squatter dans la bagnole Certains voulaient m'signer, ça sentait la carotte La ceinture est serrée, j'peux pas baisser mon froc, nan, nan Nan, nan, nan, nan, nan Nan, nan, nan, nan, nan Nan, nan, nan, nan, nan J'rappe ta vie, ouais, j'ai la même Dans la mienne aussi, c'est la merde J'sais pas si c'est mieux là-bas comme Antonio Ferrara J'ai envie d'me faire la belle Moi, c'est Vin's car j'ai la haine J'ai fait du mal à celle que j'aime J'suis tous les jours dans l'arène J'sais pas si ça vaut la peine mais j'fais la guerre comme Athéna You might also like J'me disais Quand j'serai grand, j'pourrai recoudre la plaie Vingt-cinq ans qu'j'suis en guerre, j'ai toujours pas trouvé la paix Je m'énerve souvent, des soucis pleins la tête J'ai pas changé ma life avec un contrat d'artiste À quoi bon vivre ses rêves si le cur est en faillite ? Si les coups d'fil sont rares comme les photos de famille Maintenant, t'as compris pourquoi j'ai mal au cur C'est pour ceux qui ont pas choisi d'grandir avant l'heure Tu sais, l'avenir, j'l'ai pas lu dans mes mains J'suis passé par le pire alors j'veux l'meilleur pour demain Maintenant, t'as compris pourquoi j'ai mal au cur C'est pour ceux qui ont pas choisi d'grandir avant l'heure Tu sais, l'avenir, j'l'ai pas lu dans mes mains J'suis passé par le pire alors j'veux l'meilleur pour demain J'rappe ta vie, ouais, j'ai la même Dans la mienne aussi, c'est la merde J'sais pas si c'est mieux là-bas comme Antonio Ferrara J'ai envie d'me faire la belle Moi, c'est Vin's car j'ai la haine J'ai fait du mal à celle que j'aime J'suis tous les jours dans l'arène J'sais pas si ça vaut la peine mais j'fais la guerre comme Athéna</t>
+          <t>Maintenant, t'as compris pourquoi jai mal au cur C'est pour ceux qui ont pas choisi d'grandir avant lheure Tu sais, l'avenir, j'l'ai pas lu dans mes mains J'suis passé par le pire alors j'veux l'meilleur pour demain Devant ma feuille, j'ai pas les mots, le monde ou rien comme Ademo Jfais des rêves dans lesquels jrepars à zéro J'vise loin, le sommet, cest pas assez haut J'veux pas d'leur gâteau, ma gueule, il est pas assez gros Oui, j'ai souvent rêvé dencaisser la cagnotte Puis, j'me revois galérer, squatter dans la bagnole Certains voulaient m'signer, ça sentait la carotte La ceinture est serrée, j'peux pas baisser mon froc, nan, nan Nan, nan, nan, nan, nan Nan, nan, nan, nan, nan Nan, nan, nan, nan, nan J'rappe ta vie, ouais, j'ai la même Dans la mienne aussi, c'est la merde J'sais pas si c'est mieux là-bas comme Antonio Ferrara J'ai envie d'me faire la belle Moi, c'est Vin's car j'ai la haine J'ai fait du mal à celle que j'aime J'suis tous les jours dans l'arène J'sais pas si ça vaut la peine mais j'fais la guerre comme Athéna J'me disais Quand j'serai grand, j'pourrai recoudre la plaie Vingt-cinq ans qu'j'suis en guerre, j'ai toujours pas trouvé la paix Je m'énerve souvent, des soucis pleins la tête J'ai pas changé ma life avec un contrat d'artiste À quoi bon vivre ses rêves si le cur est en faillite ? Si les coups d'fil sont rares comme les photos de famille Maintenant, t'as compris pourquoi j'ai mal au cur C'est pour ceux qui ont pas choisi d'grandir avant l'heure Tu sais, l'avenir, j'l'ai pas lu dans mes mains J'suis passé par le pire alors j'veux l'meilleur pour demain Maintenant, t'as compris pourquoi j'ai mal au cur C'est pour ceux qui ont pas choisi d'grandir avant l'heure Tu sais, l'avenir, j'l'ai pas lu dans mes mains J'suis passé par le pire alors j'veux l'meilleur pour demain J'rappe ta vie, ouais, j'ai la même Dans la mienne aussi, c'est la merde J'sais pas si c'est mieux là-bas comme Antonio Ferrara J'ai envie d'me faire la belle Moi, c'est Vin's car j'ai la haine J'ai fait du mal à celle que j'aime J'suis tous les jours dans l'arène J'sais pas si ça vaut la peine mais j'fais la guerre comme Athéna</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hé, Je reviens dans la partie allez ouvre ta bouche avale Rifle la matrix si j'ai les couilles encore plus grosses qu'avant Tu veux du sale t'en auras, t'iras toucher au D4 Les pecs j'les bombe haha, sous l'tee-shirt j'ai du C4 J'ai pas changé, j'ai évolué Sois tu baisses, soit tu stagnes Soit tu fais tes sons en zonz, en sortant tu fais du cash J'vais t'faire monter en l'air, écoute mon son et c'est fini Tu veux faire l'avion comme lors d'une intervention chez les iris Soûlé soûlé là, j'viens m'défouler La haine m'a trouvé et j'l'ai évacuée sous mes Nike Fort en maths depuis qu'j'compte le temps qui m'reste Le théorème de ma bite hardcore pour ça qu'y a des chiennes qui m'aime La haine me nourri, la hess me sourit Sur eux que j'prend le plancher pour un coup de sure Hein ma vie de galérien, j'fini toujours par l'giro de poulaille Sisi naha continue de tourner, bientôt les retrouvailles x2 J'veux pas faire un titre , j'veux juste vivre ma vie J'ai de la dynamite, ouais je t'invite à fuir J'vend pas de zik l'amis, j'bibi à prix d'amis J'sors ma bite ah oui si tu veux de la vitamine You might also like Les mecs j'ai l'seum, j'ai la dalle, j'ai le ventre vide Les MC's pètent un câble tellement je monte vite Je vise je vise le sommet, Jack et mon shit tu veux consommé Du mal j'en suis conscient mais Je t'avance 2-3 quettes histoire de faire un peu d'pépètes Je m'en bas les couilles de prendre perpettes À part dieu personne m'effraie Encore un nique la police, pour faire kiffer mes frères J'rappe pour ceux qui galère dans le hall, toujours on risque de ce faire pété Je m'écarte des pd's, des salopes XXX baisé ramène de la drogue histoire de déstresser Vue que j'ai le 11 dans ma che-po , une grenade pour le comico</t>
+          <t>Hé, Je reviens dans la partie allez ouvre ta bouche avale Rifle la matrix si j'ai les couilles encore plus grosses qu'avant Tu veux du sale t'en auras, t'iras toucher au D4 Les pecs j'les bombe haha, sous l'tee-shirt j'ai du C4 J'ai pas changé, j'ai évolué Sois tu baisses, soit tu stagnes Soit tu fais tes sons en zonz, en sortant tu fais du cash J'vais t'faire monter en l'air, écoute mon son et c'est fini Tu veux faire l'avion comme lors d'une intervention chez les iris Soûlé soûlé là, j'viens m'défouler La haine m'a trouvé et j'l'ai évacuée sous mes Nike Fort en maths depuis qu'j'compte le temps qui m'reste Le théorème de ma bite hardcore pour ça qu'y a des chiennes qui m'aime La haine me nourri, la hess me sourit Sur eux que j'prend le plancher pour un coup de sure Hein ma vie de galérien, j'fini toujours par l'giro de poulaille Sisi naha continue de tourner, bientôt les retrouvailles x2 J'veux pas faire un titre , j'veux juste vivre ma vie J'ai de la dynamite, ouais je t'invite à fuir J'vend pas de zik l'amis, j'bibi à prix d'amis J'sors ma bite ah oui si tu veux de la vitamine Les mecs j'ai l'seum, j'ai la dalle, j'ai le ventre vide Les MC's pètent un câble tellement je monte vite Je vise je vise le sommet, Jack et mon shit tu veux consommé Du mal j'en suis conscient mais Je t'avance 2-3 quettes histoire de faire un peu d'pépètes Je m'en bas les couilles de prendre perpettes À part dieu personne m'effraie Encore un nique la police, pour faire kiffer mes frères J'rappe pour ceux qui galère dans le hall, toujours on risque de ce faire pété Je m'écarte des pd's, des salopes XXX baisé ramène de la drogue histoire de déstresser Vue que j'ai le 11 dans ma che-po , une grenade pour le comico</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>XXXYou might also like</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Life can change faster than a blink When it's time to act, you have to trust instincts It's do or be done, look out for number one They think it's over but I've just begun I've only just begun From this day forth This day forth I am reborn I am reborn I'm on the offensive There are no rules in this war From this day forth This day forth I live with force Live with force I am unrelenting I destroy the minds you've infected So keep cutting your teeth On words you should not speak You've been admonished Time to cull the herd of the weak I'll keep building strength Keep my enemies at arm's length I will seek new answers Can't give in to their obsessions You might also like Silence I must silence I must silence I must silence the enemy mind Silence the enemy mind I don't believe that it's too late As tough as the times may be In this, your world of duality I am the contrast of the concept you see It comes into the light now Eyes staring out, I'm gonna bite down I'm gonna bite down, I'm gonna bite down Bite down and come out fighting From this day forth This day forth I am reborn I am reborn I'm on the offensive There are no rules in this war From this day forth This day forth I live with force Live with force I am unrelenting I destroy the minds you've infected</t>
+          <t>Life can change faster than a blink When it's time to act, you have to trust instincts It's do or be done, look out for number one They think it's over but I've just begun I've only just begun From this day forth This day forth I am reborn I am reborn I'm on the offensive There are no rules in this war From this day forth This day forth I live with force Live with force I am unrelenting I destroy the minds you've infected So keep cutting your teeth On words you should not speak You've been admonished Time to cull the herd of the weak I'll keep building strength Keep my enemies at arm's length I will seek new answers Can't give in to their obsessions Silence I must silence I must silence I must silence the enemy mind Silence the enemy mind I don't believe that it's too late As tough as the times may be In this, your world of duality I am the contrast of the concept you see It comes into the light now Eyes staring out, I'm gonna bite down I'm gonna bite down, I'm gonna bite down Bite down and come out fighting From this day forth This day forth I am reborn I am reborn I'm on the offensive There are no rules in this war From this day forth This day forth I live with force Live with force I am unrelenting I destroy the minds you've infected</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Va bene, va tutto bene Sorge la torre di Babele tra le macerie Sopra le ceneri dell'Eden fanno un cantiere Ma troppe voci fanno Bla, bla, bla Bla, bla, bla C'era in principio una lingua bambina Adamo col dito puntato diceva Collina Nuvola, donna, una mora squisita Ecco, prendi questa nocciolina Guarda, ho pescato un pesce, facciamo il fuoco Calore buono, parlare è un gioco, giochiamo Se Eva ed Adamo ad esempio dicevano Vento La parola sfiorava il flusso dell'aria E quasi ricreava il suo suono perfetto L'indice puntava esattamente sull'oggetto L'uomo che guardava era una parte del progetto Ma quando disse Mela, il serpente maledetto Disse Uomo, prendila, fanne il tuo strumento Quindi lo introdusse alla ragione del possesso E Adamo, staccando la mela dal ramo, staccava se stesso dal tutto You might also like Si vide nudo, si vide brutto E le parole divennero strumenti imperfetti E dopo idoli, e dopo spettri Babele non è stata così alta mai Siamo stati più vicini al cielo E al contempo così soli, lontani da tutto Babele non è stata così alta mai Arrivati ad afferrare il cielo Ci scopriamo così soli, per sempre lontani da noi Quando l'uomo disse Io per la prima volta Per l'ultima volta vedeva Dio La parola cominciò il suo declino Si mise in mezzo tra l'uomo e il bambino E le parole si mischiarono reale Finiranno per creare mondi finti E labirinti di specchi, non segni liberi Ma schemi rigidi, spettri terribili E magari idoli da venerare E quando la parola prende il posto del reale Se è vero solo quello che si riesce a nominare La mente della gente la potresti controllare Solamente consegnandogli vocaboli da usare La magia è diventata sortilegio Scorrono parole sugli schermi verso il buco nero E uomini schiavi di un linguaggio, privi di pensiero Alzano una torre per riconquistare il cielo Babele non è stata così alta mai Siamo stati più vicini al cielo E al contempo così soli, lontani da tutto Babele non è stata così alta mai Arrivati ad afferrare il cielo E al contempo così soli Babele non è stata così alta mai Siamo stati più vicini al cielo E al contempo così soli, lontani da tutto Babele non è stata così alta mai Arrivati ad afferrare il cielo Ci scopriamo così soli, per sempre lontani da noi Fuori da noi, fuori da noi Per sempre lontani da noi Fuori da noi, fuori da noi Per sempre lontani da noi Fuori da noi, fuori da noi Per sempre lontani da noi Fuori da noi, fuori da noi Per sempre lontani da noi</t>
+          <t>Va bene, va tutto bene Sorge la torre di Babele tra le macerie Sopra le ceneri dell'Eden fanno un cantiere Ma troppe voci fanno Bla, bla, bla Bla, bla, bla C'era in principio una lingua bambina Adamo col dito puntato diceva Collina Nuvola, donna, una mora squisita Ecco, prendi questa nocciolina Guarda, ho pescato un pesce, facciamo il fuoco Calore buono, parlare è un gioco, giochiamo Se Eva ed Adamo ad esempio dicevano Vento La parola sfiorava il flusso dell'aria E quasi ricreava il suo suono perfetto L'indice puntava esattamente sull'oggetto L'uomo che guardava era una parte del progetto Ma quando disse Mela, il serpente maledetto Disse Uomo, prendila, fanne il tuo strumento Quindi lo introdusse alla ragione del possesso E Adamo, staccando la mela dal ramo, staccava se stesso dal tutto Si vide nudo, si vide brutto E le parole divennero strumenti imperfetti E dopo idoli, e dopo spettri Babele non è stata così alta mai Siamo stati più vicini al cielo E al contempo così soli, lontani da tutto Babele non è stata così alta mai Arrivati ad afferrare il cielo Ci scopriamo così soli, per sempre lontani da noi Quando l'uomo disse Io per la prima volta Per l'ultima volta vedeva Dio La parola cominciò il suo declino Si mise in mezzo tra l'uomo e il bambino E le parole si mischiarono reale Finiranno per creare mondi finti E labirinti di specchi, non segni liberi Ma schemi rigidi, spettri terribili E magari idoli da venerare E quando la parola prende il posto del reale Se è vero solo quello che si riesce a nominare La mente della gente la potresti controllare Solamente consegnandogli vocaboli da usare La magia è diventata sortilegio Scorrono parole sugli schermi verso il buco nero E uomini schiavi di un linguaggio, privi di pensiero Alzano una torre per riconquistare il cielo Babele non è stata così alta mai Siamo stati più vicini al cielo E al contempo così soli, lontani da tutto Babele non è stata così alta mai Arrivati ad afferrare il cielo E al contempo così soli Babele non è stata così alta mai Siamo stati più vicini al cielo E al contempo così soli, lontani da tutto Babele non è stata così alta mai Arrivati ad afferrare il cielo Ci scopriamo così soli, per sempre lontani da noi Fuori da noi, fuori da noi Per sempre lontani da noi Fuori da noi, fuori da noi Per sempre lontani da noi Fuori da noi, fuori da noi Per sempre lontani da noi Fuori da noi, fuori da noi Per sempre lontani da noi</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Se llama Manuela En cada dedo de su mano tiene una estrella Las plantas le hablaban y aprendió a sanar con ellas Viajó de pueblo en pueblo compartiendo sus destrezas Charlaba con el cosmos y encontraba las respuestas Que la gente preguntaba cuando tocaban su puerta será que si me ama? Será que muero mañana? Una vela pa las lágrimas Y trago pa las ánimas En aquel tiempo por ser una mujer sola Le gritaban mujerzuela, porque admás era bella Tenía sa belleza que poseen las mujeres Cuando son como ellas quieren Sin casarse a la fuerza Una tras otra fueron llegando las quejas Porque una mujer sin amo era vista como afrenta A las buenas costumbres de este pueblo muy piadoso Las estrellas le dijeron es tiempo de irte a otro Le llaman la Tatuana En el brazo lleva el tatuaje de un secreto Navegando en el universo de su cuerpo Para hacerse invisible como el pensamiento You might also like Pero el augurio llegó tarde Salió el sol y llegaron a capturarle Los patriarcas del lugar pidieron castigo ejemplar Y al alba en la plaza iban a quemarle Le concedemos un último deseo Un trozo de carbón es lo que quiero Causó un poco de extrañeza Pero así lo cumplieron y llevaron a su celda La pared en blanco fue lienzo de su proeza Dibujó un barquito navegando la marea Se subió en el barco y escapó por la ventana Navegando en la luz de luna y sus hilos de plata Le llaman la Tatuana En el brazo lleva el tatuaje de un secreto Navegando en el universo de su cuerpo Para hacerse invisible como el pensamiento Le llaman la Tatuana En el brazo lleva el tatuaje de un secreto Navegando en el universo de su cuerpo Para hacerse invisible como el pensamiento Cuenta la leyenda que en noche de luna llena Aún se le ve a Manuela navegando en su barco Pero no va sola va acompañada de otras Que salvó del cautiverio y se le escucha cantando Me llaman la Tatuana En el brazo llevo el tatuaje de un secreto Navegando en el universo de mi cuerpo Para hacerme invisible como el pensamiento Me llaman la Tatuana En el brazo llevo el tatuaje de un secreto Navegando en el universo de mi cuerpo Para hacerme invisible como el pensamiento Me llaman la Tatuana En el brazo llevo el tatuaje de un secreto Navegando en el universo de mi cuerpo Para hacerme invisible como el pensamiento</t>
+          <t>Se llama Manuela En cada dedo de su mano tiene una estrella Las plantas le hablaban y aprendió a sanar con ellas Viajó de pueblo en pueblo compartiendo sus destrezas Charlaba con el cosmos y encontraba las respuestas Que la gente preguntaba cuando tocaban su puerta será que si me ama? Será que muero mañana? Una vela pa las lágrimas Y trago pa las ánimas En aquel tiempo por ser una mujer sola Le gritaban mujerzuela, porque admás era bella Tenía sa belleza que poseen las mujeres Cuando son como ellas quieren Sin casarse a la fuerza Una tras otra fueron llegando las quejas Porque una mujer sin amo era vista como afrenta A las buenas costumbres de este pueblo muy piadoso Las estrellas le dijeron es tiempo de irte a otro Le llaman la Tatuana En el brazo lleva el tatuaje de un secreto Navegando en el universo de su cuerpo Para hacerse invisible como el pensamiento Pero el augurio llegó tarde Salió el sol y llegaron a capturarle Los patriarcas del lugar pidieron castigo ejemplar Y al alba en la plaza iban a quemarle Le concedemos un último deseo Un trozo de carbón es lo que quiero Causó un poco de extrañeza Pero así lo cumplieron y llevaron a su celda La pared en blanco fue lienzo de su proeza Dibujó un barquito navegando la marea Se subió en el barco y escapó por la ventana Navegando en la luz de luna y sus hilos de plata Le llaman la Tatuana En el brazo lleva el tatuaje de un secreto Navegando en el universo de su cuerpo Para hacerse invisible como el pensamiento Le llaman la Tatuana En el brazo lleva el tatuaje de un secreto Navegando en el universo de su cuerpo Para hacerse invisible como el pensamiento Cuenta la leyenda que en noche de luna llena Aún se le ve a Manuela navegando en su barco Pero no va sola va acompañada de otras Que salvó del cautiverio y se le escucha cantando Me llaman la Tatuana En el brazo llevo el tatuaje de un secreto Navegando en el universo de mi cuerpo Para hacerme invisible como el pensamiento Me llaman la Tatuana En el brazo llevo el tatuaje de un secreto Navegando en el universo de mi cuerpo Para hacerme invisible como el pensamiento Me llaman la Tatuana En el brazo llevo el tatuaje de un secreto Navegando en el universo de mi cuerpo Para hacerme invisible como el pensamiento</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C'est comme si j'avais un atavisme C'est comme si j'rappais à la va-vite, nique sa mère, moi, j'suis pas un riche J'suis baisé, j'ai envie d'pleurer à chaque pleine lune Perdu, le genre de fou capable de rêver d'futur quand il voit une belle pute Parce que j'suis plus triste encore que l'film Le Titanic Parce que j'suis baisé, tu pourras plus jamais revoir l'enfant, le p'tit Tarik Baisés, c'est la merde ma couille, faudrait qu'j'pète un coup Baisés, N.O.S, check, on reste intestables Interdiction d'toucher à l'un, au risque de perdre la boule, baise la poulaille On reste pareils X X, dogue argentin Kaboul dans nos lifes X car on graille J'suis baisé, et ça depuis qu'on m'a pé-cou l'enfance Ça fait six ans qu'j'rappe, six ans que rage et peine s'foutent ensemble Baisés, à voir mon reuf vieillir triste Putain, passe-moi l'calibre que j'aille remplir la tirelire Le chauffage coûte cher alors dans la chambre il caille Y'a rien mais tu mets quand même les couverts quand t'as l'ventre qui râle Mais c'est parce que j'ai fait des fautes la plupart d'ma vie J'ai joué hors jeu vu qu'j'ai vu qu'y'avait pas d'arbitre Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail X2 You might also like Avant j'voyais un monde parfait maintenant j'veux l'baiser J'fais une croix sur mon rêve de gosse le jour où j'me suis blessé Baisés, parce que j'parle seul comme un malade mental Baisés, la micht' t'attache pas car j'suis pas sentimental Baisés, parce que j'retrouve ma solitude dans l'allée Baisés, parce que j'reste là mais j'voudrais m'en aller Baisés, parce que j'passe des heures à fixer le vide X donc faudra vite faire le vide Le désespoir d'mon père de voir son fils au tribunal Je n'l'ai jamais rendu fier, j'ai la haine, j'vais prendre une arme Baisés, parce que j'ai le souvenir des pe-pe-perquises Baisés, parce qu'on m'a dit petit Ça s'transmet père-fils Baisé par la tristesse, gros, j'ai appris à vivre avec J'la traîne un peu partout sous la capuche qui recouvre ma tête Baisés, parce que j'oublie trop souvent d'prier Dieu Baisés, parce que j'voulais voir loin mais on m'a pris mes yeux Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés putain j'te jure qu'on f'ra l'bail Et c'est parce que je n'savais pas quel X Baisé par ce manque d'amour d'ma mère qui aurait pu m'aider Je suis ce petit du zoo qui vit dans l'passé Récupère ma tétine, contre les chats, gazelle Baisés, faut trouver un toit c't'été, ça sent l'expulsion À cinq dans un une pièce, 'faut pas s'faire d'illusions Baisés, parce que j'croyais qu'ça n'arrivait qu'aux autres Ademo, Son des Halls, ça ça sent l'tiek de zoo ? Ça sent la hess Ça sent la rage Parce que c'est dans les gênes baisés V'la les deux frères prêts à crever dans les airs Percer sous le chant des sirènes C'est pour tous les frères et surs dehors tout l'hiver Merde Ademo, N.O.S Putain d'merde, y'a longtemps qu'y'a eu le S.O.S Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Sur ma tête qu'on f'ra l'bail Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Putain j'te jure qu'on f'ra l'bail</t>
+          <t>C'est comme si j'avais un atavisme C'est comme si j'rappais à la va-vite, nique sa mère, moi, j'suis pas un riche J'suis baisé, j'ai envie d'pleurer à chaque pleine lune Perdu, le genre de fou capable de rêver d'futur quand il voit une belle pute Parce que j'suis plus triste encore que l'film Le Titanic Parce que j'suis baisé, tu pourras plus jamais revoir l'enfant, le p'tit Tarik Baisés, c'est la merde ma couille, faudrait qu'j'pète un coup Baisés, N.O.S, check, on reste intestables Interdiction d'toucher à l'un, au risque de perdre la boule, baise la poulaille On reste pareils X X, dogue argentin Kaboul dans nos lifes X car on graille J'suis baisé, et ça depuis qu'on m'a pé-cou l'enfance Ça fait six ans qu'j'rappe, six ans que rage et peine s'foutent ensemble Baisés, à voir mon reuf vieillir triste Putain, passe-moi l'calibre que j'aille remplir la tirelire Le chauffage coûte cher alors dans la chambre il caille Y'a rien mais tu mets quand même les couverts quand t'as l'ventre qui râle Mais c'est parce que j'ai fait des fautes la plupart d'ma vie J'ai joué hors jeu vu qu'j'ai vu qu'y'avait pas d'arbitre Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail X2 Avant j'voyais un monde parfait maintenant j'veux l'baiser J'fais une croix sur mon rêve de gosse le jour où j'me suis blessé Baisés, parce que j'parle seul comme un malade mental Baisés, la micht' t'attache pas car j'suis pas sentimental Baisés, parce que j'retrouve ma solitude dans l'allée Baisés, parce que j'reste là mais j'voudrais m'en aller Baisés, parce que j'passe des heures à fixer le vide X donc faudra vite faire le vide Le désespoir d'mon père de voir son fils au tribunal Je n'l'ai jamais rendu fier, j'ai la haine, j'vais prendre une arme Baisés, parce que j'ai le souvenir des pe-pe-perquises Baisés, parce qu'on m'a dit petit Ça s'transmet père-fils Baisé par la tristesse, gros, j'ai appris à vivre avec J'la traîne un peu partout sous la capuche qui recouvre ma tête Baisés, parce que j'oublie trop souvent d'prier Dieu Baisés, parce que j'voulais voir loin mais on m'a pris mes yeux Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés putain j'te jure qu'on f'ra l'bail Et c'est parce que je n'savais pas quel X Baisé par ce manque d'amour d'ma mère qui aurait pu m'aider Je suis ce petit du zoo qui vit dans l'passé Récupère ma tétine, contre les chats, gazelle Baisés, faut trouver un toit c't'été, ça sent l'expulsion À cinq dans un une pièce, 'faut pas s'faire d'illusions Baisés, parce que j'croyais qu'ça n'arrivait qu'aux autres Ademo, Son des Halls, ça ça sent l'tiek de zoo ? Ça sent la hess Ça sent la rage Parce que c'est dans les gênes baisés V'la les deux frères prêts à crever dans les airs Percer sous le chant des sirènes C'est pour tous les frères et surs dehors tout l'hiver Merde Ademo, N.O.S Putain d'merde, y'a longtemps qu'y'a eu le S.O.S Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Sur ma tête qu'on f'ra l'bail Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Putain j'te jure qu'on f'ra l'bail</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rentre dans le truc tu peux pas nous test Les jaloux retourneront vite leur veste On va graille le rap on te laissera pas de reste On va te prouver que cest nous les best Dans le crew que des boss qui ont la dalle Tous organisés pour bien vous faire mal Nos rimes tranchantes font leffet dune balle Je te laisse trois secondes pour que tu puisse te faire la malle Yoso te brise le cul cest indécent Ton avenir se jouera sur un dé 100 Le premier qui louvre on le descend Le business on le baise en indé sans Aucune aide de tous leurs contrats malfaisants Les bides de Parpaing sont malaisants Le top du rap on peut y aller sans Aucun effort putain cest aberrant Tes pas légitime comme létat dIsraël Des sons comme les tiens jen ai dix pareil Nosta le bosso te fait disparaître Il va te fumer comme une cigarette Ils savent que dire des skur skur mais leurs lignes sont claquées La Tape la plus attendue de lannée sortira pas ctannée Les rimes pointues de Franck vont venir te schlasser Ca te fait leffet dune balayette ou bien dun chassé You might also like Ma Mixtape cest une nouvelle ère Jveux que cette géné nous vénère Ma fin de carrière cest dans tes rêves Sale rageux je vois que tu t'énerves Pendant ce temps je bois mon thé vert Nos sons sont des missiles nucléaires Le Rap Game on vient lui déclarer la guerre Donc reste calme ou je te baise ta mère Jerval tinvite à rentrer dans le crou Pour lécher nos pieds tas cru quoi sale fou Jai préparé la pelle pour creuser ton trou On va laisser ta vie sans dessus-dessous Concert pendant ton mariage y aura personne à tes noces On va rentrer dans la légende comme Ademo et N.O.S Jsuis un génie incompris comme si jétais le Roi Heenok Un niveau de baisé on met la concu sous médoc Jsuis un mec légendraire so ZZCC Pète un coup ça se voit que tes stressé Jsais que jai actuellement une bombe sur le PC Notre projet enverra les vôtres au fond des WC Moi contre toi sur le terrain 1-0 but Je pourrais même te battre dans un combat de flûte Jai lair dun chien mais en vrai je suis pas une brute Jsuis engagé politiquement contre les fils de putes Tous mes messages créeront dégats collatéraux On déclenche une guerre comme à Sarajevo Ce freestyle je donne pas tout cest que lapéro Jvous ai pas révélé y aura plein de caméos Ils savent que dire des skur skur mais leurs lignes sont claquées La Tape la plus attendue de lannée sortira pas ctannée Les rimes pointues de Franck vont venir te schlasser Ca te fait leffet dune balayette ou bien dun chassé</t>
+          <t>Rentre dans le truc tu peux pas nous test Les jaloux retourneront vite leur veste On va graille le rap on te laissera pas de reste On va te prouver que cest nous les best Dans le crew que des boss qui ont la dalle Tous organisés pour bien vous faire mal Nos rimes tranchantes font leffet dune balle Je te laisse trois secondes pour que tu puisse te faire la malle Yoso te brise le cul cest indécent Ton avenir se jouera sur un dé 100 Le premier qui louvre on le descend Le business on le baise en indé sans Aucune aide de tous leurs contrats malfaisants Les bides de Parpaing sont malaisants Le top du rap on peut y aller sans Aucun effort putain cest aberrant Tes pas légitime comme létat dIsraël Des sons comme les tiens jen ai dix pareil Nosta le bosso te fait disparaître Il va te fumer comme une cigarette Ils savent que dire des skur skur mais leurs lignes sont claquées La Tape la plus attendue de lannée sortira pas ctannée Les rimes pointues de Franck vont venir te schlasser Ca te fait leffet dune balayette ou bien dun chassé Ma Mixtape cest une nouvelle ère Jveux que cette géné nous vénère Ma fin de carrière cest dans tes rêves Sale rageux je vois que tu t'énerves Pendant ce temps je bois mon thé vert Nos sons sont des missiles nucléaires Le Rap Game on vient lui déclarer la guerre Donc reste calme ou je te baise ta mère Jerval tinvite à rentrer dans le crou Pour lécher nos pieds tas cru quoi sale fou Jai préparé la pelle pour creuser ton trou On va laisser ta vie sans dessus-dessous Concert pendant ton mariage y aura personne à tes noces On va rentrer dans la légende comme Ademo et N.O.S Jsuis un génie incompris comme si jétais le Roi Heenok Un niveau de baisé on met la concu sous médoc Jsuis un mec légendraire so ZZCC Pète un coup ça se voit que tes stressé Jsais que jai actuellement une bombe sur le PC Notre projet enverra les vôtres au fond des WC Moi contre toi sur le terrain 1-0 but Je pourrais même te battre dans un combat de flûte Jai lair dun chien mais en vrai je suis pas une brute Jsuis engagé politiquement contre les fils de putes Tous mes messages créeront dégats collatéraux On déclenche une guerre comme à Sarajevo Ce freestyle je donne pas tout cest que lapéro Jvous ai pas révélé y aura plein de caméos Ils savent que dire des skur skur mais leurs lignes sont claquées La Tape la plus attendue de lannée sortira pas ctannée Les rimes pointues de Franck vont venir te schlasser Ca te fait leffet dune balayette ou bien dun chassé</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yeah we mad, yeah we crazy Yeah Big 44s with no safety Been movin' skitz real lately Mad He has moves like he's got rabies Yeah we mad, yeah we crazy Dip him till my wrist has gone lazy ching, ching If it's not bagel then it's tasty Truss You already got dipped by Katie's Yeah we crazy and we mad Eergh I want guns from Baghdad Bow We're gonna drop amms I'm glad If it ain't us then who's bad? Who? It gets bloody like a girl's pad How many dippers had man had? 'Nuff How many cases had gone Jake's add? 'Nuff Get him and his comrade Tell the Kwengface get the mop but he already dropped that juice Brap, brap Bang at his head, hole three blood, touches the wall and the roof Brap, brap I never talk lies on the tracks, tell me when have I lied in the booth Your toss scored the game, but I don't rate cuz that nigga never tell the truth How could I I don't give a toss, ching him up, let him see my pom poms Bare back it no condoms Get his chest like the long johns Pecknarm where I come from I want all I don't want some Nah Push shanks through cotton's Fuck rans I'll serve you bon-bons You might also like See me on the block just chillin' Done a couple backflips then fleeked up my tings that's loads of women Bitches On the backroad doin up lurks, see opps and you that's loads of chinging Ching Bad bitch wants this piece it yard then you know that's loads of inches Ha Put it in her stomach then skeet Skrrt They know that were known for the dip-dip-ching-ching so we can't perform on the streets Fuck Tell bro gone do that boom-boom-corgh-corgh then we go wipe down the heat Bow She's telling me different, no face no case, different name when I dipped it, so she can't chat this instant Like, see this wrist rotating whip whip See this rocks just breaking See the boom-bow with the boom-bow on the corner, have your soul taken Brap, brap 'Cause I got the packs I got the packs 'Cause I got the Bs I got the b 'Cause I'm in the bando, call it disando, writies on me Pull up and swerve it Skrrt Bullets disbursting Bow Like I'm a real banger, you're just a internet virgin Washed Like I'm a real slanger, I hit the trap and burst it Trap I don't fuck with no cracker, I just pull it and burn it Narsty Ching, chang, chong Ching With the conscience on my shoulder in dispute, tryna see what's what See Satan's telling me yes, but the angels telling me stop See I though I was locked in a dream And then I woke up with my hands on a dots Like how you later get like that, like 2-2 shit when I step out Like how you tryna step like that, like 2 shots from the boom-bow Boom-boom-bow hit his head right back Brap Like man I get you set like that Brap Like you know that the sets like that Ching That's neck, eyes, check, head, chest, chest and back Ching Got the light and the dark, no racist I got two tings up on my couch, both of them light, both of them naked Ay Like gyally on me like my rammy on me, see my ex-ting hates it Ay Got my ends like we move packs on the wrist over high, so might go rated Woo Bro came with the woosh, get smoked like kush Bro, I hope you don't miss Brap Bro said there's opps about so let's slide round on a brap brap ting Brap I want packs on packs and cling, tens and twenties, three for pinks Brr I got packs on packs and clings, three for twenty, three for pink P Like, deport man like Theresa May Man get cheffed quick, I ain't on wrestling, this ain't no TNA Ching, ching Pull up, hello, man turn Jello, shook when they see my face Shook Hop out to see them race Pull up, hop out your G get shaved Eergh, eergh If not that then your G get blazed Bow Got bread and burners, no toaster Shoot and score, Ademola Trap fit, I want dough like I'm Homer Truss me Smoke that dope, I ain't sober Stoner, bang my tunes on that sofa Eergh Do road SN1 folder Hold up think you're cold but I'm colder Older, give no fucks you get soaked up Get drenched Niggas know I'm a soldier Oh shit Skududu dududu, I do up road in that motor Skududu dududu Bro bro got dark and light in hard, yeah Bro got rock like a rainbow Rainbow Got green and locks we got Yoda Brown and biggest bum we got closer Peng Biggest back I'm like Yola Peng Gyally on me, what's next? Chick on me like my kitch on me Yeah, Gyally on me want sex Friggy She see the Ps we mash, she ask but gyally won't see one pence Lowe it Hop out the scenes, all ments It's Brexit get out Theresa's ends or hop out your G get drenched Oh shit1</t>
+          <t>Yeah we mad, yeah we crazy Yeah Big 44s with no safety Been movin' skitz real lately Mad He has moves like he's got rabies Yeah we mad, yeah we crazy Dip him till my wrist has gone lazy ching, ching If it's not bagel then it's tasty Truss You already got dipped by Katie's Yeah we crazy and we mad Eergh I want guns from Baghdad Bow We're gonna drop amms I'm glad If it ain't us then who's bad? Who? It gets bloody like a girl's pad How many dippers had man had? 'Nuff How many cases had gone Jake's add? 'Nuff Get him and his comrade Tell the Kwengface get the mop but he already dropped that juice Brap, brap Bang at his head, hole three blood, touches the wall and the roof Brap, brap I never talk lies on the tracks, tell me when have I lied in the booth Your toss scored the game, but I don't rate cuz that nigga never tell the truth How could I I don't give a toss, ching him up, let him see my pom poms Bare back it no condoms Get his chest like the long johns Pecknarm where I come from I want all I don't want some Nah Push shanks through cotton's Fuck rans I'll serve you bon-bons See me on the block just chillin' Done a couple backflips then fleeked up my tings that's loads of women Bitches On the backroad doin up lurks, see opps and you that's loads of chinging Ching Bad bitch wants this piece it yard then you know that's loads of inches Ha Put it in her stomach then skeet Skrrt They know that were known for the dip-dip-ching-ching so we can't perform on the streets Fuck Tell bro gone do that boom-boom-corgh-corgh then we go wipe down the heat Bow She's telling me different, no face no case, different name when I dipped it, so she can't chat this instant Like, see this wrist rotating whip whip See this rocks just breaking See the boom-bow with the boom-bow on the corner, have your soul taken Brap, brap 'Cause I got the packs I got the packs 'Cause I got the Bs I got the b 'Cause I'm in the bando, call it disando, writies on me Pull up and swerve it Skrrt Bullets disbursting Bow Like I'm a real banger, you're just a internet virgin Washed Like I'm a real slanger, I hit the trap and burst it Trap I don't fuck with no cracker, I just pull it and burn it Narsty Ching, chang, chong Ching With the conscience on my shoulder in dispute, tryna see what's what See Satan's telling me yes, but the angels telling me stop See I though I was locked in a dream And then I woke up with my hands on a dots Like how you later get like that, like 2-2 shit when I step out Like how you tryna step like that, like 2 shots from the boom-bow Boom-boom-bow hit his head right back Brap Like man I get you set like that Brap Like you know that the sets like that Ching That's neck, eyes, check, head, chest, chest and back Ching Got the light and the dark, no racist I got two tings up on my couch, both of them light, both of them naked Ay Like gyally on me like my rammy on me, see my ex-ting hates it Ay Got my ends like we move packs on the wrist over high, so might go rated Woo Bro came with the woosh, get smoked like kush Bro, I hope you don't miss Brap Bro said there's opps about so let's slide round on a brap brap ting Brap I want packs on packs and cling, tens and twenties, three for pinks Brr I got packs on packs and clings, three for twenty, three for pink P Like, deport man like Theresa May Man get cheffed quick, I ain't on wrestling, this ain't no TNA Ching, ching Pull up, hello, man turn Jello, shook when they see my face Shook Hop out to see them race Pull up, hop out your G get shaved Eergh, eergh If not that then your G get blazed Bow Got bread and burners, no toaster Shoot and score, Ademola Trap fit, I want dough like I'm Homer Truss me Smoke that dope, I ain't sober Stoner, bang my tunes on that sofa Eergh Do road SN1 folder Hold up think you're cold but I'm colder Older, give no fucks you get soaked up Get drenched Niggas know I'm a soldier Oh shit Skududu dududu, I do up road in that motor Skududu dududu Bro bro got dark and light in hard, yeah Bro got rock like a rainbow Rainbow Got green and locks we got Yoda Brown and biggest bum we got closer Peng Biggest back I'm like Yola Peng Gyally on me, what's next? Chick on me like my kitch on me Yeah, Gyally on me want sex Friggy She see the Ps we mash, she ask but gyally won't see one pence Lowe it Hop out the scenes, all ments It's Brexit get out Theresa's ends or hop out your G get drenched Oh shit1</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hey pédé, j'viens t'péter, rien laisser, la baiser, n'pas rêver, RDV sur Saturne La fierté, lhonnêteté, l'amitié, éviter la pitié, j'vends la mort à la pub Elle est bonne, faut qu'elle paye en nature, elle est pure, la feuille est sans ratures Pas majeure mais sa bouche est mature, le shit bulle, les pouces collent, on m'accule Wesh l'alien écailleux, t'es faya, tête ailleurs, dis-moi c'est quand tu sors le Cayenne Ouais la hyène se lâche, fait la chienne, se cache et plus tard se range comme Ayem Deux talons qui sortent de la gova, des bras maigres qui manient le cobra Igo on sort la langue comme Manny, Love Sosa, oui ma connasse Tiens goûte la teub à Adama, gros j'lance mon taga jusqu'en Alabama Ma punch dans ta gorge, la gorge à ta femme, viens voir la souffrance te dire wallah pas mal Igo j'suis sauvage et j'crie ounga wawa, Ounga ounga, le G sur la poucave Ounga ounga, nigga wawawawa, Ounga ounga, tant qu'on fout pas l'darwa J'sais qu'j'suis pas intégré, j'suis père de mes intérêts, les mains dans la merde alors qu'elles sont faites pour les enterrer J'sais combien tu paierais pour te faire opérer, de tout ce mal qui paraît si fort et qui semble empirer Viens m'voir et j'te dirai le prix d'la fonce-dé-dé-dé Si t'as appris à compter-ter-ter, on sera amis, enchanté-té-té Moi c'est Ade', moi c'est Ade' khey, sors la 'teille, vas-y claque le jour de paye J'veux pas d'ton Facebook, rrht tfou, t'sais que j'ai ma main sur ta fesse C'est limpide, ouais c'est deuss, c'est violent, c'est 9.1,on arrive y a d'la peuf' au volant, y a d'la meuf Elle t'a brisé le cur, fallait briser sa chatte, dire au gosse à sa reus' fais la bise à papa Pah, pah, pah, pah, ma haine qui te quen', j'suis en polo, la rage s'voit aux triceps Blablablabla, tu t'écartes tu te perds en direction du hall les cas soc' te visser L'espoir dans le coffre, la chance dans la cava, pardonnez-moi mais nos sorts sont macabres Dis-moi si j'ai tort ou si j'rappe la tate-pa, obscure est la force, le jedi est khabat 9.4 c'est l'Barça, 9.1 c'est l'Brésil, ouais connard, va l'dire à Kery Sinon à part ça, bien t'es pressé ? Non parce que ça va pas terrible Parce que j'suis seul dans ma tête, c'est la rage qui m'a élevé Que j'ai bicrave dans la tess' et qu'mon caleçon n'est pas en LV Faut du liquide, j'laisse pas couler une larme, pas une, pas une, pas une Fais bellek aux femmes, fais bellek aux putes, fais bellek aux paluches, paluches, paluches T'sais qu'on est vifs donc fais pas l'imbécile, on s'vide pas la vessie un meug dans les WC Oui on veut la belle vie, embarquer sur l'ferry, si t'as ché-tou des litres, vas-y mon gars fais signe Tu décolles, jatterris, bientôt j'côtoie des riches, la poudre dans la narine, César fait l'AVC J'l'ai quen' un mercredi, l'amène pas à la mairie, tu l'appelles ma chérie, j'lui mettais la fessée Viens j'te donne RDV, j'suis d'Paris j'suis pressé, igo j'vois tellement d'chiennes, j'mets une laisse sur l'PC J'mets une laisse sur l'PC, j'prends le game en PV, l'rap est mort, j'le déterre pour le ré-enterrer You might also like Ma drogue dans l'Gabbana Aux arrivants avec mon gars Bana J'sors ma hein-hein de mon Gabbana Ton oseille dans la poche de mon Gabbana J'fais l'amour à la hess' dans l'allée, elle se rhabille, j'me retourne Bismillah à l'aller, bismillah au retour Sers le trou d'balle à la douane, on déballe et taille-dé redwa Dans mes yeux c'est le vide, mon âme est perchée sur le toit J'vois l'espoir dans les yeux des p'tits, mashallah ça sent l'rêve Une sale envie d'décharger, on vit, on s'égare, on crève Ouais pas d'vie sociale, juste une vie d'cas social Le rap dans un local, va foutre ta schneck au sale Tantôt j'tue l'temps tant, tantôt c'est l'temps qui m'kill J'me sens mutant, tant différent dans la file Ouais j'suis bon qu'à compter, un joint d'beuh sur les lèvres Allez fuck ma bonté, et avec ça fuck mes rêves Tout c'que j'fais charbonner, tous les mêmes tous clonés Six du mat' détrôné à r'dessiner c'qu'est gommé Combien de sacs à pâtes ne savent plus sur quel genou danser Sur quel genou danser Ademo, Ladif Peace and lovés kiff Tout pour la mif' Tout pour le bif' Les sentiments ça ralentit, le cur fermé, là j'suis à fond Tu pètes plus haut que ton cul, on t'monte ton cul touche, touche le plafond On tire sur la laisse, t'aboies, on t'détache, tu perds la voix Nous c'est les gentils armés cramés conscients qu'on perd la foi Wesh à quand l'dernier kil' ? Pas demain, pas maintenant J'te fais danser avec l'oseille à chaque billet un nouveau battement J'tacle junkie potentiel, j'en fais ient ient fidèle Des loups qui fixent la Lune, moi être meilleur ami d'elle Chez nous on partage la hess', le cul d'la haute dans la caisse Casse un tour longue est la laisse, mon ange tu connais l'adresse Le temps d'un clignement les gens changent, moi je change en retrouvant la vue D'aucune poche on est dépendants, là j'suis fonce' en retrouvant la fum' Ils ont les photos, plus les souvenirs, on a les souvenirs, plus les photos Ouais on a même plus les potos, c'est chacun son bénéf', son auto Un gros fer sa mère, j'emmène la misère en balade Une balle pour chaque ennemi de mon frère, ça fait click, gala, gala Un putain d'biff, la mif', une ride en moins sur l'front de mon père Un putain d'biff, la mif', un sourire en plus sur l'visage de mon frère Le dos large, le coeur étroit Ta relation sur une pesette, si t'écoules pas, madame est froide Ce soir j'rentre pas à la maison Les portes se ferment et puis ne s'ouvriront qu'à la prochaine saison La misère dans un SLR, rentrer, tourner, sortir célèbre La vie me donne son cul, j'connais pas l'goût d'ses lèvres24</t>
+          <t>Hey pédé, j'viens t'péter, rien laisser, la baiser, n'pas rêver, RDV sur Saturne La fierté, lhonnêteté, l'amitié, éviter la pitié, j'vends la mort à la pub Elle est bonne, faut qu'elle paye en nature, elle est pure, la feuille est sans ratures Pas majeure mais sa bouche est mature, le shit bulle, les pouces collent, on m'accule Wesh l'alien écailleux, t'es faya, tête ailleurs, dis-moi c'est quand tu sors le Cayenne Ouais la hyène se lâche, fait la chienne, se cache et plus tard se range comme Ayem Deux talons qui sortent de la gova, des bras maigres qui manient le cobra Igo on sort la langue comme Manny, Love Sosa, oui ma connasse Tiens goûte la teub à Adama, gros j'lance mon taga jusqu'en Alabama Ma punch dans ta gorge, la gorge à ta femme, viens voir la souffrance te dire wallah pas mal Igo j'suis sauvage et j'crie ounga wawa, Ounga ounga, le G sur la poucave Ounga ounga, nigga wawawawa, Ounga ounga, tant qu'on fout pas l'darwa J'sais qu'j'suis pas intégré, j'suis père de mes intérêts, les mains dans la merde alors qu'elles sont faites pour les enterrer J'sais combien tu paierais pour te faire opérer, de tout ce mal qui paraît si fort et qui semble empirer Viens m'voir et j'te dirai le prix d'la fonce-dé-dé-dé Si t'as appris à compter-ter-ter, on sera amis, enchanté-té-té Moi c'est Ade', moi c'est Ade' khey, sors la 'teille, vas-y claque le jour de paye J'veux pas d'ton Facebook, rrht tfou, t'sais que j'ai ma main sur ta fesse C'est limpide, ouais c'est deuss, c'est violent, c'est 9.1,on arrive y a d'la peuf' au volant, y a d'la meuf Elle t'a brisé le cur, fallait briser sa chatte, dire au gosse à sa reus' fais la bise à papa Pah, pah, pah, pah, ma haine qui te quen', j'suis en polo, la rage s'voit aux triceps Blablablabla, tu t'écartes tu te perds en direction du hall les cas soc' te visser L'espoir dans le coffre, la chance dans la cava, pardonnez-moi mais nos sorts sont macabres Dis-moi si j'ai tort ou si j'rappe la tate-pa, obscure est la force, le jedi est khabat 9.4 c'est l'Barça, 9.1 c'est l'Brésil, ouais connard, va l'dire à Kery Sinon à part ça, bien t'es pressé ? Non parce que ça va pas terrible Parce que j'suis seul dans ma tête, c'est la rage qui m'a élevé Que j'ai bicrave dans la tess' et qu'mon caleçon n'est pas en LV Faut du liquide, j'laisse pas couler une larme, pas une, pas une, pas une Fais bellek aux femmes, fais bellek aux putes, fais bellek aux paluches, paluches, paluches T'sais qu'on est vifs donc fais pas l'imbécile, on s'vide pas la vessie un meug dans les WC Oui on veut la belle vie, embarquer sur l'ferry, si t'as ché-tou des litres, vas-y mon gars fais signe Tu décolles, jatterris, bientôt j'côtoie des riches, la poudre dans la narine, César fait l'AVC J'l'ai quen' un mercredi, l'amène pas à la mairie, tu l'appelles ma chérie, j'lui mettais la fessée Viens j'te donne RDV, j'suis d'Paris j'suis pressé, igo j'vois tellement d'chiennes, j'mets une laisse sur l'PC J'mets une laisse sur l'PC, j'prends le game en PV, l'rap est mort, j'le déterre pour le ré-enterrer Ma drogue dans l'Gabbana Aux arrivants avec mon gars Bana J'sors ma hein-hein de mon Gabbana Ton oseille dans la poche de mon Gabbana J'fais l'amour à la hess' dans l'allée, elle se rhabille, j'me retourne Bismillah à l'aller, bismillah au retour Sers le trou d'balle à la douane, on déballe et taille-dé redwa Dans mes yeux c'est le vide, mon âme est perchée sur le toit J'vois l'espoir dans les yeux des p'tits, mashallah ça sent l'rêve Une sale envie d'décharger, on vit, on s'égare, on crève Ouais pas d'vie sociale, juste une vie d'cas social Le rap dans un local, va foutre ta schneck au sale Tantôt j'tue l'temps tant, tantôt c'est l'temps qui m'kill J'me sens mutant, tant différent dans la file Ouais j'suis bon qu'à compter, un joint d'beuh sur les lèvres Allez fuck ma bonté, et avec ça fuck mes rêves Tout c'que j'fais charbonner, tous les mêmes tous clonés Six du mat' détrôné à r'dessiner c'qu'est gommé Combien de sacs à pâtes ne savent plus sur quel genou danser Sur quel genou danser Ademo, Ladif Peace and lovés kiff Tout pour la mif' Tout pour le bif' Les sentiments ça ralentit, le cur fermé, là j'suis à fond Tu pètes plus haut que ton cul, on t'monte ton cul touche, touche le plafond On tire sur la laisse, t'aboies, on t'détache, tu perds la voix Nous c'est les gentils armés cramés conscients qu'on perd la foi Wesh à quand l'dernier kil' ? Pas demain, pas maintenant J'te fais danser avec l'oseille à chaque billet un nouveau battement J'tacle junkie potentiel, j'en fais ient ient fidèle Des loups qui fixent la Lune, moi être meilleur ami d'elle Chez nous on partage la hess', le cul d'la haute dans la caisse Casse un tour longue est la laisse, mon ange tu connais l'adresse Le temps d'un clignement les gens changent, moi je change en retrouvant la vue D'aucune poche on est dépendants, là j'suis fonce' en retrouvant la fum' Ils ont les photos, plus les souvenirs, on a les souvenirs, plus les photos Ouais on a même plus les potos, c'est chacun son bénéf', son auto Un gros fer sa mère, j'emmène la misère en balade Une balle pour chaque ennemi de mon frère, ça fait click, gala, gala Un putain d'biff, la mif', une ride en moins sur l'front de mon père Un putain d'biff, la mif', un sourire en plus sur l'visage de mon frère Le dos large, le coeur étroit Ta relation sur une pesette, si t'écoules pas, madame est froide Ce soir j'rentre pas à la maison Les portes se ferment et puis ne s'ouvriront qu'à la prochaine saison La misère dans un SLR, rentrer, tourner, sortir célèbre La vie me donne son cul, j'connais pas l'goût d'ses lèvres24</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>J'suis de la jungle, appelle-moi Mowgli, j'ai le seum, j'ai pas le semi J'étais jeune, j'coupais un demi, pas d'ami j'étais comme Rémi Dans l'94 ou bien à Beriz, dans mon zoo, tu connais la patata J'bois la haine dans le carré VIP, viens tester que j'te haga-ga-ga-gar Une légende dans ton tier-quar, on vend, on t'crosse, on t'tire dessus T'es mon ennemi, des barres, j't'incendie, j't'éteins, j'te pisse dessus Les yeux rouges dans la ville, j'khabat, j'khabat tous les junkies, comme un démon, t'as vu Je te schlass et je repars comme Chucky, ce soir avec une brune J'la ken, j'l'oublie et j'pète une blonde, ouais, j'navigue dans la brume Sa mère la pute, j'suis pire qu'une bombe, j'me fais péter, D4 D5, D2, j'connais le bâtiment, au fait, suce-moi, sale chien J'be-tom, bats les illeu-cous d'ton châtiment, t'façon on va prendre perpète C'est ça de ne pas être un mouton, l'week-end, j'fais pas la fête J'parle à Dieu, j'appuie sur le bouton, j'ai envie de me sentir libre Aujourd'hui, j'poserai torse nu, la rage comme en Palestine Et vu qu'les plus forts mangent le plus, j'sors le gala gala Belek connard on t'ca-ca-casse, oungawawawawa Pèse la fonce dans la ca-ca-cave, igo, aucun orgasme À part chez toutes ces 'tasses qui bougent, à l'âge d'jouer à FIFA J'm'en sortais en coupant des douze, jure pas la vie d'ta mère Tu crois m'aimer ? Laisse faire le temps, la vie, un goût amer J'la sucre avec une paire de gants, j'dis à papa pas l'choix T'façon peut-être qu'on nous a maudit, j'viens faire le spectacle, bah quoi ? J'leur chante ma haine, ils applaudissent, igo, j'vise tellement le but Depuis tout petit je suis un campeur, j'attends toujours la passe Et j'souris comme Christophe Lambert, j'répète à ces beurettes Que la street ne fait pas de Thomas, j'ai fait l'million d'barrettes Million de vues, j'connais pas, connard, j'sors pas le cross volé D'où t'as vu que ça faisait du biff ? au bon-char, tu connais J'la vends pour nourrir la mif, hardcore depuis l'départ C'pas le vocodeur qui me rend plus tendre, j'roule un pilon très tard Seul le vent qui balaye ma cendre, bah quoi ? Tu croyais quoi ? Que j'rapperais ? Que j'f'rais Lalala ? J't'encule, j'suis pas gangsta, j'laisse ça à ces lâ-lâ-lâches Appelle-moi AD, khey, made in TZ, gros, j'veux ma paye Igo, wAllah, c'est laid comme une michto qui t'michto la 'teille Igo, sors les chicots, ici, on t'ramène rien à ton bec, hein À la fin, comme Rico, ça s'encule pour avoir le chèque, hein Dans l'frigo, c'est sec, hein, ma3lich le dessert au p'tit frère Tes MC's fakes, hein, tu prieras pour qu'on nous libère Gros, le rap, ça m'plait pas, j'le fais parce que y a p't-être un billet Un charbon comme un autre, tu manges, tu tires et t'es oublié Igo, j't'raconte la hess, en cellule, un stick dans de la Gauloise La crise, j'l'encule à sec comme j't'encule si tu m'dois une ardoise Avoue qu'y a rien à voir, qu'l'avenir, tu veux pas y penser Parce qu'ici, c'est noir et qu'Iblis nous fait tous danser Fait pas l'thug avec nous, wAllah qu'on te visera pas les genoux Pas besoin d'être un milliard, on s'en fout qu'tu vois ou pas les jnouns You might also like Igo, j'sors mon cul du rrain-te J'suis pas un rappeur, sans vocodeur, j'suis claqué Je fume une niaks' avant de sé-po Mmh, liasse de té-co Igo, j'sors mon cul du rrain-te J'suis pas un rappeur, sans vocodeur, j'suis claqué Je fume une niaks' avant de sé-po Mmh, liasse de té-co24</t>
+          <t>J'suis de la jungle, appelle-moi Mowgli, j'ai le seum, j'ai pas le semi J'étais jeune, j'coupais un demi, pas d'ami j'étais comme Rémi Dans l'94 ou bien à Beriz, dans mon zoo, tu connais la patata J'bois la haine dans le carré VIP, viens tester que j'te haga-ga-ga-gar Une légende dans ton tier-quar, on vend, on t'crosse, on t'tire dessus T'es mon ennemi, des barres, j't'incendie, j't'éteins, j'te pisse dessus Les yeux rouges dans la ville, j'khabat, j'khabat tous les junkies, comme un démon, t'as vu Je te schlass et je repars comme Chucky, ce soir avec une brune J'la ken, j'l'oublie et j'pète une blonde, ouais, j'navigue dans la brume Sa mère la pute, j'suis pire qu'une bombe, j'me fais péter, D4 D5, D2, j'connais le bâtiment, au fait, suce-moi, sale chien J'be-tom, bats les illeu-cous d'ton châtiment, t'façon on va prendre perpète C'est ça de ne pas être un mouton, l'week-end, j'fais pas la fête J'parle à Dieu, j'appuie sur le bouton, j'ai envie de me sentir libre Aujourd'hui, j'poserai torse nu, la rage comme en Palestine Et vu qu'les plus forts mangent le plus, j'sors le gala gala Belek connard on t'ca-ca-casse, oungawawawawa Pèse la fonce dans la ca-ca-cave, igo, aucun orgasme À part chez toutes ces 'tasses qui bougent, à l'âge d'jouer à FIFA J'm'en sortais en coupant des douze, jure pas la vie d'ta mère Tu crois m'aimer ? Laisse faire le temps, la vie, un goût amer J'la sucre avec une paire de gants, j'dis à papa pas l'choix T'façon peut-être qu'on nous a maudit, j'viens faire le spectacle, bah quoi ? J'leur chante ma haine, ils applaudissent, igo, j'vise tellement le but Depuis tout petit je suis un campeur, j'attends toujours la passe Et j'souris comme Christophe Lambert, j'répète à ces beurettes Que la street ne fait pas de Thomas, j'ai fait l'million d'barrettes Million de vues, j'connais pas, connard, j'sors pas le cross volé D'où t'as vu que ça faisait du biff ? au bon-char, tu connais J'la vends pour nourrir la mif, hardcore depuis l'départ C'pas le vocodeur qui me rend plus tendre, j'roule un pilon très tard Seul le vent qui balaye ma cendre, bah quoi ? Tu croyais quoi ? Que j'rapperais ? Que j'f'rais Lalala ? J't'encule, j'suis pas gangsta, j'laisse ça à ces lâ-lâ-lâches Appelle-moi AD, khey, made in TZ, gros, j'veux ma paye Igo, wAllah, c'est laid comme une michto qui t'michto la 'teille Igo, sors les chicots, ici, on t'ramène rien à ton bec, hein À la fin, comme Rico, ça s'encule pour avoir le chèque, hein Dans l'frigo, c'est sec, hein, ma3lich le dessert au p'tit frère Tes MC's fakes, hein, tu prieras pour qu'on nous libère Gros, le rap, ça m'plait pas, j'le fais parce que y a p't-être un billet Un charbon comme un autre, tu manges, tu tires et t'es oublié Igo, j't'raconte la hess, en cellule, un stick dans de la Gauloise La crise, j'l'encule à sec comme j't'encule si tu m'dois une ardoise Avoue qu'y a rien à voir, qu'l'avenir, tu veux pas y penser Parce qu'ici, c'est noir et qu'Iblis nous fait tous danser Fait pas l'thug avec nous, wAllah qu'on te visera pas les genoux Pas besoin d'être un milliard, on s'en fout qu'tu vois ou pas les jnouns Igo, j'sors mon cul du rrain-te J'suis pas un rappeur, sans vocodeur, j'suis claqué Je fume une niaks' avant de sé-po Mmh, liasse de té-co Igo, j'sors mon cul du rrain-te J'suis pas un rappeur, sans vocodeur, j'suis claqué Je fume une niaks' avant de sé-po Mmh, liasse de té-co24</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DRMZ, you a fool for this one PNL Que la famille, que la famille Que La Famille, que la famille Ouais igo à l'aller j'ai d'la monnaie, au retour le coffre est chargé comme un poney J'écoule, je ramasse, je claque, j'y retourne, du début à la fin d'l'année abonné Pour les autres on s'enjaille, on survit et on die J'accorde une danse à la rue bien accompagné, j'galette ma solitude après deux 'teilles Pas besoin qu'on m'aime, j'vends du seum tampon M Quelques euros j'prends ma part, j'la laisse pas aux bâtards, ouais, qu'ils crèvent par centaines J'kiffe voir la misère s'élever, j'me suis fatigué à rêver J'me repose sur les faits, ouais, bientôt j'me refais, j'te laisse L, j'prends le V, l'enfer m'est réservé Les putes parlent dans mon V, PNL, Que La Famille QLF, on t'a pas dit, Ademo et Ladif, Gabbana est le deal On t'fait l'taga, on t'fait la beuh, tu viens du 16, on t'fait la cesse Élevé par un bandit, plus tard, j'veux faire comme mon papa, maîtresse Pétasse, allez casse un tour, le cur délogé, ils ont cassé ma tour Encore en retard, j'arriverai pas à l'heure, j'marche pas avec les putes, nique j'attends l'prochain tour Cet été j'me barre, claque deux-trois payes Vis la vie qu'j'aurai pas, marre du hood, j'me réveille Vis la vie qu'j'aurai pas Le bon-char en mode veille De retour j'l'aurai pas, la même heure, la même hess, Quand ça change j'le sais pas You might also like Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis J'veux du L, j'veux du V, j'veux du G, pour saper mes marques dans l'cur Y a qu'quand tu descends en enfer, qu'tu veux m'renvoyer l'ascenseur Celle-là elle est belle, c'est dommage que ce soit une 'tasse Vraiment dommage tu l'as vue sur les Champs en train d'traîner devant Häagen-Dazs Encore un qui chauffe ma mamie, paraît qu'il veut casser son tête Encore une victime sur la liste qui va devoir appeler son père Un destin mais y a hmm, y a des billets donc j'souris Petit j'attendais pas ma sieste, mais juste de casser les dents d'la petite souris Ounga dégaine à Mowgli Ha, Ounga des keufs j'vais courir Ha-Ha Ounga visite à Fleury, libérable cinq heures du mat', pété j'vais vomir La Il m'faut mon soleil, mes tartines et mon Nutella Igo, il m'faut mon oseille et ma gow du Venezuela J'suis là là là là où y a l'seille, ma drogue la base de ma paye Handek, écarte-toi de la teille, y a qu'ma télé qui s'rappelle de la veille J'fume, j'ai des cernes sous les yeux, te plains pas, j'suis né dans la jungle J'ai visser très tôt jusqu'à très tard de 10 heures à 4 heures du matin Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis18</t>
+          <t>DRMZ, you a fool for this one PNL Que la famille, que la famille Que La Famille, que la famille Ouais igo à l'aller j'ai d'la monnaie, au retour le coffre est chargé comme un poney J'écoule, je ramasse, je claque, j'y retourne, du début à la fin d'l'année abonné Pour les autres on s'enjaille, on survit et on die J'accorde une danse à la rue bien accompagné, j'galette ma solitude après deux 'teilles Pas besoin qu'on m'aime, j'vends du seum tampon M Quelques euros j'prends ma part, j'la laisse pas aux bâtards, ouais, qu'ils crèvent par centaines J'kiffe voir la misère s'élever, j'me suis fatigué à rêver J'me repose sur les faits, ouais, bientôt j'me refais, j'te laisse L, j'prends le V, l'enfer m'est réservé Les putes parlent dans mon V, PNL, Que La Famille QLF, on t'a pas dit, Ademo et Ladif, Gabbana est le deal On t'fait l'taga, on t'fait la beuh, tu viens du 16, on t'fait la cesse Élevé par un bandit, plus tard, j'veux faire comme mon papa, maîtresse Pétasse, allez casse un tour, le cur délogé, ils ont cassé ma tour Encore en retard, j'arriverai pas à l'heure, j'marche pas avec les putes, nique j'attends l'prochain tour Cet été j'me barre, claque deux-trois payes Vis la vie qu'j'aurai pas, marre du hood, j'me réveille Vis la vie qu'j'aurai pas Le bon-char en mode veille De retour j'l'aurai pas, la même heure, la même hess, Quand ça change j'le sais pas Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis J'veux du L, j'veux du V, j'veux du G, pour saper mes marques dans l'cur Y a qu'quand tu descends en enfer, qu'tu veux m'renvoyer l'ascenseur Celle-là elle est belle, c'est dommage que ce soit une 'tasse Vraiment dommage tu l'as vue sur les Champs en train d'traîner devant Häagen-Dazs Encore un qui chauffe ma mamie, paraît qu'il veut casser son tête Encore une victime sur la liste qui va devoir appeler son père Un destin mais y a hmm, y a des billets donc j'souris Petit j'attendais pas ma sieste, mais juste de casser les dents d'la petite souris Ounga dégaine à Mowgli Ha, Ounga des keufs j'vais courir Ha-Ha Ounga visite à Fleury, libérable cinq heures du mat', pété j'vais vomir La Il m'faut mon soleil, mes tartines et mon Nutella Igo, il m'faut mon oseille et ma gow du Venezuela J'suis là là là là où y a l'seille, ma drogue la base de ma paye Handek, écarte-toi de la teille, y a qu'ma télé qui s'rappelle de la veille J'fume, j'ai des cernes sous les yeux, te plains pas, j'suis né dans la jungle J'ai visser très tôt jusqu'à très tard de 10 heures à 4 heures du matin Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis18</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Verse It seems like to the rich growth is really exclusive But in reality it should be inclusive Reality stars running for office But niggas do not give a fuck How you a star in reality but youre really out of touch Old folks talkin bout the times have change And nobody is really doing shit bout climate change Worried bout womens bodies when they have a child to raise 7,000 people died today Hook Fuck am i doing Damn im so stupid I hate being human Verse Fuck that shit We aint following the rules Fuck that shit We dont know what else to do Niggas So confused cause we dont have fucking tools To provide and educate The human race wont elevate Niggas talking bout the change but politicians hella fake And i dont know what else to do i think im losing all my faith Cant see the stars in the sky but you can see them in the wraith Yo what the fuck?! Fuck, fuck, fuckYou might also like</t>
+          <t>Verse It seems like to the rich growth is really exclusive But in reality it should be inclusive Reality stars running for office But niggas do not give a fuck How you a star in reality but youre really out of touch Old folks talkin bout the times have change And nobody is really doing shit bout climate change Worried bout womens bodies when they have a child to raise 7,000 people died today Hook Fuck am i doing Damn im so stupid I hate being human Verse Fuck that shit We aint following the rules Fuck that shit We dont know what else to do Niggas So confused cause we dont have fucking tools To provide and educate The human race wont elevate Niggas talking bout the change but politicians hella fake And i dont know what else to do i think im losing all my faith Cant see the stars in the sky but you can see them in the wraith Yo what the fuck?! Fuck, fuck, fuck</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Plus de flow que tous vos rappeurs, précurseur et innovateur J'mets tous mes billets dans son string et toutes mes pièces dans l'horodateur Mon chauffeur s'appelle Oliver car il a une gueule d'enjoliveur Pas besoin de topliner, encore moins de ghostwriter J'rappe avec mon fils c'est mieux que tous ces rappeurs Car dans mon cur oui c'est le seul Aime ton géniteur mais adore ton créateur Les meilleurs partent en premier regarde Nipsey Hussle J'ai toujours représenté le 9.5 et ses banlieues limitrophes Fiston ramène neufs gos qu'on joue au mini-golf 18 troues Les keufs ces chiens nous éblouissent avec leur lampe-torche MC ta musique est bof comme un pianiste avec des gants de boxe Gueks You might also like Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Préviens les gars du crew, ça sent le keuf J'ai les yeux en face des trous comme dans un 69 On a d'la peuf et d'la neige, d'la calotte glaciaire Fais l'effort de mettre string et brassière on veut pas de ta culotte grossière Jai gy-Cer dans les viscères oui j'y vis, j'y visser Comme N.O.S et Ademo On crame d'ici tous tes vices d'épicière Je suis sanguin en un mot t'es sans gain en deux mot Gueks Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde 9.5.3.1.0 9.5.3.1.0 9.5.3.1.0 9.5.3.1.0</t>
+          <t>Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Plus de flow que tous vos rappeurs, précurseur et innovateur J'mets tous mes billets dans son string et toutes mes pièces dans l'horodateur Mon chauffeur s'appelle Oliver car il a une gueule d'enjoliveur Pas besoin de topliner, encore moins de ghostwriter J'rappe avec mon fils c'est mieux que tous ces rappeurs Car dans mon cur oui c'est le seul Aime ton géniteur mais adore ton créateur Les meilleurs partent en premier regarde Nipsey Hussle J'ai toujours représenté le 9.5 et ses banlieues limitrophes Fiston ramène neufs gos qu'on joue au mini-golf 18 troues Les keufs ces chiens nous éblouissent avec leur lampe-torche MC ta musique est bof comme un pianiste avec des gants de boxe Gueks Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Préviens les gars du crew, ça sent le keuf J'ai les yeux en face des trous comme dans un 69 On a d'la peuf et d'la neige, d'la calotte glaciaire Fais l'effort de mettre string et brassière on veut pas de ta culotte grossière Jai gy-Cer dans les viscères oui j'y vis, j'y visser Comme N.O.S et Ademo On crame d'ici tous tes vices d'épicière Je suis sanguin en un mot t'es sans gain en deux mot Gueks Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde 9.5.3.1.0 9.5.3.1.0 9.5.3.1.0 9.5.3.1.0</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ah bah ouais Bersa Frérot, j'suis plus un p'tit, viens pas tester mes démons J'reste fidèle à la mif' comme N.O.S, Ademo Par fierté et principe, gros, même en hess, on dit non Ça revend l'cannabis, deux grammes, dix balles, le pilon J'te laisse imaginer tout c'qu'on ramasse en billets Les grands nous ont vu naître, ils nous ont vu s'allumer Mes-ar automatiques, tu manges des balles au dîner À force de fumer l'shit, le cur finit abîmé hi, hi, hi Ici, c'est sombre, si tu savais, beldi' et gun dans le plastique Ça prend des années au palais, tu connais la suite, ça passe le shit au portique Ici, c'est sombre, si tu savais, beldi' et gun dans le plastique Ça prend des années au palais J'trahis pas la famille, trois heures du mat' au studio, ma gueule, j'suis fayaya Le toit est panoramique, j'vois les étoiles briller, RSQ8, j'suis fayaya Ça réceptionne les colis, midi-minuit dans l'bât', ça claque tout à Pattaya J'suis avec Philip et Moris, j'leur fait goûter l'olive et la frappe de Ketama You might also like Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux Et petit, faut laisser l'mic, tu sais pas pilote, à Fleury, ça prend tes Nike, couteau papillon P'tit frère, v'-esqui la BAC et le camion, aujourd'hui, la berline fait l'prix du pavillon Entre quatre murs, j'attends les parts, tu sais qu'on assume, c'est pas la même pour la plupart J'suis content quand l'bosseur me dit qu'la beuh part, ils oublient le mauvais temps, l'orage, une fois qu'la pluie part J'trahis pas la famille, trois heures du mat' au studio, ma gueule, j'suis fayaya Le toit est panoramique, j'vois les étoiles briller, RSQ8, j'suis fayaya Ça réceptionne les colis, midi-minuit dans l'bât', ça claque tout à Pattaya J'suis avec Philip et Moris, j'leur fait goûter l'olive et la frappe de Ketama Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux J'trahis pas la famille, trois heures du mat' au studio, ma gueule, j'suis fayaya Le toit est panoramique, j'vois les étoiles briller, RSQ8, j'suis fayaya Ça réceptionne les colis, midi-minuit dans l'bât', ça claque tout à Pattaya J'suis avec Philip et Moris, j'leur fait goûter l'olive et la frappe de Ketama</t>
+          <t>Ah bah ouais Bersa Frérot, j'suis plus un p'tit, viens pas tester mes démons J'reste fidèle à la mif' comme N.O.S, Ademo Par fierté et principe, gros, même en hess, on dit non Ça revend l'cannabis, deux grammes, dix balles, le pilon J'te laisse imaginer tout c'qu'on ramasse en billets Les grands nous ont vu naître, ils nous ont vu s'allumer Mes-ar automatiques, tu manges des balles au dîner À force de fumer l'shit, le cur finit abîmé hi, hi, hi Ici, c'est sombre, si tu savais, beldi' et gun dans le plastique Ça prend des années au palais, tu connais la suite, ça passe le shit au portique Ici, c'est sombre, si tu savais, beldi' et gun dans le plastique Ça prend des années au palais J'trahis pas la famille, trois heures du mat' au studio, ma gueule, j'suis fayaya Le toit est panoramique, j'vois les étoiles briller, RSQ8, j'suis fayaya Ça réceptionne les colis, midi-minuit dans l'bât', ça claque tout à Pattaya J'suis avec Philip et Moris, j'leur fait goûter l'olive et la frappe de Ketama Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux Et petit, faut laisser l'mic, tu sais pas pilote, à Fleury, ça prend tes Nike, couteau papillon P'tit frère, v'-esqui la BAC et le camion, aujourd'hui, la berline fait l'prix du pavillon Entre quatre murs, j'attends les parts, tu sais qu'on assume, c'est pas la même pour la plupart J'suis content quand l'bosseur me dit qu'la beuh part, ils oublient le mauvais temps, l'orage, une fois qu'la pluie part J'trahis pas la famille, trois heures du mat' au studio, ma gueule, j'suis fayaya Le toit est panoramique, j'vois les étoiles briller, RSQ8, j'suis fayaya Ça réceptionne les colis, midi-minuit dans l'bât', ça claque tout à Pattaya J'suis avec Philip et Moris, j'leur fait goûter l'olive et la frappe de Ketama Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux J'trahis pas la famille, trois heures du mat' au studio, ma gueule, j'suis fayaya Le toit est panoramique, j'vois les étoiles briller, RSQ8, j'suis fayaya Ça réceptionne les colis, midi-minuit dans l'bât', ça claque tout à Pattaya J'suis avec Philip et Moris, j'leur fait goûter l'olive et la frappe de Ketama</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Baisés dans la vie, ces fils de pute j'leur mets la fessée Aisé ouais l'ami, sors-nous le biff on sait encaisser Demande pas un feat on n'en fait pas, viens pas te baisser Bien sûr c'est Paname alors tous les jours on est pressé Si on remplit le frigo, on remercie le bout de taga Sois le meilleur dans le crime ou à l'école, c'est c'qu'a dit Baba Igo c'est QLF, ceux qui connaissent ont chanté La la La la, lala Ici on sort la niaks et puis on prend un bol d'air J'repense à l'époque d'mon survêt' et ma bulle d'air Mais bon c'est la vie, j'espère qu'en GAV t'as su t'taire Tu veux être ma bitch, t'as un gros boule, c'est super Ouais l'ami j'ai pas de respect, bah pourquoi t'avales ? Trêve de balivernes, c'est Ademo en aval J'sors un gros joint et puis j'le pète dans la savane Ces cons font la queue, mais moi j'bicrave d'la banane T'es pas content ? Reste dans ton camp Nous on charbonne pendant que toi tu tapes du bon temps Je suis à fond d'dans, t'inquiète mon gland Est préparé pour leur foutre depuis longtemps Alors essaye pas de tester, la putain d'ta grand-mère Tu joues un rôle, nous pas du tout, on t'attaque en mer La juge m'a arrosé, j'ai poussé, grandi sans mère J'ai saigné mais les anges m'ont dit Faut pas s'en faire Je suis pas Madame Soleil, l'avenir est dark Igo, les miens ont faim, j'tape pas des barres Téma les crocs, ici on est trop À s'tirer dessus depuis le départ You might also like J'suis dans ta ville, j'suis dans ta rue En bas c'est dead, j'souris à l'envers J'suis dans ta ville, j'suis dans ta rue J'm'en bats les steaks, ma bite va leur plaire Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, y-yeah, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, joue l'thug, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL T'as cru quoi ? Rien n'a changé, la putain d'ta mère T'as cru quoi ? J'taille-dé 200g d'ke-skun, j'fais un salaire Chico me ment pas, j'ramène la peuf, la rétine du ien-ien, toujours sincère Surtout t'inquiète pas, malade sous calmant, dans quelques milliers d'eu' on m'opère J'me sens bizarre comme quand j'goûte à la vie, comme quand j'ai pas d'ennemis dans la ville Moi j'connais pas argent facile, on n'a rien construit depuis l'premier kil' Pas d'amitié grattée même pour un million d'lovés, ces milliers de billets de 20 nous ont même pas sauvés Demain j'arrête pas c'est tendu, j'suis plus Tony la langue pendue Y'a rien à tter-gra en bas On t'oublie pas, on t'remplace Que la famille, que la famille, que la famille, que la famille J'recompte bénéf dans la glace Que la famille, que la famille, que la famille, que la famille 6 heures 0.1 j'tire la chasse J'ai pas l'temps, j'ai du terh et d'la verte, j'ai fait un choix sous beuh c'est la merde Pas d'vacances pour la mif' il s'avère, qu'j'ai la haine, j'prends l'chemin de travers On sort faire du biff quand on a mal, dernier charbon sous cagoule, teint pâle J'espère ne pas partir les mains sales, elle pense pas à moi quand elle avale Tu connais, abonné, tu connais, abonné J'ai vu ces billets froissés consommer les âmes par milliers, briser les coeurs Que la monnaie, monnaie, monnaie, monnaie Parce que cette pute de vie m'a déçu comme j'ai déçu mon créateur J'suis dans ta ville, j'suis dans ta rue En bas c'est dead, j'souris à l'envers J'suis dans ta ville, j'suis dans ta rue J'm'en bats les steaks, ma bite va leur plaire Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, y-yeah, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, joue l'thug, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL J'suis dans ta ville, j'suis dans ta rue J'suis dans ta ville, j'suis dans ta rue32</t>
+          <t>Baisés dans la vie, ces fils de pute j'leur mets la fessée Aisé ouais l'ami, sors-nous le biff on sait encaisser Demande pas un feat on n'en fait pas, viens pas te baisser Bien sûr c'est Paname alors tous les jours on est pressé Si on remplit le frigo, on remercie le bout de taga Sois le meilleur dans le crime ou à l'école, c'est c'qu'a dit Baba Igo c'est QLF, ceux qui connaissent ont chanté La la La la, lala Ici on sort la niaks et puis on prend un bol d'air J'repense à l'époque d'mon survêt' et ma bulle d'air Mais bon c'est la vie, j'espère qu'en GAV t'as su t'taire Tu veux être ma bitch, t'as un gros boule, c'est super Ouais l'ami j'ai pas de respect, bah pourquoi t'avales ? Trêve de balivernes, c'est Ademo en aval J'sors un gros joint et puis j'le pète dans la savane Ces cons font la queue, mais moi j'bicrave d'la banane T'es pas content ? Reste dans ton camp Nous on charbonne pendant que toi tu tapes du bon temps Je suis à fond d'dans, t'inquiète mon gland Est préparé pour leur foutre depuis longtemps Alors essaye pas de tester, la putain d'ta grand-mère Tu joues un rôle, nous pas du tout, on t'attaque en mer La juge m'a arrosé, j'ai poussé, grandi sans mère J'ai saigné mais les anges m'ont dit Faut pas s'en faire Je suis pas Madame Soleil, l'avenir est dark Igo, les miens ont faim, j'tape pas des barres Téma les crocs, ici on est trop À s'tirer dessus depuis le départ J'suis dans ta ville, j'suis dans ta rue En bas c'est dead, j'souris à l'envers J'suis dans ta ville, j'suis dans ta rue J'm'en bats les steaks, ma bite va leur plaire Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, y-yeah, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, joue l'thug, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL T'as cru quoi ? Rien n'a changé, la putain d'ta mère T'as cru quoi ? J'taille-dé 200g d'ke-skun, j'fais un salaire Chico me ment pas, j'ramène la peuf, la rétine du ien-ien, toujours sincère Surtout t'inquiète pas, malade sous calmant, dans quelques milliers d'eu' on m'opère J'me sens bizarre comme quand j'goûte à la vie, comme quand j'ai pas d'ennemis dans la ville Moi j'connais pas argent facile, on n'a rien construit depuis l'premier kil' Pas d'amitié grattée même pour un million d'lovés, ces milliers de billets de 20 nous ont même pas sauvés Demain j'arrête pas c'est tendu, j'suis plus Tony la langue pendue Y'a rien à tter-gra en bas On t'oublie pas, on t'remplace Que la famille, que la famille, que la famille, que la famille J'recompte bénéf dans la glace Que la famille, que la famille, que la famille, que la famille 6 heures 0.1 j'tire la chasse J'ai pas l'temps, j'ai du terh et d'la verte, j'ai fait un choix sous beuh c'est la merde Pas d'vacances pour la mif' il s'avère, qu'j'ai la haine, j'prends l'chemin de travers On sort faire du biff quand on a mal, dernier charbon sous cagoule, teint pâle J'espère ne pas partir les mains sales, elle pense pas à moi quand elle avale Tu connais, abonné, tu connais, abonné J'ai vu ces billets froissés consommer les âmes par milliers, briser les coeurs Que la monnaie, monnaie, monnaie, monnaie Parce que cette pute de vie m'a déçu comme j'ai déçu mon créateur J'suis dans ta ville, j'suis dans ta rue En bas c'est dead, j'souris à l'envers J'suis dans ta ville, j'suis dans ta rue J'm'en bats les steaks, ma bite va leur plaire Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, y-yeah, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, joue l'thug, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL J'suis dans ta ville, j'suis dans ta rue J'suis dans ta ville, j'suis dans ta rue32</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ey Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Nashta për ty është pak shpejt Po unë t'kom ën kry që shumë vjet Këto nuk e ke dit se vonë t'kom kallxu Veç nuk e di a m'ke besu Unë kom me kon gjithmonë këtu për ty S'kom me lon kërkon n'mes me ndërhy Besomë ti nuk e din sa shumë kom ndryshu Veten mo s'pe njoh e ja kom nis me dyshu Lidhjen me ty e kom marrë shumë seriozisht Jom tu ëndrru me ta ngjit unazën n'gisht Krejt kjo storie nuk ka ndodh rastësisht Je ma e mira definitivisht Je ondrra ma e madhe n'jetë për mu Je dëshira që po du me mu plotësu Edhe n'qiell ka mu shkru, edhe kejt kanë me dit Edhe engjujt kanë me t'kallxu që për mu je lind Se... You might also like Ti je ma e mira, ti je ma e mira Ti je ma e mira qe e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira qe e kom pas najher Qkado që ti vendos kom mu munu me kuptu Ti ça don ën jetë kom mu munu me respektu Veç asniher mos lyp me t'harru Se osht diçka shumë e pakapshme për mu E kom provu besomë që osht' shumë problem Kur nuk foli me ty sa shumë ëm dhemb S'e kom lehtë kurrë me besu Që najhere n'jetë pa ty kom me jetu Shumë e pakuptueshme për ty n'këto momente Edhe pse t'kom thonë që je shumë inteligjente Kurgjo mos meno, mos fol po veç hesht Edhe n'ëndrra t'shoh ma shpesh se lajmet flash M'pëlqen kur kesh, m'pëlqen kur je nervoz M'pëlqen qysh fol kur o' puna serioz M'pëlqen që, po besoj që ka mu kry E kom ni ndjenjë që gjithmonë kom me kon me ty Se ey... Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Hey, duna mu kallxu i sinqertë me ty Osht' hera e parë n'jeten tem që Krenaria nuk përfshihet Kështu që dona me t'thonë Që ti je ma e mira, ti je ma e mira Ti je ma e mira, ti je ma e mira Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher</t>
+          <t>Ey Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Nashta për ty është pak shpejt Po unë t'kom ën kry që shumë vjet Këto nuk e ke dit se vonë t'kom kallxu Veç nuk e di a m'ke besu Unë kom me kon gjithmonë këtu për ty S'kom me lon kërkon n'mes me ndërhy Besomë ti nuk e din sa shumë kom ndryshu Veten mo s'pe njoh e ja kom nis me dyshu Lidhjen me ty e kom marrë shumë seriozisht Jom tu ëndrru me ta ngjit unazën n'gisht Krejt kjo storie nuk ka ndodh rastësisht Je ma e mira definitivisht Je ondrra ma e madhe n'jetë për mu Je dëshira që po du me mu plotësu Edhe n'qiell ka mu shkru, edhe kejt kanë me dit Edhe engjujt kanë me t'kallxu që për mu je lind Se... Ti je ma e mira, ti je ma e mira Ti je ma e mira qe e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira qe e kom pas najher Qkado që ti vendos kom mu munu me kuptu Ti ça don ën jetë kom mu munu me respektu Veç asniher mos lyp me t'harru Se osht diçka shumë e pakapshme për mu E kom provu besomë që osht' shumë problem Kur nuk foli me ty sa shumë ëm dhemb S'e kom lehtë kurrë me besu Që najhere n'jetë pa ty kom me jetu Shumë e pakuptueshme për ty n'këto momente Edhe pse t'kom thonë që je shumë inteligjente Kurgjo mos meno, mos fol po veç hesht Edhe n'ëndrra t'shoh ma shpesh se lajmet flash M'pëlqen kur kesh, m'pëlqen kur je nervoz M'pëlqen qysh fol kur o' puna serioz M'pëlqen që, po besoj që ka mu kry E kom ni ndjenjë që gjithmonë kom me kon me ty Se ey... Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Hey, duna mu kallxu i sinqertë me ty Osht' hera e parë n'jeten tem që Krenaria nuk përfshihet Kështu që dona me t'thonë Që ti je ma e mira, ti je ma e mira Ti je ma e mira, ti je ma e mira Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Eh wAllah ouais cest sombre, baise les autres mecs, cest lson vif anti-traîtres Perce les ondes, laisse les cons, eh cest bon cest lson qui pète Ya trop dchacals qui jacassent, nique sa race si ça patine Pousse les pecs dans la cave au placard entre taga et tagatine Dé-détaille la plaquette, ya pas dcla-cla-clashs de tapettes Classe dans la glace, prends ta place, gars tauras notre reflet si ça pète Jma-maquette, maccapare un Pushka pour taper lscore Jrappe tinquiète appelle-moi Tupac nan, two paquets dclopes Tac tac tac et lami tape, pas cap-capable de vivre la merde Attaque-taque-taque, bim ta sur, à chaque, chaque deal on arrive à lheure Mais, mais, mais, mais qui cest qui rappe ? Roue dans lvirage Aux déter qui clamsent, ya des dents qui scassent Eh, harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life Tu vois les diez harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life igo x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jfais un rap de ouf, de barbare, embrasse les balles Le pare-balles ne parle pas le langage des bringuebales Pas le rap des dalleux stars-tars, flow trop speed, dar, dar Tac, tac, jmets mon coup, partage et bye-bye Et bim bim cest les bails, easy sur la cahier Vite vite, jvais les die, si si on va grailler Oui oui baiser ça, ou, cest précis on vit là où Ya wallou, cest lsaloon, tchin tchin pour la maille Vire les MC tous nazes, à ceux qui nous connaissent Ccoup-ci connard on peut pas nous virer comme au collège Décollage, nage dans lcomas, écoute et tais-toi Tu vas tomber dans les pommes si tu veux voir les étoiles La, la, la rime, le swag là ça glisse soit La technique jvois que tapprécies, sois pas bête, jlai fois deux Sois le bienvenu, et ouais ma-ma-man cest ma-ma-magique Ma, ma parole que jmarque ma quête, ma guerre quand jmanie lmi-mi-mic Trop facile, du sang, du sang dans la bassine Tes pas assis, tu vas finir sur le cul comme une catine Rap de foolek, elle mouille, jlargue, déboule et cest lsouk Jai trop tourné, jai trop souffert, jsuis trop saoulé naâlbouk On fait les diez, on est dînn et faut quon dessine notre destinée Yeah, yeah, yeah, jvends plus dshit donc jvais rimer Pour chanter donne du biff, on fait la la la la Sur Terre, déter, au clair de la, la, la, tune x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jai lflow qui fracasse, tabasse, agace, savate le beat En mode saga dsaccages, pagaille, jattrape le titre Ils veulent du dingue, dingue, flow Denzel en Benz, Benz Banga banga, ccoup-ci, ils auront des bang bang Jcrame ma clope dans la street, charcle la drogue sur un pit Motherfuck ton avis, à la mode dans la sique Crache, crache car elle est bonne mon ami Bad boy dans la ville, Maglite pas les spots dans la vitre Nouvelle époque on lagrippe, Paname, Paname suck-moi la bite x4 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachésYou might also like1</t>
+          <t>x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Eh wAllah ouais cest sombre, baise les autres mecs, cest lson vif anti-traîtres Perce les ondes, laisse les cons, eh cest bon cest lson qui pète Ya trop dchacals qui jacassent, nique sa race si ça patine Pousse les pecs dans la cave au placard entre taga et tagatine Dé-détaille la plaquette, ya pas dcla-cla-clashs de tapettes Classe dans la glace, prends ta place, gars tauras notre reflet si ça pète Jma-maquette, maccapare un Pushka pour taper lscore Jrappe tinquiète appelle-moi Tupac nan, two paquets dclopes Tac tac tac et lami tape, pas cap-capable de vivre la merde Attaque-taque-taque, bim ta sur, à chaque, chaque deal on arrive à lheure Mais, mais, mais, mais qui cest qui rappe ? Roue dans lvirage Aux déter qui clamsent, ya des dents qui scassent Eh, harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life Tu vois les diez harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life igo x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jfais un rap de ouf, de barbare, embrasse les balles Le pare-balles ne parle pas le langage des bringuebales Pas le rap des dalleux stars-tars, flow trop speed, dar, dar Tac, tac, jmets mon coup, partage et bye-bye Et bim bim cest les bails, easy sur la cahier Vite vite, jvais les die, si si on va grailler Oui oui baiser ça, ou, cest précis on vit là où Ya wallou, cest lsaloon, tchin tchin pour la maille Vire les MC tous nazes, à ceux qui nous connaissent Ccoup-ci connard on peut pas nous virer comme au collège Décollage, nage dans lcomas, écoute et tais-toi Tu vas tomber dans les pommes si tu veux voir les étoiles La, la, la rime, le swag là ça glisse soit La technique jvois que tapprécies, sois pas bête, jlai fois deux Sois le bienvenu, et ouais ma-ma-man cest ma-ma-magique Ma, ma parole que jmarque ma quête, ma guerre quand jmanie lmi-mi-mic Trop facile, du sang, du sang dans la bassine Tes pas assis, tu vas finir sur le cul comme une catine Rap de foolek, elle mouille, jlargue, déboule et cest lsouk Jai trop tourné, jai trop souffert, jsuis trop saoulé naâlbouk On fait les diez, on est dînn et faut quon dessine notre destinée Yeah, yeah, yeah, jvends plus dshit donc jvais rimer Pour chanter donne du biff, on fait la la la la Sur Terre, déter, au clair de la, la, la, tune x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jai lflow qui fracasse, tabasse, agace, savate le beat En mode saga dsaccages, pagaille, jattrape le titre Ils veulent du dingue, dingue, flow Denzel en Benz, Benz Banga banga, ccoup-ci, ils auront des bang bang Jcrame ma clope dans la street, charcle la drogue sur un pit Motherfuck ton avis, à la mode dans la sique Crache, crache car elle est bonne mon ami Bad boy dans la ville, Maglite pas les spots dans la vitre Nouvelle époque on lagrippe, Paname, Paname suck-moi la bite x4 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés1</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ouais j'suis PNL Ouais ouais bah ouais j'suis PNL Ouais ouais ouais j'suis QLF Ouais ouais j'suis PNL Peace and Lové J'suis QLF Bah ouais j'suis PNL Retrouve-moi avec Ademo tout en haut de la tour Eiffel J'suis à Clignancourt avec Cortex Avec mes kheys chez le kébabier tel un cortège J'bibi ouais j'bibi la bonne be-her J'pécho ta meuf, j'l'a met dans mon pokédex pokédex Même en Gucci Louis Vi', jamais je flex Autotune Autotune Toi t'es gay, moi j'suis juste avec mon gang T'es bizarre apparemment tu kiff les shemale Moi j'suis just là et je chill mec Ouais j'suis PNL Bah ouais j'suis PNLYou might also like</t>
+          <t>Ouais j'suis PNL Ouais ouais bah ouais j'suis PNL Ouais ouais ouais j'suis QLF Ouais ouais j'suis PNL Peace and Lové J'suis QLF Bah ouais j'suis PNL Retrouve-moi avec Ademo tout en haut de la tour Eiffel J'suis à Clignancourt avec Cortex Avec mes kheys chez le kébabier tel un cortège J'bibi ouais j'bibi la bonne be-her J'pécho ta meuf, j'l'a met dans mon pokédex pokédex Même en Gucci Louis Vi', jamais je flex Autotune Autotune Toi t'es gay, moi j'suis juste avec mon gang T'es bizarre apparemment tu kiff les shemale Moi j'suis just là et je chill mec Ouais j'suis PNL Bah ouais j'suis PNL</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ninshi nalechula nalekumbwa life yankwesha shula Gelo-gelo 18 mpeni tumba nama bula Life style ama fresh nokufwala fye iminyula Efyo fyalenkulapo, but still more fye balensula Nolo ninebo bosoli but iya low budget Say alombafye ma chick nanombafye Ninebo kalapashi, Kalapanshi untembule Ninebo Barnabas wamu Bible u- Clean ifyakufwala but nalamba skopo Fyebo having a con-val kamo ngolande zipompo Tatemwa indalama, ni enemy temunonko Find yourself a new munobe, ambisheni ibe kompo Chumbu mushololwa, ngapafita nishi elo bwacha Ale nkonka mumano adabwa no follow back Ngalye chikolowa, ichipempula echikulowa Yaba Chappas kuti waya ama solo ah In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way Teacher alemonamofye ibange But nalebeba njebele chabupe chi Nolo nsaluke fi te ma permanent Then again ndeba pe-na-pe Nomba labour day, chill time lelo tema day Wala mbwena pe? I'm feeling it napapene ngandi mbwafye Nganwafye, ndande fyamupepi nokufwafye Tenny, Mortana apa ine imisango ni skafe Ukwisusho butala table fulu ne mi kate Nchili ndelwa bwangu nokuchelwa Nchili ndenwa ifyabulwo kususwa suswa Nkabeula nolo nkafwa ndeesha Nkabeula nolo nka- Elyo ififine naba zii Echo bambwena ngo mu G Akaiche na silent Gelo nimbama ngo l- Balembwenamo ubu yo Naba mwenemo ubuyo Nomba person atishani? Teti twakane filyo? In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-wayYou might also like</t>
+          <t>Ninshi nalechula nalekumbwa life yankwesha shula Gelo-gelo 18 mpeni tumba nama bula Life style ama fresh nokufwala fye iminyula Efyo fyalenkulapo, but still more fye balensula Nolo ninebo bosoli but iya low budget Say alombafye ma chick nanombafye Ninebo kalapashi, Kalapanshi untembule Ninebo Barnabas wamu Bible u- Clean ifyakufwala but nalamba skopo Fyebo having a con-val kamo ngolande zipompo Tatemwa indalama, ni enemy temunonko Find yourself a new munobe, ambisheni ibe kompo Chumbu mushololwa, ngapafita nishi elo bwacha Ale nkonka mumano adabwa no follow back Ngalye chikolowa, ichipempula echikulowa Yaba Chappas kuti waya ama solo ah In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way Teacher alemonamofye ibange But nalebeba njebele chabupe chi Nolo nsaluke fi te ma permanent Then again ndeba pe-na-pe Nomba labour day, chill time lelo tema day Wala mbwena pe? I'm feeling it napapene ngandi mbwafye Nganwafye, ndande fyamupepi nokufwafye Tenny, Mortana apa ine imisango ni skafe Ukwisusho butala table fulu ne mi kate Nchili ndelwa bwangu nokuchelwa Nchili ndenwa ifyabulwo kususwa suswa Nkabeula nolo nkafwa ndeesha Nkabeula nolo nka- Elyo ififine naba zii Echo bambwena ngo mu G Akaiche na silent Gelo nimbama ngo l- Balembwenamo ubu yo Naba mwenemo ubuyo Nomba person atishani? Teti twakane filyo? In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Don't hurt me again Uh, don't hurt me again Don't hurt me again Don't hurt me again Don't hurt me again, baby Nah What up, love? I need a hug cause drugs be takin' over Shorty couldn't take it no more, she went loca No stranger to a rum and soda I met the ho while she was slumped over Shit, I've been good, though, I can't complain I could probably cop a half a plane Drinking juice just like Jack LaLanne now I'mma strike it rich any day now Uh, you know I gotta get a plate now Virtuoso on a keyboard I rep the eastern seaboard, jeez Lord Please leave the Z3 keys before you leave Don't sneeze on my shit, cause for shiz I'mma flip ya Pedicured foot slide in the slipper Tryna do the remix with Pitbull Tell the pilot land at Schiphol Play the violin with dimples Life's ironic and it's simple Smoke good, fuck, eat, drink Drive nice car, wear all green mink First time I whacked off was a Penthouse Roses in the bath at the penthouse Billy Joel at the garden Should I get a skybox or an '89 IROC? It's always poppin' at the IHOP Choke a pussy with his tie knot, it's my block Chuck Knoblauch, spicy coconut curry from the Thai spot I'm in a hurry, dumb jewelry The verdict read from a hung jury The doctor said that I was hung early Skull curly, Larry, and Moe, I'll marry a ho Only if the bitch look like Mari' Monroe Twisted off the Jenkem, watching Iron Chef The secret ingredient was lion's neck Royal Blue-Cyber Tech I ride solo like a fighter jet Hurt me again You might also like No, don't hurt me again Please, don't hurt me again No, don't hurt me again There's no hit records on a demo There's no hit records on a demo No, don't hurt me again There's no hit records on a demo There's no hit records on a demo Catch me hoppin' out the limo Catch me hoppin' out the limo Smoke good, fuck, eat, drink Drive nice car, wear all green mink Smoke good, fuck, eat, drink Drive nice car, wear all green mink Uh, what you payin'? Wear all green mink Smoke good, fuck, eat, drink Drive nice car, wear all green mink Smoke good, fuck, eat, drink Drive nice car, wear all green mink What you think?39</t>
+          <t>Don't hurt me again Uh, don't hurt me again Don't hurt me again Don't hurt me again Don't hurt me again, baby Nah What up, love? I need a hug cause drugs be takin' over Shorty couldn't take it no more, she went loca No stranger to a rum and soda I met the ho while she was slumped over Shit, I've been good, though, I can't complain I could probably cop a half a plane Drinking juice just like Jack LaLanne now I'mma strike it rich any day now Uh, you know I gotta get a plate now Virtuoso on a keyboard I rep the eastern seaboard, jeez Lord Please leave the Z3 keys before you leave Don't sneeze on my shit, cause for shiz I'mma flip ya Pedicured foot slide in the slipper Tryna do the remix with Pitbull Tell the pilot land at Schiphol Play the violin with dimples Life's ironic and it's simple Smoke good, fuck, eat, drink Drive nice car, wear all green mink First time I whacked off was a Penthouse Roses in the bath at the penthouse Billy Joel at the garden Should I get a skybox or an '89 IROC? It's always poppin' at the IHOP Choke a pussy with his tie knot, it's my block Chuck Knoblauch, spicy coconut curry from the Thai spot I'm in a hurry, dumb jewelry The verdict read from a hung jury The doctor said that I was hung early Skull curly, Larry, and Moe, I'll marry a ho Only if the bitch look like Mari' Monroe Twisted off the Jenkem, watching Iron Chef The secret ingredient was lion's neck Royal Blue-Cyber Tech I ride solo like a fighter jet Hurt me again No, don't hurt me again Please, don't hurt me again No, don't hurt me again There's no hit records on a demo There's no hit records on a demo No, don't hurt me again There's no hit records on a demo There's no hit records on a demo Catch me hoppin' out the limo Catch me hoppin' out the limo Smoke good, fuck, eat, drink Drive nice car, wear all green mink Smoke good, fuck, eat, drink Drive nice car, wear all green mink Uh, what you payin'? Wear all green mink Smoke good, fuck, eat, drink Drive nice car, wear all green mink Smoke good, fuck, eat, drink Drive nice car, wear all green mink What you think?39</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>INS Your Highness Wu Tang, 7L Eso, let's Go Bustin' ain't nothin' to us I spit game like a sportscaster Cousin is crushed, you're lovin' the rush Beast mode, animal house, straight off the intro Sit back and watch a cool G rap, this is a demo Menace with the methods, no sweeteners diabetic Phys Ed raps, stretchin' 'em out, like calisthenics Set it Get wounded in the war like MEDIC! No anesthetic, thus no medals for your effort Fuckin' with this lyrical X pill, the vet's still a threat He'll never defect, still I'm Destiny's Child They Calling My Name Come through, raw with the flame Whoever want it get more of the same Hold 'em scoreless, call it a game All day, Sir I, get fly like I'm boarding a plane Hard lines like the rhymes carved in stone As far as the throne, see me anywhere I'm not far from home You might also like No matter how far we roam We never that-that-that-th-that Far from home And we be right ba-ba-ba-ba-back Guard your zone We legendary like Guru and Preme Don't you see what I mean? No matter how far we roam We never that-that-that-th-that Far from home And we be right ba-ba-ba-ba-back Guard your zone We legendary like Marley and Kane Don't you see what I'm sayin'? It's time to rumble with rebels We rough and tumble and ready We come up humble and steady But flows are Money like Eddie We blow your brains to spaghetti Your lyric book to confetti I'm fresher You flow like the male version of Keha You're watchin' history happen like Jackie Robinson battin' Or archeologists mappin' a path to fossils Imagine Apache choppers attackin' You rappers softer than satin The beat is knockin', it's crackin' Yo, this is Boston and Staten While y'all be talkin' like a felon Like you hoppin' out of cell and While y'all be straight pussy like the opposite of Ellen I'm Macaveli rebellin' I'm Martinelli, I'm clearer I'm Fonzarelli in leather You Nas in Belly, an actor You unintelligent rapper You barely relevant factor The hell that I'm propelling at ya You can't develop or capture Your skeleton will get fractured I'll break every single bone Esoteric's international but never far from home</t>
+          <t>INS Your Highness Wu Tang, 7L Eso, let's Go Bustin' ain't nothin' to us I spit game like a sportscaster Cousin is crushed, you're lovin' the rush Beast mode, animal house, straight off the intro Sit back and watch a cool G rap, this is a demo Menace with the methods, no sweeteners diabetic Phys Ed raps, stretchin' 'em out, like calisthenics Set it Get wounded in the war like MEDIC! No anesthetic, thus no medals for your effort Fuckin' with this lyrical X pill, the vet's still a threat He'll never defect, still I'm Destiny's Child They Calling My Name Come through, raw with the flame Whoever want it get more of the same Hold 'em scoreless, call it a game All day, Sir I, get fly like I'm boarding a plane Hard lines like the rhymes carved in stone As far as the throne, see me anywhere I'm not far from home No matter how far we roam We never that-that-that-th-that Far from home And we be right ba-ba-ba-ba-back Guard your zone We legendary like Guru and Preme Don't you see what I mean? No matter how far we roam We never that-that-that-th-that Far from home And we be right ba-ba-ba-ba-back Guard your zone We legendary like Marley and Kane Don't you see what I'm sayin'? It's time to rumble with rebels We rough and tumble and ready We come up humble and steady But flows are Money like Eddie We blow your brains to spaghetti Your lyric book to confetti I'm fresher You flow like the male version of Keha You're watchin' history happen like Jackie Robinson battin' Or archeologists mappin' a path to fossils Imagine Apache choppers attackin' You rappers softer than satin The beat is knockin', it's crackin' Yo, this is Boston and Staten While y'all be talkin' like a felon Like you hoppin' out of cell and While y'all be straight pussy like the opposite of Ellen I'm Macaveli rebellin' I'm Martinelli, I'm clearer I'm Fonzarelli in leather You Nas in Belly, an actor You unintelligent rapper You barely relevant factor The hell that I'm propelling at ya You can't develop or capture Your skeleton will get fractured I'll break every single bone Esoteric's international but never far from home</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHAPTER TWO A VISIT FROM ALBERTINE PROSPECT OF RICH BRIDES FOR CERTAIN FRIENDS OF SAINT-LOUP THE WIT OF THE GUERMANTES, AS DISPLAYED BEFORE THE PRINCESSE DE PARME A STRANGE VISIT TO M. DE CHARLUS HIS CHARACTER PUZZLES ME MORE AND MORE THE RED SHOES OF THE DUCHESS Albeit it was simply a Sunday in autumn, I had been born again, life lay intact before me, for that morning, after a succession of mild days, there had been a cold mist which had not cleared until nearly midday. A change in the weather is sufficient to create the world and oneself anew. Formerly, when the wind howled in my chimney, I would listen to the blows which it struck on the iron trap with as keen an emotion as if, like the famous bow-taps with which the C Minor Symphony opens, they had been the irresistible appeal of a mysterious destiny. Every change in the aspect of nature offers us a similar transformation by adapting our desires so as to harmonise with the new form of things. The mist, from the moment of my awakening, had made of me, instead of the centrifugal being which one is on fine days, a self-centred man, longing for the chimney corner and the nuptial couch, a shivering Adam in quest of a sedentary Eve, in this different world Between the soft grey tint of a morning landscape and the taste of a cup of chocolate I tried to account for all the originality of the physical, intellectual and moral life which I had taken with me, about a year earlier, to Doncières, and which, blazoned with the oblong form of a bare hillside always present even when it was invisible formed in me a series of pleasures entirely distinct from all others, incommunicable to my friends, in the sense that the impressions, richly interwoven with one another, which gave them their orchestral accompaniment were a great deal more characteristic of them, to my subconscious mind, than any facts that I might have related. From this point of view the new world in which the mist of this morning had immersed me was a world already known to me which only made it more real and forgotten for some time which restored all its novelty. And I was able to look at several of the pictures of misty landscapes which my memory had acquired, notably a series of Mornings at Doncières, including my first morning there in barracks and another, in a neighbouring country house, where I had gone with Saint-Loup to spend the night in which from the windows, whose curtains I had drawn back at daybreak, before getting into bed again, in the first a trooper, in the second on the thin margin of a pond and a wood all the rest of which was engulfed in the uniform and liquid softness of the mist a coachman busy polishing a strap had appeared to me like those rare figures, scarcely visible to the eye obliged to adapt itself to the mysterious vagueness of their half-lights, which emerge from an obliterated fresco It was from my bed that I was looking this afternoon at these pictorial memories, for I had gone back to bed to wait until the hour came at which, taking advantage of the absence of my parents, who had gone for a few days to Combray, I proposed to get up and go to a little play which was being given that evening in Mme. de Villeparisiss drawing-room. Had they been at home I should perhaps not have ventured to go out my mother in the delicacy of her respect for my grandmothers memory, wished the tokens of regret that were paid to it to be freely and sincerely given she would not have forbidden me this outing, she would have disapproved of it. From Combray, on the other hand, had I consulted her wishes, she would not have replied in a melancholy Do just as you like you are old enough now to know what is right or wrong, but, reproaching herself for having left me alone in Paris, and measuring my grief by her own, would have wished for it distractions of a sort which she would have refused to herself, and which she persuaded herself that my grandmother, solicitous above all things for my health and the preservation of my nervous balance, would have advised me to take That morning the furnace of the new steam heater had for the first time been lighted. Its disagreeable sound an intermittent hiccough had no part whatsoever in my memories of Doncières. But its prolonged encounter, in me this afternoon, with them was to give it so lasting an affinity with them that whenever, after succeeding more or less in forgetting it, I heard the central heater hiccough again it reminded me of them There was no one else in the house but Françoise. The grey light, falling like a fine rain on the earth, wove without ceasing a transparent web through which the Sunday holiday-makers appeared in a silvery sheen. I had flung to the foot of my bed the Figaro, for which I had been sending out religiously every morning, ever since I had sent in an article which it had not yet printed despite the absence of the sun, the intensity of the daylight was an indication that we were still only half-way through the afternoon. The tulle window-curtains, vaporous and friable as they would not have been on a fine day, had that same blend of beauty and fragility that dragon flies wings have, and Venetian glass. It depressed me all the more that I should be spending this Sunday by myself because I had sent a note that morning to Mlle, de Stermaria. Robert de Saint-Loup, whom his mother had at length succeeded in parting after painful and abortive attempts from his mistress, and who immediately afterwards had been sent to Morocco in the hope of his there forgetting one whom he had already for some little time ceased to love, had sent me a line, which had reached me the day before, announcing his arrival, presently, in France for a short spell of leave. As he would only be passing through Paris where his family were doubtless afraid of seeing him renew relations with Rachel, he informed me, to shew me that he had been thinking of me, that he had met at Tangier Mile, or rather Mme. for she had divorced her husband three months after their marriage de Stermaria. And Robert, remembering what I had told him at Balbec, had asked her, on my behalf, to arrange a meeting. She would be delighted to dine with me, she had told him, on one of the evenings which, before her return to Brittany, she would be spending in Paris. He warned me to lose no time in writing to Mme. de Stermaria, for she would certainly have arrived before I got his letter. This had corne as no surprise to me, even although I had had no news of him since, at the time of my grandmothers last illness, he had accused me of perfidy and treachery. It had then been quite easy to see what must have happened. Rachel, who liked to provoke his jealousy she had other reasons also for wishing me harm had persuaded her lover that I had made a dastardly attempt to have relations with her in his absence. It is probable that he continued to believe in the truth of this allegation, but he had ceased to be in love with her, which meant that its truth or falsehood had become a matter of complete indifference to him, and our friendship alone remained. When, on meeting him again, I attempted to speak to him about his attack on me his sole answer was a cordial and friendly smile, which gave him the air of begging my pardon then he turned the conversation to something else. All this was not to say that he did not, a little later, see Rachel occasionally when he was in Paris. The fellow-creatures who have played a leading part in ones life very rarely disappear from it suddenly with any finality. They return to take their old place in it at odd moments so much so as to lead people to believe in a renewal of old love before leaving it for ever. Saint-Loups breach with Rachel had very soon become less painful to him, thanks to the soothing pleasure that was given him by her incessant demands for money. Jealousy, which prolongs the course of love, is not capable of containing many more ingredients than are the other forms of imagination. If one takes with one, when one starts on a journey, three or four images which incidentally one is sure to lose on the way such as the lilies and anemones heaped on the Ponte Vecchio, or the Persian church shrouded in mist, ones trunk is already pretty full. When one parts from a mistress one would be just as glad, until one has begun to forget her, that she should not become the property of three or four potential protectors whom one has in ones minds eye, of whom, that is to say, one is jealous all those whom one does not so picture count for nothing. Now frequent demands for money from a cast-off mistress no more give one a complete idea of her life than charts shewing a high temperature would of her illness. But the latter would at any rate be an indication that she was ill, and the former furnish a presumption, vague enough, it is true, that the forsaken one, or forsaker whichever she be cannot have found anything very remarkable in the way of rich protectors. And so each demand is welcomed with the joy which a lull produces in the jealous ones sufferings, while he responds to it at once by dispatching money, for naturally he does not like to think of her being in want of anything, except lovers one of the three lovers he has in his minds eye, until time has enabled him to regain his composure and he can learn without the slightest emotion the name of his successor. Sometimes Rachel came in so late at night that she could ask her former lovers permission to lie down beside him until the morning. This was a great comfort to Robert, for it refreshed his memory of how they had, after all, lived in intimacy together merely to see that even if he took the greater part of the bed for himself it did not in the least interfere with her sleep. He realised that she was more comfortable, lying close to his body, than she would have been elsewhere, that she felt herself, by his side even in an hotel to be in a bedroom known of old, in which the force of habit prevails and one sleeps better. He felt that his shoulders, his limbs, all of him were for her, even when he was unduly restless, from sleeplessness or from having to get up in the night things so entirely usual that they could not disturb her, and that the perception of them added still further to her sense of repose To revert to where we were, I had been all the more disquieted by Roberts letter in that I could read between the lines what he had not ventured to write more explicitly. You can most certainly ask her to dine in a private room, he told me. She is a charming young person, a delightful nature you will get on splendidly with her, and I am sure you will have a capital evening together. As my parents were returning at the end of the week on Saturday or Sunday, and as after that I should be forced to dine every evening at home, I had written at once to Mme. de Stermaria, proposing any evening that might suit her, up to Friday. A message was brought back that I should hear from her in writing the same evening, about eight oclock. The time would have passed quickly enough if I had had, during the afternoon that separated me from her letter, the help of a visit from anyone else. When the hours pass wrapped in conversation one ceases to count, or indeed to notice them, they vanish, and suddenly it is a long way beyond the point at which it escaped you that there reappears the nimble truant time. But if we are alone, our preoccupation, by bringing before us the still distant and incessantly awaited moment with the frequency and uniformity of a ticking pendulum, divides, or rather multiplies the hours by all the minutes which, had we been with friends, we should not have counted. And confronted, by the incessant return of my desire, with the ardent pleasure which I was going to taste not for some days though, alas! in Mme. de Stermarias company, this afternoon, which I should have to spend by myself, seemed to me very empty and very melancholy Every now and then I heard the sound of the lift coming up, but it was followed by a second sound, not that for which I was hoping, namely the sound of its coming to a halt at our landing, but another very different sound which the lift made in continuing its progress to the floors above and which, because it so often meant the desertion of my floor when I was expecting a visitor, remained for me at other times, even when I had no wish to see anyone, a sound lugubrious in itself, in which there echoed, as it were, a sentence of solitary confinement. Weary, resigned, busy for several hours still over its immemorial task, the grey day stitched its shimmering needlework of light and shade, and it saddened me to think that I was to be left alone with a thing that knew me no more than would a seamstress who, installed by the window so as to see better while she finished her work, paid no attention to the person present with her in the room. Suddenly, although I had heard no bell, Françoise opened the door to let in Albertine, who came forward smiling, silent, plump, containing in the fulness of her body, made ready so that I might continue living them, come in search of me, the days we had spent together at that Balbec to which I had never since returned. No doubt, whenever we see again a person with whom our relations however trivial they may have been are altered, it is like a juxtaposition of two different periods. For this, we do not require that a former mistress should come to call upon us as a friend, all that we need is the visit to Paris of a person whom we had known in the daily round of some particular kind of life, and that this life should have ceased for us, were it no more than a week ago. On each of Albertines smiling, questioning, blushing features I could read the questions And Madame de Villeparisis? And the dancing-master? And the pastry-cook? When she sat down her back seemed to be saying Gracious! Theres no cliff here you dont mind if I sit down beside you, all the same, as I used to do at Balbec? She was like an enchantress handing me a mirror that reflected time. In this she was like all the people whom we seldom see now but with whom at one time we lived on more intimate terms. With Al-bertine, however, there was something more than this. Certainly, even at Balbec, in our daily encounters, I had always been surprised when she came in sight, so variable was her appearance from day to day. But now it was difficult to recognise her. Cleared of the pink vapour that used to bathe them, her features had emerged like those of a statue. She had another face, or rather she had a face at last her body too had grown. There remained scarcely anything now of the shell in which she had been enclosed and on the surface of which, at Balbec, her future outline had been barely visible This time, Albertine had returned to Paris earlier than usual. As a rule she came only in the spring, which meant that, already disturbed for some weeks past by the storms that were beating down the first flowers, I did not distinguish, in the elements of the pleasure that I felt, the return of Albertine from that of the fine weather. It was enough that I should be told that she was in Paris and that she had called at the house, for me to see her again like a rose flowering by the sea. I cannot say whether it was the desire for Balbec or for herself that overcame me at such moments possibly my desire for her was itself a lazy, cowardly, and incomplete method of possessing Balbec, as if to possess a thing materially, to take up ones abode in a town, were equivalent to possessing it spiritually. Besides, even materially, when she was no longer posed by my imagination before a horizon of sea, but sitting still in a room with me, she seemed to me often a very poor specimen of a rose, so poor, indeed, that I would gladly have shut my eyes in order not to observe this or that blemish of its petals, and to imagine instead that I was inhaling the salt air on the beach I must say it at this point, albeit I was not then aware of what was to happen only later on. Certainly, it is more reasonable to devote ones life to women than to postage stamps or old snuff-boxes, even to pictures or statues. Only the example of other collectors should be a warning to us to make changes, to have not one woman only but several. Those charming suggestions in which a girl abounds of a sea-beach, of the braided hair of a statue in church, of an old print, of everything that makes one see and admire in her, whenever she appears, a charming composition, those suggestions are not very stable. Live with a woman altogether and you will soon cease to see any of the things that made you love her though I must add that these two sundered elements can be reunited by jealousy. If, after a long period of life in common, I was to end by seeing nothing more in Albertine than an ordinary woman, an intrigue between her and some person whom she had loved at Balbec would still suffice, perhaps, to reincorporate in her, to amalgamate the beach and the unrolling of the tide. Only, as these secondary suggestions no longer captivate our eyes, it is to the heart that they are perceptible and fatal. We cannot, under so dangerous a form, regard the repetition of the miracle as a thing to be desired. But I am anticipating the course of years. And here I need only state my regret that I did not have the sense simply to have kept my collection of women as people keep their collections of old quizzing glasses, never so complete, in their cabinet, that there is not room always for another and rarer still Departing from the customary order of her holiday movements, this year she had come straight from Balbec, where furthermore she had not stayed nearly so late as usual. It was a long time since I had seen her, and as I did not know even by name the people with whom she was in the habit of mixing in Paris, I could form no impression of her during the periods in which she abstained from coming to see me. These lasted often for quite a time. Then, one fine day, in would burst Albertine whose rosy apparitions and silent visits left me little if any better informed as to what she might have been doing in an interval which remained plunged in that darkness of her hidden life which my eyes felt little anxiety to pierce This time, however, certain signs seemed to indicate that some new experience must have entered into that life. And yet, perhaps, all that one was entitled to conclude from them was that girls change very rapidly at the age which Albertine had now reached. For instance, her intellect was now more in evidence, and on my reminding her of the day when she had insisted with so much ardour on the superiority of her idea of making Sophocles write My dear Racine, she was the first to laugh, quite wholeheartedly, at her own stupidity. Andrée was quite right it was stupid of me, she admitted. Sophocles ought to have begun Sir. I replied that the Sir, and Dear Sir, of Andrée were no less comic than her own My dear Racine, or Gisèles My dear Friend, but that after all the really stupid people were the Professors who still went on making Sophocles write letters to Racine. Here, however, Albertine was unable to follow me. She could not see in what the silliness consisted her intelligence was dawning, but had not fully developed. There were other more attractive novelties in her I felt, in this same pretty girl who had just sat down by my bed, something that was different and in those lines which, in ones eyes and other features, express ones general attitude towards life, a change of front, a partial conversion, as though there had now been shattered those resistances against which I had hurled my strength in vain at Balbec, one evening, now remote in time, on which we formed a couple symmetrical with but the converse of our present arrangement, since then it had lieen she who was lying down and I who sat by her bedside. Wishing and not venturing to make certain whether now she would let herself be kissed, every time that she rose to go I asked her to stay beside me a little longer. This was a concession not very easy to obtain, for albeit she had nothing to do otherwise she would have rushed from the house she was a person methodical in her habits and moreover not very gracious towards me, scarcely to be at ease in my company, and yet each time, after looking at her watch, she sat down again at my request until finally she had spent several hours with me without my having asked her for anything the things I was saying to her followed logically those that I had said during the hours before, and bore no relation to what I was thinking about, what I desired from her, remained indefinitely parallel. There is nothing like desire for preventing the thing one says from bearing any resemblance to what one has in ones mind. Time presses, and yet it seems as though we were seeking to gain time by speaking of subjects absolutely alien to that by which we are obsessed. We then arrange that the sentence which we should like to utter shall be accompanied, or rather preluded, by a gesture, supposing that is to say that we have not to give ourselves the pleasure of an immediate demonstration and to gratify the curiosity we feel as to the reactions which will follow it, without a word said, without even a By your leave, already made this gesture. Certainly I was not in the least in love with Albertine child of the mists outside, she could merely content the imaginative desire which the change of weather had awakened in me and which was midway between the desires that are satisfied by the arts of the kitchen and of monumental sculpture respectively, for it made me dream simultaneously of mingling with my flesh a substance different and warm, and of attaching at some point to my outstretched body a body divergent, as the body of Eve barely holds by the feet to the side of Adam, to whose body hers is almost perpendicular, in those romanesque bas-reliefs on the church at Balbec which represent in so noble and so reposeful a fashion, still almost like a classical frieze, the Creation of Woman God in them is everywhere followed, as by two ministers, by two little angels in whom the visitor recognises like winged, swarming summer creatures which winter has surprised and spared cupids from Herculaneum, still surviving well into the thirteenth century, and winging their last slow flight, weary but never failing in the grace that might be expected of them, over the whole front of the porch You might also like As for this pleasure which by accomplishing my desire would have set me free from these meditations and which I should have sought quite as readily from any other pretty woman, had I been asked upon what in the course of this endless flow of talk throughout which I took care to keep from Albertine the one thing that was in my mind was based my optimistic hypothesis with regard to her possible complaisances, I should perhaps have answered that this hypothesis was due while the forgotten outlines of Albertines voice retraced for me the contour of her personality to the apparition of certain words which did not form part of her vocabulary, or at least not in the acceptation which she now gave them. Thus she said to roe that Elstir was stupid, and, on my protesting You dont understand, she replied, smiling, I mean that it was stupid of him to behave like that of course I know hes quite a distinguished Person, really. Similarly, wishing to say of the Fontainebleau golf club that it was smart, she declared They are quite a selection. Speaking of a duel that I had fought, she said of my seconds What very choice seconds, and looking at my face confessed that she would like to see me wear a moustache. She even went so far and my chance appeared then enormous as to announce, in a phrase of which I would have sworn that she was ignorant a year earlier, that since she had last seen Gisèle there had passed a certain lapse of time. This was not to say that Albertine had not already possessed, when I was at Balbec, a quite adequate assortment of those expressions which reveal at once that ones people are in easy circumstances, and which, year by year, a mother passes on to her daughter just as she bestows on her, gradually, as the girl grows up, on important occasions, her own jewels. It was evident that Albertine had ceased to be a little girl when one day, to express her thanks for a present which a strange lady had given her, she had said I am quite confused. Mme. Bontemps could not help looking across at her husband whose comment was Gad, shes old for fourteen. The approach of nubility had been more strongly marked still when Albertine, speaking of another girl whose tone was bad, said One cant even tell whether shes pretty, she paints her face a foot thick. Finally, though still a schoolgirl, she already displayed the manner of a grown woman of her upbringing and station when she said, of some one whose face twitched I cant look at him, because it makes me want to do the same, or, if some one else were being imitated The absurd thing about it is that when you imitate her voice you look exactly like her. All these are drawn from the social treasury. But it did not seem to me possible that Albertines natural environment could have supplied her with distinguished, used in the sense in which my father would say of a colleague whom he had not actually met, but whose intellectual attainments he had heard praised It appears hes quite a distinguished person. Selection, even when used of a golf club, seemed to me as incompatible with the Simonet family as it would be if preceded by the adjective Natural, with a text published centuries before the researches of Darwin. Lapse of time struck me as being of better augury still. Finally there appeared the evidence of certain upheavals, the nature of which was unknown to me, but sufficient to justify me in all my hopes when Albertine announced, with the satisfaction of a person whose opinion is by no means to be despised To my mind, that is the best thing that could possibly happen. I regard it as the best solution, the stylish way out. This was so novel, so manifestly an alluvial deposit giving one to suspect such capricious wanderings over soil hitherto unknown to her, that on hearing the words to my mind I drew Albertine towards me, and at I regard made her sit on the side of my bed No doubt it does happen that women of moderate culture, on marrying well-read men, receive such expressions as part of their paraphernalia. And shortly after the metamorphosis which follows the wedding night, when they begin to pay calls, and talk shyly to the friends of their girlhood, one notices with surprise that they have turned into matrons if, in deciding that some person is intelligent, they sound both ls in the word but that is precisely the sign of a change of state, and I could see a difference when I thought of the vocabulary of the Albertine I had known of old a vocabulary in which the most daring flights were to say of any unusual person Hes a type, or, if you suggested a game of cards to her Ive no money to lose, or again, if any of her friends were to reproach her, in terms which she felt to be undeserved That really is magnificent! an expression dictated in such cases by a sort of middle-class tradition almost as old as the Magnificat itself, and one which a girl slightly out of temper and confident that she is in the right employs, as the saying is, quite naturally, that is to say because she has learned the words from her mother, just as she has learned to say her prayers or to greet a friend. All these expressions Mme. Bontemps had imparted to her at the same time as her hatred of the Jews and her feeling for black, which was always suitable and becoming, indeed without any formal instruction, but as the piping of the parent goldfinches serves as a model for that of the young ones, recently hatched, so that they in turn grow into true goldfinches also. But when all was said, selection appeared to me of alien growth and I regard encouraging. Albertine was no longer the same which meant that she would not perhaps act, would not react in the same way Not only did I no longer feel any love for her, but I had no longer to consider, as I should have had at Balbec, the risk of shattering in her an affection for myself, which no longer existed. There could be no doubt that she had long since become quite indifferent to me. I was well aware that to her I was in no sense a member now of the little band into which I had at one time so anxiously sought and had then been so happy to have secured admission. Besides, as she had no longer even, as in Balbec days, an air of frank good nature, I felt no serious scruples still I believe that what made me finally decide was another philological discovery. As, continuing to add fresh links to the external chain of talk behind which I hid my intimate desire, I spoke, having Albertine secure now on the corner of my bed, of one of the girls of the little band, one smaller than the rest, whom, nevertheless, I had thought quite pretty, Yes, answered Albertine, she reminds me of a little mousmé. There had been nothing in the world to shew, when I first knew Albertine, that she had ever heard the wordmousmé. It was probable that, had things followed their normal course, she would never have learned it, and for my part I should have seen no cause for regret in that, for there is no more horrible word in the language. The mere sound of it makes ones teeth ache as they do when one has put too large a spoonful of ice in ones mouth. But coming from Albertine, as she sat there looking so pretty, not even mousmé could strike me as unpleasant. On the contrary, I felt it to be a revelation, if not of an outward initiation, at any rate of an inward evolution. Unfortunately it was now time for me to bid her good-bye if I wished her to reach home in time for her dinner, and myself to be out of bed and dressed in time for my own. It was Françoise who was getting it ready she did not like having to keep it back, and must already have found it an infringement of one of the articles of her code that Albertine, in the absence of my parents, should be paying me so prolonged a visit, and one which was going to make everything late. But before mousmé all these arguments fell to the ground and I hastened to say Just fancy Im not in the least ticklish you can go on tickling me for an hour on end and I wont even feel it. Really? I assure you. She understood, doubtless, that this was the awkward expression of a desire on my part, for, like a person who offers to give you an introduction for which you have not ventured to ask him, though what you have said has shewn him that it would be of great service to you Would you like me to try? she inquired, with womanly meekness Just as you like, but you would be more comfortable if you lay down properly on the bed. Like that? No get right on top. Youre sure Im not too heavy? As she uttered these words the door opened and Françoise, carrying a lamp, came in. Albertine had just time to fling herself back upon her chair. Perhaps Françoise had chosen this moment to confound us, having been listening at the door or even peeping through the keyhole. But there was no need to suppose anything of the sort she might have scorned to assure herself, by the use of her eyes, of what her instinct must plainly enough have detected, for by dint of living with me and my parents her fears, her prudence, her alertness, her cunning had ended by giving her that instinctive and almost prophetic knowledge of us all that the mariner has of the sea, the quarry of the hunter, and, of the malady, if not the physician, often at any rate the patient. The amount of knowledge that she managed to acquire would have astounded a stranger, and with as good reason as does the advanced state of certain arts and sciences among the ancients, seeing that there was practically no source of information open to them. Her sources were no larger. They were a few casual remarks forming barely a twentieth part of our conversation at dinner, caught on the wing by the butler and inaccurately transmitted to the kitchen. Again, her mistakes were due, like theirs, like the fables in which Plato believed, rather to a false conception of the world and to preconceived ideas than to the insufficiency of the materials at her disposal. Only the other day, has it not been possible for the most important discoveries as to the habits of insects to be made by a scientist who had access to no laboratory and used no instruments of any sort? But if the drawbacks arising from her menial position had </t>
+          <t>CHAPTER TWO A VISIT FROM ALBERTINE PROSPECT OF RICH BRIDES FOR CERTAIN FRIENDS OF SAINT-LOUP THE WIT OF THE GUERMANTES, AS DISPLAYED BEFORE THE PRINCESSE DE PARME A STRANGE VISIT TO M. DE CHARLUS HIS CHARACTER PUZZLES ME MORE AND MORE THE RED SHOES OF THE DUCHESS Albeit it was simply a Sunday in autumn, I had been born again, life lay intact before me, for that morning, after a succession of mild days, there had been a cold mist which had not cleared until nearly midday. A change in the weather is sufficient to create the world and oneself anew. Formerly, when the wind howled in my chimney, I would listen to the blows which it struck on the iron trap with as keen an emotion as if, like the famous bow-taps with which the C Minor Symphony opens, they had been the irresistible appeal of a mysterious destiny. Every change in the aspect of nature offers us a similar transformation by adapting our desires so as to harmonise with the new form of things. The mist, from the moment of my awakening, had made of me, instead of the centrifugal being which one is on fine days, a self-centred man, longing for the chimney corner and the nuptial couch, a shivering Adam in quest of a sedentary Eve, in this different world Between the soft grey tint of a morning landscape and the taste of a cup of chocolate I tried to account for all the originality of the physical, intellectual and moral life which I had taken with me, about a year earlier, to Doncières, and which, blazoned with the oblong form of a bare hillside always present even when it was invisible formed in me a series of pleasures entirely distinct from all others, incommunicable to my friends, in the sense that the impressions, richly interwoven with one another, which gave them their orchestral accompaniment were a great deal more characteristic of them, to my subconscious mind, than any facts that I might have related. From this point of view the new world in which the mist of this morning had immersed me was a world already known to me which only made it more real and forgotten for some time which restored all its novelty. And I was able to look at several of the pictures of misty landscapes which my memory had acquired, notably a series of Mornings at Doncières, including my first morning there in barracks and another, in a neighbouring country house, where I had gone with Saint-Loup to spend the night in which from the windows, whose curtains I had drawn back at daybreak, before getting into bed again, in the first a trooper, in the second on the thin margin of a pond and a wood all the rest of which was engulfed in the uniform and liquid softness of the mist a coachman busy polishing a strap had appeared to me like those rare figures, scarcely visible to the eye obliged to adapt itself to the mysterious vagueness of their half-lights, which emerge from an obliterated fresco It was from my bed that I was looking this afternoon at these pictorial memories, for I had gone back to bed to wait until the hour came at which, taking advantage of the absence of my parents, who had gone for a few days to Combray, I proposed to get up and go to a little play which was being given that evening in Mme. de Villeparisiss drawing-room. Had they been at home I should perhaps not have ventured to go out my mother in the delicacy of her respect for my grandmothers memory, wished the tokens of regret that were paid to it to be freely and sincerely given she would not have forbidden me this outing, she would have disapproved of it. From Combray, on the other hand, had I consulted her wishes, she would not have replied in a melancholy Do just as you like you are old enough now to know what is right or wrong, but, reproaching herself for having left me alone in Paris, and measuring my grief by her own, would have wished for it distractions of a sort which she would have refused to herself, and which she persuaded herself that my grandmother, solicitous above all things for my health and the preservation of my nervous balance, would have advised me to take That morning the furnace of the new steam heater had for the first time been lighted. Its disagreeable sound an intermittent hiccough had no part whatsoever in my memories of Doncières. But its prolonged encounter, in me this afternoon, with them was to give it so lasting an affinity with them that whenever, after succeeding more or less in forgetting it, I heard the central heater hiccough again it reminded me of them There was no one else in the house but Françoise. The grey light, falling like a fine rain on the earth, wove without ceasing a transparent web through which the Sunday holiday-makers appeared in a silvery sheen. I had flung to the foot of my bed the Figaro, for which I had been sending out religiously every morning, ever since I had sent in an article which it had not yet printed despite the absence of the sun, the intensity of the daylight was an indication that we were still only half-way through the afternoon. The tulle window-curtains, vaporous and friable as they would not have been on a fine day, had that same blend of beauty and fragility that dragon flies wings have, and Venetian glass. It depressed me all the more that I should be spending this Sunday by myself because I had sent a note that morning to Mlle, de Stermaria. Robert de Saint-Loup, whom his mother had at length succeeded in parting after painful and abortive attempts from his mistress, and who immediately afterwards had been sent to Morocco in the hope of his there forgetting one whom he had already for some little time ceased to love, had sent me a line, which had reached me the day before, announcing his arrival, presently, in France for a short spell of leave. As he would only be passing through Paris where his family were doubtless afraid of seeing him renew relations with Rachel, he informed me, to shew me that he had been thinking of me, that he had met at Tangier Mile, or rather Mme. for she had divorced her husband three months after their marriage de Stermaria. And Robert, remembering what I had told him at Balbec, had asked her, on my behalf, to arrange a meeting. She would be delighted to dine with me, she had told him, on one of the evenings which, before her return to Brittany, she would be spending in Paris. He warned me to lose no time in writing to Mme. de Stermaria, for she would certainly have arrived before I got his letter. This had corne as no surprise to me, even although I had had no news of him since, at the time of my grandmothers last illness, he had accused me of perfidy and treachery. It had then been quite easy to see what must have happened. Rachel, who liked to provoke his jealousy she had other reasons also for wishing me harm had persuaded her lover that I had made a dastardly attempt to have relations with her in his absence. It is probable that he continued to believe in the truth of this allegation, but he had ceased to be in love with her, which meant that its truth or falsehood had become a matter of complete indifference to him, and our friendship alone remained. When, on meeting him again, I attempted to speak to him about his attack on me his sole answer was a cordial and friendly smile, which gave him the air of begging my pardon then he turned the conversation to something else. All this was not to say that he did not, a little later, see Rachel occasionally when he was in Paris. The fellow-creatures who have played a leading part in ones life very rarely disappear from it suddenly with any finality. They return to take their old place in it at odd moments so much so as to lead people to believe in a renewal of old love before leaving it for ever. Saint-Loups breach with Rachel had very soon become less painful to him, thanks to the soothing pleasure that was given him by her incessant demands for money. Jealousy, which prolongs the course of love, is not capable of containing many more ingredients than are the other forms of imagination. If one takes with one, when one starts on a journey, three or four images which incidentally one is sure to lose on the way such as the lilies and anemones heaped on the Ponte Vecchio, or the Persian church shrouded in mist, ones trunk is already pretty full. When one parts from a mistress one would be just as glad, until one has begun to forget her, that she should not become the property of three or four potential protectors whom one has in ones minds eye, of whom, that is to say, one is jealous all those whom one does not so picture count for nothing. Now frequent demands for money from a cast-off mistress no more give one a complete idea of her life than charts shewing a high temperature would of her illness. But the latter would at any rate be an indication that she was ill, and the former furnish a presumption, vague enough, it is true, that the forsaken one, or forsaker whichever she be cannot have found anything very remarkable in the way of rich protectors. And so each demand is welcomed with the joy which a lull produces in the jealous ones sufferings, while he responds to it at once by dispatching money, for naturally he does not like to think of her being in want of anything, except lovers one of the three lovers he has in his minds eye, until time has enabled him to regain his composure and he can learn without the slightest emotion the name of his successor. Sometimes Rachel came in so late at night that she could ask her former lovers permission to lie down beside him until the morning. This was a great comfort to Robert, for it refreshed his memory of how they had, after all, lived in intimacy together merely to see that even if he took the greater part of the bed for himself it did not in the least interfere with her sleep. He realised that she was more comfortable, lying close to his body, than she would have been elsewhere, that she felt herself, by his side even in an hotel to be in a bedroom known of old, in which the force of habit prevails and one sleeps better. He felt that his shoulders, his limbs, all of him were for her, even when he was unduly restless, from sleeplessness or from having to get up in the night things so entirely usual that they could not disturb her, and that the perception of them added still further to her sense of repose To revert to where we were, I had been all the more disquieted by Roberts letter in that I could read between the lines what he had not ventured to write more explicitly. You can most certainly ask her to dine in a private room, he told me. She is a charming young person, a delightful nature you will get on splendidly with her, and I am sure you will have a capital evening together. As my parents were returning at the end of the week on Saturday or Sunday, and as after that I should be forced to dine every evening at home, I had written at once to Mme. de Stermaria, proposing any evening that might suit her, up to Friday. A message was brought back that I should hear from her in writing the same evening, about eight oclock. The time would have passed quickly enough if I had had, during the afternoon that separated me from her letter, the help of a visit from anyone else. When the hours pass wrapped in conversation one ceases to count, or indeed to notice them, they vanish, and suddenly it is a long way beyond the point at which it escaped you that there reappears the nimble truant time. But if we are alone, our preoccupation, by bringing before us the still distant and incessantly awaited moment with the frequency and uniformity of a ticking pendulum, divides, or rather multiplies the hours by all the minutes which, had we been with friends, we should not have counted. And confronted, by the incessant return of my desire, with the ardent pleasure which I was going to taste not for some days though, alas! in Mme. de Stermarias company, this afternoon, which I should have to spend by myself, seemed to me very empty and very melancholy Every now and then I heard the sound of the lift coming up, but it was followed by a second sound, not that for which I was hoping, namely the sound of its coming to a halt at our landing, but another very different sound which the lift made in continuing its progress to the floors above and which, because it so often meant the desertion of my floor when I was expecting a visitor, remained for me at other times, even when I had no wish to see anyone, a sound lugubrious in itself, in which there echoed, as it were, a sentence of solitary confinement. Weary, resigned, busy for several hours still over its immemorial task, the grey day stitched its shimmering needlework of light and shade, and it saddened me to think that I was to be left alone with a thing that knew me no more than would a seamstress who, installed by the window so as to see better while she finished her work, paid no attention to the person present with her in the room. Suddenly, although I had heard no bell, Françoise opened the door to let in Albertine, who came forward smiling, silent, plump, containing in the fulness of her body, made ready so that I might continue living them, come in search of me, the days we had spent together at that Balbec to which I had never since returned. No doubt, whenever we see again a person with whom our relations however trivial they may have been are altered, it is like a juxtaposition of two different periods. For this, we do not require that a former mistress should come to call upon us as a friend, all that we need is the visit to Paris of a person whom we had known in the daily round of some particular kind of life, and that this life should have ceased for us, were it no more than a week ago. On each of Albertines smiling, questioning, blushing features I could read the questions And Madame de Villeparisis? And the dancing-master? And the pastry-cook? When she sat down her back seemed to be saying Gracious! Theres no cliff here you dont mind if I sit down beside you, all the same, as I used to do at Balbec? She was like an enchantress handing me a mirror that reflected time. In this she was like all the people whom we seldom see now but with whom at one time we lived on more intimate terms. With Al-bertine, however, there was something more than this. Certainly, even at Balbec, in our daily encounters, I had always been surprised when she came in sight, so variable was her appearance from day to day. But now it was difficult to recognise her. Cleared of the pink vapour that used to bathe them, her features had emerged like those of a statue. She had another face, or rather she had a face at last her body too had grown. There remained scarcely anything now of the shell in which she had been enclosed and on the surface of which, at Balbec, her future outline had been barely visible This time, Albertine had returned to Paris earlier than usual. As a rule she came only in the spring, which meant that, already disturbed for some weeks past by the storms that were beating down the first flowers, I did not distinguish, in the elements of the pleasure that I felt, the return of Albertine from that of the fine weather. It was enough that I should be told that she was in Paris and that she had called at the house, for me to see her again like a rose flowering by the sea. I cannot say whether it was the desire for Balbec or for herself that overcame me at such moments possibly my desire for her was itself a lazy, cowardly, and incomplete method of possessing Balbec, as if to possess a thing materially, to take up ones abode in a town, were equivalent to possessing it spiritually. Besides, even materially, when she was no longer posed by my imagination before a horizon of sea, but sitting still in a room with me, she seemed to me often a very poor specimen of a rose, so poor, indeed, that I would gladly have shut my eyes in order not to observe this or that blemish of its petals, and to imagine instead that I was inhaling the salt air on the beach I must say it at this point, albeit I was not then aware of what was to happen only later on. Certainly, it is more reasonable to devote ones life to women than to postage stamps or old snuff-boxes, even to pictures or statues. Only the example of other collectors should be a warning to us to make changes, to have not one woman only but several. Those charming suggestions in which a girl abounds of a sea-beach, of the braided hair of a statue in church, of an old print, of everything that makes one see and admire in her, whenever she appears, a charming composition, those suggestions are not very stable. Live with a woman altogether and you will soon cease to see any of the things that made you love her though I must add that these two sundered elements can be reunited by jealousy. If, after a long period of life in common, I was to end by seeing nothing more in Albertine than an ordinary woman, an intrigue between her and some person whom she had loved at Balbec would still suffice, perhaps, to reincorporate in her, to amalgamate the beach and the unrolling of the tide. Only, as these secondary suggestions no longer captivate our eyes, it is to the heart that they are perceptible and fatal. We cannot, under so dangerous a form, regard the repetition of the miracle as a thing to be desired. But I am anticipating the course of years. And here I need only state my regret that I did not have the sense simply to have kept my collection of women as people keep their collections of old quizzing glasses, never so complete, in their cabinet, that there is not room always for another and rarer still Departing from the customary order of her holiday movements, this year she had come straight from Balbec, where furthermore she had not stayed nearly so late as usual. It was a long time since I had seen her, and as I did not know even by name the people with whom she was in the habit of mixing in Paris, I could form no impression of her during the periods in which she abstained from coming to see me. These lasted often for quite a time. Then, one fine day, in would burst Albertine whose rosy apparitions and silent visits left me little if any better informed as to what she might have been doing in an interval which remained plunged in that darkness of her hidden life which my eyes felt little anxiety to pierce This time, however, certain signs seemed to indicate that some new experience must have entered into that life. And yet, perhaps, all that one was entitled to conclude from them was that girls change very rapidly at the age which Albertine had now reached. For instance, her intellect was now more in evidence, and on my reminding her of the day when she had insisted with so much ardour on the superiority of her idea of making Sophocles write My dear Racine, she was the first to laugh, quite wholeheartedly, at her own stupidity. Andrée was quite right it was stupid of me, she admitted. Sophocles ought to have begun Sir. I replied that the Sir, and Dear Sir, of Andrée were no less comic than her own My dear Racine, or Gisèles My dear Friend, but that after all the really stupid people were the Professors who still went on making Sophocles write letters to Racine. Here, however, Albertine was unable to follow me. She could not see in what the silliness consisted her intelligence was dawning, but had not fully developed. There were other more attractive novelties in her I felt, in this same pretty girl who had just sat down by my bed, something that was different and in those lines which, in ones eyes and other features, express ones general attitude towards life, a change of front, a partial conversion, as though there had now been shattered those resistances against which I had hurled my strength in vain at Balbec, one evening, now remote in time, on which we formed a couple symmetrical with but the converse of our present arrangement, since then it had lieen she who was lying down and I who sat by her bedside. Wishing and not venturing to make certain whether now she would let herself be kissed, every time that she rose to go I asked her to stay beside me a little longer. This was a concession not very easy to obtain, for albeit she had nothing to do otherwise she would have rushed from the house she was a person methodical in her habits and moreover not very gracious towards me, scarcely to be at ease in my company, and yet each time, after looking at her watch, she sat down again at my request until finally she had spent several hours with me without my having asked her for anything the things I was saying to her followed logically those that I had said during the hours before, and bore no relation to what I was thinking about, what I desired from her, remained indefinitely parallel. There is nothing like desire for preventing the thing one says from bearing any resemblance to what one has in ones mind. Time presses, and yet it seems as though we were seeking to gain time by speaking of subjects absolutely alien to that by which we are obsessed. We then arrange that the sentence which we should like to utter shall be accompanied, or rather preluded, by a gesture, supposing that is to say that we have not to give ourselves the pleasure of an immediate demonstration and to gratify the curiosity we feel as to the reactions which will follow it, without a word said, without even a By your leave, already made this gesture. Certainly I was not in the least in love with Albertine child of the mists outside, she could merely content the imaginative desire which the change of weather had awakened in me and which was midway between the desires that are satisfied by the arts of the kitchen and of monumental sculpture respectively, for it made me dream simultaneously of mingling with my flesh a substance different and warm, and of attaching at some point to my outstretched body a body divergent, as the body of Eve barely holds by the feet to the side of Adam, to whose body hers is almost perpendicular, in those romanesque bas-reliefs on the church at Balbec which represent in so noble and so reposeful a fashion, still almost like a classical frieze, the Creation of Woman God in them is everywhere followed, as by two ministers, by two little angels in whom the visitor recognises like winged, swarming summer creatures which winter has surprised and spared cupids from Herculaneum, still surviving well into the thirteenth century, and winging their last slow flight, weary but never failing in the grace that might be expected of them, over the whole front of the porch As for this pleasure which by accomplishing my desire would have set me free from these meditations and which I should have sought quite as readily from any other pretty woman, had I been asked upon what in the course of this endless flow of talk throughout which I took care to keep from Albertine the one thing that was in my mind was based my optimistic hypothesis with regard to her possible complaisances, I should perhaps have answered that this hypothesis was due while the forgotten outlines of Albertines voice retraced for me the contour of her personality to the apparition of certain words which did not form part of her vocabulary, or at least not in the acceptation which she now gave them. Thus she said to roe that Elstir was stupid, and, on my protesting You dont understand, she replied, smiling, I mean that it was stupid of him to behave like that of course I know hes quite a distinguished Person, really. Similarly, wishing to say of the Fontainebleau golf club that it was smart, she declared They are quite a selection. Speaking of a duel that I had fought, she said of my seconds What very choice seconds, and looking at my face confessed that she would like to see me wear a moustache. She even went so far and my chance appeared then enormous as to announce, in a phrase of which I would have sworn that she was ignorant a year earlier, that since she had last seen Gisèle there had passed a certain lapse of time. This was not to say that Albertine had not already possessed, when I was at Balbec, a quite adequate assortment of those expressions which reveal at once that ones people are in easy circumstances, and which, year by year, a mother passes on to her daughter just as she bestows on her, gradually, as the girl grows up, on important occasions, her own jewels. It was evident that Albertine had ceased to be a little girl when one day, to express her thanks for a present which a strange lady had given her, she had said I am quite confused. Mme. Bontemps could not help looking across at her husband whose comment was Gad, shes old for fourteen. The approach of nubility had been more strongly marked still when Albertine, speaking of another girl whose tone was bad, said One cant even tell whether shes pretty, she paints her face a foot thick. Finally, though still a schoolgirl, she already displayed the manner of a grown woman of her upbringing and station when she said, of some one whose face twitched I cant look at him, because it makes me want to do the same, or, if some one else were being imitated The absurd thing about it is that when you imitate her voice you look exactly like her. All these are drawn from the social treasury. But it did not seem to me possible that Albertines natural environment could have supplied her with distinguished, used in the sense in which my father would say of a colleague whom he had not actually met, but whose intellectual attainments he had heard praised It appears hes quite a distinguished person. Selection, even when used of a golf club, seemed to me as incompatible with the Simonet family as it would be if preceded by the adjective Natural, with a text published centuries before the researches of Darwin. Lapse of time struck me as being of better augury still. Finally there appeared the evidence of certain upheavals, the nature of which was unknown to me, but sufficient to justify me in all my hopes when Albertine announced, with the satisfaction of a person whose opinion is by no means to be despised To my mind, that is the best thing that could possibly happen. I regard it as the best solution, the stylish way out. This was so novel, so manifestly an alluvial deposit giving one to suspect such capricious wanderings over soil hitherto unknown to her, that on hearing the words to my mind I drew Albertine towards me, and at I regard made her sit on the side of my bed No doubt it does happen that women of moderate culture, on marrying well-read men, receive such expressions as part of their paraphernalia. And shortly after the metamorphosis which follows the wedding night, when they begin to pay calls, and talk shyly to the friends of their girlhood, one notices with surprise that they have turned into matrons if, in deciding that some person is intelligent, they sound both ls in the word but that is precisely the sign of a change of state, and I could see a difference when I thought of the vocabulary of the Albertine I had known of old a vocabulary in which the most daring flights were to say of any unusual person Hes a type, or, if you suggested a game of cards to her Ive no money to lose, or again, if any of her friends were to reproach her, in terms which she felt to be undeserved That really is magnificent! an expression dictated in such cases by a sort of middle-class tradition almost as old as the Magnificat itself, and one which a girl slightly out of temper and confident that she is in the right employs, as the saying is, quite naturally, that is to say because she has learned the words from her mother, just as she has learned to say her prayers or to greet a friend. All these expressions Mme. Bontemps had imparted to her at the same time as her hatred of the Jews and her feeling for black, which was always suitable and becoming, indeed without any formal instruction, but as the piping of the parent goldfinches serves as a model for that of the young ones, recently hatched, so that they in turn grow into true goldfinches also. But when all was said, selection appeared to me of alien growth and I regard encouraging. Albertine was no longer the same which meant that she would not perhaps act, would not react in the same way Not only did I no longer feel any love for her, but I had no longer to consider, as I should have had at Balbec, the risk of shattering in her an affection for myself, which no longer existed. There could be no doubt that she had long since become quite indifferent to me. I was well aware that to her I was in no sense a member now of the little band into which I had at one time so anxiously sought and had then been so happy to have secured admission. Besides, as she had no longer even, as in Balbec days, an air of frank good nature, I felt no serious scruples still I believe that what made me finally decide was another philological discovery. As, continuing to add fresh links to the external chain of talk behind which I hid my intimate desire, I spoke, having Albertine secure now on the corner of my bed, of one of the girls of the little band, one smaller than the rest, whom, nevertheless, I had thought quite pretty, Yes, answered Albertine, she reminds me of a little mousmé. There had been nothing in the world to shew, when I first knew Albertine, that she had ever heard the wordmousmé. It was probable that, had things followed their normal course, she would never have learned it, and for my part I should have seen no cause for regret in that, for there is no more horrible word in the language. The mere sound of it makes ones teeth ache as they do when one has put too large a spoonful of ice in ones mouth. But coming from Albertine, as she sat there looking so pretty, not even mousmé could strike me as unpleasant. On the contrary, I felt it to be a revelation, if not of an outward initiation, at any rate of an inward evolution. Unfortunately it was now time for me to bid her good-bye if I wished her to reach home in time for her dinner, and myself to be out of bed and dressed in time for my own. It was Françoise who was getting it ready she did not like having to keep it back, and must already have found it an infringement of one of the articles of her code that Albertine, in the absence of my parents, should be paying me so prolonged a visit, and one which was going to make everything late. But before mousmé all these arguments fell to the ground and I hastened to say Just fancy Im not in the least ticklish you can go on tickling me for an hour on end and I wont even feel it. Really? I assure you. She understood, doubtless, that this was the awkward expression of a desire on my part, for, like a person who offers to give you an introduction for which you have not ventured to ask him, though what you have said has shewn him that it would be of great service to you Would you like me to try? she inquired, with womanly meekness Just as you like, but you would be more comfortable if you lay down properly on the bed. Like that? No get right on top. Youre sure Im not too heavy? As she uttered these words the door opened and Françoise, carrying a lamp, came in. Albertine had just time to fling herself back upon her chair. Perhaps Françoise had chosen this moment to confound us, having been listening at the door or even peeping through the keyhole. But there was no need to suppose anything of the sort she might have scorned to assure herself, by the use of her eyes, of what her instinct must plainly enough have detected, for by dint of living with me and my parents her fears, her prudence, her alertness, her cunning had ended by giving her that instinctive and almost prophetic knowledge of us all that the mariner has of the sea, the quarry of the hunter, and, of the malady, if not the physician, often at any rate the patient. The amount of knowledge that she managed to acquire would have astounded a stranger, and with as good reason as does the advanced state of certain arts and sciences among the ancients, seeing that there was practically no source of information open to them. Her sources were no larger. They were a few casual remarks forming barely a twentieth part of our conversation at dinner, caught on the wing by the butler and inaccurately transmitted to the kitchen. Again, her mistakes were due, like theirs, like the fables in which Plato believed, rather to a false conception of the world and to preconceived ideas than to the insufficiency of the materials at her disposal. Only the other day, has it not been possible for the most important discoveries as to the habits of insects to be made by a scientist who had access to no laboratory and used no instruments of any sort? But if the drawbacks arising from her menial position had not prevented her fr</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tous mes choix sont nauséabonds Jcrois qujai pas bien retenu la leçon Elle me manque cette époque où ça jouait au Sims 2 en caleçon Pour mendormir jcompte mes lacunes Ça marche pas donc jparle à la lune Elle me rappelle que maman est éphémère, quon en a quune Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meillur client En attendant la suite jm console en rêvant Ya des moments où jai envie que dune chose cest dêtre triste et quon mlaisse Ademo ment, même quand jaurai percé jplairai pas à Eva Mendes Temploies des moyens colossaux juste pour que jte cala Dépenses des sommes indécentes pour la mala Ten oublies même de rattraper ta salât Jvis dans ton esprit le loyer est gratos Le seul huissier qui mfera sortir cest une bastos Jte hanterai jusquà la fin dtes jours comme Kratos Jte hanterai jusquà la fin dtes jours comme Kratos Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant You might also likeJattends la fin comme le dernier grain du sablier Aucune menace ne me fera plier Tu peux essayer ressayer mais jamais ô grand jamais je rendrai mon tablier Jvais dans la salle du temps pour ne3ess Jaccepte la CB PayPal et les espèces J'suis prêt à faire les efforts qu'il faut pour mettre ma maman à labri Passer du scoot' au classe S Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant</t>
+          <t>Tous mes choix sont nauséabonds Jcrois qujai pas bien retenu la leçon Elle me manque cette époque où ça jouait au Sims 2 en caleçon Pour mendormir jcompte mes lacunes Ça marche pas donc jparle à la lune Elle me rappelle que maman est éphémère, quon en a quune Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meillur client En attendant la suite jm console en rêvant Ya des moments où jai envie que dune chose cest dêtre triste et quon mlaisse Ademo ment, même quand jaurai percé jplairai pas à Eva Mendes Temploies des moyens colossaux juste pour que jte cala Dépenses des sommes indécentes pour la mala Ten oublies même de rattraper ta salât Jvis dans ton esprit le loyer est gratos Le seul huissier qui mfera sortir cest une bastos Jte hanterai jusquà la fin dtes jours comme Kratos Jte hanterai jusquà la fin dtes jours comme Kratos Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant Jattends la fin comme le dernier grain du sablier Aucune menace ne me fera plier Tu peux essayer ressayer mais jamais ô grand jamais je rendrai mon tablier Jvais dans la salle du temps pour ne3ess Jaccepte la CB PayPal et les espèces J'suis prêt à faire les efforts qu'il faut pour mettre ma maman à labri Passer du scoot' au classe S Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Wuh-uh-uh Persiguiendo al sol Voy contracorriente al andar Pero no me pueden cansar Levantando el polvo para atrás Sé que la batalla acaba de empezar Suenan los tambores del alma Llorando las luces de la alarma Llevo mi bandera a jugar La batalla acaba de empezar Soy caminante en camisa tejana Sigo por el rumbo, voy persiguiendo al sol Subo el río a contracorriente Nadie me detiene, voy persiguiendo al sol A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo al sol A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo, persiguiendo al sol Oh, oh You might also like Por todos los que sueñan con triunfar Echando el miedo pa' fuera Por todos los que buscan su lugar Sé que la batalla no acaba ya Dicen que no puedo, qué más da? Yo sigo a mi aire, a mí me da igual Soñando fuerte y además Mi batalla es la única que hay Soy caminante en camisa tejana Sigo por el rumbo, voy persiguiendo al sol Subo el río a contracorriente Nadie me detiene, voy persiguiendo al sol Oh, oh, oh A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo al sol A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo, persiguiendo al sol Pero cuando me lloren las manos Me lloren la' mano' Ellas me dirán por donde ir Me dirán, me dirán, yeah Dejaré mi huella en cada paso Oh Ellas me enseñaron a vivir A contracorriente La-la-la, la-la-la, la-la La-la-la, la-la-la, la-la Este es mi lugar Persiguiendo al sol A contracorriente La-la-la, la-la-la, la-la La-la-la, la-la-la, la-la Este es mi lugar Persiguiendo, persiguiendo al sol La-la-la, la-la-la, la-la Wuh La-la-la, la-la-la, la-la Este es mi lugar Persiguiendo, persiguiendo al sol</t>
+          <t>Wuh-uh-uh Persiguiendo al sol Voy contracorriente al andar Pero no me pueden cansar Levantando el polvo para atrás Sé que la batalla acaba de empezar Suenan los tambores del alma Llorando las luces de la alarma Llevo mi bandera a jugar La batalla acaba de empezar Soy caminante en camisa tejana Sigo por el rumbo, voy persiguiendo al sol Subo el río a contracorriente Nadie me detiene, voy persiguiendo al sol A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo al sol A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo, persiguiendo al sol Oh, oh Por todos los que sueñan con triunfar Echando el miedo pa' fuera Por todos los que buscan su lugar Sé que la batalla no acaba ya Dicen que no puedo, qué más da? Yo sigo a mi aire, a mí me da igual Soñando fuerte y además Mi batalla es la única que hay Soy caminante en camisa tejana Sigo por el rumbo, voy persiguiendo al sol Subo el río a contracorriente Nadie me detiene, voy persiguiendo al sol Oh, oh, oh A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo al sol A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo, persiguiendo al sol Pero cuando me lloren las manos Me lloren la' mano' Ellas me dirán por donde ir Me dirán, me dirán, yeah Dejaré mi huella en cada paso Oh Ellas me enseñaron a vivir A contracorriente La-la-la, la-la-la, la-la La-la-la, la-la-la, la-la Este es mi lugar Persiguiendo al sol A contracorriente La-la-la, la-la-la, la-la La-la-la, la-la-la, la-la Este es mi lugar Persiguiendo, persiguiendo al sol La-la-la, la-la-la, la-la Wuh La-la-la, la-la-la, la-la Este es mi lugar Persiguiendo, persiguiendo al sol</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Comincio con le flessione sui pugni, solo pieno, coglione T-shirt Dior, credo che mi manchi più della vista sul mare, coglione Esito fra un bicchiere di Jack o meglio una Coca fresca Frate, è la miseria DZ, non chiedere perché ti attacchiamo Metà forza, metà tahia Esplosivo dalla nascita, 9.1 100, esclusi, esclusi Determinato, tengo il palazzo come Dende, uno-due Auto banalizzata, poi senti arrivare i poliziotti arrivare, arriba N'da, modalità sopravvivenza nel bando Forse, banco, si spaccia, ma non è Cali, uomo A traverso i miei LV, mi sento così bene Mi ricordo quando non ero nulla, quando sorvolavo i terrestri, due titani Banconota da 500, aspetto, tu, puoi detestarmi Sono dimagrito per ingrassarmi meglio, tu sembra che potresti testarmi, da quando? Vegeta e Mowgli, fin da piccolo troppo arrabbiato Dei soldi o un cazzo, erba data a Hervé Si fuma come Escobar, davanti a Julie Lescaut Nel quartiere c'è il truffatore, nel quartiere c'è Rico Nel forno, c'è Ademo, aperta la cassetta delle lettere Non lontano dal commissariato, il poliziotto vuole conoscermi Sono nel mio mondo, ho la mia boa, ho la mia canna, il mio playback su Acadian Sono incantato che il mio odio vi piaccia Incantato che vi fottiamo You might also like Hasta la vista, hasta la vista Hasta la vista, si vedrà La povertà non ci manca, questi momenti forse Ancora uno o due album e poi un po' d'aria Hasta la vista, hasta la vista Hasta la vista, si vedrà Sono rimasto in basso più tardi per fare più soldi La sedia è rimasta in fondo nell'atrio, io non sono più là Guardo il cielo, il sole carezza la mia anima Cresciuto nel bando, la miseria bacia il tuo cranio Inebriato, voglia di essere Voglia anche di liberarmi Ciao Calinta, chiamami sulla mia Lyca Giro a Parigi, essere felice non ce la faccio, sulla mia vita, sì Quindi riconto il bottino, sulla vista del tuo fondo tinta, PNL non pompa Tutto questo, non è la mia vita, la mia vita, la mia vita Non voglio più il tuo culo, non voglio più il tuo cuore, sei diventata noiosa Più niente di speciale, sei diventata banale come una banconota da 500 Sono nel mio mondo, ho la mia boa, ho la mia canna, il mio playback su Acadian Sono incantato che il mio odio vi piaccia Incantato che vi fottiamo Hasta la vista, hasta la vista Hasta la vista, si vedrà La povertà non ci manca, questi momenti forse Ancora uno o due album e poi un po' d'aria Hasta la vista, hasta la vista Hasta la vista, si vedrà</t>
+          <t>Comincio con le flessione sui pugni, solo pieno, coglione T-shirt Dior, credo che mi manchi più della vista sul mare, coglione Esito fra un bicchiere di Jack o meglio una Coca fresca Frate, è la miseria DZ, non chiedere perché ti attacchiamo Metà forza, metà tahia Esplosivo dalla nascita, 9.1 100, esclusi, esclusi Determinato, tengo il palazzo come Dende, uno-due Auto banalizzata, poi senti arrivare i poliziotti arrivare, arriba N'da, modalità sopravvivenza nel bando Forse, banco, si spaccia, ma non è Cali, uomo A traverso i miei LV, mi sento così bene Mi ricordo quando non ero nulla, quando sorvolavo i terrestri, due titani Banconota da 500, aspetto, tu, puoi detestarmi Sono dimagrito per ingrassarmi meglio, tu sembra che potresti testarmi, da quando? Vegeta e Mowgli, fin da piccolo troppo arrabbiato Dei soldi o un cazzo, erba data a Hervé Si fuma come Escobar, davanti a Julie Lescaut Nel quartiere c'è il truffatore, nel quartiere c'è Rico Nel forno, c'è Ademo, aperta la cassetta delle lettere Non lontano dal commissariato, il poliziotto vuole conoscermi Sono nel mio mondo, ho la mia boa, ho la mia canna, il mio playback su Acadian Sono incantato che il mio odio vi piaccia Incantato che vi fottiamo Hasta la vista, hasta la vista Hasta la vista, si vedrà La povertà non ci manca, questi momenti forse Ancora uno o due album e poi un po' d'aria Hasta la vista, hasta la vista Hasta la vista, si vedrà Sono rimasto in basso più tardi per fare più soldi La sedia è rimasta in fondo nell'atrio, io non sono più là Guardo il cielo, il sole carezza la mia anima Cresciuto nel bando, la miseria bacia il tuo cranio Inebriato, voglia di essere Voglia anche di liberarmi Ciao Calinta, chiamami sulla mia Lyca Giro a Parigi, essere felice non ce la faccio, sulla mia vita, sì Quindi riconto il bottino, sulla vista del tuo fondo tinta, PNL non pompa Tutto questo, non è la mia vita, la mia vita, la mia vita Non voglio più il tuo culo, non voglio più il tuo cuore, sei diventata noiosa Più niente di speciale, sei diventata banale come una banconota da 500 Sono nel mio mondo, ho la mia boa, ho la mia canna, il mio playback su Acadian Sono incantato che il mio odio vi piaccia Incantato che vi fottiamo Hasta la vista, hasta la vista Hasta la vista, si vedrà La povertà non ci manca, questi momenti forse Ancora uno o due album e poi un po' d'aria Hasta la vista, hasta la vista Hasta la vista, si vedrà</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>J'dois tout plier sur cette putain de prod Mais j'oublie tout sur cette putain d'mélo Le chemin parcouru fait une putain de trotte Mes exs reviennent et lâchent des hello Oh, oh, oh, oh Sauf que ma vie maintenant c'est une putain d'blague J'ai pas les thunes pour une putain d'bague Mes exs reviennent disent Guten Tag Tag, tag, tag, tag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wi Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Tu m'as quittée j'était moch Loin d'être une star de cinoche car Huh, huh 19 ans, mains dans les poches Loin de la vie d'Inox- Tag Huh, huh Toutes mes blagues c'était des flops Je t'aimais mais c'était pas ça Tu m'as mis un stop! Tu m'as mis un stop J't'ai mis un cédez l'passage Je t'ai jamais traité de tasse Tu veux me détester Trouve moi entre Vaise et Tassin Trouve moi sur MTP J't'aimais mais j'préfère ta soeur Disons qu'j'ai juste testé, Ok! Tu peux me détester You might also like Mes exs reviennent disent Guten Tag Tag, tag, tag, tag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Mes ex reviennent en même temps que mes démons A croire qu'elles se sont passé le mot Le venin dans les veines qui me démonte Je veux pas rentrer dans le jeu mais je suis pas contre Creuser ma putain de tombe Demande pas l'aumône ouais laisse moi un mémo Je déphase puis traîne sur Paname comme Ademo Au fond de l'eau comme Nemo Sirène me prend pour un clown Je fais semblant de rester clean Je lui met une clim Ouais no problemo Entouré de mes chicas Je me bousille les chicots Je suis pas dans la bicrave mais check pas mon bigo Amiga Amigo Amiga, Amigo Je me laisse ferrer par les belles sommes Quand je baise fort, cette belle prod Les images dans ma te-té qui se déforment c'est très sport Les vapeurs de la te-boi Me rappellent que je ne fais que boire A la base je ne voulais que toi Tu reviens je fais aucun effort J'dois tout plier sur cette putain de prod Mais j'oublie tout sur cette putain d'mélo Le chemin parcouru fait une putain de trotte Mes exs reviennent et lâchent des hello Oh, oh, oh, oh Sauf que ma vie maintenant c'est une putain d'blague J'ai pas les thunes pour une putain d'bague Mes exs reviennent disent Guten Tag Tag, tag, tag, tag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag</t>
+          <t>J'dois tout plier sur cette putain de prod Mais j'oublie tout sur cette putain d'mélo Le chemin parcouru fait une putain de trotte Mes exs reviennent et lâchent des hello Oh, oh, oh, oh Sauf que ma vie maintenant c'est une putain d'blague J'ai pas les thunes pour une putain d'bague Mes exs reviennent disent Guten Tag Tag, tag, tag, tag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wi Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Tu m'as quittée j'était moch Loin d'être une star de cinoche car Huh, huh 19 ans, mains dans les poches Loin de la vie d'Inox- Tag Huh, huh Toutes mes blagues c'était des flops Je t'aimais mais c'était pas ça Tu m'as mis un stop! Tu m'as mis un stop J't'ai mis un cédez l'passage Je t'ai jamais traité de tasse Tu veux me détester Trouve moi entre Vaise et Tassin Trouve moi sur MTP J't'aimais mais j'préfère ta soeur Disons qu'j'ai juste testé, Ok! Tu peux me détester Mes exs reviennent disent Guten Tag Tag, tag, tag, tag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Mes ex reviennent en même temps que mes démons A croire qu'elles se sont passé le mot Le venin dans les veines qui me démonte Je veux pas rentrer dans le jeu mais je suis pas contre Creuser ma putain de tombe Demande pas l'aumône ouais laisse moi un mémo Je déphase puis traîne sur Paname comme Ademo Au fond de l'eau comme Nemo Sirène me prend pour un clown Je fais semblant de rester clean Je lui met une clim Ouais no problemo Entouré de mes chicas Je me bousille les chicots Je suis pas dans la bicrave mais check pas mon bigo Amiga Amigo Amiga, Amigo Je me laisse ferrer par les belles sommes Quand je baise fort, cette belle prod Les images dans ma te-té qui se déforment c'est très sport Les vapeurs de la te-boi Me rappellent que je ne fais que boire A la base je ne voulais que toi Tu reviens je fais aucun effort J'dois tout plier sur cette putain de prod Mais j'oublie tout sur cette putain d'mélo Le chemin parcouru fait une putain de trotte Mes exs reviennent et lâchent des hello Oh, oh, oh, oh Sauf que ma vie maintenant c'est une putain d'blague J'ai pas les thunes pour une putain d'bague Mes exs reviennent disent Guten Tag Tag, tag, tag, tag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Je n'ai pas d'auto Je n'ai pas de vélo Les trams sont en grève Et je dois aller Voir ma petite poupée Et les heures sont brèves Y a déjà trois heures Que je ballade mon cur Le long des boulevards Pour mieux me faire voir Par les conducteurs J'agite un mouchoir À vot' bon cur Monsieur À vot' bon cur Monsieur Voyez mes fleurs Monsieur Elles vont s'faner Monsieur À vot' bon cur Monsieur À vot' bon cur Monsieur Je vous en prie Monsieur Ne me laissez pas sur le carreau! Ah voilà enfin l'homme Qui mettra fin à cette marche forcée Cet homme est un saint Ce n'est pas en vain Que j'aurai prié Ah! maudit soit-il Ce n'était qu'un fil Qui s'est détaché Une panne de moteur Et le joli cur Voudrait me faire pousser You might also likeÀ vot' bon cur Monsieur À vot' bon cur Monsieur Poussez un peu Monsieur Et vous monterez Monsieur Voilà, voilà, Monsieur Mais ne partez pas Monsieur Attendez-moi Monsieur Et me voilà le bec dans l'eau! Ça c'est un peu fort C'est un coup du sort Y a de quoi râler Tant pis si je suis mort Mais je battrai les records De la marche à pied!</t>
+          <t>Je n'ai pas d'auto Je n'ai pas de vélo Les trams sont en grève Et je dois aller Voir ma petite poupée Et les heures sont brèves Y a déjà trois heures Que je ballade mon cur Le long des boulevards Pour mieux me faire voir Par les conducteurs J'agite un mouchoir À vot' bon cur Monsieur À vot' bon cur Monsieur Voyez mes fleurs Monsieur Elles vont s'faner Monsieur À vot' bon cur Monsieur À vot' bon cur Monsieur Je vous en prie Monsieur Ne me laissez pas sur le carreau! Ah voilà enfin l'homme Qui mettra fin à cette marche forcée Cet homme est un saint Ce n'est pas en vain Que j'aurai prié Ah! maudit soit-il Ce n'était qu'un fil Qui s'est détaché Une panne de moteur Et le joli cur Voudrait me faire pousser À vot' bon cur Monsieur À vot' bon cur Monsieur Poussez un peu Monsieur Et vous monterez Monsieur Voilà, voilà, Monsieur Mais ne partez pas Monsieur Attendez-moi Monsieur Et me voilà le bec dans l'eau! Ça c'est un peu fort C'est un coup du sort Y a de quoi râler Tant pis si je suis mort Mais je battrai les records De la marche à pied!</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Vad händer SJ Kommer med frenchie, mon ami Tabben är på mig, C'est la vie Jag drömmer om sitta i Ferrari Röker på spesh med Melanie Trycker på sport i araban Livet är kort, oh mamma Pull up på opps med Zastava En 450 cross eller Yamaha Jag och min liga dyker upp, tabbar mer än våran trupp Du kan bli klippt här som en lugg, du kan bli skickad som min zutt Araby, Marseille Paname, dunder kush som Amsterdam Skjuter Zinedine Zidane, vi kom med gähts, två i han Oh le mademoiselle, som min tabbe hon är spänd På mig som mig karusell, skakar götten upp och ner Livsstilen kriminell, pengar får oss hämta mer Fem bitches i hotell och allihopa de vill ner Amana sikter, amana vad Jag synar ba fittor och civven där bak Det finns inget filter, här i mitt lag På cliquen, det bilder, aina har span You might also like Oh, na, na Kommer in, ingen kan med våran clique Moula-la, hämtar keys, det gröna blad och sten på mitt Det Ramme VV Baby, jag har sett för mycket skit Vad är det med dig? Äkta i min cirkel, bara G's Kommer med frenchie, mon ami Tabben är på mig, C'est la vie Jag drömmer om sitta i Ferrari Röker på spesh med Melanie Trycker på sport i araban Livet är kort, oh mamma Pull up på opps med Zastava En 450 cross eller Yamaha Jag ville va rik, mamma Nu min enda utväg det musik, mamma För min broder, jag tar liv, mamma För min broder, jag kan fucking sitta tid, mamma Brukar höra melodierna, satan viskar i mitt öra Bli criminal Jag litar bara på min bram, för min liga, det kommer ske jappningar Gå fråga AJ, gå fråga M, oppsen är snorungar, skickar dem hem Silähen är orolig, packad och spänd Vi kommer på baxade crossar igen Gå fråga hataren, fråga hans tjej Han snackar ba skit, men hans bitch är på mig Hon gillar min äbi eller min fame Bitchen går ner när hon lyssnar på mig Oh, na, na Kommer in, ingen kan med våran clique Moula-la, hämtar keys, det gröna blad och sten på mitt Det Ramme VV Baby, jag har sett för mycket skit Vad är det med dig? Äkta i min cirkel, bara G's Kommer med frenchie, mon ami Tabben är på mig, C'est la vie Jag drömmer om sitta i Ferrari Röker på spesh med Melanie Trycker på sport i araban Livet är kort, oh mamma Pull up på opps med Zastava En 450 cross eller Yamaha</t>
+          <t>Vad händer SJ Kommer med frenchie, mon ami Tabben är på mig, C'est la vie Jag drömmer om sitta i Ferrari Röker på spesh med Melanie Trycker på sport i araban Livet är kort, oh mamma Pull up på opps med Zastava En 450 cross eller Yamaha Jag och min liga dyker upp, tabbar mer än våran trupp Du kan bli klippt här som en lugg, du kan bli skickad som min zutt Araby, Marseille Paname, dunder kush som Amsterdam Skjuter Zinedine Zidane, vi kom med gähts, två i han Oh le mademoiselle, som min tabbe hon är spänd På mig som mig karusell, skakar götten upp och ner Livsstilen kriminell, pengar får oss hämta mer Fem bitches i hotell och allihopa de vill ner Amana sikter, amana vad Jag synar ba fittor och civven där bak Det finns inget filter, här i mitt lag På cliquen, det bilder, aina har span Oh, na, na Kommer in, ingen kan med våran clique Moula-la, hämtar keys, det gröna blad och sten på mitt Det Ramme VV Baby, jag har sett för mycket skit Vad är det med dig? Äkta i min cirkel, bara G's Kommer med frenchie, mon ami Tabben är på mig, C'est la vie Jag drömmer om sitta i Ferrari Röker på spesh med Melanie Trycker på sport i araban Livet är kort, oh mamma Pull up på opps med Zastava En 450 cross eller Yamaha Jag ville va rik, mamma Nu min enda utväg det musik, mamma För min broder, jag tar liv, mamma För min broder, jag kan fucking sitta tid, mamma Brukar höra melodierna, satan viskar i mitt öra Bli criminal Jag litar bara på min bram, för min liga, det kommer ske jappningar Gå fråga AJ, gå fråga M, oppsen är snorungar, skickar dem hem Silähen är orolig, packad och spänd Vi kommer på baxade crossar igen Gå fråga hataren, fråga hans tjej Han snackar ba skit, men hans bitch är på mig Hon gillar min äbi eller min fame Bitchen går ner när hon lyssnar på mig Oh, na, na Kommer in, ingen kan med våran clique Moula-la, hämtar keys, det gröna blad och sten på mitt Det Ramme VV Baby, jag har sett för mycket skit Vad är det med dig? Äkta i min cirkel, bara G's Kommer med frenchie, mon ami Tabben är på mig, C'est la vie Jag drömmer om sitta i Ferrari Röker på spesh med Melanie Trycker på sport i araban Livet är kort, oh mamma Pull up på opps med Zastava En 450 cross eller Yamaha</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Devant le R comme le Q Eh Là, c'est TIGRI Tu veux que j'te montre c'est quoi un rappeur, enculé ? J'suis pas pédé mais j'vais t'enculer J'ai pas peur de l'dire j'suis l'meilleur du secteur, j'me mélange pas, moi, j'suis sectaire Yes J'te prends pour témoin, t'es comme mon frère, appelle si ça té-mon J'ai un flow d'enfer Yes, c'est pour ça que t'as l'démon Moi, j'suis différent comme Ademo donc j'sais pas si j'fais parti du commun des mortels OATS, j'avais FIFA mais c'était que la démo' Grr Tu vois qu'j'fais des sous avec ma bouche et tu sous-estimes encore le pouvoir des mots Le légiste va au travail pour voir des morts, les jaloux travaillent pour pas me voir ter-mon Han Cagoulé, ganté, personne peut voir ta tête, cagoulé, ganté, personne peut voir tes mains Là, c'est Beendo dans tes écouteurs Han, faut pas m'écouter dans une Mini Cooper T'as tort Faut pas m'écouter dans une Fiat 500, sale pute Sale pute Toi, t'es une fiotte, ça s'sent, sale pute, tu sers à rien comme un bigo sans sa puce Grr Tout l'monde se prend pour Usain Bolt ou pour Kylian Mbappé quand ça pue Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Ouh, oui Escorte de luxe 7.5 sur Instagram, c'est moi je recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Yes Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Là, c'est TIGRI You might also like Le son va s'reprendre comme une pandémie et si j'balance mes potos, pendez-moi Beendo Le te-shi est mou comme du pain de mie et y a pas de preuves si y a pas de témoins Eh, Beendo J'vais visser en période de confinement, le ient-cli m'parle, il croit que j'suis son confident J'vais visser en période de confinement, le ient-cli m'parle, il croit que j'suis son confident J'veux bien faire un chrome Wesh, t'es con ou quoi ? mais faut être bête pour faire confiance à un drogué Les cailloux, c'est contre de l'argent qu'j'vais les troquer Hein, elle veut trop ken mais elle est trop conne Si y a un plan, j'suis comme le temps en été, ils font la mala en boîte et en étant endettés Hein J'veux une go gée-char, un Audi TT J'me suis fait mêler, vas-y, dis où t'étais J'connais des mecs qui roulent en Merco, j'connais des mecs qui roulent en moins d'deux Des ients-cli pour le shit, des ients-cli pour la beuh, si y a plus rien, j'te dis et tu reviens main-de Viens-là Mais j'veux pas finir comme les Dalton, j'détaille une 'quette, j'te parle pas de Middleton Viens J'vais pas t'courir après, ramène mes tales, toi, j'ai des dix et des vingts donc t'as l'choix Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute Grr T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Grr Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Pah Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Ouh, oui Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Grr Beendo</t>
+          <t>Devant le R comme le Q Eh Là, c'est TIGRI Tu veux que j'te montre c'est quoi un rappeur, enculé ? J'suis pas pédé mais j'vais t'enculer J'ai pas peur de l'dire j'suis l'meilleur du secteur, j'me mélange pas, moi, j'suis sectaire Yes J'te prends pour témoin, t'es comme mon frère, appelle si ça té-mon J'ai un flow d'enfer Yes, c'est pour ça que t'as l'démon Moi, j'suis différent comme Ademo donc j'sais pas si j'fais parti du commun des mortels OATS, j'avais FIFA mais c'était que la démo' Grr Tu vois qu'j'fais des sous avec ma bouche et tu sous-estimes encore le pouvoir des mots Le légiste va au travail pour voir des morts, les jaloux travaillent pour pas me voir ter-mon Han Cagoulé, ganté, personne peut voir ta tête, cagoulé, ganté, personne peut voir tes mains Là, c'est Beendo dans tes écouteurs Han, faut pas m'écouter dans une Mini Cooper T'as tort Faut pas m'écouter dans une Fiat 500, sale pute Sale pute Toi, t'es une fiotte, ça s'sent, sale pute, tu sers à rien comme un bigo sans sa puce Grr Tout l'monde se prend pour Usain Bolt ou pour Kylian Mbappé quand ça pue Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Ouh, oui Escorte de luxe 7.5 sur Instagram, c'est moi je recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Yes Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Là, c'est TIGRI Le son va s'reprendre comme une pandémie et si j'balance mes potos, pendez-moi Beendo Le te-shi est mou comme du pain de mie et y a pas de preuves si y a pas de témoins Eh, Beendo J'vais visser en période de confinement, le ient-cli m'parle, il croit que j'suis son confident J'vais visser en période de confinement, le ient-cli m'parle, il croit que j'suis son confident J'veux bien faire un chrome Wesh, t'es con ou quoi ? mais faut être bête pour faire confiance à un drogué Les cailloux, c'est contre de l'argent qu'j'vais les troquer Hein, elle veut trop ken mais elle est trop conne Si y a un plan, j'suis comme le temps en été, ils font la mala en boîte et en étant endettés Hein J'veux une go gée-char, un Audi TT J'me suis fait mêler, vas-y, dis où t'étais J'connais des mecs qui roulent en Merco, j'connais des mecs qui roulent en moins d'deux Des ients-cli pour le shit, des ients-cli pour la beuh, si y a plus rien, j'te dis et tu reviens main-de Viens-là Mais j'veux pas finir comme les Dalton, j'détaille une 'quette, j'te parle pas de Middleton Viens J'vais pas t'courir après, ramène mes tales, toi, j'ai des dix et des vingts donc t'as l'choix Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute Grr T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Grr Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Pah Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Ouh, oui Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Grr Beendo</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Solo quedan Esas puertas rotas que dejó el reloj Cuando tú llegaste No pude respirar ni controlar Las palabras que salieron Balas que viajaron lejos No supimos detenernos No supimos contenernos Hicimos fuego y ahora ardemos Y ahora ardemos Y ahora ardemos Hicimos fuego y ahora Tratamos de hablar, tratamos de continuar Pero no pudiste escuchar Nunca me supiste valorar A veces me pregunto cómo sigo vivo Si lo que necesito al final se fue contigo No puedo dormir, apenas scribir Todo esto que siento por ti Pro yo ya me di cuenta que Yo te amé y te supliqué Y tú nunca hiciste nada porque nunca te importé Yo te amé a ciegas y valiente Tú me amaste pero no lo suficiente You might also like Hicimos fuego y ahora ardemos, mmm Y ahora ardemos Hicimos fuego y ahora ardemos Y ahora ardemos Hicimos fuego y ahora</t>
+          <t>Solo quedan Esas puertas rotas que dejó el reloj Cuando tú llegaste No pude respirar ni controlar Las palabras que salieron Balas que viajaron lejos No supimos detenernos No supimos contenernos Hicimos fuego y ahora ardemos Y ahora ardemos Y ahora ardemos Hicimos fuego y ahora Tratamos de hablar, tratamos de continuar Pero no pudiste escuchar Nunca me supiste valorar A veces me pregunto cómo sigo vivo Si lo que necesito al final se fue contigo No puedo dormir, apenas scribir Todo esto que siento por ti Pro yo ya me di cuenta que Yo te amé y te supliqué Y tú nunca hiciste nada porque nunca te importé Yo te amé a ciegas y valiente Tú me amaste pero no lo suficiente Hicimos fuego y ahora ardemos, mmm Y ahora ardemos Hicimos fuego y ahora ardemos Y ahora ardemos Hicimos fuego y ahora</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Y'en à qui tirent, yen a qui friment mais bon qui font de la peine Y'en a qui puise dans la cachette y'en a qui font de la chaine Vaincus yen a qui chient et y'en a qui se la prenne dans l'urètre Y'a ceux qui donnent les coups et ceux qui finissent dans la del Y'en a qui se présèrvent et celles qui se font à l'hotel Y'en a des hlels mais qui finiront dans l'haram à long terme Yen a des musclors qui se pissent dessus devant des maigres Ya ceux qui resortent du chiffre et ceux qui resortent des lettres Y'a ya y'a y'a ceux qui parlent, y'a ya y'a y'a ceux qui agissent Y'a y'a y'a y'a ceux qui enhh y'a ceux qui crr y'a ceux qui brr Y'en a qui se prennent des carottes y'a ceux qui mettent des bananes Y'a ceux qui croient qu'en la drogue y'a ceux qui vend la salade Y'en a qui s'entraident y'en a qui garde jusqu'à un radis Y'en a pour l'enfer y'en aura pas bezef pour le paradis Y'en a qui sont des rappeurs et y'en a qui le sont pas, y'en a qui sont comme moi des mecs de la rue qui encule le rap et son argent Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc et vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a You might also like Y'en a beaucoup des flipettes comme toi Authentique crois moi y'en a pas deux comme moi J'rap avec la mif, le rap c'est à moi, injection sonore vla qu'le rap est frère siamois J'suis OP, j'ai toujours sur moi une paire de gants La maison est grande ouverte j'hesite pas à rentrer dedans Si tu parles j'hesiterai pas à te rentrer dedans Prépare toi à perdre ta langue et puis tes 32 dents Y'en a qui se battent pour manger, qu'on peur du danger, ne trouvent rien d'autre à faire à part attendre et mendier Pas du genre à se mélanger, le bien le mal faut trancher Y'a des fous y'a des barges qu'hésiteraient pas à se venger Décider à pas se ranger, on est venus pour déranger Une feuille blanche, un stylo bic et j'decalque toutes mes pensées Habitués au danger, on est en France pour manger, demain c'est la fête des porcs jvais tous les égorgés Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a qui pensent que le rap est mort et que les mc ont sucombés Y'en a qui pensent qu'on est trop forts et que ton flow est nul à chier Y'en a qui veulent un corps parfait, pendant qu'tous sont bousillés Y'en à qui veulent des gros gamos alors qu'ils sont toujours à pieds Y'en a qui pensent qu'on est hardcore et qu'on ne reculera jamais Y'en a qui veulent croquer le monde alors qu'ils sont pas respectés Y'en a qui, y'en a qui friment, y'en a qui bedavent qui crapotent Frères sont ceux qui savent comment couper une sav' qui restent brave C'est parce que y'en a qui parlent toujours et qui en font le moins, dès que ca part en couilles ils ouvrent tout le temps le cul coffret dans le coin Oui y'en a, y'en a qui galèrent dans les halls, et sa part en taule, dédicase à MC anonyme ma deuxième épaule Y'en a qui gardent la bouche cousue aux interrogatoires, contrairement à ceux qui parlent pour un café noir Donc à tous ces fils de putes, nos chemins se croiseront parce que l'on efface jamais cqu'on balance à l'audition Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler c'est fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, Ademo son des halls, Spike la pioche, Illinas Nastia la mode</t>
+          <t>Y'en à qui tirent, yen a qui friment mais bon qui font de la peine Y'en a qui puise dans la cachette y'en a qui font de la chaine Vaincus yen a qui chient et y'en a qui se la prenne dans l'urètre Y'a ceux qui donnent les coups et ceux qui finissent dans la del Y'en a qui se présèrvent et celles qui se font à l'hotel Y'en a des hlels mais qui finiront dans l'haram à long terme Yen a des musclors qui se pissent dessus devant des maigres Ya ceux qui resortent du chiffre et ceux qui resortent des lettres Y'a ya y'a y'a ceux qui parlent, y'a ya y'a y'a ceux qui agissent Y'a y'a y'a y'a ceux qui enhh y'a ceux qui crr y'a ceux qui brr Y'en a qui se prennent des carottes y'a ceux qui mettent des bananes Y'a ceux qui croient qu'en la drogue y'a ceux qui vend la salade Y'en a qui s'entraident y'en a qui garde jusqu'à un radis Y'en a pour l'enfer y'en aura pas bezef pour le paradis Y'en a qui sont des rappeurs et y'en a qui le sont pas, y'en a qui sont comme moi des mecs de la rue qui encule le rap et son argent Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc et vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a beaucoup des flipettes comme toi Authentique crois moi y'en a pas deux comme moi J'rap avec la mif, le rap c'est à moi, injection sonore vla qu'le rap est frère siamois J'suis OP, j'ai toujours sur moi une paire de gants La maison est grande ouverte j'hesite pas à rentrer dedans Si tu parles j'hesiterai pas à te rentrer dedans Prépare toi à perdre ta langue et puis tes 32 dents Y'en a qui se battent pour manger, qu'on peur du danger, ne trouvent rien d'autre à faire à part attendre et mendier Pas du genre à se mélanger, le bien le mal faut trancher Y'a des fous y'a des barges qu'hésiteraient pas à se venger Décider à pas se ranger, on est venus pour déranger Une feuille blanche, un stylo bic et j'decalque toutes mes pensées Habitués au danger, on est en France pour manger, demain c'est la fête des porcs jvais tous les égorgés Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a qui pensent que le rap est mort et que les mc ont sucombés Y'en a qui pensent qu'on est trop forts et que ton flow est nul à chier Y'en a qui veulent un corps parfait, pendant qu'tous sont bousillés Y'en à qui veulent des gros gamos alors qu'ils sont toujours à pieds Y'en a qui pensent qu'on est hardcore et qu'on ne reculera jamais Y'en a qui veulent croquer le monde alors qu'ils sont pas respectés Y'en a qui, y'en a qui friment, y'en a qui bedavent qui crapotent Frères sont ceux qui savent comment couper une sav' qui restent brave C'est parce que y'en a qui parlent toujours et qui en font le moins, dès que ca part en couilles ils ouvrent tout le temps le cul coffret dans le coin Oui y'en a, y'en a qui galèrent dans les halls, et sa part en taule, dédicase à MC anonyme ma deuxième épaule Y'en a qui gardent la bouche cousue aux interrogatoires, contrairement à ceux qui parlent pour un café noir Donc à tous ces fils de putes, nos chemins se croiseront parce que l'on efface jamais cqu'on balance à l'audition Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler c'est fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, Ademo son des halls, Spike la pioche, Illinas Nastia la mode</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Verse 1 Sheila Adamo Siddy Mitzvah The first thing Im gon talk about is niqqas on the low niqqas on low Whatever you wanna do just do right now and keep it cool keep it cool, keep it cool They be catching feelings now yeah they be catching feeling now yeah Thats why they feeling typa way yeah these niqqas feeling typa way yeah We aint got lot to say yeah we aint got lotta to say We putting work instead of words yeah putting, putting, this work on a work I see niqqas worried coz lotta people follow me now yeah these niqqas is falling, them niqqas they falling yeah We putting work instead of words yeah yeah yeah yeah, yeah yeah yeah We aint going down down down never go down, we never go down We be feeling high high high feeling so high So get it feeling, scr scr scr Hook Sheila Adamo Siddy Mitzvah Work Get that work, get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Get it then get it and get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Scr scr scr Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it You might also like Verse 2 Siddy Mitzvah Sheila Adamo So get it watch me take it Dont split it like that I dont feel it Put enough work on it dont let me squeeze Catch the vibe and catch the feelings With my niqqas I gotta show them how we do it Till u Catch me riding as a passenger And Im moving on to my new character Drop your weapons when my niqqas get in to the club So Drop drop drop Shiit! Ok, I see ya...I wanna see ya Trying to kill a vibe of a lil niqqa..... killin? you ain't killin my niqqas She wanted to put in work just for my hitter.....scr, scr, scr, scr, scr I started this thing way before you join us..... straight up When I thought Id go down Got elevator Hook Sheila Adamo Siddy Mitzvah Work Get that work, get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Get it then get it and get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Scr scr scr Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it Verse 3 Siddy Mitzvah Sheila Adamo Everything I wanna That what Im gon conquer I be hearing compliments I be feeling a much hating for I been done ay Dont let em you can go goooo Dont let em get you too close tooo clooose! We wasted a lotta time in this thing lost a lotta niqqas in this thing Now we all running after an investment We trying prove yall we can get it....my niqqa can get it, my niqqa can get it Thats why we putting work instead of....we putting work instead of word We putting work instead of words.....we putting this work instead of word We putting work instead Outro Sheila Adamo We gon get it work yeaahhh 2x Nah nah nah 3x We putting work, instead of words</t>
+          <t>Verse 1 Sheila Adamo Siddy Mitzvah The first thing Im gon talk about is niqqas on the low niqqas on low Whatever you wanna do just do right now and keep it cool keep it cool, keep it cool They be catching feelings now yeah they be catching feeling now yeah Thats why they feeling typa way yeah these niqqas feeling typa way yeah We aint got lot to say yeah we aint got lotta to say We putting work instead of words yeah putting, putting, this work on a work I see niqqas worried coz lotta people follow me now yeah these niqqas is falling, them niqqas they falling yeah We putting work instead of words yeah yeah yeah yeah, yeah yeah yeah We aint going down down down never go down, we never go down We be feeling high high high feeling so high So get it feeling, scr scr scr Hook Sheila Adamo Siddy Mitzvah Work Get that work, get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Get it then get it and get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Scr scr scr Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it Verse 2 Siddy Mitzvah Sheila Adamo So get it watch me take it Dont split it like that I dont feel it Put enough work on it dont let me squeeze Catch the vibe and catch the feelings With my niqqas I gotta show them how we do it Till u Catch me riding as a passenger And Im moving on to my new character Drop your weapons when my niqqas get in to the club So Drop drop drop Shiit! Ok, I see ya...I wanna see ya Trying to kill a vibe of a lil niqqa..... killin? you ain't killin my niqqas She wanted to put in work just for my hitter.....scr, scr, scr, scr, scr I started this thing way before you join us..... straight up When I thought Id go down Got elevator Hook Sheila Adamo Siddy Mitzvah Work Get that work, get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Get it then get it and get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Scr scr scr Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it Verse 3 Siddy Mitzvah Sheila Adamo Everything I wanna That what Im gon conquer I be hearing compliments I be feeling a much hating for I been done ay Dont let em you can go goooo Dont let em get you too close tooo clooose! We wasted a lotta time in this thing lost a lotta niqqas in this thing Now we all running after an investment We trying prove yall we can get it....my niqqa can get it, my niqqa can get it Thats why we putting work instead of....we putting work instead of word We putting work instead of words.....we putting this work instead of word We putting work instead Outro Sheila Adamo We gon get it work yeaahhh 2x Nah nah nah 3x We putting work, instead of words</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Aiyo, it's the Concentration Camp The Arsenal, the return Merciless You emcees got alot to worry about Y'all salute Yo, it's the raw ferocious The body hard-metal soloist A poisionous comb with a strike to the throat to kill opponents It's still hopeless, I'm still arming verbal explosives I'm still the coldest, I'm still the sickest, the diagnosis I promised y'all before Moses The promise I gave emcees Still ain't no different from what a bible oath is A promise with a right hand, y'all fools can testify Define the illest emcee, the machine can detect a lies I specialize in street rhymes and telling war tales The forecast when I brainstorm raps is all hell I dare somebody to brag, I'll leave them hostage gagged The modest'll stab fast as a hand through a speed bag 'Cause I'm a battle cat, like in Iraq with a battle rap Comin' out of a red flat with a gat and anthrax I'm like 212 degrees celsius hotter Beef or more live, the shiverless is getting slottered Give me 5 mics You might also like Recognize...the illest...emcee...no doubt...coming through with the roughness Recognize...the illest...emcee...better beleive that They say me and mics are like Jesus Christ and a bible scrolls And me and mics is like Faith and Joe when they hatin' foes My name exposed in 96 in a demo battles After the Rap Essentials, the critics became the battle I wrote the first of military verse in double barrels The first to spit Kadafi, and the first to use the nazis The first to talk about desciples and the Vietnamese Or hang draft in trees and invade with M-16's Sharper than guillotines to switch blades my spit plauges Invades like Y2K's and sprays with verbal bullets Including gernades, with no pins, my tounge pulled it Bleed in fatigues, my flow's mud and sea weed You eatin' me is like David in a fight with Golaith Me eatin you is like the stones in the sling before he fired 'em Still the nicest, take any mic alive and leave it lifeless You soon read about me in the Unsigned Hype shit Give me 5 mics It's through the birth of skills, reincarnated, born again Cutting the imbellicale cord, the ill emcee's born with a pen You fucked your article, rappers done wanna criticise I'm different than Nas, the only thing be saying we both wise But otherwise I'm raw, the lord of metaphores Strong as a pitbull's jaws, can chill with 48 bars The hardest soloist, never speaks with hard poses It's animated with fake hugs in the showbiz I'm being hated and underrated, but still I made it Got sick of this shit till everything I spit's contaminated You know the albums of emcees that barely spit themselves Pay enough ill emcees just to make they shit sell I spit napom, tick-ass raps evacuate I'm a 4 second left time bomb, rap detonate So fuck y'all if signing me's not negoitable Just one of my metaphores deserve the hip-hop quotable Give me five mics</t>
+          <t>Aiyo, it's the Concentration Camp The Arsenal, the return Merciless You emcees got alot to worry about Y'all salute Yo, it's the raw ferocious The body hard-metal soloist A poisionous comb with a strike to the throat to kill opponents It's still hopeless, I'm still arming verbal explosives I'm still the coldest, I'm still the sickest, the diagnosis I promised y'all before Moses The promise I gave emcees Still ain't no different from what a bible oath is A promise with a right hand, y'all fools can testify Define the illest emcee, the machine can detect a lies I specialize in street rhymes and telling war tales The forecast when I brainstorm raps is all hell I dare somebody to brag, I'll leave them hostage gagged The modest'll stab fast as a hand through a speed bag 'Cause I'm a battle cat, like in Iraq with a battle rap Comin' out of a red flat with a gat and anthrax I'm like 212 degrees celsius hotter Beef or more live, the shiverless is getting slottered Give me 5 mics Recognize...the illest...emcee...no doubt...coming through with the roughness Recognize...the illest...emcee...better beleive that They say me and mics are like Jesus Christ and a bible scrolls And me and mics is like Faith and Joe when they hatin' foes My name exposed in 96 in a demo battles After the Rap Essentials, the critics became the battle I wrote the first of military verse in double barrels The first to spit Kadafi, and the first to use the nazis The first to talk about desciples and the Vietnamese Or hang draft in trees and invade with M-16's Sharper than guillotines to switch blades my spit plauges Invades like Y2K's and sprays with verbal bullets Including gernades, with no pins, my tounge pulled it Bleed in fatigues, my flow's mud and sea weed You eatin' me is like David in a fight with Golaith Me eatin you is like the stones in the sling before he fired 'em Still the nicest, take any mic alive and leave it lifeless You soon read about me in the Unsigned Hype shit Give me 5 mics It's through the birth of skills, reincarnated, born again Cutting the imbellicale cord, the ill emcee's born with a pen You fucked your article, rappers done wanna criticise I'm different than Nas, the only thing be saying we both wise But otherwise I'm raw, the lord of metaphores Strong as a pitbull's jaws, can chill with 48 bars The hardest soloist, never speaks with hard poses It's animated with fake hugs in the showbiz I'm being hated and underrated, but still I made it Got sick of this shit till everything I spit's contaminated You know the albums of emcees that barely spit themselves Pay enough ill emcees just to make they shit sell I spit napom, tick-ass raps evacuate I'm a 4 second left time bomb, rap detonate So fuck y'all if signing me's not negoitable Just one of my metaphores deserve the hip-hop quotable Give me five mics</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas t'cacher que la vie est belle Seul avec du monde autour, seul avec du monde autour Seul avec du monde autour J'habitais dans une ville de merde avec la Tour Eiffel dedans Où les gens sont tristes et pressés, où les gens pleurent en marchant Mais j'viens de prendre une maison près d'Caen où ma famille passe les dimanches Ma grand-mère part à la messe pendant que ma nièce regarde Les Anges En chausson dans mes crocs, j'emmène ma zouz' au mini-golf On vit avant d'avoir des gosses, ouais, ouais Ensemble comme alcool et clope, j'm'en branle, j'écoute que d'la K-Pop Trottinette électrique de cross, ouais, ouais Mon meilleur pote vient faire d'la boxe, j'fais que d'me faire péter la gueule On retrouve les gars, parle de vrais trucs genre La vérité sur les meufs J'me lève à huit heures pour écrire, j'suis clairement pas un vrai rappeur Soirée karaoké, j'chante Au DD, Ademo, c'est ma sur Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Seul avec du monde autour, seul avec du monde autour Seul avec du monde autour You might also like J'habite juste à côté de la mer, on se baigne jamais parce qu'elle est froide J'suis content rien que d'la voir, avant, j'voyais que l'immeuble d'en face J'essaie d'apprendre à cuisiner, genre de faire autre chose que des pâtes Une fois sur deux, j'rate mes plats donc en attendant, j'mange des pâtes J'ai max une barre de 3G, lève le bras pour capter Vingt minutes pour mater une vidéo qu'en fait quatre, ouais J'rejoins mon père au stade, on prend deux buts, on prend deux bières J'retourne chez moi j'allume Fifa, j'reprends Malherbe, j'continue d'perdre, ouais Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Seul avec du monde autour1</t>
+          <t>Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas t'cacher que la vie est belle Seul avec du monde autour, seul avec du monde autour Seul avec du monde autour J'habitais dans une ville de merde avec la Tour Eiffel dedans Où les gens sont tristes et pressés, où les gens pleurent en marchant Mais j'viens de prendre une maison près d'Caen où ma famille passe les dimanches Ma grand-mère part à la messe pendant que ma nièce regarde Les Anges En chausson dans mes crocs, j'emmène ma zouz' au mini-golf On vit avant d'avoir des gosses, ouais, ouais Ensemble comme alcool et clope, j'm'en branle, j'écoute que d'la K-Pop Trottinette électrique de cross, ouais, ouais Mon meilleur pote vient faire d'la boxe, j'fais que d'me faire péter la gueule On retrouve les gars, parle de vrais trucs genre La vérité sur les meufs J'me lève à huit heures pour écrire, j'suis clairement pas un vrai rappeur Soirée karaoké, j'chante Au DD, Ademo, c'est ma sur Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Seul avec du monde autour, seul avec du monde autour Seul avec du monde autour J'habite juste à côté de la mer, on se baigne jamais parce qu'elle est froide J'suis content rien que d'la voir, avant, j'voyais que l'immeuble d'en face J'essaie d'apprendre à cuisiner, genre de faire autre chose que des pâtes Une fois sur deux, j'rate mes plats donc en attendant, j'mange des pâtes J'ai max une barre de 3G, lève le bras pour capter Vingt minutes pour mater une vidéo qu'en fait quatre, ouais J'rejoins mon père au stade, on prend deux buts, on prend deux bières J'retourne chez moi j'allume Fifa, j'reprends Malherbe, j'continue d'perdre, ouais Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Seul avec du monde autour1</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ademos Part Ich steige auf die Bühne, doch ich mag es überhaupt nicht, es ist abgefuckt Bruder, ich mag es nicht mich in deinen Snaps zu sehen Ich rappe weder Mowgli, noch Bambina Bambina, Bambina, Bambina Ich bringe es zuende, und dann packe ich wieder meine Klamotten ein Ich bin vom Gebäude, von der Straße, vom Drogen-Spot Ich bin nicht wie sie, und erst recht nicht wie du niemals Bruder, ich habe mich nicht gändert, der Joint brennt, mach kin scheiß Ich verstehe es, wenn du sagst, dass du nicht wie ich bist Man bräuchte ein Maximum an Tempo, man bräuchte viele grüne Nächte Um das verdammte Universum zu verändern scheiß Planet Wir bräuchten ein Maximum an Leben also Zeit, eh Wir bräuchten ein Maximum an Nahrung also Geld, shit Um das verteufelte Drogen-Geschäft zu verlassen Auf meinem Schiff, ich fühle mich so allein Vor meinen Sünden sehe ich mich so verdreckt Der Engel hinter mir sagt Du bist so dunkel Der Kopf ist kopfüber auf dem Drogen-Spot Ich sehe nicht die Gesichter von allen anderen Nummer 9, ich mache nur Grätschen Refrain Ademo Bang, Bang, Bang, Bang, Bang Ich rauche einen Joint und dann fick ich dich Bang, Bang, Bang, Bang, Bang Ich bin brutal, deshalb verletze ich dich Bang, Bang, Bang, Bang, Bang Du willst testen, doch ich versohle dir deinen Arsch Bang, Bang, Bang, Bang, Bang Du sagst mir, dass ich der Beste bin und dann beugst du dich Bang, Bang, Bang, Bang, Bang Ich denke über mein Leben nach, ich vermisse die Straße Bang, Bang, Bang, Bang, Bang Ich schaue zum Mond, die Aussicht ist dunkel Bang, Bang, Bang, Bang, Bang Und ich denke, dass es dauert, dauert, dauert Bang, Bang, Bang, Bang, Bang Und ich spreche zu Wänden, Wänden, Wänden You might also likeN.O.S Part Ich bevorzuge es, wenn es real ist, ich bevorzuge es, wenn es real ist Wie die Kugeln, mit denen Baba geschossen hat Unter meiner Kapuze im Ghetto, unter meiner Kapuze unter meiner Kapuze im Ghetto Spät nachts, dann wenn sie mich nicht sehen Die Engel verpissen sich beim P2 beim zweiten Joint Die Dämonen zeigen sich am Ende des Joints Und ich bin da ohne da zu sein, denn die Vergangenheit fickt mich Wir erleiden Verletzungen wählt die Stiche für die Naht Ja, ich werde dich ausziehen ich spreche schon von der Zukunft Meine Gefühle sind erstarrt, verlangsamt, unverständlich Ein paar mehr ich liebe dich hätten mich unbesiegbar gemacht Aber dein Hass auf diese Welt ist stärker als deine Liebe zu mir Ich vernichte sie, da ich ein Leben aufzubauen haben, welches weit weg von allem ist Die kleine Stimme sagte mir Que la famille, mehr als mein Leben Es werden Erinnerungen bleiben, vielleicht die Euros, vielleicht die Träume von Morgen Refrain Ademo Bang, Bang, Bang, Bang, Bang Ich rauche einen Joint und dann fick ich dich Bang, Bang, Bang, Bang, Bang Ich bin brutal, deshalb verletze ich dich Bang, Bang, Bang, Bang, Bang Du willst testen, doch ich versohle dir deinen Arsch Bang, Bang, Bang, Bang, Bang Du sagst mir, dass ich der Beste bin und dann beugst du dich Bang, Bang, Bang, Bang, Bang Ich denke über mein Leben nach, ich vermisse die Straße Bang, Bang, Bang, Bang, Bang Ich schaue zum Mond, die Aussicht ist dunkel Bang, Bang, Bang, Bang, Bang Und ich denke, dass es dauert, dauert, dauert Bang, Bang, Bang, Bang, Bang Und ich spreche zu Wänden, Wänden, Wänden</t>
+          <t>Ademos Part Ich steige auf die Bühne, doch ich mag es überhaupt nicht, es ist abgefuckt Bruder, ich mag es nicht mich in deinen Snaps zu sehen Ich rappe weder Mowgli, noch Bambina Bambina, Bambina, Bambina Ich bringe es zuende, und dann packe ich wieder meine Klamotten ein Ich bin vom Gebäude, von der Straße, vom Drogen-Spot Ich bin nicht wie sie, und erst recht nicht wie du niemals Bruder, ich habe mich nicht gändert, der Joint brennt, mach kin scheiß Ich verstehe es, wenn du sagst, dass du nicht wie ich bist Man bräuchte ein Maximum an Tempo, man bräuchte viele grüne Nächte Um das verdammte Universum zu verändern scheiß Planet Wir bräuchten ein Maximum an Leben also Zeit, eh Wir bräuchten ein Maximum an Nahrung also Geld, shit Um das verteufelte Drogen-Geschäft zu verlassen Auf meinem Schiff, ich fühle mich so allein Vor meinen Sünden sehe ich mich so verdreckt Der Engel hinter mir sagt Du bist so dunkel Der Kopf ist kopfüber auf dem Drogen-Spot Ich sehe nicht die Gesichter von allen anderen Nummer 9, ich mache nur Grätschen Refrain Ademo Bang, Bang, Bang, Bang, Bang Ich rauche einen Joint und dann fick ich dich Bang, Bang, Bang, Bang, Bang Ich bin brutal, deshalb verletze ich dich Bang, Bang, Bang, Bang, Bang Du willst testen, doch ich versohle dir deinen Arsch Bang, Bang, Bang, Bang, Bang Du sagst mir, dass ich der Beste bin und dann beugst du dich Bang, Bang, Bang, Bang, Bang Ich denke über mein Leben nach, ich vermisse die Straße Bang, Bang, Bang, Bang, Bang Ich schaue zum Mond, die Aussicht ist dunkel Bang, Bang, Bang, Bang, Bang Und ich denke, dass es dauert, dauert, dauert Bang, Bang, Bang, Bang, Bang Und ich spreche zu Wänden, Wänden, Wänden N.O.S Part Ich bevorzuge es, wenn es real ist, ich bevorzuge es, wenn es real ist Wie die Kugeln, mit denen Baba geschossen hat Unter meiner Kapuze im Ghetto, unter meiner Kapuze unter meiner Kapuze im Ghetto Spät nachts, dann wenn sie mich nicht sehen Die Engel verpissen sich beim P2 beim zweiten Joint Die Dämonen zeigen sich am Ende des Joints Und ich bin da ohne da zu sein, denn die Vergangenheit fickt mich Wir erleiden Verletzungen wählt die Stiche für die Naht Ja, ich werde dich ausziehen ich spreche schon von der Zukunft Meine Gefühle sind erstarrt, verlangsamt, unverständlich Ein paar mehr ich liebe dich hätten mich unbesiegbar gemacht Aber dein Hass auf diese Welt ist stärker als deine Liebe zu mir Ich vernichte sie, da ich ein Leben aufzubauen haben, welches weit weg von allem ist Die kleine Stimme sagte mir Que la famille, mehr als mein Leben Es werden Erinnerungen bleiben, vielleicht die Euros, vielleicht die Träume von Morgen Refrain Ademo Bang, Bang, Bang, Bang, Bang Ich rauche einen Joint und dann fick ich dich Bang, Bang, Bang, Bang, Bang Ich bin brutal, deshalb verletze ich dich Bang, Bang, Bang, Bang, Bang Du willst testen, doch ich versohle dir deinen Arsch Bang, Bang, Bang, Bang, Bang Du sagst mir, dass ich der Beste bin und dann beugst du dich Bang, Bang, Bang, Bang, Bang Ich denke über mein Leben nach, ich vermisse die Straße Bang, Bang, Bang, Bang, Bang Ich schaue zum Mond, die Aussicht ist dunkel Bang, Bang, Bang, Bang, Bang Und ich denke, dass es dauert, dauert, dauert Bang, Bang, Bang, Bang, Bang Und ich spreche zu Wänden, Wänden, Wänden</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ouais j'suis PNL Ouais ouais bah ouais j'suis PNL Ouais ouais ouais j'suis QLF Ouais ouais j'suis PNL Peace and Lové J'suis QLF Bah ouais j'suis PNL Retrouve-moi avec Ademo tout en haut de la tour Eiffel J'suis à Clignancourt avec Cortex Avec mes kheys chez le kébabier tel un cortège J'bibi ouais j'bibi la bonne be-her J'pécho ta meuf, j'l'a met dans mon pokédex pokédex Même en Gucci Louis Vi', jamais je flex Autotune Autotune Toi t'es gay, moi j'suis juste avec mon gang T'es bizarre apparemment tu kiff les shemale Moi j'suis just là et je chill mec Ouais j'suis PNL Bah ouais j'suis PNLYou might also like</t>
+          <t>Ouais j'suis PNL Ouais ouais bah ouais j'suis PNL Ouais ouais ouais j'suis QLF Ouais ouais j'suis PNL Peace and Lové J'suis QLF Bah ouais j'suis PNL Retrouve-moi avec Ademo tout en haut de la tour Eiffel J'suis à Clignancourt avec Cortex Avec mes kheys chez le kébabier tel un cortège J'bibi ouais j'bibi la bonne be-her J'pécho ta meuf, j'l'a met dans mon pokédex pokédex Même en Gucci Louis Vi', jamais je flex Autotune Autotune Toi t'es gay, moi j'suis juste avec mon gang T'es bizarre apparemment tu kiff les shemale Moi j'suis just là et je chill mec Ouais j'suis PNL Bah ouais j'suis PNL</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love La-la, la-la-la-la-la-la-la, la-la-la-la-la, love Love the way you fill me up with life Baby, we can break the speed of light Nothing to fear when you are near Just give me mo-o-ore Reaching for the sky, I'm aiming high Close my eyes and then it's almost like we fly Up in the air Up in the air, let's take it there Up to the air Never let go-oh-oh Oh-oh-oh Feel the energy Between you and me Baby, it's so right Oh-oh-oh I feel the energy Just taking over me, over me How I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love Oh, I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love You might also like Paris to LA over the night All around the world, just you and I Nothing to fear Nothing to fear When you are near When you are near We're on a ro-o-oll And we do it again And we do it again No stop, no end No stop, no end Out of control Oh-oh-oh Feel the energy Between you and me Baby, it's so right Oh-oh-oh I feel the energy Just taking over me, over me How I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love Oh, I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love Nothing to fear When you are near Oh-oh-oh I feel the energy Between you and me Baby, it's so right Oh-oh-oh I feel the energy Just taking over me, over me How I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love Oh, I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love18</t>
+          <t>La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love La-la, la-la-la-la-la-la-la, la-la-la-la-la, love Love the way you fill me up with life Baby, we can break the speed of light Nothing to fear when you are near Just give me mo-o-ore Reaching for the sky, I'm aiming high Close my eyes and then it's almost like we fly Up in the air Up in the air, let's take it there Up to the air Never let go-oh-oh Oh-oh-oh Feel the energy Between you and me Baby, it's so right Oh-oh-oh I feel the energy Just taking over me, over me How I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love Oh, I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love Paris to LA over the night All around the world, just you and I Nothing to fear Nothing to fear When you are near When you are near We're on a ro-o-oll And we do it again And we do it again No stop, no end No stop, no end Out of control Oh-oh-oh Feel the energy Between you and me Baby, it's so right Oh-oh-oh I feel the energy Just taking over me, over me How I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love Oh, I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love Nothing to fear When you are near Oh-oh-oh I feel the energy Between you and me Baby, it's so right Oh-oh-oh I feel the energy Just taking over me, over me How I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love Oh, I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love18</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DRMZ, you a fool for this one PNL Que la famille, que la famille Que La Famille, que la famille Ouais igo à l'aller j'ai d'la monnaie, au retour le coffre est chargé comme un poney J'écoule, je ramasse, je claque, j'y retourne, du début à la fin d'l'année abonné Pour les autres on s'enjaille, on survit et on die J'accorde une danse à la rue bien accompagné, j'galette ma solitude après deux 'teilles Pas besoin qu'on m'aime, j'vends du seum tampon M Quelques euros j'prends ma part, j'la laisse pas aux bâtards, ouais, qu'ils crèvent par centaines J'kiffe voir la misère s'élever, j'me suis fatigué à rêver J'me repose sur les faits, ouais, bientôt j'me refais, j'te laisse L, j'prends le V, l'enfer m'est réservé Les putes parlent dans mon V, PNL, Que La Famille QLF, on t'a pas dit, Ademo et Ladif, Gabbana est le deal On t'fait l'taga, on t'fait la beuh, tu viens du 16, on t'fait la cesse Élevé par un bandit, plus tard, j'veux faire comme mon papa, maîtresse Pétasse, allez casse un tour, le cur délogé, ils ont cassé ma tour Encore en retard, j'arriverai pas à l'heure, j'marche pas avec les putes, nique j'attends l'prochain tour Cet été j'me barre, claque deux-trois payes Vis la vie qu'j'aurai pas, marre du hood, j'me réveille Vis la vie qu'j'aurai pas Le bon-char en mode veille De retour j'l'aurai pas, la même heure, la même hess, Quand ça change j'le sais pas You might also like Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis J'veux du L, j'veux du V, j'veux du G, pour saper mes marques dans l'cur Y a qu'quand tu descends en enfer, qu'tu veux m'renvoyer l'ascenseur Celle-là elle est belle, c'est dommage que ce soit une 'tasse Vraiment dommage tu l'as vue sur les Champs en train d'traîner devant Häagen-Dazs Encore un qui chauffe ma mamie, paraît qu'il veut casser son tête Encore une victime sur la liste qui va devoir appeler son père Un destin mais y a hmm, y a des billets donc j'souris Petit j'attendais pas ma sieste, mais juste de casser les dents d'la petite souris Ounga dégaine à Mowgli Ha, Ounga des keufs j'vais courir Ha-Ha Ounga visite à Fleury, libérable cinq heures du mat', pété j'vais vomir La Il m'faut mon soleil, mes tartines et mon Nutella Igo, il m'faut mon oseille et ma gow du Venezuela J'suis là là là là où y a l'seille, ma drogue la base de ma paye Handek, écarte-toi de la teille, y a qu'ma télé qui s'rappelle de la veille J'fume, j'ai des cernes sous les yeux, te plains pas, j'suis né dans la jungle J'ai visser très tôt jusqu'à très tard de 10 heures à 4 heures du matin Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis18</t>
+          <t>DRMZ, you a fool for this one PNL Que la famille, que la famille Que La Famille, que la famille Ouais igo à l'aller j'ai d'la monnaie, au retour le coffre est chargé comme un poney J'écoule, je ramasse, je claque, j'y retourne, du début à la fin d'l'année abonné Pour les autres on s'enjaille, on survit et on die J'accorde une danse à la rue bien accompagné, j'galette ma solitude après deux 'teilles Pas besoin qu'on m'aime, j'vends du seum tampon M Quelques euros j'prends ma part, j'la laisse pas aux bâtards, ouais, qu'ils crèvent par centaines J'kiffe voir la misère s'élever, j'me suis fatigué à rêver J'me repose sur les faits, ouais, bientôt j'me refais, j'te laisse L, j'prends le V, l'enfer m'est réservé Les putes parlent dans mon V, PNL, Que La Famille QLF, on t'a pas dit, Ademo et Ladif, Gabbana est le deal On t'fait l'taga, on t'fait la beuh, tu viens du 16, on t'fait la cesse Élevé par un bandit, plus tard, j'veux faire comme mon papa, maîtresse Pétasse, allez casse un tour, le cur délogé, ils ont cassé ma tour Encore en retard, j'arriverai pas à l'heure, j'marche pas avec les putes, nique j'attends l'prochain tour Cet été j'me barre, claque deux-trois payes Vis la vie qu'j'aurai pas, marre du hood, j'me réveille Vis la vie qu'j'aurai pas Le bon-char en mode veille De retour j'l'aurai pas, la même heure, la même hess, Quand ça change j'le sais pas Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis J'veux du L, j'veux du V, j'veux du G, pour saper mes marques dans l'cur Y a qu'quand tu descends en enfer, qu'tu veux m'renvoyer l'ascenseur Celle-là elle est belle, c'est dommage que ce soit une 'tasse Vraiment dommage tu l'as vue sur les Champs en train d'traîner devant Häagen-Dazs Encore un qui chauffe ma mamie, paraît qu'il veut casser son tête Encore une victime sur la liste qui va devoir appeler son père Un destin mais y a hmm, y a des billets donc j'souris Petit j'attendais pas ma sieste, mais juste de casser les dents d'la petite souris Ounga dégaine à Mowgli Ha, Ounga des keufs j'vais courir Ha-Ha Ounga visite à Fleury, libérable cinq heures du mat', pété j'vais vomir La Il m'faut mon soleil, mes tartines et mon Nutella Igo, il m'faut mon oseille et ma gow du Venezuela J'suis là là là là où y a l'seille, ma drogue la base de ma paye Handek, écarte-toi de la teille, y a qu'ma télé qui s'rappelle de la veille J'fume, j'ai des cernes sous les yeux, te plains pas, j'suis né dans la jungle J'ai visser très tôt jusqu'à très tard de 10 heures à 4 heures du matin Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis18</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>C'est comme si j'avais un atavisme C'est comme si j'rappais à la va-vite, nique sa mère, moi, j'suis pas un riche J'suis baisé, j'ai envie d'pleurer à chaque pleine lune Perdu, le genre de fou capable de rêver d'futur quand il voit une belle pute Parce que j'suis plus triste encore que l'film Le Titanic Parce que j'suis baisé, tu pourras plus jamais revoir l'enfant, le p'tit Tarik Baisés, c'est la merde ma couille, faudrait qu'j'pète un coup Baisés, N.O.S, check, on reste intestables Interdiction d'toucher à l'un, au risque de perdre la boule, baise la poulaille On reste pareils X X, dogue argentin Kaboul dans nos lifes X car on graille J'suis baisé, et ça depuis qu'on m'a pé-cou l'enfance Ça fait six ans qu'j'rappe, six ans que rage et peine s'foutent ensemble Baisés, à voir mon reuf vieillir triste Putain, passe-moi l'calibre que j'aille remplir la tirelire Le chauffage coûte cher alors dans la chambre il caille Y'a rien mais tu mets quand même les couverts quand t'as l'ventre qui râle Mais c'est parce que j'ai fait des fautes la plupart d'ma vie J'ai joué hors jeu vu qu'j'ai vu qu'y'avait pas d'arbitre Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail X2 You might also like Avant j'voyais un monde parfait maintenant j'veux l'baiser J'fais une croix sur mon rêve de gosse le jour où j'me suis blessé Baisés, parce que j'parle seul comme un malade mental Baisés, la micht' t'attache pas car j'suis pas sentimental Baisés, parce que j'retrouve ma solitude dans l'allée Baisés, parce que j'reste là mais j'voudrais m'en aller Baisés, parce que j'passe des heures à fixer le vide X donc faudra vite faire le vide Le désespoir d'mon père de voir son fils au tribunal Je n'l'ai jamais rendu fier, j'ai la haine, j'vais prendre une arme Baisés, parce que j'ai le souvenir des pe-pe-perquises Baisés, parce qu'on m'a dit petit Ça s'transmet père-fils Baisé par la tristesse, gros, j'ai appris à vivre avec J'la traîne un peu partout sous la capuche qui recouvre ma tête Baisés, parce que j'oublie trop souvent d'prier Dieu Baisés, parce que j'voulais voir loin mais on m'a pris mes yeux Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés putain j'te jure qu'on f'ra l'bail Et c'est parce que je n'savais pas quel X Baisé par ce manque d'amour d'ma mère qui aurait pu m'aider Je suis ce petit du zoo qui vit dans l'passé Récupère ma tétine, contre les chats, gazelle Baisés, faut trouver un toit c't'été, ça sent l'expulsion À cinq dans un une pièce, 'faut pas s'faire d'illusions Baisés, parce que j'croyais qu'ça n'arrivait qu'aux autres Ademo, Son des Halls, ça ça sent l'tiek de zoo ? Ça sent la hess Ça sent la rage Parce que c'est dans les gênes baisés V'la les deux frères prêts à crever dans les airs Percer sous le chant des sirènes C'est pour tous les frères et surs dehors tout l'hiver Merde Ademo, N.O.S Putain d'merde, y'a longtemps qu'y'a eu le S.O.S Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Sur ma tête qu'on f'ra l'bail Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Putain j'te jure qu'on f'ra l'bail</t>
+          <t>C'est comme si j'avais un atavisme C'est comme si j'rappais à la va-vite, nique sa mère, moi, j'suis pas un riche J'suis baisé, j'ai envie d'pleurer à chaque pleine lune Perdu, le genre de fou capable de rêver d'futur quand il voit une belle pute Parce que j'suis plus triste encore que l'film Le Titanic Parce que j'suis baisé, tu pourras plus jamais revoir l'enfant, le p'tit Tarik Baisés, c'est la merde ma couille, faudrait qu'j'pète un coup Baisés, N.O.S, check, on reste intestables Interdiction d'toucher à l'un, au risque de perdre la boule, baise la poulaille On reste pareils X X, dogue argentin Kaboul dans nos lifes X car on graille J'suis baisé, et ça depuis qu'on m'a pé-cou l'enfance Ça fait six ans qu'j'rappe, six ans que rage et peine s'foutent ensemble Baisés, à voir mon reuf vieillir triste Putain, passe-moi l'calibre que j'aille remplir la tirelire Le chauffage coûte cher alors dans la chambre il caille Y'a rien mais tu mets quand même les couverts quand t'as l'ventre qui râle Mais c'est parce que j'ai fait des fautes la plupart d'ma vie J'ai joué hors jeu vu qu'j'ai vu qu'y'avait pas d'arbitre Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail X2 Avant j'voyais un monde parfait maintenant j'veux l'baiser J'fais une croix sur mon rêve de gosse le jour où j'me suis blessé Baisés, parce que j'parle seul comme un malade mental Baisés, la micht' t'attache pas car j'suis pas sentimental Baisés, parce que j'retrouve ma solitude dans l'allée Baisés, parce que j'reste là mais j'voudrais m'en aller Baisés, parce que j'passe des heures à fixer le vide X donc faudra vite faire le vide Le désespoir d'mon père de voir son fils au tribunal Je n'l'ai jamais rendu fier, j'ai la haine, j'vais prendre une arme Baisés, parce que j'ai le souvenir des pe-pe-perquises Baisés, parce qu'on m'a dit petit Ça s'transmet père-fils Baisé par la tristesse, gros, j'ai appris à vivre avec J'la traîne un peu partout sous la capuche qui recouvre ma tête Baisés, parce que j'oublie trop souvent d'prier Dieu Baisés, parce que j'voulais voir loin mais on m'a pris mes yeux Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés putain j'te jure qu'on f'ra l'bail Et c'est parce que je n'savais pas quel X Baisé par ce manque d'amour d'ma mère qui aurait pu m'aider Je suis ce petit du zoo qui vit dans l'passé Récupère ma tétine, contre les chats, gazelle Baisés, faut trouver un toit c't'été, ça sent l'expulsion À cinq dans un une pièce, 'faut pas s'faire d'illusions Baisés, parce que j'croyais qu'ça n'arrivait qu'aux autres Ademo, Son des Halls, ça ça sent l'tiek de zoo ? Ça sent la hess Ça sent la rage Parce que c'est dans les gênes baisés V'la les deux frères prêts à crever dans les airs Percer sous le chant des sirènes C'est pour tous les frères et surs dehors tout l'hiver Merde Ademo, N.O.S Putain d'merde, y'a longtemps qu'y'a eu le S.O.S Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Sur ma tête qu'on f'ra l'bail Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Putain j'te jure qu'on f'ra l'bail</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Een blik op het water Traag in de rivier Voorbij zonder voorbij te gaan Waar de beweging rust vindt Roerloos aan de oever staan Een blik op het water En het huilen begint Een adem in de wind De verre reuk van vuur Herkennen van hier eerder te zijn geweest Een mens die zich op aard' bevindt De geuren van het late uur Een adem in de wind En het huilen begint Dit is geen verdriet, nee Dit is huilen van vreugde Dit zijn tranen door het lachen heen Een blik in de ogen Ik kijk mijzelf aan Alle vaders, alle dochters tegelijk Hoe alles zijn bestemming vindt Het goed en fout gedaan Een blik in de ogen En het huilen begint Dit is geen verdriet, nee Dit is huilen van vreugde Dit zijn tranen door het lachen heen Zo mooi Zo mooi Zo oneindig Een blik in de ruimte Tussen de sterren door Langs de planeten in hun baan Het leeg waarin alles ligt besloten Het zichtbare voorbijgegaan Een blik in de ruimte En het huilen begint Dit is geen verdriet, nee Dit is huilen van vreugde Dit zijn tranen door het lachen heen Zo mooi Zo mooi Het was nog nooit Zo mooi Zo mooi Zo mooi was het nog nooit En de wind waait En de bomen waaien mee En het gras imiteert De golven van de zee Water in de bomen Golven in het gras Niets is ooit meer zoals het was Zo mooi Zo mooi Het was nog nooit zo Zo mooi Zo mooi Zo mooi was het nog nooitYou might also like</t>
+          <t>Een blik op het water Traag in de rivier Voorbij zonder voorbij te gaan Waar de beweging rust vindt Roerloos aan de oever staan Een blik op het water En het huilen begint Een adem in de wind De verre reuk van vuur Herkennen van hier eerder te zijn geweest Een mens die zich op aard' bevindt De geuren van het late uur Een adem in de wind En het huilen begint Dit is geen verdriet, nee Dit is huilen van vreugde Dit zijn tranen door het lachen heen Een blik in de ogen Ik kijk mijzelf aan Alle vaders, alle dochters tegelijk Hoe alles zijn bestemming vindt Het goed en fout gedaan Een blik in de ogen En het huilen begint Dit is geen verdriet, nee Dit is huilen van vreugde Dit zijn tranen door het lachen heen Zo mooi Zo mooi Zo oneindig Een blik in de ruimte Tussen de sterren door Langs de planeten in hun baan Het leeg waarin alles ligt besloten Het zichtbare voorbijgegaan Een blik in de ruimte En het huilen begint Dit is geen verdriet, nee Dit is huilen van vreugde Dit zijn tranen door het lachen heen Zo mooi Zo mooi Het was nog nooit Zo mooi Zo mooi Zo mooi was het nog nooit En de wind waait En de bomen waaien mee En het gras imiteert De golven van de zee Water in de bomen Golven in het gras Niets is ooit meer zoals het was Zo mooi Zo mooi Het was nog nooit zo Zo mooi Zo mooi Zo mooi was het nog nooit</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Tous mes choix sont nauséabonds Jcrois qujai pas bien retenu la leçon Elle me manque cette époque où ça jouait au Sims 2 en caleçon Pour mendormir jcompte mes lacunes Ça marche pas donc jparle à la lune Elle me rappelle que maman est éphémère, quon en a quune Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meillur client En attendant la suite jm console en rêvant Ya des moments où jai envie que dune chose cest dêtre triste et quon mlaisse Ademo ment, même quand jaurai percé jplairai pas à Eva Mendes Temploies des moyens colossaux juste pour que jte cala Dépenses des sommes indécentes pour la mala Ten oublies même de rattraper ta salât Jvis dans ton esprit le loyer est gratos Le seul huissier qui mfera sortir cest une bastos Jte hanterai jusquà la fin dtes jours comme Kratos Jte hanterai jusquà la fin dtes jours comme Kratos Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant You might also likeJattends la fin comme le dernier grain du sablier Aucune menace ne me fera plier Tu peux essayer ressayer mais jamais ô grand jamais je rendrai mon tablier Jvais dans la salle du temps pour ne3ess Jaccepte la CB PayPal et les espèces J'suis prêt à faire les efforts qu'il faut pour mettre ma maman à labri Passer du scoot' au classe S Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant</t>
+          <t>Tous mes choix sont nauséabonds Jcrois qujai pas bien retenu la leçon Elle me manque cette époque où ça jouait au Sims 2 en caleçon Pour mendormir jcompte mes lacunes Ça marche pas donc jparle à la lune Elle me rappelle que maman est éphémère, quon en a quune Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meillur client En attendant la suite jm console en rêvant Ya des moments où jai envie que dune chose cest dêtre triste et quon mlaisse Ademo ment, même quand jaurai percé jplairai pas à Eva Mendes Temploies des moyens colossaux juste pour que jte cala Dépenses des sommes indécentes pour la mala Ten oublies même de rattraper ta salât Jvis dans ton esprit le loyer est gratos Le seul huissier qui mfera sortir cest une bastos Jte hanterai jusquà la fin dtes jours comme Kratos Jte hanterai jusquà la fin dtes jours comme Kratos Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant Jattends la fin comme le dernier grain du sablier Aucune menace ne me fera plier Tu peux essayer ressayer mais jamais ô grand jamais je rendrai mon tablier Jvais dans la salle du temps pour ne3ess Jaccepte la CB PayPal et les espèces J'suis prêt à faire les efforts qu'il faut pour mettre ma maman à labri Passer du scoot' au classe S Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Niente è per sempre, questa è una guerra, oh Chico Brucio lento in questo inferno Lago Cocito La mia anima, bianca e nera come Al Pacino Ho messo tutto sul rosso, ora ricomincia il giro Guardami bene, siamo leggenda e mito Lombra non segue più, è vittima del mio istinto Lato oscuro, Alcantara Kroko davanti al viso Ho visto la Siberie e non cè più nessuno in giro Ma anche lì lultimo non sarà il primo Puoi volermi morto, ma non mi ferma il Risiko Putain Les anges dellenfer La morte è qui ma vuole solo i Lovés Nella notte cantiche Da me, Triton, imparano Come Adamo, mi sento solo dal diavolo Innocente, loin dça, quelle vie Anima mea, ma questa è la Therapie You might also likeNiente è per sempre, questa è una guerra, oh Chico Brucio lento in questo inferno Lago Cocito La mia anima, bianca e nera come Al Pacino Ho messo tutto sul rosso, ora ricomincia il giro Mi sono sentito troppo male dentro, quando ho capito che in sta vita sono maledetto C'ho un cuore dentro che vuole essere da solo e spento E sarà accompagnato quando mi sparano in petto Generazione atea con cristi e collane Li vedi decollare frate con le crisi e pare Tutti sti soldi obiettivo fra li voglio fare Perchè solo fra da triste scrivo pezzi fra li voglio fare Apparte con me stesso mai avuto un contratto Da una vita spero di spaccare quel palco La gente pensa che io faccia già la bellavita Vista da fuori sembra quasi in discesa sta salita Mai sentito dire sto ragazzo spacca Sulle spalle solo pesi mai presa un pacca Sempre qua da solo e non voglio che cambia E pure se volessi farlo alla fine che cambia Cento pezzi pronti, scrivo ancora sono a corto Con le mie cervella tipo chiuse in avaria Mi sorprende che nessuno si è mai accorto Che qua meritocrazia, fa rima con utopia Ste notti non dormo, penso a quando ritorno Che sto perso in un sogno, fra nel mezzo del sonno Penso a tutt'ora con i pensieri nella tempesta E se vuoi farti due follower bro sparati in testa Niente è per sempre, questa è una guerra, oh Chico Brucio lento in questo inferno Lago Cocito La mia anima, bianca e nera come Al Pacino Ho messo tutto sul rosso, ora ricomincia il giro2</t>
+          <t>Niente è per sempre, questa è una guerra, oh Chico Brucio lento in questo inferno Lago Cocito La mia anima, bianca e nera come Al Pacino Ho messo tutto sul rosso, ora ricomincia il giro Guardami bene, siamo leggenda e mito Lombra non segue più, è vittima del mio istinto Lato oscuro, Alcantara Kroko davanti al viso Ho visto la Siberie e non cè più nessuno in giro Ma anche lì lultimo non sarà il primo Puoi volermi morto, ma non mi ferma il Risiko Putain Les anges dellenfer La morte è qui ma vuole solo i Lovés Nella notte cantiche Da me, Triton, imparano Come Adamo, mi sento solo dal diavolo Innocente, loin dça, quelle vie Anima mea, ma questa è la Therapie Niente è per sempre, questa è una guerra, oh Chico Brucio lento in questo inferno Lago Cocito La mia anima, bianca e nera come Al Pacino Ho messo tutto sul rosso, ora ricomincia il giro Mi sono sentito troppo male dentro, quando ho capito che in sta vita sono maledetto C'ho un cuore dentro che vuole essere da solo e spento E sarà accompagnato quando mi sparano in petto Generazione atea con cristi e collane Li vedi decollare frate con le crisi e pare Tutti sti soldi obiettivo fra li voglio fare Perchè solo fra da triste scrivo pezzi fra li voglio fare Apparte con me stesso mai avuto un contratto Da una vita spero di spaccare quel palco La gente pensa che io faccia già la bellavita Vista da fuori sembra quasi in discesa sta salita Mai sentito dire sto ragazzo spacca Sulle spalle solo pesi mai presa un pacca Sempre qua da solo e non voglio che cambia E pure se volessi farlo alla fine che cambia Cento pezzi pronti, scrivo ancora sono a corto Con le mie cervella tipo chiuse in avaria Mi sorprende che nessuno si è mai accorto Che qua meritocrazia, fa rima con utopia Ste notti non dormo, penso a quando ritorno Che sto perso in un sogno, fra nel mezzo del sonno Penso a tutt'ora con i pensieri nella tempesta E se vuoi farti due follower bro sparati in testa Niente è per sempre, questa è una guerra, oh Chico Brucio lento in questo inferno Lago Cocito La mia anima, bianca e nera come Al Pacino Ho messo tutto sul rosso, ora ricomincia il giro2</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DRMZ, you a fool for this one PNL Que la famille, que la famille Que La Famille, que la famille Ouais igo à l'aller j'ai d'la monnaie, au retour le coffre est chargé comme un poney J'écoule, je ramasse, je claque, j'y retourne, du début à la fin d'l'année abonné Pour les autres on s'enjaille, on survit et on die J'accorde une danse à la rue bien accompagné, j'galette ma solitude après deux 'teilles Pas besoin qu'on m'aime, j'vends du seum tampon M Quelques euros j'prends ma part, j'la laisse pas aux bâtards, ouais, qu'ils crèvent par centaines J'kiffe voir la misère s'élever, j'me suis fatigué à rêver J'me repose sur les faits, ouais, bientôt j'me refais, j'te laisse L, j'prends le V, l'enfer m'est réservé Les putes parlent dans mon V, PNL, Que La Famille QLF, on t'a pas dit, Ademo et Ladif, Gabbana est le deal On t'fait l'taga, on t'fait la beuh, tu viens du 16, on t'fait la cesse Élevé par un bandit, plus tard, j'veux faire comme mon papa, maîtresse Pétasse, allez casse un tour, le cur délogé, ils ont cassé ma tour Encore en retard, j'arriverai pas à l'heure, j'marche pas avec les putes, nique j'attends l'prochain tour Cet été j'me barre, claque deux-trois payes Vis la vie qu'j'aurai pas, marre du hood, j'me réveille Vis la vie qu'j'aurai pas Le bon-char en mode veille De retour j'l'aurai pas, la même heure, la même hess, Quand ça change j'le sais pas You might also like Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis J'veux du L, j'veux du V, j'veux du G, pour saper mes marques dans l'cur Y a qu'quand tu descends en enfer, qu'tu veux m'renvoyer l'ascenseur Celle-là elle est belle, c'est dommage que ce soit une 'tasse Vraiment dommage tu l'as vue sur les Champs en train d'traîner devant Häagen-Dazs Encore un qui chauffe ma mamie, paraît qu'il veut casser son tête Encore une victime sur la liste qui va devoir appeler son père Un destin mais y a hmm, y a des billets donc j'souris Petit j'attendais pas ma sieste, mais juste de casser les dents d'la petite souris Ounga dégaine à Mowgli Ha, Ounga des keufs j'vais courir Ha-Ha Ounga visite à Fleury, libérable cinq heures du mat', pété j'vais vomir La Il m'faut mon soleil, mes tartines et mon Nutella Igo, il m'faut mon oseille et ma gow du Venezuela J'suis là là là là où y a l'seille, ma drogue la base de ma paye Handek, écarte-toi de la teille, y a qu'ma télé qui s'rappelle de la veille J'fume, j'ai des cernes sous les yeux, te plains pas, j'suis né dans la jungle J'ai visser très tôt jusqu'à très tard de 10 heures à 4 heures du matin Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis18</t>
+          <t>DRMZ, you a fool for this one PNL Que la famille, que la famille Que La Famille, que la famille Ouais igo à l'aller j'ai d'la monnaie, au retour le coffre est chargé comme un poney J'écoule, je ramasse, je claque, j'y retourne, du début à la fin d'l'année abonné Pour les autres on s'enjaille, on survit et on die J'accorde une danse à la rue bien accompagné, j'galette ma solitude après deux 'teilles Pas besoin qu'on m'aime, j'vends du seum tampon M Quelques euros j'prends ma part, j'la laisse pas aux bâtards, ouais, qu'ils crèvent par centaines J'kiffe voir la misère s'élever, j'me suis fatigué à rêver J'me repose sur les faits, ouais, bientôt j'me refais, j'te laisse L, j'prends le V, l'enfer m'est réservé Les putes parlent dans mon V, PNL, Que La Famille QLF, on t'a pas dit, Ademo et Ladif, Gabbana est le deal On t'fait l'taga, on t'fait la beuh, tu viens du 16, on t'fait la cesse Élevé par un bandit, plus tard, j'veux faire comme mon papa, maîtresse Pétasse, allez casse un tour, le cur délogé, ils ont cassé ma tour Encore en retard, j'arriverai pas à l'heure, j'marche pas avec les putes, nique j'attends l'prochain tour Cet été j'me barre, claque deux-trois payes Vis la vie qu'j'aurai pas, marre du hood, j'me réveille Vis la vie qu'j'aurai pas Le bon-char en mode veille De retour j'l'aurai pas, la même heure, la même hess, Quand ça change j'le sais pas Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis J'veux du L, j'veux du V, j'veux du G, pour saper mes marques dans l'cur Y a qu'quand tu descends en enfer, qu'tu veux m'renvoyer l'ascenseur Celle-là elle est belle, c'est dommage que ce soit une 'tasse Vraiment dommage tu l'as vue sur les Champs en train d'traîner devant Häagen-Dazs Encore un qui chauffe ma mamie, paraît qu'il veut casser son tête Encore une victime sur la liste qui va devoir appeler son père Un destin mais y a hmm, y a des billets donc j'souris Petit j'attendais pas ma sieste, mais juste de casser les dents d'la petite souris Ounga dégaine à Mowgli Ha, Ounga des keufs j'vais courir Ha-Ha Ounga visite à Fleury, libérable cinq heures du mat', pété j'vais vomir La Il m'faut mon soleil, mes tartines et mon Nutella Igo, il m'faut mon oseille et ma gow du Venezuela J'suis là là là là où y a l'seille, ma drogue la base de ma paye Handek, écarte-toi de la teille, y a qu'ma télé qui s'rappelle de la veille J'fume, j'ai des cernes sous les yeux, te plains pas, j'suis né dans la jungle J'ai visser très tôt jusqu'à très tard de 10 heures à 4 heures du matin Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis18</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac Pour qu'ma money menterre Tant qu'ma Money menterre Tant qu'ma money m'enterre Mec met tout dans le sac Pour qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac Pour que ma money menterre Tant qu'ma Money menterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Le t-shirt est XL, le boxer est XL Elle met pas de XS, elle a des big fesses You might also likeOn brille comme lumière qui résonne Jsuis dans le sud avec amnésia Au fond des abysses comme anémone On revient de loin on veut palper sale Yeah, Yeah Me fait pas la mère Thérèsa On fait pas de lart terrestre NO ! Si je peux me permettre Paie en moi en espèces Où va te faire mettre Jai pas le temps den perdre Jsuis dans la soucoupe Sous-couche en kevlar On est sous-côté Depuis la poussette Tu veux quon lé-par ? Jsais pas marrêter Il faut que tu démarres Jsuis dans bails pas net Fait netour manette Fait des tours by night Très peu de détours Beaucoup de raccourcis De très grands projets Dans des trous de souris Ils ont rien donné Donc on a tout pris Ils ont rien donné Donc on a tout pris Tant que ma Money menterre Mec met tout dans le sac Pour que ma money menterre Mec met tout dans le sac Tant qu'ma Money menterre Tant qu'ma Money menterre Mec met tout dans le sac Pour qu'ma money menterre Tant qu'ma Money menterre Tant qu'ma money m'enterre Mec met tout dans le sac Pour qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac Pour que ma money menterre Tant qu'ma money menterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Connait tous les menteurs tous Tant qu'ma money m'enterre faire le tour de la terre Yeah, yeah Papi finit ton verre Tant que ta money tenterre Juste pour finir en tête Près à se jeter la pierre Hijo Pas fait le quart de mes dièzes Veulent manger tous mes restes tous Part avant viens après Vous êtes la pire espèce Jai pris les devant depuis Je vous laisse quelques pièces à peine Jétais en dèche foreal Étourdi dans livresse for real Gratter des nuits entières Rayer des disques de prods Et je vois leurs yeux ses porcs On est trop fort cest mort Maintenant tu veux nous Check Taimerais quon coopère hein ? Aller-retour les enfers Tant que ma money menterre Tant que ma money menterre Ils ont rien donné Donc on a tout pris Ils ont rien donné Donc on a tout pris Uzi est rusé, enfoiré, enfoiré, enfoiré, enfoiré ! Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac pour qu'ma money menterre Tant que ma money menterre Tant que ma money m'enterre Mec met tout dans le sac pour qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac pour qu'ma money menterre Tant qu'ma money menterre Tant qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre</t>
+          <t>Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac Pour qu'ma money menterre Tant qu'ma Money menterre Tant qu'ma money m'enterre Mec met tout dans le sac Pour qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac Pour que ma money menterre Tant qu'ma Money menterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Le t-shirt est XL, le boxer est XL Elle met pas de XS, elle a des big fesses On brille comme lumière qui résonne Jsuis dans le sud avec amnésia Au fond des abysses comme anémone On revient de loin on veut palper sale Yeah, Yeah Me fait pas la mère Thérèsa On fait pas de lart terrestre NO ! Si je peux me permettre Paie en moi en espèces Où va te faire mettre Jai pas le temps den perdre Jsuis dans la soucoupe Sous-couche en kevlar On est sous-côté Depuis la poussette Tu veux quon lé-par ? Jsais pas marrêter Il faut que tu démarres Jsuis dans bails pas net Fait netour manette Fait des tours by night Très peu de détours Beaucoup de raccourcis De très grands projets Dans des trous de souris Ils ont rien donné Donc on a tout pris Ils ont rien donné Donc on a tout pris Tant que ma Money menterre Mec met tout dans le sac Pour que ma money menterre Mec met tout dans le sac Tant qu'ma Money menterre Tant qu'ma Money menterre Mec met tout dans le sac Pour qu'ma money menterre Tant qu'ma Money menterre Tant qu'ma money m'enterre Mec met tout dans le sac Pour qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac Pour que ma money menterre Tant qu'ma money menterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Connait tous les menteurs tous Tant qu'ma money m'enterre faire le tour de la terre Yeah, yeah Papi finit ton verre Tant que ta money tenterre Juste pour finir en tête Près à se jeter la pierre Hijo Pas fait le quart de mes dièzes Veulent manger tous mes restes tous Part avant viens après Vous êtes la pire espèce Jai pris les devant depuis Je vous laisse quelques pièces à peine Jétais en dèche foreal Étourdi dans livresse for real Gratter des nuits entières Rayer des disques de prods Et je vois leurs yeux ses porcs On est trop fort cest mort Maintenant tu veux nous Check Taimerais quon coopère hein ? Aller-retour les enfers Tant que ma money menterre Tant que ma money menterre Ils ont rien donné Donc on a tout pris Ils ont rien donné Donc on a tout pris Uzi est rusé, enfoiré, enfoiré, enfoiré, enfoiré ! Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac pour qu'ma money menterre Tant que ma money menterre Tant que ma money m'enterre Mec met tout dans le sac pour qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac pour qu'ma money menterre Tant qu'ma money menterre Tant qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Yeah, c'est Inf, c'est Veust, c'est Grünt, yeah DBF tome 4, 888, lalbum, Don Dada Assassin prêt à cracher l'feu, reste concentré, yeah, hein Les chargeurs sont pleins, mais j'les vide tous tous Les ennemis sont pleins mais j'les nique tous yeah L'envie, la jalousie nous divisent tous Voici mon nom d'stratège Sol Invictus Sale fou va, c'est jeune fe-boeu, big Veuveu, spit le feu, j'dis cque jvux L'avocat si jle raque j'exig qu'il me disculpe J'fais du cash, jfais du rap ça excite les p'tites putes Au soleil sur le boat, un peu de brise de mer J'aurais honte que mon seul hit soit une reprise de merde Bien dolma bien douez, tu connais les dièses J'parle pas aux judges, j'parle pas aux djejs Prioritaire même si j'arrive par la gauche Chaque jour j'revois mes objectifs à la hausse et ouais Si j'ai du pain sur la planche j'dois le mettre sur la table J'suis en vet-sur à Cannes, faut un bête d'Huracan Chez nous c'est marche ou crève sur la dalle La loi du plus fort règne sur l'asphalte Y a tout c'que tu veux pour un tarif sympathique Le shit et la beuh, j'appelle Tariq Saint-Patrick Sur nous, ils écrivent plein d'articles et ouais Nos adversaires ont mal fini, pourtant ils étaient bien partis Chérie, elles te plaisent ces fleurs ? Elles sont pour toi J'me rappelle quand on avait qu'un veston pour trois Si le schmitt me tutoie, j'lui dis restons courtois Pendant qu'j'compte ma sse-lia et qu'je lèche mon pouce droit Le rap français, que des analphabètes Si j'les juge sur GQ, je casse la tablette Précision chirurgicale, comme celui qui shlasse la plaquette Devant leur che-bou, je place ma braguette Parce que gentil n'a qu'un il pan ça suffit pour viser pan Chargeur en forme de banane pan, ça suffit pour glisser pan J'le fais pour les miens, j'peux pas renier ma race Cousin, quand j'étais en chien, j'étais premier d'la casse Ils s'mentent à eux même en essayant d'se rassurer Vous s'rez meilleurs que nous quand l'océan sera sucré et ouais Pour l'instant fermez vos chattes, restez à vos places Même mort, j'donnerai pas l'respect à vos blazes C'est la loi du plus fauve, comme disait Le Rat Donc m'en veux pas d'viser le tas ou d'viser la tête au lieu d'viser le bras Piège sa caisse pour faire exploser un traître Parle pas d'fruit à un lion en train d'désosser un zèbre You might also like J'veux entendre le proc' crier si je fais le chrome briller J'veux voir le record plier, leurs corps dans l'coffre recroquevillés Froid comme un soviet' J'froisse tous leurs sons d'fillettes A l'aise comme DSK dans le Sofitel Même aveugle, j'donnerai toujours ma vision des choses toujours Ils r'gardent ma femme, sa veste en vison les choque Antibes, Vallauris, ici on est chauds On a la même Cali, les mêmes palmiers qu'à Crenshaw Et ouais, la maj', j'les flippe pour gratter d'la marge flip, flip Maintenant j'essaie de drip sans acheter d'la marque drip drip Bientôt j'monte dans le ship, et j'largue les amarres je monte Avant, faut faire les chiffres de Kendrick Lamar J'me sens à l'étroit dans l'C3 J'les vois sur Insta, ils font trop tminik j'les vois J'les entends qui rappent, ils sont comme ma caisse Y a aucune assurance, aucun contrôle technique J'suis sur la pente douce depuis l'début du siècle De la grande ours, j'connais rien du ciel rien Dos au mur, obligé d'vendre les briques J'ai besoin de gaz, comme un putain d'briquet Yeah, 888, l'album de Infinit' c'est Veust, le zin Bientôt dans les bacs c'est Inf, le zin DBF, Don Dada, Grünt 64 Let's go 888 l'album ouh, enfin ouh Posent trop d'questions. C'est comment ? C'est quand ? C'est qui lui ? Que des mystères que des mystères Hey, hey Mais où il va lui ? Mais comment il fait lui ? Que des mystères J'fais le yoyo entre les deux hémisphères avec une jeune héritière Hey, oui, oui, c'est bien moi, le zin qui fait tout Le revolver s'appelle Casper parce qu'il effraie tout l'monde à chaque fois qu'il fait bouh On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es... Technique d'allemand, j'n'évolue qu'verticalement J't'explique qu'y a le manche, ta clique c'est un ramassis de boulets J'réunis l'Afrique comme Kadhafi le voulait Wesh la mif', c'est comment ? J'suis vers Nice, Saint-Laurent, flex en Yves Saint-Laurent Avec cinq ou six zins d'Oran, boîte à gant pleine dans le X5 orange Y a que des têtes suspectes qui boivent teille sur teille, fument pet' sur pet' Chacun d'entre eux peut te piétiner jusqu'à c'que ton plexus pète Faut vite mettre les femmes, les enfants, les gens trop tendres à l'abris Tmax de mai à octobre, Classe G de novembre à avril On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul face à Pablo Génie sans bac 7, j'veux l'troupeau entier, fuck une part du steak C'est bientôt l'heure de jouer à Tetris sur le mur avec les plaques du SNEP Bientôt les rivaux portent nos valises, juste avant de bruler comme Dino Ortolani Frère, j'me sens prêt, petite ombrelle dans un verre de sang frais Pull-up à 2.50 avec les freins défectueux Si tu m'demandes c'que je pense de ton top cinquante J'te dis qu'mes zins défèquent sur eux Pour distiller ma vie, il m'faudrait plus que dix stylos Traîne avec des zins qu'ont des fiches de recherches Et qui tournent dans des voitures qu'ont des fiches d'immo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo Yeah, yeah, yeah On met pas d'homme, au d'ssus des hommes non, c'est DBM On met les sommes, au d'ssus des sommes hey, c'est Don Dada, c'est Grünt 64 Yeah, yeah Seule ombre au tableau, t'es seul contre Pablo C'est nous, t'es toujours avec les glousseurs toujours Les maîtres glousseurs, on est là, ok go Elle est flex sur Insta, mais pour du Dior elle tapine J'pose le tel j'regarde les murs dépourvus d'or et de platine Quand la gélato est forte j'vois des mecs de la bac partout Veuveu, comme les gosses il aime trop quand y a pas d'patrouille Jump au dessus des lois comme Jordan, on aime ce genre d'âneries Et quand les gendarmes pleurent au fond des gendarmeries Ici vous êtes dans la zone, un conseil restez pas ici A tous les zins et zines qui cherchent l'or comme Esteban et Zia Ok l'élite c'est nous, élisez-nous En face j'te dis qu'c'est mou, comme Elie Semoun contre Eric Zemmour Ma mère m'a vu du balcon mettre mes premiers dribbles Mon père m'a vu du ciel mettre mon premier triplé fier de moi Est-ce qu'il est fier de moi, malgré les ballots, les dames, et toutes les paires de roi ? les paires Veuveu toujours lourd, y a aucune perte de poids toujours Avant ils s'disaient tous, qu'est ce qu'ils vont faire de moi ? quoi Moi j'sais quoi faire de moi j'sais J'cherche la moula toute la journée, souvent tout seul dans ma caisse Des fois j'me gare, j'regarde les lumières d'l'aéroport Derrière moi le taux de batards bat des records J'avais pas d'cash, elle est partie avec c'gros porc cette pute Flemme de lire son message, j'lui réponds ok bébé Mets-toi d'profil, j'veux voir les choses du bon côté Barry c'est mon twin, DBF c'est ma team Ta biche est plutôt bien entourée Manstr', manstr' Dédicace DBF, Gak, Barry, les zins, Zmail, Lulu, Negus, Jeh' On est là Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, zin Millio, Negus Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, d'En Bas d'En bas Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire Psych', Soso Ca fait longtemps zin Ca fait longtemps que j'suis dans cette merde Comme Veuveu, les deux pieds d'dans Le temps passe, les cheveux deviennent blancs, mes neveux deviennent grands Tu finis direct terre-pa biatch, si tu veux faire l'patriarche Herbe grasse, grillades, Air Max Triax, j'suis dans les verbal triades Tu connais pas, faudrait t'documenter Tout c'que tu racontes n'est aucunement vrai Ta vie, un film qui fait aucune entrée Pendant qu'c'est la guerre, je copule en paix Dans tes lunettes, tes cartes se reflètent, qui tu crois bluffer ? On a de la corne aux mains, ils ont des doigts de fée J'rappe, comme le fils de Nas, ouais zin je vise le max, benef, sous prise de masse Double nationalité, j'vais direct au bled si le FISC menace J'le fais comme personne ne l'a fait avant et personne ne le ref'ra C'est comme des Ruff Ryders que mes reufs rident Toujours la dalle, même quand j'viens de graille J'suis le mélange de ASuivre, Mic Forcing, Coloquinte, Chiens de Paille c'est ça Toujours la dalle, même quand j'viens de graille J'suis le mélange de ASuivre, Mic Forcing Dans la soirée les bouteilles j'les vide toutes Sont pas contents ? Nique sa mère, j'les nique tous Jeune enragé ne fait pas de musique douce Nom de stratège S O L invictus A ma femme, j'offre parfums, vernis, colliers Approche-là et tu peux t'faire ligoter Puis jeter au large, j'ai l'permis côtier Plus j'la vois, plus j'déteste la lumière sur la côte d'Azur Sous Côte du Rhône avec une côte de buf plus épaisse qu'l'annuaire c'est ça Finis bouts d'shits, camels, on veut Gucci, Cayenne, plus le pussy d'Ayem Branlette espagnole sous douche italienne J'ai l'intelligence et la force en plus J'veux plus voir de proches dans l'bus Tu cracherais moins le feu que moi, même avec une torche dans l'ul-c Trouve nous sur un nuage de bubble qui claque Ralph Laurens, Burberry, Clark, j'écoute Luxury Tax j'écoute Luxury Tax Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, d'En Bas d'En bas Manstr', manstr', 06 Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, Don Dada Don Dada Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, Sud-Est Grünt 64 Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire Eh ça glousse encore Ca s'arrête pas, ça s'arrête pas c'est les flammes perpetuelles Que des maîtres, pas d'apprentis, pas de compagnons C'est inf' c'est Veuveu J'suis speed J'suis speed sur la file de gauche Flic derrière s'accroche J'ai l'biff dans la sacoche, j'ai le shit dans un sac Auchan J'm'arrête de canarder que si y'a un d'mes gars à terre Tu m'cherches, t'as qu'à regarder en d'ssous des canadairs Rats des villes, rats des champs J'rap des films où ça braque des gens Carjack leurs Cadillac, casse les vitres, brasse les jantes Pas nés dans des palais Souvent des cruels, souvent des tarés Tous nos darons ont des truelles Toutes nos daronnes ont des balais Dans les baskets ou les plaquettes Ceux qu'ont le bras long montent les paliers Pour qu'papiiers finisse au ballon, où l'ballon finit dans le panier Daron illettré regarde Des Chiffres et Des Lettres Pendant que l'Etat lui envoie des chiffres dans des lettres C'est dur d'être sur salarié quand t'es subsaharien Donc dans le stud' ça va chier, t'sais que dans le sud ça rap bien Luger d'hitler dans ta bouche, donc suce sale aryen Zinio pour me calmer, même les stup' servent à rien Sert a rien Vraies flammes, c'est l'33ème degré, c'est nous let's go C'est Veuveu, monstre, zin, 888, l'album Grünt 64, toujours là Nous c'est la victoire, vous c'est l'échec C'est pour ces métèques qui font pousser les têtes Ta biche a la dalle elle m'envoie un clin d'il, j'réponds en faisant bouger les pecs Pas d'ceux qui se taisent, j'suis de ceux qui dérangent J'écrase la concu' comme des chenilles qui rampent Desserre le scratch de la air force haute, parce que j'ai les chevilles qui enflent Ca c'est la vie de Karim, pompes, tractions, footing hey hey J'crois pas en tes vérités, donc, action cousine hey hey Chaque taff m'envoi dans le cosmos Y'a qu'avec le biff que j'suis en osmose Que la miff comme Ademo et Nos'Nos Pour le bénef' on fait nos nos Madame fait le ménage pendant qu'fais le gainage, pendant qu'fais le gainage J'ai la force de pégase, j'bois le rhum agricole pas le rhum de mélasse Dans le poste cd j'ai mis I AM Dans l'OCB slim j'ai mis l'aya Rien qu'je pense au biff de Will Iam Pendant que j'né-tour dans la wilaya Dès qu'tu vois DBF, DON Tu sais déjà que c'est le BON Le cul de ta fe-meu c'est une éolienne Elle boit le jus de Karim comme le thé au miel J'ai le passeport vert dans la voiture rouge J'vous passe la guerre, que la guerre soit sur vous J'suis debout sur leur crâne comme bison mec J'ai mes plans dans ma tête, fuck Prison Break Rappeur, t'es pas dans ma vision mec J'suis trop loin pour entendre tout c'qu'ils ont rec La drogue, vous en parlez mais vous emballez rien La beuh de Bob Marley, nous on s'en bat les reins Forger un mental en acier valyrien Passé d'galérien à phrasé aérien Elles sont toutes bonnes donc je fais la plouf J'arrache le ballon, la jambe et la pelouse Technique chirurgicale, quand j'rentre dans l'studio faut qu'j'mets la blouse Zin, j'te fais confiance, je pèse pas, et tu m'fais confiance, tu comptes pas Et si ça se passe comme d'hab, t'inquiète, dans deux jours come back Coke, beuh, shit, c'est le kit de détresse Les plus réactifs quittent les tess Les plus créatifs kickent des textes Toujours un raciste qui t'déteste Passionnément, à la folie, mes couilles On fait plus d'coeur, que les pétales brulent Viens on focus sur le Ferrari noir, livré avec sa pétasse brune Viens on focus sur le Ferrari noir, livré avec sa biatch brune C'est pas fini le zin, c'est pas fini, on est là Mets-nous avec les légendes, c'est Inf', c'est Veust d'En bas, Sud Est Crache le feu depuis longtemps, ça fait longtemps qu'on est au-dessus Tu le sais putain Sud-Est, 06, 888 Laisse-moi loin d'tous ces mythomanes J'suis dans l'jardin, j'fais pousser mes tomates Et la beuh qui fait tousser Method Man Ca suce pour le succès, bah Veuveu nan J'suis jamais parti mais j'les fais flipper comme un revenant J'viens par l'entrée des artistes, ils prennent la sortie sans achat V de victoire, l'index sent mon shit, le majeur sent leur chatte Tu t'réveilles en sueur, juste avant qu'j'presse l'automatique A mon avis c'est symptomatique d'un stress post-traumatique Le produit est gras comme mardi, le mac est fly comme Marty Mark Landers et Thomas Price sont de la partie Comme McDo, j'fais payer pour la sauce Et si l'offre est trop basse, j'te raccroche au nez comme Sosa J'connais la rue, les balles perdues s'arrêtent pour m'demander la route J'prie le seigneur pour qu'il empêche les douaniers d'démonter la roue J'suis impatient comme ton père qui t'attend pour te mettre la rouste Je reste près de mon liquide, au cas où ça éclabousse Enfoiré, c'était DBF, Don Dada, Grünt 64 D'En Bas Fondation On a craché c'feu Don Dada, Sud-Est enfoiré, 06, 888 Et là normalement tu glousse, là normalement tu glousses au maximum 888 l'album C'est pour tous les zins, 06, Sud-Est DBF, Don Dada, 888, l'album</t>
+          <t>Yeah, c'est Inf, c'est Veust, c'est Grünt, yeah DBF tome 4, 888, lalbum, Don Dada Assassin prêt à cracher l'feu, reste concentré, yeah, hein Les chargeurs sont pleins, mais j'les vide tous tous Les ennemis sont pleins mais j'les nique tous yeah L'envie, la jalousie nous divisent tous Voici mon nom d'stratège Sol Invictus Sale fou va, c'est jeune fe-boeu, big Veuveu, spit le feu, j'dis cque jvux L'avocat si jle raque j'exig qu'il me disculpe J'fais du cash, jfais du rap ça excite les p'tites putes Au soleil sur le boat, un peu de brise de mer J'aurais honte que mon seul hit soit une reprise de merde Bien dolma bien douez, tu connais les dièses J'parle pas aux judges, j'parle pas aux djejs Prioritaire même si j'arrive par la gauche Chaque jour j'revois mes objectifs à la hausse et ouais Si j'ai du pain sur la planche j'dois le mettre sur la table J'suis en vet-sur à Cannes, faut un bête d'Huracan Chez nous c'est marche ou crève sur la dalle La loi du plus fort règne sur l'asphalte Y a tout c'que tu veux pour un tarif sympathique Le shit et la beuh, j'appelle Tariq Saint-Patrick Sur nous, ils écrivent plein d'articles et ouais Nos adversaires ont mal fini, pourtant ils étaient bien partis Chérie, elles te plaisent ces fleurs ? Elles sont pour toi J'me rappelle quand on avait qu'un veston pour trois Si le schmitt me tutoie, j'lui dis restons courtois Pendant qu'j'compte ma sse-lia et qu'je lèche mon pouce droit Le rap français, que des analphabètes Si j'les juge sur GQ, je casse la tablette Précision chirurgicale, comme celui qui shlasse la plaquette Devant leur che-bou, je place ma braguette Parce que gentil n'a qu'un il pan ça suffit pour viser pan Chargeur en forme de banane pan, ça suffit pour glisser pan J'le fais pour les miens, j'peux pas renier ma race Cousin, quand j'étais en chien, j'étais premier d'la casse Ils s'mentent à eux même en essayant d'se rassurer Vous s'rez meilleurs que nous quand l'océan sera sucré et ouais Pour l'instant fermez vos chattes, restez à vos places Même mort, j'donnerai pas l'respect à vos blazes C'est la loi du plus fauve, comme disait Le Rat Donc m'en veux pas d'viser le tas ou d'viser la tête au lieu d'viser le bras Piège sa caisse pour faire exploser un traître Parle pas d'fruit à un lion en train d'désosser un zèbre J'veux entendre le proc' crier si je fais le chrome briller J'veux voir le record plier, leurs corps dans l'coffre recroquevillés Froid comme un soviet' J'froisse tous leurs sons d'fillettes A l'aise comme DSK dans le Sofitel Même aveugle, j'donnerai toujours ma vision des choses toujours Ils r'gardent ma femme, sa veste en vison les choque Antibes, Vallauris, ici on est chauds On a la même Cali, les mêmes palmiers qu'à Crenshaw Et ouais, la maj', j'les flippe pour gratter d'la marge flip, flip Maintenant j'essaie de drip sans acheter d'la marque drip drip Bientôt j'monte dans le ship, et j'largue les amarres je monte Avant, faut faire les chiffres de Kendrick Lamar J'me sens à l'étroit dans l'C3 J'les vois sur Insta, ils font trop tminik j'les vois J'les entends qui rappent, ils sont comme ma caisse Y a aucune assurance, aucun contrôle technique J'suis sur la pente douce depuis l'début du siècle De la grande ours, j'connais rien du ciel rien Dos au mur, obligé d'vendre les briques J'ai besoin de gaz, comme un putain d'briquet Yeah, 888, l'album de Infinit' c'est Veust, le zin Bientôt dans les bacs c'est Inf, le zin DBF, Don Dada, Grünt 64 Let's go 888 l'album ouh, enfin ouh Posent trop d'questions. C'est comment ? C'est quand ? C'est qui lui ? Que des mystères que des mystères Hey, hey Mais où il va lui ? Mais comment il fait lui ? Que des mystères J'fais le yoyo entre les deux hémisphères avec une jeune héritière Hey, oui, oui, c'est bien moi, le zin qui fait tout Le revolver s'appelle Casper parce qu'il effraie tout l'monde à chaque fois qu'il fait bouh On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es... Technique d'allemand, j'n'évolue qu'verticalement J't'explique qu'y a le manche, ta clique c'est un ramassis de boulets J'réunis l'Afrique comme Kadhafi le voulait Wesh la mif', c'est comment ? J'suis vers Nice, Saint-Laurent, flex en Yves Saint-Laurent Avec cinq ou six zins d'Oran, boîte à gant pleine dans le X5 orange Y a que des têtes suspectes qui boivent teille sur teille, fument pet' sur pet' Chacun d'entre eux peut te piétiner jusqu'à c'que ton plexus pète Faut vite mettre les femmes, les enfants, les gens trop tendres à l'abris Tmax de mai à octobre, Classe G de novembre à avril On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul face à Pablo Génie sans bac 7, j'veux l'troupeau entier, fuck une part du steak C'est bientôt l'heure de jouer à Tetris sur le mur avec les plaques du SNEP Bientôt les rivaux portent nos valises, juste avant de bruler comme Dino Ortolani Frère, j'me sens prêt, petite ombrelle dans un verre de sang frais Pull-up à 2.50 avec les freins défectueux Si tu m'demandes c'que je pense de ton top cinquante J'te dis qu'mes zins défèquent sur eux Pour distiller ma vie, il m'faudrait plus que dix stylos Traîne avec des zins qu'ont des fiches de recherches Et qui tournent dans des voitures qu'ont des fiches d'immo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo Yeah, yeah, yeah On met pas d'homme, au d'ssus des hommes non, c'est DBM On met les sommes, au d'ssus des sommes hey, c'est Don Dada, c'est Grünt 64 Yeah, yeah Seule ombre au tableau, t'es seul contre Pablo C'est nous, t'es toujours avec les glousseurs toujours Les maîtres glousseurs, on est là, ok go Elle est flex sur Insta, mais pour du Dior elle tapine J'pose le tel j'regarde les murs dépourvus d'or et de platine Quand la gélato est forte j'vois des mecs de la bac partout Veuveu, comme les gosses il aime trop quand y a pas d'patrouille Jump au dessus des lois comme Jordan, on aime ce genre d'âneries Et quand les gendarmes pleurent au fond des gendarmeries Ici vous êtes dans la zone, un conseil restez pas ici A tous les zins et zines qui cherchent l'or comme Esteban et Zia Ok l'élite c'est nous, élisez-nous En face j'te dis qu'c'est mou, comme Elie Semoun contre Eric Zemmour Ma mère m'a vu du balcon mettre mes premiers dribbles Mon père m'a vu du ciel mettre mon premier triplé fier de moi Est-ce qu'il est fier de moi, malgré les ballots, les dames, et toutes les paires de roi ? les paires Veuveu toujours lourd, y a aucune perte de poids toujours Avant ils s'disaient tous, qu'est ce qu'ils vont faire de moi ? quoi Moi j'sais quoi faire de moi j'sais J'cherche la moula toute la journée, souvent tout seul dans ma caisse Des fois j'me gare, j'regarde les lumières d'l'aéroport Derrière moi le taux de batards bat des records J'avais pas d'cash, elle est partie avec c'gros porc cette pute Flemme de lire son message, j'lui réponds ok bébé Mets-toi d'profil, j'veux voir les choses du bon côté Barry c'est mon twin, DBF c'est ma team Ta biche est plutôt bien entourée Manstr', manstr' Dédicace DBF, Gak, Barry, les zins, Zmail, Lulu, Negus, Jeh' On est là Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, zin Millio, Negus Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, d'En Bas d'En bas Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire Psych', Soso Ca fait longtemps zin Ca fait longtemps que j'suis dans cette merde Comme Veuveu, les deux pieds d'dans Le temps passe, les cheveux deviennent blancs, mes neveux deviennent grands Tu finis direct terre-pa biatch, si tu veux faire l'patriarche Herbe grasse, grillades, Air Max Triax, j'suis dans les verbal triades Tu connais pas, faudrait t'documenter Tout c'que tu racontes n'est aucunement vrai Ta vie, un film qui fait aucune entrée Pendant qu'c'est la guerre, je copule en paix Dans tes lunettes, tes cartes se reflètent, qui tu crois bluffer ? On a de la corne aux mains, ils ont des doigts de fée J'rappe, comme le fils de Nas, ouais zin je vise le max, benef, sous prise de masse Double nationalité, j'vais direct au bled si le FISC menace J'le fais comme personne ne l'a fait avant et personne ne le ref'ra C'est comme des Ruff Ryders que mes reufs rident Toujours la dalle, même quand j'viens de graille J'suis le mélange de ASuivre, Mic Forcing, Coloquinte, Chiens de Paille c'est ça Toujours la dalle, même quand j'viens de graille J'suis le mélange de ASuivre, Mic Forcing Dans la soirée les bouteilles j'les vide toutes Sont pas contents ? Nique sa mère, j'les nique tous Jeune enragé ne fait pas de musique douce Nom de stratège S O L invictus A ma femme, j'offre parfums, vernis, colliers Approche-là et tu peux t'faire ligoter Puis jeter au large, j'ai l'permis côtier Plus j'la vois, plus j'déteste la lumière sur la côte d'Azur Sous Côte du Rhône avec une côte de buf plus épaisse qu'l'annuaire c'est ça Finis bouts d'shits, camels, on veut Gucci, Cayenne, plus le pussy d'Ayem Branlette espagnole sous douche italienne J'ai l'intelligence et la force en plus J'veux plus voir de proches dans l'bus Tu cracherais moins le feu que moi, même avec une torche dans l'ul-c Trouve nous sur un nuage de bubble qui claque Ralph Laurens, Burberry, Clark, j'écoute Luxury Tax j'écoute Luxury Tax Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, d'En Bas d'En bas Manstr', manstr', 06 Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, Don Dada Don Dada Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, Sud-Est Grünt 64 Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire Eh ça glousse encore Ca s'arrête pas, ça s'arrête pas c'est les flammes perpetuelles Que des maîtres, pas d'apprentis, pas de compagnons C'est inf' c'est Veuveu J'suis speed J'suis speed sur la file de gauche Flic derrière s'accroche J'ai l'biff dans la sacoche, j'ai le shit dans un sac Auchan J'm'arrête de canarder que si y'a un d'mes gars à terre Tu m'cherches, t'as qu'à regarder en d'ssous des canadairs Rats des villes, rats des champs J'rap des films où ça braque des gens Carjack leurs Cadillac, casse les vitres, brasse les jantes Pas nés dans des palais Souvent des cruels, souvent des tarés Tous nos darons ont des truelles Toutes nos daronnes ont des balais Dans les baskets ou les plaquettes Ceux qu'ont le bras long montent les paliers Pour qu'papiiers finisse au ballon, où l'ballon finit dans le panier Daron illettré regarde Des Chiffres et Des Lettres Pendant que l'Etat lui envoie des chiffres dans des lettres C'est dur d'être sur salarié quand t'es subsaharien Donc dans le stud' ça va chier, t'sais que dans le sud ça rap bien Luger d'hitler dans ta bouche, donc suce sale aryen Zinio pour me calmer, même les stup' servent à rien Sert a rien Vraies flammes, c'est l'33ème degré, c'est nous let's go C'est Veuveu, monstre, zin, 888, l'album Grünt 64, toujours là Nous c'est la victoire, vous c'est l'échec C'est pour ces métèques qui font pousser les têtes Ta biche a la dalle elle m'envoie un clin d'il, j'réponds en faisant bouger les pecs Pas d'ceux qui se taisent, j'suis de ceux qui dérangent J'écrase la concu' comme des chenilles qui rampent Desserre le scratch de la air force haute, parce que j'ai les chevilles qui enflent Ca c'est la vie de Karim, pompes, tractions, footing hey hey J'crois pas en tes vérités, donc, action cousine hey hey Chaque taff m'envoi dans le cosmos Y'a qu'avec le biff que j'suis en osmose Que la miff comme Ademo et Nos'Nos Pour le bénef' on fait nos nos Madame fait le ménage pendant qu'fais le gainage, pendant qu'fais le gainage J'ai la force de pégase, j'bois le rhum agricole pas le rhum de mélasse Dans le poste cd j'ai mis I AM Dans l'OCB slim j'ai mis l'aya Rien qu'je pense au biff de Will Iam Pendant que j'né-tour dans la wilaya Dès qu'tu vois DBF, DON Tu sais déjà que c'est le BON Le cul de ta fe-meu c'est une éolienne Elle boit le jus de Karim comme le thé au miel J'ai le passeport vert dans la voiture rouge J'vous passe la guerre, que la guerre soit sur vous J'suis debout sur leur crâne comme bison mec J'ai mes plans dans ma tête, fuck Prison Break Rappeur, t'es pas dans ma vision mec J'suis trop loin pour entendre tout c'qu'ils ont rec La drogue, vous en parlez mais vous emballez rien La beuh de Bob Marley, nous on s'en bat les reins Forger un mental en acier valyrien Passé d'galérien à phrasé aérien Elles sont toutes bonnes donc je fais la plouf J'arrache le ballon, la jambe et la pelouse Technique chirurgicale, quand j'rentre dans l'studio faut qu'j'mets la blouse Zin, j'te fais confiance, je pèse pas, et tu m'fais confiance, tu comptes pas Et si ça se passe comme d'hab, t'inquiète, dans deux jours come back Coke, beuh, shit, c'est le kit de détresse Les plus réactifs quittent les tess Les plus créatifs kickent des textes Toujours un raciste qui t'déteste Passionnément, à la folie, mes couilles On fait plus d'coeur, que les pétales brulent Viens on focus sur le Ferrari noir, livré avec sa pétasse brune Viens on focus sur le Ferrari noir, livré avec sa biatch brune C'est pas fini le zin, c'est pas fini, on est là Mets-nous avec les légendes, c'est Inf', c'est Veust d'En bas, Sud Est Crache le feu depuis longtemps, ça fait longtemps qu'on est au-dessus Tu le sais putain Sud-Est, 06, 888 Laisse-moi loin d'tous ces mythomanes J'suis dans l'jardin, j'fais pousser mes tomates Et la beuh qui fait tousser Method Man Ca suce pour le succès, bah Veuveu nan J'suis jamais parti mais j'les fais flipper comme un revenant J'viens par l'entrée des artistes, ils prennent la sortie sans achat V de victoire, l'index sent mon shit, le majeur sent leur chatte Tu t'réveilles en sueur, juste avant qu'j'presse l'automatique A mon avis c'est symptomatique d'un stress post-traumatique Le produit est gras comme mardi, le mac est fly comme Marty Mark Landers et Thomas Price sont de la partie Comme McDo, j'fais payer pour la sauce Et si l'offre est trop basse, j'te raccroche au nez comme Sosa J'connais la rue, les balles perdues s'arrêtent pour m'demander la route J'prie le seigneur pour qu'il empêche les douaniers d'démonter la roue J'suis impatient comme ton père qui t'attend pour te mettre la rouste Je reste près de mon liquide, au cas où ça éclabousse Enfoiré, c'était DBF, Don Dada, Grünt 64 D'En Bas Fondation On a craché c'feu Don Dada, Sud-Est enfoiré, 06, 888 Et là normalement tu glousse, là normalement tu glousses au maximum 888 l'album C'est pour tous les zins, 06, Sud-Est DBF, Don Dada, 888, l'album</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Yeah, yeah Le Son des halls mixtape 2008, yeah, 2009 Le rap a pris une vitesse, ok, j'passe la huitième Paname, on est àl, prépare l'aspirine avant la migraine J'veux la victoire, avec un rêve dans la tête Tu veux pas d'histoires ? Mets pas ta graine dans la mienne J'me tâte, que t'aimes ou t'aimes pas, t'écoutes gars Dans ce rap en mode baseball, ils mettent le vent, moi j'mets des coups de batte 2008, mixtape Le Son des halls 2010, on sera mille têtes à rugir du fond des eaux Hé dé-dé-débile, mon dé-dé-mépi Dé-dé-dé-débit, j'vends des-des-des pills J'ai la phrase qui frise, le ciel écrase et brise ta glace Qui crispe, j'entrave, l'écrit est grave de mon le-sty Mon blase rime au style qui bave Ademo 2-0-0-8 Man j'te montre ma comète, matte le ton de ma colère C'est Madmax, c'est XXX qui marque, ma plume n'a pas le sommeil J'ai mal-mal pardonné, ma marche écrase au nez Mama j'ai mal tourné, j'croyais XXX Votre rap comme un indic, j'le monte ou j'le descends ?? c't'année, Ademo est chaud même en décembre J'ai trop la fait la merde ça rend méchant Tu parles de flow c'est la guerre mec, t'inquiètes pas pour moi j'suis dans les temps You might also like Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est bon, j'ai-j'ai bombé bon pour mieux plomber l'son, bon 0-0-8 y aura pas d'plan B ça fait check parfait Impossible d'être, parfait le rêve, passé Me dis pas d'faire, la paix On f'ra tout pour faire croquer la mif et les frères Nous on veut juste manger, plus vendre le shit mais des teilles Mets des tonnes de baffes, base, pesé au milligramme Essonne, Val-de-Marne, trop speed trop bi-bizarre C'est sale, va d'mander comment on finit mal Et comme v'là l'baille Ademo au style mitraille R-r-r-rage, r-r-r-rare, r-r-rafale, sur la tess, r-r-radieuse Fais la pa, fais la pa, fais la passe à personne Fais la pas, fais la, fais la pas, fais la pas la peine Fais la pa, fais la, fais la pa, fais la part des choses Fais, fais la, fais, fais la plage Ademo On a tous un souhait, prions pour l'réaliser Que Dieu m'entende, j'tue l'arbitre avant qu'il vienne me pénaliser J'sais qu'survivre, j'veux vivre, simplement de thunes Le monde un scorpion car pour atteindre le bonheur ici la queue te tue Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est pour mes gros à la recherche de poitrines aussi grosses que Loana Voilà la face la plus connue d'Ademo j'suis trop alarmant Peu d'vocabulaire, le cocard suprême J'ai vodka jus d'pêche pour ta gueule pose ta bouteille Un putain d'morceau, amorcé, mort-vivant Pas d'temps mort ok, j'ai mis mes boules à l'hameçon et vous mordez J'écris sur une boîte de pharmacie et y a pas d'mal Car dans ma vie y a c'que j'mange et c'que j'porte qui n'a pas d'marque J'rap pour les S-SDF, les mecs-mecs déter Qui niquent les profs, les keufs fraudent la S-SNCF Qui check-check les rêvent, qui baisent baisent les traîtres Millions d'paroles, ceux qui restent-restent les mêmes J'prouve prouve grave grave ... Coup de coup de crasse crasse j'goume j'goume crade crade Se fout de se fout de ce rap bouge de bouge de là vieux ... ta gueule 2008 Parce que faut tomber les pommes pour enfin voir les étoiles Le Son des Hall mixtape S't'euplé, bouche les oreilles d'ton gosse et raconte-lui une histoire Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais1</t>
+          <t>Yeah, yeah Le Son des halls mixtape 2008, yeah, 2009 Le rap a pris une vitesse, ok, j'passe la huitième Paname, on est àl, prépare l'aspirine avant la migraine J'veux la victoire, avec un rêve dans la tête Tu veux pas d'histoires ? Mets pas ta graine dans la mienne J'me tâte, que t'aimes ou t'aimes pas, t'écoutes gars Dans ce rap en mode baseball, ils mettent le vent, moi j'mets des coups de batte 2008, mixtape Le Son des halls 2010, on sera mille têtes à rugir du fond des eaux Hé dé-dé-débile, mon dé-dé-mépi Dé-dé-dé-débit, j'vends des-des-des pills J'ai la phrase qui frise, le ciel écrase et brise ta glace Qui crispe, j'entrave, l'écrit est grave de mon le-sty Mon blase rime au style qui bave Ademo 2-0-0-8 Man j'te montre ma comète, matte le ton de ma colère C'est Madmax, c'est XXX qui marque, ma plume n'a pas le sommeil J'ai mal-mal pardonné, ma marche écrase au nez Mama j'ai mal tourné, j'croyais XXX Votre rap comme un indic, j'le monte ou j'le descends ?? c't'année, Ademo est chaud même en décembre J'ai trop la fait la merde ça rend méchant Tu parles de flow c'est la guerre mec, t'inquiètes pas pour moi j'suis dans les temps Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est bon, j'ai-j'ai bombé bon pour mieux plomber l'son, bon 0-0-8 y aura pas d'plan B ça fait check parfait Impossible d'être, parfait le rêve, passé Me dis pas d'faire, la paix On f'ra tout pour faire croquer la mif et les frères Nous on veut juste manger, plus vendre le shit mais des teilles Mets des tonnes de baffes, base, pesé au milligramme Essonne, Val-de-Marne, trop speed trop bi-bizarre C'est sale, va d'mander comment on finit mal Et comme v'là l'baille Ademo au style mitraille R-r-r-rage, r-r-r-rare, r-r-rafale, sur la tess, r-r-radieuse Fais la pa, fais la pa, fais la passe à personne Fais la pas, fais la, fais la pas, fais la pas la peine Fais la pa, fais la, fais la pa, fais la part des choses Fais, fais la, fais, fais la plage Ademo On a tous un souhait, prions pour l'réaliser Que Dieu m'entende, j'tue l'arbitre avant qu'il vienne me pénaliser J'sais qu'survivre, j'veux vivre, simplement de thunes Le monde un scorpion car pour atteindre le bonheur ici la queue te tue Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est pour mes gros à la recherche de poitrines aussi grosses que Loana Voilà la face la plus connue d'Ademo j'suis trop alarmant Peu d'vocabulaire, le cocard suprême J'ai vodka jus d'pêche pour ta gueule pose ta bouteille Un putain d'morceau, amorcé, mort-vivant Pas d'temps mort ok, j'ai mis mes boules à l'hameçon et vous mordez J'écris sur une boîte de pharmacie et y a pas d'mal Car dans ma vie y a c'que j'mange et c'que j'porte qui n'a pas d'marque J'rap pour les S-SDF, les mecs-mecs déter Qui niquent les profs, les keufs fraudent la S-SNCF Qui check-check les rêvent, qui baisent baisent les traîtres Millions d'paroles, ceux qui restent-restent les mêmes J'prouve prouve grave grave ... Coup de coup de crasse crasse j'goume j'goume crade crade Se fout de se fout de ce rap bouge de bouge de là vieux ... ta gueule 2008 Parce que faut tomber les pommes pour enfin voir les étoiles Le Son des Hall mixtape S't'euplé, bouche les oreilles d'ton gosse et raconte-lui une histoire Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais1</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Eh, esprit Mobulu Comme lOpinel de Nabilla sortez les umbrella il pleut des flow flow Wallay billlay quils bossent avec les Mbilla tout ces rappeurs jles vois en flou chkem Ça balance les détails de lorganisation, cest quoi leurs but au fond Cest quoi le but Ah jles vois en flou cest des indiques ils veulent faire tomber le four On parle pas trop ma geule on fait ce quon a à faire Même pris en flagrant délit cest sur quon nie fort Ils sont dans le caniveau concu aucun niveau StarfAllah Eh,Eh,Eh,Eh Je suis congolais rakataku catchu a chacun son quartier mais Je le fais pour la ville entière faut du cardio Mais on a les épaules on va le faire et cest tant quil est chaud quil faut quon batte le fer Et quand il est faux, faut combattre le frère Ils font pas peur tout ce quil font cest parler fort Tout ce quon a Dieu merci on la eu part leffort Aucun pacte nous on y arrive par la foi Eux y sont arrivés en la prenant par le fion La hchouma berkes cest pas digne Jsuis en RS Quattro eux ils patinent Ca fait du buzz mais ça fait pas de thunes Wallah ils font du buzz mais ils font pas de thunes Cest pas génial rien dans les poches mais pour la Fame sont près a jeûner ils sont prêt à tout Même si je suis à genoux je leur tendrais pas la main ils vont me la Jamel Cest gênant ils se prennent pour des génies mais en vrai ces KO cest naze On fait pleuvoir les flow obligé de sortir les K-way Toujours réveillé toujours Pas besoin de Kawa jamais On reste concentré on tas dit cest tout droit je le répète au cas ou taurais pas saisi Maestro comme zizou MVP chaque saison je leurs mets que des ciseaux Avec nous ou contre nous cest à toi de prendre la bonne décision On ma donné une chance Je vais la saisir a deux mains Jrentre dans la légende comme NOS et Ademo H24 au charbon on remet rien à demain You might also likeJe les vois en flou Cest bizarre Je deviens de plus en plus parano cest abusé Il me faut les milli les milli les milli puis bye bye bye Il me faut un neuf milli milli milli en cas de ba-bang bang Je les vois en flou Cest bizarre Je deviens de plus en plus parano cest abusé Il me faut les milli les milli les milli puis bye bye bye Il me faut un neuf milli milli milli en cas de ba-bang bang</t>
+          <t>Eh, esprit Mobulu Comme lOpinel de Nabilla sortez les umbrella il pleut des flow flow Wallay billlay quils bossent avec les Mbilla tout ces rappeurs jles vois en flou chkem Ça balance les détails de lorganisation, cest quoi leurs but au fond Cest quoi le but Ah jles vois en flou cest des indiques ils veulent faire tomber le four On parle pas trop ma geule on fait ce quon a à faire Même pris en flagrant délit cest sur quon nie fort Ils sont dans le caniveau concu aucun niveau StarfAllah Eh,Eh,Eh,Eh Je suis congolais rakataku catchu a chacun son quartier mais Je le fais pour la ville entière faut du cardio Mais on a les épaules on va le faire et cest tant quil est chaud quil faut quon batte le fer Et quand il est faux, faut combattre le frère Ils font pas peur tout ce quil font cest parler fort Tout ce quon a Dieu merci on la eu part leffort Aucun pacte nous on y arrive par la foi Eux y sont arrivés en la prenant par le fion La hchouma berkes cest pas digne Jsuis en RS Quattro eux ils patinent Ca fait du buzz mais ça fait pas de thunes Wallah ils font du buzz mais ils font pas de thunes Cest pas génial rien dans les poches mais pour la Fame sont près a jeûner ils sont prêt à tout Même si je suis à genoux je leur tendrais pas la main ils vont me la Jamel Cest gênant ils se prennent pour des génies mais en vrai ces KO cest naze On fait pleuvoir les flow obligé de sortir les K-way Toujours réveillé toujours Pas besoin de Kawa jamais On reste concentré on tas dit cest tout droit je le répète au cas ou taurais pas saisi Maestro comme zizou MVP chaque saison je leurs mets que des ciseaux Avec nous ou contre nous cest à toi de prendre la bonne décision On ma donné une chance Je vais la saisir a deux mains Jrentre dans la légende comme NOS et Ademo H24 au charbon on remet rien à demain Je les vois en flou Cest bizarre Je deviens de plus en plus parano cest abusé Il me faut les milli les milli les milli puis bye bye bye Il me faut un neuf milli milli milli en cas de ba-bang bang Je les vois en flou Cest bizarre Je deviens de plus en plus parano cest abusé Il me faut les milli les milli les milli puis bye bye bye Il me faut un neuf milli milli milli en cas de ba-bang bang</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Parle pas d'la street, parle pas tout court J'suis pas Biggie, j'suis pas Tupac Shakur Mon son au tard-mi jusqu'à dans la cour Il est dans l'circuit entouré d'vautours T'es dans le puits, j'suis dans la tour J'l'appelle ma pute, tu l'appelles mon amour Moi, je t'encule, tout ça en un mot F430 dédicace Ademo Hein, faut que j'me calme, nique sa mère ces paires de Nike Nous les mes-ar, on les utilise contre la BAC Et quand y a embrouille, la gâchette nous sert de bague Ouais ouais, quand y a embrouille, la gâchette nous sert de bague Tu dis qu't'es mon s'hab mais tu l'es pas Ta clique, tard-bâ, on n'en veut pas T'écoutes F430 et t'as pas le choix Tu t'ambiances comme So et Adsa Vendez du shit, on a pas le même chiffre pas les mêmes chiffres Faites du peura, on a pas les mêmes ziks Mon frère LZR, H24 dans la street H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester You might also like Athéna de Ketama, je ne tousse pas, F430 Bréda Ça bombarde sa race, ça déboîte de ouf Tous ces vieux rappeurs, schlagués sa mère Louis, Fendi, Ferragamo T'utilises encore le fer à repasser Fais pas genre tu connais un d'mes potos Alors qu'le cercle a toujours été fermé Mytho, mytho, on t'a rodave Mytho, mytho, t'es tout pourave Mytho, mytho, on t'a rodave Mytho, mytho, tu finiras dans ma cave Tu peux que kiffer, t'as pas le choix F430, IGD, c'est my squad Pire que le virus du Ebola Igo, Z-double-O, ça rigole pas H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester1</t>
+          <t>Parle pas d'la street, parle pas tout court J'suis pas Biggie, j'suis pas Tupac Shakur Mon son au tard-mi jusqu'à dans la cour Il est dans l'circuit entouré d'vautours T'es dans le puits, j'suis dans la tour J'l'appelle ma pute, tu l'appelles mon amour Moi, je t'encule, tout ça en un mot F430 dédicace Ademo Hein, faut que j'me calme, nique sa mère ces paires de Nike Nous les mes-ar, on les utilise contre la BAC Et quand y a embrouille, la gâchette nous sert de bague Ouais ouais, quand y a embrouille, la gâchette nous sert de bague Tu dis qu't'es mon s'hab mais tu l'es pas Ta clique, tard-bâ, on n'en veut pas T'écoutes F430 et t'as pas le choix Tu t'ambiances comme So et Adsa Vendez du shit, on a pas le même chiffre pas les mêmes chiffres Faites du peura, on a pas les mêmes ziks Mon frère LZR, H24 dans la street H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester Athéna de Ketama, je ne tousse pas, F430 Bréda Ça bombarde sa race, ça déboîte de ouf Tous ces vieux rappeurs, schlagués sa mère Louis, Fendi, Ferragamo T'utilises encore le fer à repasser Fais pas genre tu connais un d'mes potos Alors qu'le cercle a toujours été fermé Mytho, mytho, on t'a rodave Mytho, mytho, t'es tout pourave Mytho, mytho, on t'a rodave Mytho, mytho, tu finiras dans ma cave Tu peux que kiffer, t'as pas le choix F430, IGD, c'est my squad Pire que le virus du Ebola Igo, Z-double-O, ça rigole pas H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester1</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>We be going out, baby, talking same shit We be spreading love, nigga, fuck l'hate shit We gon take it far, we don't do the fake shit T3eddit f lmatar, nsejjel, we gon' make hits 7askine Coca, whisky glaçon A.L.A, Toto, que du bon son Zetla, Ketama, 3e9li absent Mauvais garçon, taser te7t lcalçon Okay okay okay, nass 3jebhom rappi 9bel ma ye3jebhom looki Barra s2el s7abi, se9ssi 3la soulouki Mhebbelkom b trapi, bercha t7ebb t'booki Bitches call me pappy, feeling like I'm AAP Rocky T7eb tel3eb b e3sabi, sir t9owed bel marroki Neflexi w ndabi, nkhelli l'haters metbloki 808 f rassi, make me jumping ki Sasuki Fuck it 'cause it's okay We making circles, kima NASA Hani jitek nrapréz fi zoni We smoking purple kima à la Casa Lazemni ma nensach elli zahrouni M3aya ElGrande, mala faza Dima nzidou fel muzika tsouni 3tit elli 3endi, mouch mziya Fel Maroc, 3endi nass y7ebbouni You might also like We be going out, baby, talking same shit We be spreading love, nigga, fuck l'hate shit We gon' take it far, we dont do the fake shit T3eddit f lmatar, nsejjel, we gon make hits 7askine Coca, whisky glaçon A.L.A, Toto, que du bon son Zetla, Ketama, 3e9li absent Mauvais garçon, taser te7t l'calçon Grande Toto Makaveli eh Ntaya ghi machi yeah Tanga f wedni w ma 3la bali eh Bgha ybeefini, nta7er 9bel ma ysali Kush marijuana, nta gha figlio di puttana T7ebb tghderni, barra neyyek Ma takhod menni 7atta chay Tequila moussi9a kmaya Barcha barcha machi chwya Gjamek fake, cest du toc, toc Bla ma do9 do9, tiri fya F'rap gaddi gadd l'Big Ben Ma 3endi mandir b chi BM Bitch douri dabi dabi flexi We be going out, baby, talking same shit We be spreading love, nigga, fuck l'hate shit We gon take it far, we don't do the fake shit T3eddit f lmatar, nsejjel, we gon' make hits 7askine Coca, whisky glaçon A.L.A, Toto, que du bon son Zetla, Ketama, 3e9li absent Mauvais garçon, taser te7t l'calçon</t>
+          <t>We be going out, baby, talking same shit We be spreading love, nigga, fuck l'hate shit We gon take it far, we don't do the fake shit T3eddit f lmatar, nsejjel, we gon' make hits 7askine Coca, whisky glaçon A.L.A, Toto, que du bon son Zetla, Ketama, 3e9li absent Mauvais garçon, taser te7t lcalçon Okay okay okay, nass 3jebhom rappi 9bel ma ye3jebhom looki Barra s2el s7abi, se9ssi 3la soulouki Mhebbelkom b trapi, bercha t7ebb t'booki Bitches call me pappy, feeling like I'm AAP Rocky T7eb tel3eb b e3sabi, sir t9owed bel marroki Neflexi w ndabi, nkhelli l'haters metbloki 808 f rassi, make me jumping ki Sasuki Fuck it 'cause it's okay We making circles, kima NASA Hani jitek nrapréz fi zoni We smoking purple kima à la Casa Lazemni ma nensach elli zahrouni M3aya ElGrande, mala faza Dima nzidou fel muzika tsouni 3tit elli 3endi, mouch mziya Fel Maroc, 3endi nass y7ebbouni We be going out, baby, talking same shit We be spreading love, nigga, fuck l'hate shit We gon' take it far, we dont do the fake shit T3eddit f lmatar, nsejjel, we gon make hits 7askine Coca, whisky glaçon A.L.A, Toto, que du bon son Zetla, Ketama, 3e9li absent Mauvais garçon, taser te7t l'calçon Grande Toto Makaveli eh Ntaya ghi machi yeah Tanga f wedni w ma 3la bali eh Bgha ybeefini, nta7er 9bel ma ysali Kush marijuana, nta gha figlio di puttana T7ebb tghderni, barra neyyek Ma takhod menni 7atta chay Tequila moussi9a kmaya Barcha barcha machi chwya Gjamek fake, cest du toc, toc Bla ma do9 do9, tiri fya F'rap gaddi gadd l'Big Ben Ma 3endi mandir b chi BM Bitch douri dabi dabi flexi We be going out, baby, talking same shit We be spreading love, nigga, fuck l'hate shit We gon take it far, we don't do the fake shit T3eddit f lmatar, nsejjel, we gon' make hits 7askine Coca, whisky glaçon A.L.A, Toto, que du bon son Zetla, Ketama, 3e9li absent Mauvais garçon, taser te7t l'calçon</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Me engancho lo' guante' y lo' peine' de 32 Tenemo' la Glock, un par de mandriles que hacen el do' Pura' na'es Sport, culiando una escort Y fetty-fetty, buscamos la lana, la cosa está bacana To' tinteao' en lo' alta gama, ahora chingamo' y lo' prendemo' en la mañana Ey, no confiamo' en ninguna rana Nos pintamo' la cara, puro' peine' de banana Ey, con una 40, un 17, pistolas siempre hay mas de 2 Importante que aquí prueben suerte Porque le vamos a meter con las 2 Ey, llegamo' a la disco, se sultan las baby Y el Giuliano me hace l do' Si esta con amigas, no hay drama, la monto en la cama Y la' chingo a las 2 Ey, con una 40, un 17, pistolas siempre hay mas de 2 Importante que aquí prueben suerte Porque le vamos a meter con las 2 Ey, llegamo' a la disco, se sueltan las baby Y el Giuliano me hace el do' Si esta con amigas, no hay drama, la' monto en la cama Y la' chingo a las 2 Quiero el dinero rapido, siempre me busco el money Tamo' haciendo plata, estoy mas rapido que Sonic Mis letras estan bien caras, me está pidiendo Sony Por el éxito estoy bravo y eso no me llamo Johnny Ahora estamo' subiendo, me visto too' caro Too' caro nos estan viendo Somos cantante pero humilde sigo siendo Mis menores avezaos' al nivel Con toa' esta glope la calle estamo' encendiendo Ey, me pinto la cara si es necesario Pisando fuerte en too' los barrios Pero mas fuerte en lo' escenarios Juro por mi madre ser millonario Entrando, mira too' el oro, en el cuello Ahora me llevo a tu perra, logi, tamo' bello No le llegan al nivel, a mi no me hablen de ello Llegando enpistolao', la 40 se la estrello Bling bling, en mi cuello esta clean No tranzo con gile', menos gile' topin Chin chin, los bolsillos de un king Andamo' ganando flow Mayweather en ring Ey, con una 40, un 17, pistola siempre hay mas de 2 Importante que aquí prueben suerte Porque le' vamos a meter con las 2 Ey, llegamo' a la disco, se sueltan las baby Y el Giuliano me hace el do' Si esta con amigas, no hay drama, la' monto en la cama Y la' chingo a las 2 Grrrrr, Ey, con una 40, un 17 Grr paw, en la dema, en la dema, ya, ya Dimelo Valdi, dimelo Giuli Giuliano Yankees Valdi en lo' controle Ey, indica No hay drama, la' monto en la cama y la' chingo a las 2 Grr paw, pew pew pewYou might also like</t>
+          <t>Me engancho lo' guante' y lo' peine' de 32 Tenemo' la Glock, un par de mandriles que hacen el do' Pura' na'es Sport, culiando una escort Y fetty-fetty, buscamos la lana, la cosa está bacana To' tinteao' en lo' alta gama, ahora chingamo' y lo' prendemo' en la mañana Ey, no confiamo' en ninguna rana Nos pintamo' la cara, puro' peine' de banana Ey, con una 40, un 17, pistolas siempre hay mas de 2 Importante que aquí prueben suerte Porque le vamos a meter con las 2 Ey, llegamo' a la disco, se sultan las baby Y el Giuliano me hace l do' Si esta con amigas, no hay drama, la monto en la cama Y la' chingo a las 2 Ey, con una 40, un 17, pistolas siempre hay mas de 2 Importante que aquí prueben suerte Porque le vamos a meter con las 2 Ey, llegamo' a la disco, se sueltan las baby Y el Giuliano me hace el do' Si esta con amigas, no hay drama, la' monto en la cama Y la' chingo a las 2 Quiero el dinero rapido, siempre me busco el money Tamo' haciendo plata, estoy mas rapido que Sonic Mis letras estan bien caras, me está pidiendo Sony Por el éxito estoy bravo y eso no me llamo Johnny Ahora estamo' subiendo, me visto too' caro Too' caro nos estan viendo Somos cantante pero humilde sigo siendo Mis menores avezaos' al nivel Con toa' esta glope la calle estamo' encendiendo Ey, me pinto la cara si es necesario Pisando fuerte en too' los barrios Pero mas fuerte en lo' escenarios Juro por mi madre ser millonario Entrando, mira too' el oro, en el cuello Ahora me llevo a tu perra, logi, tamo' bello No le llegan al nivel, a mi no me hablen de ello Llegando enpistolao', la 40 se la estrello Bling bling, en mi cuello esta clean No tranzo con gile', menos gile' topin Chin chin, los bolsillos de un king Andamo' ganando flow Mayweather en ring Ey, con una 40, un 17, pistola siempre hay mas de 2 Importante que aquí prueben suerte Porque le' vamos a meter con las 2 Ey, llegamo' a la disco, se sueltan las baby Y el Giuliano me hace el do' Si esta con amigas, no hay drama, la' monto en la cama Y la' chingo a las 2 Grrrrr, Ey, con una 40, un 17 Grr paw, en la dema, en la dema, ya, ya Dimelo Valdi, dimelo Giuli Giuliano Yankees Valdi en lo' controle Ey, indica No hay drama, la' monto en la cama y la' chingo a las 2 Grr paw, pew pew pew</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Rien n'se passe comme prévu, quand j'étais dans le mal, t'aurais vu Y avait qu'les cafards qui m'ont pas tourné le dos Elle est sombre comme la rue, son regard m'attire, m'affirme qu'avec elle, j'peux m'en sortir J'la suis, elle m'fuit, non, j'peux pas la laisser partir Et dès qu'j'fais les choses bien, la poisse toque à ma porte Igo, j'suis dans le mal, les absents ont toujours tort J'suis yomb', j'suis dans le noir, dans les ténèbres Ouais, j'fume un gros spliff, j'regarde le ciel, et j'tourne en rond et j'tourne en rond, et j'tourne en rond Solo, solo, solo Ça tourne en rond igo, wAllah, y a pas un euro Solo, solo, solo Ça tourne en rond igo, wAllah, y a pas un euro ouais, ouais, ouais, ouais J'suis dans le noir, dans les ténèbres Dans ma grotte, ça sent la mort et la pisse J'reste peace, en bas du bâtiment C Même dans le froid, je servais, les lèvres gercées, énervé D'avoir le frigo vide, le ventre vide mais les couilles pleines Comme Baddack, Baddack, ouais, ouais ouais, ouais Igo, j'm'en bats les ouin, ouin, ouin J'sors d'Paname, banane, bang, bang bang, bang Souci va et vient, vient, vient Buddha Kush, j'suis dans l'espace, les soucis s'entassent Que du sale et du sale, on arrive en balle Dans le cellophane, fanent tous les sentiments Fuck ton buzz, j'suis là pour le cash Électrique comme un taser Dans la salle, salle, la sère-mi s'emballe On a fait nos pas en bas d'tous les bâtiments You might also like J'ai le F.L.O, F.L.O d'Eikichi T'es qui ? J't'esquive vite Pétasse, fais pas tes chichis Fais-moi cuisine comme Chichi J'ai la paire, j'ai la bonne, j'la pose sur la ble-ta ble-ta, ble-ta Paire de couilles ou floppe Le sourire, igo, quand j'pète ma béda Tu veux l'seum ? Viens là, hop, hop, hop, hop J'ai la frappe, qu'est-ce t'en penses ? dream, dream Danse, danse, danse, danse, danse, danse J'suis tout maigre, faut qu'j'reprenne bim, bim Pompes intenses-tenses-tenses-tenses-tenses Eh Taktak, faut qu'tu pètes, peace, peace Qu'on encule toute la France, France, France Que le buzz monte, ils savent pas c'qu'on était, c'qu'on a fait pour manger Dans la team, team, team D'où on r'vient, c'est pas du ciné Qui aurait pu imaginer qu'un jour on péterait quand, en bas du bât', on dealait ? Les maisons d'disque parlent de chrome, on leur dit nous, pas ients-cli, nous Nous Malaga, nous Ketama, nous Meuda, nous niquer tout Comme Baddack, Baddack, ouais, ouais ouais, ouais Igo, j'm'en bats les ouin, ouin, ouin J'sors d'Paname, banane, bang, bang bang, bang Souci va et vient, vient, vient Buddha Kush, j'suis dans l'espace, les soucis s'entassent Que du sale et du sale, on arrive en balle Dans le cellophane, fanent tous les sentiments Fuck ton buzz, j'suis là pour le cash Électrique comme un taser Dans la salle, salle, la sère-mi s'emballe On a fait nos pas en bas d'tous les bâtiments3</t>
+          <t>Rien n'se passe comme prévu, quand j'étais dans le mal, t'aurais vu Y avait qu'les cafards qui m'ont pas tourné le dos Elle est sombre comme la rue, son regard m'attire, m'affirme qu'avec elle, j'peux m'en sortir J'la suis, elle m'fuit, non, j'peux pas la laisser partir Et dès qu'j'fais les choses bien, la poisse toque à ma porte Igo, j'suis dans le mal, les absents ont toujours tort J'suis yomb', j'suis dans le noir, dans les ténèbres Ouais, j'fume un gros spliff, j'regarde le ciel, et j'tourne en rond et j'tourne en rond, et j'tourne en rond Solo, solo, solo Ça tourne en rond igo, wAllah, y a pas un euro Solo, solo, solo Ça tourne en rond igo, wAllah, y a pas un euro ouais, ouais, ouais, ouais J'suis dans le noir, dans les ténèbres Dans ma grotte, ça sent la mort et la pisse J'reste peace, en bas du bâtiment C Même dans le froid, je servais, les lèvres gercées, énervé D'avoir le frigo vide, le ventre vide mais les couilles pleines Comme Baddack, Baddack, ouais, ouais ouais, ouais Igo, j'm'en bats les ouin, ouin, ouin J'sors d'Paname, banane, bang, bang bang, bang Souci va et vient, vient, vient Buddha Kush, j'suis dans l'espace, les soucis s'entassent Que du sale et du sale, on arrive en balle Dans le cellophane, fanent tous les sentiments Fuck ton buzz, j'suis là pour le cash Électrique comme un taser Dans la salle, salle, la sère-mi s'emballe On a fait nos pas en bas d'tous les bâtiments J'ai le F.L.O, F.L.O d'Eikichi T'es qui ? J't'esquive vite Pétasse, fais pas tes chichis Fais-moi cuisine comme Chichi J'ai la paire, j'ai la bonne, j'la pose sur la ble-ta ble-ta, ble-ta Paire de couilles ou floppe Le sourire, igo, quand j'pète ma béda Tu veux l'seum ? Viens là, hop, hop, hop, hop J'ai la frappe, qu'est-ce t'en penses ? dream, dream Danse, danse, danse, danse, danse, danse J'suis tout maigre, faut qu'j'reprenne bim, bim Pompes intenses-tenses-tenses-tenses-tenses Eh Taktak, faut qu'tu pètes, peace, peace Qu'on encule toute la France, France, France Que le buzz monte, ils savent pas c'qu'on était, c'qu'on a fait pour manger Dans la team, team, team D'où on r'vient, c'est pas du ciné Qui aurait pu imaginer qu'un jour on péterait quand, en bas du bât', on dealait ? Les maisons d'disque parlent de chrome, on leur dit nous, pas ients-cli, nous Nous Malaga, nous Ketama, nous Meuda, nous niquer tout Comme Baddack, Baddack, ouais, ouais ouais, ouais Igo, j'm'en bats les ouin, ouin, ouin J'sors d'Paname, banane, bang, bang bang, bang Souci va et vient, vient, vient Buddha Kush, j'suis dans l'espace, les soucis s'entassent Que du sale et du sale, on arrive en balle Dans le cellophane, fanent tous les sentiments Fuck ton buzz, j'suis là pour le cash Électrique comme un taser Dans la salle, salle, la sère-mi s'emballe On a fait nos pas en bas d'tous les bâtiments3</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Laisse-moi tout seul, laisse-moi traîner dans la street Igo passe-moi lseum, et jle vendrai à ta bitch Laisse-moi mposer et tirer ma guinz Causer au frère en cellule qui vient dcoffrer un gros cinq-vingt Laisse-moi être zehef, le regard vide Laisse-moi penser à ceux qui font lramadan au tard-mi Laisse-moi tdire, prends soin dta Maman Ici on parle avec les yeux, pas besoin dgeste avec la main Laisse-moi avec mes pêchés, et insulter les matonnes Laisse-moi espérer quun jour Allah nous pardonne Laisse-moi bicrave, les pieds dans la merde Laisse-moi rouler vite, son à fond quand jsuis dans ma caisse Laisse-moi faire la morale aux tits-pe Laisse-moi ne pas répondre quand une tasse me bippe Laisse-moi vivre avec ceux qujaime, libre Laisse-moi peace, vaut mieux qujreste peace Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent Jai beaucoup despoir, jai confiance en mes couilles Un soupir, lhabitude de souffrir Reçois des mises en demeure, baise demain Des mises de merde, on sdémène tinquiète le tigre sdémerde La rage avant la paix La Foi avant la paye Parisien tu connais, ni Londonien, ni New-yorkais Au charbon sous lhall, gants, écharpe et bonnet Homme du présent, un combat contre soi-même On repère largent, ta bitch nous repère en soirée Même en hess le swag swingue en Air Max Le risque puisque on prendra la suite à mille eus Pas dhistoire on finira pas au musée Tu sais où jhabite, viens si tu veux tamuser Trop loin Accorde moins dimportance au cul dune salope quau cul dmon joint Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent Jvendais la coco la night, le matin jbuvais un café WAllah jrentrais dPaname jusquà Corbeil éclaté Jvendais la coco la night, le matin jbuvais un café WAllah jrentrais dPaname jusquà Corbeil éclaté Jai bicrave sept jours sur sept, des années lfaire sur un terrain Des milliers d'billets dvingt, wAllah qupour nous cest rien On est sur-allumés, un go-fast sur la Lune Du soleil sur les lunettes, nos faits-divers sur la Une Oussa voit grand comme la villa de Sosa Se sent mal en costard, méfiant, donc souvent peu sociable Kiffe les belles femmes et les hauts talons Cest quand les loups sortent que les brebis sallongent Nous et la rue ça sest fait au feeling au risque De ber-tom, aux arrivants, avec ou sans Philipp Morris Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissentYou might also like6</t>
+          <t>Laisse-moi tout seul, laisse-moi traîner dans la street Igo passe-moi lseum, et jle vendrai à ta bitch Laisse-moi mposer et tirer ma guinz Causer au frère en cellule qui vient dcoffrer un gros cinq-vingt Laisse-moi être zehef, le regard vide Laisse-moi penser à ceux qui font lramadan au tard-mi Laisse-moi tdire, prends soin dta Maman Ici on parle avec les yeux, pas besoin dgeste avec la main Laisse-moi avec mes pêchés, et insulter les matonnes Laisse-moi espérer quun jour Allah nous pardonne Laisse-moi bicrave, les pieds dans la merde Laisse-moi rouler vite, son à fond quand jsuis dans ma caisse Laisse-moi faire la morale aux tits-pe Laisse-moi ne pas répondre quand une tasse me bippe Laisse-moi vivre avec ceux qujaime, libre Laisse-moi peace, vaut mieux qujreste peace Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent Jai beaucoup despoir, jai confiance en mes couilles Un soupir, lhabitude de souffrir Reçois des mises en demeure, baise demain Des mises de merde, on sdémène tinquiète le tigre sdémerde La rage avant la paix La Foi avant la paye Parisien tu connais, ni Londonien, ni New-yorkais Au charbon sous lhall, gants, écharpe et bonnet Homme du présent, un combat contre soi-même On repère largent, ta bitch nous repère en soirée Même en hess le swag swingue en Air Max Le risque puisque on prendra la suite à mille eus Pas dhistoire on finira pas au musée Tu sais où jhabite, viens si tu veux tamuser Trop loin Accorde moins dimportance au cul dune salope quau cul dmon joint Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent Jvendais la coco la night, le matin jbuvais un café WAllah jrentrais dPaname jusquà Corbeil éclaté Jvendais la coco la night, le matin jbuvais un café WAllah jrentrais dPaname jusquà Corbeil éclaté Jai bicrave sept jours sur sept, des années lfaire sur un terrain Des milliers d'billets dvingt, wAllah qupour nous cest rien On est sur-allumés, un go-fast sur la Lune Du soleil sur les lunettes, nos faits-divers sur la Une Oussa voit grand comme la villa de Sosa Se sent mal en costard, méfiant, donc souvent peu sociable Kiffe les belles femmes et les hauts talons Cest quand les loups sortent que les brebis sallongent Nous et la rue ça sest fait au feeling au risque De ber-tom, aux arrivants, avec ou sans Philipp Morris Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent6</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Père né en Algérie, mère qui naît à Fès Ademo né dans l'zoo, peut pas retourner sa veste PNL laisse, beleck on vous blesse Pas la même tess', j'l'appelle Eva Mendes Ton nez dans ma cess', chienne on te dresse A 6 heures c'est la hess Hmm, des lions comme Mufasa Hmm, j't'ai mis l'coup d'bassin Hmm, dans la beuh y'a l'fil orange Hmm, billets bleus et verts qui m'enjaillent Hmm, elle peut pas mappeler mon ange Hmm, le sheitan me pète le champagne Et puis j'm'en fous d'ber-tom tant qu'les miens sourient J'm'en branle sur les films d'karaté à Katsuni Viens nous voir bibi dans des cages de hall pleines de pisse J'veux l'pactole, j'dis à Félindra tête de tigre Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans You might also like Petit pélican ne sait pas voler Regarde les émeutes à travers ses volets Petit pélican un jour sera grand Ne traîne pas dans les halls, ne se doute de rien quand ça vend Petit pélican plein d'rêves, d'mande souvent papa ou maman Resserre ses crampons face au but, la boule au ventre qui l'attend Petit pélican veut croquer l'monde, un peu nerveux Et quand il rentre prend parfois le chemin de la cave Ne connait pas l'prix de la vie, mais déjà le prix d'un baveux Petit pélican fait un vu, petit pélican fait deux vux A la son-mai ça parle de la chute du grand, ça parle despèce Espèce, c'est donc toi qui fout la merde à la maison Petit pélican part chercher de l'espèce Grand panorama sur la tess' Petit pélican compte et recompte Déjà peu d'amis qui s'écartent de lui au fur et à mesure qu'il monte Petit pélican pète sa niaks, compte sur personne, attend que ça passe Ça crie moins à la maison, y'a que les schmitts qui s'agacent Petit pélican s'arrête et recommence Petit pélican tombe, ses ailes se cassent et la haine les panse Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans7</t>
+          <t>Père né en Algérie, mère qui naît à Fès Ademo né dans l'zoo, peut pas retourner sa veste PNL laisse, beleck on vous blesse Pas la même tess', j'l'appelle Eva Mendes Ton nez dans ma cess', chienne on te dresse A 6 heures c'est la hess Hmm, des lions comme Mufasa Hmm, j't'ai mis l'coup d'bassin Hmm, dans la beuh y'a l'fil orange Hmm, billets bleus et verts qui m'enjaillent Hmm, elle peut pas mappeler mon ange Hmm, le sheitan me pète le champagne Et puis j'm'en fous d'ber-tom tant qu'les miens sourient J'm'en branle sur les films d'karaté à Katsuni Viens nous voir bibi dans des cages de hall pleines de pisse J'veux l'pactole, j'dis à Félindra tête de tigre Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Petit pélican ne sait pas voler Regarde les émeutes à travers ses volets Petit pélican un jour sera grand Ne traîne pas dans les halls, ne se doute de rien quand ça vend Petit pélican plein d'rêves, d'mande souvent papa ou maman Resserre ses crampons face au but, la boule au ventre qui l'attend Petit pélican veut croquer l'monde, un peu nerveux Et quand il rentre prend parfois le chemin de la cave Ne connait pas l'prix de la vie, mais déjà le prix d'un baveux Petit pélican fait un vu, petit pélican fait deux vux A la son-mai ça parle de la chute du grand, ça parle despèce Espèce, c'est donc toi qui fout la merde à la maison Petit pélican part chercher de l'espèce Grand panorama sur la tess' Petit pélican compte et recompte Déjà peu d'amis qui s'écartent de lui au fur et à mesure qu'il monte Petit pélican pète sa niaks, compte sur personne, attend que ça passe Ça crie moins à la maison, y'a que les schmitts qui s'agacent Petit pélican s'arrête et recommence Petit pélican tombe, ses ailes se cassent et la haine les panse Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans7</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Jnique le monde, igo jveux pas changer Comme si à Fleury on mavait dit direction la Santé Si jsuis transféré cest parcque jmarque le plus Jai tout vu comme une pute jpeux pas finir sur le cul La vie cest dur et mieux vaut pas faire un malaise Comme en cellule on tlaisse crever Même si tu viens dcrier à laide Dur dsintégrer avec des yeux khabat On ma dit fais tes lacets On ma pas dit fais tes nuds dcravate On ma mis dans lghetto, tu connais la banane Pour mfaire courir contre des chevaux poto on ma passé un âne Jrime une haine, mais jcompte plus péter lbail Poto clique sur M si tes orgueilleux comme Végéta Génération 86, celle des foolek Des sirènes, des woo woo, pas celle des sous-merdes Jai besoin dune bulle dair mais lson est crevé comme mes Air Max Jfais peur aux gens biens à Halloween jai pas besoin dporter dmasque Jsuis un vrai, jsais rapper, mais on préfère les menteurs Pourtant jai essayé dgagner avec une couleur en cur Tu voulais qujdise ya qudes putes, ya qudu biff ? Mais connard dans nos vies, ya qudes stups, ya qudu risque Jai du carburé en discret, vu qujavance dans la réserve Jai pas lpermis, mais jmarche quand même avec des Diesel Pour retrouver mon chemin jlaissais des bouts dshit sur mon passage Me suis retrouvé perdu avec des schlags qui suivaient ma trace Et pour le blé jai vendu dhiver à été Toi tu crois aux contes de fées, moi jcrois aux comptes à régler Jai ouvert ma bouche, mais cétait pas pour sucer Jme suis dit drapper du seum, mais faut du com pour le succès La roue va tourner, ça cest une légende comme dhab Cest nous quon tourne, la roue elle reste bloquée en promenade Destin chelou comme Kennedy, Aaliyah qui scrache Obligé dsurvivre, le pire cest quils croient quon aime bicrave On vit comme Tony Micelli, pas Tony Montana Tu trouves joli Beriz, cest qutes un touriste ou un Noich Tu trouves ça marrant, ya rien, normal igo On a beau sourire, nos yeux nsourient pas igo Tu vois cque jveux dire, nan jte dis cque tu vois Si jaime la neige ? Demande ça à ceux qui dorment lhiver dans du froid Cest pas un son triste, cest juste une levrette Jlève ma v'là mes couilles, appelle-moi le vrai À distinguer des faux bien sûr, jdemande pardon à Allah Jveux pas aller en Enfer grailler un pain dpus Jpense que jaurai pas plus dinspi avec un spliff Et jpense encore moins rapper plus vite avec un speed Vingt-cinq piges Allah u akbar Ashadu anna la ilaha illallah Wa ashhadu anna muhammadan rasulu-llah Et jai des pêchés, jai mal au dos Jprie dmoins en moins, mais jfais toujours lodo Poto, la moindre des choses après mes fornications Rime de sang, vole et vente de grosses doses Sois pas choqué, chacun est comme il est Jsuis têtu, lbonheur cest Titi et moi jsuis Grosminet WAllah petit jessayais dsuivre mon ombre Quand jlai plus vue jai compris qucest parcquil faisait trop sombre Jsuis pas à la mode mais cest les soldes quand les keufs perquisent Jcrois qujpeux changer dtête, mais jgarderai toujours les mêmes jeans Técoutes encore ? Ah ouais cest cool vieux On dit quon peut parer les coups mais quon peut pas parer les coups dfeu Trop dfautes, la haine nous a guidés Et quand un flingue fait larbitre, les balles sont toujours prêtes à siffler Au bout du compte on sy fait, ça finit par nique sa mère On improvise un salaire, fini à ry-Fleu quand ça merde Et wAllah frère ça memmerde Jcrois qujvais marcher sur les mains tellement jai la tête à lenvers Ils veulent du lourd jleur donne ma bite Jsuis vulgaire, et alors poto ? Jfais ma mort, fais ta vie Jsuis baisé ma gueule, plaider un cur Jpeux pas nan, cest mon pêché dorgueil Tu veux du sale ? Jsuis cquil y a dplus crado Ne msouhaite pas mon anniv gros ça sera lplus beau dmes cadeaux J'suis comme cette image que tu regardes à l'instant J'saigne, j'ai le regard haineux, mais j'souris et j'attends J'attends que mon heure vienne de sonner ton heure Interdit d'Essonne, y vit quand même esquive les contrôleurs J'finis ce texte avec la pire des rages Quand les rappeurs jouent les chauds alors que c'est les pires des shlags La vie c'est dur on s'en rend compte qu'une fois dans l'trou Et quand il fait trop noir sur l'banc d'cantine y'a pas d'ampoule Donc j'me répète, fuck le monde ma gueule J'peux pas changer gueh c'est mon péché d'orgueilYou might also like7</t>
+          <t>Jnique le monde, igo jveux pas changer Comme si à Fleury on mavait dit direction la Santé Si jsuis transféré cest parcque jmarque le plus Jai tout vu comme une pute jpeux pas finir sur le cul La vie cest dur et mieux vaut pas faire un malaise Comme en cellule on tlaisse crever Même si tu viens dcrier à laide Dur dsintégrer avec des yeux khabat On ma dit fais tes lacets On ma pas dit fais tes nuds dcravate On ma mis dans lghetto, tu connais la banane Pour mfaire courir contre des chevaux poto on ma passé un âne Jrime une haine, mais jcompte plus péter lbail Poto clique sur M si tes orgueilleux comme Végéta Génération 86, celle des foolek Des sirènes, des woo woo, pas celle des sous-merdes Jai besoin dune bulle dair mais lson est crevé comme mes Air Max Jfais peur aux gens biens à Halloween jai pas besoin dporter dmasque Jsuis un vrai, jsais rapper, mais on préfère les menteurs Pourtant jai essayé dgagner avec une couleur en cur Tu voulais qujdise ya qudes putes, ya qudu biff ? Mais connard dans nos vies, ya qudes stups, ya qudu risque Jai du carburé en discret, vu qujavance dans la réserve Jai pas lpermis, mais jmarche quand même avec des Diesel Pour retrouver mon chemin jlaissais des bouts dshit sur mon passage Me suis retrouvé perdu avec des schlags qui suivaient ma trace Et pour le blé jai vendu dhiver à été Toi tu crois aux contes de fées, moi jcrois aux comptes à régler Jai ouvert ma bouche, mais cétait pas pour sucer Jme suis dit drapper du seum, mais faut du com pour le succès La roue va tourner, ça cest une légende comme dhab Cest nous quon tourne, la roue elle reste bloquée en promenade Destin chelou comme Kennedy, Aaliyah qui scrache Obligé dsurvivre, le pire cest quils croient quon aime bicrave On vit comme Tony Micelli, pas Tony Montana Tu trouves joli Beriz, cest qutes un touriste ou un Noich Tu trouves ça marrant, ya rien, normal igo On a beau sourire, nos yeux nsourient pas igo Tu vois cque jveux dire, nan jte dis cque tu vois Si jaime la neige ? Demande ça à ceux qui dorment lhiver dans du froid Cest pas un son triste, cest juste une levrette Jlève ma v'là mes couilles, appelle-moi le vrai À distinguer des faux bien sûr, jdemande pardon à Allah Jveux pas aller en Enfer grailler un pain dpus Jpense que jaurai pas plus dinspi avec un spliff Et jpense encore moins rapper plus vite avec un speed Vingt-cinq piges Allah u akbar Ashadu anna la ilaha illallah Wa ashhadu anna muhammadan rasulu-llah Et jai des pêchés, jai mal au dos Jprie dmoins en moins, mais jfais toujours lodo Poto, la moindre des choses après mes fornications Rime de sang, vole et vente de grosses doses Sois pas choqué, chacun est comme il est Jsuis têtu, lbonheur cest Titi et moi jsuis Grosminet WAllah petit jessayais dsuivre mon ombre Quand jlai plus vue jai compris qucest parcquil faisait trop sombre Jsuis pas à la mode mais cest les soldes quand les keufs perquisent Jcrois qujpeux changer dtête, mais jgarderai toujours les mêmes jeans Técoutes encore ? Ah ouais cest cool vieux On dit quon peut parer les coups mais quon peut pas parer les coups dfeu Trop dfautes, la haine nous a guidés Et quand un flingue fait larbitre, les balles sont toujours prêtes à siffler Au bout du compte on sy fait, ça finit par nique sa mère On improvise un salaire, fini à ry-Fleu quand ça merde Et wAllah frère ça memmerde Jcrois qujvais marcher sur les mains tellement jai la tête à lenvers Ils veulent du lourd jleur donne ma bite Jsuis vulgaire, et alors poto ? Jfais ma mort, fais ta vie Jsuis baisé ma gueule, plaider un cur Jpeux pas nan, cest mon pêché dorgueil Tu veux du sale ? Jsuis cquil y a dplus crado Ne msouhaite pas mon anniv gros ça sera lplus beau dmes cadeaux J'suis comme cette image que tu regardes à l'instant J'saigne, j'ai le regard haineux, mais j'souris et j'attends J'attends que mon heure vienne de sonner ton heure Interdit d'Essonne, y vit quand même esquive les contrôleurs J'finis ce texte avec la pire des rages Quand les rappeurs jouent les chauds alors que c'est les pires des shlags La vie c'est dur on s'en rend compte qu'une fois dans l'trou Et quand il fait trop noir sur l'banc d'cantine y'a pas d'ampoule Donc j'me répète, fuck le monde ma gueule J'peux pas changer gueh c'est mon péché d'orgueil7</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Pourquoi ces fils de hmm ouvrent tant leurs mères ? mères Wallah, wallah Ils savent vraiment pas c'que j'pourrais leur faire Wallah, wallah, allô allô C'est comment ? On perce ! on perce Ouais, ouais, alors Pétasse c'est comment ? On baise ? on baise Ouais, ouais Depuis tit-pe j'ai l'seum Ouais, ouais, ouais Alors j'visser l'Essonne Si j'ai pas mon goûter, j'ai la haine j'ai la haine Wallah Si t'es juste à côté t'es dans la merde Quoi alors ? Tu comprends pas qu'on a faim ? Wallah, wallah Y aura du sang sur le sourire à la fin Hmm hmm Pa-pa-pa-pa-pa faut que j'les hmm ces F de putes Wallah trop d'soucis, trop d'nostalgie dans l'disque dur Mouais, j'hésite, j'sais pas hmm J'leur fous un bout de bois ou ma hmm... Merde ! À croire qu'les anges m'ont dit Bouge de là, pars en couilles Aujourd'hui ça parle en dix, si y'a pas le million ça parle en douilles You might also like x2 J'mets le chapeau comme à Cuba J'veux le cigare comme à Cuba La street m'a dit d'un air tout bas Baise les cocas dans la coupe ah Arriba arriba arriba Rompompompompompompom Ça rit pas rit pas rit pas C'est l'gyro que t'entend-tend-tend-tend4</t>
+          <t>Pourquoi ces fils de hmm ouvrent tant leurs mères ? mères Wallah, wallah Ils savent vraiment pas c'que j'pourrais leur faire Wallah, wallah, allô allô C'est comment ? On perce ! on perce Ouais, ouais, alors Pétasse c'est comment ? On baise ? on baise Ouais, ouais Depuis tit-pe j'ai l'seum Ouais, ouais, ouais Alors j'visser l'Essonne Si j'ai pas mon goûter, j'ai la haine j'ai la haine Wallah Si t'es juste à côté t'es dans la merde Quoi alors ? Tu comprends pas qu'on a faim ? Wallah, wallah Y aura du sang sur le sourire à la fin Hmm hmm Pa-pa-pa-pa-pa faut que j'les hmm ces F de putes Wallah trop d'soucis, trop d'nostalgie dans l'disque dur Mouais, j'hésite, j'sais pas hmm J'leur fous un bout de bois ou ma hmm... Merde ! À croire qu'les anges m'ont dit Bouge de là, pars en couilles Aujourd'hui ça parle en dix, si y'a pas le million ça parle en douilles x2 J'mets le chapeau comme à Cuba J'veux le cigare comme à Cuba La street m'a dit d'un air tout bas Baise les cocas dans la coupe ah Arriba arriba arriba Rompompompompompompom Ça rit pas rit pas rit pas C'est l'gyro que t'entend-tend-tend-tend4</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Hey pédé, j'viens t'péter, rien laisser, la baiser, n'pas rêver, RDV sur Saturne La fierté, lhonnêteté, l'amitié, éviter la pitié, j'vends la mort à la pub Elle est bonne, faut qu'elle paye en nature, elle est pure, la feuille est sans ratures Pas majeure mais sa bouche est mature, le shit bulle, les pouces collent, on m'accule Wesh l'alien écailleux, t'es faya, tête ailleurs, dis-moi c'est quand tu sors le Cayenne Ouais la hyène se lâche, fait la chienne, se cache et plus tard se range comme Ayem Deux talons qui sortent de la gova, des bras maigres qui manient le cobra Igo on sort la langue comme Manny, Love Sosa, oui ma connasse Tiens goûte la teub à Adama, gros j'lance mon taga jusqu'en Alabama Ma punch dans ta gorge, la gorge à ta femme, viens voir la souffrance te dire wallah pas mal Igo j'suis sauvage et j'crie ounga wawa, Ounga ounga, le G sur la poucave Ounga ounga, nigga wawawawa, Ounga ounga, tant qu'on fout pas l'darwa J'sais qu'j'suis pas intégré, j'suis père de mes intérêts, les mains dans la merde alors qu'elles sont faites pour les enterrer J'sais combien tu paierais pour te faire opérer, de tout ce mal qui paraît si fort et qui semble empirer Viens m'voir et j'te dirai le prix d'la fonce-dé-dé-dé Si t'as appris à compter-ter-ter, on sera amis, enchanté-té-té Moi c'est Ade', moi c'est Ade' khey, sors la 'teille, vas-y claque le jour de paye J'veux pas d'ton Facebook, rrht tfou, t'sais que j'ai ma main sur ta fesse C'est limpide, ouais c'est deuss, c'est violent, c'est 9.1,on arrive y a d'la peuf' au volant, y a d'la meuf Elle t'a brisé le cur, fallait briser sa chatte, dire au gosse à sa reus' fais la bise à papa Pah, pah, pah, pah, ma haine qui te quen', j'suis en polo, la rage s'voit aux triceps Blablablabla, tu t'écartes tu te perds en direction du hall les cas soc' te visser L'espoir dans le coffre, la chance dans la cava, pardonnez-moi mais nos sorts sont macabres Dis-moi si j'ai tort ou si j'rappe la tate-pa, obscure est la force, le jedi est khabat 9.4 c'est l'Barça, 9.1 c'est l'Brésil, ouais connard, va l'dire à Kery Sinon à part ça, bien t'es pressé ? Non parce que ça va pas terrible Parce que j'suis seul dans ma tête, c'est la rage qui m'a élevé Que j'ai bicrave dans la tess' et qu'mon caleçon n'est pas en LV Faut du liquide, j'laisse pas couler une larme, pas une, pas une, pas une Fais bellek aux femmes, fais bellek aux putes, fais bellek aux paluches, paluches, paluches T'sais qu'on est vifs donc fais pas l'imbécile, on s'vide pas la vessie un meug dans les WC Oui on veut la belle vie, embarquer sur l'ferry, si t'as ché-tou des litres, vas-y mon gars fais signe Tu décolles, jatterris, bientôt j'côtoie des riches, la poudre dans la narine, César fait l'AVC J'l'ai quen' un mercredi, l'amène pas à la mairie, tu l'appelles ma chérie, j'lui mettais la fessée Viens j'te donne RDV, j'suis d'Paris j'suis pressé, igo j'vois tellement d'chiennes, j'mets une laisse sur l'PC J'mets une laisse sur l'PC, j'prends le game en PV, l'rap est mort, j'le déterre pour le ré-enterrer You might also like Ma drogue dans l'Gabbana Aux arrivants avec mon gars Bana J'sors ma hein-hein de mon Gabbana Ton oseille dans la poche de mon Gabbana J'fais l'amour à la hess' dans l'allée, elle se rhabille, j'me retourne Bismillah à l'aller, bismillah au retour Sers le trou d'balle à la douane, on déballe et taille-dé redwa Dans mes yeux c'est le vide, mon âme est perchée sur le toit J'vois l'espoir dans les yeux des p'tits, mashallah ça sent l'rêve Une sale envie d'décharger, on vit, on s'égare, on crève Ouais pas d'vie sociale, juste une vie d'cas social Le rap dans un local, va foutre ta schneck au sale Tantôt j'tue l'temps tant, tantôt c'est l'temps qui m'kill J'me sens mutant, tant différent dans la file Ouais j'suis bon qu'à compter, un joint d'beuh sur les lèvres Allez fuck ma bonté, et avec ça fuck mes rêves Tout c'que j'fais charbonner, tous les mêmes tous clonés Six du mat' détrôné à r'dessiner c'qu'est gommé Combien de sacs à pâtes ne savent plus sur quel genou danser Sur quel genou danser Ademo, Ladif Peace and lovés kiff Tout pour la mif' Tout pour le bif' Les sentiments ça ralentit, le cur fermé, là j'suis à fond Tu pètes plus haut que ton cul, on t'monte ton cul touche, touche le plafond On tire sur la laisse, t'aboies, on t'détache, tu perds la voix Nous c'est les gentils armés cramés conscients qu'on perd la foi Wesh à quand l'dernier kil' ? Pas demain, pas maintenant J'te fais danser avec l'oseille à chaque billet un nouveau battement J'tacle junkie potentiel, j'en fais ient ient fidèle Des loups qui fixent la Lune, moi être meilleur ami d'elle Chez nous on partage la hess', le cul d'la haute dans la caisse Casse un tour longue est la laisse, mon ange tu connais l'adresse Le temps d'un clignement les gens changent, moi je change en retrouvant la vue D'aucune poche on est dépendants, là j'suis fonce' en retrouvant la fum' Ils ont les photos, plus les souvenirs, on a les souvenirs, plus les photos Ouais on a même plus les potos, c'est chacun son bénéf', son auto Un gros fer sa mère, j'emmène la misère en balade Une balle pour chaque ennemi de mon frère, ça fait click, gala, gala Un putain d'biff, la mif', une ride en moins sur l'front de mon père Un putain d'biff, la mif', un sourire en plus sur l'visage de mon frère Le dos large, le coeur étroit Ta relation sur une pesette, si t'écoules pas, madame est froide Ce soir j'rentre pas à la maison Les portes se ferment et puis ne s'ouvriront qu'à la prochaine saison La misère dans un SLR, rentrer, tourner, sortir célèbre La vie me donne son cul, j'connais pas l'goût d'ses lèvres24</t>
+          <t>Hey pédé, j'viens t'péter, rien laisser, la baiser, n'pas rêver, RDV sur Saturne La fierté, lhonnêteté, l'amitié, éviter la pitié, j'vends la mort à la pub Elle est bonne, faut qu'elle paye en nature, elle est pure, la feuille est sans ratures Pas majeure mais sa bouche est mature, le shit bulle, les pouces collent, on m'accule Wesh l'alien écailleux, t'es faya, tête ailleurs, dis-moi c'est quand tu sors le Cayenne Ouais la hyène se lâche, fait la chienne, se cache et plus tard se range comme Ayem Deux talons qui sortent de la gova, des bras maigres qui manient le cobra Igo on sort la langue comme Manny, Love Sosa, oui ma connasse Tiens goûte la teub à Adama, gros j'lance mon taga jusqu'en Alabama Ma punch dans ta gorge, la gorge à ta femme, viens voir la souffrance te dire wallah pas mal Igo j'suis sauvage et j'crie ounga wawa, Ounga ounga, le G sur la poucave Ounga ounga, nigga wawawawa, Ounga ounga, tant qu'on fout pas l'darwa J'sais qu'j'suis pas intégré, j'suis père de mes intérêts, les mains dans la merde alors qu'elles sont faites pour les enterrer J'sais combien tu paierais pour te faire opérer, de tout ce mal qui paraît si fort et qui semble empirer Viens m'voir et j'te dirai le prix d'la fonce-dé-dé-dé Si t'as appris à compter-ter-ter, on sera amis, enchanté-té-té Moi c'est Ade', moi c'est Ade' khey, sors la 'teille, vas-y claque le jour de paye J'veux pas d'ton Facebook, rrht tfou, t'sais que j'ai ma main sur ta fesse C'est limpide, ouais c'est deuss, c'est violent, c'est 9.1,on arrive y a d'la peuf' au volant, y a d'la meuf Elle t'a brisé le cur, fallait briser sa chatte, dire au gosse à sa reus' fais la bise à papa Pah, pah, pah, pah, ma haine qui te quen', j'suis en polo, la rage s'voit aux triceps Blablablabla, tu t'écartes tu te perds en direction du hall les cas soc' te visser L'espoir dans le coffre, la chance dans la cava, pardonnez-moi mais nos sorts sont macabres Dis-moi si j'ai tort ou si j'rappe la tate-pa, obscure est la force, le jedi est khabat 9.4 c'est l'Barça, 9.1 c'est l'Brésil, ouais connard, va l'dire à Kery Sinon à part ça, bien t'es pressé ? Non parce que ça va pas terrible Parce que j'suis seul dans ma tête, c'est la rage qui m'a élevé Que j'ai bicrave dans la tess' et qu'mon caleçon n'est pas en LV Faut du liquide, j'laisse pas couler une larme, pas une, pas une, pas une Fais bellek aux femmes, fais bellek aux putes, fais bellek aux paluches, paluches, paluches T'sais qu'on est vifs donc fais pas l'imbécile, on s'vide pas la vessie un meug dans les WC Oui on veut la belle vie, embarquer sur l'ferry, si t'as ché-tou des litres, vas-y mon gars fais signe Tu décolles, jatterris, bientôt j'côtoie des riches, la poudre dans la narine, César fait l'AVC J'l'ai quen' un mercredi, l'amène pas à la mairie, tu l'appelles ma chérie, j'lui mettais la fessée Viens j'te donne RDV, j'suis d'Paris j'suis pressé, igo j'vois tellement d'chiennes, j'mets une laisse sur l'PC J'mets une laisse sur l'PC, j'prends le game en PV, l'rap est mort, j'le déterre pour le ré-enterrer Ma drogue dans l'Gabbana Aux arrivants avec mon gars Bana J'sors ma hein-hein de mon Gabbana Ton oseille dans la poche de mon Gabbana J'fais l'amour à la hess' dans l'allée, elle se rhabille, j'me retourne Bismillah à l'aller, bismillah au retour Sers le trou d'balle à la douane, on déballe et taille-dé redwa Dans mes yeux c'est le vide, mon âme est perchée sur le toit J'vois l'espoir dans les yeux des p'tits, mashallah ça sent l'rêve Une sale envie d'décharger, on vit, on s'égare, on crève Ouais pas d'vie sociale, juste une vie d'cas social Le rap dans un local, va foutre ta schneck au sale Tantôt j'tue l'temps tant, tantôt c'est l'temps qui m'kill J'me sens mutant, tant différent dans la file Ouais j'suis bon qu'à compter, un joint d'beuh sur les lèvres Allez fuck ma bonté, et avec ça fuck mes rêves Tout c'que j'fais charbonner, tous les mêmes tous clonés Six du mat' détrôné à r'dessiner c'qu'est gommé Combien de sacs à pâtes ne savent plus sur quel genou danser Sur quel genou danser Ademo, Ladif Peace and lovés kiff Tout pour la mif' Tout pour le bif' Les sentiments ça ralentit, le cur fermé, là j'suis à fond Tu pètes plus haut que ton cul, on t'monte ton cul touche, touche le plafond On tire sur la laisse, t'aboies, on t'détache, tu perds la voix Nous c'est les gentils armés cramés conscients qu'on perd la foi Wesh à quand l'dernier kil' ? Pas demain, pas maintenant J'te fais danser avec l'oseille à chaque billet un nouveau battement J'tacle junkie potentiel, j'en fais ient ient fidèle Des loups qui fixent la Lune, moi être meilleur ami d'elle Chez nous on partage la hess', le cul d'la haute dans la caisse Casse un tour longue est la laisse, mon ange tu connais l'adresse Le temps d'un clignement les gens changent, moi je change en retrouvant la vue D'aucune poche on est dépendants, là j'suis fonce' en retrouvant la fum' Ils ont les photos, plus les souvenirs, on a les souvenirs, plus les photos Ouais on a même plus les potos, c'est chacun son bénéf', son auto Un gros fer sa mère, j'emmène la misère en balade Une balle pour chaque ennemi de mon frère, ça fait click, gala, gala Un putain d'biff, la mif', une ride en moins sur l'front de mon père Un putain d'biff, la mif', un sourire en plus sur l'visage de mon frère Le dos large, le coeur étroit Ta relation sur une pesette, si t'écoules pas, madame est froide Ce soir j'rentre pas à la maison Les portes se ferment et puis ne s'ouvriront qu'à la prochaine saison La misère dans un SLR, rentrer, tourner, sortir célèbre La vie me donne son cul, j'connais pas l'goût d'ses lèvres24</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Wesh l'animal, dis moi comment tu vois l'homme, dis moi Tu m'vois en prison ou bien tu m'vois mort J'niquerai ta fille apres lui avoir vendu ma drogue Sur l'écran d'ma ville les keufs mon marqué a la proche Bande de pédés j'suis un tigre pas un mouton J'vivrais ma vie connard j'vivrais pas celle d'un bouffon Gros, tu m'salue y'a pas d'rêve donc 'azy check J'les connais, les mythos donc me sort pas de balivernes Pas moins 3g, l'étranger, j'te fait pas dix hein Me casse pas les cacahuètes ou j'te prendrai pour un d'ces singes C'est simples comme bonjour, compliqué comme dire au revoir Les hommes se saoule la gueule pour survivre dans l'froid Père corse, mère algérienne, fier de mes origines Tous me disent gros t'as maigri j'réponds J'me suis mis au régime Faut reflechir, ma haine monte en l'air comme en high kick Le temps passe devant la montre man, j'élabore des tactiques Mon veau-cer en mode calculette, austère la tess ma vu naître, funèbre Elle m'verra mourir dans sa lunette J'suis entouré d'cave-pou qui t'nique l'avenir avec la langue Et j'dois peser beaucoup vue le nombre de balance J'pars en couille dans ma folie trouve d'la raison Me dis si pas d'argent moi pas mettre un pied à la maison J'suis différent oué, différent ma gueule J'ai peur d'accepter c'cadeau du Sheitan me delivrant un coeur J'ai dit au prof de maths en cour, j'suis pas lgenre à calculer Si la vie est une pute y'm'faut bien plus qu'une chienne pour éjaculer Regarde ma face, regarde les mec d'en-bas T'as trop d'bruit t'auras du calme si tu fait KRR KRR PAAH Tous le monde dis zoo mais au zoo on dis qu'c'était mieux à l'ancienne Avant qu'ils détruisent la grande tour la rue Césin Goka et 45 J'oublirai pas, j'dirais DZ sur n'importe quel label T'sais qu'il a fallu que j'pars de chez moi pour mettre à dealer d'la Zeb Y'a pas d'caprice, gamine, j'vend l'cannabis Parce que j'ai eu trop mal au ventre un long moment d'ma vie Ma3lich, normal gros, même la misère s'approche J'peux même te dire ça t'change autant niveau mental qu'en apparence Jsuis pas l'genre a dire j'ai vu ci, j'ai vu ça On a besoin d'se nourrir plus dans le délire j'ai fait ci, j'ai fait ça Eh gros j't'encule si tu kiffe pas ce que j'dis Écoute ta mère la pute j'la baiserai quand elle te dira au lit Ma vengeance sera terrible eh les crocs J'me suis mangé des murs en voulant les sauter mattez mes chicos La vie d'rêve j'l'aurai ici ou la haut Et compte sur personnes j'ai qu'la visite des cafards, des rats ouuéé Argent facile mon cul tous les soirs j'ai les pieds gelés Servir les ients-cli à l'heure ou toi t'es en train d'déjeuner J'lève une barrête en l'air pour tous les dealers, les charbonneur J'ouvre la porte du hall aux daronnes qui me traiteront de sale voleur Esh la galere WAllah tu ma cogné Un bédo, une cannette puis une perquisition à la son-mai Ce son n'est pas triste j'texplique ça va au summum de mon bonheur Y'a pas plus haineux qu'moi, j'crèverai l'doigt en l'air sur le trône C'est un son qui fait rer-pleu eh, j'm'en bats les couilles J'ai un tas d'haine j'suis seul quand j'deal en bas des tours Fuck les poucaves, fuck les jaloux, les pédés Putain pousse-toi quand les keufs veulent me péter Car si tu finis en garde-a-v' avec moi pédé, n'ouvres pas ta bouche J'suis en mode sursis j'm'arreterai pas stopé pas ma route Ademo, rappe pour ceux qui galèrent dans l'froid Quoi, t'es un bandit en cellu' j't'encule ta mère dans l'bois J'prefere me faire péter mon nez qu'faire la tapette Si t'es un gorille qu'tu m'a goumé, demain, j'te met un coup d'lame dans l'artère Tu cherches la merde, j'la fais sortir par ton trou d'balle Si l'baveux m'dit d'avouer, nique sa mère, j'suis pas coupable J'les baise tellement qu'les keufs on pris les empreintes d'ma bite J'ai fait l'serment qu'pour les miens je sacrifierai ma vie Esh la galère ouais j'te connais J'me souviens de toi, des caves, des cafards mais pas de la monnaie Esh Esh la galère ouais j'te connais J'me souviens de toi, des caves, des cafards mais pas de la monnaie Esh Esh la galère ouais j'te connais À cause de toi bicrave en bas du hall C tu connaisYou might also like3</t>
+          <t>Wesh l'animal, dis moi comment tu vois l'homme, dis moi Tu m'vois en prison ou bien tu m'vois mort J'niquerai ta fille apres lui avoir vendu ma drogue Sur l'écran d'ma ville les keufs mon marqué a la proche Bande de pédés j'suis un tigre pas un mouton J'vivrais ma vie connard j'vivrais pas celle d'un bouffon Gros, tu m'salue y'a pas d'rêve donc 'azy check J'les connais, les mythos donc me sort pas de balivernes Pas moins 3g, l'étranger, j'te fait pas dix hein Me casse pas les cacahuètes ou j'te prendrai pour un d'ces singes C'est simples comme bonjour, compliqué comme dire au revoir Les hommes se saoule la gueule pour survivre dans l'froid Père corse, mère algérienne, fier de mes origines Tous me disent gros t'as maigri j'réponds J'me suis mis au régime Faut reflechir, ma haine monte en l'air comme en high kick Le temps passe devant la montre man, j'élabore des tactiques Mon veau-cer en mode calculette, austère la tess ma vu naître, funèbre Elle m'verra mourir dans sa lunette J'suis entouré d'cave-pou qui t'nique l'avenir avec la langue Et j'dois peser beaucoup vue le nombre de balance J'pars en couille dans ma folie trouve d'la raison Me dis si pas d'argent moi pas mettre un pied à la maison J'suis différent oué, différent ma gueule J'ai peur d'accepter c'cadeau du Sheitan me delivrant un coeur J'ai dit au prof de maths en cour, j'suis pas lgenre à calculer Si la vie est une pute y'm'faut bien plus qu'une chienne pour éjaculer Regarde ma face, regarde les mec d'en-bas T'as trop d'bruit t'auras du calme si tu fait KRR KRR PAAH Tous le monde dis zoo mais au zoo on dis qu'c'était mieux à l'ancienne Avant qu'ils détruisent la grande tour la rue Césin Goka et 45 J'oublirai pas, j'dirais DZ sur n'importe quel label T'sais qu'il a fallu que j'pars de chez moi pour mettre à dealer d'la Zeb Y'a pas d'caprice, gamine, j'vend l'cannabis Parce que j'ai eu trop mal au ventre un long moment d'ma vie Ma3lich, normal gros, même la misère s'approche J'peux même te dire ça t'change autant niveau mental qu'en apparence Jsuis pas l'genre a dire j'ai vu ci, j'ai vu ça On a besoin d'se nourrir plus dans le délire j'ai fait ci, j'ai fait ça Eh gros j't'encule si tu kiffe pas ce que j'dis Écoute ta mère la pute j'la baiserai quand elle te dira au lit Ma vengeance sera terrible eh les crocs J'me suis mangé des murs en voulant les sauter mattez mes chicos La vie d'rêve j'l'aurai ici ou la haut Et compte sur personnes j'ai qu'la visite des cafards, des rats ouuéé Argent facile mon cul tous les soirs j'ai les pieds gelés Servir les ients-cli à l'heure ou toi t'es en train d'déjeuner J'lève une barrête en l'air pour tous les dealers, les charbonneur J'ouvre la porte du hall aux daronnes qui me traiteront de sale voleur Esh la galere WAllah tu ma cogné Un bédo, une cannette puis une perquisition à la son-mai Ce son n'est pas triste j'texplique ça va au summum de mon bonheur Y'a pas plus haineux qu'moi, j'crèverai l'doigt en l'air sur le trône C'est un son qui fait rer-pleu eh, j'm'en bats les couilles J'ai un tas d'haine j'suis seul quand j'deal en bas des tours Fuck les poucaves, fuck les jaloux, les pédés Putain pousse-toi quand les keufs veulent me péter Car si tu finis en garde-a-v' avec moi pédé, n'ouvres pas ta bouche J'suis en mode sursis j'm'arreterai pas stopé pas ma route Ademo, rappe pour ceux qui galèrent dans l'froid Quoi, t'es un bandit en cellu' j't'encule ta mère dans l'bois J'prefere me faire péter mon nez qu'faire la tapette Si t'es un gorille qu'tu m'a goumé, demain, j'te met un coup d'lame dans l'artère Tu cherches la merde, j'la fais sortir par ton trou d'balle Si l'baveux m'dit d'avouer, nique sa mère, j'suis pas coupable J'les baise tellement qu'les keufs on pris les empreintes d'ma bite J'ai fait l'serment qu'pour les miens je sacrifierai ma vie Esh la galère ouais j'te connais J'me souviens de toi, des caves, des cafards mais pas de la monnaie Esh Esh la galère ouais j'te connais J'me souviens de toi, des caves, des cafards mais pas de la monnaie Esh Esh la galère ouais j'te connais À cause de toi bicrave en bas du hall C tu connais3</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Le bail c'est... Ouais ouais, kahba Hun, hun, ok, ok Le bail c'est Internet, MSN, Facebook Sites de rencontres, webcam, te montre ses fesses, bouge En mode strip tease Elle c'est Farah elle aime pas les victimes T'es un caïd tu lui plairas elle écoute Booba du 92 izi Le bail c'est que Farah est bonne comme disent ses potes, Farah est bonne elle a des copines ses copines la trouve très conne Ce soir elle a rendez-vous avec un soi disant dealer de Paname Qui lui même lui a dit qu'il avait une grosse banane Ce soir c'est un gars de plus, ce soir c'est l'premier samedi du mois Y'aura du cul comme sur Canal Ses parents ne savent pas ce qu'elle fait sinon c'est le bled Elle écoute du Wallen après chaque mecs qui l'appellent et la eh'... C'est depuis qu'elle a souffert qu'elle fait la chienne Depuis qu'son cur s'est ouvert, se dit qu'les hommes n'en valent pas la peine Farah cette fille qui du rêve passe à je crève Depuis qu'on lui a dit je t'aime fait un gosse et qu'on l'a tej' Kahba, tu veux les bras d'un beau gosse Kahba, choisis la cave ou les chiottes Kahba, la vie c'est triste hein, j'te pleure pas, mais j'compatis devant ton destin Kahba, c'est comme ça qu'on t'appelle Kahba, ton cul tourne dans tous les hôtels Kahba, ton numéro tout le monde l'a, pleures pas, y'a qu'un zgeg qui t'lâchera une larme Le bail c'est talon aiguille, mini-jupe, string Tatouage en bas du dos, 90 et piercing au nombril Capotes code dans l'sac à main l'soir Deux grammes de sess dans la shnek pour rentrer en boite Danse danse comme une déesse, le regard perdu Fonce-dé, alcool dans les ve-eines Elle c'est Laura attend un beau gosse qui sache y faire Plutôt qu'renfort, un gentleman qui lui paye un verre Elle aura ses collés-serrés classiques Quand le jour se lève, un after pour aller fêter la nuit Elle finit souvent dans les hôtels les plus chics avec un mec à Chiffre avec d'la haute qui gère une usine Elle connait toutes les positions, termine chaque ébat Avec une trace ou un gros pilon L'histoire de Laura c'est 13 piges, violée sur un lit, par un Homme d'une cinquantaine, violent du mois, ivre Kahba, tu veux les bras d'un beau gosse Kahba, choisis la cave ou les chiottes Kahba, la vie c'est triste hein, j'te pleure pas, mais j'compatis devant ton destin Kahba, c'est comme ça qu'on t'appelle Kahba, ton cul tourne dans tous les hotels Kahba, ton numéro tout le monde l'a, pleures pas, y'a qu'un zgeg qui t'lâchera une larme D'mandes toi pourquoi elle fait la pute elle fait la pute, negro Elle donne son corps avant son coeur enlève sa jupe très tôt D'mandes toi pourquoi soeurette les mecs sont sales Une vision salée plus d'pitié pour faire du mal Kahba, parle pas beaucoup mais sait agir Est triste donc donne son corps d'façon tragique On les appelle chiennes, salopes, putes, pétasses Nouvelle génération, et wAllah qu'ça tourne très mal Kahba, tu veux les bras d'un beau gosse Kahba, choisis la cave ou les chiottes Kahba, la vie c'est triste hein, j'te pleure pas, mais j'compatis devant ton destin Kahba, c'est comme ça qu'on t'appelle Kahba, ton cul tourne dans tous les hotels Kahba, ton numéro tout le monde l'a, pleures pas, y'a qu'un zgeg qui t'lâchera une larmeYou might also like1</t>
+          <t>Le bail c'est... Ouais ouais, kahba Hun, hun, ok, ok Le bail c'est Internet, MSN, Facebook Sites de rencontres, webcam, te montre ses fesses, bouge En mode strip tease Elle c'est Farah elle aime pas les victimes T'es un caïd tu lui plairas elle écoute Booba du 92 izi Le bail c'est que Farah est bonne comme disent ses potes, Farah est bonne elle a des copines ses copines la trouve très conne Ce soir elle a rendez-vous avec un soi disant dealer de Paname Qui lui même lui a dit qu'il avait une grosse banane Ce soir c'est un gars de plus, ce soir c'est l'premier samedi du mois Y'aura du cul comme sur Canal Ses parents ne savent pas ce qu'elle fait sinon c'est le bled Elle écoute du Wallen après chaque mecs qui l'appellent et la eh'... C'est depuis qu'elle a souffert qu'elle fait la chienne Depuis qu'son cur s'est ouvert, se dit qu'les hommes n'en valent pas la peine Farah cette fille qui du rêve passe à je crève Depuis qu'on lui a dit je t'aime fait un gosse et qu'on l'a tej' Kahba, tu veux les bras d'un beau gosse Kahba, choisis la cave ou les chiottes Kahba, la vie c'est triste hein, j'te pleure pas, mais j'compatis devant ton destin Kahba, c'est comme ça qu'on t'appelle Kahba, ton cul tourne dans tous les hôtels Kahba, ton numéro tout le monde l'a, pleures pas, y'a qu'un zgeg qui t'lâchera une larme Le bail c'est talon aiguille, mini-jupe, string Tatouage en bas du dos, 90 et piercing au nombril Capotes code dans l'sac à main l'soir Deux grammes de sess dans la shnek pour rentrer en boite Danse danse comme une déesse, le regard perdu Fonce-dé, alcool dans les ve-eines Elle c'est Laura attend un beau gosse qui sache y faire Plutôt qu'renfort, un gentleman qui lui paye un verre Elle aura ses collés-serrés classiques Quand le jour se lève, un after pour aller fêter la nuit Elle finit souvent dans les hôtels les plus chics avec un mec à Chiffre avec d'la haute qui gère une usine Elle connait toutes les positions, termine chaque ébat Avec une trace ou un gros pilon L'histoire de Laura c'est 13 piges, violée sur un lit, par un Homme d'une cinquantaine, violent du mois, ivre Kahba, tu veux les bras d'un beau gosse Kahba, choisis la cave ou les chiottes Kahba, la vie c'est triste hein, j'te pleure pas, mais j'compatis devant ton destin Kahba, c'est comme ça qu'on t'appelle Kahba, ton cul tourne dans tous les hotels Kahba, ton numéro tout le monde l'a, pleures pas, y'a qu'un zgeg qui t'lâchera une larme D'mandes toi pourquoi elle fait la pute elle fait la pute, negro Elle donne son corps avant son coeur enlève sa jupe très tôt D'mandes toi pourquoi soeurette les mecs sont sales Une vision salée plus d'pitié pour faire du mal Kahba, parle pas beaucoup mais sait agir Est triste donc donne son corps d'façon tragique On les appelle chiennes, salopes, putes, pétasses Nouvelle génération, et wAllah qu'ça tourne très mal Kahba, tu veux les bras d'un beau gosse Kahba, choisis la cave ou les chiottes Kahba, la vie c'est triste hein, j'te pleure pas, mais j'compatis devant ton destin Kahba, c'est comme ça qu'on t'appelle Kahba, ton cul tourne dans tous les hotels Kahba, ton numéro tout le monde l'a, pleures pas, y'a qu'un zgeg qui t'lâchera une larme1</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Trop d'marmites dans l'rap, j'rentre, j'opère Vaseline dans l'oreille, j'te laisse ma bite dans l'crâne J'pisse dans l'bail, les MCS j'les prends par dizaines Les auditeurs niquez vous avec votre rap tah Walt Disney C'est un appel aux vrais, on va reprendre ça On veut nous déraciner mais parce qu'on est rares comme des bonzaï Et nique ta grand-mère tu va courir si tu m'vois Si j'te nique et qu'j'le mets sur YouTube poto c'est pour qu'tu m'crois MC épargne moi, tes jeux d'mots C'est pas parce que tu prends le bus que tu m'feras croire que tu démarre au quart Balayette, gifle dans ta gueule, baisse tes yeux Là j'ai la rage qui vient du zoo d'l'Essonne Qui vient d'mon père, qui vient d'la hess Qui vient du hebs pè-pè-pèpere J'vais vous faire perdre le titre, vous allez m'rincez Comme quand j'payer la télé tous les mercredis T'es pas content ? Fuck, ils insultent les mères Si j'y vais pas c'est pour pas que y ait du sang à rap contenders Première insulte béh tiens dans ta mère Toi continue à filmer diffuse ça avant que j'te fasse la même J'essaye d'être cool, j'vous jure c'est vrai J'respecte plus Kamini que ces pédales qui font les mecs Wallah, il demande à papa maman pour payer l'studio Nous ça vient de la rue quand on rap plus c'est que les deck nous saute L'ingé est témoin y'a pas d'mito Les ien-clis appelle même quand on est derrière l'micro Pas de quoi se vanter, c'est juste une parenthèse Le savoir est une arme pourtant c'est toujours les démunies qui part en guerre Dieu est grand, d'autant plus grand que sera la chute Pour ça quand j'passe à la barre, j'fais un petit sourire à la juge Car un jour elle sera à ma place Alors la, je veux être là, qu'elle comprenne mon petit sourire à la base Ironie ou paradoxe bizarre, J'ai une drôle d'humeur Va comprendre j'ai d'la haine et elle sort du coeur Chaud le rap, rien à voir avec ces merde Ils ont moins de choses à raconter en un an, que moi en moins d'une heure Je vis dans le noir, car j'pète des câbles à haute tension Et si quand j'rap perds des kilos, c'est parce que j'les donne dans l'son Pour toutes les pédales, si tu compte sur les gens, écoute Ya qu'un pd qui peut accepter qu'un autre homme lui porte ses couilles Allez tous vous faire foutre Dans c'de-mon c'est comme en taule, on arrive solo, on en ressort tout seul You might also like Tape mon blaze sur Google, igo tu m'trouvera pas Après deux trois joint beu-her, gros, tu m'trouve rhabat Tu veux mon bout d'taga, un bout d'salade Ramène le papier Manny ou bien bouge salam Zougouzougouli si les thugs parlent affaire Quand les keufs sont venus pour moi, mon reuf a sauter par la f'nètre C'est comme cette meuf qui me demande Nabil, t'as d'jà fait du hebs? Tout ça parce que j'ai un peu de tête avec un accent de tess Igo j'ai la barre, les veu-grés sont en leu-leu Igo j'fous le sbeul bien sûr que mon hash pue Et la miss, si t'es bonne on s'arrête à l'arrêt d'bus Gros si tu clique sur j'aime pas, ta mère c'est la reine des putes J'ai tout ramener à mon dad, l'argent des diplômes et la police J'fais partie des cerveaux de la rue même les bourgeois m'applaudissent À 8 heure j'avais cours, à 6 heure j'avais les menottes 9.1, 9.4, Wesh igo prends note Oué j'prends note Bande d'enfoiré On lâchera jamais je t'le dit jamais Tant qu'il y a les couilles, j'annonce J'suis un tigre qui tombe dans l'arène Je m'arrête pas tant que j'ai pas gagné Et si on s'embrouille Sois sûr qu'un d'nous va canner Haa Bande d'enfoirés Sur la 185ème avenue Ademo, N.O.S Vous connaissais pas les bails Hé, niquez tous vos grand-mères J'rappe pour les charclos et j't'enmerde J'vous baisse tous en leu-leu, les jambes en l'air 185 igo1</t>
+          <t>Trop d'marmites dans l'rap, j'rentre, j'opère Vaseline dans l'oreille, j'te laisse ma bite dans l'crâne J'pisse dans l'bail, les MCS j'les prends par dizaines Les auditeurs niquez vous avec votre rap tah Walt Disney C'est un appel aux vrais, on va reprendre ça On veut nous déraciner mais parce qu'on est rares comme des bonzaï Et nique ta grand-mère tu va courir si tu m'vois Si j'te nique et qu'j'le mets sur YouTube poto c'est pour qu'tu m'crois MC épargne moi, tes jeux d'mots C'est pas parce que tu prends le bus que tu m'feras croire que tu démarre au quart Balayette, gifle dans ta gueule, baisse tes yeux Là j'ai la rage qui vient du zoo d'l'Essonne Qui vient d'mon père, qui vient d'la hess Qui vient du hebs pè-pè-pèpere J'vais vous faire perdre le titre, vous allez m'rincez Comme quand j'payer la télé tous les mercredis T'es pas content ? Fuck, ils insultent les mères Si j'y vais pas c'est pour pas que y ait du sang à rap contenders Première insulte béh tiens dans ta mère Toi continue à filmer diffuse ça avant que j'te fasse la même J'essaye d'être cool, j'vous jure c'est vrai J'respecte plus Kamini que ces pédales qui font les mecs Wallah, il demande à papa maman pour payer l'studio Nous ça vient de la rue quand on rap plus c'est que les deck nous saute L'ingé est témoin y'a pas d'mito Les ien-clis appelle même quand on est derrière l'micro Pas de quoi se vanter, c'est juste une parenthèse Le savoir est une arme pourtant c'est toujours les démunies qui part en guerre Dieu est grand, d'autant plus grand que sera la chute Pour ça quand j'passe à la barre, j'fais un petit sourire à la juge Car un jour elle sera à ma place Alors la, je veux être là, qu'elle comprenne mon petit sourire à la base Ironie ou paradoxe bizarre, J'ai une drôle d'humeur Va comprendre j'ai d'la haine et elle sort du coeur Chaud le rap, rien à voir avec ces merde Ils ont moins de choses à raconter en un an, que moi en moins d'une heure Je vis dans le noir, car j'pète des câbles à haute tension Et si quand j'rap perds des kilos, c'est parce que j'les donne dans l'son Pour toutes les pédales, si tu compte sur les gens, écoute Ya qu'un pd qui peut accepter qu'un autre homme lui porte ses couilles Allez tous vous faire foutre Dans c'de-mon c'est comme en taule, on arrive solo, on en ressort tout seul Tape mon blaze sur Google, igo tu m'trouvera pas Après deux trois joint beu-her, gros, tu m'trouve rhabat Tu veux mon bout d'taga, un bout d'salade Ramène le papier Manny ou bien bouge salam Zougouzougouli si les thugs parlent affaire Quand les keufs sont venus pour moi, mon reuf a sauter par la f'nètre C'est comme cette meuf qui me demande Nabil, t'as d'jà fait du hebs? Tout ça parce que j'ai un peu de tête avec un accent de tess Igo j'ai la barre, les veu-grés sont en leu-leu Igo j'fous le sbeul bien sûr que mon hash pue Et la miss, si t'es bonne on s'arrête à l'arrêt d'bus Gros si tu clique sur j'aime pas, ta mère c'est la reine des putes J'ai tout ramener à mon dad, l'argent des diplômes et la police J'fais partie des cerveaux de la rue même les bourgeois m'applaudissent À 8 heure j'avais cours, à 6 heure j'avais les menottes 9.1, 9.4, Wesh igo prends note Oué j'prends note Bande d'enfoiré On lâchera jamais je t'le dit jamais Tant qu'il y a les couilles, j'annonce J'suis un tigre qui tombe dans l'arène Je m'arrête pas tant que j'ai pas gagné Et si on s'embrouille Sois sûr qu'un d'nous va canner Haa Bande d'enfoirés Sur la 185ème avenue Ademo, N.O.S Vous connaissais pas les bails Hé, niquez tous vos grand-mères J'rappe pour les charclos et j't'enmerde J'vous baisse tous en leu-leu, les jambes en l'air 185 igo1</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Eh wAllah ouais cest sombre, baise les autres mecs, cest lson vif anti-traîtres Perce les ondes, laisse les cons, eh cest bon cest lson qui pète Ya trop dchacals qui jacassent, nique sa race si ça patine Pousse les pecs dans la cave au placard entre taga et tagatine Dé-détaille la plaquette, ya pas dcla-cla-clashs de tapettes Classe dans la glace, prends ta place, gars tauras notre reflet si ça pète Jma-maquette, maccapare un Pushka pour taper lscore Jrappe tinquiète appelle-moi Tupac nan, two paquets dclopes Tac tac tac et lami tape, pas cap-capable de vivre la merde Attaque-taque-taque, bim ta sur, à chaque, chaque deal on arrive à lheure Mais, mais, mais, mais qui cest qui rappe ? Roue dans lvirage Aux déter qui clamsent, ya des dents qui scassent Eh, harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life Tu vois les diez harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life igo x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jfais un rap de ouf, de barbare, embrasse les balles Le pare-balles ne parle pas le langage des bringuebales Pas le rap des dalleux stars-tars, flow trop speed, dar, dar Tac, tac, jmets mon coup, partage et bye-bye Et bim bim cest les bails, easy sur la cahier Vite vite, jvais les die, si si on va grailler Oui oui baiser ça, ou, cest précis on vit là où Ya wallou, cest lsaloon, tchin tchin pour la maille Vire les MC tous nazes, à ceux qui nous connaissent Ccoup-ci connard on peut pas nous virer comme au collège Décollage, nage dans lcomas, écoute et tais-toi Tu vas tomber dans les pommes si tu veux voir les étoiles La, la, la rime, le swag là ça glisse soit La technique jvois que tapprécies, sois pas bête, jlai fois deux Sois le bienvenu, et ouais ma-ma-man cest ma-ma-magique Ma, ma parole que jmarque ma quête, ma guerre quand jmanie lmi-mi-mic Trop facile, du sang, du sang dans la bassine Tes pas assis, tu vas finir sur le cul comme une catine Rap de foolek, elle mouille, jlargue, déboule et cest lsouk Jai trop tourné, jai trop souffert, jsuis trop saoulé naâlbouk On fait les diez, on est dînn et faut quon dessine notre destinée Yeah, yeah, yeah, jvends plus dshit donc jvais rimer Pour chanter donne du biff, on fait la la la la Sur Terre, déter, au clair de la, la, la, tune x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jai lflow qui fracasse, tabasse, agace, savate le beat En mode saga dsaccages, pagaille, jattrape le titre Ils veulent du dingue, dingue, flow Denzel en Benz, Benz Banga banga, ccoup-ci, ils auront des bang bang Jcrame ma clope dans la street, charcle la drogue sur un pit Motherfuck ton avis, à la mode dans la sique Crache, crache car elle est bonne mon ami Bad boy dans la ville, Maglite pas les spots dans la vitre Nouvelle époque on lagrippe, Paname, Paname suck-moi la bite x4 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachésYou might also like1</t>
+          <t>x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Eh wAllah ouais cest sombre, baise les autres mecs, cest lson vif anti-traîtres Perce les ondes, laisse les cons, eh cest bon cest lson qui pète Ya trop dchacals qui jacassent, nique sa race si ça patine Pousse les pecs dans la cave au placard entre taga et tagatine Dé-détaille la plaquette, ya pas dcla-cla-clashs de tapettes Classe dans la glace, prends ta place, gars tauras notre reflet si ça pète Jma-maquette, maccapare un Pushka pour taper lscore Jrappe tinquiète appelle-moi Tupac nan, two paquets dclopes Tac tac tac et lami tape, pas cap-capable de vivre la merde Attaque-taque-taque, bim ta sur, à chaque, chaque deal on arrive à lheure Mais, mais, mais, mais qui cest qui rappe ? Roue dans lvirage Aux déter qui clamsent, ya des dents qui scassent Eh, harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life Tu vois les diez harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life igo x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jfais un rap de ouf, de barbare, embrasse les balles Le pare-balles ne parle pas le langage des bringuebales Pas le rap des dalleux stars-tars, flow trop speed, dar, dar Tac, tac, jmets mon coup, partage et bye-bye Et bim bim cest les bails, easy sur la cahier Vite vite, jvais les die, si si on va grailler Oui oui baiser ça, ou, cest précis on vit là où Ya wallou, cest lsaloon, tchin tchin pour la maille Vire les MC tous nazes, à ceux qui nous connaissent Ccoup-ci connard on peut pas nous virer comme au collège Décollage, nage dans lcomas, écoute et tais-toi Tu vas tomber dans les pommes si tu veux voir les étoiles La, la, la rime, le swag là ça glisse soit La technique jvois que tapprécies, sois pas bête, jlai fois deux Sois le bienvenu, et ouais ma-ma-man cest ma-ma-magique Ma, ma parole que jmarque ma quête, ma guerre quand jmanie lmi-mi-mic Trop facile, du sang, du sang dans la bassine Tes pas assis, tu vas finir sur le cul comme une catine Rap de foolek, elle mouille, jlargue, déboule et cest lsouk Jai trop tourné, jai trop souffert, jsuis trop saoulé naâlbouk On fait les diez, on est dînn et faut quon dessine notre destinée Yeah, yeah, yeah, jvends plus dshit donc jvais rimer Pour chanter donne du biff, on fait la la la la Sur Terre, déter, au clair de la, la, la, tune x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jai lflow qui fracasse, tabasse, agace, savate le beat En mode saga dsaccages, pagaille, jattrape le titre Ils veulent du dingue, dingue, flow Denzel en Benz, Benz Banga banga, ccoup-ci, ils auront des bang bang Jcrame ma clope dans la street, charcle la drogue sur un pit Motherfuck ton avis, à la mode dans la sique Crache, crache car elle est bonne mon ami Bad boy dans la ville, Maglite pas les spots dans la vitre Nouvelle époque on lagrippe, Paname, Paname suck-moi la bite x4 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés1</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Bienvenue à Fleury Ah À Fleury Bienvenue à Fleury nique sa mère les tombes fleuries C'est la quête de la clope, parce que tout le monde n'est pas che-ri Enfermé j'écris ma lettre et ma rime Dans la promenade ça s'anime, j'suis dingue et j'attends un courrier de la miff Remercie Dieu si tu peux chier tranquillement Remercie Dieu poto entre matons et détenus pas de sentiment J'attends l'auxi pour donner une clope, un peu d'oxygène Un pote de cellule qu'a cantiné mais qui rate l'autre semaine A.D.E.M.O F.L.E.U.R.Y Ça c'est le texte en arrivant M.E.R.O.G.I.S Tu veux tester mais ta grand-mère j'la baise, enculé Même enfermé je fais un yoyo avec ma bite qu'elle vienne me la sucer C'est la défaite, là j'mange un 3-0 3 ans ferme plus 6 mois révoqué, je fais appel mais il n'y a pas de réseau Pour l'instant j'ai un petit corps mais je tape les pompes Juste pour devenir poids lourd et niquer un tas de piéton Dehors j'espère que les frères pètent un pilon en pensant à ma gueule J'tire pas la chasse j'prends ma douche, il m'reste qu'une main pour me laver la queue Le jour les pigeons les corbeaux, tapent ce qui vient Le soir c'est les rats qui tournent dans la cour, j'suis l'seul Corso-Algérien J'suis en vacances l'été 2010 ça sera au hebs J'viens de recevoir du linge, j'rêve d'un pilon dans la chaussette mais Tu connais la rengaine, ici ça s'tape pour du tabac Devant la télé je m'emmerde et même quand je zappe, y a que des bâtards À la cellule d'en face ça tape à la porte, ça crie Surveillant ! 16h24 j'attends la gamelle il n'y a que ça à faire quand t'es sur les nerfs J'ai cantiné ici lève tôt pour travailler mes biceps autrement Paraît que j'vais aller D5 depuis 2 ans dans l'règlement Voilà ma vie, vise, voilà ma vision des choses On a mis l'tigre dans sa cage pour pas que sa sauvagerie inonde les autres Or on naît pas d'la hess mais on en fait naître la foi Et tant qu'Dieu m'guide, crois-moi, ma force ne fait que s'accroître Au top des clips, là, j'vois Diam's numéro un T'es tombé sur une bombe, moi j'suis tombé sur des requins Nique votre justice, j'reste libre derrière vos barreaux Pour les vrais qui prient pour leur famille, et Allah tout là-haut, esh À ma sortie j'ferai d'la magie J'compte sur le re-fré pour sortie Son des halls volume 2, parasite Mon co-détenu vient d'se barrer, donc seul en cellule J'crache du sang dans les toilettes, peur d'avoir un putain d'virus J'pisse de la haine, y a comme un vide dans la tess Wesh mec j'vis dans la hess, j'ai des ennemis dans l'arène Eh, faut quoi, qu'j'pète des dents ? Quoi, que j'saigne des gens ? Jusqu'à c'qu'un d'ces bâtards m'descende ? Wesh Boub's t'es au quatrième, y a d'la place à côté d'ma cellule Fait une demande à la 44 j'te mettrai bien si t'as rien sur l'PQ Eh j'décuple ma haine, ma rage, un truc de ouf, man Tout doucement après la rue, ma vie c'est l'trou noir Esh, wAllah, là j'ai trop mal On m'a dit de ma fenêtre j't'ai vu pomper un truc de malade en promenade 500 pompes à la demie-heure le muscle étouffe mais j'ai qu'ça Donc calmé au parlu j'ai toujours pas d'Carmen Électra Besoin de douceur, avec ma bite on est tout seul Et l'surveillant regarde pas si j'lui mets l'zizi dans sa bouche Oups, trente minutes c'est vite passé Eh Nabil à chaque son qu'vous faites oubliez-pas d'dédicacer Putain j'ai acheté mon premier paquet d'clopes ici j'ai appris à rouler ici Tous les jours j'me fume le corps ici Ouais ouais, j'tape pas la gamelle c'est saoulant Me3lich igo dès qu'j'sors, j'rentre dans l'meilleur des restaurants, sur l'Coran You might also like - Surveillant ! Oh, surveillant ! Ouais, surveillant ! - Qui c'est encore ? - Eh ! Nique ta mère ! Bienvenue à Fleury Ah À Fleury1</t>
+          <t>Bienvenue à Fleury Ah À Fleury Bienvenue à Fleury nique sa mère les tombes fleuries C'est la quête de la clope, parce que tout le monde n'est pas che-ri Enfermé j'écris ma lettre et ma rime Dans la promenade ça s'anime, j'suis dingue et j'attends un courrier de la miff Remercie Dieu si tu peux chier tranquillement Remercie Dieu poto entre matons et détenus pas de sentiment J'attends l'auxi pour donner une clope, un peu d'oxygène Un pote de cellule qu'a cantiné mais qui rate l'autre semaine A.D.E.M.O F.L.E.U.R.Y Ça c'est le texte en arrivant M.E.R.O.G.I.S Tu veux tester mais ta grand-mère j'la baise, enculé Même enfermé je fais un yoyo avec ma bite qu'elle vienne me la sucer C'est la défaite, là j'mange un 3-0 3 ans ferme plus 6 mois révoqué, je fais appel mais il n'y a pas de réseau Pour l'instant j'ai un petit corps mais je tape les pompes Juste pour devenir poids lourd et niquer un tas de piéton Dehors j'espère que les frères pètent un pilon en pensant à ma gueule J'tire pas la chasse j'prends ma douche, il m'reste qu'une main pour me laver la queue Le jour les pigeons les corbeaux, tapent ce qui vient Le soir c'est les rats qui tournent dans la cour, j'suis l'seul Corso-Algérien J'suis en vacances l'été 2010 ça sera au hebs J'viens de recevoir du linge, j'rêve d'un pilon dans la chaussette mais Tu connais la rengaine, ici ça s'tape pour du tabac Devant la télé je m'emmerde et même quand je zappe, y a que des bâtards À la cellule d'en face ça tape à la porte, ça crie Surveillant ! 16h24 j'attends la gamelle il n'y a que ça à faire quand t'es sur les nerfs J'ai cantiné ici lève tôt pour travailler mes biceps autrement Paraît que j'vais aller D5 depuis 2 ans dans l'règlement Voilà ma vie, vise, voilà ma vision des choses On a mis l'tigre dans sa cage pour pas que sa sauvagerie inonde les autres Or on naît pas d'la hess mais on en fait naître la foi Et tant qu'Dieu m'guide, crois-moi, ma force ne fait que s'accroître Au top des clips, là, j'vois Diam's numéro un T'es tombé sur une bombe, moi j'suis tombé sur des requins Nique votre justice, j'reste libre derrière vos barreaux Pour les vrais qui prient pour leur famille, et Allah tout là-haut, esh À ma sortie j'ferai d'la magie J'compte sur le re-fré pour sortie Son des halls volume 2, parasite Mon co-détenu vient d'se barrer, donc seul en cellule J'crache du sang dans les toilettes, peur d'avoir un putain d'virus J'pisse de la haine, y a comme un vide dans la tess Wesh mec j'vis dans la hess, j'ai des ennemis dans l'arène Eh, faut quoi, qu'j'pète des dents ? Quoi, que j'saigne des gens ? Jusqu'à c'qu'un d'ces bâtards m'descende ? Wesh Boub's t'es au quatrième, y a d'la place à côté d'ma cellule Fait une demande à la 44 j'te mettrai bien si t'as rien sur l'PQ Eh j'décuple ma haine, ma rage, un truc de ouf, man Tout doucement après la rue, ma vie c'est l'trou noir Esh, wAllah, là j'ai trop mal On m'a dit de ma fenêtre j't'ai vu pomper un truc de malade en promenade 500 pompes à la demie-heure le muscle étouffe mais j'ai qu'ça Donc calmé au parlu j'ai toujours pas d'Carmen Électra Besoin de douceur, avec ma bite on est tout seul Et l'surveillant regarde pas si j'lui mets l'zizi dans sa bouche Oups, trente minutes c'est vite passé Eh Nabil à chaque son qu'vous faites oubliez-pas d'dédicacer Putain j'ai acheté mon premier paquet d'clopes ici j'ai appris à rouler ici Tous les jours j'me fume le corps ici Ouais ouais, j'tape pas la gamelle c'est saoulant Me3lich igo dès qu'j'sors, j'rentre dans l'meilleur des restaurants, sur l'Coran - Surveillant ! Oh, surveillant ! Ouais, surveillant ! - Qui c'est encore ? - Eh ! Nique ta mère ! Bienvenue à Fleury Ah À Fleury1</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Il roule un pilon, marche avec le swag, le gros sdit Que la vie est courte comme les relations avec ses copines Priorité faire dla tune, lui cquil rêve cest dson gamos, yeah Un gamin qui vend la came qui a oublié la mosquée Que, que pasa ? cest cquil tdit si tu lregardes À travers les LV, entre les jambes ses couilles mais aussi quelques grammes Il marche, sûr de lui, la rue cest à lui Le jour cest ses potes les meufs, cest la nuit Cest cquil kiffe pour taffer, il dure moins dtrois jours Il côtoie les grands au café pour quils lemmènent faire un tour Arrivé dix-sept heures il spète la tête, scache dans la cage descalier Il devient tout maigre, donc appelle ses potes quand ya un tête-à-tête Tê-Tê-Tê-Tête de ma mère cest la fin dchacune de ses phrases Une paire de Nike Air, un grec, une hlel, deux-trois putes il est max Lécole cest fini, BEP pour lui veut dire Bicrave Et Potos Seize ans, il comprendra plus tard quil a niqué sa vie trop tôt Petit veut dla maille, il veut dla sape Il veut dla chatte, vivre à la swag, il veut dla saveur Petit veut pas die, il veut pas dmal, il veut pas dsale Mais la base, il doit bien graille Miss veut un mâle, un mec qui brasse, restau évad Pas un schlag mais un gars qui stape Vivre à cent à lheure, le suivre à la trace, finir avec Quil vienne dici ou dailleurs Petite sur cquelle veut, bah normal, cest être grande Rembourrage dans lsoutien-gorge pour provoquer laccident Elle svoit mariée, une bague avec plusieurs carats Recherche lhomme en écoutant Zaho, qui lemmènera chez Zara Elle veut pas dréputation mais ça lui court après Comme les mecs derrière son talon quand elle roule du boule exprès Elle fume une clope à lentrée du centre commercial En femme fatale, attend quyen ait un qui slance Et la drague, sac à main Gucci pas dsoucis Rouge à lèvre sur lsourire, elle rougit Quand un boug dit tes mashAllah cousine Il lui dira jveux dormir dans tes bras à lhôtel dans ses propos Seize ans elle regrettera plus tard davoir donné sa trop tôt Petit veut dla maille, il veut dla sape Il veut dla chatte, vivre à la swag, il veut dla saveur Petit veut pas die, il veut pas dmal, il veut pas dsale Mais la base, il doit bien graille Miss veut un mâle, un mec qui brasse, restau évad Pas un schlag mais un gars qui stape Vivre à cent à lheure, le suivre à la trace, finir avec Quil vienne dici ou dailleurs Il veut dla maille, elle veut un vrai Elle laime, il aime son boule Elle veut un mâle, il veut une vraie Il laime, elle aime son flouze Il rêve, elle rêve, il rêve, elle rêve Il rêve, elle rêve, il rêve, elle rêve Petit veut dla maille, petit veut dla maille Petit veut pas die, petit veut pas die Il rêve, elle rêve, il rêve, elle rêve Petit veut dla maille, il veut dla sape Il veut dla chatte, vivre à la swag, il veut dla saveur Petit veut pas die, il veut pas dmal, il veut pas dsale Mais la base, il doit bien graille Miss veut un mâle, un mec qui brasse, restau évad Pas un schlag mais un gars qui stape Vivre à cent à lheure, le suivre à la trace, finir avec Quil vienne dici ou dailleursYou might also like2</t>
+          <t>Il roule un pilon, marche avec le swag, le gros sdit Que la vie est courte comme les relations avec ses copines Priorité faire dla tune, lui cquil rêve cest dson gamos, yeah Un gamin qui vend la came qui a oublié la mosquée Que, que pasa ? cest cquil tdit si tu lregardes À travers les LV, entre les jambes ses couilles mais aussi quelques grammes Il marche, sûr de lui, la rue cest à lui Le jour cest ses potes les meufs, cest la nuit Cest cquil kiffe pour taffer, il dure moins dtrois jours Il côtoie les grands au café pour quils lemmènent faire un tour Arrivé dix-sept heures il spète la tête, scache dans la cage descalier Il devient tout maigre, donc appelle ses potes quand ya un tête-à-tête Tê-Tê-Tê-Tête de ma mère cest la fin dchacune de ses phrases Une paire de Nike Air, un grec, une hlel, deux-trois putes il est max Lécole cest fini, BEP pour lui veut dire Bicrave Et Potos Seize ans, il comprendra plus tard quil a niqué sa vie trop tôt Petit veut dla maille, il veut dla sape Il veut dla chatte, vivre à la swag, il veut dla saveur Petit veut pas die, il veut pas dmal, il veut pas dsale Mais la base, il doit bien graille Miss veut un mâle, un mec qui brasse, restau évad Pas un schlag mais un gars qui stape Vivre à cent à lheure, le suivre à la trace, finir avec Quil vienne dici ou dailleurs Petite sur cquelle veut, bah normal, cest être grande Rembourrage dans lsoutien-gorge pour provoquer laccident Elle svoit mariée, une bague avec plusieurs carats Recherche lhomme en écoutant Zaho, qui lemmènera chez Zara Elle veut pas dréputation mais ça lui court après Comme les mecs derrière son talon quand elle roule du boule exprès Elle fume une clope à lentrée du centre commercial En femme fatale, attend quyen ait un qui slance Et la drague, sac à main Gucci pas dsoucis Rouge à lèvre sur lsourire, elle rougit Quand un boug dit tes mashAllah cousine Il lui dira jveux dormir dans tes bras à lhôtel dans ses propos Seize ans elle regrettera plus tard davoir donné sa trop tôt Petit veut dla maille, il veut dla sape Il veut dla chatte, vivre à la swag, il veut dla saveur Petit veut pas die, il veut pas dmal, il veut pas dsale Mais la base, il doit bien graille Miss veut un mâle, un mec qui brasse, restau évad Pas un schlag mais un gars qui stape Vivre à cent à lheure, le suivre à la trace, finir avec Quil vienne dici ou dailleurs Il veut dla maille, elle veut un vrai Elle laime, il aime son boule Elle veut un mâle, il veut une vraie Il laime, elle aime son flouze Il rêve, elle rêve, il rêve, elle rêve Il rêve, elle rêve, il rêve, elle rêve Petit veut dla maille, petit veut dla maille Petit veut pas die, petit veut pas die Il rêve, elle rêve, il rêve, elle rêve Petit veut dla maille, il veut dla sape Il veut dla chatte, vivre à la swag, il veut dla saveur Petit veut pas die, il veut pas dmal, il veut pas dsale Mais la base, il doit bien graille Miss veut un mâle, un mec qui brasse, restau évad Pas un schlag mais un gars qui stape Vivre à cent à lheure, le suivre à la trace, finir avec Quil vienne dici ou dailleurs2</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Igo t'as aucun flow, igo Makélélé T'veux la serrer, mais bon, t'es laid-laid-laid Tu fais le nerveux, igo je lo-lo-lol Prenez position, y a la le-le-le-le PNL, F430, on fait né-né Tu veux de la frappe ? Appelle Ade-de-de J'ai pris l'instru, je l'ai fêlé-lé-lé, lé-lé-lé, lé-lé-lé Bon c'est bon, j'connais la vie J'perds plus, va le dire à ta bella Pon pon, bang bang au milieu de ta ville Tu rép' plus, c'est bon, ciao bella J'fume sous le bo-bo-bob Ouais ouais, mon po-po-pote J'meurs pour la mif Le bon-char en ta-ta-ta J'veux pas retourner ma veste Je fuis la tess comme la peste Je vieillis et le temps presse Argent en liasses, faut que j'encaisse Putes de l'Est et grosses fesses Armes, niaks et grosses caisses Vert est le sachet, Gucci, Versace Ceinture Hermès You might also like F430, PNL, trop pépère On squatte le ter-ter à plein Jamais coopérer avec le commissaire Les tits-pe sont en Philipp Plein squad J'ai de la beuh, j'vais profiter Petite pensée aux potos enfermés C'est avec Wawa, Kana qu'je suis posé Au studio, pépère, en train de poser Adsa Beatmaker fait l'ingé Pendant que les keufs se font lyncher F430, IGD-D-D N.O.S, AD-D-D-D Gang de fêlés-lés Gibson est toujours calibré Armes de l'Est, OG Kush monnaie Sors le baba, l'espagnolé On a tous des envies comme S-Pion Nous, c'est tout pour la mula mula F430 c'est du lourd, j'accélère en travers pour la mille-fa Bécane en I, frotte la bavette, y a des traces sur les trottoirs F430, y a la , le produit sort du terroir On avance comme on peut, fait les bails comme on veut F430 le ghetto, tu connais, on est là que des envieux TZ, TZ my squad, Harlem, Harlem Fais les bails comme Ademo Tu connais posé-wézé Mes projets tombent à l'eau, t'inquiète, j'les ferai sécher J'ai lancé l'hameçon, y a que le haram que j'ai pêché T'as trouvé la fonce', igo, t'as perdu la santé Y a que sous taga, gata, que j'te dirais que j'suis enchanté IGD Gang, nouveau visage Comme les rues de ma ville, le gang est en chantier La liberté n'a pas de prix, aucune dette à vous payer Elle est bonne, elle est belle Elle roule son oint-j comme du cul, c'est incroyable Elle est ceci, cela J'ai de la mula en tête, sauver mes frères de la noyade Igo, la mula, c'est mon dada IGD, F430, PNL, on te daba Igo, la mula, c'est mon dada IGD, F430, PNL, on te daba Igo, ramène les billets Chez moi, y en a qu'en ont pas Dans mon block, ça fume la hookah LZR toujours comme bras droit Plus le temps de regarder le soleil Il est temps de viser le sommet On court tous après l'oseille Du mal à trouver le sommeil Pour moi, la roue va tourner Pour l'instant, elle tourne à l'envers Tu dis que j'ai pas de repères C'est le revers de la médaille Tous à la recherche de la maille On la claque dans des paires de Nike Tous à la recherche de la maille On la claque dans des paires de Nike IGD, F430, PNL, on t'abat Monte dans le vaisseau, chérie, bienvenue à bord J'te prends toi et toute ta bande de tards-bâ Si y a de l'oseille, j'ferais croquer ma famille d'abord J'suis pas du genre à pratiquer la hagra C'est dans nos gênes de mettre tout le monde d'accord 2.01.4 pas de blabla, j'ai des bastos si tu te prends pour Terminator Aujourd'hui tout le monde t'aime, demain on te remplace Pour qu'ils comprennent, il faudrait qu'on prenne place Retirez mes chaînes que j'fasse un peu de crasses Personne nous gène, la concu' on l'écrase T'es qu'une chienne qui mérite un chien de la casse J'suis pas un rappeur, j'rappe que quand j'ai l'occas' Partout où j'passe, il faut que j'laisse une trace On est né pour briller, pas besoin de paillettes et de strass2</t>
+          <t>Igo t'as aucun flow, igo Makélélé T'veux la serrer, mais bon, t'es laid-laid-laid Tu fais le nerveux, igo je lo-lo-lol Prenez position, y a la le-le-le-le PNL, F430, on fait né-né Tu veux de la frappe ? Appelle Ade-de-de J'ai pris l'instru, je l'ai fêlé-lé-lé, lé-lé-lé, lé-lé-lé Bon c'est bon, j'connais la vie J'perds plus, va le dire à ta bella Pon pon, bang bang au milieu de ta ville Tu rép' plus, c'est bon, ciao bella J'fume sous le bo-bo-bob Ouais ouais, mon po-po-pote J'meurs pour la mif Le bon-char en ta-ta-ta J'veux pas retourner ma veste Je fuis la tess comme la peste Je vieillis et le temps presse Argent en liasses, faut que j'encaisse Putes de l'Est et grosses fesses Armes, niaks et grosses caisses Vert est le sachet, Gucci, Versace Ceinture Hermès F430, PNL, trop pépère On squatte le ter-ter à plein Jamais coopérer avec le commissaire Les tits-pe sont en Philipp Plein squad J'ai de la beuh, j'vais profiter Petite pensée aux potos enfermés C'est avec Wawa, Kana qu'je suis posé Au studio, pépère, en train de poser Adsa Beatmaker fait l'ingé Pendant que les keufs se font lyncher F430, IGD-D-D N.O.S, AD-D-D-D Gang de fêlés-lés Gibson est toujours calibré Armes de l'Est, OG Kush monnaie Sors le baba, l'espagnolé On a tous des envies comme S-Pion Nous, c'est tout pour la mula mula F430 c'est du lourd, j'accélère en travers pour la mille-fa Bécane en I, frotte la bavette, y a des traces sur les trottoirs F430, y a la , le produit sort du terroir On avance comme on peut, fait les bails comme on veut F430 le ghetto, tu connais, on est là que des envieux TZ, TZ my squad, Harlem, Harlem Fais les bails comme Ademo Tu connais posé-wézé Mes projets tombent à l'eau, t'inquiète, j'les ferai sécher J'ai lancé l'hameçon, y a que le haram que j'ai pêché T'as trouvé la fonce', igo, t'as perdu la santé Y a que sous taga, gata, que j'te dirais que j'suis enchanté IGD Gang, nouveau visage Comme les rues de ma ville, le gang est en chantier La liberté n'a pas de prix, aucune dette à vous payer Elle est bonne, elle est belle Elle roule son oint-j comme du cul, c'est incroyable Elle est ceci, cela J'ai de la mula en tête, sauver mes frères de la noyade Igo, la mula, c'est mon dada IGD, F430, PNL, on te daba Igo, la mula, c'est mon dada IGD, F430, PNL, on te daba Igo, ramène les billets Chez moi, y en a qu'en ont pas Dans mon block, ça fume la hookah LZR toujours comme bras droit Plus le temps de regarder le soleil Il est temps de viser le sommet On court tous après l'oseille Du mal à trouver le sommeil Pour moi, la roue va tourner Pour l'instant, elle tourne à l'envers Tu dis que j'ai pas de repères C'est le revers de la médaille Tous à la recherche de la maille On la claque dans des paires de Nike Tous à la recherche de la maille On la claque dans des paires de Nike IGD, F430, PNL, on t'abat Monte dans le vaisseau, chérie, bienvenue à bord J'te prends toi et toute ta bande de tards-bâ Si y a de l'oseille, j'ferais croquer ma famille d'abord J'suis pas du genre à pratiquer la hagra C'est dans nos gênes de mettre tout le monde d'accord 2.01.4 pas de blabla, j'ai des bastos si tu te prends pour Terminator Aujourd'hui tout le monde t'aime, demain on te remplace Pour qu'ils comprennent, il faudrait qu'on prenne place Retirez mes chaînes que j'fasse un peu de crasses Personne nous gène, la concu' on l'écrase T'es qu'une chienne qui mérite un chien de la casse J'suis pas un rappeur, j'rappe que quand j'ai l'occas' Partout où j'passe, il faut que j'laisse une trace On est né pour briller, pas besoin de paillettes et de strass2</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka You might also likeDiscographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>OK, c'est parti on fait du bi-bi-biff En mode Armani, en mode Louis Vui-vui Ça rit dans la salle, on fait nos vies-vies-vies Bouteille sur la table, regarde les bi-bi-bitchs DJ fait moi ça, faut que j'en vi-vi-vip Peace And Lové, voilà ce qu'on vi-vi-visse Mes frères ont la dalle, écarte toi vi-vi-vite Avant qu'elles kiffent et qu'elles pinent ça fasse... Poto t'es trop bourré, y en a qui s'marrent, qui s'moquent Pendant que dans tes potes y en a qui smack qui smoke J'ai pas des doutes, t'as cru que c'était une femme, t'es fou, t'as frotté ma queue, doum Tu me demande T'es de Paname ? J'te répond, moi j'ai du pilon qui vient du 9.4, poto t'en aura si t'es mignon Ah nan, j'voulais dire, t'en aura si t'as les ronds Parlons peu, parlons bien, tu les as ou pas les ronds ? Attend deux secondes, quelqu'un me bi-bi-bip Allô, c'est Sophia, c'est quand on cli-cli-clique ? Va y, là j'suis loin donc pssh-pssh-pssh Si j'le fait, je t'appelle pas t'avais qu'à bi-bi-bip Revenons en à nos moutons, j'vois un anglais sur la piste J'lui dit Chocolate il m'dit How many money ? J'lui dit Quoi ? Va y tien un pilon et donne 200 money et va voir la banque heyy On est Peace And Lové You might also like Ça redémarre, met-moi un verre vi-vi-vite J'essaye téma d'bouger la tête des vi-vigiles Une bagarre, une bouteille ça fait pi-pi-pime Continue à mixer, bah ouais tout l'monde ki-ki-kiff Lunettes de soleil sur le biff, on ne cesse de danser En parlant de biff, y en a qui ont d'la 16 de Dan-illet Il nous faut le biff, faut les billets violets C'est vrai qu'on est Peace si on fait les Lovés T'as capté le baille, on veut taper des barres Et palper des liasses et passer l'étape Passer des vacs et grailler des plats en regardant le ciel et charmer les dames Mais qu'est-ce qu'on va se faire chier à faire de chichis J'ai les pieds dans l'eau et j'ai ma chicha Vue de mer sur la plage, ouais ouais si si J'suis dans un film et laisse moi faire mon... Me recaler poto, c'est pas possible Parce que c'est moi que les gens veulent écouter ce soir Écarte-toi s'te plait, fait de la place pauvre type Tu nous fera pas peur parce que t'es grand et large Ademo c'est mon bla-bla-blaze Fait le beush, j'entends déjà les bla-bla-bla Poto on a la frappe, tu pi-pi-piges Ici y a personne qui va prendre 20 pi-pi-piges On est Peace And Lové</t>
+          <t>OK, c'est parti on fait du bi-bi-biff En mode Armani, en mode Louis Vui-vui Ça rit dans la salle, on fait nos vies-vies-vies Bouteille sur la table, regarde les bi-bi-bitchs DJ fait moi ça, faut que j'en vi-vi-vip Peace And Lové, voilà ce qu'on vi-vi-visse Mes frères ont la dalle, écarte toi vi-vi-vite Avant qu'elles kiffent et qu'elles pinent ça fasse... Poto t'es trop bourré, y en a qui s'marrent, qui s'moquent Pendant que dans tes potes y en a qui smack qui smoke J'ai pas des doutes, t'as cru que c'était une femme, t'es fou, t'as frotté ma queue, doum Tu me demande T'es de Paname ? J'te répond, moi j'ai du pilon qui vient du 9.4, poto t'en aura si t'es mignon Ah nan, j'voulais dire, t'en aura si t'as les ronds Parlons peu, parlons bien, tu les as ou pas les ronds ? Attend deux secondes, quelqu'un me bi-bi-bip Allô, c'est Sophia, c'est quand on cli-cli-clique ? Va y, là j'suis loin donc pssh-pssh-pssh Si j'le fait, je t'appelle pas t'avais qu'à bi-bi-bip Revenons en à nos moutons, j'vois un anglais sur la piste J'lui dit Chocolate il m'dit How many money ? J'lui dit Quoi ? Va y tien un pilon et donne 200 money et va voir la banque heyy On est Peace And Lové Ça redémarre, met-moi un verre vi-vi-vite J'essaye téma d'bouger la tête des vi-vigiles Une bagarre, une bouteille ça fait pi-pi-pime Continue à mixer, bah ouais tout l'monde ki-ki-kiff Lunettes de soleil sur le biff, on ne cesse de danser En parlant de biff, y en a qui ont d'la 16 de Dan-illet Il nous faut le biff, faut les billets violets C'est vrai qu'on est Peace si on fait les Lovés T'as capté le baille, on veut taper des barres Et palper des liasses et passer l'étape Passer des vacs et grailler des plats en regardant le ciel et charmer les dames Mais qu'est-ce qu'on va se faire chier à faire de chichis J'ai les pieds dans l'eau et j'ai ma chicha Vue de mer sur la plage, ouais ouais si si J'suis dans un film et laisse moi faire mon... Me recaler poto, c'est pas possible Parce que c'est moi que les gens veulent écouter ce soir Écarte-toi s'te plait, fait de la place pauvre type Tu nous fera pas peur parce que t'es grand et large Ademo c'est mon bla-bla-blaze Fait le beush, j'entends déjà les bla-bla-bla Poto on a la frappe, tu pi-pi-piges Ici y a personne qui va prendre 20 pi-pi-piges On est Peace And Lové</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ils veulent ma perte mais mes gars je les baise, protège ta meuf on téma ses fesses Nique les beau-parleurs gros jécarte les traitres, après mon teush toi t'auras des ailes Jai 20 e pour les potos 20 e pour les autres 20 e pour le président, le maire, les bleus et les connasses Tous du bétail, d'la bibi jai la médaille Si je te détaille ma vie il mfaut une lame et puis des flammes Pose-toi la question de la raison de la pression, de lagression Ta vie tu comprends pas car là ces sons dla ? jai limpression qut'es sur ma bite Entre eux et moi y a une plaquette qui sépare, des des barres J'suis la cause de chutes cérébrales Entre les meufs et largent, cque jaime tu le sais Jpréfère zapper sept culs et au final taper un Q7, cul sec J'serai millionnaire, les cafards me lont dit Quand je sillonnais les caves, les apparts vides, sur des kilomètres Cet hiver jtiens les cliquos, pété jen ramène le triple Jfais des p'tites pauses, je bronze, je vends, jfais mes tractions, et jfais du chiffre Jvois les autres frimer, pendant qu'moi jsuis en train dtrimer WAllah jvais les faire saigner dis leur que jleur ai préparé le kleenex Une voiture brûlée au dîner, lÉtat maime pas, veut mopprimer Mfaire cantiner, continuer, ma ma ma haine dmande quà briller Dix sept heures lhoraire douverture, jdois taffer pour ma couverture J'aurais pu être proxénète, tellement autour de moi cest couvert d'putes Jpeux me diriger partout, où qujaille gros j'crierais zoo ! Tu m'aimes pas, j'aurais les soutifs, ta meuf met plus de dessous T'es sourd ! Quand j'marche j'deviens de plus en plus parano Comme si j'avais des reusseuh, j'ai moins dix sept aux deux yeux De ce pas, j'viens arracher les salopes Si j'ai un poney, j'l'appelle Shakira, fais l'tour la tess, elle galope B-b-bouffon, tourne pas dans la tess mec, ça c'est pour les vrais pas pour les tapettes qui chient pleins de ? Bouffon-bouffon tu veux nous contrôler ? Tu vas voir les étoiles y'aura des pavés pour te consoler Et je vais évit' évit' éviter les bâtards et les gister Vit'-vit'-vite, patate dans l'videur Vider-vider-vider le coffre de shit Évid-évid-évid-évid-évid-évidemment Rapper rapide c'est simple alors croyaient pas qu'ils sont forts Arrête de cess avant d'pioncer Arrêter c'est bête bon sang d'bonsoir Moi j'ment bats les couilles le rap c'est cool, j'fais ça trois heures et j'suis saouler, parler douzes, v'la les douilles, ça crie ''Zoo'' avant d'niquer les poulets J'vois tout les gens danser comme si c'était un son de boîte J'vois les flics se bourrer car ils sont trop moches et auront trop honte de se voir Si pour se faire connaître suffit de lancer une bouteille de Jack, tu sais qu'j'arrive avec un bidon d'essences et des allumettes Ma-ma magie, j'ai plus d'une quette-pla dans mon sac D'mande a N.O.S, fais l'3arbiya si tu veux du bon tact 9-1, 9-4 la posture t'mets des claques Tout le monde au bon-char Profite d'une émeute pour faire mon casse T'as envie de pousser ? Vas-y gros mets mon son à fond 80 kil' c'est le minimum si tu veux vraiment soulever la fonc' Tu veux ta p'tite meuf, ton teush, tes clopes.. Assez Fais ton buzz, ton beur, on est des millions sur la liste J'marche en regardant le ciel espérant que l'éternel me dirige Fuck le jour où j'arrête de vendre, tout mes ien-cli se mobilise Le rap, mais tu dis une écriture qui n'est pas humaine Si j'capte pas ce que vous dites, c'est que j'écoute mon zgueg qui entre dans un tunnel On m'appelle pas parce que j'suis trop bad, comme un bison qui baise une brebis Tu sais bien que si j'pose sur ton bail, en un son j'vais niquer ta combine Si j'ai grandi de deux centimètres c'est que j'ai deux liasses dans les aires structures Demande à Moraki, combien de beu-her ??????????? J'suis en mode lecture pas de stop ni de pause J'sors un son hop j'explose Entrepreneur ''la barette Ademo'' en couverture du Closer La capote qui sent le shit et l'autre qui sent la beu-her J'suis réactif, j'mène en bateau personne pourtant j'leur fout le mal de mer Tourne sept fois une bite dans ta bouche avant d'parler Si t'es pas en mode zet' et que t'as des dreadlocks te prends pas pour Bob Marley Eh mec tu touches trop de clito' avec ton putain de litrons à 3000 Que des chiens tous les jours, je sers la main à 30 millions d'amis J'maigris tous les jours t'étonnes pas si j'ai la dalle Eh miss tu veux me sucer pour avoir 20e mais nan je préfère le biff Son des halls volume 2 meilleur qu'tous vos albums du siècle Et là j'ai les chevilles qui enflent, normal, elles transportent 50g et du seum J'balade dma rime sur des pis-te-pis-te-pis-te Marche dans la ville esquive les flics et puis les fils de 50e sur la table, la lame mets-la dans un grille pain Ramasse tout un biff, calcule le bénéfice You might also like Ils sont bêtes, ils comprennent pas qu'on les baisent Qu'on les blessent devant leurs meuf, et s'il-te-plaît Arrête de chialer parce que tu jalouses notre bai-aise Si j'rappe c'est pour les vrais qui galèrent dans la te-ess Ils sont bêtes ils comprennent pas qu'on les bai-aise Qu'on les blessent devant leurs meuf, et s'il-te-plaît Arrête de chialer parce que tu jalouses notre bai-aise Si j'rappe c'est pour les vrais au parlu ou dans la te-te-tess Bandes d'enculés j'vous baise, Corbeil, '200 Ivry-sur-Haine Tu connais, tu connais... Ademo poto à continuer2</t>
+          <t>Ils veulent ma perte mais mes gars je les baise, protège ta meuf on téma ses fesses Nique les beau-parleurs gros jécarte les traitres, après mon teush toi t'auras des ailes Jai 20 e pour les potos 20 e pour les autres 20 e pour le président, le maire, les bleus et les connasses Tous du bétail, d'la bibi jai la médaille Si je te détaille ma vie il mfaut une lame et puis des flammes Pose-toi la question de la raison de la pression, de lagression Ta vie tu comprends pas car là ces sons dla ? jai limpression qut'es sur ma bite Entre eux et moi y a une plaquette qui sépare, des des barres J'suis la cause de chutes cérébrales Entre les meufs et largent, cque jaime tu le sais Jpréfère zapper sept culs et au final taper un Q7, cul sec J'serai millionnaire, les cafards me lont dit Quand je sillonnais les caves, les apparts vides, sur des kilomètres Cet hiver jtiens les cliquos, pété jen ramène le triple Jfais des p'tites pauses, je bronze, je vends, jfais mes tractions, et jfais du chiffre Jvois les autres frimer, pendant qu'moi jsuis en train dtrimer WAllah jvais les faire saigner dis leur que jleur ai préparé le kleenex Une voiture brûlée au dîner, lÉtat maime pas, veut mopprimer Mfaire cantiner, continuer, ma ma ma haine dmande quà briller Dix sept heures lhoraire douverture, jdois taffer pour ma couverture J'aurais pu être proxénète, tellement autour de moi cest couvert d'putes Jpeux me diriger partout, où qujaille gros j'crierais zoo ! Tu m'aimes pas, j'aurais les soutifs, ta meuf met plus de dessous T'es sourd ! Quand j'marche j'deviens de plus en plus parano Comme si j'avais des reusseuh, j'ai moins dix sept aux deux yeux De ce pas, j'viens arracher les salopes Si j'ai un poney, j'l'appelle Shakira, fais l'tour la tess, elle galope B-b-bouffon, tourne pas dans la tess mec, ça c'est pour les vrais pas pour les tapettes qui chient pleins de ? Bouffon-bouffon tu veux nous contrôler ? Tu vas voir les étoiles y'aura des pavés pour te consoler Et je vais évit' évit' éviter les bâtards et les gister Vit'-vit'-vite, patate dans l'videur Vider-vider-vider le coffre de shit Évid-évid-évid-évid-évid-évidemment Rapper rapide c'est simple alors croyaient pas qu'ils sont forts Arrête de cess avant d'pioncer Arrêter c'est bête bon sang d'bonsoir Moi j'ment bats les couilles le rap c'est cool, j'fais ça trois heures et j'suis saouler, parler douzes, v'la les douilles, ça crie ''Zoo'' avant d'niquer les poulets J'vois tout les gens danser comme si c'était un son de boîte J'vois les flics se bourrer car ils sont trop moches et auront trop honte de se voir Si pour se faire connaître suffit de lancer une bouteille de Jack, tu sais qu'j'arrive avec un bidon d'essences et des allumettes Ma-ma magie, j'ai plus d'une quette-pla dans mon sac D'mande a N.O.S, fais l'3arbiya si tu veux du bon tact 9-1, 9-4 la posture t'mets des claques Tout le monde au bon-char Profite d'une émeute pour faire mon casse T'as envie de pousser ? Vas-y gros mets mon son à fond 80 kil' c'est le minimum si tu veux vraiment soulever la fonc' Tu veux ta p'tite meuf, ton teush, tes clopes.. Assez Fais ton buzz, ton beur, on est des millions sur la liste J'marche en regardant le ciel espérant que l'éternel me dirige Fuck le jour où j'arrête de vendre, tout mes ien-cli se mobilise Le rap, mais tu dis une écriture qui n'est pas humaine Si j'capte pas ce que vous dites, c'est que j'écoute mon zgueg qui entre dans un tunnel On m'appelle pas parce que j'suis trop bad, comme un bison qui baise une brebis Tu sais bien que si j'pose sur ton bail, en un son j'vais niquer ta combine Si j'ai grandi de deux centimètres c'est que j'ai deux liasses dans les aires structures Demande à Moraki, combien de beu-her ??????????? J'suis en mode lecture pas de stop ni de pause J'sors un son hop j'explose Entrepreneur ''la barette Ademo'' en couverture du Closer La capote qui sent le shit et l'autre qui sent la beu-her J'suis réactif, j'mène en bateau personne pourtant j'leur fout le mal de mer Tourne sept fois une bite dans ta bouche avant d'parler Si t'es pas en mode zet' et que t'as des dreadlocks te prends pas pour Bob Marley Eh mec tu touches trop de clito' avec ton putain de litrons à 3000 Que des chiens tous les jours, je sers la main à 30 millions d'amis J'maigris tous les jours t'étonnes pas si j'ai la dalle Eh miss tu veux me sucer pour avoir 20e mais nan je préfère le biff Son des halls volume 2 meilleur qu'tous vos albums du siècle Et là j'ai les chevilles qui enflent, normal, elles transportent 50g et du seum J'balade dma rime sur des pis-te-pis-te-pis-te Marche dans la ville esquive les flics et puis les fils de 50e sur la table, la lame mets-la dans un grille pain Ramasse tout un biff, calcule le bénéfice Ils sont bêtes, ils comprennent pas qu'on les baisent Qu'on les blessent devant leurs meuf, et s'il-te-plaît Arrête de chialer parce que tu jalouses notre bai-aise Si j'rappe c'est pour les vrais qui galèrent dans la te-ess Ils sont bêtes ils comprennent pas qu'on les bai-aise Qu'on les blessent devant leurs meuf, et s'il-te-plaît Arrête de chialer parce que tu jalouses notre bai-aise Si j'rappe c'est pour les vrais au parlu ou dans la te-te-tess Bandes d'enculés j'vous baise, Corbeil, '200 Ivry-sur-Haine Tu connais, tu connais... Ademo poto à continuer2</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Made in TZ 91 Tarterêts gros Pour ceux qui crèvent Tu connais On est al Si si Pour la rue On est al Jmamuse plus à calculer le temps qui passe Car que je le compte ou pas, il passera sans moi Jmamuse plus, rare quand je ricane On est devant un jerricane en flamme Chaque jour s'résume à serrer la main dun autre Sfaire la bise, bonjour, au revoir Le yaourt est nature et na pas darôme Chaque jour on marche parce quil le faut Parce que sinon tu crèves Un bouquet de ronces en guise de roses On se demande toujours de quoi sera fait demain Quel couleur guidera nos jours Mais y a que le rouge qui a lair de vin devin? Médite sur cette phrase deux trois quatre fois et plus si besoin est Ademo je suis de cette espèce que seule la rage peut soigner Peut libérer lhistoire de quelques instants La flamme brûle plus que jamais Quand on sait que le sheitan dédaigne nous attendre Le paradis est une luxure quon a du mal à se proposer Ici lhomme sentretue, une fois mort, cest sûr quil voudra pas se reposer Regarde les gens, nos yeux sont vides gros On voit ce quon veut voir donc on jarte ce vieux charclo devant son bistrot Cest triste à dire mais jpense quon va tous mal finir Le tout est bien qui finit bien , jai pas mis le grappin, jsuis pas un alpiniste On se plaint et le vent souffle, moins souvent que lhomme On se plaint, moi le premier, mais jte ljure, jrêve plus quand je dors Devant nos têtes, devant ces appartements qui brillent Tu tes jamais demandé cquun SDF donnerait pour une brosse à dent et un dentifrice ? Jpeux t'parier quil sacrifierait au moins un de ses dents De préférence une carie, quoi ? tu goles-ri ? avoue que cest tendre Des égoïstes cest ce quon est, cest simple, tu le sais Ah non, cest vrai tu sais pas ? Laisse tomber, jsuis pas dhumeur On réagit quau moment où on sent venir le danger Une fois dans la merde on prie Dieu, la faute à qui si tu trembles, mec La faute à l'autre se jeter nos erreurs on sait le faire Autant t'jeter la première pierre, autant donner ses fesses Des momes morflent à l'heure quil est, pourquoi ? Lamour smeurt, Cupidon a préféré troquer son arc contre un puchka Comme beaucoup il a mal interprété le savoir est une arme Car larme na pas de savoir, juste un cadran et une balle On samuse à jouer les gens heureux, les riches ont la poudre au nez Autant qula poudre aux yeux, même ces types sont malheureux Et encore plus que nous peut-être Quand tas tout mais pas damour, le train d'la vie déraille ou tamène sur son rail de cess' A chacun sa façon de vivre la mienne consiste en survivre Une haine consistante et une larme en sursis Demain cest peut-être le tour de lun dentre nous En attendant jte tends la main, le bras aussi restreint que Jamel Debbouze Pas à labri dune rafale ou dun pare-choc Jfais en sorte de rester franc, le moment venu jsaurai être un homme La vie est une pute, va pas me dire quelle a pas de prix Aucune aide, jsuis injoignable car jsuis toujours loin du bout du tunnel On ma dit pisse pas là , pêche ! nique Paname ! Mon voisin est SDF, dort avec des chaussettes, pisse par la fenêtre Il doit sûrement peser 50 kilogrammes Qui le regarde à part Dieu ? dans ma rétine loge un pyromane Ce soir sur le toit dun bâtiment sale, pratiquement die Jbaille, fatigué par les chat, les châtiments man Jai grandi où ? jsais pas, mais jsuis sauvage Gentil ou méchant, jaime bien écrire au calme Et merde, ce soir pour manger jme démerde Des mans veulent des rettes-ba Crois moi que dans le bat jen cache des belles Jai envie de chialer même au moment où jcompte mes sous Mais jsuis homme, donc mes soucis faut qu'j'parle avec les mains plus souvent que les sourds Tu sais ma mif demain va ptêtre être à la rue Que ferais-tu si ton reuf de 6 ans vivait à la dure ? Je suis là à voir mon reup vieillir Jvis la peur de périr Jsuis là rappeur des briques minable, le coeur en débris 21 piges, bientôt 22-22 Timagines les maintes fois, jai entendu les 22 22 Parce que mes rêves font des cauchemars, jdors un oeil ouvert Surveille mes arrières H24, encore plus ça ferait une bonne nouvelle Jsuis un mec éternellement triste, peu despoir Michtonneuse tu gratteras plus avec un banco, quavec moi Très très bizarre les profs furent les premiers à mlavoir dit Ça part en couille comme si jétais le né le soir le premier du mois un samedi Combien de jours combien de nuits jpense à risquer ma vie À faire comme papa, à prendre un calibre, et vider la Brinks Nique ces pédés de volaille, baisez vos races Trop trop XXX, jpeux pas couper des tomates Nabil toi-même tu sais comment on a souffert Y a que toi qui sais comment cétait tous les récupérables dans la poubelle Jai trop mal quand je revois foutus mes anciens Lacoste Trop mal, lenfance est courte comme le temps qua duré ma colle Jvais sûrement bientôt arrêter de rapper Les gens naiment pas le rap, le vrai Bientôt jirais maquetter ma haine Putain jsuis vraiment seul à ctheure cest tout le monde dort La nuit me montre son cul, jaimerais bien quitter tout mon corps Ademo, pardonnez-moi si jsuis foutu Si j'ris à l'envers, mes plaies restent ouvertes, car des couteaux m'pratiquent d'la couture Jsuis comme un pit' dans la tess Une muselière, un collier étrangleur, un mauvais coup dans la tête Si tu mvois de loin, tétonnes pas si moi jte vois pas La vie nest pas nette, jai la rétine dans un hammam You might also like Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure2</t>
+          <t>Made in TZ 91 Tarterêts gros Pour ceux qui crèvent Tu connais On est al Si si Pour la rue On est al Jmamuse plus à calculer le temps qui passe Car que je le compte ou pas, il passera sans moi Jmamuse plus, rare quand je ricane On est devant un jerricane en flamme Chaque jour s'résume à serrer la main dun autre Sfaire la bise, bonjour, au revoir Le yaourt est nature et na pas darôme Chaque jour on marche parce quil le faut Parce que sinon tu crèves Un bouquet de ronces en guise de roses On se demande toujours de quoi sera fait demain Quel couleur guidera nos jours Mais y a que le rouge qui a lair de vin devin? Médite sur cette phrase deux trois quatre fois et plus si besoin est Ademo je suis de cette espèce que seule la rage peut soigner Peut libérer lhistoire de quelques instants La flamme brûle plus que jamais Quand on sait que le sheitan dédaigne nous attendre Le paradis est une luxure quon a du mal à se proposer Ici lhomme sentretue, une fois mort, cest sûr quil voudra pas se reposer Regarde les gens, nos yeux sont vides gros On voit ce quon veut voir donc on jarte ce vieux charclo devant son bistrot Cest triste à dire mais jpense quon va tous mal finir Le tout est bien qui finit bien , jai pas mis le grappin, jsuis pas un alpiniste On se plaint et le vent souffle, moins souvent que lhomme On se plaint, moi le premier, mais jte ljure, jrêve plus quand je dors Devant nos têtes, devant ces appartements qui brillent Tu tes jamais demandé cquun SDF donnerait pour une brosse à dent et un dentifrice ? Jpeux t'parier quil sacrifierait au moins un de ses dents De préférence une carie, quoi ? tu goles-ri ? avoue que cest tendre Des égoïstes cest ce quon est, cest simple, tu le sais Ah non, cest vrai tu sais pas ? Laisse tomber, jsuis pas dhumeur On réagit quau moment où on sent venir le danger Une fois dans la merde on prie Dieu, la faute à qui si tu trembles, mec La faute à l'autre se jeter nos erreurs on sait le faire Autant t'jeter la première pierre, autant donner ses fesses Des momes morflent à l'heure quil est, pourquoi ? Lamour smeurt, Cupidon a préféré troquer son arc contre un puchka Comme beaucoup il a mal interprété le savoir est une arme Car larme na pas de savoir, juste un cadran et une balle On samuse à jouer les gens heureux, les riches ont la poudre au nez Autant qula poudre aux yeux, même ces types sont malheureux Et encore plus que nous peut-être Quand tas tout mais pas damour, le train d'la vie déraille ou tamène sur son rail de cess' A chacun sa façon de vivre la mienne consiste en survivre Une haine consistante et une larme en sursis Demain cest peut-être le tour de lun dentre nous En attendant jte tends la main, le bras aussi restreint que Jamel Debbouze Pas à labri dune rafale ou dun pare-choc Jfais en sorte de rester franc, le moment venu jsaurai être un homme La vie est une pute, va pas me dire quelle a pas de prix Aucune aide, jsuis injoignable car jsuis toujours loin du bout du tunnel On ma dit pisse pas là , pêche ! nique Paname ! Mon voisin est SDF, dort avec des chaussettes, pisse par la fenêtre Il doit sûrement peser 50 kilogrammes Qui le regarde à part Dieu ? dans ma rétine loge un pyromane Ce soir sur le toit dun bâtiment sale, pratiquement die Jbaille, fatigué par les chat, les châtiments man Jai grandi où ? jsais pas, mais jsuis sauvage Gentil ou méchant, jaime bien écrire au calme Et merde, ce soir pour manger jme démerde Des mans veulent des rettes-ba Crois moi que dans le bat jen cache des belles Jai envie de chialer même au moment où jcompte mes sous Mais jsuis homme, donc mes soucis faut qu'j'parle avec les mains plus souvent que les sourds Tu sais ma mif demain va ptêtre être à la rue Que ferais-tu si ton reuf de 6 ans vivait à la dure ? Je suis là à voir mon reup vieillir Jvis la peur de périr Jsuis là rappeur des briques minable, le coeur en débris 21 piges, bientôt 22-22 Timagines les maintes fois, jai entendu les 22 22 Parce que mes rêves font des cauchemars, jdors un oeil ouvert Surveille mes arrières H24, encore plus ça ferait une bonne nouvelle Jsuis un mec éternellement triste, peu despoir Michtonneuse tu gratteras plus avec un banco, quavec moi Très très bizarre les profs furent les premiers à mlavoir dit Ça part en couille comme si jétais le né le soir le premier du mois un samedi Combien de jours combien de nuits jpense à risquer ma vie À faire comme papa, à prendre un calibre, et vider la Brinks Nique ces pédés de volaille, baisez vos races Trop trop XXX, jpeux pas couper des tomates Nabil toi-même tu sais comment on a souffert Y a que toi qui sais comment cétait tous les récupérables dans la poubelle Jai trop mal quand je revois foutus mes anciens Lacoste Trop mal, lenfance est courte comme le temps qua duré ma colle Jvais sûrement bientôt arrêter de rapper Les gens naiment pas le rap, le vrai Bientôt jirais maquetter ma haine Putain jsuis vraiment seul à ctheure cest tout le monde dort La nuit me montre son cul, jaimerais bien quitter tout mon corps Ademo, pardonnez-moi si jsuis foutu Si j'ris à l'envers, mes plaies restent ouvertes, car des couteaux m'pratiquent d'la couture Jsuis comme un pit' dans la tess Une muselière, un collier étrangleur, un mauvais coup dans la tête Si tu mvois de loin, tétonnes pas si moi jte vois pas La vie nest pas nette, jai la rétine dans un hammam Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure2</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Va falloir faire des choses va falloir do-do-doser Va falloir faire de loseille à la Ronaldo-do-do seul Marre de râler-râler pompe, téma ce p'tit qui crève en bas Tu veux un verre de rouge, tiens mon sang cest du 17 ans d'âge On reste en marge donc, 6-7 en schlag On tvisser dans lbat' fonce à Orly, c'est nous la tête dun avion On attend plus le décollage, et beaucoup se crashent à latterrissage Pas à labri des connards, un gros crachat quand la BAC te dévisage Jsuis en studio pour montrer mon talent Mais rien mempêche de penser quj'ai toujours 100 meuj coincé dans mon pantalon Pour un caleçon coo-coo-cool eh, les convocations tous-tous les mois Cest trop sombre, merde, fuck le pou-pou-pou-poulet Pas assez sonné, d'la façon dun Grec y'a pas de salade dans un texte La basse, la basse dans ma tête jpense à la maille sans arrêt Ca vient, ça part quand ça pète jrappe pas j'chante la merde Tas pas ta place, rentre ta chaîne ça fait cric bruit de fusil Y a pas dve-dve-dvedettes donc ve-ve-venez veinards On est vé-vé-vénères le ve-venin se veut-veut-veut-veut dar Cest pas le coup final et noublie pas le douze qui parle, écoute, qui casse les couilles Aura un coup de blues et un option tout dtitane bruit de fusil Jsuis pas un rappeur juste un mec dla rue poto Faut pas tmettre la rue au dos le soir ça pète ça fume trop tôt On est garé ici viens pas me caresser oh Calmés cest naze vous paraissez bad mais y a eu une fessée Au Carré SénartYou might also like</t>
+          <t>Va falloir faire des choses va falloir do-do-doser Va falloir faire de loseille à la Ronaldo-do-do seul Marre de râler-râler pompe, téma ce p'tit qui crève en bas Tu veux un verre de rouge, tiens mon sang cest du 17 ans d'âge On reste en marge donc, 6-7 en schlag On tvisser dans lbat' fonce à Orly, c'est nous la tête dun avion On attend plus le décollage, et beaucoup se crashent à latterrissage Pas à labri des connards, un gros crachat quand la BAC te dévisage Jsuis en studio pour montrer mon talent Mais rien mempêche de penser quj'ai toujours 100 meuj coincé dans mon pantalon Pour un caleçon coo-coo-cool eh, les convocations tous-tous les mois Cest trop sombre, merde, fuck le pou-pou-pou-poulet Pas assez sonné, d'la façon dun Grec y'a pas de salade dans un texte La basse, la basse dans ma tête jpense à la maille sans arrêt Ca vient, ça part quand ça pète jrappe pas j'chante la merde Tas pas ta place, rentre ta chaîne ça fait cric bruit de fusil Y a pas dve-dve-dvedettes donc ve-ve-venez veinards On est vé-vé-vénères le ve-venin se veut-veut-veut-veut dar Cest pas le coup final et noublie pas le douze qui parle, écoute, qui casse les couilles Aura un coup de blues et un option tout dtitane bruit de fusil Jsuis pas un rappeur juste un mec dla rue poto Faut pas tmettre la rue au dos le soir ça pète ça fume trop tôt On est garé ici viens pas me caresser oh Calmés cest naze vous paraissez bad mais y a eu une fessée Au Carré Sénart</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>The Beat Plug Woah, woah Jet trop opé' pour un plan, pour un feat woah Jet trop foncedé, j'ai trop fumé de la weed ouais Jet trop opé' pour un plan, pour un feat ouais Jet trop foncedé, j'ai trop fumé de la weed woah Ouais, j'ai trop fumé de la weed F430 Ouais, j'ai trop fumé de la weed PNL, IGD Ouais, on a trop fumé de weed 77, Melun Ouais... la weed Nous, si on rappe, khey, c'est pas pour les putes Oui, nous, y a que pour l'gang squad qu'on bute F430 Gova, kamas de ouf ouais, rala en I de ouf ouais La prod, j'la pends de ouf, fais l'fou, j't'envoie le ouz ouais Nous, tous les jours, on fait les djiz bang bang Pendant que d'autres se branlent de ouf 91, 77, Melun, TZ que des gangs de ouf Brabus, Adsa, Lazeur, Pissa démerdeurs de ouf Une heure, un son, tu kiffes ta reum, sois pas jaloux You might also like Jet trop opé' pour un plan, pour un feat woah Jet trop foncedé, j'ai trop fumé de la weed ouais Jet trop opé' pour un plan, pour un feat ouais Jet trop foncedé, j'ai trop fumé de la weed woah J'reçois le Snap d'une grosse 'tasse, une grosse taffe en taftaf J'protège ma liasse, j'fais bon taf, j'mets des baffes dans l'atlas Chico chico loco, bambina, poto poto, vaffanculo Hela hela, sniffe ma coca, bella, j'aime la vida loca Fuck you, fuck you, mène ta vie Fuck you, fuck you, ramène ta fille Fuck you, fuck you, j'vends en bas bas Ton boule dansera la lambada Check check, j'm'appelle Adé, mec mec, la haine en 3D Rien que, rien que j'sors du rainté Chèque chèque, il m'faut, pour gambader On rafale la police, on s'fait péter, les sons sous scellés Du taga, d'la tise, j'fais 40 pompes, igo, j'suis pété Ça passe, ça casse, ça kick, on est déter', on a fait les 400 coups Dakatine dans l'mafé, enfermés devant la télé Pas de mandats, j'te demanderais pas où t'étais Le le le, pédé, le le le, pédé Tiens, j'te paye, j'demande à personne d'me prêter Lol lol lol, pédé, lol lol lol, pédé Pour la mula, on te cogne, mula, on est potes Une salope stringuée, ça va vite igo On est dans l'réseau, mon gang te décapite mula J'ai bu du Honey, j'peux plus saquer ta bite gang Fissa fissa, igo t'fait ça rapide Prenez ces malades, igo, libérez Snick Yoyo, parlu, pécule, y a plus d'liquide gang gang J'peux pas faire la gueule, igo, j'suis déjà niqué Du 77 au 91, Sosa broliqué Démarche saccadée avec mon gars Adé F430, IGD, connard, t'es pas prêt Demande à Cosby, la rue, on connaît ses règles Postés au stop, on te braque à l'arrêt On te braque à l'arrêt Postés au stop, on te braque à l'arrêt Ta p'tite sur fait des galipettes sous les draps Après une bonne baise, ça t'fait les bras Tu fais le casseur devant ton miroir Une hagra verbale te remettra en place Ça fait poh, poh dans la tête du videur On attend pas le 14 pour les bombarder woulah zoulou veulent nous condamner woulah zoulou On veut juste du khaliss, madame la juge les condés préparent juste des bavures Faut les haggar, ces bâtards, du matin au soir ouais dis-moi T'inquiète, nous on les baise, baise à la tess Teste, on te ramène les dièses , dis-leur que c'est la hess, on veut de l'espèce c'est le zoo Tout le monde cherche un khedma mais kheddem en cachette Toi, tu fais la hagra, , hendek aux coups de pute Lourd est l'instru donc lourd est Une patate dans tes dents et tu donnes tous tes loves On a pas l'temps d'lover, on veut des lovés Encore une fois, c'est ZA, mitraillette Rafale de balles, j'en place une à L'équipe est bien rodée et tu la connais, la LDT Et c'est plus pareil sans Doomams Un p'tit carnage, j'appelle Ramska, mais où sont mes négros ? Postichés pour du blé sûr Ne viens pas test la LDT ou tu repartiras avec des blessures Woah, woah Jet trop opé' pour un plan, pour un feat woah Jet trop foncedé, j'ai trop fumé de la weed ouais Jet trop opé' pour un plan, pour un feat ouais Jet trop foncedé, j'ai trop fumé de la weed woah Ouais, j'ai trop fumé de la weed F430 Ouais, j'ai trop fumé de la weed PNL, IGD Ouais, on a trop fumé de weed 77, Melun Ouais... la weed The Beat Plug1</t>
+          <t>The Beat Plug Woah, woah Jet trop opé' pour un plan, pour un feat woah Jet trop foncedé, j'ai trop fumé de la weed ouais Jet trop opé' pour un plan, pour un feat ouais Jet trop foncedé, j'ai trop fumé de la weed woah Ouais, j'ai trop fumé de la weed F430 Ouais, j'ai trop fumé de la weed PNL, IGD Ouais, on a trop fumé de weed 77, Melun Ouais... la weed Nous, si on rappe, khey, c'est pas pour les putes Oui, nous, y a que pour l'gang squad qu'on bute F430 Gova, kamas de ouf ouais, rala en I de ouf ouais La prod, j'la pends de ouf, fais l'fou, j't'envoie le ouz ouais Nous, tous les jours, on fait les djiz bang bang Pendant que d'autres se branlent de ouf 91, 77, Melun, TZ que des gangs de ouf Brabus, Adsa, Lazeur, Pissa démerdeurs de ouf Une heure, un son, tu kiffes ta reum, sois pas jaloux Jet trop opé' pour un plan, pour un feat woah Jet trop foncedé, j'ai trop fumé de la weed ouais Jet trop opé' pour un plan, pour un feat ouais Jet trop foncedé, j'ai trop fumé de la weed woah J'reçois le Snap d'une grosse 'tasse, une grosse taffe en taftaf J'protège ma liasse, j'fais bon taf, j'mets des baffes dans l'atlas Chico chico loco, bambina, poto poto, vaffanculo Hela hela, sniffe ma coca, bella, j'aime la vida loca Fuck you, fuck you, mène ta vie Fuck you, fuck you, ramène ta fille Fuck you, fuck you, j'vends en bas bas Ton boule dansera la lambada Check check, j'm'appelle Adé, mec mec, la haine en 3D Rien que, rien que j'sors du rainté Chèque chèque, il m'faut, pour gambader On rafale la police, on s'fait péter, les sons sous scellés Du taga, d'la tise, j'fais 40 pompes, igo, j'suis pété Ça passe, ça casse, ça kick, on est déter', on a fait les 400 coups Dakatine dans l'mafé, enfermés devant la télé Pas de mandats, j'te demanderais pas où t'étais Le le le, pédé, le le le, pédé Tiens, j'te paye, j'demande à personne d'me prêter Lol lol lol, pédé, lol lol lol, pédé Pour la mula, on te cogne, mula, on est potes Une salope stringuée, ça va vite igo On est dans l'réseau, mon gang te décapite mula J'ai bu du Honey, j'peux plus saquer ta bite gang Fissa fissa, igo t'fait ça rapide Prenez ces malades, igo, libérez Snick Yoyo, parlu, pécule, y a plus d'liquide gang gang J'peux pas faire la gueule, igo, j'suis déjà niqué Du 77 au 91, Sosa broliqué Démarche saccadée avec mon gars Adé F430, IGD, connard, t'es pas prêt Demande à Cosby, la rue, on connaît ses règles Postés au stop, on te braque à l'arrêt On te braque à l'arrêt Postés au stop, on te braque à l'arrêt Ta p'tite sur fait des galipettes sous les draps Après une bonne baise, ça t'fait les bras Tu fais le casseur devant ton miroir Une hagra verbale te remettra en place Ça fait poh, poh dans la tête du videur On attend pas le 14 pour les bombarder woulah zoulou veulent nous condamner woulah zoulou On veut juste du khaliss, madame la juge les condés préparent juste des bavures Faut les haggar, ces bâtards, du matin au soir ouais dis-moi T'inquiète, nous on les baise, baise à la tess Teste, on te ramène les dièses , dis-leur que c'est la hess, on veut de l'espèce c'est le zoo Tout le monde cherche un khedma mais kheddem en cachette Toi, tu fais la hagra, , hendek aux coups de pute Lourd est l'instru donc lourd est Une patate dans tes dents et tu donnes tous tes loves On a pas l'temps d'lover, on veut des lovés Encore une fois, c'est ZA, mitraillette Rafale de balles, j'en place une à L'équipe est bien rodée et tu la connais, la LDT Et c'est plus pareil sans Doomams Un p'tit carnage, j'appelle Ramska, mais où sont mes négros ? Postichés pour du blé sûr Ne viens pas test la LDT ou tu repartiras avec des blessures Woah, woah Jet trop opé' pour un plan, pour un feat woah Jet trop foncedé, j'ai trop fumé de la weed ouais Jet trop opé' pour un plan, pour un feat ouais Jet trop foncedé, j'ai trop fumé de la weed woah Ouais, j'ai trop fumé de la weed F430 Ouais, j'ai trop fumé de la weed PNL, IGD Ouais, on a trop fumé de weed 77, Melun Ouais... la weed The Beat Plug1</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Gegeven aan de bedzijde van Cajsa Lisa, laat op een avond Schitterende nimf, ogen die blaken Weelderig vlees op het sneeuwwitte laken En tengere spieren. De slaap moet zegevieren Want nu komt in al zijn pracht Morpheus, de god der nacht De luiken zijn dicht en de kaarsen zijn gesnoten Wees maar niet bang, de deur is gesloten Geen mens die nu nog stoort en o, de nacht is lang Slaap, zoetelief, bij mijn gezang Slaap, zoetelief, bij mijn gezang Het uur middernacht, het slaat in de toren De leeuwerik, ach, is nog lang niet te horen Nu sluimeren de struiken, maar achter onze luiken Zoetelief, zoals ge ziet Rusten wij, maar slapen niet Hoor eens de donder, hoor je de regen? Plotseling hebben we onweer gekregen De bliksem, zoetelief, of hij zelfs neder sloeg Slaap maar weer in, 't is nog zo vroeg Slaap maar weer in, 't is nog zo vroeg You might also likeSlaap toch m'n nimf, droom van m'n snaren Totdat de zon de dauw komt vergaren En wij doen lieflijkheden waaraan wij pas nog deden Eerst je mond en dan mijn glas Vliegen er vonken in de as En dan, mon Dieu, ze is bezweken Kijk me toch aan mijn nimf, geef me toch een teken Goddank, ze ademt weer, en godzijdank, ze lacht Schei nu maar uit, slaap zacht, slaap zacht Schei nu maar uit, slaap zacht, slaap zacht</t>
+          <t>Gegeven aan de bedzijde van Cajsa Lisa, laat op een avond Schitterende nimf, ogen die blaken Weelderig vlees op het sneeuwwitte laken En tengere spieren. De slaap moet zegevieren Want nu komt in al zijn pracht Morpheus, de god der nacht De luiken zijn dicht en de kaarsen zijn gesnoten Wees maar niet bang, de deur is gesloten Geen mens die nu nog stoort en o, de nacht is lang Slaap, zoetelief, bij mijn gezang Slaap, zoetelief, bij mijn gezang Het uur middernacht, het slaat in de toren De leeuwerik, ach, is nog lang niet te horen Nu sluimeren de struiken, maar achter onze luiken Zoetelief, zoals ge ziet Rusten wij, maar slapen niet Hoor eens de donder, hoor je de regen? Plotseling hebben we onweer gekregen De bliksem, zoetelief, of hij zelfs neder sloeg Slaap maar weer in, 't is nog zo vroeg Slaap maar weer in, 't is nog zo vroeg Slaap toch m'n nimf, droom van m'n snaren Totdat de zon de dauw komt vergaren En wij doen lieflijkheden waaraan wij pas nog deden Eerst je mond en dan mijn glas Vliegen er vonken in de as En dan, mon Dieu, ze is bezweken Kijk me toch aan mijn nimf, geef me toch een teken Goddank, ze ademt weer, en godzijdank, ze lacht Schei nu maar uit, slaap zacht, slaap zacht Schei nu maar uit, slaap zacht, slaap zacht</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>À lheure où jchante Cest ça, le monde part en couilles Tu connais, tu connais Et pas drigolades, fini lenfance, niquez vos races Moi jcrois même plus en cque jvois, va ldire à ton saint Nicolas Jsuis la rage, la haine incarnée, la tristesse me dévore Jai lsang des Corses, c'lui de lAlgérie, j'saigne sans écorche Mais là où lhomme sest mis à brûler avant davoir découvert le feu Jsais que fabuler quà travers mon ptit reuf Yanis, pour lui jsuis prêt à tuer Jai trop mal grandi, ou plutôt jai grandi trop vite Jme rappelle même plus des bons moments, merde, mon Dieu, on ma menti, faut ldire Quand jai demandé est-ce quun jour on sera tous heureux? On aurai dû mrépondre Tarik, tu sais la vie elle met tout lmonde à terre, tel un coup de feu Jai tapé mes profs, caillassé les keufs, jsuis devenu la rue Celle qui sendort jamais, qui sdébrouille, qui te tue, jtassure Mon Dieu, pourquoi jsuis cputain de démon triste ? Jsuis pas un ange déchu, moi, hein mon Dieu vous mavez appelé Ademo Dire que jrêve plus, faut lfaire merde Regardez mon stylo wilson pleure la vie cest une pute alors quelle aille se faire mettre Jsuis lgenre de mec dur quon peut pas aimer Jpeux sourire et dans la seconde être vénère jai déjà été aussi épais que la bordure dun CD Tous les jours jai envie den planter un, en sautillant Ça mfera aucun effet, jaime ma rage elle est dangereuse comme le silence Cet ami qui ntrahit jamais, parti de rien Jrespecte rien parce que cest tout cque jai, va niquer ta mère Jrap pour les charclo du métro, les mendiants, les SDF Les braqueurs de diligence, les lard-tau, les prostituées sur ldivan Les mecs dla rue, ceux qui dorment dans les caves Ceux qui connaissent les cafards, les rats qui sbattent mais nse relèvent pas J'rap pour mon daron, Sarah, Nabil, les frères qui mservent délectrochoc Si la rue ma greffé son cur, ma miff a hérité du mien Dédicace à ceux qui sont morts, ceux qui sont morts-vivants Dédicace à lEtat qui mbaise au score Vivement le jugement dernier, lappel de nos âmes LEnfer mattend mais dis à Dieu qujsuis déjà mort devant la flèche de son arc Ademo, jai dû tomber dans les pommes pour enfin voir les étoiles Le son des halls, bouche les oreilles dton gosse, ou raconte-lui une histoire You might also like Ademo, le son des halls Yeah yeah yeah</t>
+          <t>À lheure où jchante Cest ça, le monde part en couilles Tu connais, tu connais Et pas drigolades, fini lenfance, niquez vos races Moi jcrois même plus en cque jvois, va ldire à ton saint Nicolas Jsuis la rage, la haine incarnée, la tristesse me dévore Jai lsang des Corses, c'lui de lAlgérie, j'saigne sans écorche Mais là où lhomme sest mis à brûler avant davoir découvert le feu Jsais que fabuler quà travers mon ptit reuf Yanis, pour lui jsuis prêt à tuer Jai trop mal grandi, ou plutôt jai grandi trop vite Jme rappelle même plus des bons moments, merde, mon Dieu, on ma menti, faut ldire Quand jai demandé est-ce quun jour on sera tous heureux? On aurai dû mrépondre Tarik, tu sais la vie elle met tout lmonde à terre, tel un coup de feu Jai tapé mes profs, caillassé les keufs, jsuis devenu la rue Celle qui sendort jamais, qui sdébrouille, qui te tue, jtassure Mon Dieu, pourquoi jsuis cputain de démon triste ? Jsuis pas un ange déchu, moi, hein mon Dieu vous mavez appelé Ademo Dire que jrêve plus, faut lfaire merde Regardez mon stylo wilson pleure la vie cest une pute alors quelle aille se faire mettre Jsuis lgenre de mec dur quon peut pas aimer Jpeux sourire et dans la seconde être vénère jai déjà été aussi épais que la bordure dun CD Tous les jours jai envie den planter un, en sautillant Ça mfera aucun effet, jaime ma rage elle est dangereuse comme le silence Cet ami qui ntrahit jamais, parti de rien Jrespecte rien parce que cest tout cque jai, va niquer ta mère Jrap pour les charclo du métro, les mendiants, les SDF Les braqueurs de diligence, les lard-tau, les prostituées sur ldivan Les mecs dla rue, ceux qui dorment dans les caves Ceux qui connaissent les cafards, les rats qui sbattent mais nse relèvent pas J'rap pour mon daron, Sarah, Nabil, les frères qui mservent délectrochoc Si la rue ma greffé son cur, ma miff a hérité du mien Dédicace à ceux qui sont morts, ceux qui sont morts-vivants Dédicace à lEtat qui mbaise au score Vivement le jugement dernier, lappel de nos âmes LEnfer mattend mais dis à Dieu qujsuis déjà mort devant la flèche de son arc Ademo, jai dû tomber dans les pommes pour enfin voir les étoiles Le son des halls, bouche les oreilles dton gosse, ou raconte-lui une histoire Ademo, le son des halls Yeah yeah yeah</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Because I am not an artist at the moment, I am an artist forever If it's not to look for money I don't go out The bales in the skirts, the donkeys in the bales Crossing the Baldo' in a couple of cars balances Hey, a ghosting and we'll leave you dying Many fronting and I was organizing The babies are reported since I'm landing And they are going to sew their mouth to everyone who is an emissary I'm not a gangster, commissioner, what I am is a businessman Everyone who owes to pay, evryone who promises to fulfill I want a couple of covs, I don't care if they rot Whoever guilders over Tarzan doesn't go back into the jungle I have seen how they move from their own houses I have a switch for a asshole who gets confused If I know that you are a pig, I greet you with my left hand I have a couple of bastards to do absurd things I can make them supply you and receive the buzzers, nigga I want this shit forever This is for those who want to see a Mille before die I've been with the same boys forever They didn't believe in us, asshole, they can die I want this shit forever She bought clothes to see me and now she wants to undress Turn on another Phillie to get me high Yeah-yeah Asshole, if so, I don't want to live Hey-yo, is Ousi You might also like Blessing for the mines, yes, if we're going to spend? Yes They are not tough, nah, asshole, if they are not here Me, forever millo, yes, legend since I was born The babies want my children, they want to jump in my D I want this shit forever This is for those who want to see a Mille before die I've been with the same boys forever They didn't believe in us, asshole, they can die I want this shit forever She bought clothes to see me and now she wants to undress Turn on another Phillie to get me high Asshole, if so, I don't want to live Yeah Turn on another Phillie, that I'm going straight to space In the back of the Bentley, asshole, there's plenty of room Sometimes I feel like Don Omar, I live in a palace I am a king, motherfucker, I'm reluctant I feel like I've gone insane And I smoke so much weed that right now I have my strain Everything comes from Paris, that is, I don't use Philipp Plein Al-All black and red like if I'm Kane Tag team, lunch in seraph I gave your ho milk, but it was not from KLIM I'm super pasty, it's not that I drink lean My wife leave me because I didn't want to give her the PIN Motherfucker, that's how I am Nobody sent me, it's that I go for myself I don't solve it tomorrow, that's today And I screwed her even if I shot for The Noise, do you follow me? Ah-ah, yeah, yeah Aha With the same boys forever, since day one, and I don't change to any Yeah I smoke from Tuesday to Tuesday and my mind is on Mars like Bruno Wuf I learned to differentiate the good from the inopportune And now, who's better than me? There isn't even one Yeah, yeah, yeah I count them with my hand to my brothers and close friends The ones I keep from afar, also the ones I love I got used to having this divine security Yup Because I never lose, and when I lose, even losing I'm winning, do you understand? Yeah I got 'em spinning like wheels Uh-huh The tougher of the old, the tougher of the new For sure The toughest of this generation and the one to come Yessir It's almost 20 years, I'm a fucking legend Auh! Thank God, amen, nigga, I'm blessed Blessed That my daughter sees me and says Daddy, you're the best Best Asshole, I don't even snore when I go out Nope If everyone already knows how much I'm worth, Austin Once again I'm here Eternal light Light, light, light Eternal light Uh, uh, uh, ah Ah-ah-ah-ah, na-na-na-na-na Uh, uh Hey, hey, uh, uh, uh At 16 in Mercedes, at 30 in Ferrari Tainy Tainy creating anthems since the 2000's Hey We have more flow than before and more Benjamins More flow Running through the clouds for others to walk, wow, wow, wow All the songs stick like jelly Tell me Classic, Andrea Bocelli Hey Thank you, Luny Tunes, thank you, Nely, hey We change the game, Stephen Curry Hey, hey, hey, hey, hey, hey Since the days of Monta Ellis, we have it I always burn the tracks These people have dema 'cause we never made a demo No And we are legends wherever we stand Tell me Shh, shut up, I let you drop all the weight, Y.O.M.O Hey, hey We have them in depression, cutting themselves like an emo They spend seeing monsters, chupacabras like Chemo But we already know them -now We aren't for gossip No, bye, see ya See ya Hey, let them talk about money and then we move We will talk about this one day when we meet Yeah, yeah, yeah, yeah Hey, hey, hey, hey And it is true that I did not hit the trap No I am not a trap king No, not even a trap god, no I am Bad Bunny and I am bigger than the trap Tell me My music selling like crack Tell me The only one who releases an album and hits all the tracks Nobody knows El Conejo and Tainy are Kobe with Shaq Tainy Check the numbers and you will see that these are facts Tell him' Without naming the track Hey That I'm mad off the tag, that I'm mad off the tag</t>
+          <t>Because I am not an artist at the moment, I am an artist forever If it's not to look for money I don't go out The bales in the skirts, the donkeys in the bales Crossing the Baldo' in a couple of cars balances Hey, a ghosting and we'll leave you dying Many fronting and I was organizing The babies are reported since I'm landing And they are going to sew their mouth to everyone who is an emissary I'm not a gangster, commissioner, what I am is a businessman Everyone who owes to pay, evryone who promises to fulfill I want a couple of covs, I don't care if they rot Whoever guilders over Tarzan doesn't go back into the jungle I have seen how they move from their own houses I have a switch for a asshole who gets confused If I know that you are a pig, I greet you with my left hand I have a couple of bastards to do absurd things I can make them supply you and receive the buzzers, nigga I want this shit forever This is for those who want to see a Mille before die I've been with the same boys forever They didn't believe in us, asshole, they can die I want this shit forever She bought clothes to see me and now she wants to undress Turn on another Phillie to get me high Yeah-yeah Asshole, if so, I don't want to live Hey-yo, is Ousi Blessing for the mines, yes, if we're going to spend? Yes They are not tough, nah, asshole, if they are not here Me, forever millo, yes, legend since I was born The babies want my children, they want to jump in my D I want this shit forever This is for those who want to see a Mille before die I've been with the same boys forever They didn't believe in us, asshole, they can die I want this shit forever She bought clothes to see me and now she wants to undress Turn on another Phillie to get me high Asshole, if so, I don't want to live Yeah Turn on another Phillie, that I'm going straight to space In the back of the Bentley, asshole, there's plenty of room Sometimes I feel like Don Omar, I live in a palace I am a king, motherfucker, I'm reluctant I feel like I've gone insane And I smoke so much weed that right now I have my strain Everything comes from Paris, that is, I don't use Philipp Plein Al-All black and red like if I'm Kane Tag team, lunch in seraph I gave your ho milk, but it was not from KLIM I'm super pasty, it's not that I drink lean My wife leave me because I didn't want to give her the PIN Motherfucker, that's how I am Nobody sent me, it's that I go for myself I don't solve it tomorrow, that's today And I screwed her even if I shot for The Noise, do you follow me? Ah-ah, yeah, yeah Aha With the same boys forever, since day one, and I don't change to any Yeah I smoke from Tuesday to Tuesday and my mind is on Mars like Bruno Wuf I learned to differentiate the good from the inopportune And now, who's better than me? There isn't even one Yeah, yeah, yeah I count them with my hand to my brothers and close friends The ones I keep from afar, also the ones I love I got used to having this divine security Yup Because I never lose, and when I lose, even losing I'm winning, do you understand? Yeah I got 'em spinning like wheels Uh-huh The tougher of the old, the tougher of the new For sure The toughest of this generation and the one to come Yessir It's almost 20 years, I'm a fucking legend Auh! Thank God, amen, nigga, I'm blessed Blessed That my daughter sees me and says Daddy, you're the best Best Asshole, I don't even snore when I go out Nope If everyone already knows how much I'm worth, Austin Once again I'm here Eternal light Light, light, light Eternal light Uh, uh, uh, ah Ah-ah-ah-ah, na-na-na-na-na Uh, uh Hey, hey, uh, uh, uh At 16 in Mercedes, at 30 in Ferrari Tainy Tainy creating anthems since the 2000's Hey We have more flow than before and more Benjamins More flow Running through the clouds for others to walk, wow, wow, wow All the songs stick like jelly Tell me Classic, Andrea Bocelli Hey Thank you, Luny Tunes, thank you, Nely, hey We change the game, Stephen Curry Hey, hey, hey, hey, hey, hey Since the days of Monta Ellis, we have it I always burn the tracks These people have dema 'cause we never made a demo No And we are legends wherever we stand Tell me Shh, shut up, I let you drop all the weight, Y.O.M.O Hey, hey We have them in depression, cutting themselves like an emo They spend seeing monsters, chupacabras like Chemo But we already know them -now We aren't for gossip No, bye, see ya See ya Hey, let them talk about money and then we move We will talk about this one day when we meet Yeah, yeah, yeah, yeah Hey, hey, hey, hey And it is true that I did not hit the trap No I am not a trap king No, not even a trap god, no I am Bad Bunny and I am bigger than the trap Tell me My music selling like crack Tell me The only one who releases an album and hits all the tracks Nobody knows El Conejo and Tainy are Kobe with Shaq Tainy Check the numbers and you will see that these are facts Tell him' Without naming the track Hey That I'm mad off the tag, that I'm mad off the tag</t>
         </is>
       </c>
     </row>
@@ -2127,11 +2127,7 @@
           <t>Ariba*</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2146,7 +2142,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>You might also like1</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2159,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Couplet 1 La vie c'est un truc de ouf sa se lève le matin tôt pour vendre le shit A l'horizon XXX tu peut apercevoir une bande de flic Y'en as qui sont levés a 6 heures du mat On les reverras peut-être dans 5 ans avec un sac et la trace d'une marque magique Personne ne l'est et encore moins Paris ouais Sachant se tenir on as des cafards comme invitées pour dîner J'rap pas pour les miss les connasse on as pas les même idée dommage j'viens juste prendre le biff les dollars J'suis pas un MC, j'suis d'ces zonards qui rigole toujours qui vanne qui cache une souffrance hélas J'viens la où c'est en sortant de GAV qu'on apprend a faire ses lacets Eh merde j'suis trop feignant j'sais pas si j'vais pouvoir taffer C'est trop saignant j'voudrais a point mais la violence nous a dépasser On as tous une flamme dans le regard il y a plus qu'a péter sa garo avec un oeil Ta une pute dans le drap ok ta meuf tu l'appelle tout à l'heure Mais bon, moi a ma montre il est chepa j'ai même pas de montre J'peut p't'être continuer a dormir non faut continuer a dealer C'est pour les frères le reste nique sa grand mère Le son est sten et la gros je vibre et la j't'emmène Refrain x2 C'est pour les frères les jolies les moches applaudissez Baise la police impolis la tess est alcoolisé C'est pour les halel les frères dans l'haram L'été devant le hall et l'hiver dans le bat Couplet 2 XXX t'appelle le 17 nous on travaille nos biceps Quelque traction entre deux trois cliquos que l'ont visser Un son qui glisse il en faut un mais j'le baise en disant nique sa grand mère A ceux qui roule sans permis les mecs XXX l'argent en l'aire Tarterêts c'est de la ou tout part j'oublie pas tout le monde Les mecs derrière les barbelés a cause d'la poucave Se soir sa sent la pagaille monte monte le son belleck a ne pas avoir la barre J'resterai hardcore même dans des son comme as J'suis pas Piggy mais Dark Vador J'resterai cagoulé j'me défonce dans la street J'pense a tout les k-sos qui galère qui trime face aux fachos Avec le corps de ne pas avoir la tête qui brille J'suis en mode haineux très très rare sont les moments de joie XXX on ferra se qu'il faudra dans le noir C'est pour ceux qui sont droit ce qui font le mal pour le bien XXX tcheck on se reverra peut être pas demain You might also likeRefrain x2 C'est pour les frères les jolies les moches applaudissez Baise la police impolis la tess est alcoolisé C'est pour les halel les frères dans l'haram L'été devant le hall et l'hiver dans le bat</t>
+          <t>Couplet 1 La vie c'est un truc de ouf sa se lève le matin tôt pour vendre le shit A l'horizon XXX tu peut apercevoir une bande de flic Y'en as qui sont levés a 6 heures du mat On les reverras peut-être dans 5 ans avec un sac et la trace d'une marque magique Personne ne l'est et encore moins Paris ouais Sachant se tenir on as des cafards comme invitées pour dîner J'rap pas pour les miss les connasse on as pas les même idée dommage j'viens juste prendre le biff les dollars J'suis pas un MC, j'suis d'ces zonards qui rigole toujours qui vanne qui cache une souffrance hélas J'viens la où c'est en sortant de GAV qu'on apprend a faire ses lacets Eh merde j'suis trop feignant j'sais pas si j'vais pouvoir taffer C'est trop saignant j'voudrais a point mais la violence nous a dépasser On as tous une flamme dans le regard il y a plus qu'a péter sa garo avec un oeil Ta une pute dans le drap ok ta meuf tu l'appelle tout à l'heure Mais bon, moi a ma montre il est chepa j'ai même pas de montre J'peut p't'être continuer a dormir non faut continuer a dealer C'est pour les frères le reste nique sa grand mère Le son est sten et la gros je vibre et la j't'emmène Refrain x2 C'est pour les frères les jolies les moches applaudissez Baise la police impolis la tess est alcoolisé C'est pour les halel les frères dans l'haram L'été devant le hall et l'hiver dans le bat Couplet 2 XXX t'appelle le 17 nous on travaille nos biceps Quelque traction entre deux trois cliquos que l'ont visser Un son qui glisse il en faut un mais j'le baise en disant nique sa grand mère A ceux qui roule sans permis les mecs XXX l'argent en l'aire Tarterêts c'est de la ou tout part j'oublie pas tout le monde Les mecs derrière les barbelés a cause d'la poucave Se soir sa sent la pagaille monte monte le son belleck a ne pas avoir la barre J'resterai hardcore même dans des son comme as J'suis pas Piggy mais Dark Vador J'resterai cagoulé j'me défonce dans la street J'pense a tout les k-sos qui galère qui trime face aux fachos Avec le corps de ne pas avoir la tête qui brille J'suis en mode haineux très très rare sont les moments de joie XXX on ferra se qu'il faudra dans le noir C'est pour ceux qui sont droit ce qui font le mal pour le bien XXX tcheck on se reverra peut être pas demain Refrain x2 C'est pour les frères les jolies les moches applaudissez Baise la police impolis la tess est alcoolisé C'est pour les halel les frères dans l'haram L'été devant le hall et l'hiver dans le bat</t>
         </is>
       </c>
     </row>
@@ -2178,11 +2174,7 @@
           <t>A.V 16'Art</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2197,7 +2189,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>C'est comme si j'avais un atavisme C'est comme si j'rappais à la va-vite, nique sa mère, moi, j'suis pas un riche J'suis baisé, j'ai envie d'pleurer à chaque pleine lune Perdu, le genre de fou capable de rêver d'futur quand il voit une belle pute Parce que j'suis plus triste encore que l'film Le Titanic Parce que j'suis baisé, tu pourras plus jamais revoir l'enfant, le p'tit Tarik Baisés, c'est la merde ma couille, faudrait qu'j'pète un coup Baisés, N.O.S, check, on reste intestables Interdiction d'toucher à l'un, au risque de perdre la boule, baise la poulaille On reste pareils X X, dogue argentin Kaboul dans nos lifes X car on graille J'suis baisé, et ça depuis qu'on m'a pé-cou l'enfance Ça fait six ans qu'j'rappe, six ans que rage et peine s'foutent ensemble Baisés, à voir mon reuf vieillir triste Putain, passe-moi l'calibre que j'aille remplir la tirelire Le chauffage coûte cher alors dans la chambre il caille Y'a rien mais tu mets quand même les couverts quand t'as l'ventre qui râle Mais c'est parce que j'ai fait des fautes la plupart d'ma vie J'ai joué hors jeu vu qu'j'ai vu qu'y'avait pas d'arbitre Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail X2 You might also like Avant j'voyais un monde parfait maintenant j'veux l'baiser J'fais une croix sur mon rêve de gosse le jour où j'me suis blessé Baisés, parce que j'parle seul comme un malade mental Baisés, la micht' t'attache pas car j'suis pas sentimental Baisés, parce que j'retrouve ma solitude dans l'allée Baisés, parce que j'reste là mais j'voudrais m'en aller Baisés, parce que j'passe des heures à fixer le vide X donc faudra vite faire le vide Le désespoir d'mon père de voir son fils au tribunal Je n'l'ai jamais rendu fier, j'ai la haine, j'vais prendre une arme Baisés, parce que j'ai le souvenir des pe-pe-perquises Baisés, parce qu'on m'a dit petit Ça s'transmet père-fils Baisé par la tristesse, gros, j'ai appris à vivre avec J'la traîne un peu partout sous la capuche qui recouvre ma tête Baisés, parce que j'oublie trop souvent d'prier Dieu Baisés, parce que j'voulais voir loin mais on m'a pris mes yeux Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés putain j'te jure qu'on f'ra l'bail Et c'est parce que je n'savais pas quel X Baisé par ce manque d'amour d'ma mère qui aurait pu m'aider Je suis ce petit du zoo qui vit dans l'passé Récupère ma tétine, contre les chats, gazelle Baisés, faut trouver un toit c't'été, ça sent l'expulsion À cinq dans un une pièce, 'faut pas s'faire d'illusions Baisés, parce que j'croyais qu'ça n'arrivait qu'aux autres Ademo, Son des Halls, ça ça sent l'tiek de zoo ? Ça sent la hess Ça sent la rage Parce que c'est dans les gênes baisés V'la les deux frères prêts à crever dans les airs Percer sous le chant des sirènes C'est pour tous les frères et surs dehors tout l'hiver Merde Ademo, N.O.S Putain d'merde, y'a longtemps qu'y'a eu le S.O.S Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Sur ma tête qu'on f'ra l'bail Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Putain j'te jure qu'on f'ra l'bail</t>
+          <t>C'est comme si j'avais un atavisme C'est comme si j'rappais à la va-vite, nique sa mère, moi, j'suis pas un riche J'suis baisé, j'ai envie d'pleurer à chaque pleine lune Perdu, le genre de fou capable de rêver d'futur quand il voit une belle pute Parce que j'suis plus triste encore que l'film Le Titanic Parce que j'suis baisé, tu pourras plus jamais revoir l'enfant, le p'tit Tarik Baisés, c'est la merde ma couille, faudrait qu'j'pète un coup Baisés, N.O.S, check, on reste intestables Interdiction d'toucher à l'un, au risque de perdre la boule, baise la poulaille On reste pareils X X, dogue argentin Kaboul dans nos lifes X car on graille J'suis baisé, et ça depuis qu'on m'a pé-cou l'enfance Ça fait six ans qu'j'rappe, six ans que rage et peine s'foutent ensemble Baisés, à voir mon reuf vieillir triste Putain, passe-moi l'calibre que j'aille remplir la tirelire Le chauffage coûte cher alors dans la chambre il caille Y'a rien mais tu mets quand même les couverts quand t'as l'ventre qui râle Mais c'est parce que j'ai fait des fautes la plupart d'ma vie J'ai joué hors jeu vu qu'j'ai vu qu'y'avait pas d'arbitre Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail X2 Avant j'voyais un monde parfait maintenant j'veux l'baiser J'fais une croix sur mon rêve de gosse le jour où j'me suis blessé Baisés, parce que j'parle seul comme un malade mental Baisés, la micht' t'attache pas car j'suis pas sentimental Baisés, parce que j'retrouve ma solitude dans l'allée Baisés, parce que j'reste là mais j'voudrais m'en aller Baisés, parce que j'passe des heures à fixer le vide X donc faudra vite faire le vide Le désespoir d'mon père de voir son fils au tribunal Je n'l'ai jamais rendu fier, j'ai la haine, j'vais prendre une arme Baisés, parce que j'ai le souvenir des pe-pe-perquises Baisés, parce qu'on m'a dit petit Ça s'transmet père-fils Baisé par la tristesse, gros, j'ai appris à vivre avec J'la traîne un peu partout sous la capuche qui recouvre ma tête Baisés, parce que j'oublie trop souvent d'prier Dieu Baisés, parce que j'voulais voir loin mais on m'a pris mes yeux Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés putain j'te jure qu'on f'ra l'bail Et c'est parce que je n'savais pas quel X Baisé par ce manque d'amour d'ma mère qui aurait pu m'aider Je suis ce petit du zoo qui vit dans l'passé Récupère ma tétine, contre les chats, gazelle Baisés, faut trouver un toit c't'été, ça sent l'expulsion À cinq dans un une pièce, 'faut pas s'faire d'illusions Baisés, parce que j'croyais qu'ça n'arrivait qu'aux autres Ademo, Son des Halls, ça ça sent l'tiek de zoo ? Ça sent la hess Ça sent la rage Parce que c'est dans les gênes baisés V'la les deux frères prêts à crever dans les airs Percer sous le chant des sirènes C'est pour tous les frères et surs dehors tout l'hiver Merde Ademo, N.O.S Putain d'merde, y'a longtemps qu'y'a eu le S.O.S Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Sur ma tête qu'on f'ra l'bail Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Putain j'te jure qu'on f'ra l'bail</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2206,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Aux keufs on met des coups de tête aux jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe Wesh qu'est ce que tu racontes ? C'est le 9-4 Ademo, Rim'K On sait tous que dans la vie, y'a des hauts, y'a des bas... Appelle moi l'c-c-cas l'régal l'vrai vrai gars démon Le mec mec qu'a tes pompes check check ademo J'suis Tarik rappe la dalle a mon éventré J'vis ma ville Manhattan et l'on ma kalash excentré Jvis la parle parle viens vite dans ma salle Là ou gise le mal nique la police et le parlement Jusqu'à Christian Stan, Smith part égales Viens le tapis rouge car ici le festival de Cannes Pas la tête voilà l'son venu d'ailleurs Fait pas la tête pour avoir mon fusil mitrailleur DZ d'armes né ou la rage est embarquée Part, part caisse t'as Paname étendard Vise ma pupille caraï, j'ai un public d'malade Téma fusil kalash, t'es pas futile canarde Ma vie ça a jamais été les roses mais j'ai pas à m'plaindre J'ai les kho, des grosses baffes dans ma lampe d'Aladdin Aux keufs on met des coups de boule aux plus jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe On vient du sous sol doucement on remonte la côte On veut des thunes pour Saint Trop' pour brûler la côte Wesh qu'est ce tu racontes j'suis cramé comme le quartier Et l'début d'calvitie c'est les soucis et le calcaire Chez nous tout à un prix quoi d'bon à part braquer, vendre, arnaquer bienvenue rue de la truanderie You might also like Négro y'a plus le temps jte le dis gars, mes reufs sont sur mes épaules Nique les putes le monde s'appelle Pigale J'écris deuspi en mode trop bizarre Ma tête une chicha, mon cerveau fume beaucoup trop près de l'hôpital Mais quand ça bicrave vitamines j'dilapide Nique la flicaille on a les rêves dans du Ricard Ademo Rim'k, ricane qui t'a cramé Bidave ou on t'accrochera au jerrycan Sur ma pelouse des têtes cramé Les pirates des temps modernes ont la paix égaré dans des mirages J'ai mis la barre haute dans ton colon J'ai découvert l'Amérique le 11 septembre loin d'être Christophe Colomb Le son des halls écoute le y'a pas de piles man C'est pour la mif les freres les pauvres, Yanis mon reuf bil-na Peur que de Dieu t'es qui toi pour faire style caille Ademo en mode nique le monde tout ces minables Aux keufs on met des coups de boule Aux plus jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe On vient du sous sol doucement on remonte la côte On veut des thunes pour Saint Trop' pour brûler la côte Wesh qu'est ce tu racontes J'suis cramé comme le quartier et l'début d'calvitie c'est les soucis et le calcaire Chez nous tout à un prix quoi d'bon à part braquer, vendre, arnaquer bienvenue rue de la truanderie Quand j'arrive c'est trop la merde la hess c'est infernal à faire mal J'mettrai jamais mon ptit en internat Hyper mal au coeur t'es la belle jsuis la bête J'ai la peine j'aspire a faire mal aux keufs Alors comme ça ils veulent le bif, ils veulent nos chiffres, ils veulent le shit L'argent du shit, le gramme du shit Ils foutent la merde mais sur la vie d'mes ptit frères Que c'est parce qu'on crève que j'vend du shit tout l'hiver Ils veulent ma peau mon pollen on les appelle la police Mais a poil faut qu'ils posent sur mon poster Ça vend des halls holsters, des all-stars, des émeutes ont l'rôle de merde Ce soir c'est le show ça pète les beuz y'a pas de peace ça matraque ma gueule Comment vivre sans mic ma gueule Tous dans le vif on a pas d'saveur Le son des halls tu connais plus l'temps de déconner Ademo Rim'k pour décoller x2 Aux keufs on met des coups de boule Aux plus jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe On vient du sous sol doucement on remonte la côte On veut des thunes pour Saint Trop' pour brûler la côte Wesh qu'est ce tu racontes J'suis cramé comme le quartier et l'début d'calvitie c'est les soucis et le calcaire Chez nous tout à un prix quoi d'bon à part braquer, vendre, arnaquer bienvenue rue de la truanderie</t>
+          <t>Aux keufs on met des coups de tête aux jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe Wesh qu'est ce que tu racontes ? C'est le 9-4 Ademo, Rim'K On sait tous que dans la vie, y'a des hauts, y'a des bas... Appelle moi l'c-c-cas l'régal l'vrai vrai gars démon Le mec mec qu'a tes pompes check check ademo J'suis Tarik rappe la dalle a mon éventré J'vis ma ville Manhattan et l'on ma kalash excentré Jvis la parle parle viens vite dans ma salle Là ou gise le mal nique la police et le parlement Jusqu'à Christian Stan, Smith part égales Viens le tapis rouge car ici le festival de Cannes Pas la tête voilà l'son venu d'ailleurs Fait pas la tête pour avoir mon fusil mitrailleur DZ d'armes né ou la rage est embarquée Part, part caisse t'as Paname étendard Vise ma pupille caraï, j'ai un public d'malade Téma fusil kalash, t'es pas futile canarde Ma vie ça a jamais été les roses mais j'ai pas à m'plaindre J'ai les kho, des grosses baffes dans ma lampe d'Aladdin Aux keufs on met des coups de boule aux plus jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe On vient du sous sol doucement on remonte la côte On veut des thunes pour Saint Trop' pour brûler la côte Wesh qu'est ce tu racontes j'suis cramé comme le quartier Et l'début d'calvitie c'est les soucis et le calcaire Chez nous tout à un prix quoi d'bon à part braquer, vendre, arnaquer bienvenue rue de la truanderie Négro y'a plus le temps jte le dis gars, mes reufs sont sur mes épaules Nique les putes le monde s'appelle Pigale J'écris deuspi en mode trop bizarre Ma tête une chicha, mon cerveau fume beaucoup trop près de l'hôpital Mais quand ça bicrave vitamines j'dilapide Nique la flicaille on a les rêves dans du Ricard Ademo Rim'k, ricane qui t'a cramé Bidave ou on t'accrochera au jerrycan Sur ma pelouse des têtes cramé Les pirates des temps modernes ont la paix égaré dans des mirages J'ai mis la barre haute dans ton colon J'ai découvert l'Amérique le 11 septembre loin d'être Christophe Colomb Le son des halls écoute le y'a pas de piles man C'est pour la mif les freres les pauvres, Yanis mon reuf bil-na Peur que de Dieu t'es qui toi pour faire style caille Ademo en mode nique le monde tout ces minables Aux keufs on met des coups de boule Aux plus jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe On vient du sous sol doucement on remonte la côte On veut des thunes pour Saint Trop' pour brûler la côte Wesh qu'est ce tu racontes J'suis cramé comme le quartier et l'début d'calvitie c'est les soucis et le calcaire Chez nous tout à un prix quoi d'bon à part braquer, vendre, arnaquer bienvenue rue de la truanderie Quand j'arrive c'est trop la merde la hess c'est infernal à faire mal J'mettrai jamais mon ptit en internat Hyper mal au coeur t'es la belle jsuis la bête J'ai la peine j'aspire a faire mal aux keufs Alors comme ça ils veulent le bif, ils veulent nos chiffres, ils veulent le shit L'argent du shit, le gramme du shit Ils foutent la merde mais sur la vie d'mes ptit frères Que c'est parce qu'on crève que j'vend du shit tout l'hiver Ils veulent ma peau mon pollen on les appelle la police Mais a poil faut qu'ils posent sur mon poster Ça vend des halls holsters, des all-stars, des émeutes ont l'rôle de merde Ce soir c'est le show ça pète les beuz y'a pas de peace ça matraque ma gueule Comment vivre sans mic ma gueule Tous dans le vif on a pas d'saveur Le son des halls tu connais plus l'temps de déconner Ademo Rim'k pour décoller x2 Aux keufs on met des coups de boule Aux plus jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe On vient du sous sol doucement on remonte la côte On veut des thunes pour Saint Trop' pour brûler la côte Wesh qu'est ce tu racontes J'suis cramé comme le quartier et l'début d'calvitie c'est les soucis et le calcaire Chez nous tout à un prix quoi d'bon à part braquer, vendre, arnaquer bienvenue rue de la truanderie</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2223,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>On est dans un monde de sale putes, d'hommes sans parole T'inquiète j'me fonds au décor J'suis ce putain de caméléon comme Jarod Voilà le briseur d'instructrices Prisette du mic prisé Freezé la poche à l'ombre j'fais mes propres rayons seul comme Freezer Cris pas, p'tite pédale, c'est la crise, ça se pé-ta Vis d'sky, shit, pétasse c'est la vie des SEGPA qui m'serre de machine On est yomb, 2008 j'veux ma barraka J'porte ma mif comme sur ma carapace J'veux du bon, pas gratuit J'veux du sombre, c'est ça khali Mic ou pompe, t'inquiète pas ça tire Y'a trop d'raisons, t'inquiète pas Fais le mor-morceau La mort c'est mort On vient pour man-man-manger Tout est voué à un doigt J'ai pas de carton rose ni jaune moi Courez tous à droite, quand j'roule à gauche sur l'trottoir Ma-ma-max de flow, matte ma, matte ma Ma mattraque Magma chauffe Ademo mamama You might also like Ca vient de la street ouais J'ai besoin du somme clash</t>
+          <t>On est dans un monde de sale putes, d'hommes sans parole T'inquiète j'me fonds au décor J'suis ce putain de caméléon comme Jarod Voilà le briseur d'instructrices Prisette du mic prisé Freezé la poche à l'ombre j'fais mes propres rayons seul comme Freezer Cris pas, p'tite pédale, c'est la crise, ça se pé-ta Vis d'sky, shit, pétasse c'est la vie des SEGPA qui m'serre de machine On est yomb, 2008 j'veux ma barraka J'porte ma mif comme sur ma carapace J'veux du bon, pas gratuit J'veux du sombre, c'est ça khali Mic ou pompe, t'inquiète pas ça tire Y'a trop d'raisons, t'inquiète pas Fais le mor-morceau La mort c'est mort On vient pour man-man-manger Tout est voué à un doigt J'ai pas de carton rose ni jaune moi Courez tous à droite, quand j'roule à gauche sur l'trottoir Ma-ma-max de flow, matte ma, matte ma Ma mattraque Magma chauffe Ademo mamama Ca vient de la street ouais J'ai besoin du somme clash</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2240,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>XXXYou might also like</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2257,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>My man, my man, jai une vision amère My man, my man, jai une vision amère Jvois quça parle comme un dimanche Ils tfont tous des messes basses Si tu fumes pas écoute nos sons, tauras la tête dans lespace On vit lmal, nhar Sheitan, cest les coups dfeu qui traisonnent Nul en maths, vu qu'pas besoin dcompter sur les gens quand tes seul Un homme porte ses couilles dans son secteur et dans toutes les ruelles Hors dchez lui, cest plus lmême, là j'parle dhomosexuels Elle cherche un mec, elle veut pas dcelui qui shabille dses soucis Elle a vu lamour dans les boules dcristal qui sort dun costard Gucci Tu lui serres la main, un bon gars, gentil et tout mais pas dargent Timaginais pas quil allait ber-tom après avoir qué-bra la banque Bah tu veux savoir, lui non plus, encore moins qutoi ma gueule Mais bon cétait ça ou laisse crever sa famille ma gueule Wesh ma gueule, wesh ma gueule, sur mon PC jvois qudes biatchs À croire quEve a croqué la pomme dchez Apple Fuck, fuck ceux qui paraissent saints, cest dur si ça paraît simple On vole de nos propres ailes pourtant Dieu sait quon nest pas des anges Jai pas trop l'choix j'ai bicrave tout l'quinquennat dSarkozy Le jour où jvois des singes qui parlent, jaurai trouvé nos sosies No soucy, on est en retard, on nest pas payés à la minute Sors pas ddisquette à un dealer ou il tfait gober la pilule You might also like My man, my man, jai une vision amère, jai une vision amère My man, my man, jai une vision amère, jai une vision amère Comme un aveugle my man, comme un aveugle my man Comme un aveugle my man, avec villa et vue sur la mer Tu veux savoir pourquoi Allah? Tu veux savoir pourquoi jprie ? Même avec la tête dans les nuages on lui arrive pas à lcheville Baise pas à côté dun petit il regardera dans ltrou dla serrure Montre pas qutas dlargent grâce au biz ou il arrêtera ses études Sil reste que des têtes sur lterrain cest parcque ça tacle à la gorge À six heure cest ni lréveil ni lvoisin qui tape à ta porte Végéta, Sangohan featuring deux-deux frères ah ouais Tellement fier que jdonnerais même pas dix eus pour baiser Ayem Jsuis Corse-Algérien, pour lhonneur direct jte crève Sur un drapeau un croissant dLune et sur lautre une tête de khel My man, my man, jai une vision amère Comme un aveugle avec villa et vue sur la mer On est pétés donc on sendort à la pub, à la pub Cest la rue jviens dlà où on préfère voir des petits ponts à un but Swaggy swagga, attitude, rap de gangst, de gangst, de gangst Ravie madame appuye sur play steuplait qujte baise Peace N Lovés musical, biz affolé tu sais quarrive la monnaie eurêka Peace N Lovés uniques, avec moi aucune tasse ne fera du shopping Tes pas contente, rentre toi un gode, au moins tauras une copine Ya quaux States que tu peux voir un maton qui vend des albums Bientôt les surveillants dFleury voudront devenir des rappeurs Ahcheum, Ademo mo-mo-mode déflagration Le cur cassé, ya du taga dans la surface de réparation Passons, jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man Jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man My man, my man, jai une vision amère, jai une vision amère My man, my man, jai une vision amère, jai une vision amère Comme un aveugle my man, comme un aveugle my man Comme un aveugle my man, avec villa et vue sur la mer Passons, jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man Jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man My man, my man, jai une vision amère My man, my man, jai une vision amère My man, my man, jai une vision amère</t>
+          <t>My man, my man, jai une vision amère My man, my man, jai une vision amère Jvois quça parle comme un dimanche Ils tfont tous des messes basses Si tu fumes pas écoute nos sons, tauras la tête dans lespace On vit lmal, nhar Sheitan, cest les coups dfeu qui traisonnent Nul en maths, vu qu'pas besoin dcompter sur les gens quand tes seul Un homme porte ses couilles dans son secteur et dans toutes les ruelles Hors dchez lui, cest plus lmême, là j'parle dhomosexuels Elle cherche un mec, elle veut pas dcelui qui shabille dses soucis Elle a vu lamour dans les boules dcristal qui sort dun costard Gucci Tu lui serres la main, un bon gars, gentil et tout mais pas dargent Timaginais pas quil allait ber-tom après avoir qué-bra la banque Bah tu veux savoir, lui non plus, encore moins qutoi ma gueule Mais bon cétait ça ou laisse crever sa famille ma gueule Wesh ma gueule, wesh ma gueule, sur mon PC jvois qudes biatchs À croire quEve a croqué la pomme dchez Apple Fuck, fuck ceux qui paraissent saints, cest dur si ça paraît simple On vole de nos propres ailes pourtant Dieu sait quon nest pas des anges Jai pas trop l'choix j'ai bicrave tout l'quinquennat dSarkozy Le jour où jvois des singes qui parlent, jaurai trouvé nos sosies No soucy, on est en retard, on nest pas payés à la minute Sors pas ddisquette à un dealer ou il tfait gober la pilule My man, my man, jai une vision amère, jai une vision amère My man, my man, jai une vision amère, jai une vision amère Comme un aveugle my man, comme un aveugle my man Comme un aveugle my man, avec villa et vue sur la mer Tu veux savoir pourquoi Allah? Tu veux savoir pourquoi jprie ? Même avec la tête dans les nuages on lui arrive pas à lcheville Baise pas à côté dun petit il regardera dans ltrou dla serrure Montre pas qutas dlargent grâce au biz ou il arrêtera ses études Sil reste que des têtes sur lterrain cest parcque ça tacle à la gorge À six heure cest ni lréveil ni lvoisin qui tape à ta porte Végéta, Sangohan featuring deux-deux frères ah ouais Tellement fier que jdonnerais même pas dix eus pour baiser Ayem Jsuis Corse-Algérien, pour lhonneur direct jte crève Sur un drapeau un croissant dLune et sur lautre une tête de khel My man, my man, jai une vision amère Comme un aveugle avec villa et vue sur la mer On est pétés donc on sendort à la pub, à la pub Cest la rue jviens dlà où on préfère voir des petits ponts à un but Swaggy swagga, attitude, rap de gangst, de gangst, de gangst Ravie madame appuye sur play steuplait qujte baise Peace N Lovés musical, biz affolé tu sais quarrive la monnaie eurêka Peace N Lovés uniques, avec moi aucune tasse ne fera du shopping Tes pas contente, rentre toi un gode, au moins tauras une copine Ya quaux States que tu peux voir un maton qui vend des albums Bientôt les surveillants dFleury voudront devenir des rappeurs Ahcheum, Ademo mo-mo-mode déflagration Le cur cassé, ya du taga dans la surface de réparation Passons, jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man Jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man My man, my man, jai une vision amère, jai une vision amère My man, my man, jai une vision amère, jai une vision amère Comme un aveugle my man, comme un aveugle my man Comme un aveugle my man, avec villa et vue sur la mer Passons, jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man Jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man My man, my man, jai une vision amère My man, my man, jai une vision amère My man, my man, jai une vision amère</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2274,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Ak-paré Wesh igo, wesh igo C'est zoo Wesh igo, wesh igo Nique sa grand-mère J'rap pour les chard-clo et j't'emmerde Wesh igo, c'est zoo Tchek, tchek 24 balais j'dors déjà avec le calibre Sac de balles c'est mort ou vivre donc faites vos paris Jette l'éponge que si la vaisselle est finie et qu'ça brille Donc j'me lance à 91 contre 1 dans un ring Appelle moi Ademo ceux qui m'aiment m'appellent Tarik J'sais faire deux choses, bicrave et puis rapper ma vie J'suis dans le noir mais j'relativise ma ??? J'me tire d'l'obscurité j'verrai p'têtre mieux la lumière Wesh lahuiss tu parles comme ça t'es un chaud T'as rien compris au lieu d'baisé t'iras t'taper une fellation Perdre son temps ne mène à rien Mais bon faudra bien t'baiser vu qu'tu fais l'malin Wesh ma gueule, j'fais du sale pour pas être dans d'beaux draps J'tire une balle si tu joues des épaules et qu'tu montres tes gros bras Tu cherches des histoire va lire des livres Si t'as plus de souvenir on va faire en sorte qu'ta vie défile Y'a des thunes à faire, des affaires à prendre, des billets à compter Tu pues la merde tu vas pas nous faire attendre ou t'la raconter Si tu jactes sois concret mais dans l'attente ne panique pas N'oublies pas que le silence est un ami qui n'trahis pas La vie n'a pas de valeur à côté d'sa fierté J'met la balle au centre des deux yeux pour t'montrer que j'suis fair-play C'est ma cam c'est ma vibe c'est tard Paris gros Viens t'balade dans ma life avale le bail igo enehhh You might also like Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi Compte pas trop sur tes gars restes sur tes gardes ennemis J'fais plus la diff' ça m'est égal J'te déclare l'amitié d'mes déclaraaa.. Personne veut m'aider j'craque Tu verras la qu'la face des gens quand ils sont morts pétés j'traque Qui t'soutiennent Tu parles, ils veulent te voir arrêter le rap Et t'conseil pour te voir foncer dans l'mur ??? ??? Le ceaumor Tes clips sonores Ta besoin de lui donc laisse un message après le bip sonore Tu r'viendras quand tout les gars d'l'équipe seront morts Ou qu'ils t'auront parier t'auras beau aboyer Ils t'estimeront tant que ... continuera à broyer Qu'est s'tu croyais ? Que j'allais être gentil Te visser mon son avec un peu de chantilly C'est toujours pour les mêmes c'est-à-dire personne Pour nous la mettre faudra faire fort Ler-par, pourquoi si tu fais pas mieux T'es loin d'être avocat mais on peut t'appeler le baveux Tu veux juger qui toi ? T'es pas Dieu Fais pas la morale garde tes conseils, t'es pas pieux Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi</t>
+          <t>Ak-paré Wesh igo, wesh igo C'est zoo Wesh igo, wesh igo Nique sa grand-mère J'rap pour les chard-clo et j't'emmerde Wesh igo, c'est zoo Tchek, tchek 24 balais j'dors déjà avec le calibre Sac de balles c'est mort ou vivre donc faites vos paris Jette l'éponge que si la vaisselle est finie et qu'ça brille Donc j'me lance à 91 contre 1 dans un ring Appelle moi Ademo ceux qui m'aiment m'appellent Tarik J'sais faire deux choses, bicrave et puis rapper ma vie J'suis dans le noir mais j'relativise ma ??? J'me tire d'l'obscurité j'verrai p'têtre mieux la lumière Wesh lahuiss tu parles comme ça t'es un chaud T'as rien compris au lieu d'baisé t'iras t'taper une fellation Perdre son temps ne mène à rien Mais bon faudra bien t'baiser vu qu'tu fais l'malin Wesh ma gueule, j'fais du sale pour pas être dans d'beaux draps J'tire une balle si tu joues des épaules et qu'tu montres tes gros bras Tu cherches des histoire va lire des livres Si t'as plus de souvenir on va faire en sorte qu'ta vie défile Y'a des thunes à faire, des affaires à prendre, des billets à compter Tu pues la merde tu vas pas nous faire attendre ou t'la raconter Si tu jactes sois concret mais dans l'attente ne panique pas N'oublies pas que le silence est un ami qui n'trahis pas La vie n'a pas de valeur à côté d'sa fierté J'met la balle au centre des deux yeux pour t'montrer que j'suis fair-play C'est ma cam c'est ma vibe c'est tard Paris gros Viens t'balade dans ma life avale le bail igo enehhh Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi Compte pas trop sur tes gars restes sur tes gardes ennemis J'fais plus la diff' ça m'est égal J'te déclare l'amitié d'mes déclaraaa.. Personne veut m'aider j'craque Tu verras la qu'la face des gens quand ils sont morts pétés j'traque Qui t'soutiennent Tu parles, ils veulent te voir arrêter le rap Et t'conseil pour te voir foncer dans l'mur ??? ??? Le ceaumor Tes clips sonores Ta besoin de lui donc laisse un message après le bip sonore Tu r'viendras quand tout les gars d'l'équipe seront morts Ou qu'ils t'auront parier t'auras beau aboyer Ils t'estimeront tant que ... continuera à broyer Qu'est s'tu croyais ? Que j'allais être gentil Te visser mon son avec un peu de chantilly C'est toujours pour les mêmes c'est-à-dire personne Pour nous la mettre faudra faire fort Ler-par, pourquoi si tu fais pas mieux T'es loin d'être avocat mais on peut t'appeler le baveux Tu veux juger qui toi ? T'es pas Dieu Fais pas la morale garde tes conseils, t'es pas pieux Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2291,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>XXXYou might also like</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2308,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>XXXYou might also like</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2325,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ici y'a pas d'histoires d'amour à la Twilight Y'a qu'des loups, des vampires... Ici y'a pas d'histoires d'amour à la Twilight Ok Ici y'a pas d'histoires d'amour à la Twilight Y'a des loups, des vampires mais y'a qu'les trans' qui s'transforment la night Tu veux croquer la vie, belek si t'as mal aux dents Quand t'as la dalle, baiser des moches c'est comme manger des pâtes au thon Ça vend de l'herbe... C'est chez nous qu'achète le fleuriste Tu veux du sale ? T'en aura quand t'iras doucher à Fleury L'adrénaline c'est ton kiff, si c'est ça qui t'tente Prends tes risques, va faire l'amour sans capote en Thaïlande Sur Facebook t'as cru trouver ta femme en faisant une douaa Mais dans le côté obscur on a pas écouté Maitre Yoda Dans l'rap que des boloss qui pointent cliquant J'aime Donc j'actualise pour toucher ma thune tah l'ANPE J'vous fais mes vux, j'vous souhaite une bonne année Avec la santé, dans la maison d'arrêt T'as tiré, t'as cru qu'il allait pas être mort Mais fumer tue, c'est écrit même sur ton paquet d'clopes Ils m'disent Tarik tu fous rien, eh t'en a pas marre ? J'leur dis j'suis comme le Sprite, j'les désaltère et c'est déjà pas mal Comme Harry Potter, poto, j'suis un magicien La différence c'est qu'j'vais chez LV et pas chez l'opticien T'as beau écouter, tu comprendras pas mon délire C'est triste, merde les bourges du 16 qui savent lire entre mes lignes Ils m'ont dit la relève du rap a des punchlines qui cognent Écoutes, j'leur ai dit J'mets la 4, si j'veux voir Les Guignols C'est tout You might also like Pour voir les étoiles la huiss, suis quand c'est arabe la miss Yes la patate arrive, tu veux mon blaze ? Tarik Philips Morris dans les poumons, toujours une clope au bec Pâtes aux thons dans la bouche, fourchette dans la douche Dans l'ghetto pas à Saint-Tropez, ouais j'donne pile Met du son, on va leur faire d'façon honnête J'leur détaille ma vie comme j'ai détaille la savonnette Lève ta main si toi aussi tu roules un zdeh dans les gares Si toi aussi t'as pris un pied d'biche pour t'endormir dans des caves Jusqu'au bout un gamin, j'suis prêt à mettre les pendules heeeeen Mec lâche rien, sache que Dieu est avec les endurants C'est la street dans la hess, j'fuck toujours les études Ils connaissent rien donc qui mieux qu'moi peut raconter nos vécus ? L'amour est mort ici J'ai plus l'âge de dire fuck fuck la police La première fois qu'tu m'as vu, j'rabattais des clients d'vant ton lycée Pendant qu't'étais seul en train d'surveiller ta sur Désolé poto mais au heures t'a deschlague ta meuf Caleçon parfumé à la zeb, cocaïne entre les couilles Tout ça pour quitter la sère-mi, j'navigue entre les tours Voit ma vie on l'a met, baise un peu près dans les douzes Wesh alors poto achète avant que les keufs déboulent J'sors du placard, featuring avec cocaïne Du bicarbonate, du coupé-décalé dans ta narine Deux-trois shalgs, 80E l'gramme Sors la came du frigo, mon ex-femme qui te-ma le drame J'dois faire du biff j'dois réussir ou mourrir dans mon bizz L'avenir m'fais pas d'cadeau, mais m'réserve des surprises J'me regarde, j'sais j'suis pas un mec halal Si j'ai juré c'est parce-que l'amour du biff m'avait donné des ailes</t>
+          <t>Ici y'a pas d'histoires d'amour à la Twilight Y'a qu'des loups, des vampires... Ici y'a pas d'histoires d'amour à la Twilight Ok Ici y'a pas d'histoires d'amour à la Twilight Y'a des loups, des vampires mais y'a qu'les trans' qui s'transforment la night Tu veux croquer la vie, belek si t'as mal aux dents Quand t'as la dalle, baiser des moches c'est comme manger des pâtes au thon Ça vend de l'herbe... C'est chez nous qu'achète le fleuriste Tu veux du sale ? T'en aura quand t'iras doucher à Fleury L'adrénaline c'est ton kiff, si c'est ça qui t'tente Prends tes risques, va faire l'amour sans capote en Thaïlande Sur Facebook t'as cru trouver ta femme en faisant une douaa Mais dans le côté obscur on a pas écouté Maitre Yoda Dans l'rap que des boloss qui pointent cliquant J'aime Donc j'actualise pour toucher ma thune tah l'ANPE J'vous fais mes vux, j'vous souhaite une bonne année Avec la santé, dans la maison d'arrêt T'as tiré, t'as cru qu'il allait pas être mort Mais fumer tue, c'est écrit même sur ton paquet d'clopes Ils m'disent Tarik tu fous rien, eh t'en a pas marre ? J'leur dis j'suis comme le Sprite, j'les désaltère et c'est déjà pas mal Comme Harry Potter, poto, j'suis un magicien La différence c'est qu'j'vais chez LV et pas chez l'opticien T'as beau écouter, tu comprendras pas mon délire C'est triste, merde les bourges du 16 qui savent lire entre mes lignes Ils m'ont dit la relève du rap a des punchlines qui cognent Écoutes, j'leur ai dit J'mets la 4, si j'veux voir Les Guignols C'est tout Pour voir les étoiles la huiss, suis quand c'est arabe la miss Yes la patate arrive, tu veux mon blaze ? Tarik Philips Morris dans les poumons, toujours une clope au bec Pâtes aux thons dans la bouche, fourchette dans la douche Dans l'ghetto pas à Saint-Tropez, ouais j'donne pile Met du son, on va leur faire d'façon honnête J'leur détaille ma vie comme j'ai détaille la savonnette Lève ta main si toi aussi tu roules un zdeh dans les gares Si toi aussi t'as pris un pied d'biche pour t'endormir dans des caves Jusqu'au bout un gamin, j'suis prêt à mettre les pendules heeeeen Mec lâche rien, sache que Dieu est avec les endurants C'est la street dans la hess, j'fuck toujours les études Ils connaissent rien donc qui mieux qu'moi peut raconter nos vécus ? L'amour est mort ici J'ai plus l'âge de dire fuck fuck la police La première fois qu'tu m'as vu, j'rabattais des clients d'vant ton lycée Pendant qu't'étais seul en train d'surveiller ta sur Désolé poto mais au heures t'a deschlague ta meuf Caleçon parfumé à la zeb, cocaïne entre les couilles Tout ça pour quitter la sère-mi, j'navigue entre les tours Voit ma vie on l'a met, baise un peu près dans les douzes Wesh alors poto achète avant que les keufs déboulent J'sors du placard, featuring avec cocaïne Du bicarbonate, du coupé-décalé dans ta narine Deux-trois shalgs, 80E l'gramme Sors la came du frigo, mon ex-femme qui te-ma le drame J'dois faire du biff j'dois réussir ou mourrir dans mon bizz L'avenir m'fais pas d'cadeau, mais m'réserve des surprises J'me regarde, j'sais j'suis pas un mec halal Si j'ai juré c'est parce-que l'amour du biff m'avait donné des ailes</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2342,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ademo, Guizmo, tu connais pas, tu connais rien Pour mes vrais gars gros Ceux qui savent c'que c'est qu'la hess, qui connaissent ça SD prod', négro Rappelle-toi d'ça L'entourage petit J't'appelle petit même si j'ai 20 ans parce que je rappe mieux que toi Écoute-moi, yo, yo J'suis avec mes types en bas d'la tess Y'en a qui emballent la cess, y'en a qui squattent la calèche Alors vite envoie de la fraiche Les à la dèche, y'en a par dessus la tête Il faut pas que tu t'la pète, tous mes di-ban crament la zep' J'me méfie quand un client parle affaires J'peux pas vesqui la perquise en filant par la fenêtre, bah ouais J'habite au 12ème étage, et toutes ces pédales ne font que braquer ou canner ou boucler mes cailles Mais j'ai tous les détails Et je sais c'qu'ils veulent des peines qui pleuvent, et la guerre afin de shooter les balles C'est fou et c'est naze me diront ceux qui connaissent pas le truc mais jouent les bé-chtar Et moi je te rentre mon projet par l'uc, et c'est la merde dans mon coin Y'a de la haine dans mon point, d'la pillave dans ma 'teille et d'la zep' dans mon joint La bicrave dans la tess, la niaks en cachette, la liasse quand t'achètes ouais, les mecs en ont besoin Mais là où c'est gris et triste ça vend poudre et shit, ça goom les flics donc j'rappe que des couplets tristes Et où j'écris, y'a pas d'sentiments Ouais, on s'parle gentillement, mais on s'tappe presque toutes les nuits C'est fou des fois, j'deal pour des fafs et je en m'demandant c'que les poulets savent Mais c'est un mode de vie, avec des codes de rue Fuck despi les grosses tepus, ouais c'est notre devise Moi, j'veux un stock de tise, et un pochtar de zep Pour oublier qu'ma i-v n'est qu'un cauchemar de merde You might also like Ademo, Guizmo 9-4, 9-1, 9-2, brrra</t>
+          <t>Ademo, Guizmo, tu connais pas, tu connais rien Pour mes vrais gars gros Ceux qui savent c'que c'est qu'la hess, qui connaissent ça SD prod', négro Rappelle-toi d'ça L'entourage petit J't'appelle petit même si j'ai 20 ans parce que je rappe mieux que toi Écoute-moi, yo, yo J'suis avec mes types en bas d'la tess Y'en a qui emballent la cess, y'en a qui squattent la calèche Alors vite envoie de la fraiche Les à la dèche, y'en a par dessus la tête Il faut pas que tu t'la pète, tous mes di-ban crament la zep' J'me méfie quand un client parle affaires J'peux pas vesqui la perquise en filant par la fenêtre, bah ouais J'habite au 12ème étage, et toutes ces pédales ne font que braquer ou canner ou boucler mes cailles Mais j'ai tous les détails Et je sais c'qu'ils veulent des peines qui pleuvent, et la guerre afin de shooter les balles C'est fou et c'est naze me diront ceux qui connaissent pas le truc mais jouent les bé-chtar Et moi je te rentre mon projet par l'uc, et c'est la merde dans mon coin Y'a de la haine dans mon point, d'la pillave dans ma 'teille et d'la zep' dans mon joint La bicrave dans la tess, la niaks en cachette, la liasse quand t'achètes ouais, les mecs en ont besoin Mais là où c'est gris et triste ça vend poudre et shit, ça goom les flics donc j'rappe que des couplets tristes Et où j'écris, y'a pas d'sentiments Ouais, on s'parle gentillement, mais on s'tappe presque toutes les nuits C'est fou des fois, j'deal pour des fafs et je en m'demandant c'que les poulets savent Mais c'est un mode de vie, avec des codes de rue Fuck despi les grosses tepus, ouais c'est notre devise Moi, j'veux un stock de tise, et un pochtar de zep Pour oublier qu'ma i-v n'est qu'un cauchemar de merde Ademo, Guizmo 9-4, 9-1, 9-2, brrra</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2359,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Aïe, Son des Halls Ademo, N.O.S, Moraki, RKM 1décis, D-A-2-S-O 9-4, 9-1, 7-8 Kho Brrrra On vi-ser e bas du bloc C C'est la dèche dépêche C'est l'son des halls c'est trop technique Soit pas con, RKM viens traumatiser les autres Ouais sors de l'ombre, Que pour poser dans les studios Brrra N'oublie surtout pas 2008, Le Rap est à nous même si il a l'tétanos A cause des MC, Prod sur Soprano C'est pour les frères qui lâche le terrain Juste pour pisser mon joint C'est passe moi ton bri-briquet Chez moi ça crie-criquet J'reviens allumer la foule Représente Maint'nant t'es prév'nu Si tu m'voit c'est pour les sous J'ai trop d'souci Tar tar Tarterêts, 91-94 Pour les mecs déter, pour les frères de tess On vit dans des ghettos c'est pour ça c'est la hess Pour mon pote Ademo You might also like Banlieue banlieue ouais pour le X Qui peut te mettre la fiche test, mother fucker dick petite bitch Y'a pas de baise mais encore moins d'King dans ma street Tu te la pête t'es qu'une mother fucker pute de ma street Si l'on disapche le virus Le scoth sur les bouches le Hascich A l'heure qu'il est ce n'est pas sur les meilleurs que les majeurs J'rappe intensément perfide, pour les faux qui se travestissent Mon blaze c'est 1déçis, j'vais remettre les pendules à l'heure Faire taire tous les amateurs, agresser mes détracteurs de la rue avec que celle-ci nous dessine Sans savoir à quoi ce me prédestine Prêcheur de rap conscient, j'ai l'écriture qui fascine A l'heure où les faux MC's abusent de la rime facile Ademo Son des Halls, écartez vous de mon flow récidive Que dire des textes d'artistes qui passent leur temps à sucer Leur propos comme leurs valeurs s'estompent sous le poids du succès J'ai la rime démoniaque petit appelle moi Les auditeurs je persécute, écris mon mic je perpétue tu perçois le degrés d'application, c'est comme ça que j'honore le but d'une invitation Tu veux du lourd ? Mais mets-toi bien, elle veut mon zboob mais mets-toi bien Z Z Z deux O, ça te pète les os Inchall'Allah on vas survivre, je ne te fait pas de promesses On a un pied dans la tombe et l'autre sur une savonnette On vas grailler seulement si Dieu le veut fou le feu Appelle-moi l'C l'C4, le re-reél gars, l'vrai gars-démon L'me-l'mec qu'a des bombes, check-check Ademo J'suis qui moi, mais qui m'appelle, la zère-mi à l'appel Si l'rap est mort c'est qu'y a mes mains au bout d'sa pelle Y a trop d'pédés-pédés gros, j'mets des gros doigts aux P.Diddy et aux fédé-fédéraux Le son des Hall-Hall, nique les bolosses allez J'vise les molaires, pas les ? Y a qu'des malades qui m'épaulent Maintenant c'est qui qui fait les bailles ?</t>
+          <t>Aïe, Son des Halls Ademo, N.O.S, Moraki, RKM 1décis, D-A-2-S-O 9-4, 9-1, 7-8 Kho Brrrra On vi-ser e bas du bloc C C'est la dèche dépêche C'est l'son des halls c'est trop technique Soit pas con, RKM viens traumatiser les autres Ouais sors de l'ombre, Que pour poser dans les studios Brrra N'oublie surtout pas 2008, Le Rap est à nous même si il a l'tétanos A cause des MC, Prod sur Soprano C'est pour les frères qui lâche le terrain Juste pour pisser mon joint C'est passe moi ton bri-briquet Chez moi ça crie-criquet J'reviens allumer la foule Représente Maint'nant t'es prév'nu Si tu m'voit c'est pour les sous J'ai trop d'souci Tar tar Tarterêts, 91-94 Pour les mecs déter, pour les frères de tess On vit dans des ghettos c'est pour ça c'est la hess Pour mon pote Ademo Banlieue banlieue ouais pour le X Qui peut te mettre la fiche test, mother fucker dick petite bitch Y'a pas de baise mais encore moins d'King dans ma street Tu te la pête t'es qu'une mother fucker pute de ma street Si l'on disapche le virus Le scoth sur les bouches le Hascich A l'heure qu'il est ce n'est pas sur les meilleurs que les majeurs J'rappe intensément perfide, pour les faux qui se travestissent Mon blaze c'est 1déçis, j'vais remettre les pendules à l'heure Faire taire tous les amateurs, agresser mes détracteurs de la rue avec que celle-ci nous dessine Sans savoir à quoi ce me prédestine Prêcheur de rap conscient, j'ai l'écriture qui fascine A l'heure où les faux MC's abusent de la rime facile Ademo Son des Halls, écartez vous de mon flow récidive Que dire des textes d'artistes qui passent leur temps à sucer Leur propos comme leurs valeurs s'estompent sous le poids du succès J'ai la rime démoniaque petit appelle moi Les auditeurs je persécute, écris mon mic je perpétue tu perçois le degrés d'application, c'est comme ça que j'honore le but d'une invitation Tu veux du lourd ? Mais mets-toi bien, elle veut mon zboob mais mets-toi bien Z Z Z deux O, ça te pète les os Inchall'Allah on vas survivre, je ne te fait pas de promesses On a un pied dans la tombe et l'autre sur une savonnette On vas grailler seulement si Dieu le veut fou le feu Appelle-moi l'C l'C4, le re-reél gars, l'vrai gars-démon L'me-l'mec qu'a des bombes, check-check Ademo J'suis qui moi, mais qui m'appelle, la zère-mi à l'appel Si l'rap est mort c'est qu'y a mes mains au bout d'sa pelle Y a trop d'pédés-pédés gros, j'mets des gros doigts aux P.Diddy et aux fédé-fédéraux Le son des Hall-Hall, nique les bolosses allez J'vise les molaires, pas les ? Y a qu'des malades qui m'épaulent Maintenant c'est qui qui fait les bailles ?</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2376,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Rudeboyz Golden Mindz Maluma, baby Dicen por ahí que de amor nadie se muere Ajá Pero yo me siento que bajé al infierno una y mil veces Yeah También dice mi padre que uno tiene lo que se merece Despué' de estar contigo comprobé que no hay refrán que pese Dice De qué sirve entregarlo todo, si te pagan de esta manera? Por qué nunca dijiste que había otro, pa' evitar amargura y penas? Y me hago daño al mirarte en Instagram Nunca pensaste ni en disimular Al menos hubiera' esperado un poco Te valió mierda ver mi cora roto Tú sabes Obvio que me duele que no estás Si antes bebía, hoy estoy tomando más Me estoy tratando de limpiar y no me da No encuentra un detox y cura a esta enfermedad De amores Es lo que uno siente cuando el amor no es correspondido Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido Por ti yo lo he vivido Baby Mal de amores Es lo que uno siente cuando el amor no es correspondido Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido Por ti yo lo he vivido Okey, baby You might also like Gracias por nada Eran verdad mis corazonadas Cuando llegabas tarde en la madrugada Wuh Oliendo a cigarro y tú que no fumabas Baby Eran mentiras que yo me aguantaba Ah Pa' seguir contigo no te las cantaba Además tus parcerita' son un combo 'e doblada' Haciéndote el cruce pa' que no te pillara, oh To' lo que publica' no lo creo No, no Foto' vemo', relacione' no sabemo' El karma está en tu contra y sé que la va' a pasar feo Pero te quise tanto que hasta el bien yo te deseo Y me hago daño al mirarte en Instagram Nunca pensaste ni en disimular Al menos hubiera' esperado un poco Te valió mierda ver mi cora roto Obvio que me duele que no estás Si antes bebía, hoy estoy tomando más Me estoy tratando de limpiar y no me da No encuentra un detox y cura a esta enfermedad De amores Es lo que uno siente cuando el amor no es correspondido No-oh Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido Por ti yo lo he vivido Baby Mal de amores Es lo que uno siente cuando el amor no es correspondido Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido No Por ti yo lo he vivido Por ti yo lo he vivido</t>
+          <t>Rudeboyz Golden Mindz Maluma, baby Dicen por ahí que de amor nadie se muere Ajá Pero yo me siento que bajé al infierno una y mil veces Yeah También dice mi padre que uno tiene lo que se merece Despué' de estar contigo comprobé que no hay refrán que pese Dice De qué sirve entregarlo todo, si te pagan de esta manera? Por qué nunca dijiste que había otro, pa' evitar amargura y penas? Y me hago daño al mirarte en Instagram Nunca pensaste ni en disimular Al menos hubiera' esperado un poco Te valió mierda ver mi cora roto Tú sabes Obvio que me duele que no estás Si antes bebía, hoy estoy tomando más Me estoy tratando de limpiar y no me da No encuentra un detox y cura a esta enfermedad De amores Es lo que uno siente cuando el amor no es correspondido Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido Por ti yo lo he vivido Baby Mal de amores Es lo que uno siente cuando el amor no es correspondido Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido Por ti yo lo he vivido Okey, baby Gracias por nada Eran verdad mis corazonadas Cuando llegabas tarde en la madrugada Wuh Oliendo a cigarro y tú que no fumabas Baby Eran mentiras que yo me aguantaba Ah Pa' seguir contigo no te las cantaba Además tus parcerita' son un combo 'e doblada' Haciéndote el cruce pa' que no te pillara, oh To' lo que publica' no lo creo No, no Foto' vemo', relacione' no sabemo' El karma está en tu contra y sé que la va' a pasar feo Pero te quise tanto que hasta el bien yo te deseo Y me hago daño al mirarte en Instagram Nunca pensaste ni en disimular Al menos hubiera' esperado un poco Te valió mierda ver mi cora roto Obvio que me duele que no estás Si antes bebía, hoy estoy tomando más Me estoy tratando de limpiar y no me da No encuentra un detox y cura a esta enfermedad De amores Es lo que uno siente cuando el amor no es correspondido No-oh Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido Por ti yo lo he vivido Baby Mal de amores Es lo que uno siente cuando el amor no es correspondido Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido No Por ti yo lo he vivido Por ti yo lo he vivido</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2393,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Yeah, yeah Le Son des halls mixtape 2008, yeah, 2009 Le rap a pris une vitesse, ok, j'passe la huitième Paname, on est àl, prépare l'aspirine avant la migraine J'veux la victoire, avec un rêve dans la tête Tu veux pas d'histoires ? Mets pas ta graine dans la mienne J'me tâte, que t'aimes ou t'aimes pas, t'écoutes gars Dans ce rap en mode baseball, ils mettent le vent, moi j'mets des coups de batte 2008, mixtape Le Son des halls 2010, on sera mille têtes à rugir du fond des eaux Hé dé-dé-débile, mon dé-dé-mépi Dé-dé-dé-débit, j'vends des-des-des pills J'ai la phrase qui frise, le ciel écrase et brise ta glace Qui crispe, j'entrave, l'écrit est grave de mon le-sty Mon blase rime au style qui bave Ademo 2-0-0-8 Man j'te montre ma comète, matte le ton de ma colère C'est Madmax, c'est XXX qui marque, ma plume n'a pas le sommeil J'ai mal-mal pardonné, ma marche écrase au nez Mama j'ai mal tourné, j'croyais XXX Votre rap comme un indic, j'le monte ou j'le descends ?? c't'année, Ademo est chaud même en décembre J'ai trop la fait la merde ça rend méchant Tu parles de flow c'est la guerre mec, t'inquiètes pas pour moi j'suis dans les temps You might also like Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est bon, j'ai-j'ai bombé bon pour mieux plomber l'son, bon 0-0-8 y aura pas d'plan B ça fait check parfait Impossible d'être, parfait le rêve, passé Me dis pas d'faire, la paix On f'ra tout pour faire croquer la mif et les frères Nous on veut juste manger, plus vendre le shit mais des teilles Mets des tonnes de baffes, base, pesé au milligramme Essonne, Val-de-Marne, trop speed trop bi-bizarre C'est sale, va d'mander comment on finit mal Et comme v'là l'baille Ademo au style mitraille R-r-r-rage, r-r-r-rare, r-r-rafale, sur la tess, r-r-radieuse Fais la pa, fais la pa, fais la passe à personne Fais la pas, fais la, fais la pas, fais la pas la peine Fais la pa, fais la, fais la pa, fais la part des choses Fais, fais la, fais, fais la plage Ademo On a tous un souhait, prions pour l'réaliser Que Dieu m'entende, j'tue l'arbitre avant qu'il vienne me pénaliser J'sais qu'survivre, j'veux vivre, simplement de thunes Le monde un scorpion car pour atteindre le bonheur ici la queue te tue Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est pour mes gros à la recherche de poitrines aussi grosses que Loana Voilà la face la plus connue d'Ademo j'suis trop alarmant Peu d'vocabulaire, le cocard suprême J'ai vodka jus d'pêche pour ta gueule pose ta bouteille Un putain d'morceau, amorcé, mort-vivant Pas d'temps mort ok, j'ai mis mes boules à l'hameçon et vous mordez J'écris sur une boîte de pharmacie et y a pas d'mal Car dans ma vie y a c'que j'mange et c'que j'porte qui n'a pas d'marque J'rap pour les S-SDF, les mecs-mecs déter Qui niquent les profs, les keufs fraudent la S-SNCF Qui check-check les rêvent, qui baisent baisent les traîtres Millions d'paroles, ceux qui restent-restent les mêmes J'prouve prouve grave grave ... Coup de coup de crasse crasse j'goume j'goume crade crade Se fout de se fout de ce rap bouge de bouge de là vieux ... ta gueule 2008 Parce que faut tomber les pommes pour enfin voir les étoiles Le Son des Hall mixtape S't'euplé, bouche les oreilles d'ton gosse et raconte-lui une histoire Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais1</t>
+          <t>Yeah, yeah Le Son des halls mixtape 2008, yeah, 2009 Le rap a pris une vitesse, ok, j'passe la huitième Paname, on est àl, prépare l'aspirine avant la migraine J'veux la victoire, avec un rêve dans la tête Tu veux pas d'histoires ? Mets pas ta graine dans la mienne J'me tâte, que t'aimes ou t'aimes pas, t'écoutes gars Dans ce rap en mode baseball, ils mettent le vent, moi j'mets des coups de batte 2008, mixtape Le Son des halls 2010, on sera mille têtes à rugir du fond des eaux Hé dé-dé-débile, mon dé-dé-mépi Dé-dé-dé-débit, j'vends des-des-des pills J'ai la phrase qui frise, le ciel écrase et brise ta glace Qui crispe, j'entrave, l'écrit est grave de mon le-sty Mon blase rime au style qui bave Ademo 2-0-0-8 Man j'te montre ma comète, matte le ton de ma colère C'est Madmax, c'est XXX qui marque, ma plume n'a pas le sommeil J'ai mal-mal pardonné, ma marche écrase au nez Mama j'ai mal tourné, j'croyais XXX Votre rap comme un indic, j'le monte ou j'le descends ?? c't'année, Ademo est chaud même en décembre J'ai trop la fait la merde ça rend méchant Tu parles de flow c'est la guerre mec, t'inquiètes pas pour moi j'suis dans les temps Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est bon, j'ai-j'ai bombé bon pour mieux plomber l'son, bon 0-0-8 y aura pas d'plan B ça fait check parfait Impossible d'être, parfait le rêve, passé Me dis pas d'faire, la paix On f'ra tout pour faire croquer la mif et les frères Nous on veut juste manger, plus vendre le shit mais des teilles Mets des tonnes de baffes, base, pesé au milligramme Essonne, Val-de-Marne, trop speed trop bi-bizarre C'est sale, va d'mander comment on finit mal Et comme v'là l'baille Ademo au style mitraille R-r-r-rage, r-r-r-rare, r-r-rafale, sur la tess, r-r-radieuse Fais la pa, fais la pa, fais la passe à personne Fais la pas, fais la, fais la pas, fais la pas la peine Fais la pa, fais la, fais la pa, fais la part des choses Fais, fais la, fais, fais la plage Ademo On a tous un souhait, prions pour l'réaliser Que Dieu m'entende, j'tue l'arbitre avant qu'il vienne me pénaliser J'sais qu'survivre, j'veux vivre, simplement de thunes Le monde un scorpion car pour atteindre le bonheur ici la queue te tue Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est pour mes gros à la recherche de poitrines aussi grosses que Loana Voilà la face la plus connue d'Ademo j'suis trop alarmant Peu d'vocabulaire, le cocard suprême J'ai vodka jus d'pêche pour ta gueule pose ta bouteille Un putain d'morceau, amorcé, mort-vivant Pas d'temps mort ok, j'ai mis mes boules à l'hameçon et vous mordez J'écris sur une boîte de pharmacie et y a pas d'mal Car dans ma vie y a c'que j'mange et c'que j'porte qui n'a pas d'marque J'rap pour les S-SDF, les mecs-mecs déter Qui niquent les profs, les keufs fraudent la S-SNCF Qui check-check les rêvent, qui baisent baisent les traîtres Millions d'paroles, ceux qui restent-restent les mêmes J'prouve prouve grave grave ... Coup de coup de crasse crasse j'goume j'goume crade crade Se fout de se fout de ce rap bouge de bouge de là vieux ... ta gueule 2008 Parce que faut tomber les pommes pour enfin voir les étoiles Le Son des Hall mixtape S't'euplé, bouche les oreilles d'ton gosse et raconte-lui une histoire Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais1</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2410,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Dis à ton pote dpas faire le chaud De npas nous regarder en boîtant N.O.S et Dirty sont durs à contrôler poto va-ten Toujours un shlass dans la manche Wolverine me dit qujsuis pas tendre Fuck ta bande grosse tapin on tapporte le beat en tapant Ta meuf nous aime, elle fait du bruit quand cest calme Maintenant tu lsais ya pas quVan damme qui sait faire le grand-écart Dis à tous les zéros quon va les déposer en Suisse Arrêtez dlécher nos culs, on va vous proposer nos Tes habillé en Prada, Gucci, tas dla thune, tas la cote Une question lami pourquoi quand tu mvois tu mtacles des clopes ? Tas une BM mais ta reum fait ses courses à pied Tu sais qujparle de toi alors tu bouges encore plus ta tête On a des pêchés pourtant on est lessivés Miss tes si belle, arrête de jouir, là tu dépasses les décibels 9-1, que des Mowgli, et Tarzan dans lpérimètre Nous on inspire, les autres expirent, et donc finissent périmés Yen a besoin, donc jleur donne ma do-dose Jleur donne ma do-dose, verre de Jack dans la peau Sers-moi un autre, il mfaut ma do-dose Que les biff coulent à flot, que lon deale dans la zo-one Ton dealer dit ya foye, tinquiète pas quchez nous igo tauras ta dose You might also like On est durs à griller comme des litrons dans la poussette On stape des barreaux et les poukaves se barrent à Pucket Les putes qui font les hlel, dis-leur toz Si elles voient pas dmec elles te trompent avec un sex-toys Car elle veut sa do-dose, cest marqué sur son gloss Son mec tourne au hebs, elle fait tourner Son corps plus vite que son phone, bref Tiens ma dose, en grammes, en grammaire Tu veux du son ? Tu veux dla zeb ? On tlattrape, on tlamène MC, jte mets en cloque, coup dcouteau dans tes enceintes Je suis ton père, tes trop nouveau pour faire lan-ien-c Clic clic, cest pas un gun, cest lbruit dta souris Petite bitch retourne dans lporno, tu portes plainte sous X En cellule pompes, Ricoré tient lcafé Igo tu connais comme tes poneys, on tourne dans larène Yen a besoin, donc jleur donne ma do-dose Jleur donne ma do-dose, verre de Jack dans la peau Sers-moi un autre, il mfaut ma do-dose Que les biff coulent à flot, que lon deale dans la zo-one Ton dealer dit ya foye, tinquiète pas quchez nous igo tauras ta dose Ils veulent décrocher dma, ils veulent décrocher dma dose Ils veulent décrocher dma, ils veulent décrocher dma dose Ils veulent décrocher dma dose, cest pas possible, laisse-les Si tessayes doublier, mon son va tle rappeler comme le respect Peace N Lovés Musik, dis à Fif quil pourra pas longtemps nous oublier du site Car il veut sa do-dose, ils veulent tous leur dose gros Jveux die dans ma baignoire, mais jesquive les Claudettes À cause delles tu finis claudo Yen a besoin, donc jleur donne ma do-dose Jleur donne ma do-dose, verre de Jack dans la peau Sers-moi un autre, il mfaut ma do-dose Que les biff coulent à flot, que lon deale dans la zo-one Ton dealer dit ya foye, tinquiète pas quchez nous igo tauras ta dose</t>
+          <t>Dis à ton pote dpas faire le chaud De npas nous regarder en boîtant N.O.S et Dirty sont durs à contrôler poto va-ten Toujours un shlass dans la manche Wolverine me dit qujsuis pas tendre Fuck ta bande grosse tapin on tapporte le beat en tapant Ta meuf nous aime, elle fait du bruit quand cest calme Maintenant tu lsais ya pas quVan damme qui sait faire le grand-écart Dis à tous les zéros quon va les déposer en Suisse Arrêtez dlécher nos culs, on va vous proposer nos Tes habillé en Prada, Gucci, tas dla thune, tas la cote Une question lami pourquoi quand tu mvois tu mtacles des clopes ? Tas une BM mais ta reum fait ses courses à pied Tu sais qujparle de toi alors tu bouges encore plus ta tête On a des pêchés pourtant on est lessivés Miss tes si belle, arrête de jouir, là tu dépasses les décibels 9-1, que des Mowgli, et Tarzan dans lpérimètre Nous on inspire, les autres expirent, et donc finissent périmés Yen a besoin, donc jleur donne ma do-dose Jleur donne ma do-dose, verre de Jack dans la peau Sers-moi un autre, il mfaut ma do-dose Que les biff coulent à flot, que lon deale dans la zo-one Ton dealer dit ya foye, tinquiète pas quchez nous igo tauras ta dose On est durs à griller comme des litrons dans la poussette On stape des barreaux et les poukaves se barrent à Pucket Les putes qui font les hlel, dis-leur toz Si elles voient pas dmec elles te trompent avec un sex-toys Car elle veut sa do-dose, cest marqué sur son gloss Son mec tourne au hebs, elle fait tourner Son corps plus vite que son phone, bref Tiens ma dose, en grammes, en grammaire Tu veux du son ? Tu veux dla zeb ? On tlattrape, on tlamène MC, jte mets en cloque, coup dcouteau dans tes enceintes Je suis ton père, tes trop nouveau pour faire lan-ien-c Clic clic, cest pas un gun, cest lbruit dta souris Petite bitch retourne dans lporno, tu portes plainte sous X En cellule pompes, Ricoré tient lcafé Igo tu connais comme tes poneys, on tourne dans larène Yen a besoin, donc jleur donne ma do-dose Jleur donne ma do-dose, verre de Jack dans la peau Sers-moi un autre, il mfaut ma do-dose Que les biff coulent à flot, que lon deale dans la zo-one Ton dealer dit ya foye, tinquiète pas quchez nous igo tauras ta dose Ils veulent décrocher dma, ils veulent décrocher dma dose Ils veulent décrocher dma, ils veulent décrocher dma dose Ils veulent décrocher dma dose, cest pas possible, laisse-les Si tessayes doublier, mon son va tle rappeler comme le respect Peace N Lovés Musik, dis à Fif quil pourra pas longtemps nous oublier du site Car il veut sa do-dose, ils veulent tous leur dose gros Jveux die dans ma baignoire, mais jesquive les Claudettes À cause delles tu finis claudo Yen a besoin, donc jleur donne ma do-dose Jleur donne ma do-dose, verre de Jack dans la peau Sers-moi un autre, il mfaut ma do-dose Que les biff coulent à flot, que lon deale dans la zo-one Ton dealer dit ya foye, tinquiète pas quchez nous igo tauras ta dose</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2427,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>L'argent se fait rare tout est en Peu je le présente, dur de se détendre Comme prendre le soleil de Paris en décembre Ca baise des neuch' qui savent qu'il y a pas de calins Tu recevras pas le yoyo tant que tu tendras pas ta main Je marche dans la rue, la rue, la rue, la lune elle m'aime Pas confiance aux 'tasses vu que ça travaille à la chienne Mec faut pas mettre la charrue avant la beuh Une balle dans la tête, évite les représailles d'une balle dans la beuj 91 n'da je rentre ma bite dans ta dame Comme un semi t'inquiètes pas, je rentre grecs-frites et taga Poto les matons ont les clés comme Passe-partout La vie m'a fait marron comme un ? Un tas de chiens si on pèse le poids de la iv' Ca s'abstient le mois du Ramadan puis ça baise le soir de l'Aïd Des égarés poto, c'est dar c'est tout On peut pas donner nos fesses quand on y cale des douze Ademo un-deux un-deux test le shit, s'il est bon t'inquiète pas on pète le kil' Casse-pipe, on charbonise, risque nos vies pour un peu de dollar Ne compare ni à Rohff ni à Booba nous on se clash pas comme des connards Élevé dans l'honneur ça tire pour le principe Insulte la daronne gros on te la rentre sans vaseline Tu peux rapper avec ton équipe je vous la mets ta3 Maradona Les jaloux vont maigrir comme Madonna Yes ma gueule, on souffre sur le terrain l'hiver, les pieds gelés détaille avec les mains froides On a des feuilles mais pour trouver des nouveaux iencli' à visser On demande si t'as pas des massa Gros calculer les meufs c'est perdre beaucoup d'argent A part si elle vient de loin, de Pologne ou que de l'est est son accent Né dans ce monde avec la dalle, je baise l'instru', le mac' me dit encore 2 minutes avec la femme T'es entre le mal et le bien, moi je vois pas le bien du tout Je suis entre un poto qui roule du shit et une putain qui roule du boule Igo je te jure c'est compliqué, j'ai fait le mal pour le bien dis moi comment je vais m'expliquer ? Fuck le proc', fuck la juge, ils paieront plus que moi Quand je sors je suis comme mon zgeg je suis encore plus dur renoi Breffons, j'évite le regard des pédés, elle est hlel elle est belle mais elle pense qu'à baiser Non j'oublie pas, t'oublies pas quand t'as galéré Je baise pas le rap je lui fais l'amour et poto m'en veux pas de l'aimer Donne nous un concert on le soulève, si ça part de nous c'est pas à cause d'un Wesh Souley Si j'ai une pièce je donne à celui qui crève la dalle Ici quand tu rends service on te rend le service de nadal Kassded' aux frères au placard qui regardent Homer Je mets la pression, attention avec un baromètre Hé l'ingé' mixe-moi bien le son et fais-moi du lourd Chez nous on dit Hamdoullah quand un poulet sort du four La vie est sombre, du mal à avoir de l'ambition Je peux pas chanter Nabi-Nabilla même sous Jack et sous pilon Un jour comme un tigre ou cent ans comme un mouton ? Si un jour j'oublie les miens que Dieu appuie sur le bouton Remplis ton facebook, je dois remplir ma CB J'crois pas aux contes de fées, igo je crois aux comptes à régler Alors maintenant, bien ou bien ? Mon son c'est comme le visage d'un mort, tu t'en souviens Dernière Phillip et j'aurai terminé salement Pas antisémite mais je veux ma villa avec un dog allemand MARADONAYou might also like</t>
+          <t>L'argent se fait rare tout est en Peu je le présente, dur de se détendre Comme prendre le soleil de Paris en décembre Ca baise des neuch' qui savent qu'il y a pas de calins Tu recevras pas le yoyo tant que tu tendras pas ta main Je marche dans la rue, la rue, la rue, la lune elle m'aime Pas confiance aux 'tasses vu que ça travaille à la chienne Mec faut pas mettre la charrue avant la beuh Une balle dans la tête, évite les représailles d'une balle dans la beuj 91 n'da je rentre ma bite dans ta dame Comme un semi t'inquiètes pas, je rentre grecs-frites et taga Poto les matons ont les clés comme Passe-partout La vie m'a fait marron comme un ? Un tas de chiens si on pèse le poids de la iv' Ca s'abstient le mois du Ramadan puis ça baise le soir de l'Aïd Des égarés poto, c'est dar c'est tout On peut pas donner nos fesses quand on y cale des douze Ademo un-deux un-deux test le shit, s'il est bon t'inquiète pas on pète le kil' Casse-pipe, on charbonise, risque nos vies pour un peu de dollar Ne compare ni à Rohff ni à Booba nous on se clash pas comme des connards Élevé dans l'honneur ça tire pour le principe Insulte la daronne gros on te la rentre sans vaseline Tu peux rapper avec ton équipe je vous la mets ta3 Maradona Les jaloux vont maigrir comme Madonna Yes ma gueule, on souffre sur le terrain l'hiver, les pieds gelés détaille avec les mains froides On a des feuilles mais pour trouver des nouveaux iencli' à visser On demande si t'as pas des massa Gros calculer les meufs c'est perdre beaucoup d'argent A part si elle vient de loin, de Pologne ou que de l'est est son accent Né dans ce monde avec la dalle, je baise l'instru', le mac' me dit encore 2 minutes avec la femme T'es entre le mal et le bien, moi je vois pas le bien du tout Je suis entre un poto qui roule du shit et une putain qui roule du boule Igo je te jure c'est compliqué, j'ai fait le mal pour le bien dis moi comment je vais m'expliquer ? Fuck le proc', fuck la juge, ils paieront plus que moi Quand je sors je suis comme mon zgeg je suis encore plus dur renoi Breffons, j'évite le regard des pédés, elle est hlel elle est belle mais elle pense qu'à baiser Non j'oublie pas, t'oublies pas quand t'as galéré Je baise pas le rap je lui fais l'amour et poto m'en veux pas de l'aimer Donne nous un concert on le soulève, si ça part de nous c'est pas à cause d'un Wesh Souley Si j'ai une pièce je donne à celui qui crève la dalle Ici quand tu rends service on te rend le service de nadal Kassded' aux frères au placard qui regardent Homer Je mets la pression, attention avec un baromètre Hé l'ingé' mixe-moi bien le son et fais-moi du lourd Chez nous on dit Hamdoullah quand un poulet sort du four La vie est sombre, du mal à avoir de l'ambition Je peux pas chanter Nabi-Nabilla même sous Jack et sous pilon Un jour comme un tigre ou cent ans comme un mouton ? Si un jour j'oublie les miens que Dieu appuie sur le bouton Remplis ton facebook, je dois remplir ma CB J'crois pas aux contes de fées, igo je crois aux comptes à régler Alors maintenant, bien ou bien ? Mon son c'est comme le visage d'un mort, tu t'en souviens Dernière Phillip et j'aurai terminé salement Pas antisémite mais je veux ma villa avec un dog allemand MARADONA</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2444,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>XXXYou might also like</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2461,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Hey pédé, j'viens t'péter, rien laisser, la baiser, n'pas rêver, RDV sur Saturne La fierté, lhonnêteté, l'amitié, éviter la pitié, j'vends la mort à la pub Elle est bonne, faut qu'elle paye en nature, elle est pure, la feuille est sans ratures Pas majeure mais sa bouche est mature, le shit bulle, les pouces collent, on m'accule Wesh l'alien écailleux, t'es faya, tête ailleurs, dis-moi c'est quand tu sors le Cayenne Ouais la hyène se lâche, fait la chienne, se cache et plus tard se range comme Ayem Deux talons qui sortent de la gova, des bras maigres qui manient le cobra Igo on sort la langue comme Manny, Love Sosa, oui ma connasse Tiens goûte la teub à Adama, gros j'lance mon taga jusqu'en Alabama Ma punch dans ta gorge, la gorge à ta femme, viens voir la souffrance te dire wallah pas mal Igo j'suis sauvage et j'crie ounga wawa, Ounga ounga, le G sur la poucave Ounga ounga, nigga wawawawa, Ounga ounga, tant qu'on fout pas l'darwa J'sais qu'j'suis pas intégré, j'suis père de mes intérêts, les mains dans la merde alors qu'elles sont faites pour les enterrer J'sais combien tu paierais pour te faire opérer, de tout ce mal qui paraît si fort et qui semble empirer Viens m'voir et j'te dirai le prix d'la fonce-dé-dé-dé Si t'as appris à compter-ter-ter, on sera amis, enchanté-té-té Moi c'est Ade', moi c'est Ade' khey, sors la 'teille, vas-y claque le jour de paye J'veux pas d'ton Facebook, rrht tfou, t'sais que j'ai ma main sur ta fesse C'est limpide, ouais c'est deuss, c'est violent, c'est 9.1,on arrive y a d'la peuf' au volant, y a d'la meuf Elle t'a brisé le cur, fallait briser sa chatte, dire au gosse à sa reus' fais la bise à papa Pah, pah, pah, pah, ma haine qui te quen', j'suis en polo, la rage s'voit aux triceps Blablablabla, tu t'écartes tu te perds en direction du hall les cas soc' te visser L'espoir dans le coffre, la chance dans la cava, pardonnez-moi mais nos sorts sont macabres Dis-moi si j'ai tort ou si j'rappe la tate-pa, obscure est la force, le jedi est khabat 9.4 c'est l'Barça, 9.1 c'est l'Brésil, ouais connard, va l'dire à Kery Sinon à part ça, bien t'es pressé ? Non parce que ça va pas terrible Parce que j'suis seul dans ma tête, c'est la rage qui m'a élevé Que j'ai bicrave dans la tess' et qu'mon caleçon n'est pas en LV Faut du liquide, j'laisse pas couler une larme, pas une, pas une, pas une Fais bellek aux femmes, fais bellek aux putes, fais bellek aux paluches, paluches, paluches T'sais qu'on est vifs donc fais pas l'imbécile, on s'vide pas la vessie un meug dans les WC Oui on veut la belle vie, embarquer sur l'ferry, si t'as ché-tou des litres, vas-y mon gars fais signe Tu décolles, jatterris, bientôt j'côtoie des riches, la poudre dans la narine, César fait l'AVC J'l'ai quen' un mercredi, l'amène pas à la mairie, tu l'appelles ma chérie, j'lui mettais la fessée Viens j'te donne RDV, j'suis d'Paris j'suis pressé, igo j'vois tellement d'chiennes, j'mets une laisse sur l'PC J'mets une laisse sur l'PC, j'prends le game en PV, l'rap est mort, j'le déterre pour le ré-enterrer You might also like Ma drogue dans l'Gabbana Aux arrivants avec mon gars Bana J'sors ma hein-hein de mon Gabbana Ton oseille dans la poche de mon Gabbana J'fais l'amour à la hess' dans l'allée, elle se rhabille, j'me retourne Bismillah à l'aller, bismillah au retour Sers le trou d'balle à la douane, on déballe et taille-dé redwa Dans mes yeux c'est le vide, mon âme est perchée sur le toit J'vois l'espoir dans les yeux des p'tits, mashallah ça sent l'rêve Une sale envie d'décharger, on vit, on s'égare, on crève Ouais pas d'vie sociale, juste une vie d'cas social Le rap dans un local, va foutre ta schneck au sale Tantôt j'tue l'temps tant, tantôt c'est l'temps qui m'kill J'me sens mutant, tant différent dans la file Ouais j'suis bon qu'à compter, un joint d'beuh sur les lèvres Allez fuck ma bonté, et avec ça fuck mes rêves Tout c'que j'fais charbonner, tous les mêmes tous clonés Six du mat' détrôné à r'dessiner c'qu'est gommé Combien de sacs à pâtes ne savent plus sur quel genou danser Sur quel genou danser Ademo, Ladif Peace and lovés kiff Tout pour la mif' Tout pour le bif' Les sentiments ça ralentit, le cur fermé, là j'suis à fond Tu pètes plus haut que ton cul, on t'monte ton cul touche, touche le plafond On tire sur la laisse, t'aboies, on t'détache, tu perds la voix Nous c'est les gentils armés cramés conscients qu'on perd la foi Wesh à quand l'dernier kil' ? Pas demain, pas maintenant J'te fais danser avec l'oseille à chaque billet un nouveau battement J'tacle junkie potentiel, j'en fais ient ient fidèle Des loups qui fixent la Lune, moi être meilleur ami d'elle Chez nous on partage la hess', le cul d'la haute dans la caisse Casse un tour longue est la laisse, mon ange tu connais l'adresse Le temps d'un clignement les gens changent, moi je change en retrouvant la vue D'aucune poche on est dépendants, là j'suis fonce' en retrouvant la fum' Ils ont les photos, plus les souvenirs, on a les souvenirs, plus les photos Ouais on a même plus les potos, c'est chacun son bénéf', son auto Un gros fer sa mère, j'emmène la misère en balade Une balle pour chaque ennemi de mon frère, ça fait click, gala, gala Un putain d'biff, la mif', une ride en moins sur l'front de mon père Un putain d'biff, la mif', un sourire en plus sur l'visage de mon frère Le dos large, le coeur étroit Ta relation sur une pesette, si t'écoules pas, madame est froide Ce soir j'rentre pas à la maison Les portes se ferment et puis ne s'ouvriront qu'à la prochaine saison La misère dans un SLR, rentrer, tourner, sortir célèbre La vie me donne son cul, j'connais pas l'goût d'ses lèvres24</t>
+          <t>Hey pédé, j'viens t'péter, rien laisser, la baiser, n'pas rêver, RDV sur Saturne La fierté, lhonnêteté, l'amitié, éviter la pitié, j'vends la mort à la pub Elle est bonne, faut qu'elle paye en nature, elle est pure, la feuille est sans ratures Pas majeure mais sa bouche est mature, le shit bulle, les pouces collent, on m'accule Wesh l'alien écailleux, t'es faya, tête ailleurs, dis-moi c'est quand tu sors le Cayenne Ouais la hyène se lâche, fait la chienne, se cache et plus tard se range comme Ayem Deux talons qui sortent de la gova, des bras maigres qui manient le cobra Igo on sort la langue comme Manny, Love Sosa, oui ma connasse Tiens goûte la teub à Adama, gros j'lance mon taga jusqu'en Alabama Ma punch dans ta gorge, la gorge à ta femme, viens voir la souffrance te dire wallah pas mal Igo j'suis sauvage et j'crie ounga wawa, Ounga ounga, le G sur la poucave Ounga ounga, nigga wawawawa, Ounga ounga, tant qu'on fout pas l'darwa J'sais qu'j'suis pas intégré, j'suis père de mes intérêts, les mains dans la merde alors qu'elles sont faites pour les enterrer J'sais combien tu paierais pour te faire opérer, de tout ce mal qui paraît si fort et qui semble empirer Viens m'voir et j'te dirai le prix d'la fonce-dé-dé-dé Si t'as appris à compter-ter-ter, on sera amis, enchanté-té-té Moi c'est Ade', moi c'est Ade' khey, sors la 'teille, vas-y claque le jour de paye J'veux pas d'ton Facebook, rrht tfou, t'sais que j'ai ma main sur ta fesse C'est limpide, ouais c'est deuss, c'est violent, c'est 9.1,on arrive y a d'la peuf' au volant, y a d'la meuf Elle t'a brisé le cur, fallait briser sa chatte, dire au gosse à sa reus' fais la bise à papa Pah, pah, pah, pah, ma haine qui te quen', j'suis en polo, la rage s'voit aux triceps Blablablabla, tu t'écartes tu te perds en direction du hall les cas soc' te visser L'espoir dans le coffre, la chance dans la cava, pardonnez-moi mais nos sorts sont macabres Dis-moi si j'ai tort ou si j'rappe la tate-pa, obscure est la force, le jedi est khabat 9.4 c'est l'Barça, 9.1 c'est l'Brésil, ouais connard, va l'dire à Kery Sinon à part ça, bien t'es pressé ? Non parce que ça va pas terrible Parce que j'suis seul dans ma tête, c'est la rage qui m'a élevé Que j'ai bicrave dans la tess' et qu'mon caleçon n'est pas en LV Faut du liquide, j'laisse pas couler une larme, pas une, pas une, pas une Fais bellek aux femmes, fais bellek aux putes, fais bellek aux paluches, paluches, paluches T'sais qu'on est vifs donc fais pas l'imbécile, on s'vide pas la vessie un meug dans les WC Oui on veut la belle vie, embarquer sur l'ferry, si t'as ché-tou des litres, vas-y mon gars fais signe Tu décolles, jatterris, bientôt j'côtoie des riches, la poudre dans la narine, César fait l'AVC J'l'ai quen' un mercredi, l'amène pas à la mairie, tu l'appelles ma chérie, j'lui mettais la fessée Viens j'te donne RDV, j'suis d'Paris j'suis pressé, igo j'vois tellement d'chiennes, j'mets une laisse sur l'PC J'mets une laisse sur l'PC, j'prends le game en PV, l'rap est mort, j'le déterre pour le ré-enterrer Ma drogue dans l'Gabbana Aux arrivants avec mon gars Bana J'sors ma hein-hein de mon Gabbana Ton oseille dans la poche de mon Gabbana J'fais l'amour à la hess' dans l'allée, elle se rhabille, j'me retourne Bismillah à l'aller, bismillah au retour Sers le trou d'balle à la douane, on déballe et taille-dé redwa Dans mes yeux c'est le vide, mon âme est perchée sur le toit J'vois l'espoir dans les yeux des p'tits, mashallah ça sent l'rêve Une sale envie d'décharger, on vit, on s'égare, on crève Ouais pas d'vie sociale, juste une vie d'cas social Le rap dans un local, va foutre ta schneck au sale Tantôt j'tue l'temps tant, tantôt c'est l'temps qui m'kill J'me sens mutant, tant différent dans la file Ouais j'suis bon qu'à compter, un joint d'beuh sur les lèvres Allez fuck ma bonté, et avec ça fuck mes rêves Tout c'que j'fais charbonner, tous les mêmes tous clonés Six du mat' détrôné à r'dessiner c'qu'est gommé Combien de sacs à pâtes ne savent plus sur quel genou danser Sur quel genou danser Ademo, Ladif Peace and lovés kiff Tout pour la mif' Tout pour le bif' Les sentiments ça ralentit, le cur fermé, là j'suis à fond Tu pètes plus haut que ton cul, on t'monte ton cul touche, touche le plafond On tire sur la laisse, t'aboies, on t'détache, tu perds la voix Nous c'est les gentils armés cramés conscients qu'on perd la foi Wesh à quand l'dernier kil' ? Pas demain, pas maintenant J'te fais danser avec l'oseille à chaque billet un nouveau battement J'tacle junkie potentiel, j'en fais ient ient fidèle Des loups qui fixent la Lune, moi être meilleur ami d'elle Chez nous on partage la hess', le cul d'la haute dans la caisse Casse un tour longue est la laisse, mon ange tu connais l'adresse Le temps d'un clignement les gens changent, moi je change en retrouvant la vue D'aucune poche on est dépendants, là j'suis fonce' en retrouvant la fum' Ils ont les photos, plus les souvenirs, on a les souvenirs, plus les photos Ouais on a même plus les potos, c'est chacun son bénéf', son auto Un gros fer sa mère, j'emmène la misère en balade Une balle pour chaque ennemi de mon frère, ça fait click, gala, gala Un putain d'biff, la mif', une ride en moins sur l'front de mon père Un putain d'biff, la mif', un sourire en plus sur l'visage de mon frère Le dos large, le coeur étroit Ta relation sur une pesette, si t'écoules pas, madame est froide Ce soir j'rentre pas à la maison Les portes se ferment et puis ne s'ouvriront qu'à la prochaine saison La misère dans un SLR, rentrer, tourner, sortir célèbre La vie me donne son cul, j'connais pas l'goût d'ses lèvres24</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2478,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Sisi Son des halls mixtape, 2008, on est al Sisi, ok, ok check Fuck, fuck , bouge ta tête la France j'vais l'habiliter Pan, pan Danja té-ma ses dents sombres Le doigt d'pied sur la détente car j'm'imagine pas marcher sans pompe Qu'est-ce que tu ferais à ma place ? J'classe, j'claque J'ai envie d'thé ramène ma tasse Qui j'suis ? Ademo la voix qui disait a-ç Viens voir sisi j'ai l'as pas l'roi mais qui a dit qu'j'étais un démon Qui a dit Cacao dans mon lait caillé En mode calcinage gore, matinal , hors capitale J'force pas j'mitraille quand même Moins un au score j'peux t'faire perdre comme Zizou qu'égalise Et la qualité, on l'a comme t'as pas idée les bip dans la valise, ton pif dans ma farine Toute ma mif en Jamaïque, que ta clique sente la bague Mon son passera jamais en boîte, mais nique sa mère Ça fait t-t-t-t-t-t-t-t-vraa C'est die, facile les rimes en -aille, alors , écris quand j'graille ... fous le faya .... suite à venir You might also like ...</t>
+          <t>Sisi Son des halls mixtape, 2008, on est al Sisi, ok, ok check Fuck, fuck , bouge ta tête la France j'vais l'habiliter Pan, pan Danja té-ma ses dents sombres Le doigt d'pied sur la détente car j'm'imagine pas marcher sans pompe Qu'est-ce que tu ferais à ma place ? J'classe, j'claque J'ai envie d'thé ramène ma tasse Qui j'suis ? Ademo la voix qui disait a-ç Viens voir sisi j'ai l'as pas l'roi mais qui a dit qu'j'étais un démon Qui a dit Cacao dans mon lait caillé En mode calcinage gore, matinal , hors capitale J'force pas j'mitraille quand même Moins un au score j'peux t'faire perdre comme Zizou qu'égalise Et la qualité, on l'a comme t'as pas idée les bip dans la valise, ton pif dans ma farine Toute ma mif en Jamaïque, que ta clique sente la bague Mon son passera jamais en boîte, mais nique sa mère Ça fait t-t-t-t-t-t-t-t-vraa C'est die, facile les rimes en -aille, alors , écris quand j'graille ... fous le faya .... suite à venir ...</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2495,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tu sais c'que c'est qu'payer ? Wesh dis pas nan connard Ici tout s'paie, ta gueule, demande à tes parents au chômage On paie salope bah alors fais les choses bien On paie wesh mais pas pour palper tes gros seins Un jour j'ai rêvé d'une banque devant mes chiottes pour mieux chier sur le monde Ademo check j'serai devant les autres T'as pas une galette devant moi si t'as pas la fève Trop vo-vorace dpuis lo-l'orage, niquez vos-vos races Mon p'tit reuf respire mal à ton avis combien la cure ? Combien la m'sure fait la taille de l'habitat Kho, combien la sucent? Coco chaud l'ticket, ta femme est compliquée Pour elle faut l'biff sinon ciao ciao Alors paie, paie, demande à so, à Corbeil Une valise plein d'bif xx sa tête avancée, même un lampadaire à lorteil On paie et cest ça qutaimes Ademo, Meda, check, vlà lthème qui tannonce la couleur Le violet, celle quon préfère On paie, on paie Nique sa mère, on paie Rien nest gratuit dans cmonde de chiennes La vie na pas dprix, pourtant on paie Jusquà en rendre des comptes après lcoup dpelle You might also like Depuis toujours on paie Endettés à perpétuité, à peiner On a tous pris cette peine ferme Sept ? coups dshlass dans les reins Tu paies pour vivre, tu paies pour crever En fait on paie pour perdre Y croivent que cest un jeu ces bâtards Un match de baseball ou quoi ? Y sbaladent avec des flashballs et nous avec des battes, cest ça? Cest sale, on paie à la balle, on paie au balon Jveux qules keufs saignent sur ltrottoir Tu crois vraiment que si jte braque tauras la chance que mon arme senraie ? Allez, danse sur ltrottoir Faut que jsorte un son qui paie Cri dguerre suivi dcri dhaine M-E-DA cest oim et dites-moi dalle Dalleux, damné à vie, amené à mort Tu veux fumer pour calmer les bails, gars? Alors paie Létat veut nous endormir mais même quand jdors jpaie La vie cest comme cette rayure sur lskeud Les soucis qui srépètent et tournent en boucle On vit, on meurt, on fume, on dort En gros, on paie, on saigne On paie, on paie Nique sa mère, on paie Rien nest gratuit dans cmonde de chiennes La vie na pas dprix, pourtant on paie Jusquà en rendre des comptes après lcoup dpelle</t>
+          <t>Tu sais c'que c'est qu'payer ? Wesh dis pas nan connard Ici tout s'paie, ta gueule, demande à tes parents au chômage On paie salope bah alors fais les choses bien On paie wesh mais pas pour palper tes gros seins Un jour j'ai rêvé d'une banque devant mes chiottes pour mieux chier sur le monde Ademo check j'serai devant les autres T'as pas une galette devant moi si t'as pas la fève Trop vo-vorace dpuis lo-l'orage, niquez vos-vos races Mon p'tit reuf respire mal à ton avis combien la cure ? Combien la m'sure fait la taille de l'habitat Kho, combien la sucent? Coco chaud l'ticket, ta femme est compliquée Pour elle faut l'biff sinon ciao ciao Alors paie, paie, demande à so, à Corbeil Une valise plein d'bif xx sa tête avancée, même un lampadaire à lorteil On paie et cest ça qutaimes Ademo, Meda, check, vlà lthème qui tannonce la couleur Le violet, celle quon préfère On paie, on paie Nique sa mère, on paie Rien nest gratuit dans cmonde de chiennes La vie na pas dprix, pourtant on paie Jusquà en rendre des comptes après lcoup dpelle Depuis toujours on paie Endettés à perpétuité, à peiner On a tous pris cette peine ferme Sept ? coups dshlass dans les reins Tu paies pour vivre, tu paies pour crever En fait on paie pour perdre Y croivent que cest un jeu ces bâtards Un match de baseball ou quoi ? Y sbaladent avec des flashballs et nous avec des battes, cest ça? Cest sale, on paie à la balle, on paie au balon Jveux qules keufs saignent sur ltrottoir Tu crois vraiment que si jte braque tauras la chance que mon arme senraie ? Allez, danse sur ltrottoir Faut que jsorte un son qui paie Cri dguerre suivi dcri dhaine M-E-DA cest oim et dites-moi dalle Dalleux, damné à vie, amené à mort Tu veux fumer pour calmer les bails, gars? Alors paie Létat veut nous endormir mais même quand jdors jpaie La vie cest comme cette rayure sur lskeud Les soucis qui srépètent et tournent en boucle On vit, on meurt, on fume, on dort En gros, on paie, on saigne On paie, on paie Nique sa mère, on paie Rien nest gratuit dans cmonde de chiennes La vie na pas dprix, pourtant on paie Jusquà en rendre des comptes après lcoup dpelle</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2512,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>On sdoit davoir les reins solides dans un monde de fou Roule avec Dieu avant drouler un oinj, ouais mon couz Jai la rage, rappe pour moi pas pour ta gueule Jai dlinspi, donc ya pas besoin qujme bourre la gueule On est la vie dgangsta, sexe illégal man La nuit, la Lune, Paname, ses petites balades On aime nos balafres, les montre, que tu saches qui on est On sort du hebs les pecs bombés drague les Beyoncé Faut dla thune donc on la cherche tous les jours Pour mettre bien la mif, on emmerde tous les autres On marche la tête haute mais cerveau à lenvers On nique tout, on sdit qude toute façon on goûtera lEnfer On nattend rien, on nest pas instruits avec un brevet Ya qula roue dnos voitures qui tourne et qui finit par crever On gamberge dans les transports, le train a du retard Lun fume, lautre alcool, certains semportent Les claudos sendorment, ignorés dtout lmonde Un dealer passe, donne une pièce et roule un pilon Un bourge a du dégoût davoir vu tout ça Il pense à ce soir, à son club et à sa touze-par On vit sans scomprendre, à sjalouser Ça bicrave tout lannée pour aller à Salouzer Baiser des catins dans les privates Être les kings toute la night, revenir, et re-bicrave On sait refaire le monde, en parlant dhier Une vie dans le haram, demande pardon à chaque prière On sdit qule dînn, ça sera pour plus tard On sdit une femme, plus un plan cul, et puis une tasse Les yeux plus gros que la paire de LV Ya pas dembrouille mais on a toujours lregard énervé On veut la vie drêve donc on dort de plus en plus Les soucis rongent, et plus on y pense, plus on fume On trompe nos femmes, dis pas non yen a plus dun Alors on sfait du mal même en sfaisant du bien On est sauvages, la plus grande race animale On mélange minorité et majorité quand ya une sale image On shabitue à nos vies, même à la merde Avec pour but un mois dans lannée aller à la mer On est bloqués devant la télé tous les soirs instinctivement À écouter sans comprendre un État qui ment On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre pour une cause On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre pour une cause On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre pour une cause On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre juste pour dire Allah u akbar Ouais igo On na quune cause dans cde-mon, quelle que soit ta religion Ya quun Dieu sur Terre un seul, et on oublie notre but Ce son cest pour les vrais, ceux qui msoutiennent Dédicace à K, Lixat, N.O.S, DIrty, RKM mes deux nahas qui tournent, Max et Bad Gardez la Foi, bientôt dehors les frères, inchAllahYou might also like</t>
+          <t>On sdoit davoir les reins solides dans un monde de fou Roule avec Dieu avant drouler un oinj, ouais mon couz Jai la rage, rappe pour moi pas pour ta gueule Jai dlinspi, donc ya pas besoin qujme bourre la gueule On est la vie dgangsta, sexe illégal man La nuit, la Lune, Paname, ses petites balades On aime nos balafres, les montre, que tu saches qui on est On sort du hebs les pecs bombés drague les Beyoncé Faut dla thune donc on la cherche tous les jours Pour mettre bien la mif, on emmerde tous les autres On marche la tête haute mais cerveau à lenvers On nique tout, on sdit qude toute façon on goûtera lEnfer On nattend rien, on nest pas instruits avec un brevet Ya qula roue dnos voitures qui tourne et qui finit par crever On gamberge dans les transports, le train a du retard Lun fume, lautre alcool, certains semportent Les claudos sendorment, ignorés dtout lmonde Un dealer passe, donne une pièce et roule un pilon Un bourge a du dégoût davoir vu tout ça Il pense à ce soir, à son club et à sa touze-par On vit sans scomprendre, à sjalouser Ça bicrave tout lannée pour aller à Salouzer Baiser des catins dans les privates Être les kings toute la night, revenir, et re-bicrave On sait refaire le monde, en parlant dhier Une vie dans le haram, demande pardon à chaque prière On sdit qule dînn, ça sera pour plus tard On sdit une femme, plus un plan cul, et puis une tasse Les yeux plus gros que la paire de LV Ya pas dembrouille mais on a toujours lregard énervé On veut la vie drêve donc on dort de plus en plus Les soucis rongent, et plus on y pense, plus on fume On trompe nos femmes, dis pas non yen a plus dun Alors on sfait du mal même en sfaisant du bien On est sauvages, la plus grande race animale On mélange minorité et majorité quand ya une sale image On shabitue à nos vies, même à la merde Avec pour but un mois dans lannée aller à la mer On est bloqués devant la télé tous les soirs instinctivement À écouter sans comprendre un État qui ment On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre pour une cause On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre pour une cause On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre pour une cause On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre juste pour dire Allah u akbar Ouais igo On na quune cause dans cde-mon, quelle que soit ta religion Ya quun Dieu sur Terre un seul, et on oublie notre but Ce son cest pour les vrais, ceux qui msoutiennent Dédicace à K, Lixat, N.O.S, DIrty, RKM mes deux nahas qui tournent, Max et Bad Gardez la Foi, bientôt dehors les frères, inchAllah</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2529,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ouais m petite gueule, ouais ma petite gueule Tu vas kiffer l'son ma petite gueule J'veux ni d'une femme qui soit une pute Ni d'un homme qui soit une pute J'encule pas un frère, j'ai jamais payé pour une pute Bats les couilles d'ces timps, mes conneries j'les paye assez Fuck la taule c'est pour le frère au mitard sans ses lacets Y'a pas d'hasard, d'hasard dans ma 'sère, tu l'sais En chien comme sans taga, taga dans ma cellule'zer Ouais mes frères, ouais ma mif', merci pour les mandats Sans vous, j'suis voué à la gamelle, sans télé, à faire un bad Les warriors on les baise, ils regardent mal, on les baise Si j'graille tous ces mythos j'vais finir par devenir obèse Faut qu'on opère entre vrais, y'a pas d'secret hesse J'te dis tout, qu'entre vrais, ça parle de peine et d'beurre On prie Allah pour toujours nourrir nos familles J'ai côtoyé tellement d'chiens, plus besoin d'animal d'compagnie Ouais la miss ça vient d'l'Essonne, prend le crime en levrette Pendant le somm' rêve à des sommes, fuck le dream pour le vrai Tu m'aimes pas ? Méchant, tiens y'a mes couilles à frotter Montre-nous pas ton argent, ou on pensera à t'sauter J'ai trop la dalle, mes crocs scieront les barreaux J'paierai ma part de pêchés, et l'Ciel m'dira les taros AK sors le Moët c'est bavon, j'la ken que si elle a des talons Ji3an j'irai me la faire si elle a le boule d'un étalon J'mets ma casquette sur scène, t-shirt Paris Saint-Germain Y'a du vert tu l'sais, Nabil visser ces chiens d'Germains Un pote qui tombe c'est la merde, j'reste toujours seul dans mon affaire J'cantine la plaque di-di-direct, au bigo détails du rêve J'envoie un talon tu connais, j'dis rien mais jamais j'oublierai You might also like Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Commission rogatoire, dans mon phone-tel y'a qu'des bonnets Les stups convoquent le répertoire, chaque bitch a deux ballons d'volley Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule J'galère au barreau, j'té-ma l'hélico qui barrode J'suis tous les jours en train d'pousser, t'inquiète c'est la Juge qui m'arrose J'sors du 9-1, serre bien tes seufs, j'viens Préviens tes reufs ou préviens tes reus Ratatatata dis-leur que j'suis pas vivant Ça tire des penaltys, en promenade ou à FIFA Tu sais qu'on a des armes, t'en as aussi y'a quoi ? Tant qu'j'ai deux couilles devant, tu peux en avoir mille derrière toi Bref rien à prouver, cent grammes de plus à la pesée L'oseille veut s'approcher, on va finir par l'accrocher S'en fout d'devenir des stars, on veut l'pécule du statut Sur le terrain dès l'sbah les ients-cli font bouger les statues J'sais qu't'as oublié, mais j'te l'rappelle à temps On a perdu des clients, monté les courses de ta Maman J'suis l'fils de mon daron, j'suis pas l'fils de la rue La Juge veut m'faire ber-tom, j'la baise debout si je n'm'abuse Tu veux un tour de magie ? Avec des madeleines j'fais des crêpes Fleury même un Chinois s'est caler un bloc entre les fesses Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule J'commence trop haut en attaque, j'porte le numéro 18 Tu veux pas d'bolosse dans ta life ? Ok tiens mon 06 Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule J'avance, j'crois, j'pense qu'à un oinj de beuh Écrou 400-362 Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Le monde est sourd, me3lich, j'veux pas lui parler J'suis pas né d'la dernière peine de prison J'crois même qu'j'suis pas né Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Ok on prie Allah pour toujours nourrir nos familles J'ai côtoyé tellement d'chiens, plus besoin d'animal d'compagnie Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Commission rogatoire, dans mon phone-tel y'a qu'des bonnets Les stups convoquent le répertoire, chaque bitch a deux ballons d'volley</t>
+          <t>Ouais m petite gueule, ouais ma petite gueule Tu vas kiffer l'son ma petite gueule J'veux ni d'une femme qui soit une pute Ni d'un homme qui soit une pute J'encule pas un frère, j'ai jamais payé pour une pute Bats les couilles d'ces timps, mes conneries j'les paye assez Fuck la taule c'est pour le frère au mitard sans ses lacets Y'a pas d'hasard, d'hasard dans ma 'sère, tu l'sais En chien comme sans taga, taga dans ma cellule'zer Ouais mes frères, ouais ma mif', merci pour les mandats Sans vous, j'suis voué à la gamelle, sans télé, à faire un bad Les warriors on les baise, ils regardent mal, on les baise Si j'graille tous ces mythos j'vais finir par devenir obèse Faut qu'on opère entre vrais, y'a pas d'secret hesse J'te dis tout, qu'entre vrais, ça parle de peine et d'beurre On prie Allah pour toujours nourrir nos familles J'ai côtoyé tellement d'chiens, plus besoin d'animal d'compagnie Ouais la miss ça vient d'l'Essonne, prend le crime en levrette Pendant le somm' rêve à des sommes, fuck le dream pour le vrai Tu m'aimes pas ? Méchant, tiens y'a mes couilles à frotter Montre-nous pas ton argent, ou on pensera à t'sauter J'ai trop la dalle, mes crocs scieront les barreaux J'paierai ma part de pêchés, et l'Ciel m'dira les taros AK sors le Moët c'est bavon, j'la ken que si elle a des talons Ji3an j'irai me la faire si elle a le boule d'un étalon J'mets ma casquette sur scène, t-shirt Paris Saint-Germain Y'a du vert tu l'sais, Nabil visser ces chiens d'Germains Un pote qui tombe c'est la merde, j'reste toujours seul dans mon affaire J'cantine la plaque di-di-direct, au bigo détails du rêve J'envoie un talon tu connais, j'dis rien mais jamais j'oublierai Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Commission rogatoire, dans mon phone-tel y'a qu'des bonnets Les stups convoquent le répertoire, chaque bitch a deux ballons d'volley Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule J'galère au barreau, j'té-ma l'hélico qui barrode J'suis tous les jours en train d'pousser, t'inquiète c'est la Juge qui m'arrose J'sors du 9-1, serre bien tes seufs, j'viens Préviens tes reufs ou préviens tes reus Ratatatata dis-leur que j'suis pas vivant Ça tire des penaltys, en promenade ou à FIFA Tu sais qu'on a des armes, t'en as aussi y'a quoi ? Tant qu'j'ai deux couilles devant, tu peux en avoir mille derrière toi Bref rien à prouver, cent grammes de plus à la pesée L'oseille veut s'approcher, on va finir par l'accrocher S'en fout d'devenir des stars, on veut l'pécule du statut Sur le terrain dès l'sbah les ients-cli font bouger les statues J'sais qu't'as oublié, mais j'te l'rappelle à temps On a perdu des clients, monté les courses de ta Maman J'suis l'fils de mon daron, j'suis pas l'fils de la rue La Juge veut m'faire ber-tom, j'la baise debout si je n'm'abuse Tu veux un tour de magie ? Avec des madeleines j'fais des crêpes Fleury même un Chinois s'est caler un bloc entre les fesses Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule J'commence trop haut en attaque, j'porte le numéro 18 Tu veux pas d'bolosse dans ta life ? Ok tiens mon 06 Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule J'avance, j'crois, j'pense qu'à un oinj de beuh Écrou 400-362 Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Le monde est sourd, me3lich, j'veux pas lui parler J'suis pas né d'la dernière peine de prison J'crois même qu'j'suis pas né Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Ok on prie Allah pour toujours nourrir nos familles J'ai côtoyé tellement d'chiens, plus besoin d'animal d'compagnie Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Commission rogatoire, dans mon phone-tel y'a qu'des bonnets Les stups convoquent le répertoire, chaque bitch a deux ballons d'volley</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2546,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Pablo, Pablo Escobar Brr Pablo, Pablo, Pablo Escobar EscobarYou might also like</t>
+          <t>Pablo, Pablo Escobar Brr Pablo, Pablo, Pablo Escobar Escobar</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2563,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>On a fait l'saut d'l'ange, dans l'magma, la tête la première 9.1 zone franche, ça pue l'zeb, la kebab sauce blanche La bite comme celle qui sort de notre gland Vision d'l'amour une chatte en gros plan La descente est amorcée, hash et sky corsés T'envoient valser dans les bras d'Morphée aller On peut s'procurer tout c'que tu veux, absorbé yeah Et on t'sourit mais on sait que ton nez va morfler Narine droite, narine gauche Ça remplace l'oxygène pollué des parigots Les tox gobent les excta' comme des haribos Et s'en cloquent quand c'est la fin des haricots El Manito en a marre du factice, il veut son MAC-10 en calicot Des coups d'haschisch, gros, comme ses balistos Les petits s'activent tôt, convoitent le bien des aristos Tous brigante dans l'impasse comme Carlito On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner You might also like Respect à ceux qui font des mandats, portent le street étendard Au tribunal, s'défendant à la tigre et dragon Ne te causent qui si c'est rentable, la cognent que différentes dames Ne pouvant trouver l'mental de l'idéal gonz' On a la bite et l'bras long, prends ton ticket, sale con Si tu veux l'bras d'fer, ou si tu veux piper la trompe J'rappe la vie des bas fonds, des tés-c' anti-traîtres à fond Qui se lèvent si tes gars tombent, de vise' les sales tronches Nos mères ont depuis longtemps quitter l'balcon hein hein Marre de voir embarquer par des flics ses garçons Mais pour nous le smic, c'est pas bon, c'est pire qu'l'hécatombe Même en étant l'employé du mois, j'vais broyer du noir De plus, littéralement, beaucoup voudraient l'faire Comprends que si l'on stagne, c'est qu'nos pieds sont recouverts d'terre Le plein feeling grâce à nos blundfilis Nos battements de cur militent, à chaque heure, s'divisent sauvagement On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner J'maque, j'maquette Mac Macain, ma g', ma guette J'm'inq', j'm'inquiète pas Mac maqué, y'a pas, y'a pas d'magma lèze-ba L'p'tit mental, et j'rime sans tal', puissance de l'année Et instantanée, je brille dans le bal des balles, tristement taré J'lâche ma cra, cra-cra-cra, sous crack, j'crache tout Dans mes yeux, où la flamme qui cra-cra-crame tout Y'a plus d'âge, et ouais ma belle euh-euh Pour avoir d'la peine, pour savoir qu'la haine aime nous sortir la pelle euh-euh La balle est lancée, pas d'élan c'est, pas grave, aller danse et manigance Et ma séquence détale l'essence, ter-ma les jantes gros J'rime la dalle euh la dalle euh, vis d'la malle et nique la salle salle euh Vise la valeur de mon rap, vise comme ça parle parle euh Ademo, Ténébreuz Click, pas d'carotte ma gueule Tu nous sentiras venir même si t'as l'nez à Michael Jackson Quand j'baise, minus, tu pourrais perdre la vie J'apporte tellement d'virus qu'on d'mande à mon stylo d'mettre un préservatif ouha On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner Le bus' d'la rue c'est diezer donc j'rappe vé-ner Donc j'rappe vé-ner, le son des halls, Ademo, Ademo Tarterêts, Tarterêts 91 jusqu'au 9.4, Putain On est à-l, K-Tana gros, yeah Yeah, tu connais Kevin Ra', tu connais, -mos C'est pour le son des halls mixtape Nos, le fraté, Ade-mo, avant la mixtape, yeah yeah, yeah1</t>
+          <t>On a fait l'saut d'l'ange, dans l'magma, la tête la première 9.1 zone franche, ça pue l'zeb, la kebab sauce blanche La bite comme celle qui sort de notre gland Vision d'l'amour une chatte en gros plan La descente est amorcée, hash et sky corsés T'envoient valser dans les bras d'Morphée aller On peut s'procurer tout c'que tu veux, absorbé yeah Et on t'sourit mais on sait que ton nez va morfler Narine droite, narine gauche Ça remplace l'oxygène pollué des parigots Les tox gobent les excta' comme des haribos Et s'en cloquent quand c'est la fin des haricots El Manito en a marre du factice, il veut son MAC-10 en calicot Des coups d'haschisch, gros, comme ses balistos Les petits s'activent tôt, convoitent le bien des aristos Tous brigante dans l'impasse comme Carlito On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner Respect à ceux qui font des mandats, portent le street étendard Au tribunal, s'défendant à la tigre et dragon Ne te causent qui si c'est rentable, la cognent que différentes dames Ne pouvant trouver l'mental de l'idéal gonz' On a la bite et l'bras long, prends ton ticket, sale con Si tu veux l'bras d'fer, ou si tu veux piper la trompe J'rappe la vie des bas fonds, des tés-c' anti-traîtres à fond Qui se lèvent si tes gars tombent, de vise' les sales tronches Nos mères ont depuis longtemps quitter l'balcon hein hein Marre de voir embarquer par des flics ses garçons Mais pour nous le smic, c'est pas bon, c'est pire qu'l'hécatombe Même en étant l'employé du mois, j'vais broyer du noir De plus, littéralement, beaucoup voudraient l'faire Comprends que si l'on stagne, c'est qu'nos pieds sont recouverts d'terre Le plein feeling grâce à nos blundfilis Nos battements de cur militent, à chaque heure, s'divisent sauvagement On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner J'maque, j'maquette Mac Macain, ma g', ma guette J'm'inq', j'm'inquiète pas Mac maqué, y'a pas, y'a pas d'magma lèze-ba L'p'tit mental, et j'rime sans tal', puissance de l'année Et instantanée, je brille dans le bal des balles, tristement taré J'lâche ma cra, cra-cra-cra, sous crack, j'crache tout Dans mes yeux, où la flamme qui cra-cra-crame tout Y'a plus d'âge, et ouais ma belle euh-euh Pour avoir d'la peine, pour savoir qu'la haine aime nous sortir la pelle euh-euh La balle est lancée, pas d'élan c'est, pas grave, aller danse et manigance Et ma séquence détale l'essence, ter-ma les jantes gros J'rime la dalle euh la dalle euh, vis d'la malle et nique la salle salle euh Vise la valeur de mon rap, vise comme ça parle parle euh Ademo, Ténébreuz Click, pas d'carotte ma gueule Tu nous sentiras venir même si t'as l'nez à Michael Jackson Quand j'baise, minus, tu pourrais perdre la vie J'apporte tellement d'virus qu'on d'mande à mon stylo d'mettre un préservatif ouha On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner Le bus' d'la rue c'est diezer donc j'rappe vé-ner Donc j'rappe vé-ner, le son des halls, Ademo, Ademo Tarterêts, Tarterêts 91 jusqu'au 9.4, Putain On est à-l, K-Tana gros, yeah Yeah, tu connais Kevin Ra', tu connais, -mos C'est pour le son des halls mixtape Nos, le fraté, Ade-mo, avant la mixtape, yeah yeah, yeah1</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2580,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Hé, Je reviens dans la partie allez ouvre ta bouche avale Rifle la matrix si j'ai les couilles encore plus grosses qu'avant Tu veux du sale t'en auras, t'iras toucher au D4 Les pecs j'les bombe haha, sous l'tee-shirt j'ai du C4 J'ai pas changé, j'ai évolué Sois tu baisses, soit tu stagnes Soit tu fais tes sons en zonz, en sortant tu fais du cash J'vais t'faire monter en l'air, écoute mon son et c'est fini Tu veux faire l'avion comme lors d'une intervention chez les iris Soûlé soûlé là, j'viens m'défouler La haine m'a trouvé et j'l'ai évacuée sous mes Nike Fort en maths depuis qu'j'compte le temps qui m'reste Le théorème de ma bite hardcore pour ça qu'y a des chiennes qui m'aime La haine me nourri, la hess me sourit Sur eux que j'prend le plancher pour un coup de sure Hein ma vie de galérien, j'fini toujours par l'giro de poulaille Sisi naha continue de tourner, bientôt les retrouvailles x2 J'veux pas faire un titre , j'veux juste vivre ma vie J'ai de la dynamite, ouais je t'invite à fuir J'vend pas de zik l'amis, j'bibi à prix d'amis J'sors ma bite ah oui si tu veux de la vitamine You might also like Les mecs j'ai l'seum, j'ai la dalle, j'ai le ventre vide Les MC's pètent un câble tellement je monte vite Je vise je vise le sommet, Jack et mon shit tu veux consommé Du mal j'en suis conscient mais Je t'avance 2-3 quettes histoire de faire un peu d'pépètes Je m'en bas les couilles de prendre perpettes À part dieu personne m'effraie Encore un nique la police, pour faire kiffer mes frères J'rappe pour ceux qui galère dans le hall, toujours on risque de ce faire pété Je m'écarte des pd's, des salopes XXX baisé ramène de la drogue histoire de déstresser Vue que j'ai le 11 dans ma che-po , une grenade pour le comico</t>
+          <t>Hé, Je reviens dans la partie allez ouvre ta bouche avale Rifle la matrix si j'ai les couilles encore plus grosses qu'avant Tu veux du sale t'en auras, t'iras toucher au D4 Les pecs j'les bombe haha, sous l'tee-shirt j'ai du C4 J'ai pas changé, j'ai évolué Sois tu baisses, soit tu stagnes Soit tu fais tes sons en zonz, en sortant tu fais du cash J'vais t'faire monter en l'air, écoute mon son et c'est fini Tu veux faire l'avion comme lors d'une intervention chez les iris Soûlé soûlé là, j'viens m'défouler La haine m'a trouvé et j'l'ai évacuée sous mes Nike Fort en maths depuis qu'j'compte le temps qui m'reste Le théorème de ma bite hardcore pour ça qu'y a des chiennes qui m'aime La haine me nourri, la hess me sourit Sur eux que j'prend le plancher pour un coup de sure Hein ma vie de galérien, j'fini toujours par l'giro de poulaille Sisi naha continue de tourner, bientôt les retrouvailles x2 J'veux pas faire un titre , j'veux juste vivre ma vie J'ai de la dynamite, ouais je t'invite à fuir J'vend pas de zik l'amis, j'bibi à prix d'amis J'sors ma bite ah oui si tu veux de la vitamine Les mecs j'ai l'seum, j'ai la dalle, j'ai le ventre vide Les MC's pètent un câble tellement je monte vite Je vise je vise le sommet, Jack et mon shit tu veux consommé Du mal j'en suis conscient mais Je t'avance 2-3 quettes histoire de faire un peu d'pépètes Je m'en bas les couilles de prendre perpettes À part dieu personne m'effraie Encore un nique la police, pour faire kiffer mes frères J'rappe pour ceux qui galère dans le hall, toujours on risque de ce faire pété Je m'écarte des pd's, des salopes XXX baisé ramène de la drogue histoire de déstresser Vue que j'ai le 11 dans ma che-po , une grenade pour le comico</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2597,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Chui pas un lover alors toutes les meufs se mettent loin de moi Chui pas un chanteur, j'ai fait un rêve où tous les keufs se mettent un doigt Chui fils de bandit, mon papa à moi est un gangster Si on respecte les anciens à 22 ans je veux être un ancêtre J'ai pas la taille prévu pour dunker, alors je grimpe sur les tass' J'me demande si je suis bon qu'à détaille, qu'à détaille À la Une y a qu'la thune et la thune voit qu'la lune dans mon tunnel La tumeur de la vie nous tue, une erreur venu de notre tumeur Argent et bails bienvenu au moyen-âge Sex, money, action détail et tout l'monde t'aime comme Mickael Jackson J'm'appel ni Jason, ni Bryan XXX Transforme en Super Sayan, ça cisaille XXX J'suis opérationnel, j'écris c'que j'aime et pis fuck toi On verra l'soleil XXX mais on espère le voir un certain soir J'suis un tigre, j'vivrais jamais comme un mouton Quitte à prendre 20 piges, parce qu'il y a ceux qui tapent le steak et ceux qui s'grattent leurs boutons On est trop, on est, on est on est chaud, on est, on est Dans le ghetto, on est, on est tous à s'tape pour la monnaie Dans le rétro, les condés, condés c'en ai trop, isolé-solé Rien d'un loveur, j'encule toutes les poucaves à la volée J'encule toutes les balances, comment vivre en sachant que t'en ai une ? J'respecte tout les parents, l'impression qu'on m'a chié sur Neptune J'suis la preuve vivante qu'on peut être barge dans le son C'est ce qu'y me rend surpuissant, j'rêve pas d'faire d'la chanson J'ai rêvé de mettre les pauvres à l'abri, c'était un rêve de gosse Désolé mon Dieu mais j'rêve plus que les poches pleines de drogue Venez prendre votre dose, j'veux voir les billets roses Voilà le but d'mon rôle et j'sais que j'vais en chier d'douleur Tu peux te faire péter par un voleur toutes tes économies Fait attention si on sait que t'as un trésor on vient chez toi avec la colonie Foolek à la Vegeta, à la Mark Landers J'ai toujours coupé les XXX très sale, à la Highlanders Par ici, là j'ai le shit allez vite schlaggez lâchez Les dollars venez acheter apprécie la zeb, la vraie Maléfique près de la haine pas de bétises, ta paix j'la baise Allez dire que j'rap que des saletés, Ademo s'en bas les yeu-cou You might also like On est trop, on est, on est on est chaud, on est, on est Dans le ghetto, on est, on est tous à s'tape pour la monnaie Dans le rétro, les condés, condés c'en ai trop, isolé-solé Rien d'un loveur, j'encule toutes les poucaves à la volée J'ai rien d'un loveur compare XXX à un lance-roquettes Okay, les pétasses qui m'aiment j'les prends en brochette Petit n'écoute pas ce que je dis des fois je pars en sucette Je peux écrire avec une go entre les jambes ça me pose pas de problème Le rap je m'en tape à part si y'a de l'oseille Ça me fait pas graille c'est les stups qui m'ont payé mon premier projet Son des halls un putain de bail et les mecs sont dopés J'suis opé grave et je m'en bats les couilles je peux même les donner Faudrait qu'on s'en sorte avec la mif les reufrés Mais putain Fleury c'est proche c'est près comme si je la frôlais Haut les mains on entend ça sans être étonné On se dit bonjour tout en sachant que n'importe qui peut se faire lever Choqué un mot qui nous fait bien tous rigoler On en a vu maintenant on veut juste rouler en cabriolet Ricocher entre la tess les keufs et les halls C'est dar prêt à tout négro on a les crocs On est trop, on est, on est on est chaud, on est, on est Dans le ghetto, on est, on est tous à s'tape pour la monnaie Dans le rétro, les condés, condés c'en ai trop, isolé-solé Rien d'un loveur, j'encule toutes les poucaves à la volée</t>
+          <t>Chui pas un lover alors toutes les meufs se mettent loin de moi Chui pas un chanteur, j'ai fait un rêve où tous les keufs se mettent un doigt Chui fils de bandit, mon papa à moi est un gangster Si on respecte les anciens à 22 ans je veux être un ancêtre J'ai pas la taille prévu pour dunker, alors je grimpe sur les tass' J'me demande si je suis bon qu'à détaille, qu'à détaille À la Une y a qu'la thune et la thune voit qu'la lune dans mon tunnel La tumeur de la vie nous tue, une erreur venu de notre tumeur Argent et bails bienvenu au moyen-âge Sex, money, action détail et tout l'monde t'aime comme Mickael Jackson J'm'appel ni Jason, ni Bryan XXX Transforme en Super Sayan, ça cisaille XXX J'suis opérationnel, j'écris c'que j'aime et pis fuck toi On verra l'soleil XXX mais on espère le voir un certain soir J'suis un tigre, j'vivrais jamais comme un mouton Quitte à prendre 20 piges, parce qu'il y a ceux qui tapent le steak et ceux qui s'grattent leurs boutons On est trop, on est, on est on est chaud, on est, on est Dans le ghetto, on est, on est tous à s'tape pour la monnaie Dans le rétro, les condés, condés c'en ai trop, isolé-solé Rien d'un loveur, j'encule toutes les poucaves à la volée J'encule toutes les balances, comment vivre en sachant que t'en ai une ? J'respecte tout les parents, l'impression qu'on m'a chié sur Neptune J'suis la preuve vivante qu'on peut être barge dans le son C'est ce qu'y me rend surpuissant, j'rêve pas d'faire d'la chanson J'ai rêvé de mettre les pauvres à l'abri, c'était un rêve de gosse Désolé mon Dieu mais j'rêve plus que les poches pleines de drogue Venez prendre votre dose, j'veux voir les billets roses Voilà le but d'mon rôle et j'sais que j'vais en chier d'douleur Tu peux te faire péter par un voleur toutes tes économies Fait attention si on sait que t'as un trésor on vient chez toi avec la colonie Foolek à la Vegeta, à la Mark Landers J'ai toujours coupé les XXX très sale, à la Highlanders Par ici, là j'ai le shit allez vite schlaggez lâchez Les dollars venez acheter apprécie la zeb, la vraie Maléfique près de la haine pas de bétises, ta paix j'la baise Allez dire que j'rap que des saletés, Ademo s'en bas les yeu-cou On est trop, on est, on est on est chaud, on est, on est Dans le ghetto, on est, on est tous à s'tape pour la monnaie Dans le rétro, les condés, condés c'en ai trop, isolé-solé Rien d'un loveur, j'encule toutes les poucaves à la volée J'ai rien d'un loveur compare XXX à un lance-roquettes Okay, les pétasses qui m'aiment j'les prends en brochette Petit n'écoute pas ce que je dis des fois je pars en sucette Je peux écrire avec une go entre les jambes ça me pose pas de problème Le rap je m'en tape à part si y'a de l'oseille Ça me fait pas graille c'est les stups qui m'ont payé mon premier projet Son des halls un putain de bail et les mecs sont dopés J'suis opé grave et je m'en bats les couilles je peux même les donner Faudrait qu'on s'en sorte avec la mif les reufrés Mais putain Fleury c'est proche c'est près comme si je la frôlais Haut les mains on entend ça sans être étonné On se dit bonjour tout en sachant que n'importe qui peut se faire lever Choqué un mot qui nous fait bien tous rigoler On en a vu maintenant on veut juste rouler en cabriolet Ricocher entre la tess les keufs et les halls C'est dar prêt à tout négro on a les crocs On est trop, on est, on est on est chaud, on est, on est Dans le ghetto, on est, on est tous à s'tape pour la monnaie Dans le rétro, les condés, condés c'en ai trop, isolé-solé Rien d'un loveur, j'encule toutes les poucaves à la volée</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2614,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>J'ai pas la vie de rrrrêve, bande d'enculés, j'ai pas la vie d'rêve J'ai pas la vie d'rêve Dis à ceux qui stressent qu'ils baissent leur froc et dis-leur qu'ils s'taisent J'leur fous dans l'zen c'est l'heure qu'il neige J'baise l'Etat vite fait, toujours d'la vitesse T'entends l'déclic BANG ! Joie quand ma montre s'appellera Big Ben Hé connard avance, j'fais pas dans la dentelle J't'la fous dans la dent t'as pas capté ? Prends ma bite ça t'servira d'antenne A part siffler pour prévenir qu'y a les shtars J'suis toujours pour l'PSG, c'est nous les plus vifs dans les stades Eh p'tit pédé, on prend ton corps on s'en sert d'bouclier On voit l'avenir avec beaucoup d'billets J'veux finir comme Maxwell Sheffield Pète la nounou d'l'enfer, mais avoir une nounou d'enfer avec les fesses très lisses Appelle la police, dis-leur que j'les baise, mais non pas comme toi j'les baise p'tit con, j'les baise vraiment Arrête de chialer, t'sens pas chaud car tu portes une arme T'es qu'une merde, à croire qu'ta mère t'a accouché lors d'une chiasse Eh copine, j'ai pas l'time, arrête de wizzer, j'dois faire le bi-ze, j'te l'dis direct baisons, zon pas d'bisous Ouaip ouaip, Ademo j'suis un mister moi, toujours l'mister, pour ça qu'tu m'crains hein ? p'tite chienne J'roulerai jamais en bolide, tant qu'les miens s'ront pas en Boeing, boring, boycott, j't'encule j'suis pas un poète Toujours mon brolic, la même puce cramée, les mêmes bruits Quand on m'appelle dans ma parano, j'appelle en mode allô oui allô oui ? quelqu'un m'entend ? j'dis pas y a foy eh, j'dis y a d'la bonne, d'la beuh ou d'la weed You might also likeJ'vis entouré d'rats et j'ai pas mis d'dentier sous mon coussin 2010 c'est quoi les bails, si j'paye mon grec c'est qu'tu m'passes un bout d'sein Et si tu kiffes pas la sauce, t'auras la mienne après Ça s'prend pour Indiana Jones, vue sur aile, kiffe la scène ? Pétasse, pédale, ferme ta gueule ou j't'enlève tes peusa Tu repartiras à poil, la vie m'a changé, un vrai lézard J'suis Jarod, j'suis Léon, un mélange des deux J'suis l'premier personne, vu qu'Personne, n'a peur de personne We-sheuh, ça tape fort à la porte saute par la f'nê-treuh J'suis pas d'accord pour qu'on m'arrê-teuh, c'est pas la fê-teuh Au passage hommage à Fleury, ou à la Santé d'Fres-nes Et autant dire qu'y a qu'à Chateauroux où la poisse s'y mê-leuh Laisse-les, laisse-les, Ademo POUM ! désolé J'suis esseulé est-ce les bolosses qui vont finir par m'ficeler ? Bou-bou-bouge de là putain J'suis comme Boubou j'lâche pas l'affaire Toujours le dernier d'la classe j'ai pas d'évoluer mentalement J'suis normalement conditionné pour m'défendre de ma force Au contact le tâcle, putain d'tâcle à la gorge Si j'attaque le joueur j'aurai plus rapidement la balle, j'aime pas attendre Allez file, t'as rien à faire ici hein On sait très bien qu'tu regardes si ?? ça t'fera goûter mes os vu qu't'es un chien Nous on assume à chaque choc, on voit pas la vie sans chèque, on a la vue d'un Jackpot check si t'es voué à l'échec Bambino y a pas d'argent facile, c'est du mito, d'mande à ceux au mitard ceux qui connaissent chaque définition du dico Ceux qui se sont secoué la teub comme un Orangina Ceux qui avec le temps ont vu s'effacer chaque moment de leurs images J'me permets d'dire ta mère la pute à l'Etat, au juge, au proc Tu baises des mineurs et c'est toi qui m'juge gros porc ? PEACE, rendez-vous tous là-haut, celui qui va t'juger, wallah tu vas pleurer jusqu'à t'en foutre la honte STOP, j'arrête de parler p'tit pédé, au frères déférés gardez la pêche, toujours liblou ?, personne peut nous sceller Depuis tout p'tit à traîner dans les allées, j'aime marcher seul j'suis taré Les mères pleurent donc les plats toujours servis salés-salés En fous d'vant les gars des rues A vingt ans rouler en Megan, t'as quarante ans toujours rien gagné Tous derrière des vitres teintés, si on tire c'est qu't'avais des vitres fumées T'as des problèmes ? on en a tous, qui va assumer ? T'es dans la hess, wallah tu changes pas d'slip toujours les jours ! T'es dans la hess connard, ton slip il sent l'shit et les couilles T'as gardé combien dans l'même jeans ? Tu vas voir des meufs pour les aveugler mais toujours le même redskin ! Allez file, contrat à mi-temps ou bien les tiges ? ? Imbécile, on n'a pas d'l'argent en faisant de la lessive Tu veux t'appeler Jean-Redoua toi aussi ? Tu veux baiser dans la piscine ? shhh, tais-toi, y a la douane, prends la prochaine sortie, attends ici.. Eh connard c'est méCanique La bise d'vant l'esCalier Si t'es pressé tu vas t'éclater, rentrer t'laver, ressortir armé Ademo, Tarterets là où j'ai grandi Fuck les jaloux, merci mon dieu qu'les miens et moi soient toujours en vie J'ai 91 100 d'chance de pas vivre d'la zik Ademo le mec qu'on n'écoute jamais sans préservatif Et au fait nique le monde, nique les rappeurs, j'suis pas un rappeur moi. Raboulez la thune et tenez-bien vos meufs RHAI</t>
+          <t>J'ai pas la vie de rrrrêve, bande d'enculés, j'ai pas la vie d'rêve J'ai pas la vie d'rêve Dis à ceux qui stressent qu'ils baissent leur froc et dis-leur qu'ils s'taisent J'leur fous dans l'zen c'est l'heure qu'il neige J'baise l'Etat vite fait, toujours d'la vitesse T'entends l'déclic BANG ! Joie quand ma montre s'appellera Big Ben Hé connard avance, j'fais pas dans la dentelle J't'la fous dans la dent t'as pas capté ? Prends ma bite ça t'servira d'antenne A part siffler pour prévenir qu'y a les shtars J'suis toujours pour l'PSG, c'est nous les plus vifs dans les stades Eh p'tit pédé, on prend ton corps on s'en sert d'bouclier On voit l'avenir avec beaucoup d'billets J'veux finir comme Maxwell Sheffield Pète la nounou d'l'enfer, mais avoir une nounou d'enfer avec les fesses très lisses Appelle la police, dis-leur que j'les baise, mais non pas comme toi j'les baise p'tit con, j'les baise vraiment Arrête de chialer, t'sens pas chaud car tu portes une arme T'es qu'une merde, à croire qu'ta mère t'a accouché lors d'une chiasse Eh copine, j'ai pas l'time, arrête de wizzer, j'dois faire le bi-ze, j'te l'dis direct baisons, zon pas d'bisous Ouaip ouaip, Ademo j'suis un mister moi, toujours l'mister, pour ça qu'tu m'crains hein ? p'tite chienne J'roulerai jamais en bolide, tant qu'les miens s'ront pas en Boeing, boring, boycott, j't'encule j'suis pas un poète Toujours mon brolic, la même puce cramée, les mêmes bruits Quand on m'appelle dans ma parano, j'appelle en mode allô oui allô oui ? quelqu'un m'entend ? j'dis pas y a foy eh, j'dis y a d'la bonne, d'la beuh ou d'la weed J'vis entouré d'rats et j'ai pas mis d'dentier sous mon coussin 2010 c'est quoi les bails, si j'paye mon grec c'est qu'tu m'passes un bout d'sein Et si tu kiffes pas la sauce, t'auras la mienne après Ça s'prend pour Indiana Jones, vue sur aile, kiffe la scène ? Pétasse, pédale, ferme ta gueule ou j't'enlève tes peusa Tu repartiras à poil, la vie m'a changé, un vrai lézard J'suis Jarod, j'suis Léon, un mélange des deux J'suis l'premier personne, vu qu'Personne, n'a peur de personne We-sheuh, ça tape fort à la porte saute par la f'nê-treuh J'suis pas d'accord pour qu'on m'arrê-teuh, c'est pas la fê-teuh Au passage hommage à Fleury, ou à la Santé d'Fres-nes Et autant dire qu'y a qu'à Chateauroux où la poisse s'y mê-leuh Laisse-les, laisse-les, Ademo POUM ! désolé J'suis esseulé est-ce les bolosses qui vont finir par m'ficeler ? Bou-bou-bouge de là putain J'suis comme Boubou j'lâche pas l'affaire Toujours le dernier d'la classe j'ai pas d'évoluer mentalement J'suis normalement conditionné pour m'défendre de ma force Au contact le tâcle, putain d'tâcle à la gorge Si j'attaque le joueur j'aurai plus rapidement la balle, j'aime pas attendre Allez file, t'as rien à faire ici hein On sait très bien qu'tu regardes si ?? ça t'fera goûter mes os vu qu't'es un chien Nous on assume à chaque choc, on voit pas la vie sans chèque, on a la vue d'un Jackpot check si t'es voué à l'échec Bambino y a pas d'argent facile, c'est du mito, d'mande à ceux au mitard ceux qui connaissent chaque définition du dico Ceux qui se sont secoué la teub comme un Orangina Ceux qui avec le temps ont vu s'effacer chaque moment de leurs images J'me permets d'dire ta mère la pute à l'Etat, au juge, au proc Tu baises des mineurs et c'est toi qui m'juge gros porc ? PEACE, rendez-vous tous là-haut, celui qui va t'juger, wallah tu vas pleurer jusqu'à t'en foutre la honte STOP, j'arrête de parler p'tit pédé, au frères déférés gardez la pêche, toujours liblou ?, personne peut nous sceller Depuis tout p'tit à traîner dans les allées, j'aime marcher seul j'suis taré Les mères pleurent donc les plats toujours servis salés-salés En fous d'vant les gars des rues A vingt ans rouler en Megan, t'as quarante ans toujours rien gagné Tous derrière des vitres teintés, si on tire c'est qu't'avais des vitres fumées T'as des problèmes ? on en a tous, qui va assumer ? T'es dans la hess, wallah tu changes pas d'slip toujours les jours ! T'es dans la hess connard, ton slip il sent l'shit et les couilles T'as gardé combien dans l'même jeans ? Tu vas voir des meufs pour les aveugler mais toujours le même redskin ! Allez file, contrat à mi-temps ou bien les tiges ? ? Imbécile, on n'a pas d'l'argent en faisant de la lessive Tu veux t'appeler Jean-Redoua toi aussi ? Tu veux baiser dans la piscine ? shhh, tais-toi, y a la douane, prends la prochaine sortie, attends ici.. Eh connard c'est méCanique La bise d'vant l'esCalier Si t'es pressé tu vas t'éclater, rentrer t'laver, ressortir armé Ademo, Tarterets là où j'ai grandi Fuck les jaloux, merci mon dieu qu'les miens et moi soient toujours en vie J'ai 91 100 d'chance de pas vivre d'la zik Ademo le mec qu'on n'écoute jamais sans préservatif Et au fait nique le monde, nique les rappeurs, j'suis pas un rappeur moi. Raboulez la thune et tenez-bien vos meufs RHAI</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2631,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>No veo el final de la lucha No hay un alto el fuego a la vista Un fuego que crece más alto, alimentado por la ignorancia y el orgullo Canibaliza nuestro propio lado Una división mortal Mil espinas venenosas, se alinean en los rincones de mi mente Ahórrame el peso de tu sentimiento Ahórrame los elementos indignos de tu corazón Déjame en paz con la energía Déjame con toda mi malevolencia, en la oscuridad Tomarás lo que quieras cuando me desarmes Toma lo que quieras Desármame Estamos corriendo en la oscuridad La oscuridad Todo lo que sabemos es el precio que pagamos Cuando todo está dicho y hecho Mientras volamos demasiado alto y ardemos en el sol Ardemos en el sol You might also like Ardemos en el sol Nos cargamos a nosotros mismos mientras asesinamos el pasado Las llaves del reino, encerradas en vidrio Rezamos por lluvia, y en su lugar obtuvimos sequía Y si nos dieran alas, serían hechas de plomo Hechas de No veo el final de la lucha No hay un alto el fuego a la vista Las mil espinas venenosas, se alinean en los rincones de mi mente Nos encontrarán en nuestras casas No quedará ningún lugar seguro para esconderse Toma lo que quieras Desármame Es el precio que pagamos Estamos corriendo en la oscuridad La oscuridad Todo lo que sabemos es el precio que pagamos Cuando todo está dicho y hecho Mientras volamos demasiado alto y ardemos en el sol Mientras corramos hasta el final No quedará tiempo para fingir Nos merecemos esto, Aprenderemos de lo que hemos hecho? O arderemos en el sol? No veo el final de la lucha No hay un alto el fuego a la vista Un fuego que crece más alto, alimentado por el odio y orgullo ardiente Canibaliza nuestro propio lado Una división que nunca crece Las mil espinas venenosas presionan cada vez más en lo profundo de mi mente</t>
+          <t>No veo el final de la lucha No hay un alto el fuego a la vista Un fuego que crece más alto, alimentado por la ignorancia y el orgullo Canibaliza nuestro propio lado Una división mortal Mil espinas venenosas, se alinean en los rincones de mi mente Ahórrame el peso de tu sentimiento Ahórrame los elementos indignos de tu corazón Déjame en paz con la energía Déjame con toda mi malevolencia, en la oscuridad Tomarás lo que quieras cuando me desarmes Toma lo que quieras Desármame Estamos corriendo en la oscuridad La oscuridad Todo lo que sabemos es el precio que pagamos Cuando todo está dicho y hecho Mientras volamos demasiado alto y ardemos en el sol Ardemos en el sol Ardemos en el sol Nos cargamos a nosotros mismos mientras asesinamos el pasado Las llaves del reino, encerradas en vidrio Rezamos por lluvia, y en su lugar obtuvimos sequía Y si nos dieran alas, serían hechas de plomo Hechas de No veo el final de la lucha No hay un alto el fuego a la vista Las mil espinas venenosas, se alinean en los rincones de mi mente Nos encontrarán en nuestras casas No quedará ningún lugar seguro para esconderse Toma lo que quieras Desármame Es el precio que pagamos Estamos corriendo en la oscuridad La oscuridad Todo lo que sabemos es el precio que pagamos Cuando todo está dicho y hecho Mientras volamos demasiado alto y ardemos en el sol Mientras corramos hasta el final No quedará tiempo para fingir Nos merecemos esto, Aprenderemos de lo que hemos hecho? O arderemos en el sol? No veo el final de la lucha No hay un alto el fuego a la vista Un fuego que crece más alto, alimentado por el odio y orgullo ardiente Canibaliza nuestro propio lado Una división que nunca crece Las mil espinas venenosas presionan cada vez más en lo profundo de mi mente</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2648,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>XXXYou might also like</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2665,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>XXXYou might also like</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2682,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Check pour ma vie pour ma rage aime ma grosse aime ta chienne veulent la lune je l'enmene on baise sur ma comaide Y'a pas de comique y'a pas de phozere connard je ressemble a personne gros on est droit meme quand je vise les dollars Les mecs de tess disent ademo arrete pas le rap t'es ouf Mais la chienne qui me thaine je deviens fous je vois pas les sous Me parle pas de rapeur quand je sors du studio j'oublie tous ca Les freres me connaissent ouais quand je pisse quand je dis tous bav Les jaloux portent l'oeil composent le 17 avec un regard La je suis dangereux comme quand un batard me visserent me recale C'est quoi ce delire ? les tapettes jouent les chauds Les chauds font les choses ferment ta gueule ou je te rend sterile Une chienne je lui paye pas un MacDonald Arrete tetola faut que da sess comme dit le zen de maradona Ce soir en hess en beton de la tess ou de les taules lmec du ghetto et toujours dans les bye des cheques ou de les loves de la freche du zen Je sui dans netfixYou might also like</t>
+          <t>Check pour ma vie pour ma rage aime ma grosse aime ta chienne veulent la lune je l'enmene on baise sur ma comaide Y'a pas de comique y'a pas de phozere connard je ressemble a personne gros on est droit meme quand je vise les dollars Les mecs de tess disent ademo arrete pas le rap t'es ouf Mais la chienne qui me thaine je deviens fous je vois pas les sous Me parle pas de rapeur quand je sors du studio j'oublie tous ca Les freres me connaissent ouais quand je pisse quand je dis tous bav Les jaloux portent l'oeil composent le 17 avec un regard La je suis dangereux comme quand un batard me visserent me recale C'est quoi ce delire ? les tapettes jouent les chauds Les chauds font les choses ferment ta gueule ou je te rend sterile Une chienne je lui paye pas un MacDonald Arrete tetola faut que da sess comme dit le zen de maradona Ce soir en hess en beton de la tess ou de les taules lmec du ghetto et toujours dans les bye des cheques ou de les loves de la freche du zen Je sui dans netfix</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2699,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>C'matin cest die jme lève tôt, plus tôt qudhabitude La gueule dans lsac il va faire beau comme à Malibu Alors jme passe un coup d'eau parce que ma tête chauffe Comme la tess comme la merde devant la fête foraine Jsors paire de Stan Smith, survet noir T shirt long serré, Bleu ciel pour faire style Et jmarche seul tout comme dhab debout seul Les soucis sarrangent alors mes ongles sallongent pas à bout d'seum Sur ma route jcroise un poto tchek, bien ou bien frelon cest quoi les diez ? ? tu connais au fait combien l'100 meu-g ? Viens tà lheure jverrais si jai chose-quel Pour linstant jpense à ma mif, faire des gros sous, faire des gros chèques Sisi Ademo ce soir même bât comme dhab Vas-y, vas-y, cest ça, même bail même come? C'matin cest die, jdois faire d'la thune en masse Jveux mon cocktail, ma plage, plus vendre ça pue langoisse Ça y est jsuis devant la gare jmets mes lunettes de vue Pour passer pépère les contrôles ferroviaires que faire de plus ? Si c'nest attendre larrêt d'ma destination Corbeil, jvais dans mon ancien quartier, dans cette aire de lévitation Jcroise 23 patrouilles mais fuck Jsuis déterminé ma vie cest soit j'suis bien soit j'meurs sous l'block Jai rendez vous avec un fantôme pour mon lo-ki Ma parano fait qu'chacun que j'croise en route est analysé au scribe You might also like C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène Ok fait parler bails, jespère que c'est du gras que c'est du bon Cest la thune pom-pom-pom, ça a l'air du bon Alors hop dans lsac, on y va Le stress menvahisse jusquau crâne jusquaux fesses Jprends l'chemin du retour, recouvre mon zen des lunettes Du cou la corde au bout jredoute la horde de boules Jsuis dans le train pépèrement, mes sacs loin d'moi Au cas où ça merde, au cas où les chiottes sont pas loin d'moi Jpeux t'dire qu'les gens jles calcule pas ? regarde même pas jlui parle dans lcrâne ya plus d'place A mi-chemin le stress est parti Pourtant yemma cest la vie qui s'joue dans cputain dscénario dla zic Jarrive ok, faut faire vite vite ok Disloqué jentends monsieur vos papiers sil vous plaît Merde, cest bon jai compris faut tracer Le comico ma pris en chasse filoché comme un apache Jsuis dans lpétrain jpense à la mif et devant l'fait acccompli Jgarde les bails, nique leur mère a ces sheitans Ya plus d'temps à perdre ya plus ltemps dfaire Jvois des bâtiments jy rentre vert Jouvre lascenseur jle coince et lâche le sac Le referme pour pas quils crient ces keufs, ces bâtards de rats Jressors, plaquage sur le sol, mon bagage il est où ? dans ton cul à 2 doigts du savatage C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène 48h dgarde a v en mode interrogation Pourquoi tas couru ? Tavais un sac ? 23 insultes fusent tapette 23 claques il m'ruse la tête vu qu'j'la mets a lenvers au stup Jentends des échos comme quoi l'sac aurait été retrouvé Peur d'couler j'suis pas loin du dépôt Les poulets font tout pour m'faire baver, bah voyons ! Pas lbac et tu veux m'plaquer ? Si j'tombe jpense à la mif, à la perte de temps Soit Fleury soit Fresnes on verra bien comment ça merde dedans Et là un keuf rentre avec mon sac, le seum putain Bon bah fuck ça sent pas bon l'cur bat son plein Jaurai p't'être dû courir plus, cest sûr Au pire ? jusquà c'quils me lâchent et nen puissent plus Au lieu d'ça ça a merdé Fallait bien qu'ça arrive au bout d'100 fois sur la ligne du C ou du RER D À Corbeil ça merde, Juvisy ça merde, Ivry ça merde, trop de keufs sa mère Lappel de lordre cest notre vie, cest en nous mec Lhistoire cest quoi ? Cest pour tout, tous on sembrouille check Un lo-ki dans lce-sa, le schtar cest lbail Mais si j'te dis que le sac ? on l'a rotte-ca ça fait mal Ça sauve mais bon, même si on est pas tombé Celui qui a appelé le diez man, va falloir l'plomber C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène</t>
+          <t>C'matin cest die jme lève tôt, plus tôt qudhabitude La gueule dans lsac il va faire beau comme à Malibu Alors jme passe un coup d'eau parce que ma tête chauffe Comme la tess comme la merde devant la fête foraine Jsors paire de Stan Smith, survet noir T shirt long serré, Bleu ciel pour faire style Et jmarche seul tout comme dhab debout seul Les soucis sarrangent alors mes ongles sallongent pas à bout d'seum Sur ma route jcroise un poto tchek, bien ou bien frelon cest quoi les diez ? ? tu connais au fait combien l'100 meu-g ? Viens tà lheure jverrais si jai chose-quel Pour linstant jpense à ma mif, faire des gros sous, faire des gros chèques Sisi Ademo ce soir même bât comme dhab Vas-y, vas-y, cest ça, même bail même come? C'matin cest die, jdois faire d'la thune en masse Jveux mon cocktail, ma plage, plus vendre ça pue langoisse Ça y est jsuis devant la gare jmets mes lunettes de vue Pour passer pépère les contrôles ferroviaires que faire de plus ? Si c'nest attendre larrêt d'ma destination Corbeil, jvais dans mon ancien quartier, dans cette aire de lévitation Jcroise 23 patrouilles mais fuck Jsuis déterminé ma vie cest soit j'suis bien soit j'meurs sous l'block Jai rendez vous avec un fantôme pour mon lo-ki Ma parano fait qu'chacun que j'croise en route est analysé au scribe C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène Ok fait parler bails, jespère que c'est du gras que c'est du bon Cest la thune pom-pom-pom, ça a l'air du bon Alors hop dans lsac, on y va Le stress menvahisse jusquau crâne jusquaux fesses Jprends l'chemin du retour, recouvre mon zen des lunettes Du cou la corde au bout jredoute la horde de boules Jsuis dans le train pépèrement, mes sacs loin d'moi Au cas où ça merde, au cas où les chiottes sont pas loin d'moi Jpeux t'dire qu'les gens jles calcule pas ? regarde même pas jlui parle dans lcrâne ya plus d'place A mi-chemin le stress est parti Pourtant yemma cest la vie qui s'joue dans cputain dscénario dla zic Jarrive ok, faut faire vite vite ok Disloqué jentends monsieur vos papiers sil vous plaît Merde, cest bon jai compris faut tracer Le comico ma pris en chasse filoché comme un apache Jsuis dans lpétrain jpense à la mif et devant l'fait acccompli Jgarde les bails, nique leur mère a ces sheitans Ya plus d'temps à perdre ya plus ltemps dfaire Jvois des bâtiments jy rentre vert Jouvre lascenseur jle coince et lâche le sac Le referme pour pas quils crient ces keufs, ces bâtards de rats Jressors, plaquage sur le sol, mon bagage il est où ? dans ton cul à 2 doigts du savatage C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène 48h dgarde a v en mode interrogation Pourquoi tas couru ? Tavais un sac ? 23 insultes fusent tapette 23 claques il m'ruse la tête vu qu'j'la mets a lenvers au stup Jentends des échos comme quoi l'sac aurait été retrouvé Peur d'couler j'suis pas loin du dépôt Les poulets font tout pour m'faire baver, bah voyons ! Pas lbac et tu veux m'plaquer ? Si j'tombe jpense à la mif, à la perte de temps Soit Fleury soit Fresnes on verra bien comment ça merde dedans Et là un keuf rentre avec mon sac, le seum putain Bon bah fuck ça sent pas bon l'cur bat son plein Jaurai p't'être dû courir plus, cest sûr Au pire ? jusquà c'quils me lâchent et nen puissent plus Au lieu d'ça ça a merdé Fallait bien qu'ça arrive au bout d'100 fois sur la ligne du C ou du RER D À Corbeil ça merde, Juvisy ça merde, Ivry ça merde, trop de keufs sa mère Lappel de lordre cest notre vie, cest en nous mec Lhistoire cest quoi ? Cest pour tout, tous on sembrouille check Un lo-ki dans lce-sa, le schtar cest lbail Mais si j'te dis que le sac ? on l'a rotte-ca ça fait mal Ça sauve mais bon, même si on est pas tombé Celui qui a appelé le diez man, va falloir l'plomber C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène</t>
         </is>
       </c>
     </row>
@@ -2722,11 +2714,7 @@
           <t>Tu connais</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2741,7 +2729,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Paroles venant d'un extrait Mais moi jveux que tu danses Tcha tcha tcha tcha Faut que je sorte un flow Le flow dune colombienne Wesh les mecs wesh vous êtes là Posés dans le hall tous sous zetla La vie cest gang ouais jminquiète La khaténa dans la tête Wesh les mecs wesh vous êtes là Posés dans le hall tous sous zetla La vie cest gang ouais jminquiète La khaténa dans la têteYou might also like</t>
+          <t>Paroles venant d'un extrait Mais moi jveux que tu danses Tcha tcha tcha tcha Faut que je sorte un flow Le flow dune colombienne Wesh les mecs wesh vous êtes là Posés dans le hall tous sous zetla La vie cest gang ouais jminquiète La khaténa dans la tête Wesh les mecs wesh vous êtes là Posés dans le hall tous sous zetla La vie cest gang ouais jminquiète La khaténa dans la tête</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2746,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Négro c'est street street Blarrr dans ta tête chacal Une pute plus une pute égal mes boules et deux bouches gava Ça fait clic-clic tu connais la technique Clic-clic cri cri paw et c'est le déclic Nique ta race et ta femme affame car toujours affamée Gros Dans la face, c'est avarié, j'ai la dalle donc garde les cros Vas-y bouge tes zeub bouge des zeub jusqu'au bout de la night Bouge tout ce que t'a j'men bats les couilles t'en que tu ramène la maille Nous ce qu'on veut c'est la maille, le biff on n'a pas pas l'temps XXX On dé-dérégler putin, t'es t'es con ou quoi Vroum,vroum Et vas-y accélère igo Wow,wow,wow Wow, wow, wow c'est quoi que j'entend là et Moi je dois faire de la tune, le rap je lui baise sa mère la pute XXX de la pur Quand je fait de la pur, j'assume la monter jusqu'à la chute Tu veux du shit viens voir mes chi-chipotes pas ou je t'insulte À qui la faute, à qui la faute si on devient méchant À qui la faute, à qui la faute dit moi Wow, wow, wow N.O.S, Ademo on est pas très tendre Tu la sentis dans ton ahh ta fait Wow, wow, wow Perdu 20 dollars Wow Y'a le ragla Wow À 13 heure y'a les keufs où là Wow, wow, wow Tu pars pour 20 piges Wow Il baise ta copine Wow Un pédé te drague dans ta tête ça fait Wow, wow, wow Les you-voi contrôlent le terrain Et les poulets sont zehef On bibi dans la zone et les autres cités nous déteste Si j'pose sur le son des hall, c'est pour fumer le sept Si j'vends là.. c'est pour faire snifer le seize Chui tout-tout-tout-toujours en infraction à 520 dans la structure et l'autre dans le caleçon Le litrons n'à pas fait de nous des héros pu cramé pu armé les autres villes on baise les hétéros J'me disais pourvue que je me face pas pété avant de posé Pour vous je me face pas pétété avant de buggé Cash-cash-money dans les bacs, litrons dans les caves J'pise mon avenir dans des clicos qui finisse par se poucav Des-des-des gangstas, thugs dans la tête C'est la misère et nos darons lisent le XXX dans la tess À qui la faute, à qui la faute si on devient méchant À qui la faute, à qui la faute dit moi Wow, wow, wow N.O.S, Ademo on est pas très tendre Tu la sentis dans ton ahh ta fait Wow, wow, wow Perdu 20 dollars Wow Y'a le ragla Wow À 13h y'a les keufs où là Wow, wow, wow Tu pars pour 20 piges Wow Il baise ta copine Wow Un pédé te drague dans ta tête ça fait Wow, wow, wowYou might also like</t>
+          <t>Négro c'est street street Blarrr dans ta tête chacal Une pute plus une pute égal mes boules et deux bouches gava Ça fait clic-clic tu connais la technique Clic-clic cri cri paw et c'est le déclic Nique ta race et ta femme affame car toujours affamée Gros Dans la face, c'est avarié, j'ai la dalle donc garde les cros Vas-y bouge tes zeub bouge des zeub jusqu'au bout de la night Bouge tout ce que t'a j'men bats les couilles t'en que tu ramène la maille Nous ce qu'on veut c'est la maille, le biff on n'a pas pas l'temps XXX On dé-dérégler putin, t'es t'es con ou quoi Vroum,vroum Et vas-y accélère igo Wow,wow,wow Wow, wow, wow c'est quoi que j'entend là et Moi je dois faire de la tune, le rap je lui baise sa mère la pute XXX de la pur Quand je fait de la pur, j'assume la monter jusqu'à la chute Tu veux du shit viens voir mes chi-chipotes pas ou je t'insulte À qui la faute, à qui la faute si on devient méchant À qui la faute, à qui la faute dit moi Wow, wow, wow N.O.S, Ademo on est pas très tendre Tu la sentis dans ton ahh ta fait Wow, wow, wow Perdu 20 dollars Wow Y'a le ragla Wow À 13 heure y'a les keufs où là Wow, wow, wow Tu pars pour 20 piges Wow Il baise ta copine Wow Un pédé te drague dans ta tête ça fait Wow, wow, wow Les you-voi contrôlent le terrain Et les poulets sont zehef On bibi dans la zone et les autres cités nous déteste Si j'pose sur le son des hall, c'est pour fumer le sept Si j'vends là.. c'est pour faire snifer le seize Chui tout-tout-tout-toujours en infraction à 520 dans la structure et l'autre dans le caleçon Le litrons n'à pas fait de nous des héros pu cramé pu armé les autres villes on baise les hétéros J'me disais pourvue que je me face pas pété avant de posé Pour vous je me face pas pétété avant de buggé Cash-cash-money dans les bacs, litrons dans les caves J'pise mon avenir dans des clicos qui finisse par se poucav Des-des-des gangstas, thugs dans la tête C'est la misère et nos darons lisent le XXX dans la tess À qui la faute, à qui la faute si on devient méchant À qui la faute, à qui la faute dit moi Wow, wow, wow N.O.S, Ademo on est pas très tendre Tu la sentis dans ton ahh ta fait Wow, wow, wow Perdu 20 dollars Wow Y'a le ragla Wow À 13h y'a les keufs où là Wow, wow, wow Tu pars pour 20 piges Wow Il baise ta copine Wow Un pédé te drague dans ta tête ça fait Wow, wow, wow</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2763,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Faut quon senjaille, là jsuis dmauvaise humeur Ya quoi dplus normal quun Algérien qui veut faire du beurre ? Si jfais du lourd, jpèse plus le poids des mots Tu connais lhebs, tu connais la rue, bah tu connais Ademo Tu msuis, tu crois qujai des tunes, petit naze Tu mlâcheras dès qutu verras qumes poches sont vides T-Bag Tu fais du son, tu penses être le meilleur boug qui rappe Mais l'heure tourne et ta bouche pue, Tic Tac, arabes et renois ça galère Pourtant nos meilleurs amis sappellent Philipp et Jack Daniels Révolutionnaire donc en dépit pour se faire Ni Sarko, ni Hollande, votent Marine Le Pen Face aux miradors on dira qujsuis illuminé Poto jfais pas dcadeau donc jpasserai pas par quatre cheminées LÉtat mdégoûte, il voudrait quj'vive un Enfer Donc jleur casse les couilles comme un motherfucking string à lenvers Ils augmentent les clopes donc les ients-cli achètent moins dbarrettes Jai demandé dlaide ils mont dit retourne dans ta maison darrêt Ma vie est dure, tout est dur dans la vie Donc jai pas compris quand on ma dit tu fais dlargent facile Petit on mdisait qujétais un trou dballe Mais jtaurais chié sur la gueule si javais été un trou dballe Jai eu la dalle donc jai tapé la barquette On ma dit tu veux manger ? Tu mangeras beaucoup plus aux assiettes Des mots fléchés en attendant la flèche dCupidon Si jai dla peine, jrelativise, dautres ont des peines de prison Et jsais qutu sais quje sais moi Tu marches, tu regardes de travers, tu roules de travers, 't'es pas un mec droit Lhabit nfait pas le moine, donc à poil sera la fille Le jour sera une femme, une chienne sera la nuit Ni Popeye, ni Mary Poppins Les mineurs veulent être dépendants, donc smettent à la nicotine Les rappeurs scroient forts, avec des écrits horribles Spermettent de jouer avec le micro comme Philippe Risoli Les petits écoutent, oublient les sourates Les mots rebeu sortent moins dla bouche des arabes que des tous-bab Et jlance pas des punchlines, jlance des pêches Sur Facebook créer un groupe jpeux pas, jpréfère chanter seul La Marseillaise jlaurais chantée, si elle sappelait la Parisienne Les Bleus jles aurais supporté si ils avaient pas perquis moi et mon petit frère Cest plus les keufs, cest les jeunes qui font la loi Les MCs ont des guns, ouais mais lseul truc quils tirent cest la chasse Et gros nashave, sérieux jte jure jai pas la tête Toujours un truc auquel on tient, tu mens si tu dis qutas rien à perdre Pour survivre certains font la manche dans tes bras Moi jai vendu dla coke aussi blanche que tes bas Tu kiffes, tu sniffes, tu lsais ya pas drecette Les pauvres évacuent par le cul, les riches évacuent par le zen Les tatouages cest plus pour les taulards Maintenant ils tombent en bas du dos des meufs qui aiment trop ça Plus rien mexcite à part si miss tu baises en talons Sinon next vite, un frère en taule, faut qujenvoie un talon Tu kiffes le swag ? Du biff, on fera les bails Cicatrices Gucci, cicatrices LV, voilà mes marques Si ltemps cest dlargent, combien deviennent riches en cinq minutes ? Tout roule comme sur des roulettes ouais, sauf que la roulette est à moitié russe Ça fait des chromes aux ients-cli, comme fait la Chine On svenge en investissant largent sale dans des laveries Le bail cest tcheck-moi si tes un homme, suck-moi si tes une bitch Les traîtres cest à la mode, les poukaves veulent leur featuring You might also like Tu fais lmalin, aujourdhui tu jettes ton pain Tu verras demain tu lramasses Tu lregrettes et tu pleures Jporte la rue sans plainte, comme en taule Ce monde ten viens solo et ten repars tout seul Sors du 9-1, TZ et si taimes viens Linstru jlemballe et on va tfaire fumer du seum On ma dit sans argent, ici tes rien Jai dit ya quoi dplus normal Quun Algérien qui veut faire du beurre ?</t>
+          <t>Faut quon senjaille, là jsuis dmauvaise humeur Ya quoi dplus normal quun Algérien qui veut faire du beurre ? Si jfais du lourd, jpèse plus le poids des mots Tu connais lhebs, tu connais la rue, bah tu connais Ademo Tu msuis, tu crois qujai des tunes, petit naze Tu mlâcheras dès qutu verras qumes poches sont vides T-Bag Tu fais du son, tu penses être le meilleur boug qui rappe Mais l'heure tourne et ta bouche pue, Tic Tac, arabes et renois ça galère Pourtant nos meilleurs amis sappellent Philipp et Jack Daniels Révolutionnaire donc en dépit pour se faire Ni Sarko, ni Hollande, votent Marine Le Pen Face aux miradors on dira qujsuis illuminé Poto jfais pas dcadeau donc jpasserai pas par quatre cheminées LÉtat mdégoûte, il voudrait quj'vive un Enfer Donc jleur casse les couilles comme un motherfucking string à lenvers Ils augmentent les clopes donc les ients-cli achètent moins dbarrettes Jai demandé dlaide ils mont dit retourne dans ta maison darrêt Ma vie est dure, tout est dur dans la vie Donc jai pas compris quand on ma dit tu fais dlargent facile Petit on mdisait qujétais un trou dballe Mais jtaurais chié sur la gueule si javais été un trou dballe Jai eu la dalle donc jai tapé la barquette On ma dit tu veux manger ? Tu mangeras beaucoup plus aux assiettes Des mots fléchés en attendant la flèche dCupidon Si jai dla peine, jrelativise, dautres ont des peines de prison Et jsais qutu sais quje sais moi Tu marches, tu regardes de travers, tu roules de travers, 't'es pas un mec droit Lhabit nfait pas le moine, donc à poil sera la fille Le jour sera une femme, une chienne sera la nuit Ni Popeye, ni Mary Poppins Les mineurs veulent être dépendants, donc smettent à la nicotine Les rappeurs scroient forts, avec des écrits horribles Spermettent de jouer avec le micro comme Philippe Risoli Les petits écoutent, oublient les sourates Les mots rebeu sortent moins dla bouche des arabes que des tous-bab Et jlance pas des punchlines, jlance des pêches Sur Facebook créer un groupe jpeux pas, jpréfère chanter seul La Marseillaise jlaurais chantée, si elle sappelait la Parisienne Les Bleus jles aurais supporté si ils avaient pas perquis moi et mon petit frère Cest plus les keufs, cest les jeunes qui font la loi Les MCs ont des guns, ouais mais lseul truc quils tirent cest la chasse Et gros nashave, sérieux jte jure jai pas la tête Toujours un truc auquel on tient, tu mens si tu dis qutas rien à perdre Pour survivre certains font la manche dans tes bras Moi jai vendu dla coke aussi blanche que tes bas Tu kiffes, tu sniffes, tu lsais ya pas drecette Les pauvres évacuent par le cul, les riches évacuent par le zen Les tatouages cest plus pour les taulards Maintenant ils tombent en bas du dos des meufs qui aiment trop ça Plus rien mexcite à part si miss tu baises en talons Sinon next vite, un frère en taule, faut qujenvoie un talon Tu kiffes le swag ? Du biff, on fera les bails Cicatrices Gucci, cicatrices LV, voilà mes marques Si ltemps cest dlargent, combien deviennent riches en cinq minutes ? Tout roule comme sur des roulettes ouais, sauf que la roulette est à moitié russe Ça fait des chromes aux ients-cli, comme fait la Chine On svenge en investissant largent sale dans des laveries Le bail cest tcheck-moi si tes un homme, suck-moi si tes une bitch Les traîtres cest à la mode, les poukaves veulent leur featuring Tu fais lmalin, aujourdhui tu jettes ton pain Tu verras demain tu lramasses Tu lregrettes et tu pleures Jporte la rue sans plainte, comme en taule Ce monde ten viens solo et ten repars tout seul Sors du 9-1, TZ et si taimes viens Linstru jlemballe et on va tfaire fumer du seum On ma dit sans argent, ici tes rien Jai dit ya quoi dplus normal Quun Algérien qui veut faire du beurre ?</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2780,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Y'a plus d'âge, j'sais pas comment j'vais faire pour rapper c'texte Y'a plus d'âge c'est l'thème, y'a plus d'âge pour enculer le système Y'a plus d'âge pour chopper une maladie incurable, y'a plus d'âge pour s'faire baiser par une femme Y'a plus d'âge pour etre dans la merde jusqu'au cou, plus d'âge pour préférer la Jack Daniel's plus qu'leau douce Y'a plus d'âge pour voir une fille à quatre pattes, plus d'âge pour survivre d'un amour briser card-pla Y'a plus d'âge pour finir sa vie dans la rage, tourner la page, couper les liens désert à la hache Y'a plus d'âge pour faire un gosse negro, plus d'âge pour vendre d'la drogue, plus d'âge pour consommer sa mort ouais gros Y'a plus d'âge pour pleurer tout seul tout en douleur, y'a plus d'âge pour crever tousser tout en douceur Y'a plus d'âge pour s'enfiler un glock les gants et l'collant, plus d'âge pour s'evoler dans un mauvais virage au volant Ouais gros dit moi qu'est ce que t'envisage ? peine peine au visage, la haine La haine brille car y'a plus d'âge, chez nous, on traine on traine on vit mal Sa s'baise sa reste bizarre, le respect n'existe plus y'a plus d'âge Ouais gros, les mecs te tirent dessus, pour te dire fils de pute y'a plus y'a plus y'a plus d'âge 13 ans cette miskina te suce, l'respect n'existe plus, y'a plus y'a plus y'a plus d'âge Y'a plus d'âge pour vivre en marge, y'a plus d'âge marche droit ou zig-zag pour être rider y'a plus d'âge Y'a plus d'âge pour voir une pute à genoux sucer, plus d'âge Y'a plus d'âge, à 20 ans y'en a qui ont vécu plus que ceux qui ont 100 ans Pas de chance quand t'a l'air dur, on ne peut que s'enttendre Y'a plus d'âge pour rire, y'a plus d'âge pour pleurer, y'a plus d'âge pour souffrir, non Y'a plus d'âge pour crever, pour passer sous les roues d'une jeep, pour gratter tous les sous du biz Pour finir sous les verrous tu piges ? Y'a plus d'âge pour voir une fille se prostituer, eh, plus qu'une balle, plus d'âge pour n'pas revenir antillais lâche Y'a plus d'âge pour le perdre man, faire mal, y'a plus d'âge pour poucave ou te taire là Y'a plus d'âge demande au juge d'instruction, demande leur rage, perpet' c'est l'âge pour un putin coup d'pompe You might also like Ouais gros dit moi qu'est ce que t'envisage ? peine peine au visage, la haine La haine brille car y'a plus d'âge, chez nous, on traine on traine on vit mal Sa s'baise sa reste bizarre, le respect n'existe plus y'a plus d'âge Ouais gros, les mecs te tirent dessus, pour te dire fils de pute y'a plus y'a plus y'a plus d'âge 13 ans cette miskina te suce, l'respect n'existe plus, y'a plus y'a plus y'a plus d'âge Y'a plus d'âge pour goûter la merde, pour écouter la mess, pour couper la tête couz' pour tousser sa haine Y'a plus d'âge pour s'branler, plus d'âge pour niquer ta mère, plus d'âge pour s'dévierger, plus d'âge j'te dis c'est la Hess Plus d'âge pour avoir des cheveux blancs, avoir de belles dents, on pète tout avec l'argent, ok rappel tant Y'a plus d'âge fils de huum pour t'apprendre le respect, y'a plus d'âge pour voir un boloss vouloir tester Plus d'âge pour se repentir ou jouer avec le Sheitan, pour croire ou pour s'mentir vouer au crick du pétard Pédale, pour finir dans tout ses états, brûler la clope et ses taffes, s'munir d'un glock et ses balles Y'a plus d'âge que ce soit pour le divorce ou le ma-ri-age, plus d'âge pour vouloir visiter la robe à Ma-ri-anne Y'a plus d'âge, mais nike ta maman, dégage, y'a plus d'âge pour rêver d'un keuf et sa mort Y'a plus d'âge, j'lève mon doigt en l'air pour tout ses battards, y'a plus d'âge pour dormir seul sur un banc dans la cave Y'a plus d'âge pour s'tuer man c'est l'ère, y'a plus d'âge pour rêver d'un ciel bleu sur nos HLM... HLM...HLM... x2 Ouais gros dit moi qu'est ce que t'envisage ? peine peine au visage, la haine La haine brille car y'a plus d'âge, chez nous, on traine on traine on vit mal Sa s'baise sa reste bizarre, le respect n'existe plus y'a plus d'âge Ouais gros, les mecs te tirent dessus, pour te dire fils de pute y'a plus y'a plus y'a plus d'âge 13 ans cette miskina te suce, l'respect n'existe plus, y'a plus y'a plus y'a plus d'âge Y'aaaa pluuuus d'âââgeee Y'aaaa pluuuus d'âââgeee</t>
+          <t>Y'a plus d'âge, j'sais pas comment j'vais faire pour rapper c'texte Y'a plus d'âge c'est l'thème, y'a plus d'âge pour enculer le système Y'a plus d'âge pour chopper une maladie incurable, y'a plus d'âge pour s'faire baiser par une femme Y'a plus d'âge pour etre dans la merde jusqu'au cou, plus d'âge pour préférer la Jack Daniel's plus qu'leau douce Y'a plus d'âge pour voir une fille à quatre pattes, plus d'âge pour survivre d'un amour briser card-pla Y'a plus d'âge pour finir sa vie dans la rage, tourner la page, couper les liens désert à la hache Y'a plus d'âge pour faire un gosse negro, plus d'âge pour vendre d'la drogue, plus d'âge pour consommer sa mort ouais gros Y'a plus d'âge pour pleurer tout seul tout en douleur, y'a plus d'âge pour crever tousser tout en douceur Y'a plus d'âge pour s'enfiler un glock les gants et l'collant, plus d'âge pour s'evoler dans un mauvais virage au volant Ouais gros dit moi qu'est ce que t'envisage ? peine peine au visage, la haine La haine brille car y'a plus d'âge, chez nous, on traine on traine on vit mal Sa s'baise sa reste bizarre, le respect n'existe plus y'a plus d'âge Ouais gros, les mecs te tirent dessus, pour te dire fils de pute y'a plus y'a plus y'a plus d'âge 13 ans cette miskina te suce, l'respect n'existe plus, y'a plus y'a plus y'a plus d'âge Y'a plus d'âge pour vivre en marge, y'a plus d'âge marche droit ou zig-zag pour être rider y'a plus d'âge Y'a plus d'âge pour voir une pute à genoux sucer, plus d'âge Y'a plus d'âge, à 20 ans y'en a qui ont vécu plus que ceux qui ont 100 ans Pas de chance quand t'a l'air dur, on ne peut que s'enttendre Y'a plus d'âge pour rire, y'a plus d'âge pour pleurer, y'a plus d'âge pour souffrir, non Y'a plus d'âge pour crever, pour passer sous les roues d'une jeep, pour gratter tous les sous du biz Pour finir sous les verrous tu piges ? Y'a plus d'âge pour voir une fille se prostituer, eh, plus qu'une balle, plus d'âge pour n'pas revenir antillais lâche Y'a plus d'âge pour le perdre man, faire mal, y'a plus d'âge pour poucave ou te taire là Y'a plus d'âge demande au juge d'instruction, demande leur rage, perpet' c'est l'âge pour un putin coup d'pompe Ouais gros dit moi qu'est ce que t'envisage ? peine peine au visage, la haine La haine brille car y'a plus d'âge, chez nous, on traine on traine on vit mal Sa s'baise sa reste bizarre, le respect n'existe plus y'a plus d'âge Ouais gros, les mecs te tirent dessus, pour te dire fils de pute y'a plus y'a plus y'a plus d'âge 13 ans cette miskina te suce, l'respect n'existe plus, y'a plus y'a plus y'a plus d'âge Y'a plus d'âge pour goûter la merde, pour écouter la mess, pour couper la tête couz' pour tousser sa haine Y'a plus d'âge pour s'branler, plus d'âge pour niquer ta mère, plus d'âge pour s'dévierger, plus d'âge j'te dis c'est la Hess Plus d'âge pour avoir des cheveux blancs, avoir de belles dents, on pète tout avec l'argent, ok rappel tant Y'a plus d'âge fils de huum pour t'apprendre le respect, y'a plus d'âge pour voir un boloss vouloir tester Plus d'âge pour se repentir ou jouer avec le Sheitan, pour croire ou pour s'mentir vouer au crick du pétard Pédale, pour finir dans tout ses états, brûler la clope et ses taffes, s'munir d'un glock et ses balles Y'a plus d'âge que ce soit pour le divorce ou le ma-ri-age, plus d'âge pour vouloir visiter la robe à Ma-ri-anne Y'a plus d'âge, mais nike ta maman, dégage, y'a plus d'âge pour rêver d'un keuf et sa mort Y'a plus d'âge, j'lève mon doigt en l'air pour tout ses battards, y'a plus d'âge pour dormir seul sur un banc dans la cave Y'a plus d'âge pour s'tuer man c'est l'ère, y'a plus d'âge pour rêver d'un ciel bleu sur nos HLM... HLM...HLM... x2 Ouais gros dit moi qu'est ce que t'envisage ? peine peine au visage, la haine La haine brille car y'a plus d'âge, chez nous, on traine on traine on vit mal Sa s'baise sa reste bizarre, le respect n'existe plus y'a plus d'âge Ouais gros, les mecs te tirent dessus, pour te dire fils de pute y'a plus y'a plus y'a plus d'âge 13 ans cette miskina te suce, l'respect n'existe plus, y'a plus y'a plus y'a plus d'âge Y'aaaa pluuuus d'âââgeee Y'aaaa pluuuus d'âââgeee</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2797,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Faut quon senjaille, là jsuis dmauvaise humeur Ya quoi dplus normal quun Algérien qui veut faire du beurre ? Si jfais du lourd, jpèse plus le poids des mots Tu connais lhebs, tu connais la rue, bah tu connais Ademo Tu msuis, tu crois qujai des tunes, petit naze Tu mlâcheras dès qutu verras qumes poches sont vides T-Bag Tu fais du son, tu penses être le meilleur boug qui rappe Mais l'heure tourne et ta bouche pue, Tic Tac, arabes et renois ça galère Pourtant nos meilleurs amis sappellent Philipp et Jack Daniels Révolutionnaire donc en dépit pour se faire Ni Sarko, ni Hollande, votent Marine Le Pen Face aux miradors on dira qujsuis illuminé Poto jfais pas dcadeau donc jpasserai pas par quatre cheminées LÉtat mdégoûte, il voudrait quj'vive un Enfer Donc jleur casse les couilles comme un motherfucking string à lenvers Ils augmentent les clopes donc les ients-cli achètent moins dbarrettes Jai demandé dlaide ils mont dit retourne dans ta maison darrêt Ma vie est dure, tout est dur dans la vie Donc jai pas compris quand on ma dit tu fais dlargent facile Petit on mdisait qujétais un trou dballe Mais jtaurais chié sur la gueule si javais été un trou dballe Jai eu la dalle donc jai tapé la barquette On ma dit tu veux manger ? Tu mangeras beaucoup plus aux assiettes Des mots fléchés en attendant la flèche dCupidon Si jai dla peine, jrelativise, dautres ont des peines de prison Et jsais qutu sais quje sais moi Tu marches, tu regardes de travers, tu roules de travers, 't'es pas un mec droit Lhabit nfait pas le moine, donc à poil sera la fille Le jour sera une femme, une chienne sera la nuit Ni Popeye, ni Mary Poppins Les mineurs veulent être dépendants, donc smettent à la nicotine Les rappeurs scroient forts, avec des écrits horribles Spermettent de jouer avec le micro comme Philippe Risoli Les petits écoutent, oublient les sourates Les mots rebeu sortent moins dla bouche des arabes que des tous-bab Et jlance pas des punchlines, jlance des pêches Sur Facebook créer un groupe jpeux pas, jpréfère chanter seul La Marseillaise jlaurais chantée, si elle sappelait la Parisienne Les Bleus jles aurais supporté si ils avaient pas perquis moi et mon petit frère Cest plus les keufs, cest les jeunes qui font la loi Les MCs ont des guns, ouais mais lseul truc quils tirent cest la chasse Et gros nashave, sérieux jte jure jai pas la tête Toujours un truc auquel on tient, tu mens si tu dis qutas rien à perdre Pour survivre certains font la manche dans tes bras Moi jai vendu dla coke aussi blanche que tes bas Tu kiffes, tu sniffes, tu lsais ya pas drecette Les pauvres évacuent par le cul, les riches évacuent par le zen Les tatouages cest plus pour les taulards Maintenant ils tombent en bas du dos des meufs qui aiment trop ça Plus rien mexcite à part si miss tu baises en talons Sinon next vite, un frère en taule, faut qujenvoie un talon Tu kiffes le swag ? Du biff, on fera les bails Cicatrices Gucci, cicatrices LV, voilà mes marques Si ltemps cest dlargent, combien deviennent riches en cinq minutes ? Tout roule comme sur des roulettes ouais, sauf que la roulette est à moitié russe Ça fait des chromes aux ients-cli, comme fait la Chine On svenge en investissant largent sale dans des laveries Le bail cest tcheck-moi si tes un homme, suck-moi si tes une bitch Les traîtres cest à la mode, les poukaves veulent leur featuring You might also like Tu fais lmalin, aujourdhui tu jettes ton pain Tu verras demain tu lramasses Tu lregrettes et tu pleures Jporte la rue sans plainte, comme en taule Ce monde ten viens solo et ten repars tout seul Sors du 9-1, TZ et si taimes viens Linstru jlemballe et on va tfaire fumer du seum On ma dit sans argent, ici tes rien Jai dit ya quoi dplus normal Quun Algérien qui veut faire du beurre ?</t>
+          <t>Faut quon senjaille, là jsuis dmauvaise humeur Ya quoi dplus normal quun Algérien qui veut faire du beurre ? Si jfais du lourd, jpèse plus le poids des mots Tu connais lhebs, tu connais la rue, bah tu connais Ademo Tu msuis, tu crois qujai des tunes, petit naze Tu mlâcheras dès qutu verras qumes poches sont vides T-Bag Tu fais du son, tu penses être le meilleur boug qui rappe Mais l'heure tourne et ta bouche pue, Tic Tac, arabes et renois ça galère Pourtant nos meilleurs amis sappellent Philipp et Jack Daniels Révolutionnaire donc en dépit pour se faire Ni Sarko, ni Hollande, votent Marine Le Pen Face aux miradors on dira qujsuis illuminé Poto jfais pas dcadeau donc jpasserai pas par quatre cheminées LÉtat mdégoûte, il voudrait quj'vive un Enfer Donc jleur casse les couilles comme un motherfucking string à lenvers Ils augmentent les clopes donc les ients-cli achètent moins dbarrettes Jai demandé dlaide ils mont dit retourne dans ta maison darrêt Ma vie est dure, tout est dur dans la vie Donc jai pas compris quand on ma dit tu fais dlargent facile Petit on mdisait qujétais un trou dballe Mais jtaurais chié sur la gueule si javais été un trou dballe Jai eu la dalle donc jai tapé la barquette On ma dit tu veux manger ? Tu mangeras beaucoup plus aux assiettes Des mots fléchés en attendant la flèche dCupidon Si jai dla peine, jrelativise, dautres ont des peines de prison Et jsais qutu sais quje sais moi Tu marches, tu regardes de travers, tu roules de travers, 't'es pas un mec droit Lhabit nfait pas le moine, donc à poil sera la fille Le jour sera une femme, une chienne sera la nuit Ni Popeye, ni Mary Poppins Les mineurs veulent être dépendants, donc smettent à la nicotine Les rappeurs scroient forts, avec des écrits horribles Spermettent de jouer avec le micro comme Philippe Risoli Les petits écoutent, oublient les sourates Les mots rebeu sortent moins dla bouche des arabes que des tous-bab Et jlance pas des punchlines, jlance des pêches Sur Facebook créer un groupe jpeux pas, jpréfère chanter seul La Marseillaise jlaurais chantée, si elle sappelait la Parisienne Les Bleus jles aurais supporté si ils avaient pas perquis moi et mon petit frère Cest plus les keufs, cest les jeunes qui font la loi Les MCs ont des guns, ouais mais lseul truc quils tirent cest la chasse Et gros nashave, sérieux jte jure jai pas la tête Toujours un truc auquel on tient, tu mens si tu dis qutas rien à perdre Pour survivre certains font la manche dans tes bras Moi jai vendu dla coke aussi blanche que tes bas Tu kiffes, tu sniffes, tu lsais ya pas drecette Les pauvres évacuent par le cul, les riches évacuent par le zen Les tatouages cest plus pour les taulards Maintenant ils tombent en bas du dos des meufs qui aiment trop ça Plus rien mexcite à part si miss tu baises en talons Sinon next vite, un frère en taule, faut qujenvoie un talon Tu kiffes le swag ? Du biff, on fera les bails Cicatrices Gucci, cicatrices LV, voilà mes marques Si ltemps cest dlargent, combien deviennent riches en cinq minutes ? Tout roule comme sur des roulettes ouais, sauf que la roulette est à moitié russe Ça fait des chromes aux ients-cli, comme fait la Chine On svenge en investissant largent sale dans des laveries Le bail cest tcheck-moi si tes un homme, suck-moi si tes une bitch Les traîtres cest à la mode, les poukaves veulent leur featuring Tu fais lmalin, aujourdhui tu jettes ton pain Tu verras demain tu lramasses Tu lregrettes et tu pleures Jporte la rue sans plainte, comme en taule Ce monde ten viens solo et ten repars tout seul Sors du 9-1, TZ et si taimes viens Linstru jlemballe et on va tfaire fumer du seum On ma dit sans argent, ici tes rien Jai dit ya quoi dplus normal Quun Algérien qui veut faire du beurre ?</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2814,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Y'en à qui tirent, yen a qui friment mais bon qui font de la peine Y'en a qui puise dans la cachette y'en a qui font de la chaine Vaincus yen a qui chient et y'en a qui se la prenne dans l'urètre Y'a ceux qui donnent les coups et ceux qui finissent dans la del Y'en a qui se présèrvent et celles qui se font à l'hotel Y'en a des hlels mais qui finiront dans l'haram à long terme Yen a des musclors qui se pissent dessus devant des maigres Ya ceux qui resortent du chiffre et ceux qui resortent des lettres Y'a ya y'a y'a ceux qui parlent, y'a ya y'a y'a ceux qui agissent Y'a y'a y'a y'a ceux qui enhh y'a ceux qui crr y'a ceux qui brr Y'en a qui se prennent des carottes y'a ceux qui mettent des bananes Y'a ceux qui croient qu'en la drogue y'a ceux qui vend la salade Y'en a qui s'entraident y'en a qui garde jusqu'à un radis Y'en a pour l'enfer y'en aura pas bezef pour le paradis Y'en a qui sont des rappeurs et y'en a qui le sont pas, y'en a qui sont comme moi des mecs de la rue qui encule le rap et son argent Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc et vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a You might also like Y'en a beaucoup des flipettes comme toi Authentique crois moi y'en a pas deux comme moi J'rap avec la mif, le rap c'est à moi, injection sonore vla qu'le rap est frère siamois J'suis OP, j'ai toujours sur moi une paire de gants La maison est grande ouverte j'hesite pas à rentrer dedans Si tu parles j'hesiterai pas à te rentrer dedans Prépare toi à perdre ta langue et puis tes 32 dents Y'en a qui se battent pour manger, qu'on peur du danger, ne trouvent rien d'autre à faire à part attendre et mendier Pas du genre à se mélanger, le bien le mal faut trancher Y'a des fous y'a des barges qu'hésiteraient pas à se venger Décider à pas se ranger, on est venus pour déranger Une feuille blanche, un stylo bic et j'decalque toutes mes pensées Habitués au danger, on est en France pour manger, demain c'est la fête des porcs jvais tous les égorgés Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a qui pensent que le rap est mort et que les mc ont sucombés Y'en a qui pensent qu'on est trop forts et que ton flow est nul à chier Y'en a qui veulent un corps parfait, pendant qu'tous sont bousillés Y'en à qui veulent des gros gamos alors qu'ils sont toujours à pieds Y'en a qui pensent qu'on est hardcore et qu'on ne reculera jamais Y'en a qui veulent croquer le monde alors qu'ils sont pas respectés Y'en a qui, y'en a qui friment, y'en a qui bedavent qui crapotent Frères sont ceux qui savent comment couper une sav' qui restent brave C'est parce que y'en a qui parlent toujours et qui en font le moins, dès que ca part en couilles ils ouvrent tout le temps le cul coffret dans le coin Oui y'en a, y'en a qui galèrent dans les halls, et sa part en taule, dédicase à MC anonyme ma deuxième épaule Y'en a qui gardent la bouche cousue aux interrogatoires, contrairement à ceux qui parlent pour un café noir Donc à tous ces fils de putes, nos chemins se croiseront parce que l'on efface jamais cqu'on balance à l'audition Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler c'est fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, Ademo son des halls, Spike la pioche, Illinas Nastia la mode</t>
+          <t>Y'en à qui tirent, yen a qui friment mais bon qui font de la peine Y'en a qui puise dans la cachette y'en a qui font de la chaine Vaincus yen a qui chient et y'en a qui se la prenne dans l'urètre Y'a ceux qui donnent les coups et ceux qui finissent dans la del Y'en a qui se présèrvent et celles qui se font à l'hotel Y'en a des hlels mais qui finiront dans l'haram à long terme Yen a des musclors qui se pissent dessus devant des maigres Ya ceux qui resortent du chiffre et ceux qui resortent des lettres Y'a ya y'a y'a ceux qui parlent, y'a ya y'a y'a ceux qui agissent Y'a y'a y'a y'a ceux qui enhh y'a ceux qui crr y'a ceux qui brr Y'en a qui se prennent des carottes y'a ceux qui mettent des bananes Y'a ceux qui croient qu'en la drogue y'a ceux qui vend la salade Y'en a qui s'entraident y'en a qui garde jusqu'à un radis Y'en a pour l'enfer y'en aura pas bezef pour le paradis Y'en a qui sont des rappeurs et y'en a qui le sont pas, y'en a qui sont comme moi des mecs de la rue qui encule le rap et son argent Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc et vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a beaucoup des flipettes comme toi Authentique crois moi y'en a pas deux comme moi J'rap avec la mif, le rap c'est à moi, injection sonore vla qu'le rap est frère siamois J'suis OP, j'ai toujours sur moi une paire de gants La maison est grande ouverte j'hesite pas à rentrer dedans Si tu parles j'hesiterai pas à te rentrer dedans Prépare toi à perdre ta langue et puis tes 32 dents Y'en a qui se battent pour manger, qu'on peur du danger, ne trouvent rien d'autre à faire à part attendre et mendier Pas du genre à se mélanger, le bien le mal faut trancher Y'a des fous y'a des barges qu'hésiteraient pas à se venger Décider à pas se ranger, on est venus pour déranger Une feuille blanche, un stylo bic et j'decalque toutes mes pensées Habitués au danger, on est en France pour manger, demain c'est la fête des porcs jvais tous les égorgés Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a qui pensent que le rap est mort et que les mc ont sucombés Y'en a qui pensent qu'on est trop forts et que ton flow est nul à chier Y'en a qui veulent un corps parfait, pendant qu'tous sont bousillés Y'en à qui veulent des gros gamos alors qu'ils sont toujours à pieds Y'en a qui pensent qu'on est hardcore et qu'on ne reculera jamais Y'en a qui veulent croquer le monde alors qu'ils sont pas respectés Y'en a qui, y'en a qui friment, y'en a qui bedavent qui crapotent Frères sont ceux qui savent comment couper une sav' qui restent brave C'est parce que y'en a qui parlent toujours et qui en font le moins, dès que ca part en couilles ils ouvrent tout le temps le cul coffret dans le coin Oui y'en a, y'en a qui galèrent dans les halls, et sa part en taule, dédicase à MC anonyme ma deuxième épaule Y'en a qui gardent la bouche cousue aux interrogatoires, contrairement à ceux qui parlent pour un café noir Donc à tous ces fils de putes, nos chemins se croiseront parce que l'on efface jamais cqu'on balance à l'audition Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler c'est fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, Ademo son des halls, Spike la pioche, Illinas Nastia la mode</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2831,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Y'en à qui tirent, y'en a qui friment mais bon qui font de la peine Y'en a qui puise dans la cachette y'en a qui font de la chaine Vaincus y'en a qui chient et y'en a qui se la prenne dans lurètre Y'a ceux qui donnent les coups et ceux qui finissent dans la del Y'en a qui se présèrvent et celles qui se font à l'hotel Y'en a des hlels mais qui finiront dans l'haram à long terme Y'en a des musclors qui se pissent dessus devant des maigres Y'a ceux qui resortent du chiffre et ceux qui resortent des lettres Y'a y'a y'a y'a ceux qui parlent, y'a y'a y'a y'a ceux qui agissent Y'a y'a y'a y'a ceux qui enhh y'a ceux qui crr y'a ceux qui brr Y'en a qui se prennent des carottes y'a ceux qui mettent des bananes Y'a ceux qui croient qu'en la drogue y'a ceux qui vend la salade Y'en a qui s'entraident y'en a qui garde jusqu'à un radis Y'en a pour l'enfer y'en aura pas bezef pour le paradis Y'en a qui sont des rappeurs et y'en a qui le sont pas, y'en a qui sont comme moi des mecs de la rue qui encule le rap et son argent Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc et vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Yen a, yen a, yen a, yen a, yen a, yen a, yen a, yen a You might also like Y'en a beaucoup des flipettes comme toi, Authentique crois moi y'en a pas deux comme moi J'rap avec la mif, le rap c'est à moi, injection sonore vla qu'le rap est frère siamois J'suis OP, j'ai toujours sur moi une paire de gants La maison est grande ouverte j'hesite pas à rentrer dedans Si tu parles j'hesiterai pas à te rentrer dedans Prépare toi à perdre ta langue et puis tes 32 dents Y'en a qui se battent pour manger, qu'on peur du danger, ne trouvent rien d'autre à faire à part attendre et mendier Pas du genre à se mélanger, le bien le mal faut trancher Y'a des fous y'a des barges qu'hésiteraient pas à se venger Décider à pas se ranger, on est venus pour déranger Une feuille blanche, un stylo bic et j'decalque toutes mes pensées Habitués au danger, on est en France pour manger, demain c'est la fête des porcs jvais tous les égorgés Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, yen a, yen a, yen a, yen a, yen a, yen a, yen a Y'en a qui pensent que le rap est mort et que les mc ont sucombés Y'en a qui pensent qu'on est trop forts et que ton flow est nul à chier Y'en a qui veulent un corps parfait, pendant qu'tous sont bousillés Y'en à qui veulent des gros gamos alors qu'ils sont toujours à pieds Y'en a qui pensent qu'on est hardcore et qu'on ne reculera jamais Y'en a qui veulent croquer le monde alors qu'ils sont pas respectés Y'en a qui, y'en a qui friment, y'en a qui bedavent qui crapotent Frères sont ceux qui savent comment couper une sav' qui restent brave C'est parce que y'en a qui parlent toujours et qui en font le moins, dès que ca part en couilles ils ouvrent tout le temps le cul coffret dans le coin Oui y'en a, y'en a qui galèrent dans les halls, et sa part en taule, dédicase à MC anonyme ma deuxième épaule Y'en a qui gardent la bouche cousue aux interrogatoires, contrairement à ceux qui parlent pour un café noir Donc à tous ces fils de putes, nos chemins se croiseront parce que l'on efface jamais cqu'on balance à l'audition Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler c'est fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, yen a, yen a, yen a, yen a, yen a, yen a, yen a Y'en a, yen a, yen a, yen a, yen a, yen a, yen a, yen a Y'en a, yen a, yen a, yen a, yen a, yen a, yen a, yen a Y'en a, Ademo son des halls, Spike la pioche, Illinas Nastia la mode</t>
+          <t>Y'en à qui tirent, y'en a qui friment mais bon qui font de la peine Y'en a qui puise dans la cachette y'en a qui font de la chaine Vaincus y'en a qui chient et y'en a qui se la prenne dans lurètre Y'a ceux qui donnent les coups et ceux qui finissent dans la del Y'en a qui se présèrvent et celles qui se font à l'hotel Y'en a des hlels mais qui finiront dans l'haram à long terme Y'en a des musclors qui se pissent dessus devant des maigres Y'a ceux qui resortent du chiffre et ceux qui resortent des lettres Y'a y'a y'a y'a ceux qui parlent, y'a y'a y'a y'a ceux qui agissent Y'a y'a y'a y'a ceux qui enhh y'a ceux qui crr y'a ceux qui brr Y'en a qui se prennent des carottes y'a ceux qui mettent des bananes Y'a ceux qui croient qu'en la drogue y'a ceux qui vend la salade Y'en a qui s'entraident y'en a qui garde jusqu'à un radis Y'en a pour l'enfer y'en aura pas bezef pour le paradis Y'en a qui sont des rappeurs et y'en a qui le sont pas, y'en a qui sont comme moi des mecs de la rue qui encule le rap et son argent Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc et vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Yen a, yen a, yen a, yen a, yen a, yen a, yen a, yen a Y'en a beaucoup des flipettes comme toi, Authentique crois moi y'en a pas deux comme moi J'rap avec la mif, le rap c'est à moi, injection sonore vla qu'le rap est frère siamois J'suis OP, j'ai toujours sur moi une paire de gants La maison est grande ouverte j'hesite pas à rentrer dedans Si tu parles j'hesiterai pas à te rentrer dedans Prépare toi à perdre ta langue et puis tes 32 dents Y'en a qui se battent pour manger, qu'on peur du danger, ne trouvent rien d'autre à faire à part attendre et mendier Pas du genre à se mélanger, le bien le mal faut trancher Y'a des fous y'a des barges qu'hésiteraient pas à se venger Décider à pas se ranger, on est venus pour déranger Une feuille blanche, un stylo bic et j'decalque toutes mes pensées Habitués au danger, on est en France pour manger, demain c'est la fête des porcs jvais tous les égorgés Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, yen a, yen a, yen a, yen a, yen a, yen a, yen a Y'en a qui pensent que le rap est mort et que les mc ont sucombés Y'en a qui pensent qu'on est trop forts et que ton flow est nul à chier Y'en a qui veulent un corps parfait, pendant qu'tous sont bousillés Y'en à qui veulent des gros gamos alors qu'ils sont toujours à pieds Y'en a qui pensent qu'on est hardcore et qu'on ne reculera jamais Y'en a qui veulent croquer le monde alors qu'ils sont pas respectés Y'en a qui, y'en a qui friment, y'en a qui bedavent qui crapotent Frères sont ceux qui savent comment couper une sav' qui restent brave C'est parce que y'en a qui parlent toujours et qui en font le moins, dès que ca part en couilles ils ouvrent tout le temps le cul coffret dans le coin Oui y'en a, y'en a qui galèrent dans les halls, et sa part en taule, dédicase à MC anonyme ma deuxième épaule Y'en a qui gardent la bouche cousue aux interrogatoires, contrairement à ceux qui parlent pour un café noir Donc à tous ces fils de putes, nos chemins se croiseront parce que l'on efface jamais cqu'on balance à l'audition Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler c'est fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, yen a, yen a, yen a, yen a, yen a, yen a, yen a Y'en a, yen a, yen a, yen a, yen a, yen a, yen a, yen a Y'en a, yen a, yen a, yen a, yen a, yen a, yen a, yen a Y'en a, Ademo son des halls, Spike la pioche, Illinas Nastia la mode</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Ademo_songs.xlsx
+++ b/data/02_intermediate/cleaned_Ademo_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Zoulou Tchaing</t>
+          <t>Chang</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The schools in a portion of Boston stretching from just south of South Boston through Roxbury and into Dorchester are districted with a similar effect the predominantly black areas are cut away from the predominantly white areas. Morgan v. Hennigan, U.S. District Court for Massachusetts, 1974 THE SEEK BUTTON on the Ford's radio is working. The downtown recedes. Miles of neighborhoods fill the windshield. The SEEK function locks on someplace in stereo, college FM probably. Yeah, a new friend says, Whas up. Whas goin on. The radio has another button, VOL, which gets jacked repeatedly while the Ford hurtles, happily, to the source of the noise. Not to the station's broadcast booth on a campus across the river, nor to its transmission towers in the suburbs, but rather to RJam Productions in North Dorchester, where black kids from Boston's now-integrated high schools-Latin, Madison Park, Jeremiah Burke, Mattapan-cut demos and dream of being bigger than even the radio's new friend, a young man named Schoolly D who right now, at speaker-damaging volume, sounds darn big. Before we start this next record, Schooly's saying. The record in question is called Signifying Rapper, a brief, bloody tale of ghetto retribution from Side 2 of Schoolly's Smoke Some Kill. The black areas are cut away from the white areas a federal judge ruled in '74, and evidence is everywhere that nothing's changed since then. On the southbound left of the Fitzgerald Expressway pass 20 blocks of grim Irish-Catholic housing projects, the western border of Belfast, complete with Sinn Fein graffiti and murals depicting a glorious United Ireland, a neighborhood where the gadfly will get his fibula busted for praising the '74 court order that bused Them from wherever it is They live-the Third World fer crissakes--into 97-percent-white South Boston. On the Expressway's right is the place the fibula-busters are talking about the simultaneous northern border of Haiti, Jamaica and Georgia a territory that maps of Boston call North Dorchester. Uniting the two sides of the Expressway is just about nothing. Both neighborhoods are tough and poor. Both hate the college world across the river, which, because of Boston's rotten public schools, they will never see as freshmen. And kids from both neighborhoods can do this hating to the beat of undergraduate radio, which this fine morning features suburban kids with student debt broadcasting the art of a ghetto Philadelphian roughly their age, once much poorer than they, but now, on royalties from Smoke Some Kill, very much richer. Not that the shared digging of black street music is news, or even new twenty years ago, when Morgan v. Hennigan, Boston's own Brown v. Board of Education, was inching through the courts, and even dark-complected Italians were sometimes unwelcome in the Irish precincts east of the Expressway, kids in Boston's Little Belfast sang along with James Brown over the radio. Say it loud I'm black and I'm proud Say it loud I'm black and I'm proud! Except that halfway through the infectious funk, the crewcuts realize what they're saying Jesus christ, I'm proud to be black fer chrissakes, like when you're in the porno store, you know, and you get lost or something and you find yourself in the men's part, you know? not the part for men in the part that's about men, Jesus, and you get the hell outta there. And so they hummumble the suppressed parts. Say it loud I'm mmm hum proud Say it loud Mum hum hum proud! But rap isn't funk, rock or jazz, and the vast crossover move, broadcasting ghetto music over college radios to ghettos of a different color, is no simple reenactment of past crossovers. How, for example, does the sing-along fan of Smoke Some Kill mumble his way through these lines Black is beautiful Brown is sick? slick? stiff? Yellow's OK But white ain't shit. Rjam Productions, modestly headquartered in a mixed blackHispanic Field, Corner section of North Dorchester, is as follows One 1 four-car garage fitted with dubbing and remastering gear worth more than most of the rest of the real estate on the block One 1 touch-tone telephone leased Two 2 Chevy Blazers, vanity-plated RJAM1 and RJAM2, each equipped with cellular phones and slick tape decks also leased One 1 VCR with Kathleen Turner's Body Heat cued up on the morning in question Most importantly, eight 8 promising acts under binding contract If, as has happened to many local labels, Rjam were liquidated to satisfy creditors, these would be the pieces. But there are stores of value in the converted garage beyond the reach of the auctioneer's gavel. Schoolly D, the original Signifying Rapper, looms irresistibly from the pages of rap fanzines Hip-Hop and The Source and Rjam's prime, unauctionable asset is the consuming ambition of the artists in its stable to be the next Schoolly D. Or the next Ice T, or Kool Moe Dee, or L. L. Cool J., or whoever's the special hero of the kid cutting the demo. On this particular morning, the dream is to be the next MC Lyte--a hard-rapping woman known for jams like MC Lyte vs. Vanna Whyte and 10 Dis--since today is Tam-Tam's day and Tam-Tam is, at 16, a tough girl in the MC Lyte mold who, like MC Lyte, can dance, look good, and tell men to beat it, all at once. Or so claims Tam-Tam's producer, promoter, and dutch uncle, Gary Smith, who opened RJam on Martin Luther King's birthday, '89, with his older brother Nate. Nate, the elder statesman, is 25. Gary, 22, runs the company while Nate travels with his boyhood-friend-turned-boss, quadruple-platinum, Prince-derived rappersinger, Bobby Brown. RJam was founded in part with an investment from the 23-year-old multi-millionaire Brown, a native of Roxbury. Brown now lives in Los Angeles. Nate and Gary Smith turn a healthy profit making demos at 500tape, but the brothers aren't in the health business. Their aim to follow in the corporate footsteps of Def Jam, a once similarly tiny production company run from a basement in Hollis, Queens, which since its basement days, has given America Public Enemy, L. L. Cool J., the Beastie Boys, and much of the rest of that culture-quake called rap. Gary Smith doesn't compare RJam to Def Jam, and, unlike Def Jam's Russell Simmons, Gary produces pop, soul, and RB as well as straight rap, and actually prefers RB. But how many sophomores at nearby Jeremiah Burke can afford to dream in RB, to front music lessons and 500 for an nth-hand sound set-up, find three friends to learn drums, bass and keyboards, and then raise another 500 to make a demo at RJam? Anybody with a larynx can rap, however, and Rjam's brisk business in rap demos pays the taxman, Boston Edison and the Chevrolet Motor Credit Corp. Twenty minutes farther south on the Fitzgerald Expressway, across the Neponset River and into the pricey suburbs, is the scene of John Cheever's boyhood, more recently celebrated as Massachusetts Miracle country, where technology ventures are started at the rate of five per week, four of which will fail within 12 months. RJam's Gary Smith is secret brother to the men of the suburban Chambers of Commerce, sharing their worries about cash flow, overhead, and the enforceability of his contracts but Gary's world and theirs are as far apart as those of Ward and Eldridge Cleaver. Worriers in suburbia fear that ballooning property values will hike taxes on computer executives' seaside homes. In Gary's neighborhood, property values are actually falling. Waiting less than patiently for Tam-Tam, Gary honks twice. A tall, grave girl with an angel's heart-shaped face crosses the ghetto street and climbs into the back seat of RJAM1. She has, apparently, at least two voices, the cynical, sexy rant heard on tape this morning telling Pebbles men ain't worth it, and the whisper in which she now says hello. As RJAM1 re-crosses North Dorchester, heading back to the soundproof studios to get the day's work started, Gary and DJ Reese hash out production details. Tam-Tam's a dignified island in the back seat, and a shiver accompanies the thought that this could be the Motor City in '63 with Berry Gordy and an eighty-pound teenage Diana Ross, just voted Best Dressed at Cass Technical High School, driving crosstown to record a little number called Where Did Our Love Go. Ask Tam-Tam about Diana Ross, and she gives a beatific smile. She's 16 she can remember only with difficulty the first rap she ever listened to, when rap was new and she was 8 Run-DMC or somebody, she mumbles in response to what suddenly seems a foolish question about her influences. Like most of rap's black audience as distinct from rap's white audience, which is usually a decade older, Tam-Tam has no first-hand recollection of James Brown except as a source for rap. She is too young to have attended segregated schools. She was in diapers during the violent first few months of desegregation in Boston and can't remember the awful day in '74 when pro-neighborhood marchers from Irish South Boston came upon a black pedestrian at City Hall and beat him with pole-mounted American flags. Tam-Tam has star presence, and like many who do, she seems to see very little of what goes on around her, the price of the star's intense focus on self. She reminds you of Senator Gary Hart. He, too, had star presence. In front of a crowd, Hart was riveting in the elevator riding up to the auditorium, he was barely there. Being barely there in the neighborhood Tam-Tam calls home is probably not such a bad thing, and perhaps her drive to be star someday is an elaborate way to wall out the now and here. Ambition is, finally, a form of hope, a scarce commodity in North Dorchester. Back in Rjam's control booth, Dj Reese and producer Ralph Stacey are programming the rhythm track for what will be Ho, You're Guilty. Drum parts are taken from a Roland TR-909 Rhythm Composer, a synth which electronically reproduces programmed beats on the user's choice of drum-matrix. The TR-909's keys, on a console designed to resemble, vaguely, the familiar piano, are named after the sound each creates-bass, snare, mid-tom, hi-tom--and the sounds are named after the actual drums which, until the TR-909, were required to make those sounds. The TR-909 even sports a key named HAND CLAP, making it possible for the first time ever to clap hands with a single finger, rendering obsolete the Zen koan about the sound of one hand clapping. The finished Ho, You're Guilty will sound lush with percussion, melody, and instrumental breaks. Not one human musician will be employed in the recording process. Each percussion line is programmed onto the mixing board as a separate track a snare track, a bass track, a clap track, etc. Reese has been studying the classics lately, too, viz James Brown's Dead on the Heavy Funk from '75ish, including the ageless groove, Funky President, in which James announces his third-party candidacy. Some of Bobby Byrd's Dead guitar, and a holy moment when James exhales rhythmically, have been isolated from a store-bought cassette of Dead, re-recorded on clean tape, then re-re-recorded onto a computer-readable memory diskette from which the sample is retrieved and altered by Ralph Stacey using a Roland D-50 linear synth. The guitar and the exhalation then go, as altered, from the synth to yet another of the 24 tracks on the big mixing board. Reese, the DJ, will weave a seamless rhythm track out of these 24 strands. As Reese and Ralph Stacey mix the 24 tracks onto one master tape, Tam-Tam sips lemonade in the corner of the booth. You ask her if she is interested someday in learning about the obscure digital technology the two men manipulate on her behalf. She doesn't seem to register the question. The other career besides rap I'd like to pursue is modelling, she says. I'm five-seven. That's the perfect height for a model. Mixing takes the rest of the day. Producer Ralph Stacey at one late point corners you with a flinty stare and an uncomfortable question Why do you want to write about rap, anyway? It is lucky that at that minute Reese is done mixing. Tomorrow the RJam staff will tape Tam-Tam's vocal track and lay this over Reese's rhythm track. Then the sound will be fattened with stacks of horns, guitar hooks, bells, canned applause, and whatever else they decide to take from other tapes or work up on the Rolands. The final demo tape of Ho, You're Guilty will then be shopped to the 20 major, minor, and tiny labels who might release the demo as a 12-inch single. Everyone's ready to call it a day. Gary Smith's already huddled with some new wanna-be stars in RJam's reception area. Reese plays the mixed rhythm track once through over the big speakers in the control booth, and Tam-Tam immediately stands, modelling forgotten, utterly alert. Reese gestures to her with maestro hands. She raps at an absent Antoinette in the hard, sexy voice you haven't heard since this morning, extemporaneous but on beat I'm a female You're just a fairytale. The small-w we here are two white Boston males one native, one oft-transplanted both residing in Somerbridge, a dim, ethnic-Portuguese neighborhood whose gentrification we abet. M. is an attorney with a taste for jazz, Blues, funk D. a grad student and would-be drifter who watches TV instead of sleeping. Our cultural tastes and interests are day and night. They converged only lately, when D's stereo arrived UPS and we discovered we shared an uncomfortable, somewhat furtive, and distinctively white enthusiasm for a certain music called raphip-hop. About our passions and discomforts we could determine only that they were vague distinct contexts and cathexes brought to bear across the same ethnic distance on the same thing. For instance, we agreed that real or serious rap is not JJ FAD or Tone Loc or Beasties, Egyptian Lover or Fat Boys, not experiments or freakshows or current commercial crossover slush. Serious rap--a unique U.S. inner-city fusion of funk, technified reggae, teen-to-teen hardcore rock, and the early 70s poetry of the black experience of Nikki Giavonni, the Last Poets, etc.--has, since its late-70s delivery at the record-scratching hands of Afrika Bambaataa and his Zulu Nation, Sugarhill Gang, Kool Herc and his automated Herculords, and Grandmaster Flash, always had its real roots in the Neighborhood, the black gang-banger Underground. Black music, of and for blacks. We concurred as to the wheres and whens of rap's begetting--mid-to-late 70s' South Bronx house parties then, by decade's end, block parties, with municipal electric lights tapped for a power source, literal dancing in the streets by '82, regular rap-houses and then floating clubs--the Roxy every Sunday, The Bronx's Disco Fever TWTh--everybody Breaking to a new musical antimusic being fashioned from records and turntables and an amateur DJs ad-lib banter a very heavy reggae influence at the beginning the more rhythmic pure rap an offshoot, its brisker, sparer, backbeat designed for Breakdance, and the smooth-rapping partygoer who just didn't want to shut up when others' music was on. We agreed, too, on rough chronology amateur house-partiers giving way to professional DJs, pioneers they, too, then overshadowed by new art-entrepreneurs, former Breakers, failed singers, gag-majorettes then the rise of Indies, the tiny independent labels that keep most new music on life-support--Sugar Hill, Jive, Tommy Boy, Wild Pitch, Profile Records, Enjoy--then, after King Tim III's Personality Jock and Sugarhill Gang's Rapper's Delight, an entree into urban black radio then to underground Mix radio then corporate levels, digital technology, very big money, the early-80s talent that became an early Scene's cream--Spoonie G. and Sequence, Eric Fresh, Unknown DJ, Egyptian Lover and Run-DMC. Then, Spring '84, the extraordinary Midas touch of Rick Rubin and Russell Simmons' Def Jam label now under contract to CBS from which sprang a mid-80s stable of true stars, in the Underground--Public Enemy, L. L. Cool J, Slick Rick, the still-unparalleled Eric B. and Rakim--and L.A.'s alternatives Kool Moe Dee, L.A. Dream Team, and others. And now, at decade's end, an absolute explosion of rap-as-pop, big business, MTV, special fashions, posters, merchandise, with only a few big, new, cutting-edge acts--L.A.'s N.W.A., Philadelphia's Schoolly D, Miami's 2 Live Crew, De La Soul's House-blend of rapfunkjazz--remaining too esoteric or threatening or downright obscene to cross all the way over and cash in with big labels. By '89 rap is finally proving as important read also lucrative to an anemic shock-and rebellion-music industry as Punk was an exact decade ago. This was all just data. We agreed on it, and on how it was curious that we both had such strange, distant facts down cold. Our point of departure, essay-wise, was always less what we know than what we felt, listening less what we liked than why. For this attempt at an outside sampler we plunked down and listened to thousands of hours of rap, trying to summon a kind of objective, critical, purely aesthetic passion that the music itself made impossible. For outsiders, rap's easy to move to, hard to dissect. The more we listened and thought and drank beers and argued, the more we felt that the stuff's appeal for two highbrow, upscale whites was just plain incongruous. Because serious rap has, right from the start, presented itself as a closed show. Usually critical questions of culture, context, background and audience reduce quickly to vexed questions about prepositions. Not here. No question that serious rap is, and is very self-consciously, music by urban blacks about same to and for same. To mainstream whites it's a tight cohesion that can't but look, from outside the cultural window, like occlusion, clannishness sic and inbreeding, a kind of reverse snobbery about what's def and fresh and in-the-Scene that eerily recalls the exclusionary codes of college Societies and WASP-only country clubs. Serious rap is a musical movement that seems to revile whites as a group or Establishment, and simply to ignore their possibility as distinct individuals--the Great White Male is rap's Grand Inquisitor, its idiot questioner--its Alien Other no less than Reds were for McCarthy. The music's paranoia, together with its hermetic racial context, helps explain why from the outside it appears to us just as vibrant and impassioned as it does alien and scary. Other incongruities. Rap is a music essentially without melody, built instead around a digitally synthesized drum- and back-beat often about as complex as five idle fingers on a waiting-room table, enhanced by sampled pirated krush grooves licks or repetitive chord-series conceived and recorded by pre-rap rock icons, the whole affair characterized by a distinctive, spare, noisy, clattering style whose obsessive if limited thematics revolve with the speed of low-I amperage around the performative circuit of the MCrapper and his record-scratching, sound-mixing Sancho Panza, the DJ. The rapper the guy in the cameo cut or Kangol hat, pricey warm-up, unlaced Adidas, extra thick gold chain or oversized medallion offers lyrics that are spoken or bellowed in straight, stressed, rhymed verse, the verse's syntax and meter often tortured for rhythmic gain or the kind of limboing-for-rhyme we tend to associate with doggerel about men from Nantucket. The lyrics, nearly always self-referential, tend to be variations on about half a dozen basic themes, themes that at first listen can seem less alien or shocking than downright dull. Eg just how badcoolfreshdef the rapper and his lyrics are just how equally un-all-these his music rivals are how troublesome, vacuous and acquisitive women are how wonderful it is to be paid in full for rapping instead of stealing or dealing how gangs are really families, 'caine's constant bad news. And, in particular, how sex and violence and yuppie toys represent perfectly the urban black lifedrive to late-80s American glory. The masks are many, too many for anything really but direct aural inspection rap personae can change frequently even within single albums, the rapper delivering Hard, violent Black Nationalist communique on one cut, dubbing against Trinidadian steel drums on another, basking in big label eclat on a third, cracking a head and then defly outwitting someone muscled and dumb, cooing to his bitch and then on the flip side, threatening to go get his gun again if she can't learn who's boss. Though any crew naturally wants its own distinctive game and face, the quintessential rap group is unquintessential, chameleonesque. This is either by weird design, or it's a symptom and symbol of 80s facelessnessor most likely, it's just a good old venerable synecdoche of rap's genre itself, one that's now moving so fast it can't quite fix on its own identity -- much less hold still for anything like cool, critical classification or assessment, from outside. The MC's Alice Toklas-esque DJ hovers ever nearby over his buffet of connected turntables and the black Germanness of a whole lot of digital editing playback equipment. His responsibility is the song behind and around the rap -- the backbeat, krush groove, and the sound carpet, i.e. a kind of electric aural environment, a chaos behind the rapper's rhymed order, a digitalized blend of snippets, squeaks, screams, sirens, snatches from pop media, all mixed and splattered so that the listener cannot really listen but only feel the resultant mash of samples that results. The most recognizable of these samples range from staccato record-scratches to James Brown and Funkadelic licks, to M.L.K.'s public Dream, to quotidian pop pap like The Theme from Shaft, Brady Bunch dialogue, and '50s detergent commercials. We have now read every review and essay to do with serious underground hip-hop available in every single on-line periodical ... xcept for one or two underground newsletters viz. The City Sun, Fresh-Est circulated in parts of the Bronx demimonde where learning about rap is as hard for white outsiders as scoring fine China White or AKs. From the kind of sedulous bibliomaniacal research to be expected of conscientious lawyers and PhDs, the following has become clear. Outside England, where the Punk-weaned audience has developed a taste for spectacle-through-windows, for vicarious Rage and Protest against circumstances that have exactly 0 to do with them, most of what Rolling Stone calls devoted rock consumers meaning we post-baby-boomers, plus almost all established rock critics, tend to regard non-crossover rap as essentially boring and simplistic, or swaggering and bellicose and dangerous--at all events, basically vapid and empty because of its obsessive self-referentialityin short, as closed to them, to us, as a music. Unrecognizable as what we've been trained and adverted to buy as pop.... Great to dance to, of course, but then what might the white audience for today's mainstream expect? Rap, whether fecund or sterile, is today's pop music's lone cutting edge, the new, the unfamiliar, the brain-resisted-while-body-boogies. And that resisted, alien, exhilarating cutting edge has always been black. What have you left me? what have I got? Last night in cold blood my young brother got shot My homey got jacked My mother's on crack My sister can't work cause her arms show tracks Madness, insanity Live in profanity Then some punk claim that they understandin' me? Give me a break--what world do you live in? Death is my sex--guess my religion. What makes this stuff so much more disturbing, more real to outsiders than the Punk Rock even those of us who remember it could never quite take seriously? Maybe even a closed music has to have some kind of detente with received custom I always found it tough to listen straight-faced to a nihilist lecture from someone with a chartreuse mohawk and an earring in his eyelid who punctuates his delivery with vomit and spit. All doctrine and pronouncement, exclusively anti-, this Punk of a decade past afforded even willing mainstream listeners no easement across cultural void, nothing human to grab onto. I have no idea what a Punk performer thinks, feels, is, day-to-day... in fact I always suspected he had no day, but just retreated to his plush coffin at cockcrow. Can you imagine a Punk with four-foot hair and spiked jacket and nose-ring, say, eating a bologna sandwich? Replacing a light bulb? Putting a quarter in a meter? Not me, boy. And even Barnum, who knew fear sells, also knew that freakshows aren't frightening when the freakishness supplants all resemblance. 0 affinity 0 empathy. And fear requires empathy as much as it does menace or threat. Public Enemy and N.W.A., Ice T and Schoolly D discomfit us, our friends, the critics we read and cornered, because the Hard rappers' lyrics are conscientious about being offor the real lives and attitudes of recognizable, if alien, persons. Here's where it's a level up from mere spectacle ideology in Hard rap is always informed by incident or named condition. This makes rap not only better than Punk, but way scarier. Serious Hard raps afford white listeners genuine, horse's-mouth access to the life-and-death plight and mood of an American community on the genuine edge of im-explosion, an ugly new sub-nation we've been heretofore conditioned to avoid, remand to the margins, not even see except through certain carefully abstract, attenuating filters. For outsiders, rap is hard to dissect, easy to move to. The command is dance, don't understand participate, don't manipulate. Rap is a fortress protected by the twin moats of talk and technology. The first is that nu style of speak--the dialect drug, De La Soul calls it--that rappers fashion from jive and disseminate through record stores to all of us. Some in-words, like fly, meaning finelooking, have been in coin since the beginning, now venerable as Old English because they turn up on Grandmaster Flash cuts from '82. Others, like dead presidents, rap for , are either coming into or going out of currency, depending on when you read this. Rap, a club language, has myriad ways to describe one's own or others' looks. Fly is how a man digs a woman. One would never describe oneself as fly, even when cataloguing one's own attractions done more in rap than anyplace except perhaps Village Voice personals. Fresh means irresistibly stylish, oft-modified by funky, crazy, or stoopid, predominantly used to convey the fly-ness of things other than women, including oneself or one's rap, which two concepts rappers, like schizophrenics, can't always keep separate in their heads. Dope means def, and def means crazy funky stoopid fresh. Synonyms include the shit, the It, the cool, the thang, the word, the grooviest, the categorical imperative, die weltanschung, the that-which-Potter-Stewart-would-know-if-he-saw. A def rapper is so style-defining as to make the stylish mere copycats. To be def is to rap to the beat of a different drum machine--not seeking solitude, but rather confident that others will follow. The def rapper MC's a def rap, which rap def-ly tells of its own and the rapper's def-ness--so def, as MCmanager, entrepreneur Russell Rush Simmons brags, that it had to be on a label called Def Jam. Rap celebrates power, equating strength with style, and style with the I in Individuality. Rappers dis--dismiss--the styleless, faceless. To ill is to be weak or wrong to bite is to thieve another's dope beat. And only the ill would bite. Early remastered pop was the first fake music ever, since what the record buyer of '63 experienced as Aural Event on his turntable couldn't happen live. Rock began to become an Illusion of Event which technology made possible rock became more like the movies, starting down a long road at the end of which was MTV. Not that this kept Phil Spector up nights. The gurus of the studio had fatter fish to clean, for the new freedom to shape sound had come at a price. With each magnetic jump from live, as tape was made of tapes which were themselves tapes of tapes, the hiss and crackle of interference multiplied. Dual high-bias media with 2 units each of sonic garbage per 10,000 units of Elvis Presley, retaped on similar 2-units-per-10,000 tape, became 4 units of hiss retaped, 8 then 16 then 32. As the sound got fuller, it decayed. The solution was a breakthrough called multi-tracking--using recorders that could capture and play back on 2 as in stereo, 4 as in '67's then-ear-shattering Sergeant Pepper's Lonely Heart's Club Band, 12, 16, and today 24 parallel tracks, eliminating the hiss of transference from one machine to the next. Rhythms, melodies, harmonies could all be captured on separate tracks, allowing the performer or producer to mix and listen and re-mix, adding vocals or lead instrument on yet another track. Rap Edisons like Kool Herc, Grandmaster Flash and Afrika Bambaataa began as party DJs, not musicians. Their wiring of twin turntables to a mixer, allowing them to stack the sound of two different records while rapping into a mike, was a kind of crude, extemporaneous multitracking. Technological loops like those in the NASA-esque studios of CBS and Polygram were now in the hands of the homeboys. Carter was President. The Bee Gees, with five Top-Ten hits in twelve months, were king. Digital recording, the science dividing Rjam's Tam-Tam on tape from Tam-Tam as heard live is a technology that converts music to codes or digits. The codes are read by a computer, one combining sophisticated sound-to-code translation hardware with a number-crunching COS and a high-response synthesizer, at speeds of 40,000 digits per second and up. The recorded sounds, reduced to numbers, can be shaped, mangled, muffled, amplified, and even canonized. Hardware then translates the digits, as read and altered, back into sound, which can itself be recorded on multitrack and combined with yet more sounds. The result hiss-free reproduction on an infinity of tracks, each of which can itself be manipulated infinitely. Digital recording, part of the 80s sea-change in how pop gets made, divides the responsibility for the final song more or less equally between the performer, the engineer at the mixing board, the producer who coordinates the multi-tracking and mixing process, and the electronic hardware that actually makes the music we buy. The latest synthesizers produce notes from pure electric current instead of electronically amplified vibrations, with voltage-meters rather than hands or feet determining everything from key to pitch to timbre to attack-delay envelope another non-rap term, denoting the microtimed, counterpoised quality of a note's duration, how a note's soundquaver-structure as it builds is different from its sound and structure as it fades--the manipulation of a piano's foot-pedals, for example, affects the delay component of each note and chord's envelope. The Kurzweil 250, a state-of-the-art system, is a 1-?track12,018-note synthesizer linked by software to an Apple MacIntosh Plus, which serves as an exhaustive library of digitized sound. The Kurzweil could put all of culture in a blender--take Janet Leigh's Cremora-curdling scream from Psycho, store it in the Mac, program the synth such that an F will be reproduced as Janet Leigh's F scream, then play We Shall Overcome as if screamed by Janet Leigh store this treat similarly Bach's St. Matthew's Passion, except with vast choruses of screaming Janet Leighs, then Mary Had a Little Lamb, then Twist and Shout by the Isleys, not the Beatles, all as screams then replay the four as one horrific jumble, or select amidst the jumble and then whatever you came up with in the final, painstakingly re-mixed mix you could play backwards. And call that finished. Or never finish. It's like holding music at gunpoint. You can make it do--or do to you --whatever you can think of. Whim is the only limit. Basically we decided we were into rap because, even media-hype aside, this music had some kind of hard edge to it. Date of composition here is July '89. Think back. This last has been a fiscal year in which Madonna's back on top, in which covers of classic covers of classic tunes are themselves covered and then climb corporate charts, in which Rod Stewart's out of cryogenics and back on top.... MTV's ceased to be anything but a long commercial for itself and the interests of corporate labels Bobby McFerrin makes a platinum mint and then several commercial jingles out of a burbled synth-reggae invitation to Be Happy, a song that has the same verbal-pre-packaging feel as Where's the Beef? This last year heavy metal's fake-Satanist male models accounted for 12 of total U.S. record sales U2 filmed a 20,000,000 homage to their own self-righteousness and Bono's ever more i</t>
+          <t>Yeah we mad, yeah we crazy Yeah Big 44s with no safety Been movin' skitz real lately Mad He has moves like he's got rabies Yeah we mad, yeah we crazy Dip him till my wrist has gone lazy ching, ching If it's not bagel then it's tasty Truss You already got dipped by Katie's Yeah we crazy and we mad Eergh I want guns from Baghdad Bow We're gonna drop amms I'm glad If it ain't us then who's bad? Who? It gets bloody like a girl's pad How many dippers had man had? 'Nuff How many cases had gone Jake's add? 'Nuff Get him and his comrade Tell the Kwengface get the mop but he already dropped that juice Brap, brap Bang at his head, hole three blood, touches the wall and the roof Brap, brap I never talk lies on the tracks, tell me when have I lied in the booth Your toss scored the game, but I don't rate cuz that nigga never tell the truth How could I I don't give a toss, ching him up, let him see my pom poms Bare back it no condoms Get his chest like the long johns Pecknarm where I come from I want all I don't want some Nah Push shanks through cotton's Fuck rans I'll serve you bon-bons See me on the block just chillin' Done a couple backflips then fleeked up my tings that's loads of women Bitches On the backroad doin up lurks, see opps and you that's loads of chinging Ching Bad bitch wants this piece it yard then you know that's loads of inches Ha Put it in her stomach then skeet Skrrt They know that were known for the dip-dip-ching-ching so we can't perform on the streets Fuck Tell bro gone do that boom-boom-corgh-corgh then we go wipe down the heat Bow She's telling me different, no face no case, different name when I dipped it, so she can't chat this instant Like, see this wrist rotating whip whip See this rocks just breaking See the boom-bow with the boom-bow on the corner, have your soul taken Brap, brap 'Cause I got the packs I got the packs 'Cause I got the Bs I got the b 'Cause I'm in the bando, call it disando, writies on me Pull up and swerve it Skrrt Bullets disbursting Bow Like I'm a real banger, you're just a internet virgin Washed Like I'm a real slanger, I hit the trap and burst it Trap I don't fuck with no cracker, I just pull it and burn it Narsty Ching, chang, chong Ching With the conscience on my shoulder in dispute, tryna see what's what See Satan's telling me yes, but the angels telling me stop See I though I was locked in a dream And then I woke up with my hands on a dots Like how you later get like that, like 2-2 shit when I step out Like how you tryna step like that, like 2 shots from the boom-bow Boom-boom-bow hit his head right back Brap Like man I get you set like that Brap Like you know that the sets like that Ching That's neck, eyes, check, head, chest, chest and back Ching Got the light and the dark, no racist I got two tings up on my couch, both of them light, both of them naked Ay Like gyally on me like my rammy on me, see my ex-ting hates it Ay Got my ends like we move packs on the wrist over high, so might go rated Woo Bro came with the woosh, get smoked like kush Bro, I hope you don't miss Brap Bro said there's opps about so let's slide round on a brap brap ting Brap I want packs on packs and cling, tens and twenties, three for pinks Brr I got packs on packs and clings, three for twenty, three for pink P Like, deport man like Theresa May Man get cheffed quick, I ain't on wrestling, this ain't no TNA Ching, ching Pull up, hello, man turn Jello, shook when they see my face Shook Hop out to see them race Pull up, hop out your G get shaved Eergh, eergh If not that then your G get blazed Bow Got bread and burners, no toaster Shoot and score, Ademola Trap fit, I want dough like I'm Homer Truss me Smoke that dope, I ain't sober Stoner, bang my tunes on that sofa Eergh Do road SN1 folder Hold up think you're cold but I'm colder Older, give no fucks you get soaked up Get drenched Niggas know I'm a soldier Oh shit Skududu dududu, I do up road in that motor Skududu dududu Bro bro got dark and light in hard, yeah Bro got rock like a rainbow Rainbow Got green and locks we got Yoda Brown and biggest bum we got closer Peng Biggest back I'm like Yola Peng Gyally on me, what's next? Chick on me like my kitch on me Yeah, Gyally on me want sex Friggy She see the Ps we mash, she ask but gyally won't see one pence Lowe it Hop out the scenes, all ments It's Brexit get out Theresa's ends or hop out your G get drenched Oh shit1</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chang</t>
+          <t>La misère est si belle</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yeah we mad, yeah we crazy Yeah Big 44s with no safety Been movin' skitz real lately Mad He has moves like he's got rabies Yeah we mad, yeah we crazy Dip him till my wrist has gone lazy ching, ching If it's not bagel then it's tasty Truss You already got dipped by Katie's Yeah we crazy and we mad Eergh I want guns from Baghdad Bow We're gonna drop amms I'm glad If it ain't us then who's bad? Who? It gets bloody like a girl's pad How many dippers had man had? 'Nuff How many cases had gone Jake's add? 'Nuff Get him and his comrade Tell the Kwengface get the mop but he already dropped that juice Brap, brap Bang at his head, hole three blood, touches the wall and the roof Brap, brap I never talk lies on the tracks, tell me when have I lied in the booth Your toss scored the game, but I don't rate cuz that nigga never tell the truth How could I I don't give a toss, ching him up, let him see my pom poms Bare back it no condoms Get his chest like the long johns Pecknarm where I come from I want all I don't want some Nah Push shanks through cotton's Fuck rans I'll serve you bon-bons See me on the block just chillin' Done a couple backflips then fleeked up my tings that's loads of women Bitches On the backroad doin up lurks, see opps and you that's loads of chinging Ching Bad bitch wants this piece it yard then you know that's loads of inches Ha Put it in her stomach then skeet Skrrt They know that were known for the dip-dip-ching-ching so we can't perform on the streets Fuck Tell bro gone do that boom-boom-corgh-corgh then we go wipe down the heat Bow She's telling me different, no face no case, different name when I dipped it, so she can't chat this instant Like, see this wrist rotating whip whip See this rocks just breaking See the boom-bow with the boom-bow on the corner, have your soul taken Brap, brap 'Cause I got the packs I got the packs 'Cause I got the Bs I got the b 'Cause I'm in the bando, call it disando, writies on me Pull up and swerve it Skrrt Bullets disbursting Bow Like I'm a real banger, you're just a internet virgin Washed Like I'm a real slanger, I hit the trap and burst it Trap I don't fuck with no cracker, I just pull it and burn it Narsty Ching, chang, chong Ching With the conscience on my shoulder in dispute, tryna see what's what See Satan's telling me yes, but the angels telling me stop See I though I was locked in a dream And then I woke up with my hands on a dots Like how you later get like that, like 2-2 shit when I step out Like how you tryna step like that, like 2 shots from the boom-bow Boom-boom-bow hit his head right back Brap Like man I get you set like that Brap Like you know that the sets like that Ching That's neck, eyes, check, head, chest, chest and back Ching Got the light and the dark, no racist I got two tings up on my couch, both of them light, both of them naked Ay Like gyally on me like my rammy on me, see my ex-ting hates it Ay Got my ends like we move packs on the wrist over high, so might go rated Woo Bro came with the woosh, get smoked like kush Bro, I hope you don't miss Brap Bro said there's opps about so let's slide round on a brap brap ting Brap I want packs on packs and cling, tens and twenties, three for pinks Brr I got packs on packs and clings, three for twenty, three for pink P Like, deport man like Theresa May Man get cheffed quick, I ain't on wrestling, this ain't no TNA Ching, ching Pull up, hello, man turn Jello, shook when they see my face Shook Hop out to see them race Pull up, hop out your G get shaved Eergh, eergh If not that then your G get blazed Bow Got bread and burners, no toaster Shoot and score, Ademola Trap fit, I want dough like I'm Homer Truss me Smoke that dope, I ain't sober Stoner, bang my tunes on that sofa Eergh Do road SN1 folder Hold up think you're cold but I'm colder Older, give no fucks you get soaked up Get drenched Niggas know I'm a soldier Oh shit Skududu dududu, I do up road in that motor Skududu dududu Bro bro got dark and light in hard, yeah Bro got rock like a rainbow Rainbow Got green and locks we got Yoda Brown and biggest bum we got closer Peng Biggest back I'm like Yola Peng Gyally on me, what's next? Chick on me like my kitch on me Yeah, Gyally on me want sex Friggy She see the Ps we mash, she ask but gyally won't see one pence Lowe it Hop out the scenes, all ments It's Brexit get out Theresa's ends or hop out your G get drenched Oh shit1</t>
+          <t>Hey pédé, j'viens t'péter, rien laisser, la baiser, n'pas rêver, RDV sur Saturne La fierté, lhonnêteté, l'amitié, éviter la pitié, j'vends la mort à la pub Elle est bonne, faut qu'elle paye en nature, elle est pure, la feuille est sans ratures Pas majeure mais sa bouche est mature, le shit bulle, les pouces collent, on m'accule Wesh l'alien écailleux, t'es faya, tête ailleurs, dis-moi c'est quand tu sors le Cayenne Ouais la hyène se lâche, fait la chienne, se cache et plus tard se range comme Ayem Deux talons qui sortent de la gova, des bras maigres qui manient le cobra Igo on sort la langue comme Manny, Love Sosa, oui ma connasse Tiens goûte la teub à Adama, gros j'lance mon taga jusqu'en Alabama Ma punch dans ta gorge, la gorge à ta femme, viens voir la souffrance te dire wallah pas mal Igo j'suis sauvage et j'crie ounga wawa, Ounga ounga, le G sur la poucave Ounga ounga, nigga wawawawa, Ounga ounga, tant qu'on fout pas l'darwa J'sais qu'j'suis pas intégré, j'suis père de mes intérêts, les mains dans la merde alors qu'elles sont faites pour les enterrer J'sais combien tu paierais pour te faire opérer, de tout ce mal qui paraît si fort et qui semble empirer Viens m'voir et j'te dirai le prix d'la fonce-dé-dé-dé Si t'as appris à compter-ter-ter, on sera amis, enchanté-té-té Moi c'est Ade', moi c'est Ade' khey, sors la 'teille, vas-y claque le jour de paye J'veux pas d'ton Facebook, rrht tfou, t'sais que j'ai ma main sur ta fesse C'est limpide, ouais c'est deuss, c'est violent, c'est 9.1,on arrive y a d'la peuf' au volant, y a d'la meuf Elle t'a brisé le cur, fallait briser sa chatte, dire au gosse à sa reus' fais la bise à papa Pah, pah, pah, pah, ma haine qui te quen', j'suis en polo, la rage s'voit aux triceps Blablablabla, tu t'écartes tu te perds en direction du hall les cas soc' te visser L'espoir dans le coffre, la chance dans la cava, pardonnez-moi mais nos sorts sont macabres Dis-moi si j'ai tort ou si j'rappe la tate-pa, obscure est la force, le jedi est khabat 9.4 c'est l'Barça, 9.1 c'est l'Brésil, ouais connard, va l'dire à Kery Sinon à part ça, bien t'es pressé ? Non parce que ça va pas terrible Parce que j'suis seul dans ma tête, c'est la rage qui m'a élevé Que j'ai bicrave dans la tess' et qu'mon caleçon n'est pas en LV Faut du liquide, j'laisse pas couler une larme, pas une, pas une, pas une Fais bellek aux femmes, fais bellek aux putes, fais bellek aux paluches, paluches, paluches T'sais qu'on est vifs donc fais pas l'imbécile, on s'vide pas la vessie un meug dans les WC Oui on veut la belle vie, embarquer sur l'ferry, si t'as ché-tou des litres, vas-y mon gars fais signe Tu décolles, jatterris, bientôt j'côtoie des riches, la poudre dans la narine, César fait l'AVC J'l'ai quen' un mercredi, l'amène pas à la mairie, tu l'appelles ma chérie, j'lui mettais la fessée Viens j'te donne RDV, j'suis d'Paris j'suis pressé, igo j'vois tellement d'chiennes, j'mets une laisse sur l'PC J'mets une laisse sur l'PC, j'prends le game en PV, l'rap est mort, j'le déterre pour le ré-enterrer Ma drogue dans l'Gabbana Aux arrivants avec mon gars Bana J'sors ma hein-hein de mon Gabbana Ton oseille dans la poche de mon Gabbana J'fais l'amour à la hess' dans l'allée, elle se rhabille, j'me retourne Bismillah à l'aller, bismillah au retour Sers le trou d'balle à la douane, on déballe et taille-dé redwa Dans mes yeux c'est le vide, mon âme est perchée sur le toit J'vois l'espoir dans les yeux des p'tits, mashallah ça sent l'rêve Une sale envie d'décharger, on vit, on s'égare, on crève Ouais pas d'vie sociale, juste une vie d'cas social Le rap dans un local, va foutre ta schneck au sale Tantôt j'tue l'temps tant, tantôt c'est l'temps qui m'kill J'me sens mutant, tant différent dans la file Ouais j'suis bon qu'à compter, un joint d'beuh sur les lèvres Allez fuck ma bonté, et avec ça fuck mes rêves Tout c'que j'fais charbonner, tous les mêmes tous clonés Six du mat' détrôné à r'dessiner c'qu'est gommé Combien de sacs à pâtes ne savent plus sur quel genou danser Sur quel genou danser Ademo, Ladif Peace and lovés kiff Tout pour la mif' Tout pour le bif' Les sentiments ça ralentit, le cur fermé, là j'suis à fond Tu pètes plus haut que ton cul, on t'monte ton cul touche, touche le plafond On tire sur la laisse, t'aboies, on t'détache, tu perds la voix Nous c'est les gentils armés cramés conscients qu'on perd la foi Wesh à quand l'dernier kil' ? Pas demain, pas maintenant J'te fais danser avec l'oseille à chaque billet un nouveau battement J'tacle junkie potentiel, j'en fais ient ient fidèle Des loups qui fixent la Lune, moi être meilleur ami d'elle Chez nous on partage la hess', le cul d'la haute dans la caisse Casse un tour longue est la laisse, mon ange tu connais l'adresse Le temps d'un clignement les gens changent, moi je change en retrouvant la vue D'aucune poche on est dépendants, là j'suis fonce' en retrouvant la fum' Ils ont les photos, plus les souvenirs, on a les souvenirs, plus les photos Ouais on a même plus les potos, c'est chacun son bénéf', son auto Un gros fer sa mère, j'emmène la misère en balade Une balle pour chaque ennemi de mon frère, ça fait click, gala, gala Un putain d'biff, la mif', une ride en moins sur l'front de mon père Un putain d'biff, la mif', un sourire en plus sur l'visage de mon frère Le dos large, le coeur étroit Ta relation sur une pesette, si t'écoules pas, madame est froide Ce soir j'rentre pas à la maison Les portes se ferment et puis ne s'ouvriront qu'à la prochaine saison La misère dans un SLR, rentrer, tourner, sortir célèbre La vie me donne son cul, j'connais pas l'goût d'ses lèvres24</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>La misère est si belle</t>
+          <t>Tchiki Tchiki</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hey pédé, j'viens t'péter, rien laisser, la baiser, n'pas rêver, RDV sur Saturne La fierté, lhonnêteté, l'amitié, éviter la pitié, j'vends la mort à la pub Elle est bonne, faut qu'elle paye en nature, elle est pure, la feuille est sans ratures Pas majeure mais sa bouche est mature, le shit bulle, les pouces collent, on m'accule Wesh l'alien écailleux, t'es faya, tête ailleurs, dis-moi c'est quand tu sors le Cayenne Ouais la hyène se lâche, fait la chienne, se cache et plus tard se range comme Ayem Deux talons qui sortent de la gova, des bras maigres qui manient le cobra Igo on sort la langue comme Manny, Love Sosa, oui ma connasse Tiens goûte la teub à Adama, gros j'lance mon taga jusqu'en Alabama Ma punch dans ta gorge, la gorge à ta femme, viens voir la souffrance te dire wallah pas mal Igo j'suis sauvage et j'crie ounga wawa, Ounga ounga, le G sur la poucave Ounga ounga, nigga wawawawa, Ounga ounga, tant qu'on fout pas l'darwa J'sais qu'j'suis pas intégré, j'suis père de mes intérêts, les mains dans la merde alors qu'elles sont faites pour les enterrer J'sais combien tu paierais pour te faire opérer, de tout ce mal qui paraît si fort et qui semble empirer Viens m'voir et j'te dirai le prix d'la fonce-dé-dé-dé Si t'as appris à compter-ter-ter, on sera amis, enchanté-té-té Moi c'est Ade', moi c'est Ade' khey, sors la 'teille, vas-y claque le jour de paye J'veux pas d'ton Facebook, rrht tfou, t'sais que j'ai ma main sur ta fesse C'est limpide, ouais c'est deuss, c'est violent, c'est 9.1,on arrive y a d'la peuf' au volant, y a d'la meuf Elle t'a brisé le cur, fallait briser sa chatte, dire au gosse à sa reus' fais la bise à papa Pah, pah, pah, pah, ma haine qui te quen', j'suis en polo, la rage s'voit aux triceps Blablablabla, tu t'écartes tu te perds en direction du hall les cas soc' te visser L'espoir dans le coffre, la chance dans la cava, pardonnez-moi mais nos sorts sont macabres Dis-moi si j'ai tort ou si j'rappe la tate-pa, obscure est la force, le jedi est khabat 9.4 c'est l'Barça, 9.1 c'est l'Brésil, ouais connard, va l'dire à Kery Sinon à part ça, bien t'es pressé ? Non parce que ça va pas terrible Parce que j'suis seul dans ma tête, c'est la rage qui m'a élevé Que j'ai bicrave dans la tess' et qu'mon caleçon n'est pas en LV Faut du liquide, j'laisse pas couler une larme, pas une, pas une, pas une Fais bellek aux femmes, fais bellek aux putes, fais bellek aux paluches, paluches, paluches T'sais qu'on est vifs donc fais pas l'imbécile, on s'vide pas la vessie un meug dans les WC Oui on veut la belle vie, embarquer sur l'ferry, si t'as ché-tou des litres, vas-y mon gars fais signe Tu décolles, jatterris, bientôt j'côtoie des riches, la poudre dans la narine, César fait l'AVC J'l'ai quen' un mercredi, l'amène pas à la mairie, tu l'appelles ma chérie, j'lui mettais la fessée Viens j'te donne RDV, j'suis d'Paris j'suis pressé, igo j'vois tellement d'chiennes, j'mets une laisse sur l'PC J'mets une laisse sur l'PC, j'prends le game en PV, l'rap est mort, j'le déterre pour le ré-enterrer Ma drogue dans l'Gabbana Aux arrivants avec mon gars Bana J'sors ma hein-hein de mon Gabbana Ton oseille dans la poche de mon Gabbana J'fais l'amour à la hess' dans l'allée, elle se rhabille, j'me retourne Bismillah à l'aller, bismillah au retour Sers le trou d'balle à la douane, on déballe et taille-dé redwa Dans mes yeux c'est le vide, mon âme est perchée sur le toit J'vois l'espoir dans les yeux des p'tits, mashallah ça sent l'rêve Une sale envie d'décharger, on vit, on s'égare, on crève Ouais pas d'vie sociale, juste une vie d'cas social Le rap dans un local, va foutre ta schneck au sale Tantôt j'tue l'temps tant, tantôt c'est l'temps qui m'kill J'me sens mutant, tant différent dans la file Ouais j'suis bon qu'à compter, un joint d'beuh sur les lèvres Allez fuck ma bonté, et avec ça fuck mes rêves Tout c'que j'fais charbonner, tous les mêmes tous clonés Six du mat' détrôné à r'dessiner c'qu'est gommé Combien de sacs à pâtes ne savent plus sur quel genou danser Sur quel genou danser Ademo, Ladif Peace and lovés kiff Tout pour la mif' Tout pour le bif' Les sentiments ça ralentit, le cur fermé, là j'suis à fond Tu pètes plus haut que ton cul, on t'monte ton cul touche, touche le plafond On tire sur la laisse, t'aboies, on t'détache, tu perds la voix Nous c'est les gentils armés cramés conscients qu'on perd la foi Wesh à quand l'dernier kil' ? Pas demain, pas maintenant J'te fais danser avec l'oseille à chaque billet un nouveau battement J'tacle junkie potentiel, j'en fais ient ient fidèle Des loups qui fixent la Lune, moi être meilleur ami d'elle Chez nous on partage la hess', le cul d'la haute dans la caisse Casse un tour longue est la laisse, mon ange tu connais l'adresse Le temps d'un clignement les gens changent, moi je change en retrouvant la vue D'aucune poche on est dépendants, là j'suis fonce' en retrouvant la fum' Ils ont les photos, plus les souvenirs, on a les souvenirs, plus les photos Ouais on a même plus les potos, c'est chacun son bénéf', son auto Un gros fer sa mère, j'emmène la misère en balade Une balle pour chaque ennemi de mon frère, ça fait click, gala, gala Un putain d'biff, la mif', une ride en moins sur l'front de mon père Un putain d'biff, la mif', un sourire en plus sur l'visage de mon frère Le dos large, le coeur étroit Ta relation sur une pesette, si t'écoules pas, madame est froide Ce soir j'rentre pas à la maison Les portes se ferment et puis ne s'ouvriront qu'à la prochaine saison La misère dans un SLR, rentrer, tourner, sortir célèbre La vie me donne son cul, j'connais pas l'goût d'ses lèvres24</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tchiki Tchiki</t>
+          <t>Tempête</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tempête</t>
+          <t>Mowgli</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>J'suis de la jungle, appelle-moi Mowgli, j'ai le seum, j'ai pas le semi J'étais jeune, j'coupais un demi, pas d'ami j'étais comme Rémi Dans l'94 ou bien à Beriz, dans mon zoo, tu connais la patata J'bois la haine dans le carré VIP, viens tester que j'te haga-ga-ga-gar Une légende dans ton tier-quar, on vend, on t'crosse, on t'tire dessus T'es mon ennemi, des barres, j't'incendie, j't'éteins, j'te pisse dessus Les yeux rouges dans la ville, j'khabat, j'khabat tous les junkies, comme un démon, t'as vu Je te schlass et je repars comme Chucky, ce soir avec une brune J'la ken, j'l'oublie et j'pète une blonde, ouais, j'navigue dans la brume Sa mère la pute, j'suis pire qu'une bombe, j'me fais péter, D4 D5, D2, j'connais le bâtiment, au fait, suce-moi, sale chien J'be-tom, bats les illeu-cous d'ton châtiment, t'façon on va prendre perpète C'est ça de ne pas être un mouton, l'week-end, j'fais pas la fête J'parle à Dieu, j'appuie sur le bouton, j'ai envie de me sentir libre Aujourd'hui, j'poserai torse nu, la rage comme en Palestine Et vu qu'les plus forts mangent le plus, j'sors le gala gala Belek connard on t'ca-ca-casse, oungawawawawa Pèse la fonce dans la ca-ca-cave, igo, aucun orgasme À part chez toutes ces 'tasses qui bougent, à l'âge d'jouer à FIFA J'm'en sortais en coupant des douze, jure pas la vie d'ta mère Tu crois m'aimer ? Laisse faire le temps, la vie, un goût amer J'la sucre avec une paire de gants, j'dis à papa pas l'choix T'façon peut-être qu'on nous a maudit, j'viens faire le spectacle, bah quoi ? J'leur chante ma haine, ils applaudissent, igo, j'vise tellement le but Depuis tout petit je suis un campeur, j'attends toujours la passe Et j'souris comme Christophe Lambert, j'répète à ces beurettes Que la street ne fait pas de Thomas, j'ai fait l'million d'barrettes Million de vues, j'connais pas, connard, j'sors pas le cross volé D'où t'as vu que ça faisait du biff ? au bon-char, tu connais J'la vends pour nourrir la mif, hardcore depuis l'départ C'pas le vocodeur qui me rend plus tendre, j'roule un pilon très tard Seul le vent qui balaye ma cendre, bah quoi ? Tu croyais quoi ? Que j'rapperais ? Que j'f'rais Lalala ? J't'encule, j'suis pas gangsta, j'laisse ça à ces lâ-lâ-lâches Appelle-moi AD, khey, made in TZ, gros, j'veux ma paye Igo, wAllah, c'est laid comme une michto qui t'michto la 'teille Igo, sors les chicots, ici, on t'ramène rien à ton bec, hein À la fin, comme Rico, ça s'encule pour avoir le chèque, hein Dans l'frigo, c'est sec, hein, ma3lich le dessert au p'tit frère Tes MC's fakes, hein, tu prieras pour qu'on nous libère Gros, le rap, ça m'plait pas, j'le fais parce que y a p't-être un billet Un charbon comme un autre, tu manges, tu tires et t'es oublié Igo, j't'raconte la hess, en cellule, un stick dans de la Gauloise La crise, j'l'encule à sec comme j't'encule si tu m'dois une ardoise Avoue qu'y a rien à voir, qu'l'avenir, tu veux pas y penser Parce qu'ici, c'est noir et qu'Iblis nous fait tous danser Fait pas l'thug avec nous, wAllah qu'on te visera pas les genoux Pas besoin d'être un milliard, on s'en fout qu'tu vois ou pas les jnouns Igo, j'sors mon cul du rrain-te J'suis pas un rappeur, sans vocodeur, j'suis claqué Je fume une niaks' avant de sé-po Mmh, liasse de té-co Igo, j'sors mon cul du rrain-te J'suis pas un rappeur, sans vocodeur, j'suis claqué Je fume une niaks' avant de sé-po Mmh, liasse de té-co24</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mowgli</t>
+          <t>Je vis, je visser</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>J'suis de la jungle, appelle-moi Mowgli, j'ai le seum, j'ai pas le semi J'étais jeune, j'coupais un demi, pas d'ami j'étais comme Rémi Dans l'94 ou bien à Beriz, dans mon zoo, tu connais la patata J'bois la haine dans le carré VIP, viens tester que j'te haga-ga-ga-gar Une légende dans ton tier-quar, on vend, on t'crosse, on t'tire dessus T'es mon ennemi, des barres, j't'incendie, j't'éteins, j'te pisse dessus Les yeux rouges dans la ville, j'khabat, j'khabat tous les junkies, comme un démon, t'as vu Je te schlass et je repars comme Chucky, ce soir avec une brune J'la ken, j'l'oublie et j'pète une blonde, ouais, j'navigue dans la brume Sa mère la pute, j'suis pire qu'une bombe, j'me fais péter, D4 D5, D2, j'connais le bâtiment, au fait, suce-moi, sale chien J'be-tom, bats les illeu-cous d'ton châtiment, t'façon on va prendre perpète C'est ça de ne pas être un mouton, l'week-end, j'fais pas la fête J'parle à Dieu, j'appuie sur le bouton, j'ai envie de me sentir libre Aujourd'hui, j'poserai torse nu, la rage comme en Palestine Et vu qu'les plus forts mangent le plus, j'sors le gala gala Belek connard on t'ca-ca-casse, oungawawawawa Pèse la fonce dans la ca-ca-cave, igo, aucun orgasme À part chez toutes ces 'tasses qui bougent, à l'âge d'jouer à FIFA J'm'en sortais en coupant des douze, jure pas la vie d'ta mère Tu crois m'aimer ? Laisse faire le temps, la vie, un goût amer J'la sucre avec une paire de gants, j'dis à papa pas l'choix T'façon peut-être qu'on nous a maudit, j'viens faire le spectacle, bah quoi ? J'leur chante ma haine, ils applaudissent, igo, j'vise tellement le but Depuis tout petit je suis un campeur, j'attends toujours la passe Et j'souris comme Christophe Lambert, j'répète à ces beurettes Que la street ne fait pas de Thomas, j'ai fait l'million d'barrettes Million de vues, j'connais pas, connard, j'sors pas le cross volé D'où t'as vu que ça faisait du biff ? au bon-char, tu connais J'la vends pour nourrir la mif, hardcore depuis l'départ C'pas le vocodeur qui me rend plus tendre, j'roule un pilon très tard Seul le vent qui balaye ma cendre, bah quoi ? Tu croyais quoi ? Que j'rapperais ? Que j'f'rais Lalala ? J't'encule, j'suis pas gangsta, j'laisse ça à ces lâ-lâ-lâches Appelle-moi AD, khey, made in TZ, gros, j'veux ma paye Igo, wAllah, c'est laid comme une michto qui t'michto la 'teille Igo, sors les chicots, ici, on t'ramène rien à ton bec, hein À la fin, comme Rico, ça s'encule pour avoir le chèque, hein Dans l'frigo, c'est sec, hein, ma3lich le dessert au p'tit frère Tes MC's fakes, hein, tu prieras pour qu'on nous libère Gros, le rap, ça m'plait pas, j'le fais parce que y a p't-être un billet Un charbon comme un autre, tu manges, tu tires et t'es oublié Igo, j't'raconte la hess, en cellule, un stick dans de la Gauloise La crise, j'l'encule à sec comme j't'encule si tu m'dois une ardoise Avoue qu'y a rien à voir, qu'l'avenir, tu veux pas y penser Parce qu'ici, c'est noir et qu'Iblis nous fait tous danser Fait pas l'thug avec nous, wAllah qu'on te visera pas les genoux Pas besoin d'être un milliard, on s'en fout qu'tu vois ou pas les jnouns Igo, j'sors mon cul du rrain-te J'suis pas un rappeur, sans vocodeur, j'suis claqué Je fume une niaks' avant de sé-po Mmh, liasse de té-co Igo, j'sors mon cul du rrain-te J'suis pas un rappeur, sans vocodeur, j'suis claqué Je fume une niaks' avant de sé-po Mmh, liasse de té-co24</t>
+          <t>DRMZ, you a fool for this one PNL Que la famille, que la famille Que La Famille, que la famille Ouais igo à l'aller j'ai d'la monnaie, au retour le coffre est chargé comme un poney J'écoule, je ramasse, je claque, j'y retourne, du début à la fin d'l'année abonné Pour les autres on s'enjaille, on survit et on die J'accorde une danse à la rue bien accompagné, j'galette ma solitude après deux 'teilles Pas besoin qu'on m'aime, j'vends du seum tampon M Quelques euros j'prends ma part, j'la laisse pas aux bâtards, ouais, qu'ils crèvent par centaines J'kiffe voir la misère s'élever, j'me suis fatigué à rêver J'me repose sur les faits, ouais, bientôt j'me refais, j'te laisse L, j'prends le V, l'enfer m'est réservé Les putes parlent dans mon V, PNL, Que La Famille QLF, on t'a pas dit, Ademo et Ladif, Gabbana est le deal On t'fait l'taga, on t'fait la beuh, tu viens du 16, on t'fait la cesse Élevé par un bandit, plus tard, j'veux faire comme mon papa, maîtresse Pétasse, allez casse un tour, le cur délogé, ils ont cassé ma tour Encore en retard, j'arriverai pas à l'heure, j'marche pas avec les putes, nique j'attends l'prochain tour Cet été j'me barre, claque deux-trois payes Vis la vie qu'j'aurai pas, marre du hood, j'me réveille Vis la vie qu'j'aurai pas Le bon-char en mode veille De retour j'l'aurai pas, la même heure, la même hess, Quand ça change j'le sais pas Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis J'veux du L, j'veux du V, j'veux du G, pour saper mes marques dans l'cur Y a qu'quand tu descends en enfer, qu'tu veux m'renvoyer l'ascenseur Celle-là elle est belle, c'est dommage que ce soit une 'tasse Vraiment dommage tu l'as vue sur les Champs en train d'traîner devant Häagen-Dazs Encore un qui chauffe ma mamie, paraît qu'il veut casser son tête Encore une victime sur la liste qui va devoir appeler son père Un destin mais y a hmm, y a des billets donc j'souris Petit j'attendais pas ma sieste, mais juste de casser les dents d'la petite souris Ounga dégaine à Mowgli Ha, Ounga des keufs j'vais courir Ha-Ha Ounga visite à Fleury, libérable cinq heures du mat', pété j'vais vomir La Il m'faut mon soleil, mes tartines et mon Nutella Igo, il m'faut mon oseille et ma gow du Venezuela J'suis là là là là où y a l'seille, ma drogue la base de ma paye Handek, écarte-toi de la teille, y a qu'ma télé qui s'rappelle de la veille J'fume, j'ai des cernes sous les yeux, te plains pas, j'suis né dans la jungle J'ai visser très tôt jusqu'à très tard de 10 heures à 4 heures du matin Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis18</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Je vis, je visser</t>
+          <t>Uranus</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DRMZ, you a fool for this one PNL Que la famille, que la famille Que La Famille, que la famille Ouais igo à l'aller j'ai d'la monnaie, au retour le coffre est chargé comme un poney J'écoule, je ramasse, je claque, j'y retourne, du début à la fin d'l'année abonné Pour les autres on s'enjaille, on survit et on die J'accorde une danse à la rue bien accompagné, j'galette ma solitude après deux 'teilles Pas besoin qu'on m'aime, j'vends du seum tampon M Quelques euros j'prends ma part, j'la laisse pas aux bâtards, ouais, qu'ils crèvent par centaines J'kiffe voir la misère s'élever, j'me suis fatigué à rêver J'me repose sur les faits, ouais, bientôt j'me refais, j'te laisse L, j'prends le V, l'enfer m'est réservé Les putes parlent dans mon V, PNL, Que La Famille QLF, on t'a pas dit, Ademo et Ladif, Gabbana est le deal On t'fait l'taga, on t'fait la beuh, tu viens du 16, on t'fait la cesse Élevé par un bandit, plus tard, j'veux faire comme mon papa, maîtresse Pétasse, allez casse un tour, le cur délogé, ils ont cassé ma tour Encore en retard, j'arriverai pas à l'heure, j'marche pas avec les putes, nique j'attends l'prochain tour Cet été j'me barre, claque deux-trois payes Vis la vie qu'j'aurai pas, marre du hood, j'me réveille Vis la vie qu'j'aurai pas Le bon-char en mode veille De retour j'l'aurai pas, la même heure, la même hess, Quand ça change j'le sais pas Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis J'veux du L, j'veux du V, j'veux du G, pour saper mes marques dans l'cur Y a qu'quand tu descends en enfer, qu'tu veux m'renvoyer l'ascenseur Celle-là elle est belle, c'est dommage que ce soit une 'tasse Vraiment dommage tu l'as vue sur les Champs en train d'traîner devant Häagen-Dazs Encore un qui chauffe ma mamie, paraît qu'il veut casser son tête Encore une victime sur la liste qui va devoir appeler son père Un destin mais y a hmm, y a des billets donc j'souris Petit j'attendais pas ma sieste, mais juste de casser les dents d'la petite souris Ounga dégaine à Mowgli Ha, Ounga des keufs j'vais courir Ha-Ha Ounga visite à Fleury, libérable cinq heures du mat', pété j'vais vomir La Il m'faut mon soleil, mes tartines et mon Nutella Igo, il m'faut mon oseille et ma gow du Venezuela J'suis là là là là où y a l'seille, ma drogue la base de ma paye Handek, écarte-toi de la teille, y a qu'ma télé qui s'rappelle de la veille J'fume, j'ai des cernes sous les yeux, te plains pas, j'suis né dans la jungle J'ai visser très tôt jusqu'à très tard de 10 heures à 4 heures du matin Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis18</t>
+          <t>No matteras an appendage to seamstressy, the thread-paper might be of some consequence to my motherof none to my father, as a mark in Slawkenbergius. Slawkenbergius in every page of him was a rich treasure of inexhaustible knowledge to my fatherhe could not open him amiss and he would often say in closing the book, that if all the arts and sciences in the world, with the books which treated of them, were lostshould the wisdom and policies of governments, he would say, through disuse, ever happen to be forgot, and all that statesmen had wrote or caused to be written, upon the strong or the weak sides of courts and kingdoms, should they be forgot alsoand Slawkenbergius only leftthere would be enough in him in all conscience, he would say, to set the world a-going again. A treasure therefore was he indeed! an institute of all that was necessary to be known of noses, and every thing elseat matin, noon, and vespers was Hafen Slawkenbergius his recreation and delight 'twas for ever in his handsyou would have sworn, Sir, it had been a canon's prayer-bookso worn, so glazed, so contrited and attrited was it with fingers and with thumbs in all its parts, from one end even unto the other. I am not such a bigot to Slawkenbergius as my fatherthere is a fund in him, no doubt but in my opinion, the best, I don't say the most profitable, but the most amusing part of Hafen Slawkenbergius, is his talesand, considering he was a German, many of them told not without fancythese take up his second book, containing nearly one half of his folio, and are comprehended in ten decads, each decad containing ten talesPhilosophy is not built upon tales and therefore 'twas certainly wrong in Slawkenbergius to send them into the world by that name!there are a few of them in his eighth, ninth, and tenth decads, which I own seem rather playful and sportive, than speculativebut in general they are to be looked upon by the learned as a detail of so many independent facts, all of them turning round somehow or other upon the main hinges of his subject, and added to his work as so many illustrations upon the doctrines of noses. As we have leisure enough upon our handsif you give me leave, madam, I'll tell you the ninth tale of his tenth decad. Slawkenbergii Fabella As Hafen Slawkenbergius de Nasis is extremely scarce, it may not be unacceptable to the learned reader to see the specimen of a few pages of his original I will make no reflection upon it, but that his story-telling Latin is much more concise than his philosophicand, I think, has more of Latinity in it. Vespera quadam frigidula, posteriori in parte mensis Augusti, peregrinus, mulo fusco colore incidens, mantica a tergo, paucis indusiis, binis calceis, braccisque sericis coccineis repleta, Argentoratum ingressus est. Militi eum percontanti, quum portus intraret dixit, se apud Nasorum promontorium fuisse, Francofurtum proficisci, et Argentoratum, transitu ad fines Sarmatiae mensis intervallo, reversurum. Miles peregrini in faciem suspexitDi boni, nova forma nasi! At multum mihi profuit, inquit peregrinus, carpum amento extrahens, e quo pependit acinaces Loculo manum inseruit et magna cum urbanitate, pilei parte anteriore tacta manu sinistra, ut extendit dextram, militi florinum dedit et processit. Dolet mihi, ait miles, tympanistam nanum et valgum alloquens, virum adeo urbanum vaginam perdidisse itinerari haud poterit nuda acinaci neque vaginam toto Argentorato, habilem inveniet.Nullam unquam habui, respondit peregrinus respiciensseque comiter inclinanshoc more gesto, nudam acinacem elevans, mulo lento progrediente, ut nasum tueri possim. Non immerito, benigne peregrine, respondit miles. Nihili aestimo, ait ille tympanista, e pergamena factitius est. Prout christianus sum, inquit miles, nasus ille, ni sexties major fit, meo esset conformis. Crepitare audivi ait tympanista. Mehercule! sanguinem emisit, respondit miles. Miseret me, inquit tympanista, qui non ambo tetigimus! Eodem temporis puncto, quo haec res argumentata fuit inter militem et tympanistam, disceptabatur ibidem tubicine et uxore sua qui tunc accesserunt, et peregrino praetereunte, restiterunt. Quantus nasus! aeque longus est, ait tubicina, ac tuba. Et ex eodem metallo, ait tubicen, velut sternutamento audias. Tantum abest, respondit illa, quod fistulam dulcedine vincit. Aeneus est, ait tubicen. Nequaquam, respondit uxor. Rursum affirmo, ait tubicen, quod aeneus est. Rem penitus explorabo prius, enim digito tangam, ait uxor, quam dormivero, Mulus peregrini gradu lento progressus est, ut unumquodque verbum controversiae, non tantum inter militem et tympanistam, verum etiam inter tubicinem et uxorum ejus, audiret. Nequaquam, ait ille, in muli collum fraena demittens, et manibus ambabus in pectus positis, mulo lente progrediente nequaquam, ait ille respiciens, non necesse est ut res isthaec dilucidata foret. Minime gentium! meus nasus nunquam tangetur, dum spiritus hoes reget artusAd quid agendum? air uxor burgomagistri. Peregrinus illi non respondit. Votum faciebat tunc temporis sancto Nicolao quo facto, sinum dextrum inserens, e qua negligenter pependit acinaces, lento gradu processit per plateam Argentorati latam quae ad diversorium templo ex adversum ducit. Peregrinus mulo descendens stabulo includi, et manticam inferri jussit qua aperta et coccineis sericis femoralibus extractis cum argento laciniato Greek, his sese induit, statimque, acinaci in manu, ad forum deambulavit. Quod ubi peregrinus esset ingressus, uxorem tubicinis obviam euntem aspicit illico cursum flectit, metuens ne nasus suus exploraretur, atque ad diversorium regressus estexuit se vestibus braccas coccineas sericas manticae imposuit mulumque educi jussit. Francofurtum proficiscor, ait ille, et Argentoratum quatuor abhinc hebdomadis revertar. Bene curasti hoc jumentam? ait muli faciem manu demulcensme, manticamque meam, plus sexcentis mille passibus portavit. Longa via est! respondet hospes, nisi plurimum esset negoti.Enimvero, ait peregrinus, a Nasorum promontorio redii, et nasum speciosissimum, egregiosissimumque quem unquam quisquam sortitus est, acquisivi? Dum peregrinus hanc miram rationem de seipso reddit, hospes et uxor ejus, oculis intentis, peregrini nasum contemplanturPer sanctos sanctasque omnes, ait hospitis uxor, nasis duodecim maximis in toto Argentorato major est!estne, ait illa mariti in aurem insusurrans, nonne est nasus praegrandis? Dolus inest, anime mi, ait hospesnasus est falsus. Verus est, respondit uxor Ex abiete factus est, ait ille, terebinthinum olet Carbunculus inest, ait uxor. Mortuus est nasus, respondit hospes. Vivus est ait illa,et si ipsa vivam tangam. Votum feci sancto Nicolao, ait peregrinus, nasum meum intactum fore usque adQuodnam tempus? illico respondit illa. Minimo tangetur, inquit ille manibus in pectus compositis usque ad illam horamQuam horam? ait illaNullam, respondit peregrinus, donec pervenio adQuem locum,obsecro? ait illaPeregrinus nil respondens mulo conscenso discessit. Slawkenbergius's Tale It was one cool refreshing evening, at the close of a very sultry day, in the latter end of the month of August, when a stranger, mounted upon a dark mule, with a small cloak-bag behind him, containing a few shirts, a pair of shoes, and a crimson-sattin pair of breeches, entered the town of Strasburg. He told the centinel, who questioned him as he entered the gates, that he had been at the Promontory of Noseswas going on to Frankfortand should be back again at Strasburg that day month, in his way to the borders of Crim Tartary. The centinel looked up into the stranger's facehe never saw such a Nose in his life! I have made a very good venture of it, quoth the strangerso slipping his wrist out of the loop of a black ribbon, to which a short scymetar was hung, he put his hand into his pocket, and with great courtesy touching the fore part of his cap with his left hand, as he extended his righthe put a florin into the centinel's hand, and passed on. It grieves, me, said the centinel, speaking to a little dwarfish bandy-legg'd drummer, that so courteous a soul should have lost his scabbardhe cannot travel without one to his scymetar, and will not be able to get a scabbard to fit it in all Strasburg.I never had one, replied the stranger, looking back to the centinel, and putting his hand up to his cap as he spokeI carry it, continued he, thusholding up his naked scymetar, his mule moving on slowly all the timeon purpose to defend my nose. It is well worth it, gentle stranger, replied the centinel. 'Tis not worth a single stiver, said the bandy-legg'd drummer'tis a nose of parchment. As I am a true catholicexcept that it is six times as big'tis a nose, said the centinel, like my own. I heard it crackle, said the drummer. By dunder, said the centinel, I saw it bleed. What a pity, cried the bandy-legg'd drummer, we did not both touch it! At the very time that this dispute was maintaining by the centinel and the drummerwas the same point debating betwixt a trumpeter and a trumpeter's wife, who were just then coming up, and had stopped to see the stranger pass by. Benedicity!What a nose! 'tis as long, said the trumpeter's wife, as a trumpet. And of the same metal said the trumpeter, as you hear by its sneezing. 'Tis as soft as a flute, said she. 'Tis brass, said the trumpeter. 'Tis a pudding's end, said his wife. I tell thee again, said the trumpeter, 'tis a brazen nose, I'll know the bottom of it, said the trumpeter's wife, for I will touch it with my finger before I sleep. The stranger's mule moved on at so slow a rate, that he heard every word of the dispute, not only betwixt the centinel and the drummer, but betwixt the trumpeter and trumpeter's wife. No! said he, dropping his reins upon his mule's neck, and laying both his hands upon his breast, the one over the other in a saint-like position his mule going on easily all the time No! said he, looking upI am not such a debtor to the worldslandered and disappointed as I have beenas to give it that convictionno! said he, my nose shall never be touched whilst Heaven gives me strengthTo do what? said a burgomaster's wife. The stranger took no notice of the burgomaster's wifehe was making a vow to Saint Nicolas which done, having uncrossed his arms with the same solemnity with which he crossed them, he took up the reins of his bridle with his left-hand, and putting his right hand into his bosom, with the scymetar hanging loosely to the wrist of it, he rode on, as slowly as one foot of the mule could follow another, thro' the principal streets of Strasburg, till chance brought him to the great inn in the market-place over-against the church. The moment the stranger alighted, he ordered his mule to be led into the stable, and his cloak-bag to be brought in then opening, and taking out of it his crimson-sattin breeches, with a silver-fringedappendage to them, which I dare not translatehe put his breeches, with his fringed cod-piece on, and forth-with, with his short scymetar in his hand, walked out to the grand parade. The stranger had just taken three turns upon the parade, when he perceived the trumpeter's wife at the opposite side of itso turning short, in pain lest his nose should be attempted, he instantly went back to his innundressed himself, packed up his crimson-sattin breeches, c. in his cloak-bag, and called for his mule. I am going forwards, said the stranger, for Frankfortand shall be back at Strasburg this day month. I hope, continued the stranger, stroking down the face of his mule with his left hand as he was going to mount it, that you have been kind to this faithful slave of mineit has carried me and my cloak-bag, continued he, tapping the mule's back, above six hundred leagues. 'Tis a long journey, Sir, replied the master of the innunless a man has great business.Tut! tut! said the stranger, I have been at the promontory of Noses and have got me one of the goodliest, thank Heaven, that ever fell to a single man's lot. Whilst the stranger was giving this odd account of himself, the master of the inn and his wife kept both their eyes fixed full upon the stranger's noseBy saint Radagunda, said the inn-keeper's wife to herself, there is more of it than in any dozen of the largest noses put together in all Strasburg! is it not, said she, whispering her husband in his ear, is it not a noble nose? 'Tis an imposture, my dear, said the master of the inn'tis a false nose. 'Tis a true nose, said his wife. 'Tis made of fir-tree, said he, I smell the turpentine. There's a pimple on it, said she. 'Tis a dead nose, replied the inn-keeper. 'Tis a live nose, and if I am alive myself, said the inn-keeper's, wife, I will touch it. I have made a vow to saint Nicolas this day, said the stranger, that my nose shall not be touched tillHere the stranger suspending his voice, looked up.Till when? said she hastily. It never shall be touched, said he, clasping his hands and bringing them close to his breast, till that hourWhat hour? cried the inn keeper's wife.Never!never! said the stranger, never till I am gotFor Heaven's sake, into what place? said sheThe stranger rode away without saying a word. The stranger had not got half a league on his way towards Frankfort before all the city of Strasburg was in an uproar about his nose. The Compline bells were just ringing to call the Strasburgers to their devotions, and shut up the duties of the day in prayerno soul in all Strasburg heard 'emthe city was like a swarm of beesmen, women, and children, the Compline bells tinkling all the time flying here and therein at one door, out at anotherthis way and that waylong ways and cross waysup one street, down another streetin at this alley, out of thatdid you see it? did you see it? did you see it? O! did you see it?who saw it? who did see it? for mercy's sake, who saw it? Alack o'day! I was at vespers!I was washing, I was starching, I was scouring, I was quiltingGod help me! I never saw itI never touch'd it!would I had been a centinel, a bandy-legg'd drummer, a trumpeter, a trumpeter's wife, was the general cry and lamentation in every street and corner of Strasburg. Whilst all this confusion and disorder triumphed throughout the great city of Strasburg, was the courteous stranger going on as gently upon his mule in his way to Frankfort, as if he had no concern at all in the affairtalking all the way he rode in broken sentences, sometimes to his mulesometimes to himselfsometimes to his Julia. O Julia, my lovely Julia!nay I cannot stop to let thee bite that thistlethat ever the suspected tongue of a rival should have robbed me of enjoyment when I was upon the point of tasting it. Pugh!'tis nothing but a thistlenever mind itthou shalt have a better supper at night. Banish'd from my countrymy friendsfrom thee. Poor devil, thou'rt sadly tired with thy journey!comeget on a little fasterthere's nothing in my cloak-bag but two shirtsa crimson-sattin pair of breeches, and a fringedDear Julia! But why to Frankfort?is it that there is a hand unfelt, which secretly is conducting me through these meanders and unsuspected tracts? Stumbling! by saint Nicolas! every stepwhy at this rate we shall be all night in getting in To happinessor am I to be the sport of fortune and slanderdestined to be driven forth unconvictedunhearduntouch'dif so, why did I not stay at Strasburg, where justicebut I had sworn! Come, thou shalt drinkto St. NicolasO Julia!What dost thou prick up thy ears at?'tis nothing but a man, c. The stranger rode on communing in this manner with his mule and Juliatill he arrived at his inn, where, as soon as he arrived, he alightedsaw his mule, as he had promised it, taken good care oftook off his cloak-bag, with his crimson-sattin breeches, c. in itcalled for an omelet to his supper, went to his bed about twelve o'clock, and in five minutes fell fast asleep. It was about the same hour when the tumult in Strasburg being abated for that night,the Strasburgers had all got quietly into their bedsbut not like the stranger, for the rest either of their minds or bodies queen Mab, like an elf as she was, had taken the stranger's nose, and without reduction of its bulk, had that night been at the pains of slitting and dividing it into as many noses of different cuts and fashions, as there were heads in Strasburg to hold them. The abbess of Quedlingberg, who with the four great dignitaries of her chapter, the prioress, the deaness, the sub-chantress, and senior canonness, had that week come to Strasburg to consult the university upon a case of conscience relating to their placket-holeswas ill all the night. The courteous stranger's nose had got perched upon the top of the pineal gland of her brain, and made such rousing work in the fancies of the four great dignitaries of her chapter, they could not get a wink of sleep the whole night thro' for itthere was no keeping a limb still amongst themin short, they got up like so many ghosts. The penitentiaries of the third order of saint Francisthe nuns of mount Calvarythe Praemonstratensesthe Clunienses Hafen Slawkenbergius means the Benedictine nuns of Cluny, founded in the year 940, by Odo, abbe de Cluny.the Carthusians, and all the severer orders of nuns, who lay that night in blankets or hair-cloth, were still in a worse condition than the abbess of Quedlingbergby tumbling and tossing, and tossing and tumbling from one side of their beds to the other the whole night longthe several sisterhoods had scratch'd and maul'd themselves all to deaththey got out of their beds almost flay'd aliveevery body thought saint Antony had visited them for probation with his firethey had never once, in short, shut their eyes the whole night long from vespers to matins. The nuns of saint Ursula acted the wisestthey never attempted to go to bed at all. The dean of Strasburg, the prebendaries, the capitulars and domiciliars capitularly assembled in the morning to consider the case of butter'd buns all wished they had followed the nuns of saint Ursula's example. In the hurry and confusion every thing had been in the night before, the bakers had all forgot to lay their leaventhere were no butter'd buns to be had for breakfast in all Strasburgthe whole close of the cathedral was in one eternal commotionsuch a cause of restlessness and disquietude, and such a zealous inquiry into that cause of the restlessness, had never happened in Strasburg, since Martin Luther, with his doctrines, had turned the city upside down. If the stranger's nose took this liberty of thrusting himself thus into the dishes Mr. Shandy's compliments to oratorsis very sensible that Slawkenbergius has here changed his metaphorwhich he is very guilty ofthat as a translator, Mr. Shandy has all along done what he could to make him stick to itbut that here 'twas impossible. of religious orders, c. what a carnival did his nose make of it, in those of the laity!'tis more than my pen, worn to the stump as it is, has power to describe tho', I acknowledge, cries Slawkenbergius with more gaiety of thought than I could have expected from him that there is many a good simile now subsisting in the world which might give my countrymen some idea of it but at the close of such a folio as this, wrote for their sakes, and in which I have spent the greatest part of my lifetho' I own to them the simile is in being, yet would it not be unreasonable in them to expect I should have either time or inclination to search for it? Let it suffice to say, that the riot and disorder it occasioned in the Strasburgers fantasies was so generalsuch an overpowering mastership had it got of all the faculties of the Strasburgers mindsso many strange things, with equal confidence on all sides, and with equal eloquence in all places, were spoken and sworn to concerning it, that turned the whole stream of all discourse and wonder towards itevery soul, good and badrich and poorlearned and unlearneddoctor and studentmistress and maidgentle and simplenun's flesh and woman's flesh, in Strasburg spent their time in hearing tidings about itevery eye in Strasburg languished to see itevery fingerevery thumb in Strasburg burned to touch it. Now what might add, if any thing may be thought necessary to add, to so vehement a desirewas this, that the centinel, the bandy-legg'd drummer, the trumpeter, the trumpeter's wife, the burgomaster's widow, the master of the inn, and the master of the inn's wife, how widely soever they all differed every one from another in their testimonies and description of the stranger's nosethey all agreed together in two pointsnamely, that he was gone to Frankfort, and would not return to Strasburg till that day month and secondly, whether his nose was true or false, that the stranger himself was one of the most perfect paragons of beautythe finest-made manthe most genteel!the most generous of his pursethe most courteous in his carriage, that had ever entered the gates of Strasburgthat as he rode, with scymetar slung loosely to his wrist, thro' the streetsand walked with his crimson-sattin breeches across the parade'twas with so sweet an air of careless modesty, and so manly withalas would have put the heart in jeopardy had his nose not stood in his way of every virgin who had cast her eyes upon him. I call not upon that heart which is a stranger to the throbs and yearnings of curiosity, so excited, to justify the abbess of Quedlingberg, the prioress, the deaness, and sub-chantress, for sending at noon-day for the trumpeter's wife she went through the streets of Strasburg with her husband's trumpet in her hand,the best apparatus the straitness of the time would allow her, for the illustration of her theoryshe staid no longer than three days. The centinel and bandy-legg'd drummer!nothing on this side of old Athens could equal them! they read their lectures under the city-gates to comers and goers, with all the pomp of a Chrysippus and a Crantor in their porticos. The master of the inn, with his ostler on his left-hand, read his also in the same stileunder the portico or gateway of his stable-yardhis wife, hers more privately in a back room all flocked to their lectures not promiscuouslybut to this or that, as is ever the way, as faith and credulity marshal'd themin a word, each Strasburger came crouding for intelligenceand every Strasburger had the intelligence he wanted. 'Tis worth remarking, for the benefit of all demonstrators in natural philosophy, c. that as soon as the trumpeter's wife had finished the abbess of Quedlingberg's private lecture, and had begun to read in public, which she did upon a stool in the middle of the great parade,she incommoded the other demonstrators mainly, by gaining incontinently the most fashionable part of the city of Strasburg for her auditoryBut when a demonstrator in philosophy cries Slawkenbergius has a trumpet for an apparatus, pray what rival in science can pretend to be heard besides him? Whilst the unlearned, thro' these conduits of intelligence, were all busied in getting down to the bottom of the well, where Truth keeps her little courtwere the learned in their way as busy in pumping her up thro' the conduits of dialect inductionthey concerned themselves not with factsthey reasoned Not one profession had thrown more light upon this subject than the Facultyhad not all their disputes about it run into the affair of Wens and oedematous swellings, they could not keep clear of them for their bloods and soulsthe stranger's nose had nothing to do either with wens or oedematous swellings. It was demonstrated however very satisfactorily, that such a ponderous mass of heterogenous matter could not be congested and conglomerated to the nose, whilst the infant was in Utera, without destroying the statical balance of the foetus, and throwing it plump upon its head nine months before the time. The opponents granted the theorythey denied the consequences. And if a suitable provision of veins, arteries, c. said they, was not laid in, for the due nourishment of such a nose, in the very first stamina and rudiments of its formation, before it came into the world bating the case of Wens it could not regularly grow and be sustained afterwards. This was all answered by a dissertation upon nutriment, and the effect which nutriment had in extending the vessels, and in the increase and prolongation of the muscular parts to the greatest growth and expansion imaginableIn the triumph of which theory, they went so far as to affirm, that there was no cause in nature, why a nose might not grow to the size of the man himself. The respondents satisfied the world this event could never happen to them so long as a man had but one stomach and one pair of lungsFor the stomach, said they, being the only organ destined for the reception of food, and turning it into chyleand the lungs the only engine of sanguificationit could possibly work off no more, than what the appetite brought it or admitting the possibility of a man's overloading his stomach, nature had set bounds however to his lungsthe engine was of a determined size and strength, and could elaborate but a certain quantity in a given timethat is, it could produce just as much blood as was sufficient for one single man, and no more so that, if there was as much nose as manthey proved a mortification must necessarily ensue and forasmuch as there could not be a support for both, that the nose must either fall off from the man, or the man inevitably fall off from his nose. Nature accommodates herself to these emergencies, cried the opponentselse what do you say to the case of a whole stomacha whole pair of lungs, and but half a man, when both his legs have been unfortunately shot off? He dies of a plethora, said theyor must spit blood, and in a fortnight or three weeks go off in a consumption. It happens otherwisereplied the opponents. It ought not, said they. The more curious and intimate inquirers after nature and her doings, though they went hand in hand a good way together, yet they all divided about the nose at last, almost as much as the Faculty itself They amicably laid it down, that there was a just and geometrical arrangement and proportion of the several parts of the human frame to its several destinations, offices, and functions, which could not be transgressed but within certain limitsthat nature, though she sportedshe sported within a certain circleand they could not agree about the diameter of it. The logicians stuck much closer to the point before them than any of the classes of the literatithey began and ended with the word Nose and had it not been for a petitio principii, which one of the ablest of them ran his head against in the beginning of the combat, the whole controversy had been settled at once. A nose, argued the logician, cannot bleed without bloodand not only bloodbut blood circulating in it to supply the phaenomenon with a succession of dropsa stream being but a quicker succession of drops, that is included, said he.Now death, continued the logician, being nothing but the stagnation of the blood I deny the definitionDeath is the separation of the soul from the body, said his antagonistThen we don't agree about our weapons, said the logicianThen there is an end of the dispute, replied the antagonist. The civilians were still more concise what they offered being more in the nature of a decreethan a dispute. Such a monstrous nose, said they, had it been a true nose, could not possibly have been suffered in civil societyand if falseto impose upon society with such false signs and tokens, was a still greater violation of its rights, and must have had still less mercy shewn it. The only objection to this was, that if it proved any thing, it proved the stranger's nose was neither true nor false. This left room for the controversy to go on. It was maintained by the advocates of the ecclesiastic court, that there was nothing to inhibit a decree, since the stranger ex mero motu had confessed he had been at the Promontory of Noses, and had got one of the goodliest, c. c.To this it was answered, it was impossible there should be such a place as the Promontory of Noses, and the learned be ignorant where it lay. The commissary of the bishop of Strasburg undertook the advocates, explained this matter in a treatise upon proverbial phrases, shewing them, that the Promontory of Noses was a mere allegorick expression, importing no more than that nature had given him a long nose in proof of which, with great learning, he cited the underwritten authorities, Nonnulli ex nostratibus eadem loquendi formula utun. Quinimo Logistae CanonistaeVid. Parce Barne Jas in d. L. Provincial. Constitut. de conjec. vid. Vol. Lib. 4. Titul. I. n. 7 qua etiam in re conspir. Om de Promontorio Nas. Tichmak. ff. d. tit. 3. fol. 189. passim. Vid. Glos. de contrahend. empt. c. necnon J. Scrudr. in cap. para refut. per totum. Cum his cons. Rever. J. Tubal, Sentent. Prov. cap. 9. ff. 11, 12. obiter. V. Librum, cui Tit. de Terris Phras. Belg. ad finem, cum comment. N. Bardy Belg. Vid. Scrip. Argentotarens. de Antiq. Ecc. in Episc Archiv. fid coll. per Von Jacobum Koinshoven Folio Argent. 1583. praecip. ad finem. Quibus add. Rebuff in L. obvenire de Signif. Nom. ff. fol. de jure Gent. Civil. de protib. aliena feud. per federa, test. Joha. Luxius in prolegom. quem velim videas, de Analy. Cap. 1, 2, 3. Vid. Idea. which had decided the point incontestably, had it not appeared that a dispute about some franchises of dean and chapter-lands had been determined by it nineteen years before. It happenedI must say unluckily for Truth, because they were giving her a lift another way in so doing that the two universities of Strasburgthe Lutheran, founded in the year 1538 by Jacobus Surmis, counsellor of the senate,and the Popish, founded by Leopold, arch-duke of Austria, were, during all this time, employing the whole depth of their knowledge except just what the affair of the abbess of Quedlingberg's placket-holes requiredin determining the point of Martin Luther's damnation. The Popish doctors had undertaken to demonstrate a priori, that from the necessary influence of the planets on the twenty-second day of October 1483when the moon was in the twelfth house, Jupiter, Mars, and Venus in the third, the Sun, Saturn, and Mercury, all got together in the fourththat he must in course, and unavoidably, be a damn'd manand that his doctrines, by a direct corollary, must be damn'd doctrines too. By inspection into his horoscope, where five planets were in coition all at once with Scorpio Haec mira, satisque horrenda. Planetarum coitio sub Scorpio Asterismo in nona coeli statione, quam Arabes religioni deputabant efficit Martinum Lutherum sacrilegum hereticum, Christianae religionis hostem acerrimum atque prophanum, ex horoscopi directione ad Martis coitum, religiosissimus obiit, ejus Anima scelestissima ad infernos navigavitab Alecto, Tisiphone Megara flagellis igneis cruciata perenniter.Lucas Gaurieus in Tractatu astrologico de praeteritis multorum hominum accidentibus per genituras examinatis. in reading this my father would always shake his head in the ninth house, with the Arabians allotted to religionit appeared that Martin Luther did not care one stiver about the matterand that from the horoscope directed to the conjunction of Marsthey made it plain likewise he must die cursing and blasphemingwith the blast of which his soul being steep'd in guilt sailed before the wind, in the lake of hell-fire. The little objection of the Lutheran doctors to this, was, that it must certainly be the soul of another man, born Oct. 22, 83. which was forced to sail down before the wind in that mannerinasmuch as it appeared from the register of Islaben in the county of Mansfelt, that Luther was not born in the year 1483, but in 84 and not on the 22d day of October, but on the 10th of November, the eve of Martinmas day, from whence he had the name of Martin. I must break off my translation for a moment for if I did not, I know I should no more be able to shut my eyes in bed, than the abbess of QuedlingbergIt is to tell the reader that my father never read this passage of Slawkenbergius to my uncle Toby, but with triumphnot over my uncle Toby, for he never opposed him in itbut over the whole world. Now you see, brother Toby, he would say, looking up, 'that christian names are not such indifferent things'had Luther here been called by any other name but Martin, he would have been damn'd to all eternityNot that I look upon Martin, he would add, as a good namefar from it'tis something better than a neutral, and but a littleyet little as it is you see it was of some service to him. My father knew the weakness of this prop to his hypothesis, as well as the best logician coul</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Uranus</t>
+          <t>Humain</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>No matteras an appendage to seamstressy, the thread-paper might be of some consequence to my motherof none to my father, as a mark in Slawkenbergius. Slawkenbergius in every page of him was a rich treasure of inexhaustible knowledge to my fatherhe could not open him amiss and he would often say in closing the book, that if all the arts and sciences in the world, with the books which treated of them, were lostshould the wisdom and policies of governments, he would say, through disuse, ever happen to be forgot, and all that statesmen had wrote or caused to be written, upon the strong or the weak sides of courts and kingdoms, should they be forgot alsoand Slawkenbergius only leftthere would be enough in him in all conscience, he would say, to set the world a-going again. A treasure therefore was he indeed! an institute of all that was necessary to be known of noses, and every thing elseat matin, noon, and vespers was Hafen Slawkenbergius his recreation and delight 'twas for ever in his handsyou would have sworn, Sir, it had been a canon's prayer-bookso worn, so glazed, so contrited and attrited was it with fingers and with thumbs in all its parts, from one end even unto the other. I am not such a bigot to Slawkenbergius as my fatherthere is a fund in him, no doubt but in my opinion, the best, I don't say the most profitable, but the most amusing part of Hafen Slawkenbergius, is his talesand, considering he was a German, many of them told not without fancythese take up his second book, containing nearly one half of his folio, and are comprehended in ten decads, each decad containing ten talesPhilosophy is not built upon tales and therefore 'twas certainly wrong in Slawkenbergius to send them into the world by that name!there are a few of them in his eighth, ninth, and tenth decads, which I own seem rather playful and sportive, than speculativebut in general they are to be looked upon by the learned as a detail of so many independent facts, all of them turning round somehow or other upon the main hinges of his subject, and added to his work as so many illustrations upon the doctrines of noses. As we have leisure enough upon our handsif you give me leave, madam, I'll tell you the ninth tale of his tenth decad. Slawkenbergii Fabella As Hafen Slawkenbergius de Nasis is extremely scarce, it may not be unacceptable to the learned reader to see the specimen of a few pages of his original I will make no reflection upon it, but that his story-telling Latin is much more concise than his philosophicand, I think, has more of Latinity in it. Vespera quadam frigidula, posteriori in parte mensis Augusti, peregrinus, mulo fusco colore incidens, mantica a tergo, paucis indusiis, binis calceis, braccisque sericis coccineis repleta, Argentoratum ingressus est. Militi eum percontanti, quum portus intraret dixit, se apud Nasorum promontorium fuisse, Francofurtum proficisci, et Argentoratum, transitu ad fines Sarmatiae mensis intervallo, reversurum. Miles peregrini in faciem suspexitDi boni, nova forma nasi! At multum mihi profuit, inquit peregrinus, carpum amento extrahens, e quo pependit acinaces Loculo manum inseruit et magna cum urbanitate, pilei parte anteriore tacta manu sinistra, ut extendit dextram, militi florinum dedit et processit. Dolet mihi, ait miles, tympanistam nanum et valgum alloquens, virum adeo urbanum vaginam perdidisse itinerari haud poterit nuda acinaci neque vaginam toto Argentorato, habilem inveniet.Nullam unquam habui, respondit peregrinus respiciensseque comiter inclinanshoc more gesto, nudam acinacem elevans, mulo lento progrediente, ut nasum tueri possim. Non immerito, benigne peregrine, respondit miles. Nihili aestimo, ait ille tympanista, e pergamena factitius est. Prout christianus sum, inquit miles, nasus ille, ni sexties major fit, meo esset conformis. Crepitare audivi ait tympanista. Mehercule! sanguinem emisit, respondit miles. Miseret me, inquit tympanista, qui non ambo tetigimus! Eodem temporis puncto, quo haec res argumentata fuit inter militem et tympanistam, disceptabatur ibidem tubicine et uxore sua qui tunc accesserunt, et peregrino praetereunte, restiterunt. Quantus nasus! aeque longus est, ait tubicina, ac tuba. Et ex eodem metallo, ait tubicen, velut sternutamento audias. Tantum abest, respondit illa, quod fistulam dulcedine vincit. Aeneus est, ait tubicen. Nequaquam, respondit uxor. Rursum affirmo, ait tubicen, quod aeneus est. Rem penitus explorabo prius, enim digito tangam, ait uxor, quam dormivero, Mulus peregrini gradu lento progressus est, ut unumquodque verbum controversiae, non tantum inter militem et tympanistam, verum etiam inter tubicinem et uxorum ejus, audiret. Nequaquam, ait ille, in muli collum fraena demittens, et manibus ambabus in pectus positis, mulo lente progrediente nequaquam, ait ille respiciens, non necesse est ut res isthaec dilucidata foret. Minime gentium! meus nasus nunquam tangetur, dum spiritus hoes reget artusAd quid agendum? air uxor burgomagistri. Peregrinus illi non respondit. Votum faciebat tunc temporis sancto Nicolao quo facto, sinum dextrum inserens, e qua negligenter pependit acinaces, lento gradu processit per plateam Argentorati latam quae ad diversorium templo ex adversum ducit. Peregrinus mulo descendens stabulo includi, et manticam inferri jussit qua aperta et coccineis sericis femoralibus extractis cum argento laciniato Greek, his sese induit, statimque, acinaci in manu, ad forum deambulavit. Quod ubi peregrinus esset ingressus, uxorem tubicinis obviam euntem aspicit illico cursum flectit, metuens ne nasus suus exploraretur, atque ad diversorium regressus estexuit se vestibus braccas coccineas sericas manticae imposuit mulumque educi jussit. Francofurtum proficiscor, ait ille, et Argentoratum quatuor abhinc hebdomadis revertar. Bene curasti hoc jumentam? ait muli faciem manu demulcensme, manticamque meam, plus sexcentis mille passibus portavit. Longa via est! respondet hospes, nisi plurimum esset negoti.Enimvero, ait peregrinus, a Nasorum promontorio redii, et nasum speciosissimum, egregiosissimumque quem unquam quisquam sortitus est, acquisivi? Dum peregrinus hanc miram rationem de seipso reddit, hospes et uxor ejus, oculis intentis, peregrini nasum contemplanturPer sanctos sanctasque omnes, ait hospitis uxor, nasis duodecim maximis in toto Argentorato major est!estne, ait illa mariti in aurem insusurrans, nonne est nasus praegrandis? Dolus inest, anime mi, ait hospesnasus est falsus. Verus est, respondit uxor Ex abiete factus est, ait ille, terebinthinum olet Carbunculus inest, ait uxor. Mortuus est nasus, respondit hospes. Vivus est ait illa,et si ipsa vivam tangam. Votum feci sancto Nicolao, ait peregrinus, nasum meum intactum fore usque adQuodnam tempus? illico respondit illa. Minimo tangetur, inquit ille manibus in pectus compositis usque ad illam horamQuam horam? ait illaNullam, respondit peregrinus, donec pervenio adQuem locum,obsecro? ait illaPeregrinus nil respondens mulo conscenso discessit. Slawkenbergius's Tale It was one cool refreshing evening, at the close of a very sultry day, in the latter end of the month of August, when a stranger, mounted upon a dark mule, with a small cloak-bag behind him, containing a few shirts, a pair of shoes, and a crimson-sattin pair of breeches, entered the town of Strasburg. He told the centinel, who questioned him as he entered the gates, that he had been at the Promontory of Noseswas going on to Frankfortand should be back again at Strasburg that day month, in his way to the borders of Crim Tartary. The centinel looked up into the stranger's facehe never saw such a Nose in his life! I have made a very good venture of it, quoth the strangerso slipping his wrist out of the loop of a black ribbon, to which a short scymetar was hung, he put his hand into his pocket, and with great courtesy touching the fore part of his cap with his left hand, as he extended his righthe put a florin into the centinel's hand, and passed on. It grieves, me, said the centinel, speaking to a little dwarfish bandy-legg'd drummer, that so courteous a soul should have lost his scabbardhe cannot travel without one to his scymetar, and will not be able to get a scabbard to fit it in all Strasburg.I never had one, replied the stranger, looking back to the centinel, and putting his hand up to his cap as he spokeI carry it, continued he, thusholding up his naked scymetar, his mule moving on slowly all the timeon purpose to defend my nose. It is well worth it, gentle stranger, replied the centinel. 'Tis not worth a single stiver, said the bandy-legg'd drummer'tis a nose of parchment. As I am a true catholicexcept that it is six times as big'tis a nose, said the centinel, like my own. I heard it crackle, said the drummer. By dunder, said the centinel, I saw it bleed. What a pity, cried the bandy-legg'd drummer, we did not both touch it! At the very time that this dispute was maintaining by the centinel and the drummerwas the same point debating betwixt a trumpeter and a trumpeter's wife, who were just then coming up, and had stopped to see the stranger pass by. Benedicity!What a nose! 'tis as long, said the trumpeter's wife, as a trumpet. And of the same metal said the trumpeter, as you hear by its sneezing. 'Tis as soft as a flute, said she. 'Tis brass, said the trumpeter. 'Tis a pudding's end, said his wife. I tell thee again, said the trumpeter, 'tis a brazen nose, I'll know the bottom of it, said the trumpeter's wife, for I will touch it with my finger before I sleep. The stranger's mule moved on at so slow a rate, that he heard every word of the dispute, not only betwixt the centinel and the drummer, but betwixt the trumpeter and trumpeter's wife. No! said he, dropping his reins upon his mule's neck, and laying both his hands upon his breast, the one over the other in a saint-like position his mule going on easily all the time No! said he, looking upI am not such a debtor to the worldslandered and disappointed as I have beenas to give it that convictionno! said he, my nose shall never be touched whilst Heaven gives me strengthTo do what? said a burgomaster's wife. The stranger took no notice of the burgomaster's wifehe was making a vow to Saint Nicolas which done, having uncrossed his arms with the same solemnity with which he crossed them, he took up the reins of his bridle with his left-hand, and putting his right hand into his bosom, with the scymetar hanging loosely to the wrist of it, he rode on, as slowly as one foot of the mule could follow another, thro' the principal streets of Strasburg, till chance brought him to the great inn in the market-place over-against the church. The moment the stranger alighted, he ordered his mule to be led into the stable, and his cloak-bag to be brought in then opening, and taking out of it his crimson-sattin breeches, with a silver-fringedappendage to them, which I dare not translatehe put his breeches, with his fringed cod-piece on, and forth-with, with his short scymetar in his hand, walked out to the grand parade. The stranger had just taken three turns upon the parade, when he perceived the trumpeter's wife at the opposite side of itso turning short, in pain lest his nose should be attempted, he instantly went back to his innundressed himself, packed up his crimson-sattin breeches, c. in his cloak-bag, and called for his mule. I am going forwards, said the stranger, for Frankfortand shall be back at Strasburg this day month. I hope, continued the stranger, stroking down the face of his mule with his left hand as he was going to mount it, that you have been kind to this faithful slave of mineit has carried me and my cloak-bag, continued he, tapping the mule's back, above six hundred leagues. 'Tis a long journey, Sir, replied the master of the innunless a man has great business.Tut! tut! said the stranger, I have been at the promontory of Noses and have got me one of the goodliest, thank Heaven, that ever fell to a single man's lot. Whilst the stranger was giving this odd account of himself, the master of the inn and his wife kept both their eyes fixed full upon the stranger's noseBy saint Radagunda, said the inn-keeper's wife to herself, there is more of it than in any dozen of the largest noses put together in all Strasburg! is it not, said she, whispering her husband in his ear, is it not a noble nose? 'Tis an imposture, my dear, said the master of the inn'tis a false nose. 'Tis a true nose, said his wife. 'Tis made of fir-tree, said he, I smell the turpentine. There's a pimple on it, said she. 'Tis a dead nose, replied the inn-keeper. 'Tis a live nose, and if I am alive myself, said the inn-keeper's, wife, I will touch it. I have made a vow to saint Nicolas this day, said the stranger, that my nose shall not be touched tillHere the stranger suspending his voice, looked up.Till when? said she hastily. It never shall be touched, said he, clasping his hands and bringing them close to his breast, till that hourWhat hour? cried the inn keeper's wife.Never!never! said the stranger, never till I am gotFor Heaven's sake, into what place? said sheThe stranger rode away without saying a word. The stranger had not got half a league on his way towards Frankfort before all the city of Strasburg was in an uproar about his nose. The Compline bells were just ringing to call the Strasburgers to their devotions, and shut up the duties of the day in prayerno soul in all Strasburg heard 'emthe city was like a swarm of beesmen, women, and children, the Compline bells tinkling all the time flying here and therein at one door, out at anotherthis way and that waylong ways and cross waysup one street, down another streetin at this alley, out of thatdid you see it? did you see it? did you see it? O! did you see it?who saw it? who did see it? for mercy's sake, who saw it? Alack o'day! I was at vespers!I was washing, I was starching, I was scouring, I was quiltingGod help me! I never saw itI never touch'd it!would I had been a centinel, a bandy-legg'd drummer, a trumpeter, a trumpeter's wife, was the general cry and lamentation in every street and corner of Strasburg. Whilst all this confusion and disorder triumphed throughout the great city of Strasburg, was the courteous stranger going on as gently upon his mule in his way to Frankfort, as if he had no concern at all in the affairtalking all the way he rode in broken sentences, sometimes to his mulesometimes to himselfsometimes to his Julia. O Julia, my lovely Julia!nay I cannot stop to let thee bite that thistlethat ever the suspected tongue of a rival should have robbed me of enjoyment when I was upon the point of tasting it. Pugh!'tis nothing but a thistlenever mind itthou shalt have a better supper at night. Banish'd from my countrymy friendsfrom thee. Poor devil, thou'rt sadly tired with thy journey!comeget on a little fasterthere's nothing in my cloak-bag but two shirtsa crimson-sattin pair of breeches, and a fringedDear Julia! But why to Frankfort?is it that there is a hand unfelt, which secretly is conducting me through these meanders and unsuspected tracts? Stumbling! by saint Nicolas! every stepwhy at this rate we shall be all night in getting in To happinessor am I to be the sport of fortune and slanderdestined to be driven forth unconvictedunhearduntouch'dif so, why did I not stay at Strasburg, where justicebut I had sworn! Come, thou shalt drinkto St. NicolasO Julia!What dost thou prick up thy ears at?'tis nothing but a man, c. The stranger rode on communing in this manner with his mule and Juliatill he arrived at his inn, where, as soon as he arrived, he alightedsaw his mule, as he had promised it, taken good care oftook off his cloak-bag, with his crimson-sattin breeches, c. in itcalled for an omelet to his supper, went to his bed about twelve o'clock, and in five minutes fell fast asleep. It was about the same hour when the tumult in Strasburg being abated for that night,the Strasburgers had all got quietly into their bedsbut not like the stranger, for the rest either of their minds or bodies queen Mab, like an elf as she was, had taken the stranger's nose, and without reduction of its bulk, had that night been at the pains of slitting and dividing it into as many noses of different cuts and fashions, as there were heads in Strasburg to hold them. The abbess of Quedlingberg, who with the four great dignitaries of her chapter, the prioress, the deaness, the sub-chantress, and senior canonness, had that week come to Strasburg to consult the university upon a case of conscience relating to their placket-holeswas ill all the night. The courteous stranger's nose had got perched upon the top of the pineal gland of her brain, and made such rousing work in the fancies of the four great dignitaries of her chapter, they could not get a wink of sleep the whole night thro' for itthere was no keeping a limb still amongst themin short, they got up like so many ghosts. The penitentiaries of the third order of saint Francisthe nuns of mount Calvarythe Praemonstratensesthe Clunienses Hafen Slawkenbergius means the Benedictine nuns of Cluny, founded in the year 940, by Odo, abbe de Cluny.the Carthusians, and all the severer orders of nuns, who lay that night in blankets or hair-cloth, were still in a worse condition than the abbess of Quedlingbergby tumbling and tossing, and tossing and tumbling from one side of their beds to the other the whole night longthe several sisterhoods had scratch'd and maul'd themselves all to deaththey got out of their beds almost flay'd aliveevery body thought saint Antony had visited them for probation with his firethey had never once, in short, shut their eyes the whole night long from vespers to matins. The nuns of saint Ursula acted the wisestthey never attempted to go to bed at all. The dean of Strasburg, the prebendaries, the capitulars and domiciliars capitularly assembled in the morning to consider the case of butter'd buns all wished they had followed the nuns of saint Ursula's example. In the hurry and confusion every thing had been in the night before, the bakers had all forgot to lay their leaventhere were no butter'd buns to be had for breakfast in all Strasburgthe whole close of the cathedral was in one eternal commotionsuch a cause of restlessness and disquietude, and such a zealous inquiry into that cause of the restlessness, had never happened in Strasburg, since Martin Luther, with his doctrines, had turned the city upside down. If the stranger's nose took this liberty of thrusting himself thus into the dishes Mr. Shandy's compliments to oratorsis very sensible that Slawkenbergius has here changed his metaphorwhich he is very guilty ofthat as a translator, Mr. Shandy has all along done what he could to make him stick to itbut that here 'twas impossible. of religious orders, c. what a carnival did his nose make of it, in those of the laity!'tis more than my pen, worn to the stump as it is, has power to describe tho', I acknowledge, cries Slawkenbergius with more gaiety of thought than I could have expected from him that there is many a good simile now subsisting in the world which might give my countrymen some idea of it but at the close of such a folio as this, wrote for their sakes, and in which I have spent the greatest part of my lifetho' I own to them the simile is in being, yet would it not be unreasonable in them to expect I should have either time or inclination to search for it? Let it suffice to say, that the riot and disorder it occasioned in the Strasburgers fantasies was so generalsuch an overpowering mastership had it got of all the faculties of the Strasburgers mindsso many strange things, with equal confidence on all sides, and with equal eloquence in all places, were spoken and sworn to concerning it, that turned the whole stream of all discourse and wonder towards itevery soul, good and badrich and poorlearned and unlearneddoctor and studentmistress and maidgentle and simplenun's flesh and woman's flesh, in Strasburg spent their time in hearing tidings about itevery eye in Strasburg languished to see itevery fingerevery thumb in Strasburg burned to touch it. Now what might add, if any thing may be thought necessary to add, to so vehement a desirewas this, that the centinel, the bandy-legg'd drummer, the trumpeter, the trumpeter's wife, the burgomaster's widow, the master of the inn, and the master of the inn's wife, how widely soever they all differed every one from another in their testimonies and description of the stranger's nosethey all agreed together in two pointsnamely, that he was gone to Frankfort, and would not return to Strasburg till that day month and secondly, whether his nose was true or false, that the stranger himself was one of the most perfect paragons of beautythe finest-made manthe most genteel!the most generous of his pursethe most courteous in his carriage, that had ever entered the gates of Strasburgthat as he rode, with scymetar slung loosely to his wrist, thro' the streetsand walked with his crimson-sattin breeches across the parade'twas with so sweet an air of careless modesty, and so manly withalas would have put the heart in jeopardy had his nose not stood in his way of every virgin who had cast her eyes upon him. I call not upon that heart which is a stranger to the throbs and yearnings of curiosity, so excited, to justify the abbess of Quedlingberg, the prioress, the deaness, and sub-chantress, for sending at noon-day for the trumpeter's wife she went through the streets of Strasburg with her husband's trumpet in her hand,the best apparatus the straitness of the time would allow her, for the illustration of her theoryshe staid no longer than three days. The centinel and bandy-legg'd drummer!nothing on this side of old Athens could equal them! they read their lectures under the city-gates to comers and goers, with all the pomp of a Chrysippus and a Crantor in their porticos. The master of the inn, with his ostler on his left-hand, read his also in the same stileunder the portico or gateway of his stable-yardhis wife, hers more privately in a back room all flocked to their lectures not promiscuouslybut to this or that, as is ever the way, as faith and credulity marshal'd themin a word, each Strasburger came crouding for intelligenceand every Strasburger had the intelligence he wanted. 'Tis worth remarking, for the benefit of all demonstrators in natural philosophy, c. that as soon as the trumpeter's wife had finished the abbess of Quedlingberg's private lecture, and had begun to read in public, which she did upon a stool in the middle of the great parade,she incommoded the other demonstrators mainly, by gaining incontinently the most fashionable part of the city of Strasburg for her auditoryBut when a demonstrator in philosophy cries Slawkenbergius has a trumpet for an apparatus, pray what rival in science can pretend to be heard besides him? Whilst the unlearned, thro' these conduits of intelligence, were all busied in getting down to the bottom of the well, where Truth keeps her little courtwere the learned in their way as busy in pumping her up thro' the conduits of dialect inductionthey concerned themselves not with factsthey reasoned Not one profession had thrown more light upon this subject than the Facultyhad not all their disputes about it run into the affair of Wens and oedematous swellings, they could not keep clear of them for their bloods and soulsthe stranger's nose had nothing to do either with wens or oedematous swellings. It was demonstrated however very satisfactorily, that such a ponderous mass of heterogenous matter could not be congested and conglomerated to the nose, whilst the infant was in Utera, without destroying the statical balance of the foetus, and throwing it plump upon its head nine months before the time. The opponents granted the theorythey denied the consequences. And if a suitable provision of veins, arteries, c. said they, was not laid in, for the due nourishment of such a nose, in the very first stamina and rudiments of its formation, before it came into the world bating the case of Wens it could not regularly grow and be sustained afterwards. This was all answered by a dissertation upon nutriment, and the effect which nutriment had in extending the vessels, and in the increase and prolongation of the muscular parts to the greatest growth and expansion imaginableIn the triumph of which theory, they went so far as to affirm, that there was no cause in nature, why a nose might not grow to the size of the man himself. The respondents satisfied the world this event could never happen to them so long as a man had but one stomach and one pair of lungsFor the stomach, said they, being the only organ destined for the reception of food, and turning it into chyleand the lungs the only engine of sanguificationit could possibly work off no more, than what the appetite brought it or admitting the possibility of a man's overloading his stomach, nature had set bounds however to his lungsthe engine was of a determined size and strength, and could elaborate but a certain quantity in a given timethat is, it could produce just as much blood as was sufficient for one single man, and no more so that, if there was as much nose as manthey proved a mortification must necessarily ensue and forasmuch as there could not be a support for both, that the nose must either fall off from the man, or the man inevitably fall off from his nose. Nature accommodates herself to these emergencies, cried the opponentselse what do you say to the case of a whole stomacha whole pair of lungs, and but half a man, when both his legs have been unfortunately shot off? He dies of a plethora, said theyor must spit blood, and in a fortnight or three weeks go off in a consumption. It happens otherwisereplied the opponents. It ought not, said they. The more curious and intimate inquirers after nature and her doings, though they went hand in hand a good way together, yet they all divided about the nose at last, almost as much as the Faculty itself They amicably laid it down, that there was a just and geometrical arrangement and proportion of the several parts of the human frame to its several destinations, offices, and functions, which could not be transgressed but within certain limitsthat nature, though she sportedshe sported within a certain circleand they could not agree about the diameter of it. The logicians stuck much closer to the point before them than any of the classes of the literatithey began and ended with the word Nose and had it not been for a petitio principii, which one of the ablest of them ran his head against in the beginning of the combat, the whole controversy had been settled at once. A nose, argued the logician, cannot bleed without bloodand not only bloodbut blood circulating in it to supply the phaenomenon with a succession of dropsa stream being but a quicker succession of drops, that is included, said he.Now death, continued the logician, being nothing but the stagnation of the blood I deny the definitionDeath is the separation of the soul from the body, said his antagonistThen we don't agree about our weapons, said the logicianThen there is an end of the dispute, replied the antagonist. The civilians were still more concise what they offered being more in the nature of a decreethan a dispute. Such a monstrous nose, said they, had it been a true nose, could not possibly have been suffered in civil societyand if falseto impose upon society with such false signs and tokens, was a still greater violation of its rights, and must have had still less mercy shewn it. The only objection to this was, that if it proved any thing, it proved the stranger's nose was neither true nor false. This left room for the controversy to go on. It was maintained by the advocates of the ecclesiastic court, that there was nothing to inhibit a decree, since the stranger ex mero motu had confessed he had been at the Promontory of Noses, and had got one of the goodliest, c. c.To this it was answered, it was impossible there should be such a place as the Promontory of Noses, and the learned be ignorant where it lay. The commissary of the bishop of Strasburg undertook the advocates, explained this matter in a treatise upon proverbial phrases, shewing them, that the Promontory of Noses was a mere allegorick expression, importing no more than that nature had given him a long nose in proof of which, with great learning, he cited the underwritten authorities, Nonnulli ex nostratibus eadem loquendi formula utun. Quinimo Logistae CanonistaeVid. Parce Barne Jas in d. L. Provincial. Constitut. de conjec. vid. Vol. Lib. 4. Titul. I. n. 7 qua etiam in re conspir. Om de Promontorio Nas. Tichmak. ff. d. tit. 3. fol. 189. passim. Vid. Glos. de contrahend. empt. c. necnon J. Scrudr. in cap. para refut. per totum. Cum his cons. Rever. J. Tubal, Sentent. Prov. cap. 9. ff. 11, 12. obiter. V. Librum, cui Tit. de Terris Phras. Belg. ad finem, cum comment. N. Bardy Belg. Vid. Scrip. Argentotarens. de Antiq. Ecc. in Episc Archiv. fid coll. per Von Jacobum Koinshoven Folio Argent. 1583. praecip. ad finem. Quibus add. Rebuff in L. obvenire de Signif. Nom. ff. fol. de jure Gent. Civil. de protib. aliena feud. per federa, test. Joha. Luxius in prolegom. quem velim videas, de Analy. Cap. 1, 2, 3. Vid. Idea. which had decided the point incontestably, had it not appeared that a dispute about some franchises of dean and chapter-lands had been determined by it nineteen years before. It happenedI must say unluckily for Truth, because they were giving her a lift another way in so doing that the two universities of Strasburgthe Lutheran, founded in the year 1538 by Jacobus Surmis, counsellor of the senate,and the Popish, founded by Leopold, arch-duke of Austria, were, during all this time, employing the whole depth of their knowledge except just what the affair of the abbess of Quedlingberg's placket-holes requiredin determining the point of Martin Luther's damnation. The Popish doctors had undertaken to demonstrate a priori, that from the necessary influence of the planets on the twenty-second day of October 1483when the moon was in the twelfth house, Jupiter, Mars, and Venus in the third, the Sun, Saturn, and Mercury, all got together in the fourththat he must in course, and unavoidably, be a damn'd manand that his doctrines, by a direct corollary, must be damn'd doctrines too. By inspection into his horoscope, where five planets were in coition all at once with Scorpio Haec mira, satisque horrenda. Planetarum coitio sub Scorpio Asterismo in nona coeli statione, quam Arabes religioni deputabant efficit Martinum Lutherum sacrilegum hereticum, Christianae religionis hostem acerrimum atque prophanum, ex horoscopi directione ad Martis coitum, religiosissimus obiit, ejus Anima scelestissima ad infernos navigavitab Alecto, Tisiphone Megara flagellis igneis cruciata perenniter.Lucas Gaurieus in Tractatu astrologico de praeteritis multorum hominum accidentibus per genituras examinatis. in reading this my father would always shake his head in the ninth house, with the Arabians allotted to religionit appeared that Martin Luther did not care one stiver about the matterand that from the horoscope directed to the conjunction of Marsthey made it plain likewise he must die cursing and blasphemingwith the blast of which his soul being steep'd in guilt sailed before the wind, in the lake of hell-fire. The little objection of the Lutheran doctors to this, was, that it must certainly be the soul of another man, born Oct. 22, 83. which was forced to sail down before the wind in that mannerinasmuch as it appeared from the register of Islaben in the county of Mansfelt, that Luther was not born in the year 1483, but in 84 and not on the 22d day of October, but on the 10th of November, the eve of Martinmas day, from whence he had the name of Martin. I must break off my translation for a moment for if I did not, I know I should no more be able to shut my eyes in bed, than the abbess of QuedlingbergIt is to tell the reader that my father never read this passage of Slawkenbergius to my uncle Toby, but with triumphnot over my uncle Toby, for he never opposed him in itbut over the whole world. Now you see, brother Toby, he would say, looking up, 'that christian names are not such indifferent things'had Luther here been called by any other name but Martin, he would have been damn'd to all eternityNot that I look upon Martin, he would add, as a good namefar from it'tis something better than a neutral, and but a littleyet little as it is you see it was of some service to him. My father knew the weakness of this prop to his hypothesis, as well as the best logician coul</t>
+          <t>Verse It seems like to the rich growth is really exclusive But in reality it should be inclusive Reality stars running for office But niggas do not give a fuck How you a star in reality but youre really out of touch Old folks talkin bout the times have change And nobody is really doing shit bout climate change Worried bout womens bodies when they have a child to raise 7,000 people died today Hook Fuck am i doing Damn im so stupid I hate being human Verse Fuck that shit We aint following the rules Fuck that shit We dont know what else to do Niggas So confused cause we dont have fucking tools To provide and educate The human race wont elevate Niggas talking bout the change but politicians hella fake And i dont know what else to do i think im losing all my faith Cant see the stars in the sky but you can see them in the wraith Yo what the fuck?! Fuck, fuck, fuck</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Humain</t>
+          <t>Autre monde</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Verse It seems like to the rich growth is really exclusive But in reality it should be inclusive Reality stars running for office But niggas do not give a fuck How you a star in reality but youre really out of touch Old folks talkin bout the times have change And nobody is really doing shit bout climate change Worried bout womens bodies when they have a child to raise 7,000 people died today Hook Fuck am i doing Damn im so stupid I hate being human Verse Fuck that shit We aint following the rules Fuck that shit We dont know what else to do Niggas So confused cause we dont have fucking tools To provide and educate The human race wont elevate Niggas talking bout the change but politicians hella fake And i dont know what else to do i think im losing all my faith Cant see the stars in the sky but you can see them in the wraith Yo what the fuck?! Fuck, fuck, fuck</t>
+          <t>Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Plus de flow que tous vos rappeurs, précurseur et innovateur J'mets tous mes billets dans son string et toutes mes pièces dans l'horodateur Mon chauffeur s'appelle Oliver car il a une gueule d'enjoliveur Pas besoin de topliner, encore moins de ghostwriter J'rappe avec mon fils c'est mieux que tous ces rappeurs Car dans mon cur oui c'est le seul Aime ton géniteur mais adore ton créateur Les meilleurs partent en premier regarde Nipsey Hussle J'ai toujours représenté le 9.5 et ses banlieues limitrophes Fiston ramène neufs gos qu'on joue au mini-golf 18 troues Les keufs ces chiens nous éblouissent avec leur lampe-torche MC ta musique est bof comme un pianiste avec des gants de boxe Gueks Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Préviens les gars du crew, ça sent le keuf J'ai les yeux en face des trous comme dans un 69 On a d'la peuf et d'la neige, d'la calotte glaciaire Fais l'effort de mettre string et brassière on veut pas de ta culotte grossière Jai gy-Cer dans les viscères oui j'y vis, j'y visser Comme N.O.S et Ademo On crame d'ici tous tes vices d'épicière Je suis sanguin en un mot t'es sans gain en deux mot Gueks Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde 9.5.3.1.0 9.5.3.1.0 9.5.3.1.0 9.5.3.1.0</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Autre monde</t>
+          <t>Tu sais pas</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Plus de flow que tous vos rappeurs, précurseur et innovateur J'mets tous mes billets dans son string et toutes mes pièces dans l'horodateur Mon chauffeur s'appelle Oliver car il a une gueule d'enjoliveur Pas besoin de topliner, encore moins de ghostwriter J'rappe avec mon fils c'est mieux que tous ces rappeurs Car dans mon cur oui c'est le seul Aime ton géniteur mais adore ton créateur Les meilleurs partent en premier regarde Nipsey Hussle J'ai toujours représenté le 9.5 et ses banlieues limitrophes Fiston ramène neufs gos qu'on joue au mini-golf 18 troues Les keufs ces chiens nous éblouissent avec leur lampe-torche MC ta musique est bof comme un pianiste avec des gants de boxe Gueks Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Préviens les gars du crew, ça sent le keuf J'ai les yeux en face des trous comme dans un 69 On a d'la peuf et d'la neige, d'la calotte glaciaire Fais l'effort de mettre string et brassière on veut pas de ta culotte grossière Jai gy-Cer dans les viscères oui j'y vis, j'y visser Comme N.O.S et Ademo On crame d'ici tous tes vices d'épicière Je suis sanguin en un mot t'es sans gain en deux mot Gueks Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde 9.5.3.1.0 9.5.3.1.0 9.5.3.1.0 9.5.3.1.0</t>
+          <t>Ah bah ouais Bersa Frérot, j'suis plus un p'tit, viens pas tester mes démons J'reste fidèle à la mif' comme N.O.S, Ademo Par fierté et principe, gros, même en hess, on dit non Ça revend l'cannabis, deux grammes, dix balles, le pilon J'te laisse imaginer tout c'qu'on ramasse en billets Les grands nous ont vu naître, ils nous ont vu s'allumer Mes-ar automatiques, tu manges des balles au dîner À force de fumer l'shit, le cur finit abîmé hi, hi, hi Ici, c'est sombre, si tu savais, beldi' et gun dans le plastique Ça prend des années au palais, tu connais la suite, ça passe le shit au portique Ici, c'est sombre, si tu savais, beldi' et gun dans le plastique Ça prend des années au palais J'trahis pas la famille, trois heures du mat' au studio, ma gueule, j'suis fayaya Le toit est panoramique, j'vois les étoiles briller, RSQ8, j'suis fayaya Ça réceptionne les colis, midi-minuit dans l'bât', ça claque tout à Pattaya J'suis avec Philip et Moris, j'leur fait goûter l'olive et la frappe de Ketama Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux Et petit, faut laisser l'mic, tu sais pas pilote, à Fleury, ça prend tes Nike, couteau papillon P'tit frère, v'-esqui la BAC et le camion, aujourd'hui, la berline fait l'prix du pavillon Entre quatre murs, j'attends les parts, tu sais qu'on assume, c'est pas la même pour la plupart J'suis content quand l'bosseur me dit qu'la beuh part, ils oublient le mauvais temps, l'orage, une fois qu'la pluie part J'trahis pas la famille, trois heures du mat' au studio, ma gueule, j'suis fayaya Le toit est panoramique, j'vois les étoiles briller, RSQ8, j'suis fayaya Ça réceptionne les colis, midi-minuit dans l'bât', ça claque tout à Pattaya J'suis avec Philip et Moris, j'leur fait goûter l'olive et la frappe de Ketama Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux J'trahis pas la famille, trois heures du mat' au studio, ma gueule, j'suis fayaya Le toit est panoramique, j'vois les étoiles briller, RSQ8, j'suis fayaya Ça réceptionne les colis, midi-minuit dans l'bât', ça claque tout à Pattaya J'suis avec Philip et Moris, j'leur fait goûter l'olive et la frappe de Ketama</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Shenmue</t>
+          <t>Dans ta rue</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Every evening at lighting up oclock sharp and until further notice in Feenichts Playhouse. Bar and conveniences always open, Diddlem Club douncestears. Entrancings gads, a scrab the quality, one large shilling. Newly billed for each wickeday perfumance. Somndoze massinees. By arraignment, childreams hours, expercatered. Jampots, rinsed porters, taken in token. With nightly redistribution of parts and players by the puppetry pro-ducer and daily dubbing of ghosters, with the benedicton of the Holy Genesius Archimimus and under the distinguished patron-age of their Elderships the Oldens from the four coroners of Findrias, Murias, Gorias and Falias, Messoirs the Coarbs, Clive Sollis, Galorius Kettle, Pobiedo Lancey and Pierre Dusort, while the Caesar-inChief looks. On. Sennet. As played to the Adelphi by the Brothers Bratislavoff Hyrcan and Haristobulus, after humpteen dumpteen revivals. Before ah the Kings Hoarsers with all the Queens Mum. And wordloosed over seven seas crowdblast in cellelleneteutoslavzendlatinsoundscript. In four tubbloids. While fern may cald us until firn make cold. The Mime of Mick, Nick and the Maggies, adopted from the Ballymooney Bloodriddon Murther by Bluechin Blackdillain authorways Big Storey, featuring GLUGG Mr Seumas McQuillad, hear the riddles between the robot in his dress circular and the gagster in the rogues gallery, the bold bad bleak boy of the storybooks, who, when the tabs go up, as we discover, because he knew to mutch, has been divorced into disgrace court by THE FLORAS Girl Scouts from St. Brides Finishing Establish-ment, demand acidulateds, a months bunch of pretty maidens who, while they pick on her, their pet peeve, form with valkyri-enne licence the guard for IZOD Miss Butys Pott, ask the attendantess for a leaflet, a be-witching blonde who dimples delightfully and is approached in loveliness only by her grateful sister reflection in a mirror, the cloud of the opal, who, having jilted Glugg, is being fatally fascinated by CHUFF Mr Sean OMailey, see the chalk and sanguine picto-graph on the safety drop, the fine frank fairhaired fellow of the fairytales, who wrestles for tophole with the bold bad bleak boy Glugg, geminally about caps or puds or tog bags or bog gats or chuting rudskin gunerally or something, until they adumbrace a pattern of somebody else or other, after which they are both car-ried off the set and brought home to be well soaped, sponged and scrubbed again by ANN Miss Corrie Corriendo, Grischun scoula, bring the babes, Pieder, Poder and Turtey, she mistributes mandamus monies, after perdunamento, hendrud aloven entrees, pulcinellis must not miss our national roosters rag, their poor little old mother-inlieu, who is woman of the house, playing opposite to HUMP Mr Makeall Gone, read the sayings from Laxdalesaga in the programme about King Ericus of Schweden and the spirits whispers in his magical helmet, cap-a-pipe with watch and top-per, coat, crest and supporters, the cause of all our grievances, the whirl, the flash and the trouble, who, having partially re-covered from a recent impeachment due to egg everlasting, but throughandthoroughly proconverted, propounded for cyclo-logical, is, studding sail once more, jibsheets and royals, in the semblance of the substance for the membrance of the umbrance with the remnance of the emblence reveiling a quemdam super-cargo, of The Rockery, Poopinheavin, engaged in entertaining in his pilgrimst customhouse at Caherlehome-upon-Eskur those statutory persons THE CUSTOMERS Components of the Afterhour Courses at St. Patricius Academy for Grownup Gentlemen, consult the annu-ary, coldporters sibsuction, a bundle of a dozen of representa tive locomotive civics, each inn quest of outings, who are still more sloppily served after every cup final by SAUNDERSON Mr Knut Oelsvinger, Tiffsdays off, wouldntstop in bad, imitation of flatfish, torchbearing supperaape, dud half-sovereign, no chee daily, rolly pollsies, Glen of the Downs, the Gugnir, his geyswerks, his earsequack, his lokistroki, o.s.v., a scherinsheiner and spoilcurate, unconcerned in the mystery but under the inflounce of the milldieuw and butt of KATE Miss Rachel Lea Varian, she tells forkings for baschfel-lors, under purdah of card palmer teaput tosspot Madam dElta, during the pawses, kook-and-dishdrudge, whitch believes wan-thingthats, whouse be the churchyard or whorts up the aasgaars, the show must go on. Time the pressant. With futurist onehorse balletbattle pictures and the Pageant of Past History worked up with animal variations amid ever-glaning mangrovemazes and beorbtracktors by Messrs Thud and Blunder. Shadows by the film folk, masses by the good people. Promptings by Elanio Vitale. Longshots, upcloses, outblacks and stagetolets by Hexenschuss, Coachmaher, Incubone and Rock-narrag. Creations tastefully designed by Madame Berthe Dela mode. Dances arranged by Harley Quinn and Coollimbeina. Jests, jokes, jigs and jorums for the Wake lent from the properties of the late cemented Mr T. M. Finnegan R.I.C. Lipmasks and hairwigs by Ouida Nooikke. Limes and Floods by Crooker and Toll. Kopay pibe by Kappa Pedersen. Hoed Pine hat with twentyfour ventholes by Morgen. Bosse and stringbag from Heteroditheroes and All Ladies presents. Tree taken for grafted. Rock rent. Phenecian blends and Sourdanian doofpoosts by Shauvesourishe and Wohntbedarft. The oakmulberryeke with silktrick twomesh from ShopSowry, seedsmanchap. Grabstone beg from General Orders Mailed. The crack thats Cork! by a smoker from the gods. The interjection Buckley! by the fire- ment in the pit. Accidental music providentially arranged by LArchet and Laccorde. Melodiotiosities in purefusion by the score. To start with in the beginning, we need hirtly bemark, a community prayer, everyone for himself, and to conclude with as an exodus, we think it well to add, a chorale in canon, good for us all for us all us all all. Songs betune the acts by the ambiamphions of Annapolis, Joan MockComic, male so-prano, and Jean Souslevin, bass noble, respectively O, Mester Sogermon, ef thes es whot ye deux, then Im not surpleased ye want that bottle of Sauvequipeu and Oh Off Nunch Der Rasche Ver Lasse Mitsch Nitscht. Till the summit scenes of climbacks castastrophear, The Bearded Mountain Polymop Barethe-rootsch, and The River Romps to Nursery Maidykins in Undi form. The whole thugogmagog, including the portions under stood to be oddmitted as the results of the respective titulars neglecting to produce themselves, to be wound up for an after-enactment by a Magnificent Transformation Scene showing the Radium Wedding of Neid and Moorning and the Dawn of Peace, Pure, Perfect and Perpetual, Waking the Weary of the World. An argument follows. Chuffy was a nangel then and his soard fleshed light like like-ning. Fools top! Singty, sangty, meekly loose, defendy nous from prowlabouts. Make a shine on the curst. Emen. But the duvlin sulph was in Glugger, that lost-to-lurning. Punct. He was sbuffing and sputing, tussing like anisine, whip-ping his eyesoult and gnatsching his teats over the brividies from existers and the outher liubbocks of life. He halth kelchy chosen a clayblade and makes prayses to his three of clubs. To part from these, my corsets, is into overlusting fear. Acts of feet, hoof and jarrety athletes longfoot. Djowl, uphere! Aminxt that nombre of evelings, but how pierceful in their so-jestiveness were those first girly stirs, with zitterings of flight re leased and twinglings of twitchbells in rondel after, with waver ings that made shimmershake rather naightily all the duskcended airs and shylit beaconings from shehind hims back. Sammy, call on. Mirrylamb, she was shuffering all the diseasinesses of the unherd of. Mary Louisan Shousapinas! If Arck could no more salve his agnols from the wiles of willy wooly woolf! If all the airish signics of her dipandump helpabit from an Father Hogam till the Mutther Masons could not that Glugg to catch her by the calour of her brideness! Not Rose, Sevilla nor Citronelle not Esmeralde, Pervinca nor Indra not Viola even nor all of them four themes over. But, the monthage stick in the melmelode jawr, I am twintomine all thees thing. Up tighty in the front, down again on the loose, drim and drumming on her back and a pop from her whistle. What is that, O holytroopers? Isot givin yoe? Up he stulpled, glee you gees, with search a fling did die near sea, beamy owen and calmy hugh and if you what you my call for me I will wishyoumaycull for you. And they are met, face a facing. They are set, force to force. And no such CopenhagueMarengo was less so fated for a fall since in Glenasmole of Smiling Thrushes Patch Whyte passed OSheen ascowl. Arrest thee, scaldbrother! came the evangelion, sabre accu-sant, from all Saint Joans Wood to kill or maim him, and be dumm but ill sarrested. Et would proffer to his delected one the his trifle from the grass. A space. Who are you? The cats mother. A time. What do you lack? The look of a queen. But what is that which is one going to prehend? Seeks, buzzling is brains, the feinder. The howtosayto itiswhatis hemustwhomust worden schall. A darktongues, kunning. O theoperil! Ethiaop lore, the poor lie. He askit of the hoothed fireshield but it was untergone into the matthued heaven. He soughed it from the luft but that bore ne mark ne message. He luked upon the bloomingrund where ongly his corns were growning. At last he listed back to beckline how she pranked alone so johntily. The skand for schooling. With nought a wired from the wordless either. Item. He was hardset then. He wented to go somewhere while he was weeting. Utem. He wished to grieve on the good persons, that is the four gentlemen. Otem. And it was not a long time till he was feeling true forim he was goodda purssia and it was short after that he was fooling mehaunt to mehynte he was an injine ruber. Etem. He was at his thinkers aunts to give the four gentlemen the presence of a curpse. And this is what he would be willing. He fould the fourd they found the hurtled stones they fell ill with the gravy duck and he sod town with the roust of the meast. Atem. Towhere byhangs ourtales. Ah ho! This poor Glugg! It was so said of him about of his old fontmouther. Truly deplurabel! A dire, O dire! And all the freight-fullness whom he inhebited after his colline born janitor. Some time towerable! With that hehry antlets on him and the bauble light bulching out of his sockets whiling away she sprankled his allover with her noces of interregnation How do you do tha-t lack a lock and pass the poker, please? And bids him tend her, lute and airly. Sing, sweetharp, thing to me anone! So that Glugg, the poor one, in that limbopool which was his subnesciousness he could scares of all knotknow whither his morrder had bourst a blabber or if the vogalstones that hit his tynpan was that mearly his skoll missed her. Mistys trompe or midst his flooting? Ah, ho! Cicely, awe! The youngly delightsome frilles-inpleyurs are now showen drawen, if bud one, or, if in florileague, drawens up consociately at the hinder sight of their commoner guardian. Her boy fiend or theirs, if they are so plurielled, cometh up as a trapadour, sinking how he must fand for himself by gazework what their colours wear as they are all showen drawens up. Tireton, cacheton, tire-ton, ba! Doth that not satisfy youth, sir? Quanty purty bellas, here, Madama Lifay! And what are you going to charm them to, Madama, do say? Cinderynelly angled her slipper it was cho chiny yet braught her a groom. He will angskt of them from their commoner guardian at next lineup who is really the rapier of the two though thother brother can hold his own, especially for he bandished it with his hand the hold time, mamain, a simply gra-cious Mi, O la!, and reloose that thong off his art Hast thou feel liked carbunckley ones? Apun which his poohoor pricoxity theirs is a little tittertit of hilarity Lad-o-me-soul! Lad-o-me-soul, see! and the wordchary is atvoiced ringsoundinly by their toots ensembled, though not meaning to be clever, but just with a shrug of their hips to go to troy and harff a freak at himself by all that story to the ulstramarines. Otherwised, holding their noises, they insinuate quiet private, Ni, he make peace in his preaches and play with esteem. Warewolff! Olff! Toboo! So olff for his topheetuck the ruck made raid, aslick aslegs would run and he ankered on his hunkers with the belly belly prest. Asking Whats my muffinstuffinaches for these times? To weat Breath and bother and whatarcurss. Then breath more bother and more whatarcurss. Then no breath no bother but wor-rawarrawurms. And Shim shallave shome. As Rigagnolina to Mountagnone, what she meaned he could not can. All she meaned was golten sylvup, all she meaned was some Knights ploung jamn. Its driving her dafft like hes so dumnb. If hed lonely ta!k instead of only gawk as thought yate-man hat stuck hits stick althrough his spokes and if he woold nut wolly so! Hee. Speak, sweety bird! Mitzymitzy! Though I did ate tough turf Im not the bogdoxy. Have you monbreamstone? No. or Hellfeuersteyn? No. Or Van Diemens coral pearl? No. He has lost. Off to clutch, Glugg! Forwhat! Shape your reres, Glugg! Foreweal! Ring we round, Chuff! Fairwell! Chuffchuffs inners even. Alls rice with their whorl! Yet, ah tears, who can her mater be? Shes promised hed eye her. To try up her pretti. But now its so longed and so fared and so forth. Jerry for jauntings. Alabye! Fled. The flossies all and mossies all they drooped upon her draped brimfall. The bowknots, the showlots, they wilted into woeblots. The pearlagraph, the pearlagraph, knew whitchly whether to weep or laugh. For always down in Carolinas lovely Dinahs vaunt their view. Poor Isa sits a glooming so gleaming in the gloaming the tin-celles a touch tarnished wind no lovelinoise awound her swans. Hey, lass! Woefear gleam she so glooming, this pooripathete I solde? Her beaumans gone of a cool. Be good enough to symper-ise. If hes at anywhere shes therefor to join him. If its to no where shes going to too. Buf if hell go to be a son to Frances shell stay daughter of Clare. Bring tansy, throw myrtle, strew rue, rue, rue. She is fading out like Journees clothes so you cant see her now. Still we know how Day the Dyer works, in dims and deeps and dusks and darks. And among the shades that Eves now wearing shell meet anew fiancy, tryst and trow. Mammy was, Mimmy is, Minuscolines to be. In the Dee dips a dame and the dame desires a demselle but the demselle dresses dolly and the dolly does a dulcydamble. The same renew. For though shes unmerried shell after truss up and help that hussyband how to hop. Hip it and trip it and chirrub and sing. Lord Chuffys sky sheraph and Gluggs got to swing. So and so, toe by toe, to and fro they go round, for they are the ingelles, scattering nods as girls who may, for they are an angels garland. Catchmire stockings, libertyed garters, shoddyshoes, quicked out with selver. Pennyfair caps on pinnyfore frocks and a ring on her fomefing finger. And they leap so looply, looply, as they link to light. And they look so loovely, loovelit, noosed in a nuptious night. Withasly glints in. Andecoy glants out. They ramp it a little, a lessle, a lissle. Then rompride round in rout. Say them all but tell them apart, cadenzando coloratura! R is Rubretta and A is Arancia, Y is for Yilla and N for greeneriN. B is Boyblue with odalisque O while W waters the fleurettes of no-vembrance. Though theyre all but merely a schoolgirl yet these way went they. I th view o thavignue dancing goes entrancing roundly. Miss Oodles of Anems before the Luvium doeslike. So. And then again doeslike. So. And miss Endles of Eons efter Dies of Eirae doeslike. So. And then again doeslike. So. The many wiles of Winsure. The grocers bawd she slips her hand in the haricot bag, the lady in waiting sips her sup from the paraffin can, Mrs Wildhare Quickdoctor helts her skelts up the casuaway the flasht instinct she herds if a tinkle of tunder, the widow Megrievy she knits cats cradles, this bountiful actress leashes a harrier under her tongue, and heres the girl who shes kneeled in coldfashion and shes told her priest spt! shes pot on a chap chp! and this lass not least, this rickissime woman, who she writes foot fortunes money times over in the nursery dust with her capital thumb. Buzz. All run-away sheep bound back bopeep, trailing their teenes behind them. And these ways wend they. And those ways went they. Winnie, Olive and Beatrice, Nelly and Ida, Amy and Rue. Here they come back, all the gay pack, for they are the florals, from foncey and pansey to papaveres blush, foresake-me-nought, while theres leaf theres hope, with primtims ruse and marry-mays blossom, all the flowers of the ancelles garden. But vicereversing thereout from those palms of perfection to anger arbour, treerack monatan, scroucely out of scout of ocean, virid with woad, what tornaments of complementary rages rocked the divlun from his punchpoll to his tummys shentre as he dis-plaid all the oathword science of his visible disgrace. He was feeling so funny and floored for the cue, all over which girls as he dont know whose hue. If goosseys gazious would but fain smile him a smile he would be fondling a praise he ate some nice bit of fluff. But no geste reveals the unconnouth. Theyre all odds against him, the beasties. Scratch. Start. He dove his head into Wat Murrey, gave Stewart Ryall a puck on the plexus, wrestled a hurry-come-union with the Gillie Beg, wiped all his sinses, martial and menial, out of Shrove Sundy MacFearsome, excremuncted as freely as any frothblower into MacIsaac, had a belting bout, chaste to chaste, with McAdoo about nothing and, childhoods age being aye the shameleast, tel a Tartaran tastarin toothsome tarrascone tourtoun, vestimentiv-orous chlamydophagian, imbretellated himself for any time un tellable with what hung over to the Machonochie Middle from the MacSiccaries of the Breeks. Home! Allwhile, moush missuies from mungy monsie, preying in his mind, son of Everallin, within himself, he swure. Macnoon maggoty mag! Cross of a coppersmith bishop! He would split. He do big squeal like holy Trichepatte. Seek hells where from yank islanders the petriotes absolation. Mocknitza! Genik! He take skiff come first dagrene day overwide tumbler, rough and dark, till when bow of the shower show of the bower with three shirts and a wind, pagoda permettant, crookolevante, the bruce, the coriolano and the ignacio. From prudals to the secular but from the cumman to the nowter. Byebye, Brassolis, Im breaving! Our war, Dully Gray! A conansdream of lodascircles, he here schlucefinis. Gelchasser no more! Mischnary for the minestrary to all the sems of Aram. Shimach, eon of Era. Mums fors maxim, bans fors book and Dodgesome Dora for hedgehung sheolmastress. And Unkel Silanse coach in diligence. Discon-nection of the succeeding. He wholehog himself for carberry banishment care of Pencylmania, Bretish Armerica, to melt Mrs Gloria of the Bunkers Trust, recorporated, prunty! by meteo-romancy and linguified heissrohgin, quit to hail a hurry laracor and catch the PanameTurricum and regain that absendee tarry easty, his citta immediata, by an alley and detour with farecard awailable getrennty years. Right for Rovy the Roder. From the safe side of distance! Libera, nostalgia! Beate Laurentie OTuli, Euro pra nobis! Every monk his own cashel where every little ligger is his own liogotenente with inclined jambs in full purview to his pronaose and to the deretane at his reredoss. Fuisfinister, fuyerescaper! He would, with the greatest of ease, before of weighting midhook, by dear home trashold on the raging canal, for othersites of Jorden, heave a hevy, waterboy! make one of hissens with a knockonacow and a chow collegions and fire off, gheol ghiornal, foull subustioned mullmud, his farced epistol to the hibruws. From Cernilius slomtime prepositus of Toumaria to the clutch in Anteach. Salvo! Ladigs and jointuremen! No more turdenskaulds! Free leaves for ebribadies! All tinsammon in the yord! With harm and aches till farther alters! Wild primates not stop him frem at rearing a writing in handy antics. Nom de plume! Gout strap Fenlanns! And send Jarge for Mary Ink-lenders! And daunt you logh if his vineshankys schwemmy! For he is the general, make no mistake in he. He is General Jinglesome. Go in for scribenery with the satiety of arthurs in S.P.Q.R.ish and inform to the old sniggering publicking press and its nation of sheepcopers about the whole plighty troth between them, ma-lady of milady made melodi of malodi, she, the lalage of lyon esses, and him, her knave arrant. To Wildrose La Gilligan from Croppy Crowhore. For all within crystal range. Ukalepe. Loathers leave. Had Days. Nemo in Patria. The Luncher Out. Skilly and Carubdish. A Wondering Wreck. From the Mer-maids Tavern. Bullyfamous. Naughtsycalves. Mother of Misery. Walpurgas Nackt. Maleesh! He would bare to untired world of Leimunconon-nulstria and what a strip poker globbtrottel they pairs would looks! how wholefallows, his guffer, the sabbatarian might faction split his beard!, he too had a great big oh in the megafundum of his tomashunders and how her Lettyshape, his gummer, that congealed sponsar, she had never cessed at waking malters among the jemassons since the duft that meataxe delt her made her microchasm as gap as down low. So they fished in the kettle and fought free and if she bit his tailibout all hat tiffin for thea. He would jused sit it all write down just as he would jused set it up all writhefully rate in blotch and void, yielding to no man in hymns ignorance, seeing how heartsilly sorey he was, owning to the condrition of his bikestool. And, reading off his fleshskin and writing with his quillbone, fillfull ninequires with it for his auditers, Caxton and Pollock, a most moraculous jeeremyhead sindbook for all the peoples, under the presidency of the suchess of sceaunonsceau, a hadtobe heldin, thoroughly enjoyed by many so meny on block at Boyrut season and for their account ottorly admired by her husband in sole intimacy, about whose told his innersense and the grusomeheds yoeureeke of his spectrescope and why he was off colour and how he was ambothed upon by the very spit of himself, first on the cheekside by Michelangelo and, besouns thats, over on the owld jowly side by Bill C. Babby, and the suburbs formule why they provencials drollo eggspilled him out of his homety dometry nar-rowedknee domum osco de basco de pesco de bisco! because all his creature comfort was an omulette finas erbas in an ark finis orbe and, no master how mustered, mind never mend, he could neither swuck in nonneither swimp in the flood of cecialism and the best and schortest way of blacking out a caughtalock of all the sorrors of Sexton until he would accoster her coume il fou in teto-dous as a wagoner would his mudheeldy wheesindonk at their trist in Parisise after tourments of tosend years, bread cast out on waters, making goods at mutuurity, Mondamoiseau of Casanuova and Mademoisselle from Armentires. Neblonovis Nivonovio! Nobbio and Nuby in ennoviacion! Occitantitempoli! He would si through severalls of sanctuaries maywhatmay might-whomight so as to meet somewhere, if produced, on a demi pans sion for his whole lofetime, payment in goo to slee music and poisonal comfany, following which, like Ipsey Secumbe, when he fingon to foil the fluter, she could have all the g. s. M. she moo-hooed after fore and rickwards to herslF, including science of sonorous silence, while he, being brung up on soul butter, have recourse of course to poetry. With tears for his coronaichon, such as engines weep. Was liffe worth leaving? Nej! Tholedoth, treetrene! Zokrahsing, stone! Arty, reminiscen-sitive, at bandstand finale on grand carriero, dreaming largesse of lifesighs over early lived offs all old Sators of the Sowsceptre highly nutritius family histrionic, genitricksling with Avus and Avia, that simple pair, and descendant down on veloutypads by a vuncular process to Nurus and Noverca, those notorious nepotists, circumpictified in their sobrine census, patriss all of them by the glos on their germane faces and their socerine eyes like transparents of vitricus, patruuts to a man, the archimade levirs of his ekonome world. Remember thee, castle throwen? Ones propsperups treed, now stohong baroque. And oil paint use a pumme if yell trace me there title to where was a hovel not a havel the first rattle of his juniverse with a tingtumtingling and a next, next and next gin a paddy? got a petty? gussies, gif it ope?, while itch ish shome. My God, alas, that dear olt tumtum home Whereof in youthfood port I preyed Amook the verdigrassy convict vallsall dazes. And cloitered for amourmeant in thy boosome shede! His mouthfull of ecstasy for ShingYung-Thing in Shina from Yoruyume across the Timor Sea, herepong maladventure! shot pinging up through the errorooth of his wisdom who thought him a Fonar all, feastking of shellies by googling Lovvey, regally freytherem, eagelly plumed, and wasbut gumboil owrithy prods wretched some horsery megee plods coffin acid odarkery pluds dense floppens mugurdy as thought it had been zawhen intwo. Wholly sanguish blooded up disconvulsing the fixtures of his fizz. Apang which his tempory chewer med him a crazy chump of a Haveajube Sillayass. Joshua Croesus, son of Nunn! Though he shall live for millions of years a life of billions of years, from their roseaced glows to their violast lustres, he shall not forget that pucking Pugases. Holihowlsballs and bloody acres! Like gnawthing unheardth! But, by Jove Chronides, Seed of Summ, after at he had bate his breastplates for, forforget, forforgetting his birdsplace, it was soon that, that he, that he rehad himself. By a prayer? No, that comes later. By contrite attrition? Nay, that we passed. Mid esercizism? So is richt. And it was so. And Malthos Moramor resumed his soul. With Go Ferchios off to Allad out of this! An oldsteinsong. He threwed his fit up to his aers, rolled his poligone eyes, snivelled from his snose and blew the guff out of his hornypipe. The hopjoimt jerk of a ladle broom jig that he learned in locofoco when a redhot turnspite he. Under reign of old Roastin the Bowl Ratskillers, readyos! Why was that man for hes doin her wrong! Lookery looks, how hes knots in his entrails! Mookery mooks, its a grippe of his gripes. Seekeryseeks, why his biting hes head off? Cokerycokes, its his spurt of coal. And may his tarpitch dilute not give him chromitis! For the mauwe that blinks you blank is mostly Carbo. Where the inflammabilis might pursuive his com-burenda with a pure flame and a true flame and a flame all too gasser, soot. The worst is over. Wait! And the dubuny Mag may gang to preesses. With Dinny Finneen, me canty, ho! In the lost of the gleamens. Sousymoust. For he would himself deal a treat-ment as might be trusted in anticipation of his inculmination unto fructification for the major operation. When pip! a message interfering intermitting interskips from them pet! on herzian waves, call her venicey names! call her a stell! a butterfly from her zipclasped handbag, a wounded dove astarted from, escaping out her forecotes. Isle wail for yews, O doherlynt! The poetesser. And around its scorched cap she has twilled a twine of flame to let the laitiest know shes marrid. And pim it goes backballed. Tot burns it so leste. A claribel cumbeck to errind. Hers before his even, posted ere penned. Hes your change, thinkyou methim. Go daft noon, madden, mind the step. Please stoop O to please. Stop. What saying? I have soreunder from to him now, dear-mate ashore, so, so compleasely till I can get redressed, which means the end of my stays in the languish of Tintangle. Is you zealous of mes, brother? Did you boo moiety lowd? You sup-poted to be the on conditiously rejected? Satanly, lade! Can that sobstuff, whingeywilly! Stop up, mavrone, and sit in my lap, Pepette, though Id much rather not. Like things are m. ds. is all in vincibles. Decoded. Now a run for his money! Now a dash to her dot! Old cocker, young crowy sifadda, sosson. A bran new, speedhount, out-stripperous on the wind. Like a waft to wingweary one or a sos to a coastguard. For directly with his whoop, stop and an upa-lepsy didando a tishy, in appreciable less time than it takes a glaciator to submerger an Atlangthis, was he again, agob, before the trembly ones, a sparks gap off, doubledasguesched, gotten orlop in a simplasailormade and shaking the storm out of his hiccups. The smartest vessel you could find would elazilee him on her knee as her lucky for the Rio Grande. Hes a pigtaiI tarr and if he hadnt got it toothick hed a telltale tall of his pitcher on a wall with his photure in the papers for cutting moutonlegs and capers, letting on hed jest be japers and his tail cooked up. Goal! Its one by its length. Angelinas, hide from light those hues that your sin beau may bring to light! Though down to your dowerstrip hes bent to knee he maunt know ledgings here. For a haunting way will go and you need not make your mow. Find the frenge for frocks and translace it into shocks of such as touch with show and show. He is guessing at hers for all he is worse, the seagoer. Hark to his wily geeses goosling by, and playfair, lady! And note that they who will for exile say can for dog while them that wont leave ingle end says now for know. For he faulters how he hates to trouble them without. But leaving codheads mitre and the herons plumes sinistrant to the server of servants and rex of regums and making a bolder-dash for lubberty of speech he asks not have you seen a match being struck nor is this powder mine but, letting punplays pass to ernest Haps thee jaoneofergs? Nao. Haps thee mayjaunties? Naohao. Haps thee per causes nunsibellies? Naohaohao. Asky, asky, asky! Gau on! Micaco! Get! Ping an ping nwan ping pwan pong. And he did a get, their anayance, and slink his hook away, aleguere come alaguerre. like a chimista inchamisas, whom the harricana hurries and hots foots, zingo, zango, segur. To hoots of utskut, urqurd, jamal, qum, yallah, yawash, yak! For he could ciappacioppachew upon a skarp snakk of pure undefallen engelsk, melanmoon or tartatortoise, tsukisaki or soppisuppon, as raskly and as baskly as your cheesechalk cow cudd spanich. Makoto! Whagta kriowday! Gelagala nausy is. Yet right divining do not was. Hovobovo hafogate hokidimatzi in kamicha! He had his sperrits all foulen on him to vet, most griposly, he was bedizzled and debuzzled he had his tristiest cabaleer on and looked like bruddy Hal. A shelling a cockshy and be donkey shot at? Or a peso besant to join the armada? But, Sin Showpanza, could anybroddy which walked this world with eyes whiteopen have looked twinsomer than the kerl he left behind him? Candidatus, viridosus, aurilucens, sinelab? Of all the green heroes everwore coton breiches, the whitemost, the goldenest! How he stud theirs with himselfs mookst kevinly, and that anterevolitionary, the churchman childfather from tonsors tuft to almonders toes, a haggiography in duotrigesumy, son soptimost of sire sixtusks, of Mayaqueenies sign osure, hevnly buddhy time, inwreathed of his near cissies, a mickly dazzly eely oily with looiscurrals, a soulnetzer by zvesdals priestessd, their trail the tractive, and dem dandypanies knows de play of de eye-lids, with his gamecox spurts and his smile likequid glue the suessiest sourir ever weanling wore, whiles his host of spritties, lusspillerindernees, they went peahenning a ripidarapidarpad around him, pilgrim prinkips, kerilour kevinour, in neuchoristic congressulations, quite purringly excited, rpdrpd, allauding to him by all the licknames in the litany with the terms in which no little dulsy nayer ever thinks about implying except to her futures year and sending him perfume most praypuffs to setis-fire more then to teasim shllwe help, now youve massmuled, you trigolect a bit? yismik? yimissy? that he, the finehued, the fairhailed, the farahead, might bouchesave unto each but every-one, asfar as safras durst assune, the havemercyonhurs of his kissier licence. Meanings Andure the enjurious till imbetther rer. We know you like Latin with essies impures, and your liber as they sea we certney like gurgles love the nargleygargley so, arrah-beejee, tell that old frankay boyuk to bellows upthe tombucky in his tumtum argan and give us a gust of his gushy old. Goof! Hymnumber twentynine. O, the singing! Happy little girly-cums to have adolphted such an Adelphus! O, the swinginging hopops so goholden! Theyve come to</t>
+          <t>Baisés dans la vie, ces fils de pute j'leur mets la fessée Aisé ouais l'ami, sors-nous le biff on sait encaisser Demande pas un feat on n'en fait pas, viens pas te baisser Bien sûr c'est Paname alors tous les jours on est pressé Si on remplit le frigo, on remercie le bout de taga Sois le meilleur dans le crime ou à l'école, c'est c'qu'a dit Baba Igo c'est QLF, ceux qui connaissent ont chanté La la La la, lala Ici on sort la niaks et puis on prend un bol d'air J'repense à l'époque d'mon survêt' et ma bulle d'air Mais bon c'est la vie, j'espère qu'en GAV t'as su t'taire Tu veux être ma bitch, t'as un gros boule, c'est super Ouais l'ami j'ai pas de respect, bah pourquoi t'avales ? Trêve de balivernes, c'est Ademo en aval J'sors un gros joint et puis j'le pète dans la savane Ces cons font la queue, mais moi j'bicrave d'la banane T'es pas content ? Reste dans ton camp Nous on charbonne pendant que toi tu tapes du bon temps Je suis à fond d'dans, t'inquiète mon gland Est préparé pour leur foutre depuis longtemps Alors essaye pas de tester, la putain d'ta grand-mère Tu joues un rôle, nous pas du tout, on t'attaque en mer La juge m'a arrosé, j'ai poussé, grandi sans mère J'ai saigné mais les anges m'ont dit Faut pas s'en faire Je suis pas Madame Soleil, l'avenir est dark Igo, les miens ont faim, j'tape pas des barres Téma les crocs, ici on est trop À s'tirer dessus depuis le départ J'suis dans ta ville, j'suis dans ta rue En bas c'est dead, j'souris à l'envers J'suis dans ta ville, j'suis dans ta rue J'm'en bats les steaks, ma bite va leur plaire Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, y-yeah, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, joue l'thug, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL T'as cru quoi ? Rien n'a changé, la putain d'ta mère T'as cru quoi ? J'taille-dé 200g d'ke-skun, j'fais un salaire Chico me ment pas, j'ramène la peuf, la rétine du ien-ien, toujours sincère Surtout t'inquiète pas, malade sous calmant, dans quelques milliers d'eu' on m'opère J'me sens bizarre comme quand j'goûte à la vie, comme quand j'ai pas d'ennemis dans la ville Moi j'connais pas argent facile, on n'a rien construit depuis l'premier kil' Pas d'amitié grattée même pour un million d'lovés, ces milliers de billets de 20 nous ont même pas sauvés Demain j'arrête pas c'est tendu, j'suis plus Tony la langue pendue Y'a rien à tter-gra en bas On t'oublie pas, on t'remplace Que la famille, que la famille, que la famille, que la famille J'recompte bénéf dans la glace Que la famille, que la famille, que la famille, que la famille 6 heures 0.1 j'tire la chasse J'ai pas l'temps, j'ai du terh et d'la verte, j'ai fait un choix sous beuh c'est la merde Pas d'vacances pour la mif' il s'avère, qu'j'ai la haine, j'prends l'chemin de travers On sort faire du biff quand on a mal, dernier charbon sous cagoule, teint pâle J'espère ne pas partir les mains sales, elle pense pas à moi quand elle avale Tu connais, abonné, tu connais, abonné J'ai vu ces billets froissés consommer les âmes par milliers, briser les coeurs Que la monnaie, monnaie, monnaie, monnaie Parce que cette pute de vie m'a déçu comme j'ai déçu mon créateur J'suis dans ta ville, j'suis dans ta rue En bas c'est dead, j'souris à l'envers J'suis dans ta ville, j'suis dans ta rue J'm'en bats les steaks, ma bite va leur plaire Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, y-yeah, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, joue l'thug, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL J'suis dans ta ville, j'suis dans ta rue J'suis dans ta ville, j'suis dans ta rue32</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tu sais pas</t>
+          <t>Mira</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ah bah ouais Bersa Frérot, j'suis plus un p'tit, viens pas tester mes démons J'reste fidèle à la mif' comme N.O.S, Ademo Par fierté et principe, gros, même en hess, on dit non Ça revend l'cannabis, deux grammes, dix balles, le pilon J'te laisse imaginer tout c'qu'on ramasse en billets Les grands nous ont vu naître, ils nous ont vu s'allumer Mes-ar automatiques, tu manges des balles au dîner À force de fumer l'shit, le cur finit abîmé hi, hi, hi Ici, c'est sombre, si tu savais, beldi' et gun dans le plastique Ça prend des années au palais, tu connais la suite, ça passe le shit au portique Ici, c'est sombre, si tu savais, beldi' et gun dans le plastique Ça prend des années au palais J'trahis pas la famille, trois heures du mat' au studio, ma gueule, j'suis fayaya Le toit est panoramique, j'vois les étoiles briller, RSQ8, j'suis fayaya Ça réceptionne les colis, midi-minuit dans l'bât', ça claque tout à Pattaya J'suis avec Philip et Moris, j'leur fait goûter l'olive et la frappe de Ketama Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux Et petit, faut laisser l'mic, tu sais pas pilote, à Fleury, ça prend tes Nike, couteau papillon P'tit frère, v'-esqui la BAC et le camion, aujourd'hui, la berline fait l'prix du pavillon Entre quatre murs, j'attends les parts, tu sais qu'on assume, c'est pas la même pour la plupart J'suis content quand l'bosseur me dit qu'la beuh part, ils oublient le mauvais temps, l'orage, une fois qu'la pluie part J'trahis pas la famille, trois heures du mat' au studio, ma gueule, j'suis fayaya Le toit est panoramique, j'vois les étoiles briller, RSQ8, j'suis fayaya Ça réceptionne les colis, midi-minuit dans l'bât', ça claque tout à Pattaya J'suis avec Philip et Moris, j'leur fait goûter l'olive et la frappe de Ketama Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux Ne me dis pas qu'tu m'aimes si tout est faux J'ai mes qualités et mes défauts mais j'suis plus du côté des vrais qu'des faux J'trahis pas la famille, trois heures du mat' au studio, ma gueule, j'suis fayaya Le toit est panoramique, j'vois les étoiles briller, RSQ8, j'suis fayaya Ça réceptionne les colis, midi-minuit dans l'bât', ça claque tout à Pattaya J'suis avec Philip et Moris, j'leur fait goûter l'olive et la frappe de Ketama</t>
+          <t>Ey Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Nashta për ty është pak shpejt Po unë t'kom ën kry që shumë vjet Këto nuk e ke dit se vonë t'kom kallxu Veç nuk e di a m'ke besu Unë kom me kon gjithmonë këtu për ty S'kom me lon kërkon n'mes me ndërhy Besomë ti nuk e din sa shumë kom ndryshu Veten mo s'pe njoh e ja kom nis me dyshu Lidhjen me ty e kom marrë shumë seriozisht Jom tu ëndrru me ta ngjit unazën n'gisht Krejt kjo storie nuk ka ndodh rastësisht Je ma e mira definitivisht Je ondrra ma e madhe n'jetë për mu Je dëshira që po du me mu plotësu Edhe n'qiell ka mu shkru, edhe kejt kanë me dit Edhe engjujt kanë me t'kallxu që për mu je lind Se... Ti je ma e mira, ti je ma e mira Ti je ma e mira qe e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira qe e kom pas najher Qkado që ti vendos kom mu munu me kuptu Ti ça don ën jetë kom mu munu me respektu Veç asniher mos lyp me t'harru Se osht diçka shumë e pakapshme për mu E kom provu besomë që osht' shumë problem Kur nuk foli me ty sa shumë ëm dhemb S'e kom lehtë kurrë me besu Që najhere n'jetë pa ty kom me jetu Shumë e pakuptueshme për ty n'këto momente Edhe pse t'kom thonë që je shumë inteligjente Kurgjo mos meno, mos fol po veç hesht Edhe n'ëndrra t'shoh ma shpesh se lajmet flash M'pëlqen kur kesh, m'pëlqen kur je nervoz M'pëlqen qysh fol kur o' puna serioz M'pëlqen që, po besoj që ka mu kry E kom ni ndjenjë që gjithmonë kom me kon me ty Se ey... Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Hey, duna mu kallxu i sinqertë me ty Osht' hera e parë n'jeten tem që Krenaria nuk përfshihet Kështu që dona me t'thonë Që ti je ma e mira, ti je ma e mira Ti je ma e mira, ti je ma e mira Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dans ta rue</t>
+          <t>91's</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Baisés dans la vie, ces fils de pute j'leur mets la fessée Aisé ouais l'ami, sors-nous le biff on sait encaisser Demande pas un feat on n'en fait pas, viens pas te baisser Bien sûr c'est Paname alors tous les jours on est pressé Si on remplit le frigo, on remercie le bout de taga Sois le meilleur dans le crime ou à l'école, c'est c'qu'a dit Baba Igo c'est QLF, ceux qui connaissent ont chanté La la La la, lala Ici on sort la niaks et puis on prend un bol d'air J'repense à l'époque d'mon survêt' et ma bulle d'air Mais bon c'est la vie, j'espère qu'en GAV t'as su t'taire Tu veux être ma bitch, t'as un gros boule, c'est super Ouais l'ami j'ai pas de respect, bah pourquoi t'avales ? Trêve de balivernes, c'est Ademo en aval J'sors un gros joint et puis j'le pète dans la savane Ces cons font la queue, mais moi j'bicrave d'la banane T'es pas content ? Reste dans ton camp Nous on charbonne pendant que toi tu tapes du bon temps Je suis à fond d'dans, t'inquiète mon gland Est préparé pour leur foutre depuis longtemps Alors essaye pas de tester, la putain d'ta grand-mère Tu joues un rôle, nous pas du tout, on t'attaque en mer La juge m'a arrosé, j'ai poussé, grandi sans mère J'ai saigné mais les anges m'ont dit Faut pas s'en faire Je suis pas Madame Soleil, l'avenir est dark Igo, les miens ont faim, j'tape pas des barres Téma les crocs, ici on est trop À s'tirer dessus depuis le départ J'suis dans ta ville, j'suis dans ta rue En bas c'est dead, j'souris à l'envers J'suis dans ta ville, j'suis dans ta rue J'm'en bats les steaks, ma bite va leur plaire Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, y-yeah, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, joue l'thug, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL T'as cru quoi ? Rien n'a changé, la putain d'ta mère T'as cru quoi ? J'taille-dé 200g d'ke-skun, j'fais un salaire Chico me ment pas, j'ramène la peuf, la rétine du ien-ien, toujours sincère Surtout t'inquiète pas, malade sous calmant, dans quelques milliers d'eu' on m'opère J'me sens bizarre comme quand j'goûte à la vie, comme quand j'ai pas d'ennemis dans la ville Moi j'connais pas argent facile, on n'a rien construit depuis l'premier kil' Pas d'amitié grattée même pour un million d'lovés, ces milliers de billets de 20 nous ont même pas sauvés Demain j'arrête pas c'est tendu, j'suis plus Tony la langue pendue Y'a rien à tter-gra en bas On t'oublie pas, on t'remplace Que la famille, que la famille, que la famille, que la famille J'recompte bénéf dans la glace Que la famille, que la famille, que la famille, que la famille 6 heures 0.1 j'tire la chasse J'ai pas l'temps, j'ai du terh et d'la verte, j'ai fait un choix sous beuh c'est la merde Pas d'vacances pour la mif' il s'avère, qu'j'ai la haine, j'prends l'chemin de travers On sort faire du biff quand on a mal, dernier charbon sous cagoule, teint pâle J'espère ne pas partir les mains sales, elle pense pas à moi quand elle avale Tu connais, abonné, tu connais, abonné J'ai vu ces billets froissés consommer les âmes par milliers, briser les coeurs Que la monnaie, monnaie, monnaie, monnaie Parce que cette pute de vie m'a déçu comme j'ai déçu mon créateur J'suis dans ta ville, j'suis dans ta rue En bas c'est dead, j'souris à l'envers J'suis dans ta ville, j'suis dans ta rue J'm'en bats les steaks, ma bite va leur plaire Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, y-yeah, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL Y-yeah, y-yeah, y-yeah, y-yeah roulez Y-yeah, y-yeah, y-yeah, joue l'thug, joue l'thug, joue la folle Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, tu veux tester Y-yeah, y-yeah, y-yeah, y-yeah, y-yeah, nous on LOL J'suis dans ta ville, j'suis dans ta rue J'suis dans ta ville, j'suis dans ta rue32</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Rebenga</t>
+          <t>Cramés</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Eh wAllah ouais cest sombre, baise les autres mecs, cest lson vif anti-traîtres Perce les ondes, laisse les cons, eh cest bon cest lson qui pète Ya trop dchacals qui jacassent, nique sa race si ça patine Pousse les pecs dans la cave au placard entre taga et tagatine Dé-détaille la plaquette, ya pas dcla-cla-clashs de tapettes Classe dans la glace, prends ta place, gars tauras notre reflet si ça pète Jma-maquette, maccapare un Pushka pour taper lscore Jrappe tinquiète appelle-moi Tupac nan, two paquets dclopes Tac tac tac et lami tape, pas cap-capable de vivre la merde Attaque-taque-taque, bim ta sur, à chaque, chaque deal on arrive à lheure Mais, mais, mais, mais qui cest qui rappe ? Roue dans lvirage Aux déter qui clamsent, ya des dents qui scassent Eh, harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life Tu vois les diez harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life igo x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jfais un rap de ouf, de barbare, embrasse les balles Le pare-balles ne parle pas le langage des bringuebales Pas le rap des dalleux stars-tars, flow trop speed, dar, dar Tac, tac, jmets mon coup, partage et bye-bye Et bim bim cest les bails, easy sur la cahier Vite vite, jvais les die, si si on va grailler Oui oui baiser ça, ou, cest précis on vit là où Ya wallou, cest lsaloon, tchin tchin pour la maille Vire les MC tous nazes, à ceux qui nous connaissent Ccoup-ci connard on peut pas nous virer comme au collège Décollage, nage dans lcomas, écoute et tais-toi Tu vas tomber dans les pommes si tu veux voir les étoiles La, la, la rime, le swag là ça glisse soit La technique jvois que tapprécies, sois pas bête, jlai fois deux Sois le bienvenu, et ouais ma-ma-man cest ma-ma-magique Ma, ma parole que jmarque ma quête, ma guerre quand jmanie lmi-mi-mic Trop facile, du sang, du sang dans la bassine Tes pas assis, tu vas finir sur le cul comme une catine Rap de foolek, elle mouille, jlargue, déboule et cest lsouk Jai trop tourné, jai trop souffert, jsuis trop saoulé naâlbouk On fait les diez, on est dînn et faut quon dessine notre destinée Yeah, yeah, yeah, jvends plus dshit donc jvais rimer Pour chanter donne du biff, on fait la la la la Sur Terre, déter, au clair de la, la, la, tune x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jai lflow qui fracasse, tabasse, agace, savate le beat En mode saga dsaccages, pagaille, jattrape le titre Ils veulent du dingue, dingue, flow Denzel en Benz, Benz Banga banga, ccoup-ci, ils auront des bang bang Jcrame ma clope dans la street, charcle la drogue sur un pit Motherfuck ton avis, à la mode dans la sique Crache, crache car elle est bonne mon ami Bad boy dans la ville, Maglite pas les spots dans la vitre Nouvelle époque on lagrippe, Paname, Paname suck-moi la bite x4 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés1</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Je t’haine</t>
+          <t>J’comprends pas</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1 INSERT - TV COMMERCIAL - DAY 1 Over jungle sound effects, the CAMERA is low, moving through brush from the POV of a stalking animal. As the brush parts, revealing Wall Street and the New York Stock Exchange, we HEAR the resonant voice of GENE HACKMAN. GENE HACKMAN V.O. The world of investing can be a jungle. 1A WE SEE a charging, snorting BULL. 1A GENE HACKMAN V.O. Bulls. 1B WE SEE a ferocious, growling BEAR. 1B GENE HACKMAN V.O. Bears. Danger at every turn. Pretentious CLASSICAL MUSIC kicks in. GENE HACKMAN V.O. Thats why we at Stratton Oakmont pride ourselves on being the best. 1C-1D VARIOUS SHOTS -- a conservative young MAN reviews a stock 1C-1D portfolio with a wealthy older COUPLE a smiling young WOMAN sits before a computer talking into a headset. GENE HACKMAN V.O. Trained professionals to guide you through the financial wilderness. 1E WE SEE the Stratton team - an ethnically diverse group 1E of ACTORS with their handsome, grey-templed CHAIRMAN. GENE HACKMAN V.O. Stratton Oakmont. Stability. Integrity. Pride. 1F WE SEE a shot of the black glass Stratton Building, and 1F 2 INT. STRATTON OAKMONT III - BULLPEN - DAY FEB 95 2 Absolute bedlam. 300 drunken STOCKBROKERS, most in their early 20s, chant wildly as JORDAN BELFORT, handsome, 30, stands beside a DWARF dressed in tights, cape helmet. JORDAN Twenty five grand to the first cocksucker to nail a bullseye! The bullseye is a large dollar sign in the middle of a giant velcro dartboard. The Wolf of Wall Street Buff Revised Pages 3513 2. JORDAN CONTD Watch and learn, people! The Brokers go apeshit as Jordan grabs the Dwarf by his pants and collar. In the Crowd, cash flies as side bets are made. Jordan winds up, aims for the dartboard. JORDAN CONTD One. Two. Throw!! The Brokers cheer, and as the screaming Dwarf takes flight, hurtling toward camera, we FREEZE FRAME JORDAN V.O. CONTD My name is Jordan Belfort. No, not him, me. Im a former member of the middle class raised by two accountants in a tiny apartment in Bayside, Queens. 3-3B A SERIES OF POLAROIDS -- 1969 3-3B Jordan, 7, smiles as he poses behind a lemonade stand, his parents Max and Leah behind him Jordan, 13, stands holding a styrofoam cooler, selling ices on the beach Jordan, 18, smiles as he holds an Amway sales brochure. JORDAN V.O. The year I turned 26, I made 49 million dollars as the head of my own brokerage firm-- 4 EXT. LONG ISLAND EXPRESSWAY - DAY FEB 95 4 A CHERRY RED Ferrari Testarossa ZOOMS down the L.I.E. JORDAN V.O. --which really pissed me off because it was three shy of a million a week. The Ferrari weaves in and out of traffic. JORDAN V.O. Hey, my Ferrari was white, like Don Johnsons in Miami Vice. We see the same Ferrari, now in WHITE, as it zooms away, a BLONDE head bobbing up and down in Jordans lap. 5 EXT. LONG ISLANDS NORTH SHORE - DAY FEB 95 5 A twin-engine Bell Jet helicopter descends over a huge mansion, with sparkling pool, tennis court and waterfall. The Wolf of Wall Street Buff Revised Pages 3513 3. JORDAN V.O. See that humongous estate down there? Thats my house. 6 INT. JORDANS ESTATE - MASTER BEDROOM - DAY FEB 95 6 We see NAOMI, 24, blonde and gorgeous, a living wet dream in LaPerla lingerie. JORDAN V.O. My wife, Naomi, the Duchess of Bay Ridge, Brooklyn, a former model and Miller Lite girl. Naomi licks her lips shes incredibly, painfully hot. JORDAN V.O. Yeah, she was the one blowing me in the Ferrari, so put your dick back in your pants. Over the following, WE SEE a quick 7-7C SERIES OF SHOTS 7-7C All taken from TV a mansion from Lifestyles of the Rich and Famous wealthy PEOPLE applauding at a polo match a yacht sailing crystal blue seas Robert Wagner and Stephanie Powers toasting with champagne on Hart to Hart. JORDAN V.O. In addition to Naomi and my two perfect kids, I own a mansion, private jet, six cars, three horses, two vacation homes and a 170 foot yacht. 8 INT. HOTEL BEDROOM - NIGHT FEB 95 8 Sweaty, wild-eyed and naked, Jordan fucks an HISPANIC HOOKER from behind. JORDAN V.O. I also gamble like a degenerate, drink like a fish, fuck hookers maybe five times a week and have three different Federal agencies looking to indict me. He dismounts, snorts some coke through a straw, then uses it to blow some into her asshole. JORDAN V.O. Oh yeah, and I love drugs. The Wolf of Wall Street Buff Revised Pages 3513 4. Jordan looks up suddenly, paranoid, as if hes hearing voices. 9 INT. HELICOPTER - NIGHT FEB 95 9 Jordan, drooling and stoned out of his skull, wears a rumpled custom-made business suit as he mans a set of controls next to his frantic co-pilot, CAPTAIN DAVE. Pull up! crash!! CAPTAIN DAVE Jesus! Were gonna Jordans head bobs as he pulls back on the stick. The helicopter rises sharply, then levels out, hovering 30 feet above a huge mansion. Down below, through Jordans hazy, DOUBLE VISIONED POV, we see a sparkling pool, tennis court and waterfall. JORDAN V.O. Check this out -- despite my completely fucked-up state, I could fly straight while still seeing two of everything. He closes one eye his POV sharpens. Putting pressure on the stick, the helicopter descends slowly over the driving range... then LURCHES and SLAMS to the ground. JORDAN to Captain Dave Ya guzza git hazarous doozy pay, buddy. 10 INT. JORDANS ESTATE - FRONT DOOR - DAY FEB 95 10 Morning. Sober now, impeccable in suit and tie, Jordan heads for the door holding a glass of orange juice. JORDAN V.O. Yes, on a daily basis I take enough drugs to sedate greater Long Island. 11 EXT. JORDANS ESTATE - CONTINUOUS FEB 95 11 He pops two white pills, swigs some juice, then speaks directly to the camera as he heads for a waiting limo. JORDAN I take Quaaludes for my back, fifteen to twenty a day. The Wolf of Wall Street Buff Revised Pages 3513 5. JORDAN CONT'D I use Xanax to stay focused, ambien to sleep, pot to mellow out, cocaine to wake up and morphine because its awesome. 12 EXT. STRATTON OAKMONT III - LONG ISLAND - DAY FEB 95 12 The limo pulls up to the black glass office building. Jordan gets out, heads inside through a back door. JORDAN But of all the drugs under Gods blue heaven, theres one thats my absolute favorite. 13 INT. STRATTON OAKMONT III - JORDANS OFFICE - DAY FEB 95 13 Gadgets, computers, oxblood leather furniture. With the DIN of the brokerage firm bleeding in, Jordan uses a credit card to cut a line of coke on his desk. As he peels a crisp 100 DOLLAR BILL off a wad, rolls it up JORDAN Enough of this shitll make you invincible, able to conquer the world and eviscerate your enemies. He SNARFS up the line, gestures to the cocaine. JORDAN CONTD Im not talking about this. Im talking about this. Jordan unfurls the 100 with a SNAP Money is the oxygen of capitalism and I wanna breathe more than any other human being alive. He crumbles it into a ball and tosses it into a corner, where it comes to rest with two dozen others. Over his back as we TRACK HIM out of his office toward what sounds like the ROAR of a mob-- JORDAN V.O. Money doesnt just buy you a better life -- better food, better cars, better pussy -- it also makes you a better person. You can give generously to the church of your choice or the political party. You can save the fucking spotted owl with money. The Wolf of Wall Street Buff Revised Pages 3513 6. 14 INT. STRATTON OAKMONT III - BULLPEN - DAY FEB 95 14 Arms akimbo, Jordan stands above the bullpen, a huge open space with tightly packed rows of maple colored desks. JORDAN V.O. But most of all, in any country in the world, money can buy you love. Fuck the Beatles. His 300 BROKERS, mostly young men with their jackets off, scream wildly. They worship him. JORDAN V.O. With that in mind, at the tender age of 22, after marrying my girlfriend Teresa-- 14A SCENES 14A - 18 OMITTED 14A 19 EXT. WALL STREET - DAY MAY 87 19 An express bus pull up -- its sign reads Wall Street.... JORDAN V.O. --I headed to the only place that befit my high-minded ambitions... Jordan emerges, kisses TERESA goodbye, then joins a sea of Commuters heading to work. JERRY FOGEL PRE-LAP You are lower than fucking pond scum. 20 INT. L.F. ROTHSCHILD - BULLPEN - DAY MAY 87 20 Computers, telephones everywhere. At their desks, 45 shirt-sleeved BROKERS read their Wall St. Journals, readying for war. Like an eager puppy, Jordan follows broker JERRY FOGEL, 30, thick-lipped and bow-tied... JERRY FOGEL You got a problem with that? reads name tag Jordan? JORDAN Nope. No problem at all. The Wolf of Wall Street Buff Revised Pages 3513 7. JERRY FOGEL Your job is connector, which means you'll be dialing the phone over 500 times a day, trying to connect me with business owners. And till you pass your Series 7, thats all youll be doing. Sit. Jordan takes a seat at the desk next to Fogels. JERRY FOGEL CONTD Just so you know, last year I made over 300k and the other guy you'll be working for made a million. JORDAN V.O. A million dollars? I could only imagine what a douchebag that guy must be. A manicured hand lands on Jordans shoulder. Its MARK HANNA, 30s, charismatic, movie-star handsome. MARK HANNA Jordan? Mark Hanna. re Fogel Good, youve met Jerry. One of the smartest guys in the office. Whos ever sucked a dogs cock out of loneliness. Fogels smile turns to a frown. He hands Jordan a stack of 3x5 index cards. JERRY FOGEL Smile and dial. And dont pick your fucking head up till one. MARK HANNA Dont mind Jerry, his father raped him as a child. Besides, I'm senior broker here, he's a worthless piker. I heard you pitched stock at your job interview. JORDAN Had to do something to stand out. MARK HANNA I fuckin love that! Lets grab lunch later. Windows good with you? JORDAN Great. Yeah. The Wolf of Wall Street Buff Revised Pages 3513 8. Hanna gives him a wink, looks at the clock on the giant electronic stock ticker encircling the room -- 930 a.m. MARK HANNA Lets fuck!! RING!!! Absolute pandemonium at the BELL signalling the opening of the stock market. Feet fly off desks Brokers and their Connectors dial phones like mad. The CAMERA PUSHES IN on JORDAN, mesmerized as he takes in the ROAR. BROKER 1 to Broker 2 Miniscribe's a fuckin steal! Thirty eight bucks a share! MARK HANNA into headset Your broker in West Virginia? What are you buying, a coal mine? It's the 80s, the game is high-tech. BROKER 2 to Broker 3 Fuckface! I got 50,000 July 50s! JORDAN V.O. You want to know what money sounds like? Visit a trading floor on Wall Street. Fuck this, shit that. Cock, cunt, asshole. I couldnt believe how these guys talked to each other-- Fogel notices Jordan sitting there frozen. He covers his mouthpiece, kicks the desk violently. JERRY FOGEL Dial the cocksucking phone! Jordan snaps out of it, starts dialing. JORDAN V.O. I was hooked within seconds. Mark Hanna slams down his phone in victory, scrawls out a buy ticket. He places the ticket into a glass cylinder which he slips into a plastic pneumatic tube. JORDAN V.O. It was like mainlining adrenaline. The tube is WHOOSHED into the ceiling and were suddenly-- The Wolf of Wall Street Buff Revised Pages 3513 9. 21 INT. WINDOWS ON THE WORLD - DAY MAY 87 21 CLOSE ON a COKE SPOON whose contents disappear up a nostril. PULL BACK TO REVEAL... The lunchtime power spot with panoramic views of the city. At a corner table, a paranoid Jordan looks around as Hanna does another bump of coke. None of the other DINERS seem to notice or care. MARK HANNA offering the spoon Got enough for one more? Tootski? JORDAN No. Thanks though. Hanna slips the vial into his pocket as HECTOR, the tuxedoed MaitreD, approaches. HECTOR Mr. Hanna, what can I bring for you on this glorious afternoon? Hanna surreptitiously palms Hector a 100 Jordan notices. MARK HANNA Heres the game plan, Hector. Bring us two Absolut Martinis straight up. Precisely seven and a half minutes after you deliver those youll bring two more, then two more every five minutes until one of us passes out. HECTOR An excellent strategy, sir. JORDAN Actually, Im good with 7-Up. Jordan might as well have farted at the table. MARK HANNA First day on Wall Street, Hector. Give him time. Hector offers menus No thanks, Im not eating. Hector heads off. JORDAN You can get high during the day and still function? The Wolf of Wall Street Buff Revised Pages 3513 10. MARK HANNA High is the only way to do this fucking job. Guy who coined the term three-martini lunch was a woman. Cocaine and hookers, my friend, the keys to success. Jordan smiles, not sure if Hanna is kidding. JORDAN I gotta say, Im really excited about being part of your team. I wanna do all I can for our clients and -- MARK HANNA reciting an ad Here at L.F. Rothschild, our clients arent just important, theyre family. Just as long as we get our taste first. Remember something, Jordan, your top priority in this job make us money. If the clients get rich along the way, bully for them. Got a girlfriend? JORDAN Wife. She cuts hair. Mark swallows a comment about that. Gets to business. MARK HANNA OK, first rule of Wall Street. Nobody -- and I dont care if youre Warren Buffet or Jimmy Buffet -- nobody knows if a stocks going up, down or fucking sideways, least of all stock brokers. But we have to pretend we know. Make sure you stay relaxed. Nobody wants to buy something from someone who sounds like they havent gotten laid in a month. Take breaks when you feel stressed, jerk off if you can. You like jerking off, right? JORDAN Well... sure. MARK HANNA Good, jerking off is key. And I highly recommend cocaine, which will make you dial faster, which is good for me. Churn em and burn em, baby. The Wolf of Wall Street Buff Revised Pages 3513 11. A BUSBOY stops by with a fresh napkin for Mark who thanks him. Then, discreetly as possible, Mark removes a fresh vial of cocaine tucked within and takes a quick snort. Jordan realizes thats why he palmed the maitre d 100. JORDAN V.O. For the next six months I learned the ways of Wall Street. 22 INT. STRIP CLUB - NIGHT OCT 87 22 As STRIPPERS grind in b.g, Jordan parties with Mark Hanna and dozens of BROKERS and TRAINEES. Jordan sips a martini and studies Mark Hanna, hitting on a STRIPPER. JORDAN V.O. That fall I passed my Series 7. Finally it was here. 23 INT. ROTHSCHILD BUILDING - LOBBY - DAY OCT 87 23 Briefcase in hand, Jordan boards the elevator with a dozen other BROKERS. JORDAN V.O. My first day as a stockbroker, a future Master of the Universe. And as the doors close, on screen WE SEE OCTOBER 19th, 1987 24 INT. L.F. ROTHSCHILD - BULLPEN - DAY OCT 87 24 Total chaos. Jordan dials the phone as all around him Brokers panic, screaming into headsets. JORDAN V.O. They called it Black Monday. By four p.m. the market was down 508 points, the biggest one-day drop since the crash of 29. 4 p.m. The closing bell RINGS the entire place goes silent. Brokers look at each other, stunned. MARK HANNA Holy. Fucking. Shit. And as the Brokers start commiserating with each other... The Wolf of Wall Street Buff Revised Pages 3513 12. JORDAN V.O. L.F. Rothschild, a company that had been in business since 1883, closed its doors within a month. 25 INT. JORDAN TERESAS APARTMENT - KITCHEN - DAY DEC 87 25 Jordan sits at the table perusing the Times classifieds. Teresa approaches with two coffees. Sits next to him. TERESA So Ill take an extra shift, dont worry about it. JORDAN You work too much as it is. TERESA We could pawn my engagement ring. JORDAN Were not pawning anything. Im gonna be a millionaire, Teresa. TERESA You know that doesnt matter, right? He smiles, kisses her. Together, they peruse the ads. JORDAN points to an ad Nobody Beats the Wiz. I could be a stock boy. TERESA Youre a stock broker. JORDAN No ones hiring brokers right now, sweetie. They go back to the ads. After a few beats, she points-- TERESA This place is. 26 EXT. STRIP MALL - PARKING LOT - LONG ISLAND - DAY DEC 87 26 In a suit, Jordan emerges from an 85 Datsun. He looks around confused, heads toward an unmarked storefront. The Wolf of Wall Street Buff Revised Pages 3513 13. 27 INT. INVESTORS CENTER - DAY DEC 87 27 The antithesis of L.F. Rothschild, with cheap furniture and a dozen misfit BROKERS giving loud, obnoxious sales pitches. Jordan enters, a modern man among cave people. DWAYNE, slovenly, 35, with a walrus mustache, looks up. JORDAN Im looking for Investors Center? DWAYNE Thats us, hey. Dwayne. JORDAN as they shake hands Jordan Belfort, I called earlier. I was a broker with Rothschild. Dwayne motions Jordan to a seat. Nearby, a Broker in ratty Keds, TOBY WELCH, is screaming into his phone. TOBY WELCH Im tellin you, this stock is goin up!... Cause I know, okay?!... I have inside information! Jordan looks at him, appalled at what hes hearing. JORDAN Where are your quotrons? DWAYNE No quotrons, we sell off the pink sheets -- penny stocks. Dwayne slides Jordan a large thin book its pages are literally pink. He explains as Jordan flips the pages DWAYNE CONTD Company dont have enough capital to be listed on NASDAQ, their shares trade here. points to the book Like these guys, Aerotyne? They make radar detectors out of a garage in Dubuque. JORDAN Six cents a share? Who buys this crap? DWAYNE Schmucks mostly. Mailmen, plumbers, people thinking they can get rich quick. They answer our ads, Popular Mechanics, Hustler. The Wolf of Wall Street Buff Revised Pages 3513 14. JORDAN The spread on these is huge. DWAYNE Sos your commission, thats the point. Blue chips stocks you get what, one percent? Pink sheets are fifty. JORDAN Wait a second. Youre telling me if I sell two thousand dollars worth of stock, my commission is a thousand bucks? DWAYNE Technically, yeah, but not even the biggest schmuck buys two thousand dollars of this shit. 28 INT. INVESTORS CENTER - LATER THAT DAY DEC 87 28 As others Brokers bark into phones, Jordan sits, phone cradled in his shoulder, making notes. A few beats, then JORDAN into phone Mr. Fleming, good morning, Jordan Belfort with Investors Center in New York City. You recently responded to one of our ads... A few of the other Brokers glance over, eavesdropping. JORDAN CONTD The reason Im calling is that an extremely exciting investment opportunity crossed my desk today. Typically our firm recommends no more than five stocks per year this is one of them... A few more Brokers look over... JORDAN CONT'D Aerotyne International is a cutting edge tech firm out of the Midwest, awaiting imminent patent approval on a new generation of radar equipment... LATER. Now all the Brokers listen in rapt attention. The Wolf of Wall Street Buff Revised Pages 3513 15. JORDAN CONTD -- so if Aerotynes shares rise to only a dollar -- and our research indicates they could go much, much higher -- your profit on a mere three thousand dollar investment would be upwards of fifty thousand... Thats right, you could pay off your mortgage. Seconds tick by an eternity, then he starts writing JORDAN CONTD Four thousand dollars, will that be check or money order?... Thank you, sir. Jordan hangs up, scrawls out a buy ticket. JORDAN V.O. CONTD Just like that I made two grand. The other guys looked at me like Id just discovered fire. Toby Welch and the other cave-Brokers stare at him. TOBY WELCH Howd you fuckin do that? 29 INT. INVESTORS CENTER - ANOTHER DAY FEB 88 29 Jordan sits at his desk in mid-pitch, totally focused. JORDAN Its a rock-solid company, sir, its the next Microsoft... Six thousand. Terrific. As Jordan continues talking, wrapping up the sale... JORDAN V.O. CONTD Though I knew I was selling garbage, within twelve weeks I was making a fortune. And as he starts scrawling out a buy ticket... JORDAN V.O. And as a wise man once told me, my only responsibility was to put meat on the table. CLOSE ON a 1988 Jaguar, parked outside a diner... The Wolf of Wall Street Buff Revised Pages 3513 16. 30 INT. KACANDES DINER - BAYSIDE - DAY JUN 88 30 Wearing a suit, Jordan sits in a booth reading the Wall Street Journal as a WAITRESS serves the food. DONNIE AZOFF, preppy-looking, 25, with horn-rims and bright white teeth approaches from the takeout counter. DONNIE That your Jag in the lot? Yeah. Nice ride. JORDAN DONNIE Donnie Azoff. JORDAN Jordan Belfort. DONNIE Ive seen it around. We live in the same building. Twelfth floor? Jordan nods What do you do, bro? JORDAN Stock broker. DONNIE Kids furniture, me and my brother-in-law. Making any money? JORDAN Seventy grand last month. DONNIE Get the fuck out. You made seventy grand in one month. JORDAN Seventy two actually. Donnie studies him, isnt sure if hes full of shit. DONNIE Tell you what. You show me a pay stub with 72,000 on it, Im quitting my job right now and coming to work with you. As Jordan retrieves his briefcase to find a paystub -- 30A SCENE 30A OMITTED 30A 30B As Jordan hands Donnie his paystub and sure enough, its 30B north of seventy-two k. The Wolf of Wall Street Buff Revised Pages 3513 17. DONNIE CONTD Holy shit. Jordan watches as Donnie crosses to a pay phone and dials. JORDAN V.O. And he did quit his job, which I thought was a little weird. I mean I had just met this fucking guy. A few beats, then into phone DONNIE Yo Paulie, its Donnie... Yeah, listen, I quit. Jordan studies Donnie as he continues his conversation... JORDAN V.O. There were other things about him too, like his phosphorescent white teeth and the fact that he wore horn rims with clear lenses to look more Waspy. He also married his first cousin -- 31 SCENE 31 OMITTED 31 32 INT. BAR - DAY JUN 88 32 Jordan sits in mid-conversation with Donnie over beers. DONNIE No problem, if we have a kid whos a retard, well just leave it on the steps of some institution. And as they continue drinking... JORDAN V.O. He was also a closet drug fiend. Id known him less than a week before he talked me into smoking crack. 33 EXT. BACK OF BAR - DAY JUN 88 33 Jordan and Donnie get high. Donnie holds a flame under a crack pipe. The Wolf of Wall Street Buff Revised Pages 3513 18. JORDAN V.O. The weird thing was when hed do crack, his face would contort into this bizarre, frozen mask like the Phantom of the Opera. Donnie does a hit of crack his jaw twitches, then his facial muscles contort, locking up like a stroke victim. After a few beats, he hands the pipe to Jordan. DONNIE You now, take a hit! Jordan takes a deep hit and holds it. A beat, then JORDAN Omigod, I fuckin love you!! JORDAN V.O. I knew I had to make him my partner. 34 INT. INVESTORS CENTER - DAY SEP 88 34 Jordan looks on as Donnie works the phone like a madman. JORDAN V.O. Which turned out to be a great move - Donnie was a fast learner who transitioned into the penny stock business quickly. 35 EXT. STRATTON OAKMONT I - AUTO SHOP - DAY SEP 88 35 Jordan and Donnie pull up to a defunct auto body shop, which has a For Lease sign in the window. JORDAN V.O. So within months we started our own firm out of an abandoned auto body shop. 36 INT. KACANDES DINER - DAY OCT 88 36 Jordan sits with CHESTER MING, ROBBIE FEINBERG, ALDEN KUPFERBERG SEA OTTER and BRAD, muscular and bald, with a Fu Manchu mustache. JORDAN V.O. In addition to Donnie, I also recruited my friends Sea Otter, Chester and Robbie, who were at the time all middling pot dealers. The Wolf of Wall Street Buff Revised Pages 3513 19. As a WAITRESS serves cheeseburgers JORDAN --see everyone wants to get rich, so youre already half way there by the time the call starts. SEA OTTER I sold weed once to this Amish dude, had one of those beards with no mustache? ROBBIE FEINBERG So? SEA OTTER He only wanted to make furniture. CHESTER MING Whats that got to do with anything? SEA OTTER He just said everyone wants to get rich. ROBBIE FEINBERG to Jordan Thats true, you did. SEA OTTER Buddhists too, they dont give a shit about money either. CHESTER MING Man I could sell weed to anybody, get a convent full of nuns fucking wasted. And as Brad looks at Jordan and shakes his head 37 INT. STRATTON OAKMONT I - AUTO BODY SHOP - BULLPEN 37 OCT 88 We see the above guys working the phones. JORDAN V.O. Brad, the guy I really wanted, took a pass, since hed become the Quaalude king of Bayside. 38 EXT. BRADS HOUSE - BACKYARD GYM - DAY OCT 88 38 Bare-chested, wearing kung fu pants, Brad sells ludes to a couple of HIGH SCHOOL KIDS. The Wolf of Wall Street Buff Revised Pages 3513 20. JORDAN V.O. They were absolute morons, my friends, but like I always said-- 39 INT. STRATTON OAKMONT I - AUTO BODY SHOP - BULLPEN - DAY 39 OCT 88 Jordan emerges from his office into the garage area the bullpen, looking on as Donnie, Chester, Robbie, Sea Otter and four other BROKERS now including RUGRAT and Toby make sales calls from the cheap desks. JORDAN V.O. Give me them young, hungry and stupid and in no time Ill make them rich. 40 EXT. MARINA - LONG ISLAND - SUNSET MAY 89 40 On lounge chairs at the edge of a dock, bottle of wine nearby, Jordan sits with Teresa. He smiles as she opens a jewelry case -- inside is a diamond tennis bracelet. TERESA Omigod. Jordan. JORDAN You like it? TERESA Its beautiful. Jordan helps her try it on. She smiles, but he detects a wave of... something. JORDAN Theyre small, I know, but the stones are really high quality. TERESA No, no. I love it. Then what? They sit in silence. JORDAN Finally TERESA I dont know, its just -- these stocks, these crappy companies. JORDAN In five years the Corleone family will be completely legitimate. The Wolf of Wall Street Buff Revised Pages 3513 21. TERESA Why cant you be legitimate now? JORDAN Its not illegal, Teresa, technically. I mean theyre real stocks, theyre just... TERESA Never gonna make anybody money. a few beats then Wouldnt you feel better selling this junk to rich people, who can afford to lose the money at least? JORDAN Rich people dont buy penny stocks. TERESA Why not? And on Jordans look JORDAN V.O. Because theyre too smart, thats why not. 41 INT. STRATTON OAKMONT I - AUTO BODY SHOP - DAY AUG 89 41 CLOSE ON Jordan, brow furrowing as his wheels turn. JORDAN V.O. I mean what person of any substance would trust this bunch of jerk-offs? Like the Pinhead, Robbie Feinberg. 42 SCENES 42 - 46 OMITTED 42 46A INSERT ID PHOTO - TOBY WELCH 46A JORDAN V.O. Toby Welch. I mean, look at this fucking Cro-Magnon, I wouldnt trust him to pick up a rock. ALT JORDAN V.O. Toby Welch. I mean, look at this fucking Cro-Magnon, he couldnt even think without moving his lips. The Wolf of Wall Street Buff Revised Pages 3513 22. 46B INSERT ID PHOTO - ROBBIE FEINBERG 46B JORDAN V.O. Or the Sea Otter. 46C INSERT ID PHOTO - THE SEA OTTER 46C JORDAN V.O. Chester Ming even, the Depraved Chinaman, with his giant panda head. 46D INSERT ID PHOTO - CHESTER MING 46D JORDAN V.O. Or Nicky Koskoff, who I called Rugrat because-- 46E INSERT ID PHOTO - RUGRAT 46E JORDAN V.O. Well, you can probably figure that out for yourself. 47 INT. STRATTON OAKMONT I - AUTO BODY SHOP - REAR - NIGHT 47 MAR 90 The camera PUSHES IN on Jordan as he stands before a large dry erase board. JORDAN V.O. But what if they didnt sound like jerk-offs? What if I took this bunch of nincompoops and molded them in my own image? I reinvented the company, gave it a new image, a new name. Something patrician, blue-blooded, something that reeked of tradition and anti-semitism. And as his Brokers settle in to folding chairs-- JORDAN Gentlemen, welcome to Stratton Oakmont. The clients weve gone after in the past -- theyre done. We will now target exclusively the wealthiest one percent of Americans. The methods weve used -- over. Loud, obnoxious sales hype is worthless with these people. The Wolf of Wall Street Buff Revised Pages 3513 23. JORDAN CONT'D In military terms its like carpet-bombing -- noisy, menacing and only marginally effective. As Stratton brokers you will be laser-guided smart-bombs aimed at high-priority targets. You will establish an initial relationship with your clients selling only blue chip stocks -- then and only then will you attempt to sell the pink sheets, where the real money is. Now the key to every sale is this Jordan writes the word URGENCY on the board. JORDAN CONTD No one buys stock unless he thinks its going up and going up now. You must convince your client to buy before the takeover happens, before the lawsuit is settled, before the patent is granted. If he says Ill think about it and call you back, its over, youre dead! No one calls back! So you have to create urgency -- 48 INT. STRATTON OAKMONT I - AUTO SHOP BULLPEN - DAY 48 Another day. With Stratton Oakmont signage visible in the b.g., Jordan is on speakerphone with a potential CLIENT, the other Brokers listening in. JORDAN --and once Kodak settles the lawsuit, institutions will be permitted to buy their shares in large blocks again. And when that happens, which is any day now, what do you think will happen to the price of Kodak stock? CLIENT O.S. Itll go up? JORDAN Exactly. Which is why you should pick up 5000 shares today, a 200,000 investment. 49 INT. STRATTON OAKMONT I - AUTO BODY SHOP - REAR - NIGHT 49 Jordan stands addressing his Brokers. The Wolf of Wall Street Buff Revised Pages 3513 24. JORDAN Then you lower your voice. 50 INT. STRATTON OAKMONT I - AUTO SHOP BULLPEN - DAY 50 Jordan pitches the client, his voice lowered. JORDAN Believe me, sir, you will not be sorry. 51 INT. STRATTON OAKMONT I - AUTO BODY SHOP - REAR - NIGHT 51 Jordan stands before the Brokers. JORDAN Then you wait. Whoever speaks first loses. At this point, where are we in the sale? Chester? CHESTER MING About to close? JORDAN No, you sweet and sour douchebag! Were at the beginning of the beginning! This is where the sale starts. You as a salesman are almost hoping he says no so you can finally do your fucking job! 52 INT. STRATTON OAKMONT I - AUTO SHOP BULLPEN - DAY 52 Jordan sits at the phone, waiting for a response. CLIENT O.S. I dont know, I dont think so. 53 INT. STRATTON OAKMONT I - AUTO BODY SHOP - REAR - NIGHT 53 Jordan stands before the Brokers. JORDAN He doesnt know, he needs to think, hes gotta ask his wife! The fact is it doesnt matter what the fuck he says! If hes already agreed that the stocks going up, then the only real objection he has at this point is he doesnt trust you! And he shouldnt trust you, youre a fucking salesman! So what do you say? The Wolf of Wall Street Buff Revised Pages 3513 25. 54 INT. STRATTON OAKMONT I - AUTO SHOP BULLPEN - DAY 54 Donnie talks on the phone to a Client. DONNIE Let me ask you this, sir -- had I been your broker for the past three to four years and made you money on a consistent basis, you probably wouldnt say you need to think about it, youd probably say pick me up three or four thousand shares, am I right? CLIENT 2 O.S. Maybe. 55 INT. STRATTON OAKMONT I - AUTO SHOP BULLPEN - DAY 55 APR 90 The place is crowded now 20 Brokers make up the sales force. Sea Otter pitches a client. SEA OTTER Wait a second. You mean to tell me if I put you in Union Carbide at 7 and took you out at 32-- 56 INT. STRATTON OAKMONT I - AUTO SHOP BULLPEN - DAY 56 MAY 90 Even more crowded, with 30 Brokers. ROBBIE FEINBERG If I put you in Texas Instruments at 11 and took you out at 47-- 57 INT. STRATTON OAKMONT I - AUTO SHOP BULLPEN - DAY 57 JUN 90 More Brokers still - now theres 45. CHESTER MING --Walmart at 16 and took you out at 95, you wouldnt say Chester pick me up 10,000 shares? Cmon. CLIENT 3 O.S. Well yeah, in that case I would. The Wolf of Wall Street Buff Revised Pages 3513 26. 58 INT. STRATTON OAKMONT II - BULLPEN - DAY NOV 90 58 New offices now, a real brokerage firm. The bullpen is large, with 75 Brokers at polished maple desks, sitting before computers talking into headsets. DONNIE So the problem is that I dont have the luxury of a track record. Sir, let me reintroduce myself to you. My name is Donnie Azoff-- 58A CUT TO 58A RUGRAT --Nicky Koskoff-- 58B CUT TO 58B CHESTER MING Chester Ming-- 58C CUT TO 58C PETER DEBLASIO Peter DeBlasio from Stratton Oakmont in New York City-- 58D CUT TO 58D TOBY WELCH --and I plan on being the top broker in my firm this year. 58E CUT TO 58E SEA OTTER So what about this? We start small with 500 shares, a cash outlay of 20,000. 58F CUT TO 58F KALIL If the stock goes up 10, will that make you a rich man? Of course not. 58G CUT TO 58G KIMMIE BELZER If if goes down 10, will it make you a poor man? No.. 58H CUT TO 58H The Wolf of Wall Street Buff Revised Pages 3513 27. CHESTER MING What this trade will do is serve as a benchmark for future business. 58J CUT TO 58J PETER DEBLASIO The downside is minimal and the upside is a long-term relationship with a broker on Wall Street who will consistently make you money. 58K CUT TO 58K JORDAN Your only regret will be that I didnt call you six months ago. 58L CUT TO 58L CLIENT 1 O.S. to Robbie Feinberg All right. 58M CUT TO 58M CLIENT 2 O.S. to Sea Otter Give me 300 shares. 58N CUT TO 58N CLIENT 3 O.S. to Peter DeBlasio 1200 shares. 58P CUT TO 58P CLIENT 4 O.S. to</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mira</t>
+          <t>J’suis PNL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ey Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Nashta për ty është pak shpejt Po unë t'kom ën kry që shumë vjet Këto nuk e ke dit se vonë t'kom kallxu Veç nuk e di a m'ke besu Unë kom me kon gjithmonë këtu për ty S'kom me lon kërkon n'mes me ndërhy Besomë ti nuk e din sa shumë kom ndryshu Veten mo s'pe njoh e ja kom nis me dyshu Lidhjen me ty e kom marrë shumë seriozisht Jom tu ëndrru me ta ngjit unazën n'gisht Krejt kjo storie nuk ka ndodh rastësisht Je ma e mira definitivisht Je ondrra ma e madhe n'jetë për mu Je dëshira që po du me mu plotësu Edhe n'qiell ka mu shkru, edhe kejt kanë me dit Edhe engjujt kanë me t'kallxu që për mu je lind Se... Ti je ma e mira, ti je ma e mira Ti je ma e mira qe e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira qe e kom pas najher Qkado që ti vendos kom mu munu me kuptu Ti ça don ën jetë kom mu munu me respektu Veç asniher mos lyp me t'harru Se osht diçka shumë e pakapshme për mu E kom provu besomë që osht' shumë problem Kur nuk foli me ty sa shumë ëm dhemb S'e kom lehtë kurrë me besu Që najhere n'jetë pa ty kom me jetu Shumë e pakuptueshme për ty n'këto momente Edhe pse t'kom thonë që je shumë inteligjente Kurgjo mos meno, mos fol po veç hesht Edhe n'ëndrra t'shoh ma shpesh se lajmet flash M'pëlqen kur kesh, m'pëlqen kur je nervoz M'pëlqen qysh fol kur o' puna serioz M'pëlqen që, po besoj që ka mu kry E kom ni ndjenjë që gjithmonë kom me kon me ty Se ey... Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Hey, duna mu kallxu i sinqertë me ty Osht' hera e parë n'jeten tem që Krenaria nuk përfshihet Kështu që dona me t'thonë Që ti je ma e mira, ti je ma e mira Ti je ma e mira, ti je ma e mira Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher Ti je ma e mira, ti je ma e mira Ti je ma e mira që e kom pas najher</t>
+          <t>Ouais j'suis PNL Ouais ouais bah ouais j'suis PNL Ouais ouais ouais j'suis QLF Ouais ouais j'suis PNL Peace and Lové J'suis QLF Bah ouais j'suis PNL Retrouve-moi avec Ademo tout en haut de la tour Eiffel J'suis à Clignancourt avec Cortex Avec mes kheys chez le kébabier tel un cortège J'bibi ouais j'bibi la bonne be-her J'pécho ta meuf, j'l'a met dans mon pokédex pokédex Même en Gucci Louis Vi', jamais je flex Autotune Autotune Toi t'es gay, moi j'suis juste avec mon gang T'es bizarre apparemment tu kiff les shemale Moi j'suis just là et je chill mec Ouais j'suis PNL Bah ouais j'suis PNL</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>91's</t>
+          <t>Kuta Ubud</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Ninshi nalechula nalekumbwa life yankwesha shula Gelo-gelo 18 mpeni tumba nama bula Life style ama fresh nokufwala fye iminyula Efyo fyalenkulapo, but still more fye balensula Nolo ninebo bosoli but iya low budget Say alombafye ma chick nanombafye Ninebo kalapashi, Kalapanshi untembule Ninebo Barnabas wamu Bible u- Clean ifyakufwala but nalamba skopo Fyebo having a con-val kamo ngolande zipompo Tatemwa indalama, ni enemy temunonko Find yourself a new munobe, ambisheni ibe kompo Chumbu mushololwa, ngapafita nishi elo bwacha Ale nkonka mumano adabwa no follow back Ngalye chikolowa, ichipempula echikulowa Yaba Chappas kuti waya ama solo ah In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way Teacher alemonamofye ibange But nalebeba njebele chabupe chi Nolo nsaluke fi te ma permanent Then again ndeba pe-na-pe Nomba labour day, chill time lelo tema day Wala mbwena pe? I'm feeling it napapene ngandi mbwafye Nganwafye, ndande fyamupepi nokufwafye Tenny, Mortana apa ine imisango ni skafe Ukwisusho butala table fulu ne mi kate Nchili ndelwa bwangu nokuchelwa Nchili ndenwa ifyabulwo kususwa suswa Nkabeula nolo nkafwa ndeesha Nkabeula nolo nka- Elyo ififine naba zii Echo bambwena ngo mu G Akaiche na silent Gelo nimbama ngo l- Balembwenamo ubu yo Naba mwenemo ubuyo Nomba person atishani? Teti twakane filyo? In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cramés</t>
+          <t>MOWGLI II</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Eh wAllah ouais cest sombre, baise les autres mecs, cest lson vif anti-traîtres Perce les ondes, laisse les cons, eh cest bon cest lson qui pète Ya trop dchacals qui jacassent, nique sa race si ça patine Pousse les pecs dans la cave au placard entre taga et tagatine Dé-détaille la plaquette, ya pas dcla-cla-clashs de tapettes Classe dans la glace, prends ta place, gars tauras notre reflet si ça pète Jma-maquette, maccapare un Pushka pour taper lscore Jrappe tinquiète appelle-moi Tupac nan, two paquets dclopes Tac tac tac et lami tape, pas cap-capable de vivre la merde Attaque-taque-taque, bim ta sur, à chaque, chaque deal on arrive à lheure Mais, mais, mais, mais qui cest qui rappe ? Roue dans lvirage Aux déter qui clamsent, ya des dents qui scassent Eh, harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life Tu vois les diez harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life igo x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jfais un rap de ouf, de barbare, embrasse les balles Le pare-balles ne parle pas le langage des bringuebales Pas le rap des dalleux stars-tars, flow trop speed, dar, dar Tac, tac, jmets mon coup, partage et bye-bye Et bim bim cest les bails, easy sur la cahier Vite vite, jvais les die, si si on va grailler Oui oui baiser ça, ou, cest précis on vit là où Ya wallou, cest lsaloon, tchin tchin pour la maille Vire les MC tous nazes, à ceux qui nous connaissent Ccoup-ci connard on peut pas nous virer comme au collège Décollage, nage dans lcomas, écoute et tais-toi Tu vas tomber dans les pommes si tu veux voir les étoiles La, la, la rime, le swag là ça glisse soit La technique jvois que tapprécies, sois pas bête, jlai fois deux Sois le bienvenu, et ouais ma-ma-man cest ma-ma-magique Ma, ma parole que jmarque ma quête, ma guerre quand jmanie lmi-mi-mic Trop facile, du sang, du sang dans la bassine Tes pas assis, tu vas finir sur le cul comme une catine Rap de foolek, elle mouille, jlargue, déboule et cest lsouk Jai trop tourné, jai trop souffert, jsuis trop saoulé naâlbouk On fait les diez, on est dînn et faut quon dessine notre destinée Yeah, yeah, yeah, jvends plus dshit donc jvais rimer Pour chanter donne du biff, on fait la la la la Sur Terre, déter, au clair de la, la, la, tune x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jai lflow qui fracasse, tabasse, agace, savate le beat En mode saga dsaccages, pagaille, jattrape le titre Ils veulent du dingue, dingue, flow Denzel en Benz, Benz Banga banga, ccoup-ci, ils auront des bang bang Jcrame ma clope dans la street, charcle la drogue sur un pit Motherfuck ton avis, à la mode dans la sique Crache, crache car elle est bonne mon ami Bad boy dans la ville, Maglite pas les spots dans la vitre Nouvelle époque on lagrippe, Paname, Paname suck-moi la bite x4 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés1</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>J’comprends pas</t>
+          <t>Lion</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Don't hurt me again Uh, don't hurt me again Don't hurt me again Don't hurt me again Don't hurt me again, baby Nah What up, love? I need a hug cause drugs be takin' over Shorty couldn't take it no more, she went loca No stranger to a rum and soda I met the ho while she was slumped over Shit, I've been good, though, I can't complain I could probably cop a half a plane Drinking juice just like Jack LaLanne now I'mma strike it rich any day now Uh, you know I gotta get a plate now Virtuoso on a keyboard I rep the eastern seaboard, jeez Lord Please leave the Z3 keys before you leave Don't sneeze on my shit, cause for shiz I'mma flip ya Pedicured foot slide in the slipper Tryna do the remix with Pitbull Tell the pilot land at Schiphol Play the violin with dimples Life's ironic and it's simple Smoke good, fuck, eat, drink Drive nice car, wear all green mink First time I whacked off was a Penthouse Roses in the bath at the penthouse Billy Joel at the garden Should I get a skybox or an '89 IROC? It's always poppin' at the IHOP Choke a pussy with his tie knot, it's my block Chuck Knoblauch, spicy coconut curry from the Thai spot I'm in a hurry, dumb jewelry The verdict read from a hung jury The doctor said that I was hung early Skull curly, Larry, and Moe, I'll marry a ho Only if the bitch look like Mari' Monroe Twisted off the Jenkem, watching Iron Chef The secret ingredient was lion's neck Royal Blue-Cyber Tech I ride solo like a fighter jet Hurt me again No, don't hurt me again Please, don't hurt me again No, don't hurt me again There's no hit records on a demo There's no hit records on a demo No, don't hurt me again There's no hit records on a demo There's no hit records on a demo Catch me hoppin' out the limo Catch me hoppin' out the limo Smoke good, fuck, eat, drink Drive nice car, wear all green mink Smoke good, fuck, eat, drink Drive nice car, wear all green mink Uh, what you payin'? Wear all green mink Smoke good, fuck, eat, drink Drive nice car, wear all green mink Smoke good, fuck, eat, drink Drive nice car, wear all green mink What you think?39</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>J’suis PNL</t>
+          <t>Menace</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ouais j'suis PNL Ouais ouais bah ouais j'suis PNL Ouais ouais ouais j'suis QLF Ouais ouais j'suis PNL Peace and Lové J'suis QLF Bah ouais j'suis PNL Retrouve-moi avec Ademo tout en haut de la tour Eiffel J'suis à Clignancourt avec Cortex Avec mes kheys chez le kébabier tel un cortège J'bibi ouais j'bibi la bonne be-her J'pécho ta meuf, j'l'a met dans mon pokédex pokédex Même en Gucci Louis Vi', jamais je flex Autotune Autotune Toi t'es gay, moi j'suis juste avec mon gang T'es bizarre apparemment tu kiff les shemale Moi j'suis just là et je chill mec Ouais j'suis PNL Bah ouais j'suis PNL</t>
+          <t>INS Your Highness Wu Tang, 7L Eso, let's Go Bustin' ain't nothin' to us I spit game like a sportscaster Cousin is crushed, you're lovin' the rush Beast mode, animal house, straight off the intro Sit back and watch a cool G rap, this is a demo Menace with the methods, no sweeteners diabetic Phys Ed raps, stretchin' 'em out, like calisthenics Set it Get wounded in the war like MEDIC! No anesthetic, thus no medals for your effort Fuckin' with this lyrical X pill, the vet's still a threat He'll never defect, still I'm Destiny's Child They Calling My Name Come through, raw with the flame Whoever want it get more of the same Hold 'em scoreless, call it a game All day, Sir I, get fly like I'm boarding a plane Hard lines like the rhymes carved in stone As far as the throne, see me anywhere I'm not far from home No matter how far we roam We never that-that-that-th-that Far from home And we be right ba-ba-ba-ba-back Guard your zone We legendary like Guru and Preme Don't you see what I mean? No matter how far we roam We never that-that-that-th-that Far from home And we be right ba-ba-ba-ba-back Guard your zone We legendary like Marley and Kane Don't you see what I'm sayin'? It's time to rumble with rebels We rough and tumble and ready We come up humble and steady But flows are Money like Eddie We blow your brains to spaghetti Your lyric book to confetti I'm fresher You flow like the male version of Keha You're watchin' history happen like Jackie Robinson battin' Or archeologists mappin' a path to fossils Imagine Apache choppers attackin' You rappers softer than satin The beat is knockin', it's crackin' Yo, this is Boston and Staten While y'all be talkin' like a felon Like you hoppin' out of cell and While y'all be straight pussy like the opposite of Ellen I'm Macaveli rebellin' I'm Martinelli, I'm clearer I'm Fonzarelli in leather You Nas in Belly, an actor You unintelligent rapper You barely relevant factor The hell that I'm propelling at ya You can't develop or capture Your skeleton will get fractured I'll break every single bone Esoteric's international but never far from home</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kuta Ubud</t>
+          <t>Simba</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ninshi nalechula nalekumbwa life yankwesha shula Gelo-gelo 18 mpeni tumba nama bula Life style ama fresh nokufwala fye iminyula Efyo fyalenkulapo, but still more fye balensula Nolo ninebo bosoli but iya low budget Say alombafye ma chick nanombafye Ninebo kalapashi, Kalapanshi untembule Ninebo Barnabas wamu Bible u- Clean ifyakufwala but nalamba skopo Fyebo having a con-val kamo ngolande zipompo Tatemwa indalama, ni enemy temunonko Find yourself a new munobe, ambisheni ibe kompo Chumbu mushololwa, ngapafita nishi elo bwacha Ale nkonka mumano adabwa no follow back Ngalye chikolowa, ichipempula echikulowa Yaba Chappas kuti waya ama solo ah In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way Teacher alemonamofye ibange But nalebeba njebele chabupe chi Nolo nsaluke fi te ma permanent Then again ndeba pe-na-pe Nomba labour day, chill time lelo tema day Wala mbwena pe? I'm feeling it napapene ngandi mbwafye Nganwafye, ndande fyamupepi nokufwafye Tenny, Mortana apa ine imisango ni skafe Ukwisusho butala table fulu ne mi kate Nchili ndelwa bwangu nokuchelwa Nchili ndenwa ifyabulwo kususwa suswa Nkabeula nolo nkafwa ndeesha Nkabeula nolo nka- Elyo ififine naba zii Echo bambwena ngo mu G Akaiche na silent Gelo nimbama ngo l- Balembwenamo ubu yo Naba mwenemo ubuyo Nomba person atishani? Teti twakane filyo? In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way In my way-way-way-way-way</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MOWGLI II</t>
+          <t>Kratos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Tous mes choix sont nauséabonds Jcrois qujai pas bien retenu la leçon Elle me manque cette époque où ça jouait au Sims 2 en caleçon Pour mendormir jcompte mes lacunes Ça marche pas donc jparle à la lune Elle me rappelle que maman est éphémère, quon en a quune Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meillur client En attendant la suite jm console en rêvant Ya des moments où jai envie que dune chose cest dêtre triste et quon mlaisse Ademo ment, même quand jaurai percé jplairai pas à Eva Mendes Temploies des moyens colossaux juste pour que jte cala Dépenses des sommes indécentes pour la mala Ten oublies même de rattraper ta salât Jvis dans ton esprit le loyer est gratos Le seul huissier qui mfera sortir cest une bastos Jte hanterai jusquà la fin dtes jours comme Kratos Jte hanterai jusquà la fin dtes jours comme Kratos Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant Jattends la fin comme le dernier grain du sablier Aucune menace ne me fera plier Tu peux essayer ressayer mais jamais ô grand jamais je rendrai mon tablier Jvais dans la salle du temps pour ne3ess Jaccepte la CB PayPal et les espèces J'suis prêt à faire les efforts qu'il faut pour mettre ma maman à labri Passer du scoot' au classe S Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lion</t>
+          <t>Que la mif</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Don't hurt me again Uh, don't hurt me again Don't hurt me again Don't hurt me again Don't hurt me again, baby Nah What up, love? I need a hug cause drugs be takin' over Shorty couldn't take it no more, she went loca No stranger to a rum and soda I met the ho while she was slumped over Shit, I've been good, though, I can't complain I could probably cop a half a plane Drinking juice just like Jack LaLanne now I'mma strike it rich any day now Uh, you know I gotta get a plate now Virtuoso on a keyboard I rep the eastern seaboard, jeez Lord Please leave the Z3 keys before you leave Don't sneeze on my shit, cause for shiz I'mma flip ya Pedicured foot slide in the slipper Tryna do the remix with Pitbull Tell the pilot land at Schiphol Play the violin with dimples Life's ironic and it's simple Smoke good, fuck, eat, drink Drive nice car, wear all green mink First time I whacked off was a Penthouse Roses in the bath at the penthouse Billy Joel at the garden Should I get a skybox or an '89 IROC? It's always poppin' at the IHOP Choke a pussy with his tie knot, it's my block Chuck Knoblauch, spicy coconut curry from the Thai spot I'm in a hurry, dumb jewelry The verdict read from a hung jury The doctor said that I was hung early Skull curly, Larry, and Moe, I'll marry a ho Only if the bitch look like Mari' Monroe Twisted off the Jenkem, watching Iron Chef The secret ingredient was lion's neck Royal Blue-Cyber Tech I ride solo like a fighter jet Hurt me again No, don't hurt me again Please, don't hurt me again No, don't hurt me again There's no hit records on a demo There's no hit records on a demo No, don't hurt me again There's no hit records on a demo There's no hit records on a demo Catch me hoppin' out the limo Catch me hoppin' out the limo Smoke good, fuck, eat, drink Drive nice car, wear all green mink Smoke good, fuck, eat, drink Drive nice car, wear all green mink Uh, what you payin'? Wear all green mink Smoke good, fuck, eat, drink Drive nice car, wear all green mink Smoke good, fuck, eat, drink Drive nice car, wear all green mink What you think?39</t>
+          <t>Wuh-uh-uh Persiguiendo al sol Voy contracorriente al andar Pero no me pueden cansar Levantando el polvo para atrás Sé que la batalla acaba de empezar Suenan los tambores del alma Llorando las luces de la alarma Llevo mi bandera a jugar La batalla acaba de empezar Soy caminante en camisa tejana Sigo por el rumbo, voy persiguiendo al sol Subo el río a contracorriente Nadie me detiene, voy persiguiendo al sol A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo al sol A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo, persiguiendo al sol Oh, oh Por todos los que sueñan con triunfar Echando el miedo pa' fuera Por todos los que buscan su lugar Sé que la batalla no acaba ya Dicen que no puedo, qué más da? Yo sigo a mi aire, a mí me da igual Soñando fuerte y además Mi batalla es la única que hay Soy caminante en camisa tejana Sigo por el rumbo, voy persiguiendo al sol Subo el río a contracorriente Nadie me detiene, voy persiguiendo al sol Oh, oh, oh A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo al sol A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo, persiguiendo al sol Pero cuando me lloren las manos Me lloren la' mano' Ellas me dirán por donde ir Me dirán, me dirán, yeah Dejaré mi huella en cada paso Oh Ellas me enseñaron a vivir A contracorriente La-la-la, la-la-la, la-la La-la-la, la-la-la, la-la Este es mi lugar Persiguiendo al sol A contracorriente La-la-la, la-la-la, la-la La-la-la, la-la-la, la-la Este es mi lugar Persiguiendo, persiguiendo al sol La-la-la, la-la-la, la-la Wuh La-la-la, la-la-la, la-la Este es mi lugar Persiguiendo, persiguiendo al sol</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Menace</t>
+          <t>Hasta la vista</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>INS Your Highness Wu Tang, 7L Eso, let's Go Bustin' ain't nothin' to us I spit game like a sportscaster Cousin is crushed, you're lovin' the rush Beast mode, animal house, straight off the intro Sit back and watch a cool G rap, this is a demo Menace with the methods, no sweeteners diabetic Phys Ed raps, stretchin' 'em out, like calisthenics Set it Get wounded in the war like MEDIC! No anesthetic, thus no medals for your effort Fuckin' with this lyrical X pill, the vet's still a threat He'll never defect, still I'm Destiny's Child They Calling My Name Come through, raw with the flame Whoever want it get more of the same Hold 'em scoreless, call it a game All day, Sir I, get fly like I'm boarding a plane Hard lines like the rhymes carved in stone As far as the throne, see me anywhere I'm not far from home No matter how far we roam We never that-that-that-th-that Far from home And we be right ba-ba-ba-ba-back Guard your zone We legendary like Guru and Preme Don't you see what I mean? No matter how far we roam We never that-that-that-th-that Far from home And we be right ba-ba-ba-ba-back Guard your zone We legendary like Marley and Kane Don't you see what I'm sayin'? It's time to rumble with rebels We rough and tumble and ready We come up humble and steady But flows are Money like Eddie We blow your brains to spaghetti Your lyric book to confetti I'm fresher You flow like the male version of Keha You're watchin' history happen like Jackie Robinson battin' Or archeologists mappin' a path to fossils Imagine Apache choppers attackin' You rappers softer than satin The beat is knockin', it's crackin' Yo, this is Boston and Staten While y'all be talkin' like a felon Like you hoppin' out of cell and While y'all be straight pussy like the opposite of Ellen I'm Macaveli rebellin' I'm Martinelli, I'm clearer I'm Fonzarelli in leather You Nas in Belly, an actor You unintelligent rapper You barely relevant factor The hell that I'm propelling at ya You can't develop or capture Your skeleton will get fractured I'll break every single bone Esoteric's international but never far from home</t>
+          <t>Comincio con le flessione sui pugni, solo pieno, coglione T-shirt Dior, credo che mi manchi più della vista sul mare, coglione Esito fra un bicchiere di Jack o meglio una Coca fresca Frate, è la miseria DZ, non chiedere perché ti attacchiamo Metà forza, metà tahia Esplosivo dalla nascita, 9.1 100, esclusi, esclusi Determinato, tengo il palazzo come Dende, uno-due Auto banalizzata, poi senti arrivare i poliziotti arrivare, arriba N'da, modalità sopravvivenza nel bando Forse, banco, si spaccia, ma non è Cali, uomo A traverso i miei LV, mi sento così bene Mi ricordo quando non ero nulla, quando sorvolavo i terrestri, due titani Banconota da 500, aspetto, tu, puoi detestarmi Sono dimagrito per ingrassarmi meglio, tu sembra che potresti testarmi, da quando? Vegeta e Mowgli, fin da piccolo troppo arrabbiato Dei soldi o un cazzo, erba data a Hervé Si fuma come Escobar, davanti a Julie Lescaut Nel quartiere c'è il truffatore, nel quartiere c'è Rico Nel forno, c'è Ademo, aperta la cassetta delle lettere Non lontano dal commissariato, il poliziotto vuole conoscermi Sono nel mio mondo, ho la mia boa, ho la mia canna, il mio playback su Acadian Sono incantato che il mio odio vi piaccia Incantato che vi fottiamo Hasta la vista, hasta la vista Hasta la vista, si vedrà La povertà non ci manca, questi momenti forse Ancora uno o due album e poi un po' d'aria Hasta la vista, hasta la vista Hasta la vista, si vedrà Sono rimasto in basso più tardi per fare più soldi La sedia è rimasta in fondo nell'atrio, io non sono più là Guardo il cielo, il sole carezza la mia anima Cresciuto nel bando, la miseria bacia il tuo cranio Inebriato, voglia di essere Voglia anche di liberarmi Ciao Calinta, chiamami sulla mia Lyca Giro a Parigi, essere felice non ce la faccio, sulla mia vita, sì Quindi riconto il bottino, sulla vista del tuo fondo tinta, PNL non pompa Tutto questo, non è la mia vita, la mia vita, la mia vita Non voglio più il tuo culo, non voglio più il tuo cuore, sei diventata noiosa Più niente di speciale, sei diventata banale come una banconota da 500 Sono nel mio mondo, ho la mia boa, ho la mia canna, il mio playback su Acadian Sono incantato che il mio odio vi piaccia Incantato che vi fottiamo Hasta la vista, hasta la vista Hasta la vista, si vedrà La povertà non ci manca, questi momenti forse Ancora uno o due album e poi un po' d'aria Hasta la vista, hasta la vista Hasta la vista, si vedrà</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Simba</t>
+          <t>Sur Paname</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>J'dois tout plier sur cette putain de prod Mais j'oublie tout sur cette putain d'mélo Le chemin parcouru fait une putain de trotte Mes exs reviennent et lâchent des hello Oh, oh, oh, oh Sauf que ma vie maintenant c'est une putain d'blague J'ai pas les thunes pour une putain d'bague Mes exs reviennent disent Guten Tag Tag, tag, tag, tag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wi Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Tu m'as quittée j'était moch Loin d'être une star de cinoche car Huh, huh 19 ans, mains dans les poches Loin de la vie d'Inox- Tag Huh, huh Toutes mes blagues c'était des flops Je t'aimais mais c'était pas ça Tu m'as mis un stop! Tu m'as mis un stop J't'ai mis un cédez l'passage Je t'ai jamais traité de tasse Tu veux me détester Trouve moi entre Vaise et Tassin Trouve moi sur MTP J't'aimais mais j'préfère ta soeur Disons qu'j'ai juste testé, Ok! Tu peux me détester Mes exs reviennent disent Guten Tag Tag, tag, tag, tag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Mes ex reviennent en même temps que mes démons A croire qu'elles se sont passé le mot Le venin dans les veines qui me démonte Je veux pas rentrer dans le jeu mais je suis pas contre Creuser ma putain de tombe Demande pas l'aumône ouais laisse moi un mémo Je déphase puis traîne sur Paname comme Ademo Au fond de l'eau comme Nemo Sirène me prend pour un clown Je fais semblant de rester clean Je lui met une clim Ouais no problemo Entouré de mes chicas Je me bousille les chicots Je suis pas dans la bicrave mais check pas mon bigo Amiga Amigo Amiga, Amigo Je me laisse ferrer par les belles sommes Quand je baise fort, cette belle prod Les images dans ma te-té qui se déforment c'est très sport Les vapeurs de la te-boi Me rappellent que je ne fais que boire A la base je ne voulais que toi Tu reviens je fais aucun effort J'dois tout plier sur cette putain de prod Mais j'oublie tout sur cette putain d'mélo Le chemin parcouru fait une putain de trotte Mes exs reviennent et lâchent des hello Oh, oh, oh, oh Sauf que ma vie maintenant c'est une putain d'blague J'ai pas les thunes pour une putain d'bague Mes exs reviennent disent Guten Tag Tag, tag, tag, tag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Porte de Mesrine</t>
+          <t>Cœurs</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CHAPTER TWO A VISIT FROM ALBERTINE PROSPECT OF RICH BRIDES FOR CERTAIN FRIENDS OF SAINT-LOUP THE WIT OF THE GUERMANTES, AS DISPLAYED BEFORE THE PRINCESSE DE PARME A STRANGE VISIT TO M. DE CHARLUS HIS CHARACTER PUZZLES ME MORE AND MORE THE RED SHOES OF THE DUCHESS Albeit it was simply a Sunday in autumn, I had been born again, life lay intact before me, for that morning, after a succession of mild days, there had been a cold mist which had not cleared until nearly midday. A change in the weather is sufficient to create the world and oneself anew. Formerly, when the wind howled in my chimney, I would listen to the blows which it struck on the iron trap with as keen an emotion as if, like the famous bow-taps with which the C Minor Symphony opens, they had been the irresistible appeal of a mysterious destiny. Every change in the aspect of nature offers us a similar transformation by adapting our desires so as to harmonise with the new form of things. The mist, from the moment of my awakening, had made of me, instead of the centrifugal being which one is on fine days, a self-centred man, longing for the chimney corner and the nuptial couch, a shivering Adam in quest of a sedentary Eve, in this different world Between the soft grey tint of a morning landscape and the taste of a cup of chocolate I tried to account for all the originality of the physical, intellectual and moral life which I had taken with me, about a year earlier, to Doncières, and which, blazoned with the oblong form of a bare hillside always present even when it was invisible formed in me a series of pleasures entirely distinct from all others, incommunicable to my friends, in the sense that the impressions, richly interwoven with one another, which gave them their orchestral accompaniment were a great deal more characteristic of them, to my subconscious mind, than any facts that I might have related. From this point of view the new world in which the mist of this morning had immersed me was a world already known to me which only made it more real and forgotten for some time which restored all its novelty. And I was able to look at several of the pictures of misty landscapes which my memory had acquired, notably a series of Mornings at Doncières, including my first morning there in barracks and another, in a neighbouring country house, where I had gone with Saint-Loup to spend the night in which from the windows, whose curtains I had drawn back at daybreak, before getting into bed again, in the first a trooper, in the second on the thin margin of a pond and a wood all the rest of which was engulfed in the uniform and liquid softness of the mist a coachman busy polishing a strap had appeared to me like those rare figures, scarcely visible to the eye obliged to adapt itself to the mysterious vagueness of their half-lights, which emerge from an obliterated fresco It was from my bed that I was looking this afternoon at these pictorial memories, for I had gone back to bed to wait until the hour came at which, taking advantage of the absence of my parents, who had gone for a few days to Combray, I proposed to get up and go to a little play which was being given that evening in Mme. de Villeparisiss drawing-room. Had they been at home I should perhaps not have ventured to go out my mother in the delicacy of her respect for my grandmothers memory, wished the tokens of regret that were paid to it to be freely and sincerely given she would not have forbidden me this outing, she would have disapproved of it. From Combray, on the other hand, had I consulted her wishes, she would not have replied in a melancholy Do just as you like you are old enough now to know what is right or wrong, but, reproaching herself for having left me alone in Paris, and measuring my grief by her own, would have wished for it distractions of a sort which she would have refused to herself, and which she persuaded herself that my grandmother, solicitous above all things for my health and the preservation of my nervous balance, would have advised me to take That morning the furnace of the new steam heater had for the first time been lighted. Its disagreeable sound an intermittent hiccough had no part whatsoever in my memories of Doncières. But its prolonged encounter, in me this afternoon, with them was to give it so lasting an affinity with them that whenever, after succeeding more or less in forgetting it, I heard the central heater hiccough again it reminded me of them There was no one else in the house but Françoise. The grey light, falling like a fine rain on the earth, wove without ceasing a transparent web through which the Sunday holiday-makers appeared in a silvery sheen. I had flung to the foot of my bed the Figaro, for which I had been sending out religiously every morning, ever since I had sent in an article which it had not yet printed despite the absence of the sun, the intensity of the daylight was an indication that we were still only half-way through the afternoon. The tulle window-curtains, vaporous and friable as they would not have been on a fine day, had that same blend of beauty and fragility that dragon flies wings have, and Venetian glass. It depressed me all the more that I should be spending this Sunday by myself because I had sent a note that morning to Mlle, de Stermaria. Robert de Saint-Loup, whom his mother had at length succeeded in parting after painful and abortive attempts from his mistress, and who immediately afterwards had been sent to Morocco in the hope of his there forgetting one whom he had already for some little time ceased to love, had sent me a line, which had reached me the day before, announcing his arrival, presently, in France for a short spell of leave. As he would only be passing through Paris where his family were doubtless afraid of seeing him renew relations with Rachel, he informed me, to shew me that he had been thinking of me, that he had met at Tangier Mile, or rather Mme. for she had divorced her husband three months after their marriage de Stermaria. And Robert, remembering what I had told him at Balbec, had asked her, on my behalf, to arrange a meeting. She would be delighted to dine with me, she had told him, on one of the evenings which, before her return to Brittany, she would be spending in Paris. He warned me to lose no time in writing to Mme. de Stermaria, for she would certainly have arrived before I got his letter. This had corne as no surprise to me, even although I had had no news of him since, at the time of my grandmothers last illness, he had accused me of perfidy and treachery. It had then been quite easy to see what must have happened. Rachel, who liked to provoke his jealousy she had other reasons also for wishing me harm had persuaded her lover that I had made a dastardly attempt to have relations with her in his absence. It is probable that he continued to believe in the truth of this allegation, but he had ceased to be in love with her, which meant that its truth or falsehood had become a matter of complete indifference to him, and our friendship alone remained. When, on meeting him again, I attempted to speak to him about his attack on me his sole answer was a cordial and friendly smile, which gave him the air of begging my pardon then he turned the conversation to something else. All this was not to say that he did not, a little later, see Rachel occasionally when he was in Paris. The fellow-creatures who have played a leading part in ones life very rarely disappear from it suddenly with any finality. They return to take their old place in it at odd moments so much so as to lead people to believe in a renewal of old love before leaving it for ever. Saint-Loups breach with Rachel had very soon become less painful to him, thanks to the soothing pleasure that was given him by her incessant demands for money. Jealousy, which prolongs the course of love, is not capable of containing many more ingredients than are the other forms of imagination. If one takes with one, when one starts on a journey, three or four images which incidentally one is sure to lose on the way such as the lilies and anemones heaped on the Ponte Vecchio, or the Persian church shrouded in mist, ones trunk is already pretty full. When one parts from a mistress one would be just as glad, until one has begun to forget her, that she should not become the property of three or four potential protectors whom one has in ones minds eye, of whom, that is to say, one is jealous all those whom one does not so picture count for nothing. Now frequent demands for money from a cast-off mistress no more give one a complete idea of her life than charts shewing a high temperature would of her illness. But the latter would at any rate be an indication that she was ill, and the former furnish a presumption, vague enough, it is true, that the forsaken one, or forsaker whichever she be cannot have found anything very remarkable in the way of rich protectors. And so each demand is welcomed with the joy which a lull produces in the jealous ones sufferings, while he responds to it at once by dispatching money, for naturally he does not like to think of her being in want of anything, except lovers one of the three lovers he has in his minds eye, until time has enabled him to regain his composure and he can learn without the slightest emotion the name of his successor. Sometimes Rachel came in so late at night that she could ask her former lovers permission to lie down beside him until the morning. This was a great comfort to Robert, for it refreshed his memory of how they had, after all, lived in intimacy together merely to see that even if he took the greater part of the bed for himself it did not in the least interfere with her sleep. He realised that she was more comfortable, lying close to his body, than she would have been elsewhere, that she felt herself, by his side even in an hotel to be in a bedroom known of old, in which the force of habit prevails and one sleeps better. He felt that his shoulders, his limbs, all of him were for her, even when he was unduly restless, from sleeplessness or from having to get up in the night things so entirely usual that they could not disturb her, and that the perception of them added still further to her sense of repose To revert to where we were, I had been all the more disquieted by Roberts letter in that I could read between the lines what he had not ventured to write more explicitly. You can most certainly ask her to dine in a private room, he told me. She is a charming young person, a delightful nature you will get on splendidly with her, and I am sure you will have a capital evening together. As my parents were returning at the end of the week on Saturday or Sunday, and as after that I should be forced to dine every evening at home, I had written at once to Mme. de Stermaria, proposing any evening that might suit her, up to Friday. A message was brought back that I should hear from her in writing the same evening, about eight oclock. The time would have passed quickly enough if I had had, during the afternoon that separated me from her letter, the help of a visit from anyone else. When the hours pass wrapped in conversation one ceases to count, or indeed to notice them, they vanish, and suddenly it is a long way beyond the point at which it escaped you that there reappears the nimble truant time. But if we are alone, our preoccupation, by bringing before us the still distant and incessantly awaited moment with the frequency and uniformity of a ticking pendulum, divides, or rather multiplies the hours by all the minutes which, had we been with friends, we should not have counted. And confronted, by the incessant return of my desire, with the ardent pleasure which I was going to taste not for some days though, alas! in Mme. de Stermarias company, this afternoon, which I should have to spend by myself, seemed to me very empty and very melancholy Every now and then I heard the sound of the lift coming up, but it was followed by a second sound, not that for which I was hoping, namely the sound of its coming to a halt at our landing, but another very different sound which the lift made in continuing its progress to the floors above and which, because it so often meant the desertion of my floor when I was expecting a visitor, remained for me at other times, even when I had no wish to see anyone, a sound lugubrious in itself, in which there echoed, as it were, a sentence of solitary confinement. Weary, resigned, busy for several hours still over its immemorial task, the grey day stitched its shimmering needlework of light and shade, and it saddened me to think that I was to be left alone with a thing that knew me no more than would a seamstress who, installed by the window so as to see better while she finished her work, paid no attention to the person present with her in the room. Suddenly, although I had heard no bell, Françoise opened the door to let in Albertine, who came forward smiling, silent, plump, containing in the fulness of her body, made ready so that I might continue living them, come in search of me, the days we had spent together at that Balbec to which I had never since returned. No doubt, whenever we see again a person with whom our relations however trivial they may have been are altered, it is like a juxtaposition of two different periods. For this, we do not require that a former mistress should come to call upon us as a friend, all that we need is the visit to Paris of a person whom we had known in the daily round of some particular kind of life, and that this life should have ceased for us, were it no more than a week ago. On each of Albertines smiling, questioning, blushing features I could read the questions And Madame de Villeparisis? And the dancing-master? And the pastry-cook? When she sat down her back seemed to be saying Gracious! Theres no cliff here you dont mind if I sit down beside you, all the same, as I used to do at Balbec? She was like an enchantress handing me a mirror that reflected time. In this she was like all the people whom we seldom see now but with whom at one time we lived on more intimate terms. With Al-bertine, however, there was something more than this. Certainly, even at Balbec, in our daily encounters, I had always been surprised when she came in sight, so variable was her appearance from day to day. But now it was difficult to recognise her. Cleared of the pink vapour that used to bathe them, her features had emerged like those of a statue. She had another face, or rather she had a face at last her body too had grown. There remained scarcely anything now of the shell in which she had been enclosed and on the surface of which, at Balbec, her future outline had been barely visible This time, Albertine had returned to Paris earlier than usual. As a rule she came only in the spring, which meant that, already disturbed for some weeks past by the storms that were beating down the first flowers, I did not distinguish, in the elements of the pleasure that I felt, the return of Albertine from that of the fine weather. It was enough that I should be told that she was in Paris and that she had called at the house, for me to see her again like a rose flowering by the sea. I cannot say whether it was the desire for Balbec or for herself that overcame me at such moments possibly my desire for her was itself a lazy, cowardly, and incomplete method of possessing Balbec, as if to possess a thing materially, to take up ones abode in a town, were equivalent to possessing it spiritually. Besides, even materially, when she was no longer posed by my imagination before a horizon of sea, but sitting still in a room with me, she seemed to me often a very poor specimen of a rose, so poor, indeed, that I would gladly have shut my eyes in order not to observe this or that blemish of its petals, and to imagine instead that I was inhaling the salt air on the beach I must say it at this point, albeit I was not then aware of what was to happen only later on. Certainly, it is more reasonable to devote ones life to women than to postage stamps or old snuff-boxes, even to pictures or statues. Only the example of other collectors should be a warning to us to make changes, to have not one woman only but several. Those charming suggestions in which a girl abounds of a sea-beach, of the braided hair of a statue in church, of an old print, of everything that makes one see and admire in her, whenever she appears, a charming composition, those suggestions are not very stable. Live with a woman altogether and you will soon cease to see any of the things that made you love her though I must add that these two sundered elements can be reunited by jealousy. If, after a long period of life in common, I was to end by seeing nothing more in Albertine than an ordinary woman, an intrigue between her and some person whom she had loved at Balbec would still suffice, perhaps, to reincorporate in her, to amalgamate the beach and the unrolling of the tide. Only, as these secondary suggestions no longer captivate our eyes, it is to the heart that they are perceptible and fatal. We cannot, under so dangerous a form, regard the repetition of the miracle as a thing to be desired. But I am anticipating the course of years. And here I need only state my regret that I did not have the sense simply to have kept my collection of women as people keep their collections of old quizzing glasses, never so complete, in their cabinet, that there is not room always for another and rarer still Departing from the customary order of her holiday movements, this year she had come straight from Balbec, where furthermore she had not stayed nearly so late as usual. It was a long time since I had seen her, and as I did not know even by name the people with whom she was in the habit of mixing in Paris, I could form no impression of her during the periods in which she abstained from coming to see me. These lasted often for quite a time. Then, one fine day, in would burst Albertine whose rosy apparitions and silent visits left me little if any better informed as to what she might have been doing in an interval which remained plunged in that darkness of her hidden life which my eyes felt little anxiety to pierce This time, however, certain signs seemed to indicate that some new experience must have entered into that life. And yet, perhaps, all that one was entitled to conclude from them was that girls change very rapidly at the age which Albertine had now reached. For instance, her intellect was now more in evidence, and on my reminding her of the day when she had insisted with so much ardour on the superiority of her idea of making Sophocles write My dear Racine, she was the first to laugh, quite wholeheartedly, at her own stupidity. Andrée was quite right it was stupid of me, she admitted. Sophocles ought to have begun Sir. I replied that the Sir, and Dear Sir, of Andrée were no less comic than her own My dear Racine, or Gisèles My dear Friend, but that after all the really stupid people were the Professors who still went on making Sophocles write letters to Racine. Here, however, Albertine was unable to follow me. She could not see in what the silliness consisted her intelligence was dawning, but had not fully developed. There were other more attractive novelties in her I felt, in this same pretty girl who had just sat down by my bed, something that was different and in those lines which, in ones eyes and other features, express ones general attitude towards life, a change of front, a partial conversion, as though there had now been shattered those resistances against which I had hurled my strength in vain at Balbec, one evening, now remote in time, on which we formed a couple symmetrical with but the converse of our present arrangement, since then it had lieen she who was lying down and I who sat by her bedside. Wishing and not venturing to make certain whether now she would let herself be kissed, every time that she rose to go I asked her to stay beside me a little longer. This was a concession not very easy to obtain, for albeit she had nothing to do otherwise she would have rushed from the house she was a person methodical in her habits and moreover not very gracious towards me, scarcely to be at ease in my company, and yet each time, after looking at her watch, she sat down again at my request until finally she had spent several hours with me without my having asked her for anything the things I was saying to her followed logically those that I had said during the hours before, and bore no relation to what I was thinking about, what I desired from her, remained indefinitely parallel. There is nothing like desire for preventing the thing one says from bearing any resemblance to what one has in ones mind. Time presses, and yet it seems as though we were seeking to gain time by speaking of subjects absolutely alien to that by which we are obsessed. We then arrange that the sentence which we should like to utter shall be accompanied, or rather preluded, by a gesture, supposing that is to say that we have not to give ourselves the pleasure of an immediate demonstration and to gratify the curiosity we feel as to the reactions which will follow it, without a word said, without even a By your leave, already made this gesture. Certainly I was not in the least in love with Albertine child of the mists outside, she could merely content the imaginative desire which the change of weather had awakened in me and which was midway between the desires that are satisfied by the arts of the kitchen and of monumental sculpture respectively, for it made me dream simultaneously of mingling with my flesh a substance different and warm, and of attaching at some point to my outstretched body a body divergent, as the body of Eve barely holds by the feet to the side of Adam, to whose body hers is almost perpendicular, in those romanesque bas-reliefs on the church at Balbec which represent in so noble and so reposeful a fashion, still almost like a classical frieze, the Creation of Woman God in them is everywhere followed, as by two ministers, by two little angels in whom the visitor recognises like winged, swarming summer creatures which winter has surprised and spared cupids from Herculaneum, still surviving well into the thirteenth century, and winging their last slow flight, weary but never failing in the grace that might be expected of them, over the whole front of the porch As for this pleasure which by accomplishing my desire would have set me free from these meditations and which I should have sought quite as readily from any other pretty woman, had I been asked upon what in the course of this endless flow of talk throughout which I took care to keep from Albertine the one thing that was in my mind was based my optimistic hypothesis with regard to her possible complaisances, I should perhaps have answered that this hypothesis was due while the forgotten outlines of Albertines voice retraced for me the contour of her personality to the apparition of certain words which did not form part of her vocabulary, or at least not in the acceptation which she now gave them. Thus she said to roe that Elstir was stupid, and, on my protesting You dont understand, she replied, smiling, I mean that it was stupid of him to behave like that of course I know hes quite a distinguished Person, really. Similarly, wishing to say of the Fontainebleau golf club that it was smart, she declared They are quite a selection. Speaking of a duel that I had fought, she said of my seconds What very choice seconds, and looking at my face confessed that she would like to see me wear a moustache. She even went so far and my chance appeared then enormous as to announce, in a phrase of which I would have sworn that she was ignorant a year earlier, that since she had last seen Gisèle there had passed a certain lapse of time. This was not to say that Albertine had not already possessed, when I was at Balbec, a quite adequate assortment of those expressions which reveal at once that ones people are in easy circumstances, and which, year by year, a mother passes on to her daughter just as she bestows on her, gradually, as the girl grows up, on important occasions, her own jewels. It was evident that Albertine had ceased to be a little girl when one day, to express her thanks for a present which a strange lady had given her, she had said I am quite confused. Mme. Bontemps could not help looking across at her husband whose comment was Gad, shes old for fourteen. The approach of nubility had been more strongly marked still when Albertine, speaking of another girl whose tone was bad, said One cant even tell whether shes pretty, she paints her face a foot thick. Finally, though still a schoolgirl, she already displayed the manner of a grown woman of her upbringing and station when she said, of some one whose face twitched I cant look at him, because it makes me want to do the same, or, if some one else were being imitated The absurd thing about it is that when you imitate her voice you look exactly like her. All these are drawn from the social treasury. But it did not seem to me possible that Albertines natural environment could have supplied her with distinguished, used in the sense in which my father would say of a colleague whom he had not actually met, but whose intellectual attainments he had heard praised It appears hes quite a distinguished person. Selection, even when used of a golf club, seemed to me as incompatible with the Simonet family as it would be if preceded by the adjective Natural, with a text published centuries before the researches of Darwin. Lapse of time struck me as being of better augury still. Finally there appeared the evidence of certain upheavals, the nature of which was unknown to me, but sufficient to justify me in all my hopes when Albertine announced, with the satisfaction of a person whose opinion is by no means to be despised To my mind, that is the best thing that could possibly happen. I regard it as the best solution, the stylish way out. This was so novel, so manifestly an alluvial deposit giving one to suspect such capricious wanderings over soil hitherto unknown to her, that on hearing the words to my mind I drew Albertine towards me, and at I regard made her sit on the side of my bed No doubt it does happen that women of moderate culture, on marrying well-read men, receive such expressions as part of their paraphernalia. And shortly after the metamorphosis which follows the wedding night, when they begin to pay calls, and talk shyly to the friends of their girlhood, one notices with surprise that they have turned into matrons if, in deciding that some person is intelligent, they sound both ls in the word but that is precisely the sign of a change of state, and I could see a difference when I thought of the vocabulary of the Albertine I had known of old a vocabulary in which the most daring flights were to say of any unusual person Hes a type, or, if you suggested a game of cards to her Ive no money to lose, or again, if any of her friends were to reproach her, in terms which she felt to be undeserved That really is magnificent! an expression dictated in such cases by a sort of middle-class tradition almost as old as the Magnificat itself, and one which a girl slightly out of temper and confident that she is in the right employs, as the saying is, quite naturally, that is to say because she has learned the words from her mother, just as she has learned to say her prayers or to greet a friend. All these expressions Mme. Bontemps had imparted to her at the same time as her hatred of the Jews and her feeling for black, which was always suitable and becoming, indeed without any formal instruction, but as the piping of the parent goldfinches serves as a model for that of the young ones, recently hatched, so that they in turn grow into true goldfinches also. But when all was said, selection appeared to me of alien growth and I regard encouraging. Albertine was no longer the same which meant that she would not perhaps act, would not react in the same way Not only did I no longer feel any love for her, but I had no longer to consider, as I should have had at Balbec, the risk of shattering in her an affection for myself, which no longer existed. There could be no doubt that she had long since become quite indifferent to me. I was well aware that to her I was in no sense a member now of the little band into which I had at one time so anxiously sought and had then been so happy to have secured admission. Besides, as she had no longer even, as in Balbec days, an air of frank good nature, I felt no serious scruples still I believe that what made me finally decide was another philological discovery. As, continuing to add fresh links to the external chain of talk behind which I hid my intimate desire, I spoke, having Albertine secure now on the corner of my bed, of one of the girls of the little band, one smaller than the rest, whom, nevertheless, I had thought quite pretty, Yes, answered Albertine, she reminds me of a little mousmé. There had been nothing in the world to shew, when I first knew Albertine, that she had ever heard the wordmousmé. It was probable that, had things followed their normal course, she would never have learned it, and for my part I should have seen no cause for regret in that, for there is no more horrible word in the language. The mere sound of it makes ones teeth ache as they do when one has put too large a spoonful of ice in ones mouth. But coming from Albertine, as she sat there looking so pretty, not even mousmé could strike me as unpleasant. On the contrary, I felt it to be a revelation, if not of an outward initiation, at any rate of an inward evolution. Unfortunately it was now time for me to bid her good-bye if I wished her to reach home in time for her dinner, and myself to be out of bed and dressed in time for my own. It was Françoise who was getting it ready she did not like having to keep it back, and must already have found it an infringement of one of the articles of her code that Albertine, in the absence of my parents, should be paying me so prolonged a visit, and one which was going to make everything late. But before mousmé all these arguments fell to the ground and I hastened to say Just fancy Im not in the least ticklish you can go on tickling me for an hour on end and I wont even feel it. Really? I assure you. She understood, doubtless, that this was the awkward expression of a desire on my part, for, like a person who offers to give you an introduction for which you have not ventured to ask him, though what you have said has shewn him that it would be of great service to you Would you like me to try? she inquired, with womanly meekness Just as you like, but you would be more comfortable if you lay down properly on the bed. Like that? No get right on top. Youre sure Im not too heavy? As she uttered these words the door opened and Françoise, carrying a lamp, came in. Albertine had just time to fling herself back upon her chair. Perhaps Françoise had chosen this moment to confound us, having been listening at the door or even peeping through the keyhole. But there was no need to suppose anything of the sort she might have scorned to assure herself, by the use of her eyes, of what her instinct must plainly enough have detected, for by dint of living with me and my parents her fears, her prudence, her alertness, her cunning had ended by giving her that instinctive and almost prophetic knowledge of us all that the mariner has of the sea, the quarry of the hunter, and, of the malady, if not the physician, often at any rate the patient. The amount of knowledge that she managed to acquire would have astounded a stranger, and with as good reason as does the advanced state of certain arts and sciences among the ancients, seeing that there was practically no source of information open to them. Her sources were no larger. They were a few casual remarks forming barely a twentieth part of our conversation at dinner, caught on the wing by the butler and inaccurately transmitted to the kitchen. Again, her mistakes were due, like theirs, like the fables in which Plato believed, rather to a false conception of the world and to preconceived ideas than to the insufficiency of the materials at her disposal. Only the other day, has it not been possible for the most important discoveries as to the habits of insects to be made by a scientist who had access to no laboratory and used no instruments of any sort? But if the drawbacks arising from her menial position had not prevented her fr</t>
+          <t>Je n'ai pas d'auto Je n'ai pas de vélo Les trams sont en grève Et je dois aller Voir ma petite poupée Et les heures sont brèves Y a déjà trois heures Que je ballade mon cur Le long des boulevards Pour mieux me faire voir Par les conducteurs J'agite un mouchoir À vot' bon cur Monsieur À vot' bon cur Monsieur Voyez mes fleurs Monsieur Elles vont s'faner Monsieur À vot' bon cur Monsieur À vot' bon cur Monsieur Je vous en prie Monsieur Ne me laissez pas sur le carreau! Ah voilà enfin l'homme Qui mettra fin à cette marche forcée Cet homme est un saint Ce n'est pas en vain Que j'aurai prié Ah! maudit soit-il Ce n'était qu'un fil Qui s'est détaché Une panne de moteur Et le joli cur Voudrait me faire pousser À vot' bon cur Monsieur À vot' bon cur Monsieur Poussez un peu Monsieur Et vous monterez Monsieur Voilà, voilà, Monsieur Mais ne partez pas Monsieur Attendez-moi Monsieur Et me voilà le bec dans l'eau! Ça c'est un peu fort C'est un coup du sort Y a de quoi râler Tant pis si je suis mort Mais je battrai les records De la marche à pied!</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kratos</t>
+          <t>Le M</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tous mes choix sont nauséabonds Jcrois qujai pas bien retenu la leçon Elle me manque cette époque où ça jouait au Sims 2 en caleçon Pour mendormir jcompte mes lacunes Ça marche pas donc jparle à la lune Elle me rappelle que maman est éphémère, quon en a quune Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meillur client En attendant la suite jm console en rêvant Ya des moments où jai envie que dune chose cest dêtre triste et quon mlaisse Ademo ment, même quand jaurai percé jplairai pas à Eva Mendes Temploies des moyens colossaux juste pour que jte cala Dépenses des sommes indécentes pour la mala Ten oublies même de rattraper ta salât Jvis dans ton esprit le loyer est gratos Le seul huissier qui mfera sortir cest une bastos Jte hanterai jusquà la fin dtes jours comme Kratos Jte hanterai jusquà la fin dtes jours comme Kratos Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant Jattends la fin comme le dernier grain du sablier Aucune menace ne me fera plier Tu peux essayer ressayer mais jamais ô grand jamais je rendrai mon tablier Jvais dans la salle du temps pour ne3ess Jaccepte la CB PayPal et les espèces J'suis prêt à faire les efforts qu'il faut pour mettre ma maman à labri Passer du scoot' au classe S Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant</t>
+          <t>Vad händer SJ Kommer med frenchie, mon ami Tabben är på mig, C'est la vie Jag drömmer om sitta i Ferrari Röker på spesh med Melanie Trycker på sport i araban Livet är kort, oh mamma Pull up på opps med Zastava En 450 cross eller Yamaha Jag och min liga dyker upp, tabbar mer än våran trupp Du kan bli klippt här som en lugg, du kan bli skickad som min zutt Araby, Marseille Paname, dunder kush som Amsterdam Skjuter Zinedine Zidane, vi kom med gähts, två i han Oh le mademoiselle, som min tabbe hon är spänd På mig som mig karusell, skakar götten upp och ner Livsstilen kriminell, pengar får oss hämta mer Fem bitches i hotell och allihopa de vill ner Amana sikter, amana vad Jag synar ba fittor och civven där bak Det finns inget filter, här i mitt lag På cliquen, det bilder, aina har span Oh, na, na Kommer in, ingen kan med våran clique Moula-la, hämtar keys, det gröna blad och sten på mitt Det Ramme VV Baby, jag har sett för mycket skit Vad är det med dig? Äkta i min cirkel, bara G's Kommer med frenchie, mon ami Tabben är på mig, C'est la vie Jag drömmer om sitta i Ferrari Röker på spesh med Melanie Trycker på sport i araban Livet är kort, oh mamma Pull up på opps med Zastava En 450 cross eller Yamaha Jag ville va rik, mamma Nu min enda utväg det musik, mamma För min broder, jag tar liv, mamma För min broder, jag kan fucking sitta tid, mamma Brukar höra melodierna, satan viskar i mitt öra Bli criminal Jag litar bara på min bram, för min liga, det kommer ske jappningar Gå fråga AJ, gå fråga M, oppsen är snorungar, skickar dem hem Silähen är orolig, packad och spänd Vi kommer på baxade crossar igen Gå fråga hataren, fråga hans tjej Han snackar ba skit, men hans bitch är på mig Hon gillar min äbi eller min fame Bitchen går ner när hon lyssnar på mig Oh, na, na Kommer in, ingen kan med våran clique Moula-la, hämtar keys, det gröna blad och sten på mitt Det Ramme VV Baby, jag har sett för mycket skit Vad är det med dig? Äkta i min cirkel, bara G's Kommer med frenchie, mon ami Tabben är på mig, C'est la vie Jag drömmer om sitta i Ferrari Röker på spesh med Melanie Trycker på sport i araban Livet är kort, oh mamma Pull up på opps med Zastava En 450 cross eller Yamaha</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Que la mif</t>
+          <t>Différents</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Wuh-uh-uh Persiguiendo al sol Voy contracorriente al andar Pero no me pueden cansar Levantando el polvo para atrás Sé que la batalla acaba de empezar Suenan los tambores del alma Llorando las luces de la alarma Llevo mi bandera a jugar La batalla acaba de empezar Soy caminante en camisa tejana Sigo por el rumbo, voy persiguiendo al sol Subo el río a contracorriente Nadie me detiene, voy persiguiendo al sol A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo al sol A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo, persiguiendo al sol Oh, oh Por todos los que sueñan con triunfar Echando el miedo pa' fuera Por todos los que buscan su lugar Sé que la batalla no acaba ya Dicen que no puedo, qué más da? Yo sigo a mi aire, a mí me da igual Soñando fuerte y además Mi batalla es la única que hay Soy caminante en camisa tejana Sigo por el rumbo, voy persiguiendo al sol Subo el río a contracorriente Nadie me detiene, voy persiguiendo al sol Oh, oh, oh A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo al sol A contracorriente Y aunque caiga la tormenta Yo nunca pierdo la fuerza Este es mi lugar Persiguiendo, persiguiendo al sol Pero cuando me lloren las manos Me lloren la' mano' Ellas me dirán por donde ir Me dirán, me dirán, yeah Dejaré mi huella en cada paso Oh Ellas me enseñaron a vivir A contracorriente La-la-la, la-la-la, la-la La-la-la, la-la-la, la-la Este es mi lugar Persiguiendo al sol A contracorriente La-la-la, la-la-la, la-la La-la-la, la-la-la, la-la Este es mi lugar Persiguiendo, persiguiendo al sol La-la-la, la-la-la, la-la Wuh La-la-la, la-la-la, la-la Este es mi lugar Persiguiendo, persiguiendo al sol</t>
+          <t>Devant le R comme le Q Eh Là, c'est TIGRI Tu veux que j'te montre c'est quoi un rappeur, enculé ? J'suis pas pédé mais j'vais t'enculer J'ai pas peur de l'dire j'suis l'meilleur du secteur, j'me mélange pas, moi, j'suis sectaire Yes J'te prends pour témoin, t'es comme mon frère, appelle si ça té-mon J'ai un flow d'enfer Yes, c'est pour ça que t'as l'démon Moi, j'suis différent comme Ademo donc j'sais pas si j'fais parti du commun des mortels OATS, j'avais FIFA mais c'était que la démo' Grr Tu vois qu'j'fais des sous avec ma bouche et tu sous-estimes encore le pouvoir des mots Le légiste va au travail pour voir des morts, les jaloux travaillent pour pas me voir ter-mon Han Cagoulé, ganté, personne peut voir ta tête, cagoulé, ganté, personne peut voir tes mains Là, c'est Beendo dans tes écouteurs Han, faut pas m'écouter dans une Mini Cooper T'as tort Faut pas m'écouter dans une Fiat 500, sale pute Sale pute Toi, t'es une fiotte, ça s'sent, sale pute, tu sers à rien comme un bigo sans sa puce Grr Tout l'monde se prend pour Usain Bolt ou pour Kylian Mbappé quand ça pue Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Ouh, oui Escorte de luxe 7.5 sur Instagram, c'est moi je recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Yes Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Là, c'est TIGRI Le son va s'reprendre comme une pandémie et si j'balance mes potos, pendez-moi Beendo Le te-shi est mou comme du pain de mie et y a pas de preuves si y a pas de témoins Eh, Beendo J'vais visser en période de confinement, le ient-cli m'parle, il croit que j'suis son confident J'vais visser en période de confinement, le ient-cli m'parle, il croit que j'suis son confident J'veux bien faire un chrome Wesh, t'es con ou quoi ? mais faut être bête pour faire confiance à un drogué Les cailloux, c'est contre de l'argent qu'j'vais les troquer Hein, elle veut trop ken mais elle est trop conne Si y a un plan, j'suis comme le temps en été, ils font la mala en boîte et en étant endettés Hein J'veux une go gée-char, un Audi TT J'me suis fait mêler, vas-y, dis où t'étais J'connais des mecs qui roulent en Merco, j'connais des mecs qui roulent en moins d'deux Des ients-cli pour le shit, des ients-cli pour la beuh, si y a plus rien, j'te dis et tu reviens main-de Viens-là Mais j'veux pas finir comme les Dalton, j'détaille une 'quette, j'te parle pas de Middleton Viens J'vais pas t'courir après, ramène mes tales, toi, j'ai des dix et des vingts donc t'as l'choix Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute Grr T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Grr Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Pah Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Ouh, oui Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Grr Beendo</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hasta la vista</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Comincio con le flessione sui pugni, solo pieno, coglione T-shirt Dior, credo che mi manchi più della vista sul mare, coglione Esito fra un bicchiere di Jack o meglio una Coca fresca Frate, è la miseria DZ, non chiedere perché ti attacchiamo Metà forza, metà tahia Esplosivo dalla nascita, 9.1 100, esclusi, esclusi Determinato, tengo il palazzo come Dende, uno-due Auto banalizzata, poi senti arrivare i poliziotti arrivare, arriba N'da, modalità sopravvivenza nel bando Forse, banco, si spaccia, ma non è Cali, uomo A traverso i miei LV, mi sento così bene Mi ricordo quando non ero nulla, quando sorvolavo i terrestri, due titani Banconota da 500, aspetto, tu, puoi detestarmi Sono dimagrito per ingrassarmi meglio, tu sembra che potresti testarmi, da quando? Vegeta e Mowgli, fin da piccolo troppo arrabbiato Dei soldi o un cazzo, erba data a Hervé Si fuma come Escobar, davanti a Julie Lescaut Nel quartiere c'è il truffatore, nel quartiere c'è Rico Nel forno, c'è Ademo, aperta la cassetta delle lettere Non lontano dal commissariato, il poliziotto vuole conoscermi Sono nel mio mondo, ho la mia boa, ho la mia canna, il mio playback su Acadian Sono incantato che il mio odio vi piaccia Incantato che vi fottiamo Hasta la vista, hasta la vista Hasta la vista, si vedrà La povertà non ci manca, questi momenti forse Ancora uno o due album e poi un po' d'aria Hasta la vista, hasta la vista Hasta la vista, si vedrà Sono rimasto in basso più tardi per fare più soldi La sedia è rimasta in fondo nell'atrio, io non sono più là Guardo il cielo, il sole carezza la mia anima Cresciuto nel bando, la miseria bacia il tuo cranio Inebriato, voglia di essere Voglia anche di liberarmi Ciao Calinta, chiamami sulla mia Lyca Giro a Parigi, essere felice non ce la faccio, sulla mia vita, sì Quindi riconto il bottino, sulla vista del tuo fondo tinta, PNL non pompa Tutto questo, non è la mia vita, la mia vita, la mia vita Non voglio più il tuo culo, non voglio più il tuo cuore, sei diventata noiosa Più niente di speciale, sei diventata banale come una banconota da 500 Sono nel mio mondo, ho la mia boa, ho la mia canna, il mio playback su Acadian Sono incantato che il mio odio vi piaccia Incantato che vi fottiamo Hasta la vista, hasta la vista Hasta la vista, si vedrà La povertà non ci manca, questi momenti forse Ancora uno o due album e poi un po' d'aria Hasta la vista, hasta la vista Hasta la vista, si vedrà</t>
+          <t>Solo quedan Esas puertas rotas que dejó el reloj Cuando tú llegaste No pude respirar ni controlar Las palabras que salieron Balas que viajaron lejos No supimos detenernos No supimos contenernos Hicimos fuego y ahora ardemos Y ahora ardemos Y ahora ardemos Hicimos fuego y ahora Tratamos de hablar, tratamos de continuar Pero no pudiste escuchar Nunca me supiste valorar A veces me pregunto cómo sigo vivo Si lo que necesito al final se fue contigo No puedo dormir, apenas scribir Todo esto que siento por ti Pro yo ya me di cuenta que Yo te amé y te supliqué Y tú nunca hiciste nada porque nunca te importé Yo te amé a ciegas y valiente Tú me amaste pero no lo suficiente Hicimos fuego y ahora ardemos, mmm Y ahora ardemos Hicimos fuego y ahora ardemos Y ahora ardemos Hicimos fuego y ahora</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sur Paname</t>
+          <t>Comme pas deux</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>J'dois tout plier sur cette putain de prod Mais j'oublie tout sur cette putain d'mélo Le chemin parcouru fait une putain de trotte Mes exs reviennent et lâchent des hello Oh, oh, oh, oh Sauf que ma vie maintenant c'est une putain d'blague J'ai pas les thunes pour une putain d'bague Mes exs reviennent disent Guten Tag Tag, tag, tag, tag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wi Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Tu m'as quittée j'était moch Loin d'être une star de cinoche car Huh, huh 19 ans, mains dans les poches Loin de la vie d'Inox- Tag Huh, huh Toutes mes blagues c'était des flops Je t'aimais mais c'était pas ça Tu m'as mis un stop! Tu m'as mis un stop J't'ai mis un cédez l'passage Je t'ai jamais traité de tasse Tu veux me détester Trouve moi entre Vaise et Tassin Trouve moi sur MTP J't'aimais mais j'préfère ta soeur Disons qu'j'ai juste testé, Ok! Tu peux me détester Mes exs reviennent disent Guten Tag Tag, tag, tag, tag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Mes ex reviennent en même temps que mes démons A croire qu'elles se sont passé le mot Le venin dans les veines qui me démonte Je veux pas rentrer dans le jeu mais je suis pas contre Creuser ma putain de tombe Demande pas l'aumône ouais laisse moi un mémo Je déphase puis traîne sur Paname comme Ademo Au fond de l'eau comme Nemo Sirène me prend pour un clown Je fais semblant de rester clean Je lui met une clim Ouais no problemo Entouré de mes chicas Je me bousille les chicots Je suis pas dans la bicrave mais check pas mon bigo Amiga Amigo Amiga, Amigo Je me laisse ferrer par les belles sommes Quand je baise fort, cette belle prod Les images dans ma te-té qui se déforment c'est très sport Les vapeurs de la te-boi Me rappellent que je ne fais que boire A la base je ne voulais que toi Tu reviens je fais aucun effort J'dois tout plier sur cette putain de prod Mais j'oublie tout sur cette putain d'mélo Le chemin parcouru fait une putain de trotte Mes exs reviennent et lâchent des hello Oh, oh, oh, oh Sauf que ma vie maintenant c'est une putain d'blague J'ai pas les thunes pour une putain d'bague Mes exs reviennent disent Guten Tag Tag, tag, tag, tag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag Hmm, Hmm La, la, la, la, la Tag, tag, tag Hmm, Hmm Ma vie c'est une blague Tag, tag, tag Hmm, Hmm Wie Geht's? Guten tag Tag, tag, tag Hmm, Hmm Ouai un putain d'gag</t>
+          <t>Y'en à qui tirent, yen a qui friment mais bon qui font de la peine Y'en a qui puise dans la cachette y'en a qui font de la chaine Vaincus yen a qui chient et y'en a qui se la prenne dans l'urètre Y'a ceux qui donnent les coups et ceux qui finissent dans la del Y'en a qui se présèrvent et celles qui se font à l'hotel Y'en a des hlels mais qui finiront dans l'haram à long terme Yen a des musclors qui se pissent dessus devant des maigres Ya ceux qui resortent du chiffre et ceux qui resortent des lettres Y'a ya y'a y'a ceux qui parlent, y'a ya y'a y'a ceux qui agissent Y'a y'a y'a y'a ceux qui enhh y'a ceux qui crr y'a ceux qui brr Y'en a qui se prennent des carottes y'a ceux qui mettent des bananes Y'a ceux qui croient qu'en la drogue y'a ceux qui vend la salade Y'en a qui s'entraident y'en a qui garde jusqu'à un radis Y'en a pour l'enfer y'en aura pas bezef pour le paradis Y'en a qui sont des rappeurs et y'en a qui le sont pas, y'en a qui sont comme moi des mecs de la rue qui encule le rap et son argent Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc et vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a beaucoup des flipettes comme toi Authentique crois moi y'en a pas deux comme moi J'rap avec la mif, le rap c'est à moi, injection sonore vla qu'le rap est frère siamois J'suis OP, j'ai toujours sur moi une paire de gants La maison est grande ouverte j'hesite pas à rentrer dedans Si tu parles j'hesiterai pas à te rentrer dedans Prépare toi à perdre ta langue et puis tes 32 dents Y'en a qui se battent pour manger, qu'on peur du danger, ne trouvent rien d'autre à faire à part attendre et mendier Pas du genre à se mélanger, le bien le mal faut trancher Y'a des fous y'a des barges qu'hésiteraient pas à se venger Décider à pas se ranger, on est venus pour déranger Une feuille blanche, un stylo bic et j'decalque toutes mes pensées Habitués au danger, on est en France pour manger, demain c'est la fête des porcs jvais tous les égorgés Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a qui pensent que le rap est mort et que les mc ont sucombés Y'en a qui pensent qu'on est trop forts et que ton flow est nul à chier Y'en a qui veulent un corps parfait, pendant qu'tous sont bousillés Y'en à qui veulent des gros gamos alors qu'ils sont toujours à pieds Y'en a qui pensent qu'on est hardcore et qu'on ne reculera jamais Y'en a qui veulent croquer le monde alors qu'ils sont pas respectés Y'en a qui, y'en a qui friment, y'en a qui bedavent qui crapotent Frères sont ceux qui savent comment couper une sav' qui restent brave C'est parce que y'en a qui parlent toujours et qui en font le moins, dès que ca part en couilles ils ouvrent tout le temps le cul coffret dans le coin Oui y'en a, y'en a qui galèrent dans les halls, et sa part en taule, dédicase à MC anonyme ma deuxième épaule Y'en a qui gardent la bouche cousue aux interrogatoires, contrairement à ceux qui parlent pour un café noir Donc à tous ces fils de putes, nos chemins se croiseront parce que l'on efface jamais cqu'on balance à l'audition Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler c'est fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, Ademo son des halls, Spike la pioche, Illinas Nastia la mode</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cœurs</t>
+          <t>Sheita</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Je n'ai pas d'auto Je n'ai pas de vélo Les trams sont en grève Et je dois aller Voir ma petite poupée Et les heures sont brèves Y a déjà trois heures Que je ballade mon cur Le long des boulevards Pour mieux me faire voir Par les conducteurs J'agite un mouchoir À vot' bon cur Monsieur À vot' bon cur Monsieur Voyez mes fleurs Monsieur Elles vont s'faner Monsieur À vot' bon cur Monsieur À vot' bon cur Monsieur Je vous en prie Monsieur Ne me laissez pas sur le carreau! Ah voilà enfin l'homme Qui mettra fin à cette marche forcée Cet homme est un saint Ce n'est pas en vain Que j'aurai prié Ah! maudit soit-il Ce n'était qu'un fil Qui s'est détaché Une panne de moteur Et le joli cur Voudrait me faire pousser À vot' bon cur Monsieur À vot' bon cur Monsieur Poussez un peu Monsieur Et vous monterez Monsieur Voilà, voilà, Monsieur Mais ne partez pas Monsieur Attendez-moi Monsieur Et me voilà le bec dans l'eau! Ça c'est un peu fort C'est un coup du sort Y a de quoi râler Tant pis si je suis mort Mais je battrai les records De la marche à pied!</t>
+          <t>Verse 1 Sheila Adamo Siddy Mitzvah The first thing Im gon talk about is niqqas on the low niqqas on low Whatever you wanna do just do right now and keep it cool keep it cool, keep it cool They be catching feelings now yeah they be catching feeling now yeah Thats why they feeling typa way yeah these niqqas feeling typa way yeah We aint got lot to say yeah we aint got lotta to say We putting work instead of words yeah putting, putting, this work on a work I see niqqas worried coz lotta people follow me now yeah these niqqas is falling, them niqqas they falling yeah We putting work instead of words yeah yeah yeah yeah, yeah yeah yeah We aint going down down down never go down, we never go down We be feeling high high high feeling so high So get it feeling, scr scr scr Hook Sheila Adamo Siddy Mitzvah Work Get that work, get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Get it then get it and get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Scr scr scr Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it Verse 2 Siddy Mitzvah Sheila Adamo So get it watch me take it Dont split it like that I dont feel it Put enough work on it dont let me squeeze Catch the vibe and catch the feelings With my niqqas I gotta show them how we do it Till u Catch me riding as a passenger And Im moving on to my new character Drop your weapons when my niqqas get in to the club So Drop drop drop Shiit! Ok, I see ya...I wanna see ya Trying to kill a vibe of a lil niqqa..... killin? you ain't killin my niqqas She wanted to put in work just for my hitter.....scr, scr, scr, scr, scr I started this thing way before you join us..... straight up When I thought Id go down Got elevator Hook Sheila Adamo Siddy Mitzvah Work Get that work, get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Get it then get it and get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Scr scr scr Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it Verse 3 Siddy Mitzvah Sheila Adamo Everything I wanna That what Im gon conquer I be hearing compliments I be feeling a much hating for I been done ay Dont let em you can go goooo Dont let em get you too close tooo clooose! We wasted a lotta time in this thing lost a lotta niqqas in this thing Now we all running after an investment We trying prove yall we can get it....my niqqa can get it, my niqqa can get it Thats why we putting work instead of....we putting work instead of word We putting work instead of words.....we putting this work instead of word We putting work instead Outro Sheila Adamo We gon get it work yeaahhh 2x Nah nah nah 3x We putting work, instead of words</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Le M</t>
+          <t>Celsius</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Vad händer SJ Kommer med frenchie, mon ami Tabben är på mig, C'est la vie Jag drömmer om sitta i Ferrari Röker på spesh med Melanie Trycker på sport i araban Livet är kort, oh mamma Pull up på opps med Zastava En 450 cross eller Yamaha Jag och min liga dyker upp, tabbar mer än våran trupp Du kan bli klippt här som en lugg, du kan bli skickad som min zutt Araby, Marseille Paname, dunder kush som Amsterdam Skjuter Zinedine Zidane, vi kom med gähts, två i han Oh le mademoiselle, som min tabbe hon är spänd På mig som mig karusell, skakar götten upp och ner Livsstilen kriminell, pengar får oss hämta mer Fem bitches i hotell och allihopa de vill ner Amana sikter, amana vad Jag synar ba fittor och civven där bak Det finns inget filter, här i mitt lag På cliquen, det bilder, aina har span Oh, na, na Kommer in, ingen kan med våran clique Moula-la, hämtar keys, det gröna blad och sten på mitt Det Ramme VV Baby, jag har sett för mycket skit Vad är det med dig? Äkta i min cirkel, bara G's Kommer med frenchie, mon ami Tabben är på mig, C'est la vie Jag drömmer om sitta i Ferrari Röker på spesh med Melanie Trycker på sport i araban Livet är kort, oh mamma Pull up på opps med Zastava En 450 cross eller Yamaha Jag ville va rik, mamma Nu min enda utväg det musik, mamma För min broder, jag tar liv, mamma För min broder, jag kan fucking sitta tid, mamma Brukar höra melodierna, satan viskar i mitt öra Bli criminal Jag litar bara på min bram, för min liga, det kommer ske jappningar Gå fråga AJ, gå fråga M, oppsen är snorungar, skickar dem hem Silähen är orolig, packad och spänd Vi kommer på baxade crossar igen Gå fråga hataren, fråga hans tjej Han snackar ba skit, men hans bitch är på mig Hon gillar min äbi eller min fame Bitchen går ner när hon lyssnar på mig Oh, na, na Kommer in, ingen kan med våran clique Moula-la, hämtar keys, det gröna blad och sten på mitt Det Ramme VV Baby, jag har sett för mycket skit Vad är det med dig? Äkta i min cirkel, bara G's Kommer med frenchie, mon ami Tabben är på mig, C'est la vie Jag drömmer om sitta i Ferrari Röker på spesh med Melanie Trycker på sport i araban Livet är kort, oh mamma Pull up på opps med Zastava En 450 cross eller Yamaha</t>
+          <t>Aiyo, it's the Concentration Camp The Arsenal, the return Merciless You emcees got alot to worry about Y'all salute Yo, it's the raw ferocious The body hard-metal soloist A poisionous comb with a strike to the throat to kill opponents It's still hopeless, I'm still arming verbal explosives I'm still the coldest, I'm still the sickest, the diagnosis I promised y'all before Moses The promise I gave emcees Still ain't no different from what a bible oath is A promise with a right hand, y'all fools can testify Define the illest emcee, the machine can detect a lies I specialize in street rhymes and telling war tales The forecast when I brainstorm raps is all hell I dare somebody to brag, I'll leave them hostage gagged The modest'll stab fast as a hand through a speed bag 'Cause I'm a battle cat, like in Iraq with a battle rap Comin' out of a red flat with a gat and anthrax I'm like 212 degrees celsius hotter Beef or more live, the shiverless is getting slottered Give me 5 mics Recognize...the illest...emcee...no doubt...coming through with the roughness Recognize...the illest...emcee...better beleive that They say me and mics are like Jesus Christ and a bible scrolls And me and mics is like Faith and Joe when they hatin' foes My name exposed in 96 in a demo battles After the Rap Essentials, the critics became the battle I wrote the first of military verse in double barrels The first to spit Kadafi, and the first to use the nazis The first to talk about desciples and the Vietnamese Or hang draft in trees and invade with M-16's Sharper than guillotines to switch blades my spit plauges Invades like Y2K's and sprays with verbal bullets Including gernades, with no pins, my tounge pulled it Bleed in fatigues, my flow's mud and sea weed You eatin' me is like David in a fight with Golaith Me eatin you is like the stones in the sling before he fired 'em Still the nicest, take any mic alive and leave it lifeless You soon read about me in the Unsigned Hype shit Give me 5 mics It's through the birth of skills, reincarnated, born again Cutting the imbellicale cord, the ill emcee's born with a pen You fucked your article, rappers done wanna criticise I'm different than Nas, the only thing be saying we both wise But otherwise I'm raw, the lord of metaphores Strong as a pitbull's jaws, can chill with 48 bars The hardest soloist, never speaks with hard poses It's animated with fake hugs in the showbiz I'm being hated and underrated, but still I made it Got sick of this shit till everything I spit's contaminated You know the albums of emcees that barely spit themselves Pay enough ill emcees just to make they shit sell I spit napom, tick-ass raps evacuate I'm a 4 second left time bomb, rap detonate So fuck y'all if signing me's not negoitable Just one of my metaphores deserve the hip-hop quotable Give me five mics</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Différents</t>
+          <t>La vie est belle</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Devant le R comme le Q Eh Là, c'est TIGRI Tu veux que j'te montre c'est quoi un rappeur, enculé ? J'suis pas pédé mais j'vais t'enculer J'ai pas peur de l'dire j'suis l'meilleur du secteur, j'me mélange pas, moi, j'suis sectaire Yes J'te prends pour témoin, t'es comme mon frère, appelle si ça té-mon J'ai un flow d'enfer Yes, c'est pour ça que t'as l'démon Moi, j'suis différent comme Ademo donc j'sais pas si j'fais parti du commun des mortels OATS, j'avais FIFA mais c'était que la démo' Grr Tu vois qu'j'fais des sous avec ma bouche et tu sous-estimes encore le pouvoir des mots Le légiste va au travail pour voir des morts, les jaloux travaillent pour pas me voir ter-mon Han Cagoulé, ganté, personne peut voir ta tête, cagoulé, ganté, personne peut voir tes mains Là, c'est Beendo dans tes écouteurs Han, faut pas m'écouter dans une Mini Cooper T'as tort Faut pas m'écouter dans une Fiat 500, sale pute Sale pute Toi, t'es une fiotte, ça s'sent, sale pute, tu sers à rien comme un bigo sans sa puce Grr Tout l'monde se prend pour Usain Bolt ou pour Kylian Mbappé quand ça pue Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Ouh, oui Escorte de luxe 7.5 sur Instagram, c'est moi je recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Yes Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Là, c'est TIGRI Le son va s'reprendre comme une pandémie et si j'balance mes potos, pendez-moi Beendo Le te-shi est mou comme du pain de mie et y a pas de preuves si y a pas de témoins Eh, Beendo J'vais visser en période de confinement, le ient-cli m'parle, il croit que j'suis son confident J'vais visser en période de confinement, le ient-cli m'parle, il croit que j'suis son confident J'veux bien faire un chrome Wesh, t'es con ou quoi ? mais faut être bête pour faire confiance à un drogué Les cailloux, c'est contre de l'argent qu'j'vais les troquer Hein, elle veut trop ken mais elle est trop conne Si y a un plan, j'suis comme le temps en été, ils font la mala en boîte et en étant endettés Hein J'veux une go gée-char, un Audi TT J'me suis fait mêler, vas-y, dis où t'étais J'connais des mecs qui roulent en Merco, j'connais des mecs qui roulent en moins d'deux Des ients-cli pour le shit, des ients-cli pour la beuh, si y a plus rien, j'te dis et tu reviens main-de Viens-là Mais j'veux pas finir comme les Dalton, j'détaille une 'quette, j'te parle pas de Middleton Viens J'vais pas t'courir après, ramène mes tales, toi, j'ai des dix et des vingts donc t'as l'choix Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute Grr T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Grr Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Pah Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Ouh, oui Escorte de luxe 7.5 sur Instagram, c'est moi j'recrute T'as ouvert ta gueule sur les réseaux, j'sors un truc et c'est toi qui recule Fuck la BAC, la BST, le 17, les poulets, on va leur cuir le cul Moi, j'voulais tellement les écus, j'me suis mis devant le R comme le Q Grr Beendo</t>
+          <t>Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas t'cacher que la vie est belle Seul avec du monde autour, seul avec du monde autour Seul avec du monde autour J'habitais dans une ville de merde avec la Tour Eiffel dedans Où les gens sont tristes et pressés, où les gens pleurent en marchant Mais j'viens de prendre une maison près d'Caen où ma famille passe les dimanches Ma grand-mère part à la messe pendant que ma nièce regarde Les Anges En chausson dans mes crocs, j'emmène ma zouz' au mini-golf On vit avant d'avoir des gosses, ouais, ouais Ensemble comme alcool et clope, j'm'en branle, j'écoute que d'la K-Pop Trottinette électrique de cross, ouais, ouais Mon meilleur pote vient faire d'la boxe, j'fais que d'me faire péter la gueule On retrouve les gars, parle de vrais trucs genre La vérité sur les meufs J'me lève à huit heures pour écrire, j'suis clairement pas un vrai rappeur Soirée karaoké, j'chante Au DD, Ademo, c'est ma sur Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Seul avec du monde autour, seul avec du monde autour Seul avec du monde autour J'habite juste à côté de la mer, on se baigne jamais parce qu'elle est froide J'suis content rien que d'la voir, avant, j'voyais que l'immeuble d'en face J'essaie d'apprendre à cuisiner, genre de faire autre chose que des pâtes Une fois sur deux, j'rate mes plats donc en attendant, j'mange des pâtes J'ai max une barre de 3G, lève le bras pour capter Vingt minutes pour mater une vidéo qu'en fait quatre, ouais J'rejoins mon père au stade, on prend deux buts, on prend deux bières J'retourne chez moi j'allume Fifa, j'reprends Malherbe, j'continue d'perdre, ouais Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Seul avec du monde autour1</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Plus Tony que Sosa</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Solo quedan Esas puertas rotas que dejó el reloj Cuando tú llegaste No pude respirar ni controlar Las palabras que salieron Balas que viajaron lejos No supimos detenernos No supimos contenernos Hicimos fuego y ahora ardemos Y ahora ardemos Y ahora ardemos Hicimos fuego y ahora Tratamos de hablar, tratamos de continuar Pero no pudiste escuchar Nunca me supiste valorar A veces me pregunto cómo sigo vivo Si lo que necesito al final se fue contigo No puedo dormir, apenas scribir Todo esto que siento por ti Pro yo ya me di cuenta que Yo te amé y te supliqué Y tú nunca hiciste nada porque nunca te importé Yo te amé a ciegas y valiente Tú me amaste pero no lo suficiente Hicimos fuego y ahora ardemos, mmm Y ahora ardemos Hicimos fuego y ahora ardemos Y ahora ardemos Hicimos fuego y ahora</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Comme pas deux</t>
+          <t>Bang</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Y'en à qui tirent, yen a qui friment mais bon qui font de la peine Y'en a qui puise dans la cachette y'en a qui font de la chaine Vaincus yen a qui chient et y'en a qui se la prenne dans l'urètre Y'a ceux qui donnent les coups et ceux qui finissent dans la del Y'en a qui se présèrvent et celles qui se font à l'hotel Y'en a des hlels mais qui finiront dans l'haram à long terme Yen a des musclors qui se pissent dessus devant des maigres Ya ceux qui resortent du chiffre et ceux qui resortent des lettres Y'a ya y'a y'a ceux qui parlent, y'a ya y'a y'a ceux qui agissent Y'a y'a y'a y'a ceux qui enhh y'a ceux qui crr y'a ceux qui brr Y'en a qui se prennent des carottes y'a ceux qui mettent des bananes Y'a ceux qui croient qu'en la drogue y'a ceux qui vend la salade Y'en a qui s'entraident y'en a qui garde jusqu'à un radis Y'en a pour l'enfer y'en aura pas bezef pour le paradis Y'en a qui sont des rappeurs et y'en a qui le sont pas, y'en a qui sont comme moi des mecs de la rue qui encule le rap et son argent Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc et vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a beaucoup des flipettes comme toi Authentique crois moi y'en a pas deux comme moi J'rap avec la mif, le rap c'est à moi, injection sonore vla qu'le rap est frère siamois J'suis OP, j'ai toujours sur moi une paire de gants La maison est grande ouverte j'hesite pas à rentrer dedans Si tu parles j'hesiterai pas à te rentrer dedans Prépare toi à perdre ta langue et puis tes 32 dents Y'en a qui se battent pour manger, qu'on peur du danger, ne trouvent rien d'autre à faire à part attendre et mendier Pas du genre à se mélanger, le bien le mal faut trancher Y'a des fous y'a des barges qu'hésiteraient pas à se venger Décider à pas se ranger, on est venus pour déranger Une feuille blanche, un stylo bic et j'decalque toutes mes pensées Habitués au danger, on est en France pour manger, demain c'est la fête des porcs jvais tous les égorgés Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a qui pensent que le rap est mort et que les mc ont sucombés Y'en a qui pensent qu'on est trop forts et que ton flow est nul à chier Y'en a qui veulent un corps parfait, pendant qu'tous sont bousillés Y'en à qui veulent des gros gamos alors qu'ils sont toujours à pieds Y'en a qui pensent qu'on est hardcore et qu'on ne reculera jamais Y'en a qui veulent croquer le monde alors qu'ils sont pas respectés Y'en a qui, y'en a qui friment, y'en a qui bedavent qui crapotent Frères sont ceux qui savent comment couper une sav' qui restent brave C'est parce que y'en a qui parlent toujours et qui en font le moins, dès que ca part en couilles ils ouvrent tout le temps le cul coffret dans le coin Oui y'en a, y'en a qui galèrent dans les halls, et sa part en taule, dédicase à MC anonyme ma deuxième épaule Y'en a qui gardent la bouche cousue aux interrogatoires, contrairement à ceux qui parlent pour un café noir Donc à tous ces fils de putes, nos chemins se croiseront parce que l'on efface jamais cqu'on balance à l'audition Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler c'est fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, Ademo son des halls, Spike la pioche, Illinas Nastia la mode</t>
+          <t>Ademos Part Ich steige auf die Bühne, doch ich mag es überhaupt nicht, es ist abgefuckt Bruder, ich mag es nicht mich in deinen Snaps zu sehen Ich rappe weder Mowgli, noch Bambina Bambina, Bambina, Bambina Ich bringe es zuende, und dann packe ich wieder meine Klamotten ein Ich bin vom Gebäude, von der Straße, vom Drogen-Spot Ich bin nicht wie sie, und erst recht nicht wie du niemals Bruder, ich habe mich nicht gändert, der Joint brennt, mach kin scheiß Ich verstehe es, wenn du sagst, dass du nicht wie ich bist Man bräuchte ein Maximum an Tempo, man bräuchte viele grüne Nächte Um das verdammte Universum zu verändern scheiß Planet Wir bräuchten ein Maximum an Leben also Zeit, eh Wir bräuchten ein Maximum an Nahrung also Geld, shit Um das verteufelte Drogen-Geschäft zu verlassen Auf meinem Schiff, ich fühle mich so allein Vor meinen Sünden sehe ich mich so verdreckt Der Engel hinter mir sagt Du bist so dunkel Der Kopf ist kopfüber auf dem Drogen-Spot Ich sehe nicht die Gesichter von allen anderen Nummer 9, ich mache nur Grätschen Refrain Ademo Bang, Bang, Bang, Bang, Bang Ich rauche einen Joint und dann fick ich dich Bang, Bang, Bang, Bang, Bang Ich bin brutal, deshalb verletze ich dich Bang, Bang, Bang, Bang, Bang Du willst testen, doch ich versohle dir deinen Arsch Bang, Bang, Bang, Bang, Bang Du sagst mir, dass ich der Beste bin und dann beugst du dich Bang, Bang, Bang, Bang, Bang Ich denke über mein Leben nach, ich vermisse die Straße Bang, Bang, Bang, Bang, Bang Ich schaue zum Mond, die Aussicht ist dunkel Bang, Bang, Bang, Bang, Bang Und ich denke, dass es dauert, dauert, dauert Bang, Bang, Bang, Bang, Bang Und ich spreche zu Wänden, Wänden, Wänden N.O.S Part Ich bevorzuge es, wenn es real ist, ich bevorzuge es, wenn es real ist Wie die Kugeln, mit denen Baba geschossen hat Unter meiner Kapuze im Ghetto, unter meiner Kapuze unter meiner Kapuze im Ghetto Spät nachts, dann wenn sie mich nicht sehen Die Engel verpissen sich beim P2 beim zweiten Joint Die Dämonen zeigen sich am Ende des Joints Und ich bin da ohne da zu sein, denn die Vergangenheit fickt mich Wir erleiden Verletzungen wählt die Stiche für die Naht Ja, ich werde dich ausziehen ich spreche schon von der Zukunft Meine Gefühle sind erstarrt, verlangsamt, unverständlich Ein paar mehr ich liebe dich hätten mich unbesiegbar gemacht Aber dein Hass auf diese Welt ist stärker als deine Liebe zu mir Ich vernichte sie, da ich ein Leben aufzubauen haben, welches weit weg von allem ist Die kleine Stimme sagte mir Que la famille, mehr als mein Leben Es werden Erinnerungen bleiben, vielleicht die Euros, vielleicht die Träume von Morgen Refrain Ademo Bang, Bang, Bang, Bang, Bang Ich rauche einen Joint und dann fick ich dich Bang, Bang, Bang, Bang, Bang Ich bin brutal, deshalb verletze ich dich Bang, Bang, Bang, Bang, Bang Du willst testen, doch ich versohle dir deinen Arsch Bang, Bang, Bang, Bang, Bang Du sagst mir, dass ich der Beste bin und dann beugst du dich Bang, Bang, Bang, Bang, Bang Ich denke über mein Leben nach, ich vermisse die Straße Bang, Bang, Bang, Bang, Bang Ich schaue zum Mond, die Aussicht ist dunkel Bang, Bang, Bang, Bang, Bang Und ich denke, dass es dauert, dauert, dauert Bang, Bang, Bang, Bang, Bang Und ich spreche zu Wänden, Wänden, Wänden</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sheita</t>
+          <t>PNL</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Verse 1 Sheila Adamo Siddy Mitzvah The first thing Im gon talk about is niqqas on the low niqqas on low Whatever you wanna do just do right now and keep it cool keep it cool, keep it cool They be catching feelings now yeah they be catching feeling now yeah Thats why they feeling typa way yeah these niqqas feeling typa way yeah We aint got lot to say yeah we aint got lotta to say We putting work instead of words yeah putting, putting, this work on a work I see niqqas worried coz lotta people follow me now yeah these niqqas is falling, them niqqas they falling yeah We putting work instead of words yeah yeah yeah yeah, yeah yeah yeah We aint going down down down never go down, we never go down We be feeling high high high feeling so high So get it feeling, scr scr scr Hook Sheila Adamo Siddy Mitzvah Work Get that work, get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Get it then get it and get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Scr scr scr Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it Verse 2 Siddy Mitzvah Sheila Adamo So get it watch me take it Dont split it like that I dont feel it Put enough work on it dont let me squeeze Catch the vibe and catch the feelings With my niqqas I gotta show them how we do it Till u Catch me riding as a passenger And Im moving on to my new character Drop your weapons when my niqqas get in to the club So Drop drop drop Shiit! Ok, I see ya...I wanna see ya Trying to kill a vibe of a lil niqqa..... killin? you ain't killin my niqqas She wanted to put in work just for my hitter.....scr, scr, scr, scr, scr I started this thing way before you join us..... straight up When I thought Id go down Got elevator Hook Sheila Adamo Siddy Mitzvah Work Get that work, get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Get it then get it and get it Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it work Scr scr scr Get it, Get it We gon get it work Niqqas dont get that work Straight up Niqqas dont get that work We gon get it Verse 3 Siddy Mitzvah Sheila Adamo Everything I wanna That what Im gon conquer I be hearing compliments I be feeling a much hating for I been done ay Dont let em you can go goooo Dont let em get you too close tooo clooose! We wasted a lotta time in this thing lost a lotta niqqas in this thing Now we all running after an investment We trying prove yall we can get it....my niqqa can get it, my niqqa can get it Thats why we putting work instead of....we putting work instead of word We putting work instead of words.....we putting this work instead of word We putting work instead Outro Sheila Adamo We gon get it work yeaahhh 2x Nah nah nah 3x We putting work, instead of words</t>
+          <t>Ouais j'suis PNL Ouais ouais bah ouais j'suis PNL Ouais ouais ouais j'suis QLF Ouais ouais j'suis PNL Peace and Lové J'suis QLF Bah ouais j'suis PNL Retrouve-moi avec Ademo tout en haut de la tour Eiffel J'suis à Clignancourt avec Cortex Avec mes kheys chez le kébabier tel un cortège J'bibi ouais j'bibi la bonne be-her J'pécho ta meuf, j'l'a met dans mon pokédex pokédex Même en Gucci Louis Vi', jamais je flex Autotune Autotune Toi t'es gay, moi j'suis juste avec mon gang T'es bizarre apparemment tu kiff les shemale Moi j'suis just là et je chill mec Ouais j'suis PNL Bah ouais j'suis PNL</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Celsius</t>
+          <t>Abonné</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Aiyo, it's the Concentration Camp The Arsenal, the return Merciless You emcees got alot to worry about Y'all salute Yo, it's the raw ferocious The body hard-metal soloist A poisionous comb with a strike to the throat to kill opponents It's still hopeless, I'm still arming verbal explosives I'm still the coldest, I'm still the sickest, the diagnosis I promised y'all before Moses The promise I gave emcees Still ain't no different from what a bible oath is A promise with a right hand, y'all fools can testify Define the illest emcee, the machine can detect a lies I specialize in street rhymes and telling war tales The forecast when I brainstorm raps is all hell I dare somebody to brag, I'll leave them hostage gagged The modest'll stab fast as a hand through a speed bag 'Cause I'm a battle cat, like in Iraq with a battle rap Comin' out of a red flat with a gat and anthrax I'm like 212 degrees celsius hotter Beef or more live, the shiverless is getting slottered Give me 5 mics Recognize...the illest...emcee...no doubt...coming through with the roughness Recognize...the illest...emcee...better beleive that They say me and mics are like Jesus Christ and a bible scrolls And me and mics is like Faith and Joe when they hatin' foes My name exposed in 96 in a demo battles After the Rap Essentials, the critics became the battle I wrote the first of military verse in double barrels The first to spit Kadafi, and the first to use the nazis The first to talk about desciples and the Vietnamese Or hang draft in trees and invade with M-16's Sharper than guillotines to switch blades my spit plauges Invades like Y2K's and sprays with verbal bullets Including gernades, with no pins, my tounge pulled it Bleed in fatigues, my flow's mud and sea weed You eatin' me is like David in a fight with Golaith Me eatin you is like the stones in the sling before he fired 'em Still the nicest, take any mic alive and leave it lifeless You soon read about me in the Unsigned Hype shit Give me 5 mics It's through the birth of skills, reincarnated, born again Cutting the imbellicale cord, the ill emcee's born with a pen You fucked your article, rappers done wanna criticise I'm different than Nas, the only thing be saying we both wise But otherwise I'm raw, the lord of metaphores Strong as a pitbull's jaws, can chill with 48 bars The hardest soloist, never speaks with hard poses It's animated with fake hugs in the showbiz I'm being hated and underrated, but still I made it Got sick of this shit till everything I spit's contaminated You know the albums of emcees that barely spit themselves Pay enough ill emcees just to make they shit sell I spit napom, tick-ass raps evacuate I'm a 4 second left time bomb, rap detonate So fuck y'all if signing me's not negoitable Just one of my metaphores deserve the hip-hop quotable Give me five mics</t>
+          <t>DRMZ, you a fool for this one PNL Que la famille, que la famille Que La Famille, que la famille Ouais igo à l'aller j'ai d'la monnaie, au retour le coffre est chargé comme un poney J'écoule, je ramasse, je claque, j'y retourne, du début à la fin d'l'année abonné Pour les autres on s'enjaille, on survit et on die J'accorde une danse à la rue bien accompagné, j'galette ma solitude après deux 'teilles Pas besoin qu'on m'aime, j'vends du seum tampon M Quelques euros j'prends ma part, j'la laisse pas aux bâtards, ouais, qu'ils crèvent par centaines J'kiffe voir la misère s'élever, j'me suis fatigué à rêver J'me repose sur les faits, ouais, bientôt j'me refais, j'te laisse L, j'prends le V, l'enfer m'est réservé Les putes parlent dans mon V, PNL, Que La Famille QLF, on t'a pas dit, Ademo et Ladif, Gabbana est le deal On t'fait l'taga, on t'fait la beuh, tu viens du 16, on t'fait la cesse Élevé par un bandit, plus tard, j'veux faire comme mon papa, maîtresse Pétasse, allez casse un tour, le cur délogé, ils ont cassé ma tour Encore en retard, j'arriverai pas à l'heure, j'marche pas avec les putes, nique j'attends l'prochain tour Cet été j'me barre, claque deux-trois payes Vis la vie qu'j'aurai pas, marre du hood, j'me réveille Vis la vie qu'j'aurai pas Le bon-char en mode veille De retour j'l'aurai pas, la même heure, la même hess, Quand ça change j'le sais pas Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis J'veux du L, j'veux du V, j'veux du G, pour saper mes marques dans l'cur Y a qu'quand tu descends en enfer, qu'tu veux m'renvoyer l'ascenseur Celle-là elle est belle, c'est dommage que ce soit une 'tasse Vraiment dommage tu l'as vue sur les Champs en train d'traîner devant Häagen-Dazs Encore un qui chauffe ma mamie, paraît qu'il veut casser son tête Encore une victime sur la liste qui va devoir appeler son père Un destin mais y a hmm, y a des billets donc j'souris Petit j'attendais pas ma sieste, mais juste de casser les dents d'la petite souris Ounga dégaine à Mowgli Ha, Ounga des keufs j'vais courir Ha-Ha Ounga visite à Fleury, libérable cinq heures du mat', pété j'vais vomir La Il m'faut mon soleil, mes tartines et mon Nutella Igo, il m'faut mon oseille et ma gow du Venezuela J'suis là là là là où y a l'seille, ma drogue la base de ma paye Handek, écarte-toi de la teille, y a qu'ma télé qui s'rappelle de la veille J'fume, j'ai des cernes sous les yeux, te plains pas, j'suis né dans la jungle J'ai visser très tôt jusqu'à très tard de 10 heures à 4 heures du matin Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis18</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>La vie est belle</t>
+          <t>Gala Gala</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas t'cacher que la vie est belle Seul avec du monde autour, seul avec du monde autour Seul avec du monde autour J'habitais dans une ville de merde avec la Tour Eiffel dedans Où les gens sont tristes et pressés, où les gens pleurent en marchant Mais j'viens de prendre une maison près d'Caen où ma famille passe les dimanches Ma grand-mère part à la messe pendant que ma nièce regarde Les Anges En chausson dans mes crocs, j'emmène ma zouz' au mini-golf On vit avant d'avoir des gosses, ouais, ouais Ensemble comme alcool et clope, j'm'en branle, j'écoute que d'la K-Pop Trottinette électrique de cross, ouais, ouais Mon meilleur pote vient faire d'la boxe, j'fais que d'me faire péter la gueule On retrouve les gars, parle de vrais trucs genre La vérité sur les meufs J'me lève à huit heures pour écrire, j'suis clairement pas un vrai rappeur Soirée karaoké, j'chante Au DD, Ademo, c'est ma sur Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Seul avec du monde autour, seul avec du monde autour Seul avec du monde autour J'habite juste à côté de la mer, on se baigne jamais parce qu'elle est froide J'suis content rien que d'la voir, avant, j'voyais que l'immeuble d'en face J'essaie d'apprendre à cuisiner, genre de faire autre chose que des pâtes Une fois sur deux, j'rate mes plats donc en attendant, j'mange des pâtes J'ai max une barre de 3G, lève le bras pour capter Vingt minutes pour mater une vidéo qu'en fait quatre, ouais J'rejoins mon père au stade, on prend deux buts, on prend deux bières J'retourne chez moi j'allume Fifa, j'reprends Malherbe, j'continue d'perdre, ouais Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Adieu Twitter, Insta, Snap, dommage j'vais rater quelques mèmes J'travaille mes sons, j'travaille mon shoot, j'travaille mon couple, j'travaille mes textes C'est fou, j'travaille tout le temps mais c'est les vacances dans ma tête Faut croire que la vie est belle, j'vais pas te cacher que la vie est belle Seul avec du monde autour1</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Frontières</t>
+          <t>Capuche</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Tale of King Omar Bin Al-Nu'uman and His Sons Sharrkan and Zau Al-Makan And What Befel Them of Things Seld-Seen and Peregrine. The King asked her, And what was their story? and she answered It hath reached me, O auspicious King, that there was in the City of Safety, Baghdad, before the Caliphate of Abd al-Malik bin Marwán, a King, Omar bin al-Nu'umán highs, who was of the mighty giants and had subjected the Chosroës of Persia and the Kaysars of Eastern Rome for none could warm himself at his fire nor could any avail to meet him in the field of foray and fray and, when he was angered, there came forth from his nostrils sparks of flame. He had made himself King over all quarters, and Allah had subjected to him all His creatures his word went forth to all great cities and his hosts had harried the farthest lands. East and West had come under his command with whatsoever regions lay interspersed between them, Hind and Sind and Sin, the Holy Land, Al-Hijaz, the rich mountains of Al-Yaman and the archipelagos of India and China. Moreover, he reigned supreme over the north country and Diyár Bakr, or Mesopotamia, and over Sudán, the Eastern Negro land and the Islands of the Ocean, and all the far famed rivers of the earth, Sayhún and Jayhún, Nile and Euphrates. He sent envoys and ambassadors to capitals the most remote, to provide him with true report and they would bring back tidings of justice and peace, with assurance of loyalty and obedience and of prayers in the pulpits for King Omar bin al-Nu'uman for he was, O Ruler of the Age, a right noble King and there came to him presents of rarities and toll and tribute from all lands of his governing. This mighty monarch had a son yclept Sharrkan, who was likest of all men to his father and who proved himself one of the prodigies of his time for subduing the brave and bringing his contemporaries to bane and ban. For this his father loved him with love so great none could be greater, and made him heir to the kingdom after himself. This Prince grew up till he reached man's estate and was twenty years old, and Allah subjected His servants to him, by reason of his great might and prowess in battle. Now his father, King Omar, had four wives legally married, but Allah had vouchsafed him no son by them, save Sharrkan, whom he had begotten upon one of them, and the rest were barren. Moreover he had three hundred and sixty concubines, after the number of days in the Coptic year, who were of all nations and he had furnished for each and every a private chamber within his own palace. For he had built twelve pavilions, after the number of the months, each containing thirty private chambers, which thus numbered three hundred and three score, wherein he lodged his handmaids and he appointed according to law for each one her night, when he lay with her and came not again to her for a full year and on this wise he abode for a length of time. Meanwhile his son Sharrkan was making himself renowned in all quarters of the world and his father was proud of him and his might waxed and grew mightier so that he passed all bounds and bore himself masterfully and took by storm castles and cities. Presently, by decree of the Decreer, a handmaid among the handmaids of Omar bin Nu'uman became pregnant and, her pregnancy being announced to the Harim, the King was informed thereof whereupon he rejoiced with exceeding joy and said, Haply it will be a son, and so all my offspring will be males! Then he documented the date of her conception and entreated her with all manner of kindness. But when the tidings came to Sharrkan, he was troubled and the matter seemed to him a sore one and a grievous and he said, Verily one cometh who shall dispute with me the sovereignty so quoth he to himself, If this concubine bear a male child I will kill it but he kept that intention hidden in his heart. Such was the case with Sharrkan but what happened in the matter of the damsel was as follows. She was a Roumiyah, a Greek girl, by name Sofiyah or Sophia, whom the King of Roum and Lord of Cæsarea had sent to King Omar as a present, together with great store of gifts and of rarities she was the fairest of favour and loveliest of all his handmaids and the most regardful of her honour and she was gifted with a wit as penetrating as her presence was fascinating. Now she had served the King on the night of his sleeping with her, saying to him, O King! I desire of the God of the Heavens that he bless thee this night with a male child by me, so I may bring him up with the best of rearing, and enable him to reach man's estate perfect in intelligence, good manners and prudent bearinga speech which much pleased the King. During her pregnancy she was instant in prayer, fervently supplicating the Lord to bless her with a goodly male child and make his birth easy to her and Allah heard her petition so that after her months were accomplished she sat safely upon the birth stool. Now the King had deputed a eunuch to let him know if the child she should bring forth were male or female and in like way his son Sharrkan had sent one to bring him tidings of the same. In due time Sophia was delivered of a child, which the midwives examined and found to be a girl with a face sheenier than the moon. So they announced this to all present in the room, whereupon the King's messenger carried the news to him and Sharrkan's eunuch did the like with his master who rejoiced with exceeding joy. But, after the two had departed, quoth Sophia to the midwives, Wait with me awhile, for I feel as if there were still somewhat in my womb. Then she cried out and the pains of child bed again took her and Allah made it easy to her and she gave birth to a second child. The wise women looked at it and found it a boy like the full moon, with forehead flower white, and cheek ruddy bright with rosy light whereupon the mother rejoiced, as did the eunuchs and attendants and all the company and Sophia was delivered of the after birth whilst all in the palace sent forth the trill of joy. The rest of the concubines heard it and envied her lot and the tidings reached Omar son of Al- Nu'uman, who was glad and rejoiced at the excellent news. Then he rose and went to her and kissed her head, after which he looked at the boy and, bending over him, kissed him, whilst the damsels struck the tabors and played on instruments of music and the King gave order that the boy should be named Zau al-Makán and his sister Nuzhat al-Zamán. They answered Hearing and obedience, and did his bidding so he appointed wet nurses and dry nurses and eunuchs and attendants to serve them and assigned them rations of sugar and diet drinks and unguents and else beside, beyond the power of tongue to rehearse. Moreover the people of Baghdad, hearing that Allah had blessed their King with issue, decorated the city and made proclamation of the glad tidings with drum and tom tom and the Emirs and Wazirs and high dignitaries came to the palace and wished King Omar bin al-Nu'uman joy of his son, Zau al-Makan, and of his daughter Nuzhat al-Zaman, wherefore he thanked them and bestowed on them dresses of honour and further favoured them with gifts, and dealt largesse to all, gentle and simple, who were present. After this fashion he did for four days full told, and he lavished upon Sophia raiment and ornaments and great store of wealth and, every few days he would send a messenger to ask after her and the new-borns. And when four years had gone by, he provided her with the wherewithal to rear the two children carefully and educate them with the best of instructions. All this while his son Sharrkan knew not that a male child had been born to his father, Omar son of Al-Nu'uman, having news only that he had been blessed with the birth of Nuzhat al-Zaman and they hid the intelligence from him, until days and years had sped by, whilst he was busied in battling with the brave and fighting single handed against the knights. One day, as King Omar was sitting in his palace, his Chamberlains came in to him and, kissing the ground before him, said, O King there be come Ambassadors from the King of Roum, Lord of Constantinople the Great, and they desire admission to thee and submission to thy decree if the King commend us to introduce them we will so do and, if not, there is no disputing his behest. He bade them enter and, when they came in, he turned to them and, courteously receiving them, asked them of their case, and what was the cause of their coming. They kissed the ground before him and said, O King glorious and strong! O lord of the arm that is long! know that he who despatched us to thee is King Afrídún, Lord of Ionia land and of the Nazarene armies, the sovereign who is firmly established in the empery of Constantinople, to acquaint thee that he is now waging fierce war and fell with a tyrant and a rebel, the Prince of Casarea and the cause of this war is as follows. One of the Kings of the Arabs in past time, during certain of his conquests, chanced upon a hoard of the time of Alexander, whence he removed wealth past compute and, amongst other things, three round jewels, big as ostrich eggs, from a mine of pure white gems whose like was never seen by man. Upon each were graven characts in Ionian characters, and they have many virtues and properties, amongst the rest that if one of these jewels be hung round the neck of a new-born child, no evil shall befal him and he shall neither wail, nor shall fever ail him as long as the jewel remain without fail. When the Arab King laid hands upon them and learned their secrets, he sent to King Afridun presents of certain rarities and amongst them the three jewels afore mentioned and he equipped for the mission two ships, one bearing the treasure and the other men of might to guard it from any who might offer hindrance on the high seas, albeit well assured that none would dare waylay his vessels, for that he was King of the Arabs, and more by token that their course lay over waters subject to the King of Constantinople and they were bound to his port nor were there on the shores of that sea any save the subjects of the Great King, Afridun. The two ships set out and voyaged till they drew near our city, when there sallied out on them certain corsairs from that country and amongst them troops from the Prince of Caesarea, who took all the treasures and rarities in the ships, together with the three jewels, and slew the crews. When our King heard of this, he sent an army against them, but they routed it then he marched a second and a stronger but they put this also to flight,whereupon the King waxed wroth and swore that he would not go forth against them save in his own person at the head of his whole army nor would he turn back from them till he had left Caesarea, of Armenia in ruins and had laid waste all the lands and cities over which her Prince held sway. So he sent us to the Lord of the age and the time, Sultan Omar bin al-Nu'uman, King of Baghdad and of Khorasan, desiring that he aid us with an army, so may honour and glory accrue to him and he hath also forwarded by us somewhat of various kinds of presents, and of the King's grace he beggeth their acceptance and the friendly boon of furtherance. Then the Ambassadors kissed the ground before him,And Shahrazad perceived the dawn of day and ceased to say her permitted say. When it was the Forty-sixth Night, She said, It hath reached me, O auspicious King, that, after the Ambassadors and retinue from the Constantinopolitan King had kissed the ground before Omar and had delivered their embassage, they brought out the presents, which were fifty damsels of the choicest from Graecia-land, and fifty Mamelukes in tunics of brocade, belted with girdles of gold and silver, each wearing in his ears hoops of gold with pendants of fine pearls costing a thousand ducats every one. The girls were adorned in like fashion and were clad in stuffs worth a treasury of money. When the King saw them, he rejoiced in them and accepted them then he bade the Ambassadors be honourably entreated and, summoning his Wazirs, took counsel with them of what he should do. Herewith rose up among them a Wazir, an ancient man, Dandan highs, who kissed the ground before Omar and said, O King, there is nothing better to do in this matter than equip an army valiant and victorious, and set over it thy son Sharrkan with us as his lieutenants and this rede commendeth itself to me on two counts first, because the King of Roum hath invoked thine assistance and hath sent thee gifts which thou hast accepted and, secondly, because while no enemy dareth attack our country, thine army may go forth safely and, should it succour the King of Graecia-land and defeat his foe, the glory will be thine. Moreover, the news of it will be noised abroad in all cities and countries and especially, when the tidings shall reach the Islands of the Ocean and the Kings of Mauritania shall hear it, they will send thee offerings of rarities and pay thee tribute of money. The King pleased by the Wazir's words and approving his rede, gave him a dress of honour and said to him, Of the like of thee should Kings ask counsel, and it seemeth fit that thou shouldst conduct the van of our army and our son Sharrkan command the main battle. Then he sent for his son who came and kissed ground before him and sat down and he expounded to him the matter, telling him what the Ambassadors and the Wazir Dandan had said, and he charged him to take arms and equip himself for the campaign, enjoining him not to gainsay Dandan in aught he should do. Moreover, he ordered him to pick out of his army ten thousand horsemen, armed cap-à-pie and inured to onset and stress of war. Accordingly, Sharrkan arose on the instant, and chose out a myriad of horsemen, after which he entered his palace and mustered his host and distributed largesse to them, saying, Ye have delay of three days. They kissed the earth before him in obedience to his commands and began at once to lay in munitions, and provide provisions for the occasion whilst Sharrkan repaired to the armouries and took therefrom whatsoever he required of arms and armour, and thence to the stable where he chose horses of choice blood and others. When the appointed three days were ended, the army drew out to the suburbs of Baghdad city and King Omar came forth to take leave of his son who kissed the ground before him and received from the King seven parcels of money. Then he turned to Danden and commended to his care the army of his son and the Wazir kissed the ground before him and answered, I hear and I obey and lastly he charged Sharrkan that he should consult the Wazir on all occasions, which he promised to do. After this, the King returned to his city and Sharrkan ordered the officers to muster their troops in battle array. So they mustered them and their number was ten thousand horsemen, besides footmen and camp followers. Then they loaded their baggage on their beasts and the war drums beat and the trumpets blared and the bannerols and standards were unfurled, whilst Sharrkan mounted horse, with the Wazir Dandan by his side, and the colours fluttering over their heads. So the host fared forth and stinted not faring, with the ambassadors preceding them, till day departed and night drew nigh, when they alighted and encamped for the night. And as soon as Allah caused the morn tomorrow, they mounted and tried on, guided by the Ambassadors, for a space of twenty days and by the night of the twenty first they came to a fine and spacious Wady well grown with trees and shrubbery. Here Sharrkan ordered them to alight and commanded a three days' halt, so they dismounted and pitched their tents, spreading their camp over the right and the left slopes of the extensive valley, whilst the Wazir Dandan and the Ambassadors of King Afridun pitched in the sole of the Wady. As for Sharrkan, he tarried behind them for awhile till all had dismounted and had dispersed themselves over the valley sides he then slacked the reins of his steed, being minded to explore the Wady and to mount guard in his own person, because of his father's charge and owing to the fact that they were on the frontier of Graecia land and in the enemy's country. So he rode out alone after ordering his armed slaves and his body guard to camp near the Wazir Dandan, and he fared on along the side of the valley till a fourth part of the night was passed, when he felt tired and drowsiness overcame him, so that he could no longer urge horse with heel. Now he was accustomed to take rest on horseback so when slumber overpowered him, he slept and the steed ceased not going on with him till half the night was spent and entered one of the thickets which was dense with growth but Sharrkan awoke not until his horse stumbled over wooded ground. Then he started from sleep and found himself among the trees, and the moon arose and shone brightly over the two horizons, Eastern and Western. He was startled when he found himself alone in this place and said the say which ne'er yet shamed its sayer, There is no Majesty and there is no Might save in Allah, the Glorious, the Great! But as he rode on, in fear of wild beasts, behold, the moon spread her glad light over a meadow as if it were of the meads of Paradise and he heard pleasant voices and a loud noise of talk and laughter captivating the senses of men. So King Sharrkan alighted and, tying his steed to one of the trees, went over a little way till he came upon a stream and heard a woman talking in Arabic and saying, Now by the crush of the Messiah, this is not well of you! but whose utters a word, I will throw her and truss her up with her own girdle! He kept walking in the direction of the sound and when he reached the further side he looked and behold, a stream was gushing and flowing, and antelopes at large were frisking and roving, and wild cattle amid the pasture moving, and birds expressed joy and gladness in their divers tongues, and that place was purfled with all manner flowers and green herbs, even as a poet described it in these couplets, Most beautiful is earth in budding bloom, When lucid waters course through plain and wood No work but His th' All great, th' All glorious, Giver of all gifts, Giver of all good! And as Sharrkan considered the place, he saw in it a Christian Monastery within whose enceinte a castle towered high in air catching the light of the moon. Through the midst of the convent passed a stream, the water flowing amongst its gardens and upon the bank sat the woman whose voice he had heard, while before her stood ten handmaids like moons and wearing various sorts of raiment and ornaments that dazed and dazzled the beholder, high bosomed virgins, as saith of them the poet in these couplets, The mead is bright with what is on't Of merry maidens debonnair Double its beauty and its grace Those trooping damsels slender- fair Virgins of graceful swimming gait Ready with eye and lip to ensnare And like the tendril'd vine they loose The rich profusion of their hair Shooting their shafts and arrows from Beautiful eyes beyond compare Overpowering and transpiercing Every froward adversaire. Sharrkan gazed upon the ten girls and saw in their midst a lady like the moon at fullest, with ringleted hair and forehead sheeny white, and eyes wondrous wide and black and bright, and temple locks like the scorpion's tail and she was perfect in essence and attributes, as the poet said of her in these couplets, She beamed on my sight with a wondrous glance, And her straight slender stature enshamed the lance She burst on my sight with cheeks rosy red, Where all manner of beauties have habitance And the locks on her forehead were lowering as night Whence issues a dawn tide of happiest chance. Then Sharrkan heard her say to the handmaids, Come ye on, that I may wrestle with you and gravel you, ere the moon set and the dawn break! So each came up to her in turn and she grounded them forthright, and pinioned them with their girdles, and ceased not wrestling and pitching them until she had overthrown one and all. Then there turned to her an old woman who was before her, and the beldam said as in wrath, O strumpet, cost thou glory in grounding these girls? Behold I am an old woman, yet have I thrown them forty times! So what hast thou to boast of? But if thou have the strength to wrestle with me, stand up that I may grip thee and set thy head between thy heels! The young lady smiled at her words, but she was filled with inward wrath, and she jumped up and asked, O my lady Zat al-Dawahi, by the truth of the Messiah, wilt thou wrestle with me in very deed, or dost thou jest with me? and she answered, Yea,And Shahrazad perceived the dawn of day and ceased saying her permitted say. When it was the Forty-seventh Night, She said, It hath reached me, O auspicious King, that when the young lady asked Zat al-Dawahi, By the truth of the Messiah, wilt wrestle with me or dost jest?, and she answered, Yea, I will wrestle with thee in very deed Sharrkan looking on the while, the damsel cried, Rise up for the fall an thou have spunk so to do. When the old woman heard this, she raged with exceeding rage, and her body hair stood on end like the bristles of a fretful hedgehog. Then she sprang to her feet, whilst the damsel stood up to her, and said, Now by the truth of the Messiah, I will not wrestle with thee unless I be naked, Mistress whore! So she loosed her petticoat trousers and, putting her hand under her clothes, tore them off her body then twisted up a silken kerchief into cord shape, girt it round her middle and became as she were a scald head If ritah or a spotted snake. With this she inclined towards the damsel and said, Do thou as I have done. All this time, Sharrkan was gazing at the twain, and laughing at the beldam's loathly semblance. So the damsel leisurely rose and, taking a sash of Yamani stuff, passed it twice round her waist, then she tucked up her trousers and displayed two calves of alabaster carrying a mound of crystal, smooth and rounded, and a stomach which exhaled musk from its dimples, as it were a bed of Nu'uman's anemones and breasts like double pomegranates. Then the old woman leant towards her, and the two laid hold either of each, while Sharrkan raised his head Heavenwards and prayed Allah that the belle might beat the beldam. Presently the young woman get beneath the old woman and, gripping her waist cloth with the left and circling her neck with the right hand, hoisted her off the ground with both whereupon the old woman strove to free herself and, in so doing fell on her back arsiversy, with her legs high in air and her hairy bush between them showed manifest in the moonshine furthermore she let fly two great farts one of which blew up the dust from the earth's face and the other steamed up to the gate of Heaven. Sharrkan laughed till he fell back upon the ground. Then he arose and, baring his brand looked right and left, but he saw no one save the old woman sprawling on her back, and said to himself, He lied not who named thee Lady of Calamities! Verily thou knewest her prowess by her performance upon the others. So he drew near them to hear what should pass between them. Then the young lady went up to the old one and, throwing a wrapper of thin silk upon her nakedness, helped her to don her clothes and made excuses saying, O my lady Zat al- Dawahi, I intended only to throw thee and not all this, but thou triedst to twist out of my hands so laud to Allah for safety! She returned her no answer, but rose in her shame and walked away till out of sight, leaving the handmaids prostrate and pinioned, with the fair damsel standing amongst them. Quoth Sharrkan to himself, Every luck hath its cause. Sleep did not fall upon me nor the war horse bear me hither save for my good fortune for doubtless this maid and what is with her shall become booty to me. So he made towards his steed and mounted and heeled him on, when he sped as the shaft speeds from the bow and in his hand he still hent his brand bare of sheath, which he brandished shouting the while his war cry, Allah is All mighty! When the damsel saw him she sprang to her feet and, taking firm stand on the bank of the stream, whose breadth was six ells, the normal cubits, made one bound and landed clear on the farther side, where she turned and cried out with a loud voice, Who art thou, O thou fellow, that breakest in upon our privacy and pastime, and that too hanger in hand as if charging a host? Whence camest thou and whither art thou going? Speak sooth, for truth will stand thee in good stead, and lie not, for lies come of villein breed Doubtless thou hast wandered this night from thy way, that thou chancedst upon this place whence escape were the greatest of mercies for thou art now in an open plain and, did we shout but a single shout, would come to our rescue four thousand knights. So tell me what thou wantest and if thou wouldst only have us set thee on the right road, we will do so. When Sharrkan heard her words he replied, I am a stranger of the Moslems, who fared forth this night single handed, seeking for spoil nor could this moonlight show me a fairer booty than these ten maidens so I shall seize them and rejoin my comrades with them. Quoth she, I would have thee know that as for the booty thou hast not come at it and, as for the handmaids, by Allah, they shall never be thy spoil. Have I not told thee that to lie is villein vile? Quoth he, The wise man is he who taketh warning by others. Thereupon quoth she, By the truth of the Messiah, did I not fear that thy death would be on my hands, I would shout a shout should fill the mead for thee with war steeds and with men of might, but I take pity upon the stranger. So, if thou seek booty, I require of thee that thou alight from thy steed and swear to me, by thy faith, that thou wilt not advance against me aught like arms in hand, and we will wrestle, I and thou. If thou throw me, set me on thy steed and take all of us to thy booty but if I throw thee, thou shalt become under my command. Swear this to me, for I fear thy treachery indeed it hath become a common saw, 'Where Perfidy is innate there Trust is a weakly mate.' Now an thou wilt swear I will return and draw near to thee and tackle thee. Answered Sharrkan and indeed he lusted to seize her and said in his soul, Truly she knoweth not that I am a champion of champions Swear me by what oath thou wilt and by what thou deemest most binding, and I will not approach thee with aught till thou hast made thy preparation and sayest, 'Draw near that I wrestle with thee.' If thou throw me, I have money where withal to ransom myself and if I throw thee, 'twill be booty and booty enough for me! Rejoined the damsel, I am content herewith! and Sharrkan was astounded at her words and said, And by the truth of the Apostle whom Allah bless and keep! I too am content on the other part! Then said she, Swear to me by Him who sprite in body dight and dealt laws to rule man kind aright, that thou wilt not offer me aught of violence save by way of wrestling else mayst thou die without the pale of Al- Islam. Sharrkan replied, By Allah! were a Kazi to swear me, even though he were a Kazi of the Kazis, he would not impose upon me such an oath as this! Then he sware to her by all she named and tied his steed to a tree but he was drowned in the sea of thought, saying in himself, Praise be to Him who fashioned her from dirty water! Then he girt himself and made ready for wrestling, and said to her, Cross the stream to me but she replied, It is not for me to come over to thee if thou wilt, pass thou over here to me. I cannot do that, quoth he, and quoth she, O boy, I will come across to thee. So she tucked up her skirts and, leaping, landed on the other side of the stream by his side whereupon he drew near to her and bent him forwards and clapped palms. But he was confounded by her beauty and loveliness for he saw a shape which the Hand of Power had tanned with the dye leaves of the Jann, which had been fostered by the Hand of Beneficence and fanned by the Zephyrs of fair fortune and whose birth a propitious ascendant had greeted. Then she called out to him, O Moslem, come on and let us wrestle ere the break of morning, and tucked up her sleeves from a forearm like fresh curd, which illumined the whole place with its whiteness and Sharrkan was dazzled by it. Then he bent forwards and clapped his palms by way of challenge, she doing the like, and caught hold of her, and the two grappled and gripped and interlocked hands and arms. Presently he shifted his hands to her slender waist, when his finger tips sank into the soft folds of her middle, breeding languishment, and he fell a trembling like the Persian reed in the roaring gale. So she lifted him up and, throwing him to the ground, sat upon his breast with hips and hinder cheeks like mounds of sand, for his soul had lost mastery over his senses. Then she asked him, O Moslem! the slaying of Nazarenes is lawful to you folk what then hast thou to say about being slain thyself? and he answered, O my lady, thy speech as regards slaying me is not other than unlawful for our prophet Mohammed whom Allah bless and preserve! prohibited the slaying of women and children, old men and monks! As it was thus revealed to your Prophet, she replied, it behoveth us to render the equivalent of his mercy so rise. I give thee thy life, for generosity is never lost upon the generous. Then she got off his breast and he rose and stood shaking the dust from his head against the owners of the curved rib, even women and she said to him, Be not ashamed but verily one who entereth the land of Roum in quest of booty, and cometh to assist Kings against Kings, how happeneth it that he hath not strength enough to defend himself from one made out of the curved rib? 'Twas not for lack of strength in me, he answered nor didst thou throw me by thy force it was thy loveliness overthrew me so if thou wilt grant me another bout, it will be of thy courtesy. She laughed and said, I grant thee thy request but these handmaids have long been pinioned and their arms and sides are weary, and it were only right I should loose them, for haply this next wrestling bout will be long. Then she went to the slave girls and, unbinding them, said to them in the tongue of Greece, Get ye to some safe place, till I foil this Moslem's lust and longing for you. So they went away, whilst Sharrkan kept gazing at them and they kept turning to look at the two. Then each approached the adversary and he set his breast against hers, but when he felt waist touch waist, his strength failed him and she, waxing ware of this, lifted him with her hands swiftlier than the blinding leven-flash, and threw him to the ground. He fell on his back, and then she said to him, Rise I give thee thy life a second time. I spared thee in the first count because of thy Prophet, for that he made unlawful the slaying of women and I do so on the second count because of thy weakliness and the greenness of thine years and thy strangerhood but I charge thee, if there be in the Moslem army sent by Omar bin al-Nu'uman to succour the King of Constantinople, a stronger than thou, send him hither and tell him of me for in wrestling there are shifts and trips, catches and holds, such as the feint or falsing and the snap or first grip, the hug, the feet-catch, the thigh Lite, the jostle and the leg-lock. By Allah, O my lady, quoth Sharrkan and indeed he was highly incensed against her, had I been Master al-Safdí, Master Mohammed Kimál or Ibn al-Saddí, as they were in their prime, I had kept no note of these shifts thou mentionest for O my mistress, by Allah, thou hast not grassed me by thy strength, but by the blandishments of thy back parts for we men of Mesopotamia so love a full formed thigh that nor sense was left me nor foresight. But now, an thou wish, thou shalt try a third fall with me while my wits are about me, and this last match is allowed me by the laws of the game which sayeth the best of three moreover I have regained my presence of mind. When she heard his words she said to him, Hast thou not had a belly full of this wrestling, O vanquished one? However come on, an thou wilt but know that this must be the last round. Then she bent forward and challenged him and Sharrkan did likewise, setting to it in real earnest and being right cautious about the throw so the two strove awhile and the damsel found in him a strength such as she had not observed before and said to him, O Moslem, thou art now on thy mettle. Yes, he replied, thou knowest that there remaineth to me but this one round, after which e</t>
+          <t>C'est comme si j'avais un atavisme C'est comme si j'rappais à la va-vite, nique sa mère, moi, j'suis pas un riche J'suis baisé, j'ai envie d'pleurer à chaque pleine lune Perdu, le genre de fou capable de rêver d'futur quand il voit une belle pute Parce que j'suis plus triste encore que l'film Le Titanic Parce que j'suis baisé, tu pourras plus jamais revoir l'enfant, le p'tit Tarik Baisés, c'est la merde ma couille, faudrait qu'j'pète un coup Baisés, N.O.S, check, on reste intestables Interdiction d'toucher à l'un, au risque de perdre la boule, baise la poulaille On reste pareils X X, dogue argentin Kaboul dans nos lifes X car on graille J'suis baisé, et ça depuis qu'on m'a pé-cou l'enfance Ça fait six ans qu'j'rappe, six ans que rage et peine s'foutent ensemble Baisés, à voir mon reuf vieillir triste Putain, passe-moi l'calibre que j'aille remplir la tirelire Le chauffage coûte cher alors dans la chambre il caille Y'a rien mais tu mets quand même les couverts quand t'as l'ventre qui râle Mais c'est parce que j'ai fait des fautes la plupart d'ma vie J'ai joué hors jeu vu qu'j'ai vu qu'y'avait pas d'arbitre Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail X2 Avant j'voyais un monde parfait maintenant j'veux l'baiser J'fais une croix sur mon rêve de gosse le jour où j'me suis blessé Baisés, parce que j'parle seul comme un malade mental Baisés, la micht' t'attache pas car j'suis pas sentimental Baisés, parce que j'retrouve ma solitude dans l'allée Baisés, parce que j'reste là mais j'voudrais m'en aller Baisés, parce que j'passe des heures à fixer le vide X donc faudra vite faire le vide Le désespoir d'mon père de voir son fils au tribunal Je n'l'ai jamais rendu fier, j'ai la haine, j'vais prendre une arme Baisés, parce que j'ai le souvenir des pe-pe-perquises Baisés, parce qu'on m'a dit petit Ça s'transmet père-fils Baisé par la tristesse, gros, j'ai appris à vivre avec J'la traîne un peu partout sous la capuche qui recouvre ma tête Baisés, parce que j'oublie trop souvent d'prier Dieu Baisés, parce que j'voulais voir loin mais on m'a pris mes yeux Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés putain j'te jure qu'on f'ra l'bail Et c'est parce que je n'savais pas quel X Baisé par ce manque d'amour d'ma mère qui aurait pu m'aider Je suis ce petit du zoo qui vit dans l'passé Récupère ma tétine, contre les chats, gazelle Baisés, faut trouver un toit c't'été, ça sent l'expulsion À cinq dans un une pièce, 'faut pas s'faire d'illusions Baisés, parce que j'croyais qu'ça n'arrivait qu'aux autres Ademo, Son des Halls, ça ça sent l'tiek de zoo ? Ça sent la hess Ça sent la rage Parce que c'est dans les gênes baisés V'la les deux frères prêts à crever dans les airs Percer sous le chant des sirènes C'est pour tous les frères et surs dehors tout l'hiver Merde Ademo, N.O.S Putain d'merde, y'a longtemps qu'y'a eu le S.O.S Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Sur ma tête qu'on f'ra l'bail Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Putain j'te jure qu'on f'ra l'bail</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Plus Tony que Sosa</t>
+          <t>Ryuk</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Een blik op het water Traag in de rivier Voorbij zonder voorbij te gaan Waar de beweging rust vindt Roerloos aan de oever staan Een blik op het water En het huilen begint Een adem in de wind De verre reuk van vuur Herkennen van hier eerder te zijn geweest Een mens die zich op aard' bevindt De geuren van het late uur Een adem in de wind En het huilen begint Dit is geen verdriet, nee Dit is huilen van vreugde Dit zijn tranen door het lachen heen Een blik in de ogen Ik kijk mijzelf aan Alle vaders, alle dochters tegelijk Hoe alles zijn bestemming vindt Het goed en fout gedaan Een blik in de ogen En het huilen begint Dit is geen verdriet, nee Dit is huilen van vreugde Dit zijn tranen door het lachen heen Zo mooi Zo mooi Zo oneindig Een blik in de ruimte Tussen de sterren door Langs de planeten in hun baan Het leeg waarin alles ligt besloten Het zichtbare voorbijgegaan Een blik in de ruimte En het huilen begint Dit is geen verdriet, nee Dit is huilen van vreugde Dit zijn tranen door het lachen heen Zo mooi Zo mooi Het was nog nooit Zo mooi Zo mooi Zo mooi was het nog nooit En de wind waait En de bomen waaien mee En het gras imiteert De golven van de zee Water in de bomen Golven in het gras Niets is ooit meer zoals het was Zo mooi Zo mooi Het was nog nooit zo Zo mooi Zo mooi Zo mooi was het nog nooit</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Bang</t>
+          <t>Laisse</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ademos Part Ich steige auf die Bühne, doch ich mag es überhaupt nicht, es ist abgefuckt Bruder, ich mag es nicht mich in deinen Snaps zu sehen Ich rappe weder Mowgli, noch Bambina Bambina, Bambina, Bambina Ich bringe es zuende, und dann packe ich wieder meine Klamotten ein Ich bin vom Gebäude, von der Straße, vom Drogen-Spot Ich bin nicht wie sie, und erst recht nicht wie du niemals Bruder, ich habe mich nicht gändert, der Joint brennt, mach kin scheiß Ich verstehe es, wenn du sagst, dass du nicht wie ich bist Man bräuchte ein Maximum an Tempo, man bräuchte viele grüne Nächte Um das verdammte Universum zu verändern scheiß Planet Wir bräuchten ein Maximum an Leben also Zeit, eh Wir bräuchten ein Maximum an Nahrung also Geld, shit Um das verteufelte Drogen-Geschäft zu verlassen Auf meinem Schiff, ich fühle mich so allein Vor meinen Sünden sehe ich mich so verdreckt Der Engel hinter mir sagt Du bist so dunkel Der Kopf ist kopfüber auf dem Drogen-Spot Ich sehe nicht die Gesichter von allen anderen Nummer 9, ich mache nur Grätschen Refrain Ademo Bang, Bang, Bang, Bang, Bang Ich rauche einen Joint und dann fick ich dich Bang, Bang, Bang, Bang, Bang Ich bin brutal, deshalb verletze ich dich Bang, Bang, Bang, Bang, Bang Du willst testen, doch ich versohle dir deinen Arsch Bang, Bang, Bang, Bang, Bang Du sagst mir, dass ich der Beste bin und dann beugst du dich Bang, Bang, Bang, Bang, Bang Ich denke über mein Leben nach, ich vermisse die Straße Bang, Bang, Bang, Bang, Bang Ich schaue zum Mond, die Aussicht ist dunkel Bang, Bang, Bang, Bang, Bang Und ich denke, dass es dauert, dauert, dauert Bang, Bang, Bang, Bang, Bang Und ich spreche zu Wänden, Wänden, Wänden N.O.S Part Ich bevorzuge es, wenn es real ist, ich bevorzuge es, wenn es real ist Wie die Kugeln, mit denen Baba geschossen hat Unter meiner Kapuze im Ghetto, unter meiner Kapuze unter meiner Kapuze im Ghetto Spät nachts, dann wenn sie mich nicht sehen Die Engel verpissen sich beim P2 beim zweiten Joint Die Dämonen zeigen sich am Ende des Joints Und ich bin da ohne da zu sein, denn die Vergangenheit fickt mich Wir erleiden Verletzungen wählt die Stiche für die Naht Ja, ich werde dich ausziehen ich spreche schon von der Zukunft Meine Gefühle sind erstarrt, verlangsamt, unverständlich Ein paar mehr ich liebe dich hätten mich unbesiegbar gemacht Aber dein Hass auf diese Welt ist stärker als deine Liebe zu mir Ich vernichte sie, da ich ein Leben aufzubauen haben, welches weit weg von allem ist Die kleine Stimme sagte mir Que la famille, mehr als mein Leben Es werden Erinnerungen bleiben, vielleicht die Euros, vielleicht die Träume von Morgen Refrain Ademo Bang, Bang, Bang, Bang, Bang Ich rauche einen Joint und dann fick ich dich Bang, Bang, Bang, Bang, Bang Ich bin brutal, deshalb verletze ich dich Bang, Bang, Bang, Bang, Bang Du willst testen, doch ich versohle dir deinen Arsch Bang, Bang, Bang, Bang, Bang Du sagst mir, dass ich der Beste bin und dann beugst du dich Bang, Bang, Bang, Bang, Bang Ich denke über mein Leben nach, ich vermisse die Straße Bang, Bang, Bang, Bang, Bang Ich schaue zum Mond, die Aussicht ist dunkel Bang, Bang, Bang, Bang, Bang Und ich denke, dass es dauert, dauert, dauert Bang, Bang, Bang, Bang, Bang Und ich spreche zu Wänden, Wänden, Wänden</t>
+          <t>Tous mes choix sont nauséabonds Jcrois qujai pas bien retenu la leçon Elle me manque cette époque où ça jouait au Sims 2 en caleçon Pour mendormir jcompte mes lacunes Ça marche pas donc jparle à la lune Elle me rappelle que maman est éphémère, quon en a quune Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meillur client En attendant la suite jm console en rêvant Ya des moments où jai envie que dune chose cest dêtre triste et quon mlaisse Ademo ment, même quand jaurai percé jplairai pas à Eva Mendes Temploies des moyens colossaux juste pour que jte cala Dépenses des sommes indécentes pour la mala Ten oublies même de rattraper ta salât Jvis dans ton esprit le loyer est gratos Le seul huissier qui mfera sortir cest une bastos Jte hanterai jusquà la fin dtes jours comme Kratos Jte hanterai jusquà la fin dtes jours comme Kratos Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant Jattends la fin comme le dernier grain du sablier Aucune menace ne me fera plier Tu peux essayer ressayer mais jamais ô grand jamais je rendrai mon tablier Jvais dans la salle du temps pour ne3ess Jaccepte la CB PayPal et les espèces J'suis prêt à faire les efforts qu'il faut pour mettre ma maman à labri Passer du scoot' au classe S Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PNL</t>
+          <t>Sibérie</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ouais j'suis PNL Ouais ouais bah ouais j'suis PNL Ouais ouais ouais j'suis QLF Ouais ouais j'suis PNL Peace and Lové J'suis QLF Bah ouais j'suis PNL Retrouve-moi avec Ademo tout en haut de la tour Eiffel J'suis à Clignancourt avec Cortex Avec mes kheys chez le kébabier tel un cortège J'bibi ouais j'bibi la bonne be-her J'pécho ta meuf, j'l'a met dans mon pokédex pokédex Même en Gucci Louis Vi', jamais je flex Autotune Autotune Toi t'es gay, moi j'suis juste avec mon gang T'es bizarre apparemment tu kiff les shemale Moi j'suis just là et je chill mec Ouais j'suis PNL Bah ouais j'suis PNL</t>
+          <t>Niente è per sempre, questa è una guerra, oh Chico Brucio lento in questo inferno Lago Cocito La mia anima, bianca e nera come Al Pacino Ho messo tutto sul rosso, ora ricomincia il giro Guardami bene, siamo leggenda e mito Lombra non segue più, è vittima del mio istinto Lato oscuro, Alcantara Kroko davanti al viso Ho visto la Siberie e non cè più nessuno in giro Ma anche lì lultimo non sarà il primo Puoi volermi morto, ma non mi ferma il Risiko Putain Les anges dellenfer La morte è qui ma vuole solo i Lovés Nella notte cantiche Da me, Triton, imparano Come Adamo, mi sento solo dal diavolo Innocente, loin dça, quelle vie Anima mea, ma questa è la Therapie Niente è per sempre, questa è una guerra, oh Chico Brucio lento in questo inferno Lago Cocito La mia anima, bianca e nera come Al Pacino Ho messo tutto sul rosso, ora ricomincia il giro Mi sono sentito troppo male dentro, quando ho capito che in sta vita sono maledetto C'ho un cuore dentro che vuole essere da solo e spento E sarà accompagnato quando mi sparano in petto Generazione atea con cristi e collane Li vedi decollare frate con le crisi e pare Tutti sti soldi obiettivo fra li voglio fare Perchè solo fra da triste scrivo pezzi fra li voglio fare Apparte con me stesso mai avuto un contratto Da una vita spero di spaccare quel palco La gente pensa che io faccia già la bellavita Vista da fuori sembra quasi in discesa sta salita Mai sentito dire sto ragazzo spacca Sulle spalle solo pesi mai presa un pacca Sempre qua da solo e non voglio che cambia E pure se volessi farlo alla fine che cambia Cento pezzi pronti, scrivo ancora sono a corto Con le mie cervella tipo chiuse in avaria Mi sorprende che nessuno si è mai accorto Che qua meritocrazia, fa rima con utopia Ste notti non dormo, penso a quando ritorno Che sto perso in un sogno, fra nel mezzo del sonno Penso a tutt'ora con i pensieri nella tempesta E se vuoi farti due follower bro sparati in testa Niente è per sempre, questa è una guerra, oh Chico Brucio lento in questo inferno Lago Cocito La mia anima, bianca e nera come Al Pacino Ho messo tutto sul rosso, ora ricomincia il giro2</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Lala</t>
+          <t>J’vends</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love La-la, la-la-la-la-la-la-la, la-la-la-la-la, love Love the way you fill me up with life Baby, we can break the speed of light Nothing to fear when you are near Just give me mo-o-ore Reaching for the sky, I'm aiming high Close my eyes and then it's almost like we fly Up in the air Up in the air, let's take it there Up to the air Never let go-oh-oh Oh-oh-oh Feel the energy Between you and me Baby, it's so right Oh-oh-oh I feel the energy Just taking over me, over me How I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love Oh, I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love Paris to LA over the night All around the world, just you and I Nothing to fear Nothing to fear When you are near When you are near We're on a ro-o-oll And we do it again And we do it again No stop, no end No stop, no end Out of control Oh-oh-oh Feel the energy Between you and me Baby, it's so right Oh-oh-oh I feel the energy Just taking over me, over me How I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love Oh, I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love Nothing to fear When you are near Oh-oh-oh I feel the energy Between you and me Baby, it's so right Oh-oh-oh I feel the energy Just taking over me, over me How I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love Oh, I've been waiting for this La-la, la-la-la-la-la-la-la, la-la-la-la-la-la, love18</t>
+          <t>DRMZ, you a fool for this one PNL Que la famille, que la famille Que La Famille, que la famille Ouais igo à l'aller j'ai d'la monnaie, au retour le coffre est chargé comme un poney J'écoule, je ramasse, je claque, j'y retourne, du début à la fin d'l'année abonné Pour les autres on s'enjaille, on survit et on die J'accorde une danse à la rue bien accompagné, j'galette ma solitude après deux 'teilles Pas besoin qu'on m'aime, j'vends du seum tampon M Quelques euros j'prends ma part, j'la laisse pas aux bâtards, ouais, qu'ils crèvent par centaines J'kiffe voir la misère s'élever, j'me suis fatigué à rêver J'me repose sur les faits, ouais, bientôt j'me refais, j'te laisse L, j'prends le V, l'enfer m'est réservé Les putes parlent dans mon V, PNL, Que La Famille QLF, on t'a pas dit, Ademo et Ladif, Gabbana est le deal On t'fait l'taga, on t'fait la beuh, tu viens du 16, on t'fait la cesse Élevé par un bandit, plus tard, j'veux faire comme mon papa, maîtresse Pétasse, allez casse un tour, le cur délogé, ils ont cassé ma tour Encore en retard, j'arriverai pas à l'heure, j'marche pas avec les putes, nique j'attends l'prochain tour Cet été j'me barre, claque deux-trois payes Vis la vie qu'j'aurai pas, marre du hood, j'me réveille Vis la vie qu'j'aurai pas Le bon-char en mode veille De retour j'l'aurai pas, la même heure, la même hess, Quand ça change j'le sais pas Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis J'veux du L, j'veux du V, j'veux du G, pour saper mes marques dans l'cur Y a qu'quand tu descends en enfer, qu'tu veux m'renvoyer l'ascenseur Celle-là elle est belle, c'est dommage que ce soit une 'tasse Vraiment dommage tu l'as vue sur les Champs en train d'traîner devant Häagen-Dazs Encore un qui chauffe ma mamie, paraît qu'il veut casser son tête Encore une victime sur la liste qui va devoir appeler son père Un destin mais y a hmm, y a des billets donc j'souris Petit j'attendais pas ma sieste, mais juste de casser les dents d'la petite souris Ounga dégaine à Mowgli Ha, Ounga des keufs j'vais courir Ha-Ha Ounga visite à Fleury, libérable cinq heures du mat', pété j'vais vomir La Il m'faut mon soleil, mes tartines et mon Nutella Igo, il m'faut mon oseille et ma gow du Venezuela J'suis là là là là où y a l'seille, ma drogue la base de ma paye Handek, écarte-toi de la teille, y a qu'ma télé qui s'rappelle de la veille J'fume, j'ai des cernes sous les yeux, te plains pas, j'suis né dans la jungle J'ai visser très tôt jusqu'à très tard de 10 heures à 4 heures du matin Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis18</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Abonné</t>
+          <t>La petite voix</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DRMZ, you a fool for this one PNL Que la famille, que la famille Que La Famille, que la famille Ouais igo à l'aller j'ai d'la monnaie, au retour le coffre est chargé comme un poney J'écoule, je ramasse, je claque, j'y retourne, du début à la fin d'l'année abonné Pour les autres on s'enjaille, on survit et on die J'accorde une danse à la rue bien accompagné, j'galette ma solitude après deux 'teilles Pas besoin qu'on m'aime, j'vends du seum tampon M Quelques euros j'prends ma part, j'la laisse pas aux bâtards, ouais, qu'ils crèvent par centaines J'kiffe voir la misère s'élever, j'me suis fatigué à rêver J'me repose sur les faits, ouais, bientôt j'me refais, j'te laisse L, j'prends le V, l'enfer m'est réservé Les putes parlent dans mon V, PNL, Que La Famille QLF, on t'a pas dit, Ademo et Ladif, Gabbana est le deal On t'fait l'taga, on t'fait la beuh, tu viens du 16, on t'fait la cesse Élevé par un bandit, plus tard, j'veux faire comme mon papa, maîtresse Pétasse, allez casse un tour, le cur délogé, ils ont cassé ma tour Encore en retard, j'arriverai pas à l'heure, j'marche pas avec les putes, nique j'attends l'prochain tour Cet été j'me barre, claque deux-trois payes Vis la vie qu'j'aurai pas, marre du hood, j'me réveille Vis la vie qu'j'aurai pas Le bon-char en mode veille De retour j'l'aurai pas, la même heure, la même hess, Quand ça change j'le sais pas Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis J'veux du L, j'veux du V, j'veux du G, pour saper mes marques dans l'cur Y a qu'quand tu descends en enfer, qu'tu veux m'renvoyer l'ascenseur Celle-là elle est belle, c'est dommage que ce soit une 'tasse Vraiment dommage tu l'as vue sur les Champs en train d'traîner devant Häagen-Dazs Encore un qui chauffe ma mamie, paraît qu'il veut casser son tête Encore une victime sur la liste qui va devoir appeler son père Un destin mais y a hmm, y a des billets donc j'souris Petit j'attendais pas ma sieste, mais juste de casser les dents d'la petite souris Ounga dégaine à Mowgli Ha, Ounga des keufs j'vais courir Ha-Ha Ounga visite à Fleury, libérable cinq heures du mat', pété j'vais vomir La Il m'faut mon soleil, mes tartines et mon Nutella Igo, il m'faut mon oseille et ma gow du Venezuela J'suis là là là là où y a l'seille, ma drogue la base de ma paye Handek, écarte-toi de la teille, y a qu'ma télé qui s'rappelle de la veille J'fume, j'ai des cernes sous les yeux, te plains pas, j'suis né dans la jungle J'ai visser très tôt jusqu'à très tard de 10 heures à 4 heures du matin Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis18</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gala Gala</t>
+          <t>Dans la soucoupe</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac Pour qu'ma money menterre Tant qu'ma Money menterre Tant qu'ma money m'enterre Mec met tout dans le sac Pour qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac Pour que ma money menterre Tant qu'ma Money menterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Le t-shirt est XL, le boxer est XL Elle met pas de XS, elle a des big fesses On brille comme lumière qui résonne Jsuis dans le sud avec amnésia Au fond des abysses comme anémone On revient de loin on veut palper sale Yeah, Yeah Me fait pas la mère Thérèsa On fait pas de lart terrestre NO ! Si je peux me permettre Paie en moi en espèces Où va te faire mettre Jai pas le temps den perdre Jsuis dans la soucoupe Sous-couche en kevlar On est sous-côté Depuis la poussette Tu veux quon lé-par ? Jsais pas marrêter Il faut que tu démarres Jsuis dans bails pas net Fait netour manette Fait des tours by night Très peu de détours Beaucoup de raccourcis De très grands projets Dans des trous de souris Ils ont rien donné Donc on a tout pris Ils ont rien donné Donc on a tout pris Tant que ma Money menterre Mec met tout dans le sac Pour que ma money menterre Mec met tout dans le sac Tant qu'ma Money menterre Tant qu'ma Money menterre Mec met tout dans le sac Pour qu'ma money menterre Tant qu'ma Money menterre Tant qu'ma money m'enterre Mec met tout dans le sac Pour qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac Pour que ma money menterre Tant qu'ma money menterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Connait tous les menteurs tous Tant qu'ma money m'enterre faire le tour de la terre Yeah, yeah Papi finit ton verre Tant que ta money tenterre Juste pour finir en tête Près à se jeter la pierre Hijo Pas fait le quart de mes dièzes Veulent manger tous mes restes tous Part avant viens après Vous êtes la pire espèce Jai pris les devant depuis Je vous laisse quelques pièces à peine Jétais en dèche foreal Étourdi dans livresse for real Gratter des nuits entières Rayer des disques de prods Et je vois leurs yeux ses porcs On est trop fort cest mort Maintenant tu veux nous Check Taimerais quon coopère hein ? Aller-retour les enfers Tant que ma money menterre Tant que ma money menterre Ils ont rien donné Donc on a tout pris Ils ont rien donné Donc on a tout pris Uzi est rusé, enfoiré, enfoiré, enfoiré, enfoiré ! Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac pour qu'ma money menterre Tant que ma money menterre Tant que ma money m'enterre Mec met tout dans le sac pour qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac pour qu'ma money menterre Tant qu'ma money menterre Tant qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Capuche</t>
+          <t>Loin des hommes</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>C'est comme si j'avais un atavisme C'est comme si j'rappais à la va-vite, nique sa mère, moi, j'suis pas un riche J'suis baisé, j'ai envie d'pleurer à chaque pleine lune Perdu, le genre de fou capable de rêver d'futur quand il voit une belle pute Parce que j'suis plus triste encore que l'film Le Titanic Parce que j'suis baisé, tu pourras plus jamais revoir l'enfant, le p'tit Tarik Baisés, c'est la merde ma couille, faudrait qu'j'pète un coup Baisés, N.O.S, check, on reste intestables Interdiction d'toucher à l'un, au risque de perdre la boule, baise la poulaille On reste pareils X X, dogue argentin Kaboul dans nos lifes X car on graille J'suis baisé, et ça depuis qu'on m'a pé-cou l'enfance Ça fait six ans qu'j'rappe, six ans que rage et peine s'foutent ensemble Baisés, à voir mon reuf vieillir triste Putain, passe-moi l'calibre que j'aille remplir la tirelire Le chauffage coûte cher alors dans la chambre il caille Y'a rien mais tu mets quand même les couverts quand t'as l'ventre qui râle Mais c'est parce que j'ai fait des fautes la plupart d'ma vie J'ai joué hors jeu vu qu'j'ai vu qu'y'avait pas d'arbitre Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail X2 Avant j'voyais un monde parfait maintenant j'veux l'baiser J'fais une croix sur mon rêve de gosse le jour où j'me suis blessé Baisés, parce que j'parle seul comme un malade mental Baisés, la micht' t'attache pas car j'suis pas sentimental Baisés, parce que j'retrouve ma solitude dans l'allée Baisés, parce que j'reste là mais j'voudrais m'en aller Baisés, parce que j'passe des heures à fixer le vide X donc faudra vite faire le vide Le désespoir d'mon père de voir son fils au tribunal Je n'l'ai jamais rendu fier, j'ai la haine, j'vais prendre une arme Baisés, parce que j'ai le souvenir des pe-pe-perquises Baisés, parce qu'on m'a dit petit Ça s'transmet père-fils Baisé par la tristesse, gros, j'ai appris à vivre avec J'la traîne un peu partout sous la capuche qui recouvre ma tête Baisés, parce que j'oublie trop souvent d'prier Dieu Baisés, parce que j'voulais voir loin mais on m'a pris mes yeux Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés putain j'te jure qu'on f'ra l'bail Et c'est parce que je n'savais pas quel X Baisé par ce manque d'amour d'ma mère qui aurait pu m'aider Je suis ce petit du zoo qui vit dans l'passé Récupère ma tétine, contre les chats, gazelle Baisés, faut trouver un toit c't'été, ça sent l'expulsion À cinq dans un une pièce, 'faut pas s'faire d'illusions Baisés, parce que j'croyais qu'ça n'arrivait qu'aux autres Ademo, Son des Halls, ça ça sent l'tiek de zoo ? Ça sent la hess Ça sent la rage Parce que c'est dans les gênes baisés V'la les deux frères prêts à crever dans les airs Percer sous le chant des sirènes C'est pour tous les frères et surs dehors tout l'hiver Merde Ademo, N.O.S Putain d'merde, y'a longtemps qu'y'a eu le S.O.S Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Sur ma tête qu'on f'ra l'bail Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Putain j'te jure qu'on f'ra l'bail</t>
+          <t>Yeah, c'est Inf, c'est Veust, c'est Grünt, yeah DBF tome 4, 888, lalbum, Don Dada Assassin prêt à cracher l'feu, reste concentré, yeah, hein Les chargeurs sont pleins, mais j'les vide tous tous Les ennemis sont pleins mais j'les nique tous yeah L'envie, la jalousie nous divisent tous Voici mon nom d'stratège Sol Invictus Sale fou va, c'est jeune fe-boeu, big Veuveu, spit le feu, j'dis cque jvux L'avocat si jle raque j'exig qu'il me disculpe J'fais du cash, jfais du rap ça excite les p'tites putes Au soleil sur le boat, un peu de brise de mer J'aurais honte que mon seul hit soit une reprise de merde Bien dolma bien douez, tu connais les dièses J'parle pas aux judges, j'parle pas aux djejs Prioritaire même si j'arrive par la gauche Chaque jour j'revois mes objectifs à la hausse et ouais Si j'ai du pain sur la planche j'dois le mettre sur la table J'suis en vet-sur à Cannes, faut un bête d'Huracan Chez nous c'est marche ou crève sur la dalle La loi du plus fort règne sur l'asphalte Y a tout c'que tu veux pour un tarif sympathique Le shit et la beuh, j'appelle Tariq Saint-Patrick Sur nous, ils écrivent plein d'articles et ouais Nos adversaires ont mal fini, pourtant ils étaient bien partis Chérie, elles te plaisent ces fleurs ? Elles sont pour toi J'me rappelle quand on avait qu'un veston pour trois Si le schmitt me tutoie, j'lui dis restons courtois Pendant qu'j'compte ma sse-lia et qu'je lèche mon pouce droit Le rap français, que des analphabètes Si j'les juge sur GQ, je casse la tablette Précision chirurgicale, comme celui qui shlasse la plaquette Devant leur che-bou, je place ma braguette Parce que gentil n'a qu'un il pan ça suffit pour viser pan Chargeur en forme de banane pan, ça suffit pour glisser pan J'le fais pour les miens, j'peux pas renier ma race Cousin, quand j'étais en chien, j'étais premier d'la casse Ils s'mentent à eux même en essayant d'se rassurer Vous s'rez meilleurs que nous quand l'océan sera sucré et ouais Pour l'instant fermez vos chattes, restez à vos places Même mort, j'donnerai pas l'respect à vos blazes C'est la loi du plus fauve, comme disait Le Rat Donc m'en veux pas d'viser le tas ou d'viser la tête au lieu d'viser le bras Piège sa caisse pour faire exploser un traître Parle pas d'fruit à un lion en train d'désosser un zèbre J'veux entendre le proc' crier si je fais le chrome briller J'veux voir le record plier, leurs corps dans l'coffre recroquevillés Froid comme un soviet' J'froisse tous leurs sons d'fillettes A l'aise comme DSK dans le Sofitel Même aveugle, j'donnerai toujours ma vision des choses toujours Ils r'gardent ma femme, sa veste en vison les choque Antibes, Vallauris, ici on est chauds On a la même Cali, les mêmes palmiers qu'à Crenshaw Et ouais, la maj', j'les flippe pour gratter d'la marge flip, flip Maintenant j'essaie de drip sans acheter d'la marque drip drip Bientôt j'monte dans le ship, et j'largue les amarres je monte Avant, faut faire les chiffres de Kendrick Lamar J'me sens à l'étroit dans l'C3 J'les vois sur Insta, ils font trop tminik j'les vois J'les entends qui rappent, ils sont comme ma caisse Y a aucune assurance, aucun contrôle technique J'suis sur la pente douce depuis l'début du siècle De la grande ours, j'connais rien du ciel rien Dos au mur, obligé d'vendre les briques J'ai besoin de gaz, comme un putain d'briquet Yeah, 888, l'album de Infinit' c'est Veust, le zin Bientôt dans les bacs c'est Inf, le zin DBF, Don Dada, Grünt 64 Let's go 888 l'album ouh, enfin ouh Posent trop d'questions. C'est comment ? C'est quand ? C'est qui lui ? Que des mystères que des mystères Hey, hey Mais où il va lui ? Mais comment il fait lui ? Que des mystères J'fais le yoyo entre les deux hémisphères avec une jeune héritière Hey, oui, oui, c'est bien moi, le zin qui fait tout Le revolver s'appelle Casper parce qu'il effraie tout l'monde à chaque fois qu'il fait bouh On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es... Technique d'allemand, j'n'évolue qu'verticalement J't'explique qu'y a le manche, ta clique c'est un ramassis de boulets J'réunis l'Afrique comme Kadhafi le voulait Wesh la mif', c'est comment ? J'suis vers Nice, Saint-Laurent, flex en Yves Saint-Laurent Avec cinq ou six zins d'Oran, boîte à gant pleine dans le X5 orange Y a que des têtes suspectes qui boivent teille sur teille, fument pet' sur pet' Chacun d'entre eux peut te piétiner jusqu'à c'que ton plexus pète Faut vite mettre les femmes, les enfants, les gens trop tendres à l'abris Tmax de mai à octobre, Classe G de novembre à avril On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul face à Pablo Génie sans bac 7, j'veux l'troupeau entier, fuck une part du steak C'est bientôt l'heure de jouer à Tetris sur le mur avec les plaques du SNEP Bientôt les rivaux portent nos valises, juste avant de bruler comme Dino Ortolani Frère, j'me sens prêt, petite ombrelle dans un verre de sang frais Pull-up à 2.50 avec les freins défectueux Si tu m'demandes c'que je pense de ton top cinquante J'te dis qu'mes zins défèquent sur eux Pour distiller ma vie, il m'faudrait plus que dix stylos Traîne avec des zins qu'ont des fiches de recherches Et qui tournent dans des voitures qu'ont des fiches d'immo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo Yeah, yeah, yeah On met pas d'homme, au d'ssus des hommes non, c'est DBM On met les sommes, au d'ssus des sommes hey, c'est Don Dada, c'est Grünt 64 Yeah, yeah Seule ombre au tableau, t'es seul contre Pablo C'est nous, t'es toujours avec les glousseurs toujours Les maîtres glousseurs, on est là, ok go Elle est flex sur Insta, mais pour du Dior elle tapine J'pose le tel j'regarde les murs dépourvus d'or et de platine Quand la gélato est forte j'vois des mecs de la bac partout Veuveu, comme les gosses il aime trop quand y a pas d'patrouille Jump au dessus des lois comme Jordan, on aime ce genre d'âneries Et quand les gendarmes pleurent au fond des gendarmeries Ici vous êtes dans la zone, un conseil restez pas ici A tous les zins et zines qui cherchent l'or comme Esteban et Zia Ok l'élite c'est nous, élisez-nous En face j'te dis qu'c'est mou, comme Elie Semoun contre Eric Zemmour Ma mère m'a vu du balcon mettre mes premiers dribbles Mon père m'a vu du ciel mettre mon premier triplé fier de moi Est-ce qu'il est fier de moi, malgré les ballots, les dames, et toutes les paires de roi ? les paires Veuveu toujours lourd, y a aucune perte de poids toujours Avant ils s'disaient tous, qu'est ce qu'ils vont faire de moi ? quoi Moi j'sais quoi faire de moi j'sais J'cherche la moula toute la journée, souvent tout seul dans ma caisse Des fois j'me gare, j'regarde les lumières d'l'aéroport Derrière moi le taux de batards bat des records J'avais pas d'cash, elle est partie avec c'gros porc cette pute Flemme de lire son message, j'lui réponds ok bébé Mets-toi d'profil, j'veux voir les choses du bon côté Barry c'est mon twin, DBF c'est ma team Ta biche est plutôt bien entourée Manstr', manstr' Dédicace DBF, Gak, Barry, les zins, Zmail, Lulu, Negus, Jeh' On est là Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, zin Millio, Negus Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, d'En Bas d'En bas Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire Psych', Soso Ca fait longtemps zin Ca fait longtemps que j'suis dans cette merde Comme Veuveu, les deux pieds d'dans Le temps passe, les cheveux deviennent blancs, mes neveux deviennent grands Tu finis direct terre-pa biatch, si tu veux faire l'patriarche Herbe grasse, grillades, Air Max Triax, j'suis dans les verbal triades Tu connais pas, faudrait t'documenter Tout c'que tu racontes n'est aucunement vrai Ta vie, un film qui fait aucune entrée Pendant qu'c'est la guerre, je copule en paix Dans tes lunettes, tes cartes se reflètent, qui tu crois bluffer ? On a de la corne aux mains, ils ont des doigts de fée J'rappe, comme le fils de Nas, ouais zin je vise le max, benef, sous prise de masse Double nationalité, j'vais direct au bled si le FISC menace J'le fais comme personne ne l'a fait avant et personne ne le ref'ra C'est comme des Ruff Ryders que mes reufs rident Toujours la dalle, même quand j'viens de graille J'suis le mélange de ASuivre, Mic Forcing, Coloquinte, Chiens de Paille c'est ça Toujours la dalle, même quand j'viens de graille J'suis le mélange de ASuivre, Mic Forcing Dans la soirée les bouteilles j'les vide toutes Sont pas contents ? Nique sa mère, j'les nique tous Jeune enragé ne fait pas de musique douce Nom de stratège S O L invictus A ma femme, j'offre parfums, vernis, colliers Approche-là et tu peux t'faire ligoter Puis jeter au large, j'ai l'permis côtier Plus j'la vois, plus j'déteste la lumière sur la côte d'Azur Sous Côte du Rhône avec une côte de buf plus épaisse qu'l'annuaire c'est ça Finis bouts d'shits, camels, on veut Gucci, Cayenne, plus le pussy d'Ayem Branlette espagnole sous douche italienne J'ai l'intelligence et la force en plus J'veux plus voir de proches dans l'bus Tu cracherais moins le feu que moi, même avec une torche dans l'ul-c Trouve nous sur un nuage de bubble qui claque Ralph Laurens, Burberry, Clark, j'écoute Luxury Tax j'écoute Luxury Tax Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, d'En Bas d'En bas Manstr', manstr', 06 Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, Don Dada Don Dada Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, Sud-Est Grünt 64 Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire Eh ça glousse encore Ca s'arrête pas, ça s'arrête pas c'est les flammes perpetuelles Que des maîtres, pas d'apprentis, pas de compagnons C'est inf' c'est Veuveu J'suis speed J'suis speed sur la file de gauche Flic derrière s'accroche J'ai l'biff dans la sacoche, j'ai le shit dans un sac Auchan J'm'arrête de canarder que si y'a un d'mes gars à terre Tu m'cherches, t'as qu'à regarder en d'ssous des canadairs Rats des villes, rats des champs J'rap des films où ça braque des gens Carjack leurs Cadillac, casse les vitres, brasse les jantes Pas nés dans des palais Souvent des cruels, souvent des tarés Tous nos darons ont des truelles Toutes nos daronnes ont des balais Dans les baskets ou les plaquettes Ceux qu'ont le bras long montent les paliers Pour qu'papiiers finisse au ballon, où l'ballon finit dans le panier Daron illettré regarde Des Chiffres et Des Lettres Pendant que l'Etat lui envoie des chiffres dans des lettres C'est dur d'être sur salarié quand t'es subsaharien Donc dans le stud' ça va chier, t'sais que dans le sud ça rap bien Luger d'hitler dans ta bouche, donc suce sale aryen Zinio pour me calmer, même les stup' servent à rien Sert a rien Vraies flammes, c'est l'33ème degré, c'est nous let's go C'est Veuveu, monstre, zin, 888, l'album Grünt 64, toujours là Nous c'est la victoire, vous c'est l'échec C'est pour ces métèques qui font pousser les têtes Ta biche a la dalle elle m'envoie un clin d'il, j'réponds en faisant bouger les pecs Pas d'ceux qui se taisent, j'suis de ceux qui dérangent J'écrase la concu' comme des chenilles qui rampent Desserre le scratch de la air force haute, parce que j'ai les chevilles qui enflent Ca c'est la vie de Karim, pompes, tractions, footing hey hey J'crois pas en tes vérités, donc, action cousine hey hey Chaque taff m'envoi dans le cosmos Y'a qu'avec le biff que j'suis en osmose Que la miff comme Ademo et Nos'Nos Pour le bénef' on fait nos nos Madame fait le ménage pendant qu'fais le gainage, pendant qu'fais le gainage J'ai la force de pégase, j'bois le rhum agricole pas le rhum de mélasse Dans le poste cd j'ai mis I AM Dans l'OCB slim j'ai mis l'aya Rien qu'je pense au biff de Will Iam Pendant que j'né-tour dans la wilaya Dès qu'tu vois DBF, DON Tu sais déjà que c'est le BON Le cul de ta fe-meu c'est une éolienne Elle boit le jus de Karim comme le thé au miel J'ai le passeport vert dans la voiture rouge J'vous passe la guerre, que la guerre soit sur vous J'suis debout sur leur crâne comme bison mec J'ai mes plans dans ma tête, fuck Prison Break Rappeur, t'es pas dans ma vision mec J'suis trop loin pour entendre tout c'qu'ils ont rec La drogue, vous en parlez mais vous emballez rien La beuh de Bob Marley, nous on s'en bat les reins Forger un mental en acier valyrien Passé d'galérien à phrasé aérien Elles sont toutes bonnes donc je fais la plouf J'arrache le ballon, la jambe et la pelouse Technique chirurgicale, quand j'rentre dans l'studio faut qu'j'mets la blouse Zin, j'te fais confiance, je pèse pas, et tu m'fais confiance, tu comptes pas Et si ça se passe comme d'hab, t'inquiète, dans deux jours come back Coke, beuh, shit, c'est le kit de détresse Les plus réactifs quittent les tess Les plus créatifs kickent des textes Toujours un raciste qui t'déteste Passionnément, à la folie, mes couilles On fait plus d'coeur, que les pétales brulent Viens on focus sur le Ferrari noir, livré avec sa pétasse brune Viens on focus sur le Ferrari noir, livré avec sa biatch brune C'est pas fini le zin, c'est pas fini, on est là Mets-nous avec les légendes, c'est Inf', c'est Veust d'En bas, Sud Est Crache le feu depuis longtemps, ça fait longtemps qu'on est au-dessus Tu le sais putain Sud-Est, 06, 888 Laisse-moi loin d'tous ces mythomanes J'suis dans l'jardin, j'fais pousser mes tomates Et la beuh qui fait tousser Method Man Ca suce pour le succès, bah Veuveu nan J'suis jamais parti mais j'les fais flipper comme un revenant J'viens par l'entrée des artistes, ils prennent la sortie sans achat V de victoire, l'index sent mon shit, le majeur sent leur chatte Tu t'réveilles en sueur, juste avant qu'j'presse l'automatique A mon avis c'est symptomatique d'un stress post-traumatique Le produit est gras comme mardi, le mac est fly comme Marty Mark Landers et Thomas Price sont de la partie Comme McDo, j'fais payer pour la sauce Et si l'offre est trop basse, j'te raccroche au nez comme Sosa J'connais la rue, les balles perdues s'arrêtent pour m'demander la route J'prie le seigneur pour qu'il empêche les douaniers d'démonter la roue J'suis impatient comme ton père qui t'attend pour te mettre la rouste Je reste près de mon liquide, au cas où ça éclabousse Enfoiré, c'était DBF, Don Dada, Grünt 64 D'En Bas Fondation On a craché c'feu Don Dada, Sud-Est enfoiré, 06, 888 Et là normalement tu glousse, là normalement tu glousses au maximum 888 l'album C'est pour tous les zins, 06, Sud-Est DBF, Don Dada, 888, l'album</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ryuk</t>
+          <t>Recherche du bonheur</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Een blik op het water Traag in de rivier Voorbij zonder voorbij te gaan Waar de beweging rust vindt Roerloos aan de oever staan Een blik op het water En het huilen begint Een adem in de wind De verre reuk van vuur Herkennen van hier eerder te zijn geweest Een mens die zich op aard' bevindt De geuren van het late uur Een adem in de wind En het huilen begint Dit is geen verdriet, nee Dit is huilen van vreugde Dit zijn tranen door het lachen heen Een blik in de ogen Ik kijk mijzelf aan Alle vaders, alle dochters tegelijk Hoe alles zijn bestemming vindt Het goed en fout gedaan Een blik in de ogen En het huilen begint Dit is geen verdriet, nee Dit is huilen van vreugde Dit zijn tranen door het lachen heen Zo mooi Zo mooi Zo oneindig Een blik in de ruimte Tussen de sterren door Langs de planeten in hun baan Het leeg waarin alles ligt besloten Het zichtbare voorbijgegaan Een blik in de ruimte En het huilen begint Dit is geen verdriet, nee Dit is huilen van vreugde Dit zijn tranen door het lachen heen Zo mooi Zo mooi Het was nog nooit Zo mooi Zo mooi Zo mooi was het nog nooit En de wind waait En de bomen waaien mee En het gras imiteert De golven van de zee Water in de bomen Golven in het gras Niets is ooit meer zoals het was Zo mooi Zo mooi Het was nog nooit zo Zo mooi Zo mooi Zo mooi was het nog nooit</t>
+          <t>Yeah, yeah Le Son des halls mixtape 2008, yeah, 2009 Le rap a pris une vitesse, ok, j'passe la huitième Paname, on est àl, prépare l'aspirine avant la migraine J'veux la victoire, avec un rêve dans la tête Tu veux pas d'histoires ? Mets pas ta graine dans la mienne J'me tâte, que t'aimes ou t'aimes pas, t'écoutes gars Dans ce rap en mode baseball, ils mettent le vent, moi j'mets des coups de batte 2008, mixtape Le Son des halls 2010, on sera mille têtes à rugir du fond des eaux Hé dé-dé-débile, mon dé-dé-mépi Dé-dé-dé-débit, j'vends des-des-des pills J'ai la phrase qui frise, le ciel écrase et brise ta glace Qui crispe, j'entrave, l'écrit est grave de mon le-sty Mon blase rime au style qui bave Ademo 2-0-0-8 Man j'te montre ma comète, matte le ton de ma colère C'est Madmax, c'est XXX qui marque, ma plume n'a pas le sommeil J'ai mal-mal pardonné, ma marche écrase au nez Mama j'ai mal tourné, j'croyais XXX Votre rap comme un indic, j'le monte ou j'le descends ?? c't'année, Ademo est chaud même en décembre J'ai trop la fait la merde ça rend méchant Tu parles de flow c'est la guerre mec, t'inquiètes pas pour moi j'suis dans les temps Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est bon, j'ai-j'ai bombé bon pour mieux plomber l'son, bon 0-0-8 y aura pas d'plan B ça fait check parfait Impossible d'être, parfait le rêve, passé Me dis pas d'faire, la paix On f'ra tout pour faire croquer la mif et les frères Nous on veut juste manger, plus vendre le shit mais des teilles Mets des tonnes de baffes, base, pesé au milligramme Essonne, Val-de-Marne, trop speed trop bi-bizarre C'est sale, va d'mander comment on finit mal Et comme v'là l'baille Ademo au style mitraille R-r-r-rage, r-r-r-rare, r-r-rafale, sur la tess, r-r-radieuse Fais la pa, fais la pa, fais la passe à personne Fais la pas, fais la, fais la pas, fais la pas la peine Fais la pa, fais la, fais la pa, fais la part des choses Fais, fais la, fais, fais la plage Ademo On a tous un souhait, prions pour l'réaliser Que Dieu m'entende, j'tue l'arbitre avant qu'il vienne me pénaliser J'sais qu'survivre, j'veux vivre, simplement de thunes Le monde un scorpion car pour atteindre le bonheur ici la queue te tue Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est pour mes gros à la recherche de poitrines aussi grosses que Loana Voilà la face la plus connue d'Ademo j'suis trop alarmant Peu d'vocabulaire, le cocard suprême J'ai vodka jus d'pêche pour ta gueule pose ta bouteille Un putain d'morceau, amorcé, mort-vivant Pas d'temps mort ok, j'ai mis mes boules à l'hameçon et vous mordez J'écris sur une boîte de pharmacie et y a pas d'mal Car dans ma vie y a c'que j'mange et c'que j'porte qui n'a pas d'marque J'rap pour les S-SDF, les mecs-mecs déter Qui niquent les profs, les keufs fraudent la S-SNCF Qui check-check les rêvent, qui baisent baisent les traîtres Millions d'paroles, ceux qui restent-restent les mêmes J'prouve prouve grave grave ... Coup de coup de crasse crasse j'goume j'goume crade crade Se fout de se fout de ce rap bouge de bouge de là vieux ... ta gueule 2008 Parce que faut tomber les pommes pour enfin voir les étoiles Le Son des Hall mixtape S't'euplé, bouche les oreilles d'ton gosse et raconte-lui une histoire Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais1</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Laisse</t>
+          <t>Obligés de prendre</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Tous mes choix sont nauséabonds Jcrois qujai pas bien retenu la leçon Elle me manque cette époque où ça jouait au Sims 2 en caleçon Pour mendormir jcompte mes lacunes Ça marche pas donc jparle à la lune Elle me rappelle que maman est éphémère, quon en a quune Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meillur client En attendant la suite jm console en rêvant Ya des moments où jai envie que dune chose cest dêtre triste et quon mlaisse Ademo ment, même quand jaurai percé jplairai pas à Eva Mendes Temploies des moyens colossaux juste pour que jte cala Dépenses des sommes indécentes pour la mala Ten oublies même de rattraper ta salât Jvis dans ton esprit le loyer est gratos Le seul huissier qui mfera sortir cest une bastos Jte hanterai jusquà la fin dtes jours comme Kratos Jte hanterai jusquà la fin dtes jours comme Kratos Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant Jattends la fin comme le dernier grain du sablier Aucune menace ne me fera plier Tu peux essayer ressayer mais jamais ô grand jamais je rendrai mon tablier Jvais dans la salle du temps pour ne3ess Jaccepte la CB PayPal et les espèces J'suis prêt à faire les efforts qu'il faut pour mettre ma maman à labri Passer du scoot' au classe S Parfois jaimerai trop pouvoir arrêter le temps Pour profiter un peu plus de linstant présent La vie me vend dla haine j'suis son meilleur client En attendant la suite jme console en rêvant</t>
+          <t>Eh, esprit Mobulu Comme lOpinel de Nabilla sortez les umbrella il pleut des flow flow Wallay billlay quils bossent avec les Mbilla tout ces rappeurs jles vois en flou chkem Ça balance les détails de lorganisation, cest quoi leurs but au fond Cest quoi le but Ah jles vois en flou cest des indiques ils veulent faire tomber le four On parle pas trop ma geule on fait ce quon a à faire Même pris en flagrant délit cest sur quon nie fort Ils sont dans le caniveau concu aucun niveau StarfAllah Eh,Eh,Eh,Eh Je suis congolais rakataku catchu a chacun son quartier mais Je le fais pour la ville entière faut du cardio Mais on a les épaules on va le faire et cest tant quil est chaud quil faut quon batte le fer Et quand il est faux, faut combattre le frère Ils font pas peur tout ce quil font cest parler fort Tout ce quon a Dieu merci on la eu part leffort Aucun pacte nous on y arrive par la foi Eux y sont arrivés en la prenant par le fion La hchouma berkes cest pas digne Jsuis en RS Quattro eux ils patinent Ca fait du buzz mais ça fait pas de thunes Wallah ils font du buzz mais ils font pas de thunes Cest pas génial rien dans les poches mais pour la Fame sont près a jeûner ils sont prêt à tout Même si je suis à genoux je leur tendrais pas la main ils vont me la Jamel Cest gênant ils se prennent pour des génies mais en vrai ces KO cest naze On fait pleuvoir les flow obligé de sortir les K-way Toujours réveillé toujours Pas besoin de Kawa jamais On reste concentré on tas dit cest tout droit je le répète au cas ou taurais pas saisi Maestro comme zizou MVP chaque saison je leurs mets que des ciseaux Avec nous ou contre nous cest à toi de prendre la bonne décision On ma donné une chance Je vais la saisir a deux mains Jrentre dans la légende comme NOS et Ademo H24 au charbon on remet rien à demain Je les vois en flou Cest bizarre Je deviens de plus en plus parano cest abusé Il me faut les milli les milli les milli puis bye bye bye Il me faut un neuf milli milli milli en cas de ba-bang bang Je les vois en flou Cest bizarre Je deviens de plus en plus parano cest abusé Il me faut les milli les milli les milli puis bye bye bye Il me faut un neuf milli milli milli en cas de ba-bang bang</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sibérie</t>
+          <t>Athéna</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Niente è per sempre, questa è una guerra, oh Chico Brucio lento in questo inferno Lago Cocito La mia anima, bianca e nera come Al Pacino Ho messo tutto sul rosso, ora ricomincia il giro Guardami bene, siamo leggenda e mito Lombra non segue più, è vittima del mio istinto Lato oscuro, Alcantara Kroko davanti al viso Ho visto la Siberie e non cè più nessuno in giro Ma anche lì lultimo non sarà il primo Puoi volermi morto, ma non mi ferma il Risiko Putain Les anges dellenfer La morte è qui ma vuole solo i Lovés Nella notte cantiche Da me, Triton, imparano Come Adamo, mi sento solo dal diavolo Innocente, loin dça, quelle vie Anima mea, ma questa è la Therapie Niente è per sempre, questa è una guerra, oh Chico Brucio lento in questo inferno Lago Cocito La mia anima, bianca e nera come Al Pacino Ho messo tutto sul rosso, ora ricomincia il giro Mi sono sentito troppo male dentro, quando ho capito che in sta vita sono maledetto C'ho un cuore dentro che vuole essere da solo e spento E sarà accompagnato quando mi sparano in petto Generazione atea con cristi e collane Li vedi decollare frate con le crisi e pare Tutti sti soldi obiettivo fra li voglio fare Perchè solo fra da triste scrivo pezzi fra li voglio fare Apparte con me stesso mai avuto un contratto Da una vita spero di spaccare quel palco La gente pensa che io faccia già la bellavita Vista da fuori sembra quasi in discesa sta salita Mai sentito dire sto ragazzo spacca Sulle spalle solo pesi mai presa un pacca Sempre qua da solo e non voglio che cambia E pure se volessi farlo alla fine che cambia Cento pezzi pronti, scrivo ancora sono a corto Con le mie cervella tipo chiuse in avaria Mi sorprende che nessuno si è mai accorto Che qua meritocrazia, fa rima con utopia Ste notti non dormo, penso a quando ritorno Che sto perso in un sogno, fra nel mezzo del sonno Penso a tutt'ora con i pensieri nella tempesta E se vuoi farti due follower bro sparati in testa Niente è per sempre, questa è una guerra, oh Chico Brucio lento in questo inferno Lago Cocito La mia anima, bianca e nera come Al Pacino Ho messo tutto sul rosso, ora ricomincia il giro2</t>
+          <t>Parle pas d'la street, parle pas tout court J'suis pas Biggie, j'suis pas Tupac Shakur Mon son au tard-mi jusqu'à dans la cour Il est dans l'circuit entouré d'vautours T'es dans le puits, j'suis dans la tour J'l'appelle ma pute, tu l'appelles mon amour Moi, je t'encule, tout ça en un mot F430 dédicace Ademo Hein, faut que j'me calme, nique sa mère ces paires de Nike Nous les mes-ar, on les utilise contre la BAC Et quand y a embrouille, la gâchette nous sert de bague Ouais ouais, quand y a embrouille, la gâchette nous sert de bague Tu dis qu't'es mon s'hab mais tu l'es pas Ta clique, tard-bâ, on n'en veut pas T'écoutes F430 et t'as pas le choix Tu t'ambiances comme So et Adsa Vendez du shit, on a pas le même chiffre pas les mêmes chiffres Faites du peura, on a pas les mêmes ziks Mon frère LZR, H24 dans la street H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester Athéna de Ketama, je ne tousse pas, F430 Bréda Ça bombarde sa race, ça déboîte de ouf Tous ces vieux rappeurs, schlagués sa mère Louis, Fendi, Ferragamo T'utilises encore le fer à repasser Fais pas genre tu connais un d'mes potos Alors qu'le cercle a toujours été fermé Mytho, mytho, on t'a rodave Mytho, mytho, t'es tout pourave Mytho, mytho, on t'a rodave Mytho, mytho, tu finiras dans ma cave Tu peux que kiffer, t'as pas le choix F430, IGD, c'est my squad Pire que le virus du Ebola Igo, Z-double-O, ça rigole pas H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester1</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>J’vends</t>
+          <t>Tahia</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DRMZ, you a fool for this one PNL Que la famille, que la famille Que La Famille, que la famille Ouais igo à l'aller j'ai d'la monnaie, au retour le coffre est chargé comme un poney J'écoule, je ramasse, je claque, j'y retourne, du début à la fin d'l'année abonné Pour les autres on s'enjaille, on survit et on die J'accorde une danse à la rue bien accompagné, j'galette ma solitude après deux 'teilles Pas besoin qu'on m'aime, j'vends du seum tampon M Quelques euros j'prends ma part, j'la laisse pas aux bâtards, ouais, qu'ils crèvent par centaines J'kiffe voir la misère s'élever, j'me suis fatigué à rêver J'me repose sur les faits, ouais, bientôt j'me refais, j'te laisse L, j'prends le V, l'enfer m'est réservé Les putes parlent dans mon V, PNL, Que La Famille QLF, on t'a pas dit, Ademo et Ladif, Gabbana est le deal On t'fait l'taga, on t'fait la beuh, tu viens du 16, on t'fait la cesse Élevé par un bandit, plus tard, j'veux faire comme mon papa, maîtresse Pétasse, allez casse un tour, le cur délogé, ils ont cassé ma tour Encore en retard, j'arriverai pas à l'heure, j'marche pas avec les putes, nique j'attends l'prochain tour Cet été j'me barre, claque deux-trois payes Vis la vie qu'j'aurai pas, marre du hood, j'me réveille Vis la vie qu'j'aurai pas Le bon-char en mode veille De retour j'l'aurai pas, la même heure, la même hess, Quand ça change j'le sais pas Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis J'veux du L, j'veux du V, j'veux du G, pour saper mes marques dans l'cur Y a qu'quand tu descends en enfer, qu'tu veux m'renvoyer l'ascenseur Celle-là elle est belle, c'est dommage que ce soit une 'tasse Vraiment dommage tu l'as vue sur les Champs en train d'traîner devant Häagen-Dazs Encore un qui chauffe ma mamie, paraît qu'il veut casser son tête Encore une victime sur la liste qui va devoir appeler son père Un destin mais y a hmm, y a des billets donc j'souris Petit j'attendais pas ma sieste, mais juste de casser les dents d'la petite souris Ounga dégaine à Mowgli Ha, Ounga des keufs j'vais courir Ha-Ha Ounga visite à Fleury, libérable cinq heures du mat', pété j'vais vomir La Il m'faut mon soleil, mes tartines et mon Nutella Igo, il m'faut mon oseille et ma gow du Venezuela J'suis là là là là où y a l'seille, ma drogue la base de ma paye Handek, écarte-toi de la teille, y a qu'ma télé qui s'rappelle de la veille J'fume, j'ai des cernes sous les yeux, te plains pas, j'suis né dans la jungle J'ai visser très tôt jusqu'à très tard de 10 heures à 4 heures du matin Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis, je vis, je visser Je vis, je visser J'm'ennuie, je vis, je visser J'bibi Je vis, je visser J'm'enfuis18</t>
+          <t>We be going out, baby, talking same shit We be spreading love, nigga, fuck l'hate shit We gon take it far, we don't do the fake shit T3eddit f lmatar, nsejjel, we gon' make hits 7askine Coca, whisky glaçon A.L.A, Toto, que du bon son Zetla, Ketama, 3e9li absent Mauvais garçon, taser te7t lcalçon Okay okay okay, nass 3jebhom rappi 9bel ma ye3jebhom looki Barra s2el s7abi, se9ssi 3la soulouki Mhebbelkom b trapi, bercha t7ebb t'booki Bitches call me pappy, feeling like I'm AAP Rocky T7eb tel3eb b e3sabi, sir t9owed bel marroki Neflexi w ndabi, nkhelli l'haters metbloki 808 f rassi, make me jumping ki Sasuki Fuck it 'cause it's okay We making circles, kima NASA Hani jitek nrapréz fi zoni We smoking purple kima à la Casa Lazemni ma nensach elli zahrouni M3aya ElGrande, mala faza Dima nzidou fel muzika tsouni 3tit elli 3endi, mouch mziya Fel Maroc, 3endi nass y7ebbouni We be going out, baby, talking same shit We be spreading love, nigga, fuck l'hate shit We gon' take it far, we dont do the fake shit T3eddit f lmatar, nsejjel, we gon make hits 7askine Coca, whisky glaçon A.L.A, Toto, que du bon son Zetla, Ketama, 3e9li absent Mauvais garçon, taser te7t l'calçon Grande Toto Makaveli eh Ntaya ghi machi yeah Tanga f wedni w ma 3la bali eh Bgha ybeefini, nta7er 9bel ma ysali Kush marijuana, nta gha figlio di puttana T7ebb tghderni, barra neyyek Ma takhod menni 7atta chay Tequila moussi9a kmaya Barcha barcha machi chwya Gjamek fake, cest du toc, toc Bla ma do9 do9, tiri fya F'rap gaddi gadd l'Big Ben Ma 3endi mandir b chi BM Bitch douri dabi dabi flexi We be going out, baby, talking same shit We be spreading love, nigga, fuck l'hate shit We gon take it far, we don't do the fake shit T3eddit f lmatar, nsejjel, we gon' make hits 7askine Coca, whisky glaçon A.L.A, Toto, que du bon son Zetla, Ketama, 3e9li absent Mauvais garçon, taser te7t l'calçon</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>La petite voix</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Me engancho lo' guante' y lo' peine' de 32 Tenemo' la Glock, un par de mandriles que hacen el do' Pura' na'es Sport, culiando una escort Y fetty-fetty, buscamos la lana, la cosa está bacana To' tinteao' en lo' alta gama, ahora chingamo' y lo' prendemo' en la mañana Ey, no confiamo' en ninguna rana Nos pintamo' la cara, puro' peine' de banana Ey, con una 40, un 17, pistolas siempre hay mas de 2 Importante que aquí prueben suerte Porque le vamos a meter con las 2 Ey, llegamo' a la disco, se sultan las baby Y el Giuliano me hace l do' Si esta con amigas, no hay drama, la monto en la cama Y la' chingo a las 2 Ey, con una 40, un 17, pistolas siempre hay mas de 2 Importante que aquí prueben suerte Porque le vamos a meter con las 2 Ey, llegamo' a la disco, se sueltan las baby Y el Giuliano me hace el do' Si esta con amigas, no hay drama, la' monto en la cama Y la' chingo a las 2 Quiero el dinero rapido, siempre me busco el money Tamo' haciendo plata, estoy mas rapido que Sonic Mis letras estan bien caras, me está pidiendo Sony Por el éxito estoy bravo y eso no me llamo Johnny Ahora estamo' subiendo, me visto too' caro Too' caro nos estan viendo Somos cantante pero humilde sigo siendo Mis menores avezaos' al nivel Con toa' esta glope la calle estamo' encendiendo Ey, me pinto la cara si es necesario Pisando fuerte en too' los barrios Pero mas fuerte en lo' escenarios Juro por mi madre ser millonario Entrando, mira too' el oro, en el cuello Ahora me llevo a tu perra, logi, tamo' bello No le llegan al nivel, a mi no me hablen de ello Llegando enpistolao', la 40 se la estrello Bling bling, en mi cuello esta clean No tranzo con gile', menos gile' topin Chin chin, los bolsillos de un king Andamo' ganando flow Mayweather en ring Ey, con una 40, un 17, pistola siempre hay mas de 2 Importante que aquí prueben suerte Porque le' vamos a meter con las 2 Ey, llegamo' a la disco, se sueltan las baby Y el Giuliano me hace el do' Si esta con amigas, no hay drama, la' monto en la cama Y la' chingo a las 2 Grrrrr, Ey, con una 40, un 17 Grr paw, en la dema, en la dema, ya, ya Dimelo Valdi, dimelo Giuli Giuliano Yankees Valdi en lo' controle Ey, indica No hay drama, la' monto en la cama y la' chingo a las 2 Grr paw, pew pew pew</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Dans la soucoupe</t>
+          <t>Baddack</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac Pour qu'ma money menterre Tant qu'ma Money menterre Tant qu'ma money m'enterre Mec met tout dans le sac Pour qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac Pour que ma money menterre Tant qu'ma Money menterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Le t-shirt est XL, le boxer est XL Elle met pas de XS, elle a des big fesses On brille comme lumière qui résonne Jsuis dans le sud avec amnésia Au fond des abysses comme anémone On revient de loin on veut palper sale Yeah, Yeah Me fait pas la mère Thérèsa On fait pas de lart terrestre NO ! Si je peux me permettre Paie en moi en espèces Où va te faire mettre Jai pas le temps den perdre Jsuis dans la soucoupe Sous-couche en kevlar On est sous-côté Depuis la poussette Tu veux quon lé-par ? Jsais pas marrêter Il faut que tu démarres Jsuis dans bails pas net Fait netour manette Fait des tours by night Très peu de détours Beaucoup de raccourcis De très grands projets Dans des trous de souris Ils ont rien donné Donc on a tout pris Ils ont rien donné Donc on a tout pris Tant que ma Money menterre Mec met tout dans le sac Pour que ma money menterre Mec met tout dans le sac Tant qu'ma Money menterre Tant qu'ma Money menterre Mec met tout dans le sac Pour qu'ma money menterre Tant qu'ma Money menterre Tant qu'ma money m'enterre Mec met tout dans le sac Pour qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac Pour que ma money menterre Tant qu'ma money menterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Tant qu'ma money m'enterre Connait tous les menteurs tous Tant qu'ma money m'enterre faire le tour de la terre Yeah, yeah Papi finit ton verre Tant que ta money tenterre Juste pour finir en tête Près à se jeter la pierre Hijo Pas fait le quart de mes dièzes Veulent manger tous mes restes tous Part avant viens après Vous êtes la pire espèce Jai pris les devant depuis Je vous laisse quelques pièces à peine Jétais en dèche foreal Étourdi dans livresse for real Gratter des nuits entières Rayer des disques de prods Et je vois leurs yeux ses porcs On est trop fort cest mort Maintenant tu veux nous Check Taimerais quon coopère hein ? Aller-retour les enfers Tant que ma money menterre Tant que ma money menterre Ils ont rien donné Donc on a tout pris Ils ont rien donné Donc on a tout pris Uzi est rusé, enfoiré, enfoiré, enfoiré, enfoiré ! Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac pour qu'ma money menterre Tant que ma money menterre Tant que ma money m'enterre Mec met tout dans le sac pour qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre Mec met tout dans le sac pour qu'ma money menterre Tant qu'ma money menterre Tant qu'ma money m'enterre Tant qu'ma money menterre Tant qu'ma money menterre</t>
+          <t>Rien n'se passe comme prévu, quand j'étais dans le mal, t'aurais vu Y avait qu'les cafards qui m'ont pas tourné le dos Elle est sombre comme la rue, son regard m'attire, m'affirme qu'avec elle, j'peux m'en sortir J'la suis, elle m'fuit, non, j'peux pas la laisser partir Et dès qu'j'fais les choses bien, la poisse toque à ma porte Igo, j'suis dans le mal, les absents ont toujours tort J'suis yomb', j'suis dans le noir, dans les ténèbres Ouais, j'fume un gros spliff, j'regarde le ciel, et j'tourne en rond et j'tourne en rond, et j'tourne en rond Solo, solo, solo Ça tourne en rond igo, wAllah, y a pas un euro Solo, solo, solo Ça tourne en rond igo, wAllah, y a pas un euro ouais, ouais, ouais, ouais J'suis dans le noir, dans les ténèbres Dans ma grotte, ça sent la mort et la pisse J'reste peace, en bas du bâtiment C Même dans le froid, je servais, les lèvres gercées, énervé D'avoir le frigo vide, le ventre vide mais les couilles pleines Comme Baddack, Baddack, ouais, ouais ouais, ouais Igo, j'm'en bats les ouin, ouin, ouin J'sors d'Paname, banane, bang, bang bang, bang Souci va et vient, vient, vient Buddha Kush, j'suis dans l'espace, les soucis s'entassent Que du sale et du sale, on arrive en balle Dans le cellophane, fanent tous les sentiments Fuck ton buzz, j'suis là pour le cash Électrique comme un taser Dans la salle, salle, la sère-mi s'emballe On a fait nos pas en bas d'tous les bâtiments J'ai le F.L.O, F.L.O d'Eikichi T'es qui ? J't'esquive vite Pétasse, fais pas tes chichis Fais-moi cuisine comme Chichi J'ai la paire, j'ai la bonne, j'la pose sur la ble-ta ble-ta, ble-ta Paire de couilles ou floppe Le sourire, igo, quand j'pète ma béda Tu veux l'seum ? Viens là, hop, hop, hop, hop J'ai la frappe, qu'est-ce t'en penses ? dream, dream Danse, danse, danse, danse, danse, danse J'suis tout maigre, faut qu'j'reprenne bim, bim Pompes intenses-tenses-tenses-tenses-tenses Eh Taktak, faut qu'tu pètes, peace, peace Qu'on encule toute la France, France, France Que le buzz monte, ils savent pas c'qu'on était, c'qu'on a fait pour manger Dans la team, team, team D'où on r'vient, c'est pas du ciné Qui aurait pu imaginer qu'un jour on péterait quand, en bas du bât', on dealait ? Les maisons d'disque parlent de chrome, on leur dit nous, pas ients-cli, nous Nous Malaga, nous Ketama, nous Meuda, nous niquer tout Comme Baddack, Baddack, ouais, ouais ouais, ouais Igo, j'm'en bats les ouin, ouin, ouin J'sors d'Paname, banane, bang, bang bang, bang Souci va et vient, vient, vient Buddha Kush, j'suis dans l'espace, les soucis s'entassent Que du sale et du sale, on arrive en balle Dans le cellophane, fanent tous les sentiments Fuck ton buzz, j'suis là pour le cash Électrique comme un taser Dans la salle, salle, la sère-mi s'emballe On a fait nos pas en bas d'tous les bâtiments3</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Loin des hommes</t>
+          <t>Homme du présent</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Yeah, c'est Inf, c'est Veust, c'est Grünt, yeah DBF tome 4, 888, lalbum, Don Dada Assassin prêt à cracher l'feu, reste concentré, yeah, hein Les chargeurs sont pleins, mais j'les vide tous tous Les ennemis sont pleins mais j'les nique tous yeah L'envie, la jalousie nous divisent tous Voici mon nom d'stratège Sol Invictus Sale fou va, c'est jeune fe-boeu, big Veuveu, spit le feu, j'dis cque jvux L'avocat si jle raque j'exig qu'il me disculpe J'fais du cash, jfais du rap ça excite les p'tites putes Au soleil sur le boat, un peu de brise de mer J'aurais honte que mon seul hit soit une reprise de merde Bien dolma bien douez, tu connais les dièses J'parle pas aux judges, j'parle pas aux djejs Prioritaire même si j'arrive par la gauche Chaque jour j'revois mes objectifs à la hausse et ouais Si j'ai du pain sur la planche j'dois le mettre sur la table J'suis en vet-sur à Cannes, faut un bête d'Huracan Chez nous c'est marche ou crève sur la dalle La loi du plus fort règne sur l'asphalte Y a tout c'que tu veux pour un tarif sympathique Le shit et la beuh, j'appelle Tariq Saint-Patrick Sur nous, ils écrivent plein d'articles et ouais Nos adversaires ont mal fini, pourtant ils étaient bien partis Chérie, elles te plaisent ces fleurs ? Elles sont pour toi J'me rappelle quand on avait qu'un veston pour trois Si le schmitt me tutoie, j'lui dis restons courtois Pendant qu'j'compte ma sse-lia et qu'je lèche mon pouce droit Le rap français, que des analphabètes Si j'les juge sur GQ, je casse la tablette Précision chirurgicale, comme celui qui shlasse la plaquette Devant leur che-bou, je place ma braguette Parce que gentil n'a qu'un il pan ça suffit pour viser pan Chargeur en forme de banane pan, ça suffit pour glisser pan J'le fais pour les miens, j'peux pas renier ma race Cousin, quand j'étais en chien, j'étais premier d'la casse Ils s'mentent à eux même en essayant d'se rassurer Vous s'rez meilleurs que nous quand l'océan sera sucré et ouais Pour l'instant fermez vos chattes, restez à vos places Même mort, j'donnerai pas l'respect à vos blazes C'est la loi du plus fauve, comme disait Le Rat Donc m'en veux pas d'viser le tas ou d'viser la tête au lieu d'viser le bras Piège sa caisse pour faire exploser un traître Parle pas d'fruit à un lion en train d'désosser un zèbre J'veux entendre le proc' crier si je fais le chrome briller J'veux voir le record plier, leurs corps dans l'coffre recroquevillés Froid comme un soviet' J'froisse tous leurs sons d'fillettes A l'aise comme DSK dans le Sofitel Même aveugle, j'donnerai toujours ma vision des choses toujours Ils r'gardent ma femme, sa veste en vison les choque Antibes, Vallauris, ici on est chauds On a la même Cali, les mêmes palmiers qu'à Crenshaw Et ouais, la maj', j'les flippe pour gratter d'la marge flip, flip Maintenant j'essaie de drip sans acheter d'la marque drip drip Bientôt j'monte dans le ship, et j'largue les amarres je monte Avant, faut faire les chiffres de Kendrick Lamar J'me sens à l'étroit dans l'C3 J'les vois sur Insta, ils font trop tminik j'les vois J'les entends qui rappent, ils sont comme ma caisse Y a aucune assurance, aucun contrôle technique J'suis sur la pente douce depuis l'début du siècle De la grande ours, j'connais rien du ciel rien Dos au mur, obligé d'vendre les briques J'ai besoin de gaz, comme un putain d'briquet Yeah, 888, l'album de Infinit' c'est Veust, le zin Bientôt dans les bacs c'est Inf, le zin DBF, Don Dada, Grünt 64 Let's go 888 l'album ouh, enfin ouh Posent trop d'questions. C'est comment ? C'est quand ? C'est qui lui ? Que des mystères que des mystères Hey, hey Mais où il va lui ? Mais comment il fait lui ? Que des mystères J'fais le yoyo entre les deux hémisphères avec une jeune héritière Hey, oui, oui, c'est bien moi, le zin qui fait tout Le revolver s'appelle Casper parce qu'il effraie tout l'monde à chaque fois qu'il fait bouh On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es... Technique d'allemand, j'n'évolue qu'verticalement J't'explique qu'y a le manche, ta clique c'est un ramassis de boulets J'réunis l'Afrique comme Kadhafi le voulait Wesh la mif', c'est comment ? J'suis vers Nice, Saint-Laurent, flex en Yves Saint-Laurent Avec cinq ou six zins d'Oran, boîte à gant pleine dans le X5 orange Y a que des têtes suspectes qui boivent teille sur teille, fument pet' sur pet' Chacun d'entre eux peut te piétiner jusqu'à c'que ton plexus pète Faut vite mettre les femmes, les enfants, les gens trop tendres à l'abris Tmax de mai à octobre, Classe G de novembre à avril On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul face à Pablo Génie sans bac 7, j'veux l'troupeau entier, fuck une part du steak C'est bientôt l'heure de jouer à Tetris sur le mur avec les plaques du SNEP Bientôt les rivaux portent nos valises, juste avant de bruler comme Dino Ortolani Frère, j'me sens prêt, petite ombrelle dans un verre de sang frais Pull-up à 2.50 avec les freins défectueux Si tu m'demandes c'que je pense de ton top cinquante J'te dis qu'mes zins défèquent sur eux Pour distiller ma vie, il m'faudrait plus que dix stylos Traîne avec des zins qu'ont des fiches de recherches Et qui tournent dans des voitures qu'ont des fiches d'immo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo On met pas d'homme, au d'ssus des hommes On met les sommes, au d'ssus des sommes Tu veux me faire quand j'recompte le magot Seule ombre au tableau, t'es seul contre Pablo Yeah, yeah, yeah On met pas d'homme, au d'ssus des hommes non, c'est DBM On met les sommes, au d'ssus des sommes hey, c'est Don Dada, c'est Grünt 64 Yeah, yeah Seule ombre au tableau, t'es seul contre Pablo C'est nous, t'es toujours avec les glousseurs toujours Les maîtres glousseurs, on est là, ok go Elle est flex sur Insta, mais pour du Dior elle tapine J'pose le tel j'regarde les murs dépourvus d'or et de platine Quand la gélato est forte j'vois des mecs de la bac partout Veuveu, comme les gosses il aime trop quand y a pas d'patrouille Jump au dessus des lois comme Jordan, on aime ce genre d'âneries Et quand les gendarmes pleurent au fond des gendarmeries Ici vous êtes dans la zone, un conseil restez pas ici A tous les zins et zines qui cherchent l'or comme Esteban et Zia Ok l'élite c'est nous, élisez-nous En face j'te dis qu'c'est mou, comme Elie Semoun contre Eric Zemmour Ma mère m'a vu du balcon mettre mes premiers dribbles Mon père m'a vu du ciel mettre mon premier triplé fier de moi Est-ce qu'il est fier de moi, malgré les ballots, les dames, et toutes les paires de roi ? les paires Veuveu toujours lourd, y a aucune perte de poids toujours Avant ils s'disaient tous, qu'est ce qu'ils vont faire de moi ? quoi Moi j'sais quoi faire de moi j'sais J'cherche la moula toute la journée, souvent tout seul dans ma caisse Des fois j'me gare, j'regarde les lumières d'l'aéroport Derrière moi le taux de batards bat des records J'avais pas d'cash, elle est partie avec c'gros porc cette pute Flemme de lire son message, j'lui réponds ok bébé Mets-toi d'profil, j'veux voir les choses du bon côté Barry c'est mon twin, DBF c'est ma team Ta biche est plutôt bien entourée Manstr', manstr' Dédicace DBF, Gak, Barry, les zins, Zmail, Lulu, Negus, Jeh' On est là Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, zin Millio, Negus Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, d'En Bas d'En bas Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire Psych', Soso Ca fait longtemps zin Ca fait longtemps que j'suis dans cette merde Comme Veuveu, les deux pieds d'dans Le temps passe, les cheveux deviennent blancs, mes neveux deviennent grands Tu finis direct terre-pa biatch, si tu veux faire l'patriarche Herbe grasse, grillades, Air Max Triax, j'suis dans les verbal triades Tu connais pas, faudrait t'documenter Tout c'que tu racontes n'est aucunement vrai Ta vie, un film qui fait aucune entrée Pendant qu'c'est la guerre, je copule en paix Dans tes lunettes, tes cartes se reflètent, qui tu crois bluffer ? On a de la corne aux mains, ils ont des doigts de fée J'rappe, comme le fils de Nas, ouais zin je vise le max, benef, sous prise de masse Double nationalité, j'vais direct au bled si le FISC menace J'le fais comme personne ne l'a fait avant et personne ne le ref'ra C'est comme des Ruff Ryders que mes reufs rident Toujours la dalle, même quand j'viens de graille J'suis le mélange de ASuivre, Mic Forcing, Coloquinte, Chiens de Paille c'est ça Toujours la dalle, même quand j'viens de graille J'suis le mélange de ASuivre, Mic Forcing Dans la soirée les bouteilles j'les vide toutes Sont pas contents ? Nique sa mère, j'les nique tous Jeune enragé ne fait pas de musique douce Nom de stratège S O L invictus A ma femme, j'offre parfums, vernis, colliers Approche-là et tu peux t'faire ligoter Puis jeter au large, j'ai l'permis côtier Plus j'la vois, plus j'déteste la lumière sur la côte d'Azur Sous Côte du Rhône avec une côte de buf plus épaisse qu'l'annuaire c'est ça Finis bouts d'shits, camels, on veut Gucci, Cayenne, plus le pussy d'Ayem Branlette espagnole sous douche italienne J'ai l'intelligence et la force en plus J'veux plus voir de proches dans l'bus Tu cracherais moins le feu que moi, même avec une torche dans l'ul-c Trouve nous sur un nuage de bubble qui claque Ralph Laurens, Burberry, Clark, j'écoute Luxury Tax j'écoute Luxury Tax Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, d'En Bas d'En bas Manstr', manstr', 06 Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, Don Dada Don Dada Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire, Sud-Est Grünt 64 Nous tout c'qu'on fait c'est le faire, nous tout c'qu'on fait c'est le faire Eh ça glousse encore Ca s'arrête pas, ça s'arrête pas c'est les flammes perpetuelles Que des maîtres, pas d'apprentis, pas de compagnons C'est inf' c'est Veuveu J'suis speed J'suis speed sur la file de gauche Flic derrière s'accroche J'ai l'biff dans la sacoche, j'ai le shit dans un sac Auchan J'm'arrête de canarder que si y'a un d'mes gars à terre Tu m'cherches, t'as qu'à regarder en d'ssous des canadairs Rats des villes, rats des champs J'rap des films où ça braque des gens Carjack leurs Cadillac, casse les vitres, brasse les jantes Pas nés dans des palais Souvent des cruels, souvent des tarés Tous nos darons ont des truelles Toutes nos daronnes ont des balais Dans les baskets ou les plaquettes Ceux qu'ont le bras long montent les paliers Pour qu'papiiers finisse au ballon, où l'ballon finit dans le panier Daron illettré regarde Des Chiffres et Des Lettres Pendant que l'Etat lui envoie des chiffres dans des lettres C'est dur d'être sur salarié quand t'es subsaharien Donc dans le stud' ça va chier, t'sais que dans le sud ça rap bien Luger d'hitler dans ta bouche, donc suce sale aryen Zinio pour me calmer, même les stup' servent à rien Sert a rien Vraies flammes, c'est l'33ème degré, c'est nous let's go C'est Veuveu, monstre, zin, 888, l'album Grünt 64, toujours là Nous c'est la victoire, vous c'est l'échec C'est pour ces métèques qui font pousser les têtes Ta biche a la dalle elle m'envoie un clin d'il, j'réponds en faisant bouger les pecs Pas d'ceux qui se taisent, j'suis de ceux qui dérangent J'écrase la concu' comme des chenilles qui rampent Desserre le scratch de la air force haute, parce que j'ai les chevilles qui enflent Ca c'est la vie de Karim, pompes, tractions, footing hey hey J'crois pas en tes vérités, donc, action cousine hey hey Chaque taff m'envoi dans le cosmos Y'a qu'avec le biff que j'suis en osmose Que la miff comme Ademo et Nos'Nos Pour le bénef' on fait nos nos Madame fait le ménage pendant qu'fais le gainage, pendant qu'fais le gainage J'ai la force de pégase, j'bois le rhum agricole pas le rhum de mélasse Dans le poste cd j'ai mis I AM Dans l'OCB slim j'ai mis l'aya Rien qu'je pense au biff de Will Iam Pendant que j'né-tour dans la wilaya Dès qu'tu vois DBF, DON Tu sais déjà que c'est le BON Le cul de ta fe-meu c'est une éolienne Elle boit le jus de Karim comme le thé au miel J'ai le passeport vert dans la voiture rouge J'vous passe la guerre, que la guerre soit sur vous J'suis debout sur leur crâne comme bison mec J'ai mes plans dans ma tête, fuck Prison Break Rappeur, t'es pas dans ma vision mec J'suis trop loin pour entendre tout c'qu'ils ont rec La drogue, vous en parlez mais vous emballez rien La beuh de Bob Marley, nous on s'en bat les reins Forger un mental en acier valyrien Passé d'galérien à phrasé aérien Elles sont toutes bonnes donc je fais la plouf J'arrache le ballon, la jambe et la pelouse Technique chirurgicale, quand j'rentre dans l'studio faut qu'j'mets la blouse Zin, j'te fais confiance, je pèse pas, et tu m'fais confiance, tu comptes pas Et si ça se passe comme d'hab, t'inquiète, dans deux jours come back Coke, beuh, shit, c'est le kit de détresse Les plus réactifs quittent les tess Les plus créatifs kickent des textes Toujours un raciste qui t'déteste Passionnément, à la folie, mes couilles On fait plus d'coeur, que les pétales brulent Viens on focus sur le Ferrari noir, livré avec sa pétasse brune Viens on focus sur le Ferrari noir, livré avec sa biatch brune C'est pas fini le zin, c'est pas fini, on est là Mets-nous avec les légendes, c'est Inf', c'est Veust d'En bas, Sud Est Crache le feu depuis longtemps, ça fait longtemps qu'on est au-dessus Tu le sais putain Sud-Est, 06, 888 Laisse-moi loin d'tous ces mythomanes J'suis dans l'jardin, j'fais pousser mes tomates Et la beuh qui fait tousser Method Man Ca suce pour le succès, bah Veuveu nan J'suis jamais parti mais j'les fais flipper comme un revenant J'viens par l'entrée des artistes, ils prennent la sortie sans achat V de victoire, l'index sent mon shit, le majeur sent leur chatte Tu t'réveilles en sueur, juste avant qu'j'presse l'automatique A mon avis c'est symptomatique d'un stress post-traumatique Le produit est gras comme mardi, le mac est fly comme Marty Mark Landers et Thomas Price sont de la partie Comme McDo, j'fais payer pour la sauce Et si l'offre est trop basse, j'te raccroche au nez comme Sosa J'connais la rue, les balles perdues s'arrêtent pour m'demander la route J'prie le seigneur pour qu'il empêche les douaniers d'démonter la roue J'suis impatient comme ton père qui t'attend pour te mettre la rouste Je reste près de mon liquide, au cas où ça éclabousse Enfoiré, c'était DBF, Don Dada, Grünt 64 D'En Bas Fondation On a craché c'feu Don Dada, Sud-Est enfoiré, 06, 888 Et là normalement tu glousse, là normalement tu glousses au maximum 888 l'album C'est pour tous les zins, 06, Sud-Est DBF, Don Dada, 888, l'album</t>
+          <t>Laisse-moi tout seul, laisse-moi traîner dans la street Igo passe-moi lseum, et jle vendrai à ta bitch Laisse-moi mposer et tirer ma guinz Causer au frère en cellule qui vient dcoffrer un gros cinq-vingt Laisse-moi être zehef, le regard vide Laisse-moi penser à ceux qui font lramadan au tard-mi Laisse-moi tdire, prends soin dta Maman Ici on parle avec les yeux, pas besoin dgeste avec la main Laisse-moi avec mes pêchés, et insulter les matonnes Laisse-moi espérer quun jour Allah nous pardonne Laisse-moi bicrave, les pieds dans la merde Laisse-moi rouler vite, son à fond quand jsuis dans ma caisse Laisse-moi faire la morale aux tits-pe Laisse-moi ne pas répondre quand une tasse me bippe Laisse-moi vivre avec ceux qujaime, libre Laisse-moi peace, vaut mieux qujreste peace Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent Jai beaucoup despoir, jai confiance en mes couilles Un soupir, lhabitude de souffrir Reçois des mises en demeure, baise demain Des mises de merde, on sdémène tinquiète le tigre sdémerde La rage avant la paix La Foi avant la paye Parisien tu connais, ni Londonien, ni New-yorkais Au charbon sous lhall, gants, écharpe et bonnet Homme du présent, un combat contre soi-même On repère largent, ta bitch nous repère en soirée Même en hess le swag swingue en Air Max Le risque puisque on prendra la suite à mille eus Pas dhistoire on finira pas au musée Tu sais où jhabite, viens si tu veux tamuser Trop loin Accorde moins dimportance au cul dune salope quau cul dmon joint Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent Jvendais la coco la night, le matin jbuvais un café WAllah jrentrais dPaname jusquà Corbeil éclaté Jvendais la coco la night, le matin jbuvais un café WAllah jrentrais dPaname jusquà Corbeil éclaté Jai bicrave sept jours sur sept, des années lfaire sur un terrain Des milliers d'billets dvingt, wAllah qupour nous cest rien On est sur-allumés, un go-fast sur la Lune Du soleil sur les lunettes, nos faits-divers sur la Une Oussa voit grand comme la villa de Sosa Se sent mal en costard, méfiant, donc souvent peu sociable Kiffe les belles femmes et les hauts talons Cest quand les loups sortent que les brebis sallongent Nous et la rue ça sest fait au feeling au risque De ber-tom, aux arrivants, avec ou sans Philipp Morris Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent6</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Recherche du bonheur</t>
+          <t>Petit pélican</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Yeah, yeah Le Son des halls mixtape 2008, yeah, 2009 Le rap a pris une vitesse, ok, j'passe la huitième Paname, on est àl, prépare l'aspirine avant la migraine J'veux la victoire, avec un rêve dans la tête Tu veux pas d'histoires ? Mets pas ta graine dans la mienne J'me tâte, que t'aimes ou t'aimes pas, t'écoutes gars Dans ce rap en mode baseball, ils mettent le vent, moi j'mets des coups de batte 2008, mixtape Le Son des halls 2010, on sera mille têtes à rugir du fond des eaux Hé dé-dé-débile, mon dé-dé-mépi Dé-dé-dé-débit, j'vends des-des-des pills J'ai la phrase qui frise, le ciel écrase et brise ta glace Qui crispe, j'entrave, l'écrit est grave de mon le-sty Mon blase rime au style qui bave Ademo 2-0-0-8 Man j'te montre ma comète, matte le ton de ma colère C'est Madmax, c'est XXX qui marque, ma plume n'a pas le sommeil J'ai mal-mal pardonné, ma marche écrase au nez Mama j'ai mal tourné, j'croyais XXX Votre rap comme un indic, j'le monte ou j'le descends ?? c't'année, Ademo est chaud même en décembre J'ai trop la fait la merde ça rend méchant Tu parles de flow c'est la guerre mec, t'inquiètes pas pour moi j'suis dans les temps Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est bon, j'ai-j'ai bombé bon pour mieux plomber l'son, bon 0-0-8 y aura pas d'plan B ça fait check parfait Impossible d'être, parfait le rêve, passé Me dis pas d'faire, la paix On f'ra tout pour faire croquer la mif et les frères Nous on veut juste manger, plus vendre le shit mais des teilles Mets des tonnes de baffes, base, pesé au milligramme Essonne, Val-de-Marne, trop speed trop bi-bizarre C'est sale, va d'mander comment on finit mal Et comme v'là l'baille Ademo au style mitraille R-r-r-rage, r-r-r-rare, r-r-rafale, sur la tess, r-r-radieuse Fais la pa, fais la pa, fais la passe à personne Fais la pas, fais la, fais la pas, fais la pas la peine Fais la pa, fais la, fais la pa, fais la part des choses Fais, fais la, fais, fais la plage Ademo On a tous un souhait, prions pour l'réaliser Que Dieu m'entende, j'tue l'arbitre avant qu'il vienne me pénaliser J'sais qu'survivre, j'veux vivre, simplement de thunes Le monde un scorpion car pour atteindre le bonheur ici la queue te tue Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est pour mes gros à la recherche de poitrines aussi grosses que Loana Voilà la face la plus connue d'Ademo j'suis trop alarmant Peu d'vocabulaire, le cocard suprême J'ai vodka jus d'pêche pour ta gueule pose ta bouteille Un putain d'morceau, amorcé, mort-vivant Pas d'temps mort ok, j'ai mis mes boules à l'hameçon et vous mordez J'écris sur une boîte de pharmacie et y a pas d'mal Car dans ma vie y a c'que j'mange et c'que j'porte qui n'a pas d'marque J'rap pour les S-SDF, les mecs-mecs déter Qui niquent les profs, les keufs fraudent la S-SNCF Qui check-check les rêvent, qui baisent baisent les traîtres Millions d'paroles, ceux qui restent-restent les mêmes J'prouve prouve grave grave ... Coup de coup de crasse crasse j'goume j'goume crade crade Se fout de se fout de ce rap bouge de bouge de là vieux ... ta gueule 2008 Parce que faut tomber les pommes pour enfin voir les étoiles Le Son des Hall mixtape S't'euplé, bouche les oreilles d'ton gosse et raconte-lui une histoire Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais1</t>
+          <t>Père né en Algérie, mère qui naît à Fès Ademo né dans l'zoo, peut pas retourner sa veste PNL laisse, beleck on vous blesse Pas la même tess', j'l'appelle Eva Mendes Ton nez dans ma cess', chienne on te dresse A 6 heures c'est la hess Hmm, des lions comme Mufasa Hmm, j't'ai mis l'coup d'bassin Hmm, dans la beuh y'a l'fil orange Hmm, billets bleus et verts qui m'enjaillent Hmm, elle peut pas mappeler mon ange Hmm, le sheitan me pète le champagne Et puis j'm'en fous d'ber-tom tant qu'les miens sourient J'm'en branle sur les films d'karaté à Katsuni Viens nous voir bibi dans des cages de hall pleines de pisse J'veux l'pactole, j'dis à Félindra tête de tigre Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Petit pélican ne sait pas voler Regarde les émeutes à travers ses volets Petit pélican un jour sera grand Ne traîne pas dans les halls, ne se doute de rien quand ça vend Petit pélican plein d'rêves, d'mande souvent papa ou maman Resserre ses crampons face au but, la boule au ventre qui l'attend Petit pélican veut croquer l'monde, un peu nerveux Et quand il rentre prend parfois le chemin de la cave Ne connait pas l'prix de la vie, mais déjà le prix d'un baveux Petit pélican fait un vu, petit pélican fait deux vux A la son-mai ça parle de la chute du grand, ça parle despèce Espèce, c'est donc toi qui fout la merde à la maison Petit pélican part chercher de l'espèce Grand panorama sur la tess' Petit pélican compte et recompte Déjà peu d'amis qui s'écartent de lui au fur et à mesure qu'il monte Petit pélican pète sa niaks, compte sur personne, attend que ça passe Ça crie moins à la maison, y'a que les schmitts qui s'agacent Petit pélican s'arrête et recommence Petit pélican tombe, ses ailes se cassent et la haine les panse Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans7</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Obligés de prendre</t>
+          <t>Pêché d’orgueil</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Eh, esprit Mobulu Comme lOpinel de Nabilla sortez les umbrella il pleut des flow flow Wallay billlay quils bossent avec les Mbilla tout ces rappeurs jles vois en flou chkem Ça balance les détails de lorganisation, cest quoi leurs but au fond Cest quoi le but Ah jles vois en flou cest des indiques ils veulent faire tomber le four On parle pas trop ma geule on fait ce quon a à faire Même pris en flagrant délit cest sur quon nie fort Ils sont dans le caniveau concu aucun niveau StarfAllah Eh,Eh,Eh,Eh Je suis congolais rakataku catchu a chacun son quartier mais Je le fais pour la ville entière faut du cardio Mais on a les épaules on va le faire et cest tant quil est chaud quil faut quon batte le fer Et quand il est faux, faut combattre le frère Ils font pas peur tout ce quil font cest parler fort Tout ce quon a Dieu merci on la eu part leffort Aucun pacte nous on y arrive par la foi Eux y sont arrivés en la prenant par le fion La hchouma berkes cest pas digne Jsuis en RS Quattro eux ils patinent Ca fait du buzz mais ça fait pas de thunes Wallah ils font du buzz mais ils font pas de thunes Cest pas génial rien dans les poches mais pour la Fame sont près a jeûner ils sont prêt à tout Même si je suis à genoux je leur tendrais pas la main ils vont me la Jamel Cest gênant ils se prennent pour des génies mais en vrai ces KO cest naze On fait pleuvoir les flow obligé de sortir les K-way Toujours réveillé toujours Pas besoin de Kawa jamais On reste concentré on tas dit cest tout droit je le répète au cas ou taurais pas saisi Maestro comme zizou MVP chaque saison je leurs mets que des ciseaux Avec nous ou contre nous cest à toi de prendre la bonne décision On ma donné une chance Je vais la saisir a deux mains Jrentre dans la légende comme NOS et Ademo H24 au charbon on remet rien à demain Je les vois en flou Cest bizarre Je deviens de plus en plus parano cest abusé Il me faut les milli les milli les milli puis bye bye bye Il me faut un neuf milli milli milli en cas de ba-bang bang Je les vois en flou Cest bizarre Je deviens de plus en plus parano cest abusé Il me faut les milli les milli les milli puis bye bye bye Il me faut un neuf milli milli milli en cas de ba-bang bang</t>
+          <t>Jnique le monde, igo jveux pas changer Comme si à Fleury on mavait dit direction la Santé Si jsuis transféré cest parcque jmarque le plus Jai tout vu comme une pute jpeux pas finir sur le cul La vie cest dur et mieux vaut pas faire un malaise Comme en cellule on tlaisse crever Même si tu viens dcrier à laide Dur dsintégrer avec des yeux khabat On ma dit fais tes lacets On ma pas dit fais tes nuds dcravate On ma mis dans lghetto, tu connais la banane Pour mfaire courir contre des chevaux poto on ma passé un âne Jrime une haine, mais jcompte plus péter lbail Poto clique sur M si tes orgueilleux comme Végéta Génération 86, celle des foolek Des sirènes, des woo woo, pas celle des sous-merdes Jai besoin dune bulle dair mais lson est crevé comme mes Air Max Jfais peur aux gens biens à Halloween jai pas besoin dporter dmasque Jsuis un vrai, jsais rapper, mais on préfère les menteurs Pourtant jai essayé dgagner avec une couleur en cur Tu voulais qujdise ya qudes putes, ya qudu biff ? Mais connard dans nos vies, ya qudes stups, ya qudu risque Jai du carburé en discret, vu qujavance dans la réserve Jai pas lpermis, mais jmarche quand même avec des Diesel Pour retrouver mon chemin jlaissais des bouts dshit sur mon passage Me suis retrouvé perdu avec des schlags qui suivaient ma trace Et pour le blé jai vendu dhiver à été Toi tu crois aux contes de fées, moi jcrois aux comptes à régler Jai ouvert ma bouche, mais cétait pas pour sucer Jme suis dit drapper du seum, mais faut du com pour le succès La roue va tourner, ça cest une légende comme dhab Cest nous quon tourne, la roue elle reste bloquée en promenade Destin chelou comme Kennedy, Aaliyah qui scrache Obligé dsurvivre, le pire cest quils croient quon aime bicrave On vit comme Tony Micelli, pas Tony Montana Tu trouves joli Beriz, cest qutes un touriste ou un Noich Tu trouves ça marrant, ya rien, normal igo On a beau sourire, nos yeux nsourient pas igo Tu vois cque jveux dire, nan jte dis cque tu vois Si jaime la neige ? Demande ça à ceux qui dorment lhiver dans du froid Cest pas un son triste, cest juste une levrette Jlève ma v'là mes couilles, appelle-moi le vrai À distinguer des faux bien sûr, jdemande pardon à Allah Jveux pas aller en Enfer grailler un pain dpus Jpense que jaurai pas plus dinspi avec un spliff Et jpense encore moins rapper plus vite avec un speed Vingt-cinq piges Allah u akbar Ashadu anna la ilaha illallah Wa ashhadu anna muhammadan rasulu-llah Et jai des pêchés, jai mal au dos Jprie dmoins en moins, mais jfais toujours lodo Poto, la moindre des choses après mes fornications Rime de sang, vole et vente de grosses doses Sois pas choqué, chacun est comme il est Jsuis têtu, lbonheur cest Titi et moi jsuis Grosminet WAllah petit jessayais dsuivre mon ombre Quand jlai plus vue jai compris qucest parcquil faisait trop sombre Jsuis pas à la mode mais cest les soldes quand les keufs perquisent Jcrois qujpeux changer dtête, mais jgarderai toujours les mêmes jeans Técoutes encore ? Ah ouais cest cool vieux On dit quon peut parer les coups mais quon peut pas parer les coups dfeu Trop dfautes, la haine nous a guidés Et quand un flingue fait larbitre, les balles sont toujours prêtes à siffler Au bout du compte on sy fait, ça finit par nique sa mère On improvise un salaire, fini à ry-Fleu quand ça merde Et wAllah frère ça memmerde Jcrois qujvais marcher sur les mains tellement jai la tête à lenvers Ils veulent du lourd jleur donne ma bite Jsuis vulgaire, et alors poto ? Jfais ma mort, fais ta vie Jsuis baisé ma gueule, plaider un cur Jpeux pas nan, cest mon pêché dorgueil Tu veux du sale ? Jsuis cquil y a dplus crado Ne msouhaite pas mon anniv gros ça sera lplus beau dmes cadeaux J'suis comme cette image que tu regardes à l'instant J'saigne, j'ai le regard haineux, mais j'souris et j'attends J'attends que mon heure vienne de sonner ton heure Interdit d'Essonne, y vit quand même esquive les contrôleurs J'finis ce texte avec la pire des rages Quand les rappeurs jouent les chauds alors que c'est les pires des shlags La vie c'est dur on s'en rend compte qu'une fois dans l'trou Et quand il fait trop noir sur l'banc d'cantine y'a pas d'ampoule Donc j'me répète, fuck le monde ma gueule J'peux pas changer gueh c'est mon péché d'orgueil7</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Athéna</t>
+          <t>Cigare de Cuba</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Parle pas d'la street, parle pas tout court J'suis pas Biggie, j'suis pas Tupac Shakur Mon son au tard-mi jusqu'à dans la cour Il est dans l'circuit entouré d'vautours T'es dans le puits, j'suis dans la tour J'l'appelle ma pute, tu l'appelles mon amour Moi, je t'encule, tout ça en un mot F430 dédicace Ademo Hein, faut que j'me calme, nique sa mère ces paires de Nike Nous les mes-ar, on les utilise contre la BAC Et quand y a embrouille, la gâchette nous sert de bague Ouais ouais, quand y a embrouille, la gâchette nous sert de bague Tu dis qu't'es mon s'hab mais tu l'es pas Ta clique, tard-bâ, on n'en veut pas T'écoutes F430 et t'as pas le choix Tu t'ambiances comme So et Adsa Vendez du shit, on a pas le même chiffre pas les mêmes chiffres Faites du peura, on a pas les mêmes ziks Mon frère LZR, H24 dans la street H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester Athéna de Ketama, je ne tousse pas, F430 Bréda Ça bombarde sa race, ça déboîte de ouf Tous ces vieux rappeurs, schlagués sa mère Louis, Fendi, Ferragamo T'utilises encore le fer à repasser Fais pas genre tu connais un d'mes potos Alors qu'le cercle a toujours été fermé Mytho, mytho, on t'a rodave Mytho, mytho, t'es tout pourave Mytho, mytho, on t'a rodave Mytho, mytho, tu finiras dans ma cave Tu peux que kiffer, t'as pas le choix F430, IGD, c'est my squad Pire que le virus du Ebola Igo, Z-double-O, ça rigole pas H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester H24 dans la street, igo, tu peux pas tester F430, tu peux pas tester1</t>
+          <t>Pourquoi ces fils de hmm ouvrent tant leurs mères ? mères Wallah, wallah Ils savent vraiment pas c'que j'pourrais leur faire Wallah, wallah, allô allô C'est comment ? On perce ! on perce Ouais, ouais, alors Pétasse c'est comment ? On baise ? on baise Ouais, ouais Depuis tit-pe j'ai l'seum Ouais, ouais, ouais Alors j'visser l'Essonne Si j'ai pas mon goûter, j'ai la haine j'ai la haine Wallah Si t'es juste à côté t'es dans la merde Quoi alors ? Tu comprends pas qu'on a faim ? Wallah, wallah Y aura du sang sur le sourire à la fin Hmm hmm Pa-pa-pa-pa-pa faut que j'les hmm ces F de putes Wallah trop d'soucis, trop d'nostalgie dans l'disque dur Mouais, j'hésite, j'sais pas hmm J'leur fous un bout de bois ou ma hmm... Merde ! À croire qu'les anges m'ont dit Bouge de là, pars en couilles Aujourd'hui ça parle en dix, si y'a pas le million ça parle en douilles x2 J'mets le chapeau comme à Cuba J'veux le cigare comme à Cuba La street m'a dit d'un air tout bas Baise les cocas dans la coupe ah Arriba arriba arriba Rompompompompompompom Ça rit pas rit pas rit pas C'est l'gyro que t'entend-tend-tend-tend4</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tahia</t>
+          <t>Ladif*</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>We be going out, baby, talking same shit We be spreading love, nigga, fuck l'hate shit We gon take it far, we don't do the fake shit T3eddit f lmatar, nsejjel, we gon' make hits 7askine Coca, whisky glaçon A.L.A, Toto, que du bon son Zetla, Ketama, 3e9li absent Mauvais garçon, taser te7t lcalçon Okay okay okay, nass 3jebhom rappi 9bel ma ye3jebhom looki Barra s2el s7abi, se9ssi 3la soulouki Mhebbelkom b trapi, bercha t7ebb t'booki Bitches call me pappy, feeling like I'm AAP Rocky T7eb tel3eb b e3sabi, sir t9owed bel marroki Neflexi w ndabi, nkhelli l'haters metbloki 808 f rassi, make me jumping ki Sasuki Fuck it 'cause it's okay We making circles, kima NASA Hani jitek nrapréz fi zoni We smoking purple kima à la Casa Lazemni ma nensach elli zahrouni M3aya ElGrande, mala faza Dima nzidou fel muzika tsouni 3tit elli 3endi, mouch mziya Fel Maroc, 3endi nass y7ebbouni We be going out, baby, talking same shit We be spreading love, nigga, fuck l'hate shit We gon' take it far, we dont do the fake shit T3eddit f lmatar, nsejjel, we gon make hits 7askine Coca, whisky glaçon A.L.A, Toto, que du bon son Zetla, Ketama, 3e9li absent Mauvais garçon, taser te7t l'calçon Grande Toto Makaveli eh Ntaya ghi machi yeah Tanga f wedni w ma 3la bali eh Bgha ybeefini, nta7er 9bel ma ysali Kush marijuana, nta gha figlio di puttana T7ebb tghderni, barra neyyek Ma takhod menni 7atta chay Tequila moussi9a kmaya Barcha barcha machi chwya Gjamek fake, cest du toc, toc Bla ma do9 do9, tiri fya F'rap gaddi gadd l'Big Ben Ma 3endi mandir b chi BM Bitch douri dabi dabi flexi We be going out, baby, talking same shit We be spreading love, nigga, fuck l'hate shit We gon take it far, we don't do the fake shit T3eddit f lmatar, nsejjel, we gon' make hits 7askine Coca, whisky glaçon A.L.A, Toto, que du bon son Zetla, Ketama, 3e9li absent Mauvais garçon, taser te7t l'calçon</t>
+          <t>Hey pédé, j'viens t'péter, rien laisser, la baiser, n'pas rêver, RDV sur Saturne La fierté, lhonnêteté, l'amitié, éviter la pitié, j'vends la mort à la pub Elle est bonne, faut qu'elle paye en nature, elle est pure, la feuille est sans ratures Pas majeure mais sa bouche est mature, le shit bulle, les pouces collent, on m'accule Wesh l'alien écailleux, t'es faya, tête ailleurs, dis-moi c'est quand tu sors le Cayenne Ouais la hyène se lâche, fait la chienne, se cache et plus tard se range comme Ayem Deux talons qui sortent de la gova, des bras maigres qui manient le cobra Igo on sort la langue comme Manny, Love Sosa, oui ma connasse Tiens goûte la teub à Adama, gros j'lance mon taga jusqu'en Alabama Ma punch dans ta gorge, la gorge à ta femme, viens voir la souffrance te dire wallah pas mal Igo j'suis sauvage et j'crie ounga wawa, Ounga ounga, le G sur la poucave Ounga ounga, nigga wawawawa, Ounga ounga, tant qu'on fout pas l'darwa J'sais qu'j'suis pas intégré, j'suis père de mes intérêts, les mains dans la merde alors qu'elles sont faites pour les enterrer J'sais combien tu paierais pour te faire opérer, de tout ce mal qui paraît si fort et qui semble empirer Viens m'voir et j'te dirai le prix d'la fonce-dé-dé-dé Si t'as appris à compter-ter-ter, on sera amis, enchanté-té-té Moi c'est Ade', moi c'est Ade' khey, sors la 'teille, vas-y claque le jour de paye J'veux pas d'ton Facebook, rrht tfou, t'sais que j'ai ma main sur ta fesse C'est limpide, ouais c'est deuss, c'est violent, c'est 9.1,on arrive y a d'la peuf' au volant, y a d'la meuf Elle t'a brisé le cur, fallait briser sa chatte, dire au gosse à sa reus' fais la bise à papa Pah, pah, pah, pah, ma haine qui te quen', j'suis en polo, la rage s'voit aux triceps Blablablabla, tu t'écartes tu te perds en direction du hall les cas soc' te visser L'espoir dans le coffre, la chance dans la cava, pardonnez-moi mais nos sorts sont macabres Dis-moi si j'ai tort ou si j'rappe la tate-pa, obscure est la force, le jedi est khabat 9.4 c'est l'Barça, 9.1 c'est l'Brésil, ouais connard, va l'dire à Kery Sinon à part ça, bien t'es pressé ? Non parce que ça va pas terrible Parce que j'suis seul dans ma tête, c'est la rage qui m'a élevé Que j'ai bicrave dans la tess' et qu'mon caleçon n'est pas en LV Faut du liquide, j'laisse pas couler une larme, pas une, pas une, pas une Fais bellek aux femmes, fais bellek aux putes, fais bellek aux paluches, paluches, paluches T'sais qu'on est vifs donc fais pas l'imbécile, on s'vide pas la vessie un meug dans les WC Oui on veut la belle vie, embarquer sur l'ferry, si t'as ché-tou des litres, vas-y mon gars fais signe Tu décolles, jatterris, bientôt j'côtoie des riches, la poudre dans la narine, César fait l'AVC J'l'ai quen' un mercredi, l'amène pas à la mairie, tu l'appelles ma chérie, j'lui mettais la fessée Viens j'te donne RDV, j'suis d'Paris j'suis pressé, igo j'vois tellement d'chiennes, j'mets une laisse sur l'PC J'mets une laisse sur l'PC, j'prends le game en PV, l'rap est mort, j'le déterre pour le ré-enterrer Ma drogue dans l'Gabbana Aux arrivants avec mon gars Bana J'sors ma hein-hein de mon Gabbana Ton oseille dans la poche de mon Gabbana J'fais l'amour à la hess' dans l'allée, elle se rhabille, j'me retourne Bismillah à l'aller, bismillah au retour Sers le trou d'balle à la douane, on déballe et taille-dé redwa Dans mes yeux c'est le vide, mon âme est perchée sur le toit J'vois l'espoir dans les yeux des p'tits, mashallah ça sent l'rêve Une sale envie d'décharger, on vit, on s'égare, on crève Ouais pas d'vie sociale, juste une vie d'cas social Le rap dans un local, va foutre ta schneck au sale Tantôt j'tue l'temps tant, tantôt c'est l'temps qui m'kill J'me sens mutant, tant différent dans la file Ouais j'suis bon qu'à compter, un joint d'beuh sur les lèvres Allez fuck ma bonté, et avec ça fuck mes rêves Tout c'que j'fais charbonner, tous les mêmes tous clonés Six du mat' détrôné à r'dessiner c'qu'est gommé Combien de sacs à pâtes ne savent plus sur quel genou danser Sur quel genou danser Ademo, Ladif Peace and lovés kiff Tout pour la mif' Tout pour le bif' Les sentiments ça ralentit, le cur fermé, là j'suis à fond Tu pètes plus haut que ton cul, on t'monte ton cul touche, touche le plafond On tire sur la laisse, t'aboies, on t'détache, tu perds la voix Nous c'est les gentils armés cramés conscients qu'on perd la foi Wesh à quand l'dernier kil' ? Pas demain, pas maintenant J'te fais danser avec l'oseille à chaque billet un nouveau battement J'tacle junkie potentiel, j'en fais ient ient fidèle Des loups qui fixent la Lune, moi être meilleur ami d'elle Chez nous on partage la hess', le cul d'la haute dans la caisse Casse un tour longue est la laisse, mon ange tu connais l'adresse Le temps d'un clignement les gens changent, moi je change en retrouvant la vue D'aucune poche on est dépendants, là j'suis fonce' en retrouvant la fum' Ils ont les photos, plus les souvenirs, on a les souvenirs, plus les photos Ouais on a même plus les potos, c'est chacun son bénéf', son auto Un gros fer sa mère, j'emmène la misère en balade Une balle pour chaque ennemi de mon frère, ça fait click, gala, gala Un putain d'biff, la mif', une ride en moins sur l'front de mon père Un putain d'biff, la mif', un sourire en plus sur l'visage de mon frère Le dos large, le coeur étroit Ta relation sur une pesette, si t'écoules pas, madame est froide Ce soir j'rentre pas à la maison Les portes se ferment et puis ne s'ouvriront qu'à la prochaine saison La misère dans un SLR, rentrer, tourner, sortir célèbre La vie me donne son cul, j'connais pas l'goût d'ses lèvres24</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Wesh la galère</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Me engancho lo' guante' y lo' peine' de 32 Tenemo' la Glock, un par de mandriles que hacen el do' Pura' na'es Sport, culiando una escort Y fetty-fetty, buscamos la lana, la cosa está bacana To' tinteao' en lo' alta gama, ahora chingamo' y lo' prendemo' en la mañana Ey, no confiamo' en ninguna rana Nos pintamo' la cara, puro' peine' de banana Ey, con una 40, un 17, pistolas siempre hay mas de 2 Importante que aquí prueben suerte Porque le vamos a meter con las 2 Ey, llegamo' a la disco, se sultan las baby Y el Giuliano me hace l do' Si esta con amigas, no hay drama, la monto en la cama Y la' chingo a las 2 Ey, con una 40, un 17, pistolas siempre hay mas de 2 Importante que aquí prueben suerte Porque le vamos a meter con las 2 Ey, llegamo' a la disco, se sueltan las baby Y el Giuliano me hace el do' Si esta con amigas, no hay drama, la' monto en la cama Y la' chingo a las 2 Quiero el dinero rapido, siempre me busco el money Tamo' haciendo plata, estoy mas rapido que Sonic Mis letras estan bien caras, me está pidiendo Sony Por el éxito estoy bravo y eso no me llamo Johnny Ahora estamo' subiendo, me visto too' caro Too' caro nos estan viendo Somos cantante pero humilde sigo siendo Mis menores avezaos' al nivel Con toa' esta glope la calle estamo' encendiendo Ey, me pinto la cara si es necesario Pisando fuerte en too' los barrios Pero mas fuerte en lo' escenarios Juro por mi madre ser millonario Entrando, mira too' el oro, en el cuello Ahora me llevo a tu perra, logi, tamo' bello No le llegan al nivel, a mi no me hablen de ello Llegando enpistolao', la 40 se la estrello Bling bling, en mi cuello esta clean No tranzo con gile', menos gile' topin Chin chin, los bolsillos de un king Andamo' ganando flow Mayweather en ring Ey, con una 40, un 17, pistola siempre hay mas de 2 Importante que aquí prueben suerte Porque le' vamos a meter con las 2 Ey, llegamo' a la disco, se sueltan las baby Y el Giuliano me hace el do' Si esta con amigas, no hay drama, la' monto en la cama Y la' chingo a las 2 Grrrrr, Ey, con una 40, un 17 Grr paw, en la dema, en la dema, ya, ya Dimelo Valdi, dimelo Giuli Giuliano Yankees Valdi en lo' controle Ey, indica No hay drama, la' monto en la cama y la' chingo a las 2 Grr paw, pew pew pew</t>
+          <t>Wesh l'animal, dis moi comment tu vois l'homme, dis moi Tu m'vois en prison ou bien tu m'vois mort J'niquerai ta fille apres lui avoir vendu ma drogue Sur l'écran d'ma ville les keufs mon marqué a la proche Bande de pédés j'suis un tigre pas un mouton J'vivrais ma vie connard j'vivrais pas celle d'un bouffon Gros, tu m'salue y'a pas d'rêve donc 'azy check J'les connais, les mythos donc me sort pas de balivernes Pas moins 3g, l'étranger, j'te fait pas dix hein Me casse pas les cacahuètes ou j'te prendrai pour un d'ces singes C'est simples comme bonjour, compliqué comme dire au revoir Les hommes se saoule la gueule pour survivre dans l'froid Père corse, mère algérienne, fier de mes origines Tous me disent gros t'as maigri j'réponds J'me suis mis au régime Faut reflechir, ma haine monte en l'air comme en high kick Le temps passe devant la montre man, j'élabore des tactiques Mon veau-cer en mode calculette, austère la tess ma vu naître, funèbre Elle m'verra mourir dans sa lunette J'suis entouré d'cave-pou qui t'nique l'avenir avec la langue Et j'dois peser beaucoup vue le nombre de balance J'pars en couille dans ma folie trouve d'la raison Me dis si pas d'argent moi pas mettre un pied à la maison J'suis différent oué, différent ma gueule J'ai peur d'accepter c'cadeau du Sheitan me delivrant un coeur J'ai dit au prof de maths en cour, j'suis pas lgenre à calculer Si la vie est une pute y'm'faut bien plus qu'une chienne pour éjaculer Regarde ma face, regarde les mec d'en-bas T'as trop d'bruit t'auras du calme si tu fait KRR KRR PAAH Tous le monde dis zoo mais au zoo on dis qu'c'était mieux à l'ancienne Avant qu'ils détruisent la grande tour la rue Césin Goka et 45 J'oublirai pas, j'dirais DZ sur n'importe quel label T'sais qu'il a fallu que j'pars de chez moi pour mettre à dealer d'la Zeb Y'a pas d'caprice, gamine, j'vend l'cannabis Parce que j'ai eu trop mal au ventre un long moment d'ma vie Ma3lich, normal gros, même la misère s'approche J'peux même te dire ça t'change autant niveau mental qu'en apparence Jsuis pas l'genre a dire j'ai vu ci, j'ai vu ça On a besoin d'se nourrir plus dans le délire j'ai fait ci, j'ai fait ça Eh gros j't'encule si tu kiffe pas ce que j'dis Écoute ta mère la pute j'la baiserai quand elle te dira au lit Ma vengeance sera terrible eh les crocs J'me suis mangé des murs en voulant les sauter mattez mes chicos La vie d'rêve j'l'aurai ici ou la haut Et compte sur personnes j'ai qu'la visite des cafards, des rats ouuéé Argent facile mon cul tous les soirs j'ai les pieds gelés Servir les ients-cli à l'heure ou toi t'es en train d'déjeuner J'lève une barrête en l'air pour tous les dealers, les charbonneur J'ouvre la porte du hall aux daronnes qui me traiteront de sale voleur Esh la galere WAllah tu ma cogné Un bédo, une cannette puis une perquisition à la son-mai Ce son n'est pas triste j'texplique ça va au summum de mon bonheur Y'a pas plus haineux qu'moi, j'crèverai l'doigt en l'air sur le trône C'est un son qui fait rer-pleu eh, j'm'en bats les couilles J'ai un tas d'haine j'suis seul quand j'deal en bas des tours Fuck les poucaves, fuck les jaloux, les pédés Putain pousse-toi quand les keufs veulent me péter Car si tu finis en garde-a-v' avec moi pédé, n'ouvres pas ta bouche J'suis en mode sursis j'm'arreterai pas stopé pas ma route Ademo, rappe pour ceux qui galèrent dans l'froid Quoi, t'es un bandit en cellu' j't'encule ta mère dans l'bois J'prefere me faire péter mon nez qu'faire la tapette Si t'es un gorille qu'tu m'a goumé, demain, j'te met un coup d'lame dans l'artère Tu cherches la merde, j'la fais sortir par ton trou d'balle Si l'baveux m'dit d'avouer, nique sa mère, j'suis pas coupable J'les baise tellement qu'les keufs on pris les empreintes d'ma bite J'ai fait l'serment qu'pour les miens je sacrifierai ma vie Esh la galère ouais j'te connais J'me souviens de toi, des caves, des cafards mais pas de la monnaie Esh Esh la galère ouais j'te connais J'me souviens de toi, des caves, des cafards mais pas de la monnaie Esh Esh la galère ouais j'te connais À cause de toi bicrave en bas du hall C tu connais3</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Baddack</t>
+          <t>Kahba</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Rien n'se passe comme prévu, quand j'étais dans le mal, t'aurais vu Y avait qu'les cafards qui m'ont pas tourné le dos Elle est sombre comme la rue, son regard m'attire, m'affirme qu'avec elle, j'peux m'en sortir J'la suis, elle m'fuit, non, j'peux pas la laisser partir Et dès qu'j'fais les choses bien, la poisse toque à ma porte Igo, j'suis dans le mal, les absents ont toujours tort J'suis yomb', j'suis dans le noir, dans les ténèbres Ouais, j'fume un gros spliff, j'regarde le ciel, et j'tourne en rond et j'tourne en rond, et j'tourne en rond Solo, solo, solo Ça tourne en rond igo, wAllah, y a pas un euro Solo, solo, solo Ça tourne en rond igo, wAllah, y a pas un euro ouais, ouais, ouais, ouais J'suis dans le noir, dans les ténèbres Dans ma grotte, ça sent la mort et la pisse J'reste peace, en bas du bâtiment C Même dans le froid, je servais, les lèvres gercées, énervé D'avoir le frigo vide, le ventre vide mais les couilles pleines Comme Baddack, Baddack, ouais, ouais ouais, ouais Igo, j'm'en bats les ouin, ouin, ouin J'sors d'Paname, banane, bang, bang bang, bang Souci va et vient, vient, vient Buddha Kush, j'suis dans l'espace, les soucis s'entassent Que du sale et du sale, on arrive en balle Dans le cellophane, fanent tous les sentiments Fuck ton buzz, j'suis là pour le cash Électrique comme un taser Dans la salle, salle, la sère-mi s'emballe On a fait nos pas en bas d'tous les bâtiments J'ai le F.L.O, F.L.O d'Eikichi T'es qui ? J't'esquive vite Pétasse, fais pas tes chichis Fais-moi cuisine comme Chichi J'ai la paire, j'ai la bonne, j'la pose sur la ble-ta ble-ta, ble-ta Paire de couilles ou floppe Le sourire, igo, quand j'pète ma béda Tu veux l'seum ? Viens là, hop, hop, hop, hop J'ai la frappe, qu'est-ce t'en penses ? dream, dream Danse, danse, danse, danse, danse, danse J'suis tout maigre, faut qu'j'reprenne bim, bim Pompes intenses-tenses-tenses-tenses-tenses Eh Taktak, faut qu'tu pètes, peace, peace Qu'on encule toute la France, France, France Que le buzz monte, ils savent pas c'qu'on était, c'qu'on a fait pour manger Dans la team, team, team D'où on r'vient, c'est pas du ciné Qui aurait pu imaginer qu'un jour on péterait quand, en bas du bât', on dealait ? Les maisons d'disque parlent de chrome, on leur dit nous, pas ients-cli, nous Nous Malaga, nous Ketama, nous Meuda, nous niquer tout Comme Baddack, Baddack, ouais, ouais ouais, ouais Igo, j'm'en bats les ouin, ouin, ouin J'sors d'Paname, banane, bang, bang bang, bang Souci va et vient, vient, vient Buddha Kush, j'suis dans l'espace, les soucis s'entassent Que du sale et du sale, on arrive en balle Dans le cellophane, fanent tous les sentiments Fuck ton buzz, j'suis là pour le cash Électrique comme un taser Dans la salle, salle, la sère-mi s'emballe On a fait nos pas en bas d'tous les bâtiments3</t>
+          <t>Le bail c'est... Ouais ouais, kahba Hun, hun, ok, ok Le bail c'est Internet, MSN, Facebook Sites de rencontres, webcam, te montre ses fesses, bouge En mode strip tease Elle c'est Farah elle aime pas les victimes T'es un caïd tu lui plairas elle écoute Booba du 92 izi Le bail c'est que Farah est bonne comme disent ses potes, Farah est bonne elle a des copines ses copines la trouve très conne Ce soir elle a rendez-vous avec un soi disant dealer de Paname Qui lui même lui a dit qu'il avait une grosse banane Ce soir c'est un gars de plus, ce soir c'est l'premier samedi du mois Y'aura du cul comme sur Canal Ses parents ne savent pas ce qu'elle fait sinon c'est le bled Elle écoute du Wallen après chaque mecs qui l'appellent et la eh'... C'est depuis qu'elle a souffert qu'elle fait la chienne Depuis qu'son cur s'est ouvert, se dit qu'les hommes n'en valent pas la peine Farah cette fille qui du rêve passe à je crève Depuis qu'on lui a dit je t'aime fait un gosse et qu'on l'a tej' Kahba, tu veux les bras d'un beau gosse Kahba, choisis la cave ou les chiottes Kahba, la vie c'est triste hein, j'te pleure pas, mais j'compatis devant ton destin Kahba, c'est comme ça qu'on t'appelle Kahba, ton cul tourne dans tous les hôtels Kahba, ton numéro tout le monde l'a, pleures pas, y'a qu'un zgeg qui t'lâchera une larme Le bail c'est talon aiguille, mini-jupe, string Tatouage en bas du dos, 90 et piercing au nombril Capotes code dans l'sac à main l'soir Deux grammes de sess dans la shnek pour rentrer en boite Danse danse comme une déesse, le regard perdu Fonce-dé, alcool dans les ve-eines Elle c'est Laura attend un beau gosse qui sache y faire Plutôt qu'renfort, un gentleman qui lui paye un verre Elle aura ses collés-serrés classiques Quand le jour se lève, un after pour aller fêter la nuit Elle finit souvent dans les hôtels les plus chics avec un mec à Chiffre avec d'la haute qui gère une usine Elle connait toutes les positions, termine chaque ébat Avec une trace ou un gros pilon L'histoire de Laura c'est 13 piges, violée sur un lit, par un Homme d'une cinquantaine, violent du mois, ivre Kahba, tu veux les bras d'un beau gosse Kahba, choisis la cave ou les chiottes Kahba, la vie c'est triste hein, j'te pleure pas, mais j'compatis devant ton destin Kahba, c'est comme ça qu'on t'appelle Kahba, ton cul tourne dans tous les hotels Kahba, ton numéro tout le monde l'a, pleures pas, y'a qu'un zgeg qui t'lâchera une larme D'mandes toi pourquoi elle fait la pute elle fait la pute, negro Elle donne son corps avant son coeur enlève sa jupe très tôt D'mandes toi pourquoi soeurette les mecs sont sales Une vision salée plus d'pitié pour faire du mal Kahba, parle pas beaucoup mais sait agir Est triste donc donne son corps d'façon tragique On les appelle chiennes, salopes, putes, pétasses Nouvelle génération, et wAllah qu'ça tourne très mal Kahba, tu veux les bras d'un beau gosse Kahba, choisis la cave ou les chiottes Kahba, la vie c'est triste hein, j'te pleure pas, mais j'compatis devant ton destin Kahba, c'est comme ça qu'on t'appelle Kahba, ton cul tourne dans tous les hotels Kahba, ton numéro tout le monde l'a, pleures pas, y'a qu'un zgeg qui t'lâchera une larme1</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Homme du présent</t>
+          <t>185 Litrons</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Laisse-moi tout seul, laisse-moi traîner dans la street Igo passe-moi lseum, et jle vendrai à ta bitch Laisse-moi mposer et tirer ma guinz Causer au frère en cellule qui vient dcoffrer un gros cinq-vingt Laisse-moi être zehef, le regard vide Laisse-moi penser à ceux qui font lramadan au tard-mi Laisse-moi tdire, prends soin dta Maman Ici on parle avec les yeux, pas besoin dgeste avec la main Laisse-moi avec mes pêchés, et insulter les matonnes Laisse-moi espérer quun jour Allah nous pardonne Laisse-moi bicrave, les pieds dans la merde Laisse-moi rouler vite, son à fond quand jsuis dans ma caisse Laisse-moi faire la morale aux tits-pe Laisse-moi ne pas répondre quand une tasse me bippe Laisse-moi vivre avec ceux qujaime, libre Laisse-moi peace, vaut mieux qujreste peace Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent Jai beaucoup despoir, jai confiance en mes couilles Un soupir, lhabitude de souffrir Reçois des mises en demeure, baise demain Des mises de merde, on sdémène tinquiète le tigre sdémerde La rage avant la paix La Foi avant la paye Parisien tu connais, ni Londonien, ni New-yorkais Au charbon sous lhall, gants, écharpe et bonnet Homme du présent, un combat contre soi-même On repère largent, ta bitch nous repère en soirée Même en hess le swag swingue en Air Max Le risque puisque on prendra la suite à mille eus Pas dhistoire on finira pas au musée Tu sais où jhabite, viens si tu veux tamuser Trop loin Accorde moins dimportance au cul dune salope quau cul dmon joint Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent Jvendais la coco la night, le matin jbuvais un café WAllah jrentrais dPaname jusquà Corbeil éclaté Jvendais la coco la night, le matin jbuvais un café WAllah jrentrais dPaname jusquà Corbeil éclaté Jai bicrave sept jours sur sept, des années lfaire sur un terrain Des milliers d'billets dvingt, wAllah qupour nous cest rien On est sur-allumés, un go-fast sur la Lune Du soleil sur les lunettes, nos faits-divers sur la Une Oussa voit grand comme la villa de Sosa Se sent mal en costard, méfiant, donc souvent peu sociable Kiffe les belles femmes et les hauts talons Cest quand les loups sortent que les brebis sallongent Nous et la rue ça sest fait au feeling au risque De ber-tom, aux arrivants, avec ou sans Philipp Morris Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent Fuck on a tous des rêves Jsuis comme sous be-her Sous ma casquette jvois en Gucci Jreviens du parlu avec un bout dshit Et puis fuck si on sbousille Embrasse un frère, check les cousines Cool on la fait cool, regarde lsourire Les keufs maudissent, les meufs rougissent6</t>
+          <t>Trop d'marmites dans l'rap, j'rentre, j'opère Vaseline dans l'oreille, j'te laisse ma bite dans l'crâne J'pisse dans l'bail, les MCS j'les prends par dizaines Les auditeurs niquez vous avec votre rap tah Walt Disney C'est un appel aux vrais, on va reprendre ça On veut nous déraciner mais parce qu'on est rares comme des bonzaï Et nique ta grand-mère tu va courir si tu m'vois Si j'te nique et qu'j'le mets sur YouTube poto c'est pour qu'tu m'crois MC épargne moi, tes jeux d'mots C'est pas parce que tu prends le bus que tu m'feras croire que tu démarre au quart Balayette, gifle dans ta gueule, baisse tes yeux Là j'ai la rage qui vient du zoo d'l'Essonne Qui vient d'mon père, qui vient d'la hess Qui vient du hebs pè-pè-pèpere J'vais vous faire perdre le titre, vous allez m'rincez Comme quand j'payer la télé tous les mercredis T'es pas content ? Fuck, ils insultent les mères Si j'y vais pas c'est pour pas que y ait du sang à rap contenders Première insulte béh tiens dans ta mère Toi continue à filmer diffuse ça avant que j'te fasse la même J'essaye d'être cool, j'vous jure c'est vrai J'respecte plus Kamini que ces pédales qui font les mecs Wallah, il demande à papa maman pour payer l'studio Nous ça vient de la rue quand on rap plus c'est que les deck nous saute L'ingé est témoin y'a pas d'mito Les ien-clis appelle même quand on est derrière l'micro Pas de quoi se vanter, c'est juste une parenthèse Le savoir est une arme pourtant c'est toujours les démunies qui part en guerre Dieu est grand, d'autant plus grand que sera la chute Pour ça quand j'passe à la barre, j'fais un petit sourire à la juge Car un jour elle sera à ma place Alors la, je veux être là, qu'elle comprenne mon petit sourire à la base Ironie ou paradoxe bizarre, J'ai une drôle d'humeur Va comprendre j'ai d'la haine et elle sort du coeur Chaud le rap, rien à voir avec ces merde Ils ont moins de choses à raconter en un an, que moi en moins d'une heure Je vis dans le noir, car j'pète des câbles à haute tension Et si quand j'rap perds des kilos, c'est parce que j'les donne dans l'son Pour toutes les pédales, si tu compte sur les gens, écoute Ya qu'un pd qui peut accepter qu'un autre homme lui porte ses couilles Allez tous vous faire foutre Dans c'de-mon c'est comme en taule, on arrive solo, on en ressort tout seul Tape mon blaze sur Google, igo tu m'trouvera pas Après deux trois joint beu-her, gros, tu m'trouve rhabat Tu veux mon bout d'taga, un bout d'salade Ramène le papier Manny ou bien bouge salam Zougouzougouli si les thugs parlent affaire Quand les keufs sont venus pour moi, mon reuf a sauter par la f'nètre C'est comme cette meuf qui me demande Nabil, t'as d'jà fait du hebs? Tout ça parce que j'ai un peu de tête avec un accent de tess Igo j'ai la barre, les veu-grés sont en leu-leu Igo j'fous le sbeul bien sûr que mon hash pue Et la miss, si t'es bonne on s'arrête à l'arrêt d'bus Gros si tu clique sur j'aime pas, ta mère c'est la reine des putes J'ai tout ramener à mon dad, l'argent des diplômes et la police J'fais partie des cerveaux de la rue même les bourgeois m'applaudissent À 8 heure j'avais cours, à 6 heure j'avais les menottes 9.1, 9.4, Wesh igo prends note Oué j'prends note Bande d'enfoiré On lâchera jamais je t'le dit jamais Tant qu'il y a les couilles, j'annonce J'suis un tigre qui tombe dans l'arène Je m'arrête pas tant que j'ai pas gagné Et si on s'embrouille Sois sûr qu'un d'nous va canner Haa Bande d'enfoirés Sur la 185ème avenue Ademo, N.O.S Vous connaissais pas les bails Hé, niquez tous vos grand-mères J'rappe pour les charclos et j't'enmerde J'vous baisse tous en leu-leu, les jambes en l'air 185 igo1</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Petit pélican</t>
+          <t>Cramé</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Père né en Algérie, mère qui naît à Fès Ademo né dans l'zoo, peut pas retourner sa veste PNL laisse, beleck on vous blesse Pas la même tess', j'l'appelle Eva Mendes Ton nez dans ma cess', chienne on te dresse A 6 heures c'est la hess Hmm, des lions comme Mufasa Hmm, j't'ai mis l'coup d'bassin Hmm, dans la beuh y'a l'fil orange Hmm, billets bleus et verts qui m'enjaillent Hmm, elle peut pas mappeler mon ange Hmm, le sheitan me pète le champagne Et puis j'm'en fous d'ber-tom tant qu'les miens sourient J'm'en branle sur les films d'karaté à Katsuni Viens nous voir bibi dans des cages de hall pleines de pisse J'veux l'pactole, j'dis à Félindra tête de tigre Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Petit pélican ne sait pas voler Regarde les émeutes à travers ses volets Petit pélican un jour sera grand Ne traîne pas dans les halls, ne se doute de rien quand ça vend Petit pélican plein d'rêves, d'mande souvent papa ou maman Resserre ses crampons face au but, la boule au ventre qui l'attend Petit pélican veut croquer l'monde, un peu nerveux Et quand il rentre prend parfois le chemin de la cave Ne connait pas l'prix de la vie, mais déjà le prix d'un baveux Petit pélican fait un vu, petit pélican fait deux vux A la son-mai ça parle de la chute du grand, ça parle despèce Espèce, c'est donc toi qui fout la merde à la maison Petit pélican part chercher de l'espèce Grand panorama sur la tess' Petit pélican compte et recompte Déjà peu d'amis qui s'écartent de lui au fur et à mesure qu'il monte Petit pélican pète sa niaks, compte sur personne, attend que ça passe Ça crie moins à la maison, y'a que les schmitts qui s'agacent Petit pélican s'arrête et recommence Petit pélican tombe, ses ailes se cassent et la haine les panse Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans Ok Manny, regarde les petits pélicans7</t>
+          <t>x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Eh wAllah ouais cest sombre, baise les autres mecs, cest lson vif anti-traîtres Perce les ondes, laisse les cons, eh cest bon cest lson qui pète Ya trop dchacals qui jacassent, nique sa race si ça patine Pousse les pecs dans la cave au placard entre taga et tagatine Dé-détaille la plaquette, ya pas dcla-cla-clashs de tapettes Classe dans la glace, prends ta place, gars tauras notre reflet si ça pète Jma-maquette, maccapare un Pushka pour taper lscore Jrappe tinquiète appelle-moi Tupac nan, two paquets dclopes Tac tac tac et lami tape, pas cap-capable de vivre la merde Attaque-taque-taque, bim ta sur, à chaque, chaque deal on arrive à lheure Mais, mais, mais, mais qui cest qui rappe ? Roue dans lvirage Aux déter qui clamsent, ya des dents qui scassent Eh, harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life Tu vois les diez harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life igo x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jfais un rap de ouf, de barbare, embrasse les balles Le pare-balles ne parle pas le langage des bringuebales Pas le rap des dalleux stars-tars, flow trop speed, dar, dar Tac, tac, jmets mon coup, partage et bye-bye Et bim bim cest les bails, easy sur la cahier Vite vite, jvais les die, si si on va grailler Oui oui baiser ça, ou, cest précis on vit là où Ya wallou, cest lsaloon, tchin tchin pour la maille Vire les MC tous nazes, à ceux qui nous connaissent Ccoup-ci connard on peut pas nous virer comme au collège Décollage, nage dans lcomas, écoute et tais-toi Tu vas tomber dans les pommes si tu veux voir les étoiles La, la, la rime, le swag là ça glisse soit La technique jvois que tapprécies, sois pas bête, jlai fois deux Sois le bienvenu, et ouais ma-ma-man cest ma-ma-magique Ma, ma parole que jmarque ma quête, ma guerre quand jmanie lmi-mi-mic Trop facile, du sang, du sang dans la bassine Tes pas assis, tu vas finir sur le cul comme une catine Rap de foolek, elle mouille, jlargue, déboule et cest lsouk Jai trop tourné, jai trop souffert, jsuis trop saoulé naâlbouk On fait les diez, on est dînn et faut quon dessine notre destinée Yeah, yeah, yeah, jvends plus dshit donc jvais rimer Pour chanter donne du biff, on fait la la la la Sur Terre, déter, au clair de la, la, la, tune x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jai lflow qui fracasse, tabasse, agace, savate le beat En mode saga dsaccages, pagaille, jattrape le titre Ils veulent du dingue, dingue, flow Denzel en Benz, Benz Banga banga, ccoup-ci, ils auront des bang bang Jcrame ma clope dans la street, charcle la drogue sur un pit Motherfuck ton avis, à la mode dans la sique Crache, crache car elle est bonne mon ami Bad boy dans la ville, Maglite pas les spots dans la vitre Nouvelle époque on lagrippe, Paname, Paname suck-moi la bite x4 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés1</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Pêché d’orgueil</t>
+          <t>Fleury</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Jnique le monde, igo jveux pas changer Comme si à Fleury on mavait dit direction la Santé Si jsuis transféré cest parcque jmarque le plus Jai tout vu comme une pute jpeux pas finir sur le cul La vie cest dur et mieux vaut pas faire un malaise Comme en cellule on tlaisse crever Même si tu viens dcrier à laide Dur dsintégrer avec des yeux khabat On ma dit fais tes lacets On ma pas dit fais tes nuds dcravate On ma mis dans lghetto, tu connais la banane Pour mfaire courir contre des chevaux poto on ma passé un âne Jrime une haine, mais jcompte plus péter lbail Poto clique sur M si tes orgueilleux comme Végéta Génération 86, celle des foolek Des sirènes, des woo woo, pas celle des sous-merdes Jai besoin dune bulle dair mais lson est crevé comme mes Air Max Jfais peur aux gens biens à Halloween jai pas besoin dporter dmasque Jsuis un vrai, jsais rapper, mais on préfère les menteurs Pourtant jai essayé dgagner avec une couleur en cur Tu voulais qujdise ya qudes putes, ya qudu biff ? Mais connard dans nos vies, ya qudes stups, ya qudu risque Jai du carburé en discret, vu qujavance dans la réserve Jai pas lpermis, mais jmarche quand même avec des Diesel Pour retrouver mon chemin jlaissais des bouts dshit sur mon passage Me suis retrouvé perdu avec des schlags qui suivaient ma trace Et pour le blé jai vendu dhiver à été Toi tu crois aux contes de fées, moi jcrois aux comptes à régler Jai ouvert ma bouche, mais cétait pas pour sucer Jme suis dit drapper du seum, mais faut du com pour le succès La roue va tourner, ça cest une légende comme dhab Cest nous quon tourne, la roue elle reste bloquée en promenade Destin chelou comme Kennedy, Aaliyah qui scrache Obligé dsurvivre, le pire cest quils croient quon aime bicrave On vit comme Tony Micelli, pas Tony Montana Tu trouves joli Beriz, cest qutes un touriste ou un Noich Tu trouves ça marrant, ya rien, normal igo On a beau sourire, nos yeux nsourient pas igo Tu vois cque jveux dire, nan jte dis cque tu vois Si jaime la neige ? Demande ça à ceux qui dorment lhiver dans du froid Cest pas un son triste, cest juste une levrette Jlève ma v'là mes couilles, appelle-moi le vrai À distinguer des faux bien sûr, jdemande pardon à Allah Jveux pas aller en Enfer grailler un pain dpus Jpense que jaurai pas plus dinspi avec un spliff Et jpense encore moins rapper plus vite avec un speed Vingt-cinq piges Allah u akbar Ashadu anna la ilaha illallah Wa ashhadu anna muhammadan rasulu-llah Et jai des pêchés, jai mal au dos Jprie dmoins en moins, mais jfais toujours lodo Poto, la moindre des choses après mes fornications Rime de sang, vole et vente de grosses doses Sois pas choqué, chacun est comme il est Jsuis têtu, lbonheur cest Titi et moi jsuis Grosminet WAllah petit jessayais dsuivre mon ombre Quand jlai plus vue jai compris qucest parcquil faisait trop sombre Jsuis pas à la mode mais cest les soldes quand les keufs perquisent Jcrois qujpeux changer dtête, mais jgarderai toujours les mêmes jeans Técoutes encore ? Ah ouais cest cool vieux On dit quon peut parer les coups mais quon peut pas parer les coups dfeu Trop dfautes, la haine nous a guidés Et quand un flingue fait larbitre, les balles sont toujours prêtes à siffler Au bout du compte on sy fait, ça finit par nique sa mère On improvise un salaire, fini à ry-Fleu quand ça merde Et wAllah frère ça memmerde Jcrois qujvais marcher sur les mains tellement jai la tête à lenvers Ils veulent du lourd jleur donne ma bite Jsuis vulgaire, et alors poto ? Jfais ma mort, fais ta vie Jsuis baisé ma gueule, plaider un cur Jpeux pas nan, cest mon pêché dorgueil Tu veux du sale ? Jsuis cquil y a dplus crado Ne msouhaite pas mon anniv gros ça sera lplus beau dmes cadeaux J'suis comme cette image que tu regardes à l'instant J'saigne, j'ai le regard haineux, mais j'souris et j'attends J'attends que mon heure vienne de sonner ton heure Interdit d'Essonne, y vit quand même esquive les contrôleurs J'finis ce texte avec la pire des rages Quand les rappeurs jouent les chauds alors que c'est les pires des shlags La vie c'est dur on s'en rend compte qu'une fois dans l'trou Et quand il fait trop noir sur l'banc d'cantine y'a pas d'ampoule Donc j'me répète, fuck le monde ma gueule J'peux pas changer gueh c'est mon péché d'orgueil7</t>
+          <t>Bienvenue à Fleury Ah À Fleury Bienvenue à Fleury nique sa mère les tombes fleuries C'est la quête de la clope, parce que tout le monde n'est pas che-ri Enfermé j'écris ma lettre et ma rime Dans la promenade ça s'anime, j'suis dingue et j'attends un courrier de la miff Remercie Dieu si tu peux chier tranquillement Remercie Dieu poto entre matons et détenus pas de sentiment J'attends l'auxi pour donner une clope, un peu d'oxygène Un pote de cellule qu'a cantiné mais qui rate l'autre semaine A.D.E.M.O F.L.E.U.R.Y Ça c'est le texte en arrivant M.E.R.O.G.I.S Tu veux tester mais ta grand-mère j'la baise, enculé Même enfermé je fais un yoyo avec ma bite qu'elle vienne me la sucer C'est la défaite, là j'mange un 3-0 3 ans ferme plus 6 mois révoqué, je fais appel mais il n'y a pas de réseau Pour l'instant j'ai un petit corps mais je tape les pompes Juste pour devenir poids lourd et niquer un tas de piéton Dehors j'espère que les frères pètent un pilon en pensant à ma gueule J'tire pas la chasse j'prends ma douche, il m'reste qu'une main pour me laver la queue Le jour les pigeons les corbeaux, tapent ce qui vient Le soir c'est les rats qui tournent dans la cour, j'suis l'seul Corso-Algérien J'suis en vacances l'été 2010 ça sera au hebs J'viens de recevoir du linge, j'rêve d'un pilon dans la chaussette mais Tu connais la rengaine, ici ça s'tape pour du tabac Devant la télé je m'emmerde et même quand je zappe, y a que des bâtards À la cellule d'en face ça tape à la porte, ça crie Surveillant ! 16h24 j'attends la gamelle il n'y a que ça à faire quand t'es sur les nerfs J'ai cantiné ici lève tôt pour travailler mes biceps autrement Paraît que j'vais aller D5 depuis 2 ans dans l'règlement Voilà ma vie, vise, voilà ma vision des choses On a mis l'tigre dans sa cage pour pas que sa sauvagerie inonde les autres Or on naît pas d'la hess mais on en fait naître la foi Et tant qu'Dieu m'guide, crois-moi, ma force ne fait que s'accroître Au top des clips, là, j'vois Diam's numéro un T'es tombé sur une bombe, moi j'suis tombé sur des requins Nique votre justice, j'reste libre derrière vos barreaux Pour les vrais qui prient pour leur famille, et Allah tout là-haut, esh À ma sortie j'ferai d'la magie J'compte sur le re-fré pour sortie Son des halls volume 2, parasite Mon co-détenu vient d'se barrer, donc seul en cellule J'crache du sang dans les toilettes, peur d'avoir un putain d'virus J'pisse de la haine, y a comme un vide dans la tess Wesh mec j'vis dans la hess, j'ai des ennemis dans l'arène Eh, faut quoi, qu'j'pète des dents ? Quoi, que j'saigne des gens ? Jusqu'à c'qu'un d'ces bâtards m'descende ? Wesh Boub's t'es au quatrième, y a d'la place à côté d'ma cellule Fait une demande à la 44 j'te mettrai bien si t'as rien sur l'PQ Eh j'décuple ma haine, ma rage, un truc de ouf, man Tout doucement après la rue, ma vie c'est l'trou noir Esh, wAllah, là j'ai trop mal On m'a dit de ma fenêtre j't'ai vu pomper un truc de malade en promenade 500 pompes à la demie-heure le muscle étouffe mais j'ai qu'ça Donc calmé au parlu j'ai toujours pas d'Carmen Électra Besoin de douceur, avec ma bite on est tout seul Et l'surveillant regarde pas si j'lui mets l'zizi dans sa bouche Oups, trente minutes c'est vite passé Eh Nabil à chaque son qu'vous faites oubliez-pas d'dédicacer Putain j'ai acheté mon premier paquet d'clopes ici j'ai appris à rouler ici Tous les jours j'me fume le corps ici Ouais ouais, j'tape pas la gamelle c'est saoulant Me3lich igo dès qu'j'sors, j'rentre dans l'meilleur des restaurants, sur l'Coran - Surveillant ! Oh, surveillant ! Ouais, surveillant ! - Qui c'est encore ? - Eh ! Nique ta mère ! Bienvenue à Fleury Ah À Fleury1</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cigare de Cuba</t>
+          <t>Il rêve, elle rêve</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Pourquoi ces fils de hmm ouvrent tant leurs mères ? mères Wallah, wallah Ils savent vraiment pas c'que j'pourrais leur faire Wallah, wallah, allô allô C'est comment ? On perce ! on perce Ouais, ouais, alors Pétasse c'est comment ? On baise ? on baise Ouais, ouais Depuis tit-pe j'ai l'seum Ouais, ouais, ouais Alors j'visser l'Essonne Si j'ai pas mon goûter, j'ai la haine j'ai la haine Wallah Si t'es juste à côté t'es dans la merde Quoi alors ? Tu comprends pas qu'on a faim ? Wallah, wallah Y aura du sang sur le sourire à la fin Hmm hmm Pa-pa-pa-pa-pa faut que j'les hmm ces F de putes Wallah trop d'soucis, trop d'nostalgie dans l'disque dur Mouais, j'hésite, j'sais pas hmm J'leur fous un bout de bois ou ma hmm... Merde ! À croire qu'les anges m'ont dit Bouge de là, pars en couilles Aujourd'hui ça parle en dix, si y'a pas le million ça parle en douilles x2 J'mets le chapeau comme à Cuba J'veux le cigare comme à Cuba La street m'a dit d'un air tout bas Baise les cocas dans la coupe ah Arriba arriba arriba Rompompompompompompom Ça rit pas rit pas rit pas C'est l'gyro que t'entend-tend-tend-tend4</t>
+          <t>Il roule un pilon, marche avec le swag, le gros sdit Que la vie est courte comme les relations avec ses copines Priorité faire dla tune, lui cquil rêve cest dson gamos, yeah Un gamin qui vend la came qui a oublié la mosquée Que, que pasa ? cest cquil tdit si tu lregardes À travers les LV, entre les jambes ses couilles mais aussi quelques grammes Il marche, sûr de lui, la rue cest à lui Le jour cest ses potes les meufs, cest la nuit Cest cquil kiffe pour taffer, il dure moins dtrois jours Il côtoie les grands au café pour quils lemmènent faire un tour Arrivé dix-sept heures il spète la tête, scache dans la cage descalier Il devient tout maigre, donc appelle ses potes quand ya un tête-à-tête Tê-Tê-Tê-Tête de ma mère cest la fin dchacune de ses phrases Une paire de Nike Air, un grec, une hlel, deux-trois putes il est max Lécole cest fini, BEP pour lui veut dire Bicrave Et Potos Seize ans, il comprendra plus tard quil a niqué sa vie trop tôt Petit veut dla maille, il veut dla sape Il veut dla chatte, vivre à la swag, il veut dla saveur Petit veut pas die, il veut pas dmal, il veut pas dsale Mais la base, il doit bien graille Miss veut un mâle, un mec qui brasse, restau évad Pas un schlag mais un gars qui stape Vivre à cent à lheure, le suivre à la trace, finir avec Quil vienne dici ou dailleurs Petite sur cquelle veut, bah normal, cest être grande Rembourrage dans lsoutien-gorge pour provoquer laccident Elle svoit mariée, une bague avec plusieurs carats Recherche lhomme en écoutant Zaho, qui lemmènera chez Zara Elle veut pas dréputation mais ça lui court après Comme les mecs derrière son talon quand elle roule du boule exprès Elle fume une clope à lentrée du centre commercial En femme fatale, attend quyen ait un qui slance Et la drague, sac à main Gucci pas dsoucis Rouge à lèvre sur lsourire, elle rougit Quand un boug dit tes mashAllah cousine Il lui dira jveux dormir dans tes bras à lhôtel dans ses propos Seize ans elle regrettera plus tard davoir donné sa trop tôt Petit veut dla maille, il veut dla sape Il veut dla chatte, vivre à la swag, il veut dla saveur Petit veut pas die, il veut pas dmal, il veut pas dsale Mais la base, il doit bien graille Miss veut un mâle, un mec qui brasse, restau évad Pas un schlag mais un gars qui stape Vivre à cent à lheure, le suivre à la trace, finir avec Quil vienne dici ou dailleurs Il veut dla maille, elle veut un vrai Elle laime, il aime son boule Elle veut un mâle, il veut une vraie Il laime, elle aime son flouze Il rêve, elle rêve, il rêve, elle rêve Il rêve, elle rêve, il rêve, elle rêve Petit veut dla maille, petit veut dla maille Petit veut pas die, petit veut pas die Il rêve, elle rêve, il rêve, elle rêve Petit veut dla maille, il veut dla sape Il veut dla chatte, vivre à la swag, il veut dla saveur Petit veut pas die, il veut pas dmal, il veut pas dsale Mais la base, il doit bien graille Miss veut un mâle, un mec qui brasse, restau évad Pas un schlag mais un gars qui stape Vivre à cent à lheure, le suivre à la trace, finir avec Quil vienne dici ou dailleurs2</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ladif*</t>
+          <t>Squad Freestyle</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Hey pédé, j'viens t'péter, rien laisser, la baiser, n'pas rêver, RDV sur Saturne La fierté, lhonnêteté, l'amitié, éviter la pitié, j'vends la mort à la pub Elle est bonne, faut qu'elle paye en nature, elle est pure, la feuille est sans ratures Pas majeure mais sa bouche est mature, le shit bulle, les pouces collent, on m'accule Wesh l'alien écailleux, t'es faya, tête ailleurs, dis-moi c'est quand tu sors le Cayenne Ouais la hyène se lâche, fait la chienne, se cache et plus tard se range comme Ayem Deux talons qui sortent de la gova, des bras maigres qui manient le cobra Igo on sort la langue comme Manny, Love Sosa, oui ma connasse Tiens goûte la teub à Adama, gros j'lance mon taga jusqu'en Alabama Ma punch dans ta gorge, la gorge à ta femme, viens voir la souffrance te dire wallah pas mal Igo j'suis sauvage et j'crie ounga wawa, Ounga ounga, le G sur la poucave Ounga ounga, nigga wawawawa, Ounga ounga, tant qu'on fout pas l'darwa J'sais qu'j'suis pas intégré, j'suis père de mes intérêts, les mains dans la merde alors qu'elles sont faites pour les enterrer J'sais combien tu paierais pour te faire opérer, de tout ce mal qui paraît si fort et qui semble empirer Viens m'voir et j'te dirai le prix d'la fonce-dé-dé-dé Si t'as appris à compter-ter-ter, on sera amis, enchanté-té-té Moi c'est Ade', moi c'est Ade' khey, sors la 'teille, vas-y claque le jour de paye J'veux pas d'ton Facebook, rrht tfou, t'sais que j'ai ma main sur ta fesse C'est limpide, ouais c'est deuss, c'est violent, c'est 9.1,on arrive y a d'la peuf' au volant, y a d'la meuf Elle t'a brisé le cur, fallait briser sa chatte, dire au gosse à sa reus' fais la bise à papa Pah, pah, pah, pah, ma haine qui te quen', j'suis en polo, la rage s'voit aux triceps Blablablabla, tu t'écartes tu te perds en direction du hall les cas soc' te visser L'espoir dans le coffre, la chance dans la cava, pardonnez-moi mais nos sorts sont macabres Dis-moi si j'ai tort ou si j'rappe la tate-pa, obscure est la force, le jedi est khabat 9.4 c'est l'Barça, 9.1 c'est l'Brésil, ouais connard, va l'dire à Kery Sinon à part ça, bien t'es pressé ? Non parce que ça va pas terrible Parce que j'suis seul dans ma tête, c'est la rage qui m'a élevé Que j'ai bicrave dans la tess' et qu'mon caleçon n'est pas en LV Faut du liquide, j'laisse pas couler une larme, pas une, pas une, pas une Fais bellek aux femmes, fais bellek aux putes, fais bellek aux paluches, paluches, paluches T'sais qu'on est vifs donc fais pas l'imbécile, on s'vide pas la vessie un meug dans les WC Oui on veut la belle vie, embarquer sur l'ferry, si t'as ché-tou des litres, vas-y mon gars fais signe Tu décolles, jatterris, bientôt j'côtoie des riches, la poudre dans la narine, César fait l'AVC J'l'ai quen' un mercredi, l'amène pas à la mairie, tu l'appelles ma chérie, j'lui mettais la fessée Viens j'te donne RDV, j'suis d'Paris j'suis pressé, igo j'vois tellement d'chiennes, j'mets une laisse sur l'PC J'mets une laisse sur l'PC, j'prends le game en PV, l'rap est mort, j'le déterre pour le ré-enterrer Ma drogue dans l'Gabbana Aux arrivants avec mon gars Bana J'sors ma hein-hein de mon Gabbana Ton oseille dans la poche de mon Gabbana J'fais l'amour à la hess' dans l'allée, elle se rhabille, j'me retourne Bismillah à l'aller, bismillah au retour Sers le trou d'balle à la douane, on déballe et taille-dé redwa Dans mes yeux c'est le vide, mon âme est perchée sur le toit J'vois l'espoir dans les yeux des p'tits, mashallah ça sent l'rêve Une sale envie d'décharger, on vit, on s'égare, on crève Ouais pas d'vie sociale, juste une vie d'cas social Le rap dans un local, va foutre ta schneck au sale Tantôt j'tue l'temps tant, tantôt c'est l'temps qui m'kill J'me sens mutant, tant différent dans la file Ouais j'suis bon qu'à compter, un joint d'beuh sur les lèvres Allez fuck ma bonté, et avec ça fuck mes rêves Tout c'que j'fais charbonner, tous les mêmes tous clonés Six du mat' détrôné à r'dessiner c'qu'est gommé Combien de sacs à pâtes ne savent plus sur quel genou danser Sur quel genou danser Ademo, Ladif Peace and lovés kiff Tout pour la mif' Tout pour le bif' Les sentiments ça ralentit, le cur fermé, là j'suis à fond Tu pètes plus haut que ton cul, on t'monte ton cul touche, touche le plafond On tire sur la laisse, t'aboies, on t'détache, tu perds la voix Nous c'est les gentils armés cramés conscients qu'on perd la foi Wesh à quand l'dernier kil' ? Pas demain, pas maintenant J'te fais danser avec l'oseille à chaque billet un nouveau battement J'tacle junkie potentiel, j'en fais ient ient fidèle Des loups qui fixent la Lune, moi être meilleur ami d'elle Chez nous on partage la hess', le cul d'la haute dans la caisse Casse un tour longue est la laisse, mon ange tu connais l'adresse Le temps d'un clignement les gens changent, moi je change en retrouvant la vue D'aucune poche on est dépendants, là j'suis fonce' en retrouvant la fum' Ils ont les photos, plus les souvenirs, on a les souvenirs, plus les photos Ouais on a même plus les potos, c'est chacun son bénéf', son auto Un gros fer sa mère, j'emmène la misère en balade Une balle pour chaque ennemi de mon frère, ça fait click, gala, gala Un putain d'biff, la mif', une ride en moins sur l'front de mon père Un putain d'biff, la mif', un sourire en plus sur l'visage de mon frère Le dos large, le coeur étroit Ta relation sur une pesette, si t'écoules pas, madame est froide Ce soir j'rentre pas à la maison Les portes se ferment et puis ne s'ouvriront qu'à la prochaine saison La misère dans un SLR, rentrer, tourner, sortir célèbre La vie me donne son cul, j'connais pas l'goût d'ses lèvres24</t>
+          <t>Igo t'as aucun flow, igo Makélélé T'veux la serrer, mais bon, t'es laid-laid-laid Tu fais le nerveux, igo je lo-lo-lol Prenez position, y a la le-le-le-le PNL, F430, on fait né-né Tu veux de la frappe ? Appelle Ade-de-de J'ai pris l'instru, je l'ai fêlé-lé-lé, lé-lé-lé, lé-lé-lé Bon c'est bon, j'connais la vie J'perds plus, va le dire à ta bella Pon pon, bang bang au milieu de ta ville Tu rép' plus, c'est bon, ciao bella J'fume sous le bo-bo-bob Ouais ouais, mon po-po-pote J'meurs pour la mif Le bon-char en ta-ta-ta J'veux pas retourner ma veste Je fuis la tess comme la peste Je vieillis et le temps presse Argent en liasses, faut que j'encaisse Putes de l'Est et grosses fesses Armes, niaks et grosses caisses Vert est le sachet, Gucci, Versace Ceinture Hermès F430, PNL, trop pépère On squatte le ter-ter à plein Jamais coopérer avec le commissaire Les tits-pe sont en Philipp Plein squad J'ai de la beuh, j'vais profiter Petite pensée aux potos enfermés C'est avec Wawa, Kana qu'je suis posé Au studio, pépère, en train de poser Adsa Beatmaker fait l'ingé Pendant que les keufs se font lyncher F430, IGD-D-D N.O.S, AD-D-D-D Gang de fêlés-lés Gibson est toujours calibré Armes de l'Est, OG Kush monnaie Sors le baba, l'espagnolé On a tous des envies comme S-Pion Nous, c'est tout pour la mula mula F430 c'est du lourd, j'accélère en travers pour la mille-fa Bécane en I, frotte la bavette, y a des traces sur les trottoirs F430, y a la , le produit sort du terroir On avance comme on peut, fait les bails comme on veut F430 le ghetto, tu connais, on est là que des envieux TZ, TZ my squad, Harlem, Harlem Fais les bails comme Ademo Tu connais posé-wézé Mes projets tombent à l'eau, t'inquiète, j'les ferai sécher J'ai lancé l'hameçon, y a que le haram que j'ai pêché T'as trouvé la fonce', igo, t'as perdu la santé Y a que sous taga, gata, que j'te dirais que j'suis enchanté IGD Gang, nouveau visage Comme les rues de ma ville, le gang est en chantier La liberté n'a pas de prix, aucune dette à vous payer Elle est bonne, elle est belle Elle roule son oint-j comme du cul, c'est incroyable Elle est ceci, cela J'ai de la mula en tête, sauver mes frères de la noyade Igo, la mula, c'est mon dada IGD, F430, PNL, on te daba Igo, la mula, c'est mon dada IGD, F430, PNL, on te daba Igo, ramène les billets Chez moi, y en a qu'en ont pas Dans mon block, ça fume la hookah LZR toujours comme bras droit Plus le temps de regarder le soleil Il est temps de viser le sommet On court tous après l'oseille Du mal à trouver le sommeil Pour moi, la roue va tourner Pour l'instant, elle tourne à l'envers Tu dis que j'ai pas de repères C'est le revers de la médaille Tous à la recherche de la maille On la claque dans des paires de Nike Tous à la recherche de la maille On la claque dans des paires de Nike IGD, F430, PNL, on t'abat Monte dans le vaisseau, chérie, bienvenue à bord J'te prends toi et toute ta bande de tards-bâ Si y a de l'oseille, j'ferais croquer ma famille d'abord J'suis pas du genre à pratiquer la hagra C'est dans nos gênes de mettre tout le monde d'accord 2.01.4 pas de blabla, j'ai des bastos si tu te prends pour Terminator Aujourd'hui tout le monde t'aime, demain on te remplace Pour qu'ils comprennent, il faudrait qu'on prenne place Retirez mes chaînes que j'fasse un peu de crasses Personne nous gène, la concu' on l'écrase T'es qu'une chienne qui mérite un chien de la casse J'suis pas un rappeur, j'rappe que quand j'ai l'occas' Partout où j'passe, il faut que j'laisse une trace On est né pour briller, pas besoin de paillettes et de strass2</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Wesh la galère</t>
+          <t>Simba II*</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Wesh l'animal, dis moi comment tu vois l'homme, dis moi Tu m'vois en prison ou bien tu m'vois mort J'niquerai ta fille apres lui avoir vendu ma drogue Sur l'écran d'ma ville les keufs mon marqué a la proche Bande de pédés j'suis un tigre pas un mouton J'vivrais ma vie connard j'vivrais pas celle d'un bouffon Gros, tu m'salue y'a pas d'rêve donc 'azy check J'les connais, les mythos donc me sort pas de balivernes Pas moins 3g, l'étranger, j'te fait pas dix hein Me casse pas les cacahuètes ou j'te prendrai pour un d'ces singes C'est simples comme bonjour, compliqué comme dire au revoir Les hommes se saoule la gueule pour survivre dans l'froid Père corse, mère algérienne, fier de mes origines Tous me disent gros t'as maigri j'réponds J'me suis mis au régime Faut reflechir, ma haine monte en l'air comme en high kick Le temps passe devant la montre man, j'élabore des tactiques Mon veau-cer en mode calculette, austère la tess ma vu naître, funèbre Elle m'verra mourir dans sa lunette J'suis entouré d'cave-pou qui t'nique l'avenir avec la langue Et j'dois peser beaucoup vue le nombre de balance J'pars en couille dans ma folie trouve d'la raison Me dis si pas d'argent moi pas mettre un pied à la maison J'suis différent oué, différent ma gueule J'ai peur d'accepter c'cadeau du Sheitan me delivrant un coeur J'ai dit au prof de maths en cour, j'suis pas lgenre à calculer Si la vie est une pute y'm'faut bien plus qu'une chienne pour éjaculer Regarde ma face, regarde les mec d'en-bas T'as trop d'bruit t'auras du calme si tu fait KRR KRR PAAH Tous le monde dis zoo mais au zoo on dis qu'c'était mieux à l'ancienne Avant qu'ils détruisent la grande tour la rue Césin Goka et 45 J'oublirai pas, j'dirais DZ sur n'importe quel label T'sais qu'il a fallu que j'pars de chez moi pour mettre à dealer d'la Zeb Y'a pas d'caprice, gamine, j'vend l'cannabis Parce que j'ai eu trop mal au ventre un long moment d'ma vie Ma3lich, normal gros, même la misère s'approche J'peux même te dire ça t'change autant niveau mental qu'en apparence Jsuis pas l'genre a dire j'ai vu ci, j'ai vu ça On a besoin d'se nourrir plus dans le délire j'ai fait ci, j'ai fait ça Eh gros j't'encule si tu kiffe pas ce que j'dis Écoute ta mère la pute j'la baiserai quand elle te dira au lit Ma vengeance sera terrible eh les crocs J'me suis mangé des murs en voulant les sauter mattez mes chicos La vie d'rêve j'l'aurai ici ou la haut Et compte sur personnes j'ai qu'la visite des cafards, des rats ouuéé Argent facile mon cul tous les soirs j'ai les pieds gelés Servir les ients-cli à l'heure ou toi t'es en train d'déjeuner J'lève une barrête en l'air pour tous les dealers, les charbonneur J'ouvre la porte du hall aux daronnes qui me traiteront de sale voleur Esh la galere WAllah tu ma cogné Un bédo, une cannette puis une perquisition à la son-mai Ce son n'est pas triste j'texplique ça va au summum de mon bonheur Y'a pas plus haineux qu'moi, j'crèverai l'doigt en l'air sur le trône C'est un son qui fait rer-pleu eh, j'm'en bats les couilles J'ai un tas d'haine j'suis seul quand j'deal en bas des tours Fuck les poucaves, fuck les jaloux, les pédés Putain pousse-toi quand les keufs veulent me péter Car si tu finis en garde-a-v' avec moi pédé, n'ouvres pas ta bouche J'suis en mode sursis j'm'arreterai pas stopé pas ma route Ademo, rappe pour ceux qui galèrent dans l'froid Quoi, t'es un bandit en cellu' j't'encule ta mère dans l'bois J'prefere me faire péter mon nez qu'faire la tapette Si t'es un gorille qu'tu m'a goumé, demain, j'te met un coup d'lame dans l'artère Tu cherches la merde, j'la fais sortir par ton trou d'balle Si l'baveux m'dit d'avouer, nique sa mère, j'suis pas coupable J'les baise tellement qu'les keufs on pris les empreintes d'ma bite J'ai fait l'serment qu'pour les miens je sacrifierai ma vie Esh la galère ouais j'te connais J'me souviens de toi, des caves, des cafards mais pas de la monnaie Esh Esh la galère ouais j'te connais J'me souviens de toi, des caves, des cafards mais pas de la monnaie Esh Esh la galère ouais j'te connais À cause de toi bicrave en bas du hall C tu connais3</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kahba</t>
+          <t>On enverra Mowgli chercher médailles</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Le bail c'est... Ouais ouais, kahba Hun, hun, ok, ok Le bail c'est Internet, MSN, Facebook Sites de rencontres, webcam, te montre ses fesses, bouge En mode strip tease Elle c'est Farah elle aime pas les victimes T'es un caïd tu lui plairas elle écoute Booba du 92 izi Le bail c'est que Farah est bonne comme disent ses potes, Farah est bonne elle a des copines ses copines la trouve très conne Ce soir elle a rendez-vous avec un soi disant dealer de Paname Qui lui même lui a dit qu'il avait une grosse banane Ce soir c'est un gars de plus, ce soir c'est l'premier samedi du mois Y'aura du cul comme sur Canal Ses parents ne savent pas ce qu'elle fait sinon c'est le bled Elle écoute du Wallen après chaque mecs qui l'appellent et la eh'... C'est depuis qu'elle a souffert qu'elle fait la chienne Depuis qu'son cur s'est ouvert, se dit qu'les hommes n'en valent pas la peine Farah cette fille qui du rêve passe à je crève Depuis qu'on lui a dit je t'aime fait un gosse et qu'on l'a tej' Kahba, tu veux les bras d'un beau gosse Kahba, choisis la cave ou les chiottes Kahba, la vie c'est triste hein, j'te pleure pas, mais j'compatis devant ton destin Kahba, c'est comme ça qu'on t'appelle Kahba, ton cul tourne dans tous les hôtels Kahba, ton numéro tout le monde l'a, pleures pas, y'a qu'un zgeg qui t'lâchera une larme Le bail c'est talon aiguille, mini-jupe, string Tatouage en bas du dos, 90 et piercing au nombril Capotes code dans l'sac à main l'soir Deux grammes de sess dans la shnek pour rentrer en boite Danse danse comme une déesse, le regard perdu Fonce-dé, alcool dans les ve-eines Elle c'est Laura attend un beau gosse qui sache y faire Plutôt qu'renfort, un gentleman qui lui paye un verre Elle aura ses collés-serrés classiques Quand le jour se lève, un after pour aller fêter la nuit Elle finit souvent dans les hôtels les plus chics avec un mec à Chiffre avec d'la haute qui gère une usine Elle connait toutes les positions, termine chaque ébat Avec une trace ou un gros pilon L'histoire de Laura c'est 13 piges, violée sur un lit, par un Homme d'une cinquantaine, violent du mois, ivre Kahba, tu veux les bras d'un beau gosse Kahba, choisis la cave ou les chiottes Kahba, la vie c'est triste hein, j'te pleure pas, mais j'compatis devant ton destin Kahba, c'est comme ça qu'on t'appelle Kahba, ton cul tourne dans tous les hotels Kahba, ton numéro tout le monde l'a, pleures pas, y'a qu'un zgeg qui t'lâchera une larme D'mandes toi pourquoi elle fait la pute elle fait la pute, negro Elle donne son corps avant son coeur enlève sa jupe très tôt D'mandes toi pourquoi soeurette les mecs sont sales Une vision salée plus d'pitié pour faire du mal Kahba, parle pas beaucoup mais sait agir Est triste donc donne son corps d'façon tragique On les appelle chiennes, salopes, putes, pétasses Nouvelle génération, et wAllah qu'ça tourne très mal Kahba, tu veux les bras d'un beau gosse Kahba, choisis la cave ou les chiottes Kahba, la vie c'est triste hein, j'te pleure pas, mais j'compatis devant ton destin Kahba, c'est comme ça qu'on t'appelle Kahba, ton cul tourne dans tous les hotels Kahba, ton numéro tout le monde l'a, pleures pas, y'a qu'un zgeg qui t'lâchera une larme1</t>
+          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>185 Litrons</t>
+          <t>Peace and Lové</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Trop d'marmites dans l'rap, j'rentre, j'opère Vaseline dans l'oreille, j'te laisse ma bite dans l'crâne J'pisse dans l'bail, les MCS j'les prends par dizaines Les auditeurs niquez vous avec votre rap tah Walt Disney C'est un appel aux vrais, on va reprendre ça On veut nous déraciner mais parce qu'on est rares comme des bonzaï Et nique ta grand-mère tu va courir si tu m'vois Si j'te nique et qu'j'le mets sur YouTube poto c'est pour qu'tu m'crois MC épargne moi, tes jeux d'mots C'est pas parce que tu prends le bus que tu m'feras croire que tu démarre au quart Balayette, gifle dans ta gueule, baisse tes yeux Là j'ai la rage qui vient du zoo d'l'Essonne Qui vient d'mon père, qui vient d'la hess Qui vient du hebs pè-pè-pèpere J'vais vous faire perdre le titre, vous allez m'rincez Comme quand j'payer la télé tous les mercredis T'es pas content ? Fuck, ils insultent les mères Si j'y vais pas c'est pour pas que y ait du sang à rap contenders Première insulte béh tiens dans ta mère Toi continue à filmer diffuse ça avant que j'te fasse la même J'essaye d'être cool, j'vous jure c'est vrai J'respecte plus Kamini que ces pédales qui font les mecs Wallah, il demande à papa maman pour payer l'studio Nous ça vient de la rue quand on rap plus c'est que les deck nous saute L'ingé est témoin y'a pas d'mito Les ien-clis appelle même quand on est derrière l'micro Pas de quoi se vanter, c'est juste une parenthèse Le savoir est une arme pourtant c'est toujours les démunies qui part en guerre Dieu est grand, d'autant plus grand que sera la chute Pour ça quand j'passe à la barre, j'fais un petit sourire à la juge Car un jour elle sera à ma place Alors la, je veux être là, qu'elle comprenne mon petit sourire à la base Ironie ou paradoxe bizarre, J'ai une drôle d'humeur Va comprendre j'ai d'la haine et elle sort du coeur Chaud le rap, rien à voir avec ces merde Ils ont moins de choses à raconter en un an, que moi en moins d'une heure Je vis dans le noir, car j'pète des câbles à haute tension Et si quand j'rap perds des kilos, c'est parce que j'les donne dans l'son Pour toutes les pédales, si tu compte sur les gens, écoute Ya qu'un pd qui peut accepter qu'un autre homme lui porte ses couilles Allez tous vous faire foutre Dans c'de-mon c'est comme en taule, on arrive solo, on en ressort tout seul Tape mon blaze sur Google, igo tu m'trouvera pas Après deux trois joint beu-her, gros, tu m'trouve rhabat Tu veux mon bout d'taga, un bout d'salade Ramène le papier Manny ou bien bouge salam Zougouzougouli si les thugs parlent affaire Quand les keufs sont venus pour moi, mon reuf a sauter par la f'nètre C'est comme cette meuf qui me demande Nabil, t'as d'jà fait du hebs? Tout ça parce que j'ai un peu de tête avec un accent de tess Igo j'ai la barre, les veu-grés sont en leu-leu Igo j'fous le sbeul bien sûr que mon hash pue Et la miss, si t'es bonne on s'arrête à l'arrêt d'bus Gros si tu clique sur j'aime pas, ta mère c'est la reine des putes J'ai tout ramener à mon dad, l'argent des diplômes et la police J'fais partie des cerveaux de la rue même les bourgeois m'applaudissent À 8 heure j'avais cours, à 6 heure j'avais les menottes 9.1, 9.4, Wesh igo prends note Oué j'prends note Bande d'enfoiré On lâchera jamais je t'le dit jamais Tant qu'il y a les couilles, j'annonce J'suis un tigre qui tombe dans l'arène Je m'arrête pas tant que j'ai pas gagné Et si on s'embrouille Sois sûr qu'un d'nous va canner Haa Bande d'enfoirés Sur la 185ème avenue Ademo, N.O.S Vous connaissais pas les bails Hé, niquez tous vos grand-mères J'rappe pour les charclos et j't'enmerde J'vous baisse tous en leu-leu, les jambes en l'air 185 igo1</t>
+          <t>OK, c'est parti on fait du bi-bi-biff En mode Armani, en mode Louis Vui-vui Ça rit dans la salle, on fait nos vies-vies-vies Bouteille sur la table, regarde les bi-bi-bitchs DJ fait moi ça, faut que j'en vi-vi-vip Peace And Lové, voilà ce qu'on vi-vi-visse Mes frères ont la dalle, écarte toi vi-vi-vite Avant qu'elles kiffent et qu'elles pinent ça fasse... Poto t'es trop bourré, y en a qui s'marrent, qui s'moquent Pendant que dans tes potes y en a qui smack qui smoke J'ai pas des doutes, t'as cru que c'était une femme, t'es fou, t'as frotté ma queue, doum Tu me demande T'es de Paname ? J'te répond, moi j'ai du pilon qui vient du 9.4, poto t'en aura si t'es mignon Ah nan, j'voulais dire, t'en aura si t'as les ronds Parlons peu, parlons bien, tu les as ou pas les ronds ? Attend deux secondes, quelqu'un me bi-bi-bip Allô, c'est Sophia, c'est quand on cli-cli-clique ? Va y, là j'suis loin donc pssh-pssh-pssh Si j'le fait, je t'appelle pas t'avais qu'à bi-bi-bip Revenons en à nos moutons, j'vois un anglais sur la piste J'lui dit Chocolate il m'dit How many money ? J'lui dit Quoi ? Va y tien un pilon et donne 200 money et va voir la banque heyy On est Peace And Lové Ça redémarre, met-moi un verre vi-vi-vite J'essaye téma d'bouger la tête des vi-vigiles Une bagarre, une bouteille ça fait pi-pi-pime Continue à mixer, bah ouais tout l'monde ki-ki-kiff Lunettes de soleil sur le biff, on ne cesse de danser En parlant de biff, y en a qui ont d'la 16 de Dan-illet Il nous faut le biff, faut les billets violets C'est vrai qu'on est Peace si on fait les Lovés T'as capté le baille, on veut taper des barres Et palper des liasses et passer l'étape Passer des vacs et grailler des plats en regardant le ciel et charmer les dames Mais qu'est-ce qu'on va se faire chier à faire de chichis J'ai les pieds dans l'eau et j'ai ma chicha Vue de mer sur la plage, ouais ouais si si J'suis dans un film et laisse moi faire mon... Me recaler poto, c'est pas possible Parce que c'est moi que les gens veulent écouter ce soir Écarte-toi s'te plait, fait de la place pauvre type Tu nous fera pas peur parce que t'es grand et large Ademo c'est mon bla-bla-blaze Fait le beush, j'entends déjà les bla-bla-bla Poto on a la frappe, tu pi-pi-piges Ici y a personne qui va prendre 20 pi-pi-piges On est Peace And Lové</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cramé</t>
+          <t>Du chiffre</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Eh wAllah ouais cest sombre, baise les autres mecs, cest lson vif anti-traîtres Perce les ondes, laisse les cons, eh cest bon cest lson qui pète Ya trop dchacals qui jacassent, nique sa race si ça patine Pousse les pecs dans la cave au placard entre taga et tagatine Dé-détaille la plaquette, ya pas dcla-cla-clashs de tapettes Classe dans la glace, prends ta place, gars tauras notre reflet si ça pète Jma-maquette, maccapare un Pushka pour taper lscore Jrappe tinquiète appelle-moi Tupac nan, two paquets dclopes Tac tac tac et lami tape, pas cap-capable de vivre la merde Attaque-taque-taque, bim ta sur, à chaque, chaque deal on arrive à lheure Mais, mais, mais, mais qui cest qui rappe ? Roue dans lvirage Aux déter qui clamsent, ya des dents qui scassent Eh, harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life Tu vois les diez harbat, eh gros c'est l'corse arabe, 91 ma life, ma life, ma life igo x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jfais un rap de ouf, de barbare, embrasse les balles Le pare-balles ne parle pas le langage des bringuebales Pas le rap des dalleux stars-tars, flow trop speed, dar, dar Tac, tac, jmets mon coup, partage et bye-bye Et bim bim cest les bails, easy sur la cahier Vite vite, jvais les die, si si on va grailler Oui oui baiser ça, ou, cest précis on vit là où Ya wallou, cest lsaloon, tchin tchin pour la maille Vire les MC tous nazes, à ceux qui nous connaissent Ccoup-ci connard on peut pas nous virer comme au collège Décollage, nage dans lcomas, écoute et tais-toi Tu vas tomber dans les pommes si tu veux voir les étoiles La, la, la rime, le swag là ça glisse soit La technique jvois que tapprécies, sois pas bête, jlai fois deux Sois le bienvenu, et ouais ma-ma-man cest ma-ma-magique Ma, ma parole que jmarque ma quête, ma guerre quand jmanie lmi-mi-mic Trop facile, du sang, du sang dans la bassine Tes pas assis, tu vas finir sur le cul comme une catine Rap de foolek, elle mouille, jlargue, déboule et cest lsouk Jai trop tourné, jai trop souffert, jsuis trop saoulé naâlbouk On fait les diez, on est dînn et faut quon dessine notre destinée Yeah, yeah, yeah, jvends plus dshit donc jvais rimer Pour chanter donne du biff, on fait la la la la Sur Terre, déter, au clair de la, la, la, tune x2 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés Jai lflow qui fracasse, tabasse, agace, savate le beat En mode saga dsaccages, pagaille, jattrape le titre Ils veulent du dingue, dingue, flow Denzel en Benz, Benz Banga banga, ccoup-ci, ils auront des bang bang Jcrame ma clope dans la street, charcle la drogue sur un pit Motherfuck ton avis, à la mode dans la sique Crache, crache car elle est bonne mon ami Bad boy dans la ville, Maglite pas les spots dans la vitre Nouvelle époque on lagrippe, Paname, Paname suck-moi la bite x4 Pas dblonde dans la piscine on est là pour brasser Autant dire que ceux qui sniffent ont un destin tracé Man cest ok, si cest clope au bec jsuis cramé Pas besoin courir jmarche mes poumons sont déjà crachés1</t>
+          <t>Ils veulent ma perte mais mes gars je les baise, protège ta meuf on téma ses fesses Nique les beau-parleurs gros jécarte les traitres, après mon teush toi t'auras des ailes Jai 20 e pour les potos 20 e pour les autres 20 e pour le président, le maire, les bleus et les connasses Tous du bétail, d'la bibi jai la médaille Si je te détaille ma vie il mfaut une lame et puis des flammes Pose-toi la question de la raison de la pression, de lagression Ta vie tu comprends pas car là ces sons dla ? jai limpression qut'es sur ma bite Entre eux et moi y a une plaquette qui sépare, des des barres J'suis la cause de chutes cérébrales Entre les meufs et largent, cque jaime tu le sais Jpréfère zapper sept culs et au final taper un Q7, cul sec J'serai millionnaire, les cafards me lont dit Quand je sillonnais les caves, les apparts vides, sur des kilomètres Cet hiver jtiens les cliquos, pété jen ramène le triple Jfais des p'tites pauses, je bronze, je vends, jfais mes tractions, et jfais du chiffre Jvois les autres frimer, pendant qu'moi jsuis en train dtrimer WAllah jvais les faire saigner dis leur que jleur ai préparé le kleenex Une voiture brûlée au dîner, lÉtat maime pas, veut mopprimer Mfaire cantiner, continuer, ma ma ma haine dmande quà briller Dix sept heures lhoraire douverture, jdois taffer pour ma couverture J'aurais pu être proxénète, tellement autour de moi cest couvert d'putes Jpeux me diriger partout, où qujaille gros j'crierais zoo ! Tu m'aimes pas, j'aurais les soutifs, ta meuf met plus de dessous T'es sourd ! Quand j'marche j'deviens de plus en plus parano Comme si j'avais des reusseuh, j'ai moins dix sept aux deux yeux De ce pas, j'viens arracher les salopes Si j'ai un poney, j'l'appelle Shakira, fais l'tour la tess, elle galope B-b-bouffon, tourne pas dans la tess mec, ça c'est pour les vrais pas pour les tapettes qui chient pleins de ? Bouffon-bouffon tu veux nous contrôler ? Tu vas voir les étoiles y'aura des pavés pour te consoler Et je vais évit' évit' éviter les bâtards et les gister Vit'-vit'-vite, patate dans l'videur Vider-vider-vider le coffre de shit Évid-évid-évid-évid-évid-évidemment Rapper rapide c'est simple alors croyaient pas qu'ils sont forts Arrête de cess avant d'pioncer Arrêter c'est bête bon sang d'bonsoir Moi j'ment bats les couilles le rap c'est cool, j'fais ça trois heures et j'suis saouler, parler douzes, v'la les douilles, ça crie ''Zoo'' avant d'niquer les poulets J'vois tout les gens danser comme si c'était un son de boîte J'vois les flics se bourrer car ils sont trop moches et auront trop honte de se voir Si pour se faire connaître suffit de lancer une bouteille de Jack, tu sais qu'j'arrive avec un bidon d'essences et des allumettes Ma-ma magie, j'ai plus d'une quette-pla dans mon sac D'mande a N.O.S, fais l'3arbiya si tu veux du bon tact 9-1, 9-4 la posture t'mets des claques Tout le monde au bon-char Profite d'une émeute pour faire mon casse T'as envie de pousser ? Vas-y gros mets mon son à fond 80 kil' c'est le minimum si tu veux vraiment soulever la fonc' Tu veux ta p'tite meuf, ton teush, tes clopes.. Assez Fais ton buzz, ton beur, on est des millions sur la liste J'marche en regardant le ciel espérant que l'éternel me dirige Fuck le jour où j'arrête de vendre, tout mes ien-cli se mobilise Le rap, mais tu dis une écriture qui n'est pas humaine Si j'capte pas ce que vous dites, c'est que j'écoute mon zgueg qui entre dans un tunnel On m'appelle pas parce que j'suis trop bad, comme un bison qui baise une brebis Tu sais bien que si j'pose sur ton bail, en un son j'vais niquer ta combine Si j'ai grandi de deux centimètres c'est que j'ai deux liasses dans les aires structures Demande à Moraki, combien de beu-her ??????????? J'suis en mode lecture pas de stop ni de pause J'sors un son hop j'explose Entrepreneur ''la barette Ademo'' en couverture du Closer La capote qui sent le shit et l'autre qui sent la beu-her J'suis réactif, j'mène en bateau personne pourtant j'leur fout le mal de mer Tourne sept fois une bite dans ta bouche avant d'parler Si t'es pas en mode zet' et que t'as des dreadlocks te prends pas pour Bob Marley Eh mec tu touches trop de clito' avec ton putain de litrons à 3000 Que des chiens tous les jours, je sers la main à 30 millions d'amis J'maigris tous les jours t'étonnes pas si j'ai la dalle Eh miss tu veux me sucer pour avoir 20e mais nan je préfère le biff Son des halls volume 2 meilleur qu'tous vos albums du siècle Et là j'ai les chevilles qui enflent, normal, elles transportent 50g et du seum J'balade dma rime sur des pis-te-pis-te-pis-te Marche dans la ville esquive les flics et puis les fils de 50e sur la table, la lame mets-la dans un grille pain Ramasse tout un biff, calcule le bénéfice Ils sont bêtes, ils comprennent pas qu'on les baisent Qu'on les blessent devant leurs meuf, et s'il-te-plaît Arrête de chialer parce que tu jalouses notre bai-aise Si j'rappe c'est pour les vrais qui galèrent dans la te-ess Ils sont bêtes ils comprennent pas qu'on les bai-aise Qu'on les blessent devant leurs meuf, et s'il-te-plaît Arrête de chialer parce que tu jalouses notre bai-aise Si j'rappe c'est pour les vrais au parlu ou dans la te-te-tess Bandes d'enculés j'vous baise, Corbeil, '200 Ivry-sur-Haine Tu connais, tu connais... Ademo poto à continuer2</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Fleury</t>
+          <t>Je te jure</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Bienvenue à Fleury Ah À Fleury Bienvenue à Fleury nique sa mère les tombes fleuries C'est la quête de la clope, parce que tout le monde n'est pas che-ri Enfermé j'écris ma lettre et ma rime Dans la promenade ça s'anime, j'suis dingue et j'attends un courrier de la miff Remercie Dieu si tu peux chier tranquillement Remercie Dieu poto entre matons et détenus pas de sentiment J'attends l'auxi pour donner une clope, un peu d'oxygène Un pote de cellule qu'a cantiné mais qui rate l'autre semaine A.D.E.M.O F.L.E.U.R.Y Ça c'est le texte en arrivant M.E.R.O.G.I.S Tu veux tester mais ta grand-mère j'la baise, enculé Même enfermé je fais un yoyo avec ma bite qu'elle vienne me la sucer C'est la défaite, là j'mange un 3-0 3 ans ferme plus 6 mois révoqué, je fais appel mais il n'y a pas de réseau Pour l'instant j'ai un petit corps mais je tape les pompes Juste pour devenir poids lourd et niquer un tas de piéton Dehors j'espère que les frères pètent un pilon en pensant à ma gueule J'tire pas la chasse j'prends ma douche, il m'reste qu'une main pour me laver la queue Le jour les pigeons les corbeaux, tapent ce qui vient Le soir c'est les rats qui tournent dans la cour, j'suis l'seul Corso-Algérien J'suis en vacances l'été 2010 ça sera au hebs J'viens de recevoir du linge, j'rêve d'un pilon dans la chaussette mais Tu connais la rengaine, ici ça s'tape pour du tabac Devant la télé je m'emmerde et même quand je zappe, y a que des bâtards À la cellule d'en face ça tape à la porte, ça crie Surveillant ! 16h24 j'attends la gamelle il n'y a que ça à faire quand t'es sur les nerfs J'ai cantiné ici lève tôt pour travailler mes biceps autrement Paraît que j'vais aller D5 depuis 2 ans dans l'règlement Voilà ma vie, vise, voilà ma vision des choses On a mis l'tigre dans sa cage pour pas que sa sauvagerie inonde les autres Or on naît pas d'la hess mais on en fait naître la foi Et tant qu'Dieu m'guide, crois-moi, ma force ne fait que s'accroître Au top des clips, là, j'vois Diam's numéro un T'es tombé sur une bombe, moi j'suis tombé sur des requins Nique votre justice, j'reste libre derrière vos barreaux Pour les vrais qui prient pour leur famille, et Allah tout là-haut, esh À ma sortie j'ferai d'la magie J'compte sur le re-fré pour sortie Son des halls volume 2, parasite Mon co-détenu vient d'se barrer, donc seul en cellule J'crache du sang dans les toilettes, peur d'avoir un putain d'virus J'pisse de la haine, y a comme un vide dans la tess Wesh mec j'vis dans la hess, j'ai des ennemis dans l'arène Eh, faut quoi, qu'j'pète des dents ? Quoi, que j'saigne des gens ? Jusqu'à c'qu'un d'ces bâtards m'descende ? Wesh Boub's t'es au quatrième, y a d'la place à côté d'ma cellule Fait une demande à la 44 j'te mettrai bien si t'as rien sur l'PQ Eh j'décuple ma haine, ma rage, un truc de ouf, man Tout doucement après la rue, ma vie c'est l'trou noir Esh, wAllah, là j'ai trop mal On m'a dit de ma fenêtre j't'ai vu pomper un truc de malade en promenade 500 pompes à la demie-heure le muscle étouffe mais j'ai qu'ça Donc calmé au parlu j'ai toujours pas d'Carmen Électra Besoin de douceur, avec ma bite on est tout seul Et l'surveillant regarde pas si j'lui mets l'zizi dans sa bouche Oups, trente minutes c'est vite passé Eh Nabil à chaque son qu'vous faites oubliez-pas d'dédicacer Putain j'ai acheté mon premier paquet d'clopes ici j'ai appris à rouler ici Tous les jours j'me fume le corps ici Ouais ouais, j'tape pas la gamelle c'est saoulant Me3lich igo dès qu'j'sors, j'rentre dans l'meilleur des restaurants, sur l'Coran - Surveillant ! Oh, surveillant ! Ouais, surveillant ! - Qui c'est encore ? - Eh ! Nique ta mère ! Bienvenue à Fleury Ah À Fleury1</t>
+          <t>Made in TZ 91 Tarterêts gros Pour ceux qui crèvent Tu connais On est al Si si Pour la rue On est al Jmamuse plus à calculer le temps qui passe Car que je le compte ou pas, il passera sans moi Jmamuse plus, rare quand je ricane On est devant un jerricane en flamme Chaque jour s'résume à serrer la main dun autre Sfaire la bise, bonjour, au revoir Le yaourt est nature et na pas darôme Chaque jour on marche parce quil le faut Parce que sinon tu crèves Un bouquet de ronces en guise de roses On se demande toujours de quoi sera fait demain Quel couleur guidera nos jours Mais y a que le rouge qui a lair de vin devin? Médite sur cette phrase deux trois quatre fois et plus si besoin est Ademo je suis de cette espèce que seule la rage peut soigner Peut libérer lhistoire de quelques instants La flamme brûle plus que jamais Quand on sait que le sheitan dédaigne nous attendre Le paradis est une luxure quon a du mal à se proposer Ici lhomme sentretue, une fois mort, cest sûr quil voudra pas se reposer Regarde les gens, nos yeux sont vides gros On voit ce quon veut voir donc on jarte ce vieux charclo devant son bistrot Cest triste à dire mais jpense quon va tous mal finir Le tout est bien qui finit bien , jai pas mis le grappin, jsuis pas un alpiniste On se plaint et le vent souffle, moins souvent que lhomme On se plaint, moi le premier, mais jte ljure, jrêve plus quand je dors Devant nos têtes, devant ces appartements qui brillent Tu tes jamais demandé cquun SDF donnerait pour une brosse à dent et un dentifrice ? Jpeux t'parier quil sacrifierait au moins un de ses dents De préférence une carie, quoi ? tu goles-ri ? avoue que cest tendre Des égoïstes cest ce quon est, cest simple, tu le sais Ah non, cest vrai tu sais pas ? Laisse tomber, jsuis pas dhumeur On réagit quau moment où on sent venir le danger Une fois dans la merde on prie Dieu, la faute à qui si tu trembles, mec La faute à l'autre se jeter nos erreurs on sait le faire Autant t'jeter la première pierre, autant donner ses fesses Des momes morflent à l'heure quil est, pourquoi ? Lamour smeurt, Cupidon a préféré troquer son arc contre un puchka Comme beaucoup il a mal interprété le savoir est une arme Car larme na pas de savoir, juste un cadran et une balle On samuse à jouer les gens heureux, les riches ont la poudre au nez Autant qula poudre aux yeux, même ces types sont malheureux Et encore plus que nous peut-être Quand tas tout mais pas damour, le train d'la vie déraille ou tamène sur son rail de cess' A chacun sa façon de vivre la mienne consiste en survivre Une haine consistante et une larme en sursis Demain cest peut-être le tour de lun dentre nous En attendant jte tends la main, le bras aussi restreint que Jamel Debbouze Pas à labri dune rafale ou dun pare-choc Jfais en sorte de rester franc, le moment venu jsaurai être un homme La vie est une pute, va pas me dire quelle a pas de prix Aucune aide, jsuis injoignable car jsuis toujours loin du bout du tunnel On ma dit pisse pas là , pêche ! nique Paname ! Mon voisin est SDF, dort avec des chaussettes, pisse par la fenêtre Il doit sûrement peser 50 kilogrammes Qui le regarde à part Dieu ? dans ma rétine loge un pyromane Ce soir sur le toit dun bâtiment sale, pratiquement die Jbaille, fatigué par les chat, les châtiments man Jai grandi où ? jsais pas, mais jsuis sauvage Gentil ou méchant, jaime bien écrire au calme Et merde, ce soir pour manger jme démerde Des mans veulent des rettes-ba Crois moi que dans le bat jen cache des belles Jai envie de chialer même au moment où jcompte mes sous Mais jsuis homme, donc mes soucis faut qu'j'parle avec les mains plus souvent que les sourds Tu sais ma mif demain va ptêtre être à la rue Que ferais-tu si ton reuf de 6 ans vivait à la dure ? Je suis là à voir mon reup vieillir Jvis la peur de périr Jsuis là rappeur des briques minable, le coeur en débris 21 piges, bientôt 22-22 Timagines les maintes fois, jai entendu les 22 22 Parce que mes rêves font des cauchemars, jdors un oeil ouvert Surveille mes arrières H24, encore plus ça ferait une bonne nouvelle Jsuis un mec éternellement triste, peu despoir Michtonneuse tu gratteras plus avec un banco, quavec moi Très très bizarre les profs furent les premiers à mlavoir dit Ça part en couille comme si jétais le né le soir le premier du mois un samedi Combien de jours combien de nuits jpense à risquer ma vie À faire comme papa, à prendre un calibre, et vider la Brinks Nique ces pédés de volaille, baisez vos races Trop trop XXX, jpeux pas couper des tomates Nabil toi-même tu sais comment on a souffert Y a que toi qui sais comment cétait tous les récupérables dans la poubelle Jai trop mal quand je revois foutus mes anciens Lacoste Trop mal, lenfance est courte comme le temps qua duré ma colle Jvais sûrement bientôt arrêter de rapper Les gens naiment pas le rap, le vrai Bientôt jirais maquetter ma haine Putain jsuis vraiment seul à ctheure cest tout le monde dort La nuit me montre son cul, jaimerais bien quitter tout mon corps Ademo, pardonnez-moi si jsuis foutu Si j'ris à l'envers, mes plaies restent ouvertes, car des couteaux m'pratiquent d'la couture Jsuis comme un pit' dans la tess Une muselière, un collier étrangleur, un mauvais coup dans la tête Si tu mvois de loin, tétonnes pas si moi jte vois pas La vie nest pas nette, jai la rétine dans un hammam Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure2</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Il rêve, elle rêve</t>
+          <t>1mn guinze</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Il roule un pilon, marche avec le swag, le gros sdit Que la vie est courte comme les relations avec ses copines Priorité faire dla tune, lui cquil rêve cest dson gamos, yeah Un gamin qui vend la came qui a oublié la mosquée Que, que pasa ? cest cquil tdit si tu lregardes À travers les LV, entre les jambes ses couilles mais aussi quelques grammes Il marche, sûr de lui, la rue cest à lui Le jour cest ses potes les meufs, cest la nuit Cest cquil kiffe pour taffer, il dure moins dtrois jours Il côtoie les grands au café pour quils lemmènent faire un tour Arrivé dix-sept heures il spète la tête, scache dans la cage descalier Il devient tout maigre, donc appelle ses potes quand ya un tête-à-tête Tê-Tê-Tê-Tête de ma mère cest la fin dchacune de ses phrases Une paire de Nike Air, un grec, une hlel, deux-trois putes il est max Lécole cest fini, BEP pour lui veut dire Bicrave Et Potos Seize ans, il comprendra plus tard quil a niqué sa vie trop tôt Petit veut dla maille, il veut dla sape Il veut dla chatte, vivre à la swag, il veut dla saveur Petit veut pas die, il veut pas dmal, il veut pas dsale Mais la base, il doit bien graille Miss veut un mâle, un mec qui brasse, restau évad Pas un schlag mais un gars qui stape Vivre à cent à lheure, le suivre à la trace, finir avec Quil vienne dici ou dailleurs Petite sur cquelle veut, bah normal, cest être grande Rembourrage dans lsoutien-gorge pour provoquer laccident Elle svoit mariée, une bague avec plusieurs carats Recherche lhomme en écoutant Zaho, qui lemmènera chez Zara Elle veut pas dréputation mais ça lui court après Comme les mecs derrière son talon quand elle roule du boule exprès Elle fume une clope à lentrée du centre commercial En femme fatale, attend quyen ait un qui slance Et la drague, sac à main Gucci pas dsoucis Rouge à lèvre sur lsourire, elle rougit Quand un boug dit tes mashAllah cousine Il lui dira jveux dormir dans tes bras à lhôtel dans ses propos Seize ans elle regrettera plus tard davoir donné sa trop tôt Petit veut dla maille, il veut dla sape Il veut dla chatte, vivre à la swag, il veut dla saveur Petit veut pas die, il veut pas dmal, il veut pas dsale Mais la base, il doit bien graille Miss veut un mâle, un mec qui brasse, restau évad Pas un schlag mais un gars qui stape Vivre à cent à lheure, le suivre à la trace, finir avec Quil vienne dici ou dailleurs Il veut dla maille, elle veut un vrai Elle laime, il aime son boule Elle veut un mâle, il veut une vraie Il laime, elle aime son flouze Il rêve, elle rêve, il rêve, elle rêve Il rêve, elle rêve, il rêve, elle rêve Petit veut dla maille, petit veut dla maille Petit veut pas die, petit veut pas die Il rêve, elle rêve, il rêve, elle rêve Petit veut dla maille, il veut dla sape Il veut dla chatte, vivre à la swag, il veut dla saveur Petit veut pas die, il veut pas dmal, il veut pas dsale Mais la base, il doit bien graille Miss veut un mâle, un mec qui brasse, restau évad Pas un schlag mais un gars qui stape Vivre à cent à lheure, le suivre à la trace, finir avec Quil vienne dici ou dailleurs2</t>
+          <t>Va falloir faire des choses va falloir do-do-doser Va falloir faire de loseille à la Ronaldo-do-do seul Marre de râler-râler pompe, téma ce p'tit qui crève en bas Tu veux un verre de rouge, tiens mon sang cest du 17 ans d'âge On reste en marge donc, 6-7 en schlag On tvisser dans lbat' fonce à Orly, c'est nous la tête dun avion On attend plus le décollage, et beaucoup se crashent à latterrissage Pas à labri des connards, un gros crachat quand la BAC te dévisage Jsuis en studio pour montrer mon talent Mais rien mempêche de penser quj'ai toujours 100 meuj coincé dans mon pantalon Pour un caleçon coo-coo-cool eh, les convocations tous-tous les mois Cest trop sombre, merde, fuck le pou-pou-pou-poulet Pas assez sonné, d'la façon dun Grec y'a pas de salade dans un texte La basse, la basse dans ma tête jpense à la maille sans arrêt Ca vient, ça part quand ça pète jrappe pas j'chante la merde Tas pas ta place, rentre ta chaîne ça fait cric bruit de fusil Y a pas dve-dve-dvedettes donc ve-ve-venez veinards On est vé-vé-vénères le ve-venin se veut-veut-veut-veut dar Cest pas le coup final et noublie pas le douze qui parle, écoute, qui casse les couilles Aura un coup de blues et un option tout dtitane bruit de fusil Jsuis pas un rappeur juste un mec dla rue poto Faut pas tmettre la rue au dos le soir ça pète ça fume trop tôt On est garé ici viens pas me caresser oh Calmés cest naze vous paraissez bad mais y a eu une fessée Au Carré Sénart</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Squad Freestyle</t>
+          <t>3D</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Igo t'as aucun flow, igo Makélélé T'veux la serrer, mais bon, t'es laid-laid-laid Tu fais le nerveux, igo je lo-lo-lol Prenez position, y a la le-le-le-le PNL, F430, on fait né-né Tu veux de la frappe ? Appelle Ade-de-de J'ai pris l'instru, je l'ai fêlé-lé-lé, lé-lé-lé, lé-lé-lé Bon c'est bon, j'connais la vie J'perds plus, va le dire à ta bella Pon pon, bang bang au milieu de ta ville Tu rép' plus, c'est bon, ciao bella J'fume sous le bo-bo-bob Ouais ouais, mon po-po-pote J'meurs pour la mif Le bon-char en ta-ta-ta J'veux pas retourner ma veste Je fuis la tess comme la peste Je vieillis et le temps presse Argent en liasses, faut que j'encaisse Putes de l'Est et grosses fesses Armes, niaks et grosses caisses Vert est le sachet, Gucci, Versace Ceinture Hermès F430, PNL, trop pépère On squatte le ter-ter à plein Jamais coopérer avec le commissaire Les tits-pe sont en Philipp Plein squad J'ai de la beuh, j'vais profiter Petite pensée aux potos enfermés C'est avec Wawa, Kana qu'je suis posé Au studio, pépère, en train de poser Adsa Beatmaker fait l'ingé Pendant que les keufs se font lyncher F430, IGD-D-D N.O.S, AD-D-D-D Gang de fêlés-lés Gibson est toujours calibré Armes de l'Est, OG Kush monnaie Sors le baba, l'espagnolé On a tous des envies comme S-Pion Nous, c'est tout pour la mula mula F430 c'est du lourd, j'accélère en travers pour la mille-fa Bécane en I, frotte la bavette, y a des traces sur les trottoirs F430, y a la , le produit sort du terroir On avance comme on peut, fait les bails comme on veut F430 le ghetto, tu connais, on est là que des envieux TZ, TZ my squad, Harlem, Harlem Fais les bails comme Ademo Tu connais posé-wézé Mes projets tombent à l'eau, t'inquiète, j'les ferai sécher J'ai lancé l'hameçon, y a que le haram que j'ai pêché T'as trouvé la fonce', igo, t'as perdu la santé Y a que sous taga, gata, que j'te dirais que j'suis enchanté IGD Gang, nouveau visage Comme les rues de ma ville, le gang est en chantier La liberté n'a pas de prix, aucune dette à vous payer Elle est bonne, elle est belle Elle roule son oint-j comme du cul, c'est incroyable Elle est ceci, cela J'ai de la mula en tête, sauver mes frères de la noyade Igo, la mula, c'est mon dada IGD, F430, PNL, on te daba Igo, la mula, c'est mon dada IGD, F430, PNL, on te daba Igo, ramène les billets Chez moi, y en a qu'en ont pas Dans mon block, ça fume la hookah LZR toujours comme bras droit Plus le temps de regarder le soleil Il est temps de viser le sommet On court tous après l'oseille Du mal à trouver le sommeil Pour moi, la roue va tourner Pour l'instant, elle tourne à l'envers Tu dis que j'ai pas de repères C'est le revers de la médaille Tous à la recherche de la maille On la claque dans des paires de Nike Tous à la recherche de la maille On la claque dans des paires de Nike IGD, F430, PNL, on t'abat Monte dans le vaisseau, chérie, bienvenue à bord J'te prends toi et toute ta bande de tards-bâ Si y a de l'oseille, j'ferais croquer ma famille d'abord J'suis pas du genre à pratiquer la hagra C'est dans nos gênes de mettre tout le monde d'accord 2.01.4 pas de blabla, j'ai des bastos si tu te prends pour Terminator Aujourd'hui tout le monde t'aime, demain on te remplace Pour qu'ils comprennent, il faudrait qu'on prenne place Retirez mes chaînes que j'fasse un peu de crasses Personne nous gène, la concu' on l'écrase T'es qu'une chienne qui mérite un chien de la casse J'suis pas un rappeur, j'rappe que quand j'ai l'occas' Partout où j'passe, il faut que j'laisse une trace On est né pour briller, pas besoin de paillettes et de strass2</t>
+          <t>The Beat Plug Woah, woah Jet trop opé' pour un plan, pour un feat woah Jet trop foncedé, j'ai trop fumé de la weed ouais Jet trop opé' pour un plan, pour un feat ouais Jet trop foncedé, j'ai trop fumé de la weed woah Ouais, j'ai trop fumé de la weed F430 Ouais, j'ai trop fumé de la weed PNL, IGD Ouais, on a trop fumé de weed 77, Melun Ouais... la weed Nous, si on rappe, khey, c'est pas pour les putes Oui, nous, y a que pour l'gang squad qu'on bute F430 Gova, kamas de ouf ouais, rala en I de ouf ouais La prod, j'la pends de ouf, fais l'fou, j't'envoie le ouz ouais Nous, tous les jours, on fait les djiz bang bang Pendant que d'autres se branlent de ouf 91, 77, Melun, TZ que des gangs de ouf Brabus, Adsa, Lazeur, Pissa démerdeurs de ouf Une heure, un son, tu kiffes ta reum, sois pas jaloux Jet trop opé' pour un plan, pour un feat woah Jet trop foncedé, j'ai trop fumé de la weed ouais Jet trop opé' pour un plan, pour un feat ouais Jet trop foncedé, j'ai trop fumé de la weed woah J'reçois le Snap d'une grosse 'tasse, une grosse taffe en taftaf J'protège ma liasse, j'fais bon taf, j'mets des baffes dans l'atlas Chico chico loco, bambina, poto poto, vaffanculo Hela hela, sniffe ma coca, bella, j'aime la vida loca Fuck you, fuck you, mène ta vie Fuck you, fuck you, ramène ta fille Fuck you, fuck you, j'vends en bas bas Ton boule dansera la lambada Check check, j'm'appelle Adé, mec mec, la haine en 3D Rien que, rien que j'sors du rainté Chèque chèque, il m'faut, pour gambader On rafale la police, on s'fait péter, les sons sous scellés Du taga, d'la tise, j'fais 40 pompes, igo, j'suis pété Ça passe, ça casse, ça kick, on est déter', on a fait les 400 coups Dakatine dans l'mafé, enfermés devant la télé Pas de mandats, j'te demanderais pas où t'étais Le le le, pédé, le le le, pédé Tiens, j'te paye, j'demande à personne d'me prêter Lol lol lol, pédé, lol lol lol, pédé Pour la mula, on te cogne, mula, on est potes Une salope stringuée, ça va vite igo On est dans l'réseau, mon gang te décapite mula J'ai bu du Honey, j'peux plus saquer ta bite gang Fissa fissa, igo t'fait ça rapide Prenez ces malades, igo, libérez Snick Yoyo, parlu, pécule, y a plus d'liquide gang gang J'peux pas faire la gueule, igo, j'suis déjà niqué Du 77 au 91, Sosa broliqué Démarche saccadée avec mon gars Adé F430, IGD, connard, t'es pas prêt Demande à Cosby, la rue, on connaît ses règles Postés au stop, on te braque à l'arrêt On te braque à l'arrêt Postés au stop, on te braque à l'arrêt Ta p'tite sur fait des galipettes sous les draps Après une bonne baise, ça t'fait les bras Tu fais le casseur devant ton miroir Une hagra verbale te remettra en place Ça fait poh, poh dans la tête du videur On attend pas le 14 pour les bombarder woulah zoulou veulent nous condamner woulah zoulou On veut juste du khaliss, madame la juge les condés préparent juste des bavures Faut les haggar, ces bâtards, du matin au soir ouais dis-moi T'inquiète, nous on les baise, baise à la tess Teste, on te ramène les dièses , dis-leur que c'est la hess, on veut de l'espèce c'est le zoo Tout le monde cherche un khedma mais kheddem en cachette Toi, tu fais la hagra, , hendek aux coups de pute Lourd est l'instru donc lourd est Une patate dans tes dents et tu donnes tous tes loves On a pas l'temps d'lover, on veut des lovés Encore une fois, c'est ZA, mitraillette Rafale de balles, j'en place une à L'équipe est bien rodée et tu la connais, la LDT Et c'est plus pareil sans Doomams Un p'tit carnage, j'appelle Ramska, mais où sont mes négros ? Postichés pour du blé sûr Ne viens pas test la LDT ou tu repartiras avec des blessures Woah, woah Jet trop opé' pour un plan, pour un feat woah Jet trop foncedé, j'ai trop fumé de la weed ouais Jet trop opé' pour un plan, pour un feat ouais Jet trop foncedé, j'ai trop fumé de la weed woah Ouais, j'ai trop fumé de la weed F430 Ouais, j'ai trop fumé de la weed PNL, IGD Ouais, on a trop fumé de weed 77, Melun Ouais... la weed The Beat Plug1</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Simba II*</t>
+          <t>À l’ammoniaque / Mon dieu</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>Gegeven aan de bedzijde van Cajsa Lisa, laat op een avond Schitterende nimf, ogen die blaken Weelderig vlees op het sneeuwwitte laken En tengere spieren. De slaap moet zegevieren Want nu komt in al zijn pracht Morpheus, de god der nacht De luiken zijn dicht en de kaarsen zijn gesnoten Wees maar niet bang, de deur is gesloten Geen mens die nu nog stoort en o, de nacht is lang Slaap, zoetelief, bij mijn gezang Slaap, zoetelief, bij mijn gezang Het uur middernacht, het slaat in de toren De leeuwerik, ach, is nog lang niet te horen Nu sluimeren de struiken, maar achter onze luiken Zoetelief, zoals ge ziet Rusten wij, maar slapen niet Hoor eens de donder, hoor je de regen? Plotseling hebben we onweer gekregen De bliksem, zoetelief, of hij zelfs neder sloeg Slaap maar weer in, 't is nog zo vroeg Slaap maar weer in, 't is nog zo vroeg Slaap toch m'n nimf, droom van m'n snaren Totdat de zon de dauw komt vergaren En wij doen lieflijkheden waaraan wij pas nog deden Eerst je mond en dan mijn glas Vliegen er vonken in de as En dan, mon Dieu, ze is bezweken Kijk me toch aan mijn nimf, geef me toch een teken Goddank, ze ademt weer, en godzijdank, ze lacht Schei nu maar uit, slaap zacht, slaap zacht Schei nu maar uit, slaap zacht, slaap zacht</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>On enverra Mowgli chercher médailles</t>
+          <t>À l’heure où je chante</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Discographie - PNL Album Studio - 20150302 PNL - Que la famille - 20151030 PNL - Le monde chico - 20160916 PNL - Dans la légende - 20160916 PNL - Dans la légende Version orange - 20160916 PNL - Dans la légende Version rose - 20190405 PNL - Deux frères - 20190405 PNL - Deux frères Version blanche - 20190405 PNL - Deux frères Version noire Single - 20140410 PNL - Différents - 20140613 PNL - Je vis, je visser - 20140919 PNL - Gala Gala - 20141128 PNL - La petite voix - 20150130 PNL - J'comprends pas - 20150320 PNL - Simba - 20150417 PNL - Plus Tony que Sosa - 20150612 PNL - Le monde ou rien - 20150731 PNL - J'suis PNL - 20150918 PNL - Dans ta rue - 20151023 PNL - Oh Lala - 20151111 PNL - Petit pélican - 20151202 PNL - Lion - 20161030 PNL - Tempête - 20160311 PNL - La vie est belle - 20160415 PNL - DA - 20160527 PNL - Tchiki Tchiki - 20160715 PNL - J'suis QLF - 20160915 PNL - Naha - 20161104 PNL - Onizuka - 20170210 PNL - Bené - 20170530 PNL - On enverra Mowgli chercher médailles - 20170707 PNL - Jusqu'au dernier gramme - 20180622 PNL - À l'ammoniaque - 20180810 PNL - 91's - 20190322 PNL - Au DD - 20190503 PNL - Deux frères - 20190605 PNL - MOWGLI II - 20190719 PNL - Tahia - 20190802 PNL - Blanka Discographie complémentaire - Discographie - Ademo - Discographie - N.O.S</t>
+          <t>À lheure où jchante Cest ça, le monde part en couilles Tu connais, tu connais Et pas drigolades, fini lenfance, niquez vos races Moi jcrois même plus en cque jvois, va ldire à ton saint Nicolas Jsuis la rage, la haine incarnée, la tristesse me dévore Jai lsang des Corses, c'lui de lAlgérie, j'saigne sans écorche Mais là où lhomme sest mis à brûler avant davoir découvert le feu Jsais que fabuler quà travers mon ptit reuf Yanis, pour lui jsuis prêt à tuer Jai trop mal grandi, ou plutôt jai grandi trop vite Jme rappelle même plus des bons moments, merde, mon Dieu, on ma menti, faut ldire Quand jai demandé est-ce quun jour on sera tous heureux? On aurai dû mrépondre Tarik, tu sais la vie elle met tout lmonde à terre, tel un coup de feu Jai tapé mes profs, caillassé les keufs, jsuis devenu la rue Celle qui sendort jamais, qui sdébrouille, qui te tue, jtassure Mon Dieu, pourquoi jsuis cputain de démon triste ? Jsuis pas un ange déchu, moi, hein mon Dieu vous mavez appelé Ademo Dire que jrêve plus, faut lfaire merde Regardez mon stylo wilson pleure la vie cest une pute alors quelle aille se faire mettre Jsuis lgenre de mec dur quon peut pas aimer Jpeux sourire et dans la seconde être vénère jai déjà été aussi épais que la bordure dun CD Tous les jours jai envie den planter un, en sautillant Ça mfera aucun effet, jaime ma rage elle est dangereuse comme le silence Cet ami qui ntrahit jamais, parti de rien Jrespecte rien parce que cest tout cque jai, va niquer ta mère Jrap pour les charclo du métro, les mendiants, les SDF Les braqueurs de diligence, les lard-tau, les prostituées sur ldivan Les mecs dla rue, ceux qui dorment dans les caves Ceux qui connaissent les cafards, les rats qui sbattent mais nse relèvent pas J'rap pour mon daron, Sarah, Nabil, les frères qui mservent délectrochoc Si la rue ma greffé son cur, ma miff a hérité du mien Dédicace à ceux qui sont morts, ceux qui sont morts-vivants Dédicace à lEtat qui mbaise au score Vivement le jugement dernier, lappel de nos âmes LEnfer mattend mais dis à Dieu qujsuis déjà mort devant la flèche de son arc Ademo, jai dû tomber dans les pommes pour enfin voir les étoiles Le son des halls, bouche les oreilles dton gosse, ou raconte-lui une histoire Ademo, le son des halls Yeah yeah yeah</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Peace and Lové</t>
+          <t>Aouh*</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>OK, c'est parti on fait du bi-bi-biff En mode Armani, en mode Louis Vui-vui Ça rit dans la salle, on fait nos vies-vies-vies Bouteille sur la table, regarde les bi-bi-bitchs DJ fait moi ça, faut que j'en vi-vi-vip Peace And Lové, voilà ce qu'on vi-vi-visse Mes frères ont la dalle, écarte toi vi-vi-vite Avant qu'elles kiffent et qu'elles pinent ça fasse... Poto t'es trop bourré, y en a qui s'marrent, qui s'moquent Pendant que dans tes potes y en a qui smack qui smoke J'ai pas des doutes, t'as cru que c'était une femme, t'es fou, t'as frotté ma queue, doum Tu me demande T'es de Paname ? J'te répond, moi j'ai du pilon qui vient du 9.4, poto t'en aura si t'es mignon Ah nan, j'voulais dire, t'en aura si t'as les ronds Parlons peu, parlons bien, tu les as ou pas les ronds ? Attend deux secondes, quelqu'un me bi-bi-bip Allô, c'est Sophia, c'est quand on cli-cli-clique ? Va y, là j'suis loin donc pssh-pssh-pssh Si j'le fait, je t'appelle pas t'avais qu'à bi-bi-bip Revenons en à nos moutons, j'vois un anglais sur la piste J'lui dit Chocolate il m'dit How many money ? J'lui dit Quoi ? Va y tien un pilon et donne 200 money et va voir la banque heyy On est Peace And Lové Ça redémarre, met-moi un verre vi-vi-vite J'essaye téma d'bouger la tête des vi-vigiles Une bagarre, une bouteille ça fait pi-pi-pime Continue à mixer, bah ouais tout l'monde ki-ki-kiff Lunettes de soleil sur le biff, on ne cesse de danser En parlant de biff, y en a qui ont d'la 16 de Dan-illet Il nous faut le biff, faut les billets violets C'est vrai qu'on est Peace si on fait les Lovés T'as capté le baille, on veut taper des barres Et palper des liasses et passer l'étape Passer des vacs et grailler des plats en regardant le ciel et charmer les dames Mais qu'est-ce qu'on va se faire chier à faire de chichis J'ai les pieds dans l'eau et j'ai ma chicha Vue de mer sur la plage, ouais ouais si si J'suis dans un film et laisse moi faire mon... Me recaler poto, c'est pas possible Parce que c'est moi que les gens veulent écouter ce soir Écarte-toi s'te plait, fait de la place pauvre type Tu nous fera pas peur parce que t'es grand et large Ademo c'est mon bla-bla-blaze Fait le beush, j'entends déjà les bla-bla-bla Poto on a la frappe, tu pi-pi-piges Ici y a personne qui va prendre 20 pi-pi-piges On est Peace And Lové</t>
+          <t>Because I am not an artist at the moment, I am an artist forever If it's not to look for money I don't go out The bales in the skirts, the donkeys in the bales Crossing the Baldo' in a couple of cars balances Hey, a ghosting and we'll leave you dying Many fronting and I was organizing The babies are reported since I'm landing And they are going to sew their mouth to everyone who is an emissary I'm not a gangster, commissioner, what I am is a businessman Everyone who owes to pay, evryone who promises to fulfill I want a couple of covs, I don't care if they rot Whoever guilders over Tarzan doesn't go back into the jungle I have seen how they move from their own houses I have a switch for a asshole who gets confused If I know that you are a pig, I greet you with my left hand I have a couple of bastards to do absurd things I can make them supply you and receive the buzzers, nigga I want this shit forever This is for those who want to see a Mille before die I've been with the same boys forever They didn't believe in us, asshole, they can die I want this shit forever She bought clothes to see me and now she wants to undress Turn on another Phillie to get me high Yeah-yeah Asshole, if so, I don't want to live Hey-yo, is Ousi Blessing for the mines, yes, if we're going to spend? Yes They are not tough, nah, asshole, if they are not here Me, forever millo, yes, legend since I was born The babies want my children, they want to jump in my D I want this shit forever This is for those who want to see a Mille before die I've been with the same boys forever They didn't believe in us, asshole, they can die I want this shit forever She bought clothes to see me and now she wants to undress Turn on another Phillie to get me high Asshole, if so, I don't want to live Yeah Turn on another Phillie, that I'm going straight to space In the back of the Bentley, asshole, there's plenty of room Sometimes I feel like Don Omar, I live in a palace I am a king, motherfucker, I'm reluctant I feel like I've gone insane And I smoke so much weed that right now I have my strain Everything comes from Paris, that is, I don't use Philipp Plein Al-All black and red like if I'm Kane Tag team, lunch in seraph I gave your ho milk, but it was not from KLIM I'm super pasty, it's not that I drink lean My wife leave me because I didn't want to give her the PIN Motherfucker, that's how I am Nobody sent me, it's that I go for myself I don't solve it tomorrow, that's today And I screwed her even if I shot for The Noise, do you follow me? Ah-ah, yeah, yeah Aha With the same boys forever, since day one, and I don't change to any Yeah I smoke from Tuesday to Tuesday and my mind is on Mars like Bruno Wuf I learned to differentiate the good from the inopportune And now, who's better than me? There isn't even one Yeah, yeah, yeah I count them with my hand to my brothers and close friends The ones I keep from afar, also the ones I love I got used to having this divine security Yup Because I never lose, and when I lose, even losing I'm winning, do you understand? Yeah I got 'em spinning like wheels Uh-huh The tougher of the old, the tougher of the new For sure The toughest of this generation and the one to come Yessir It's almost 20 years, I'm a fucking legend Auh! Thank God, amen, nigga, I'm blessed Blessed That my daughter sees me and says Daddy, you're the best Best Asshole, I don't even snore when I go out Nope If everyone already knows how much I'm worth, Austin Once again I'm here Eternal light Light, light, light Eternal light Uh, uh, uh, ah Ah-ah-ah-ah, na-na-na-na-na Uh, uh Hey, hey, uh, uh, uh At 16 in Mercedes, at 30 in Ferrari Tainy Tainy creating anthems since the 2000's Hey We have more flow than before and more Benjamins More flow Running through the clouds for others to walk, wow, wow, wow All the songs stick like jelly Tell me Classic, Andrea Bocelli Hey Thank you, Luny Tunes, thank you, Nely, hey We change the game, Stephen Curry Hey, hey, hey, hey, hey, hey Since the days of Monta Ellis, we have it I always burn the tracks These people have dema 'cause we never made a demo No And we are legends wherever we stand Tell me Shh, shut up, I let you drop all the weight, Y.O.M.O Hey, hey We have them in depression, cutting themselves like an emo They spend seeing monsters, chupacabras like Chemo But we already know them -now We aren't for gossip No, bye, see ya See ya Hey, let them talk about money and then we move We will talk about this one day when we meet Yeah, yeah, yeah, yeah Hey, hey, hey, hey And it is true that I did not hit the trap No I am not a trap king No, not even a trap god, no I am Bad Bunny and I am bigger than the trap Tell me My music selling like crack Tell me The only one who releases an album and hits all the tracks Nobody knows El Conejo and Tainy are Kobe with Shaq Tainy Check the numbers and you will see that these are facts Tell him' Without naming the track Hey That I'm mad off the tag, that I'm mad off the tag</t>
         </is>
       </c>
     </row>
@@ -1971,14 +1971,10 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Le Monde Chico [Livret]</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Calendrier 2020JANFÉVMARAVRMAIJUNJULAOÛSEPOCTNOVDÉCJanvier 0101 Sami Bad-X - EMT, Vol. 1 0101 Gazaille - Un contre tous 0601 BanglaSavage514 - Private Mode 1001 Petite Papa - Fraîche Heure 1001 Beau Geste Kone - REDBIRD 1801 Pockethead - Pockethead 1901 LKS - My Life, Vol. 2 2001 Boris Levrai - JSDQLVAEC 2301 Loufoq - Artistes Improductifs 1 2401 Psycadelick - OFF 3001 DeusGod - 108 B Mixtape 3101 DawaMafia - Cash Out 3101 Le Jib - Bonsaï 3101 MTLord - Lost TapeFévrier 0402 Misa - Tout va bien 0702 Salmine - En cher et en noces 0702 Slumgod - Keep It Movin', Vol. 2 0902 LK Tha Goon - We The Gang, Vol. 1 Deluxe 1002 Le Chum DJ Drews - Blast from the Past 1402 MikeZup - En attendant Omerta 3 1402 William Hennessey - De pire en pire 1402 Mizery - In Trap We Trust, Vol. 1 1402 Poloboy Cook Da Beatz - Bipolar Road 1902 RDCI - Sale Croteau 2102 Nawfal - Lorelei, Chapitre II 2102 Kay Dee Don Vi - Saphir 2202 Yh - Cagoule Nwar 2802 Miles Barnes - YFW 2802 PC - Angle mort 2802 Michael Haze - MICKEY 2802 Boogát - El Gato y Los Rumberos 2802 D-Pillz - Fumée noire 2902 Maky Lavender - ... At Least My Mom Loves Me 2902 John Truth Jay Sea - J'ai scié John TruthMars 0103 2mm - Orage 0403 8ruki - Green Lobby 0603 RIP - Nuage de poivre 0703 Dr. Stein - Mangeur d'âme 2003 Joce - Rap de robe de chambre 2003 MB - À Zéro 2003 Kevin Nah - Love Drugs 2003 Naya Ali - Godspeed Baptism Prelude 2003 Aspect Mendoza - Le fils de la langue française vol.1 Plus gros que mature 2003 J.A.M. - ÉQUINOXE 2203 MiQ the Burb Boy - Burb Boy vs. the City 2503 SeinsSucrer - Mabad 2603 Nomad - Zéro 2703 Koach K - Reverence 2703 La Carabine - Rose et gris 2703 Marie-Gold - Règle d'or 2703 SB - Né pour briller 2703 Pat Layne Dito B - PPME 2703 Koopsala - STE-4IN 2703 Robotaki - The Grand MirageAvril 0104 Terreur Nocturne - Terreur Nocturne, Vol. 4 0204 Reptile Rampant - Donne-moi de l'espace 0304 Busy Nasa Mori Regal - Lisse 0304 Souldia - Backstage 0404 Meeko - Instinct 0604 Le Chum - L'avant goût, Vol. 4 0804 Eva Shaw Nate Husser - I Been Doing Great 0804 bill noir - L'ASTRONAUTE - EP 0904 Teflon Blaze - The Wash, Vol. 1 1004 FREAKEY! - DPLA 1004 Webster 5 For Trio - Sky EP 1004 Sensei H - Le but du jeu 1104 PC the Infamous - Upside Down Living Dead 1204 Andrike Black - House Saga 1504 Peeda White-Migz - Réexpédier Boyz 1704 Kirill - Fear of God 1704 Class X - La Première Pièce 1804 Colo - Colovirus 1904 El Padrino - PARTi 2 2004 Kris the pirit - SAVVY 2304 Dice B - Le saut de l'ange 2404 Astralopithèque - Néosphères 2404 St-Prince - Romeo's Story The Book 2504 Jack Layne - Late Again EP 3004 Dr. Stein SeinsSucrer - Ça l'faitMai 0105 Rosalvo - Deep Waters 0105 Adamo - Préliminaires SVP 0105 Tyleen - Fantay 0105 David Campana - Bonjour, Hi 0105 Boots - Équinoxe 0105 Marvilous MV - Magie bleue 0105 fububandit - words 0805 badmninto - Le22e22ion2 0805 badmninto - Potteds 0805 Nayka - Aller simple 0805 Omayela - Barking Bird 1005 MJ BlaCc - M. Fret 1505 Krookstar - 9000 1505 Capitaine Canada - Capitaine Canada 2005 Monmon 8ième - Irish Cream 2005 Mr.B, A.L. DJ Drews - Welcome in the Zoo 2205 Koriass FouKi - Génies en Herbe 2205 Le Gicko - Affamé 2205 La Crème du Rap - La Crème, Vol. 1 2505 Jai Nitai Lotus - An Offering 2505 Narcy - Spacetime Ultra Redux 2805 Gablovesarros - Underrated 2905 Crazylo MC Arabic - Boul. d'Anjou 2905 Paradox - Homme de paroles 2905 Monk.E Zex BilangiLangi - To Suffer with A Smile OnJuin 0106 Black Picsou - La tête au Wakanda 0106 Meurso - Gonzo 0406 O'Neezy - État d'âme 0406 O'Neezy - État d'âme Deluxe 0506 DJ Killa-Jewel - Reckless 1106 Dual-IT - Influences 1206 Jeune Chilly Chill - Musique d'ascenseur post-apocalyptique 1206 DJ Manifest - 1984 1706 Tony the Trigger - Avant-midi 1806 Le Chum MrTib - Sans Nom 2006 L'Gros - Les Voisins capotent 2606 Eman - 1036 2606 Shotto Guapo - Âme Nesia 2606 8ième - PS vol. 1 2606 Psychoze - Submergé 2906 Boutot - Mon temps c'est de l'argent vol. 2 2906 Kirill - No Vacation 3006 Bad Shadow - À cur ouvertJuillet 0107 Maky Lavender - BF3 The Kids Needed A Hero 0107 White Migz - Tout Le Monde Déteste Migz 0307 GunDei - The Place of the Skull 1007 Kit ou Double - Original Gamblers 1107 Whisp3r - M.A.F. 1507 Killa Kill Faxxts - Wind Chill 2007 Mouss - Hot 2007 DVinyle Kenzo - Alchimie 2407 D4vid Lee - Tears Off Joy 2407 Don Bruce SeinsSucrer - Sal.Rose, vol. 1 2407 BadManLow - Juste comme ça Bluetape 2907 8ruki - Green Lobby 2luxe 2907 Terreur Nocturne - Terreur Nocturne Vol. 5 3107 Mike Shabb - Life Is Short 3107 Randy - On My Way 3107 MikeZup - OMERTA, Vol. 3 3107 Brandon Doret - Draft Day 3107 Waahli - Soap Opera 3107 hrshie - OvertimeAoût 0208 D-Heavy - Mets Ta Switch À On 0308 L-Muzik - Criminal Mind 0308 fububandit - forever slippy 0708 Slycky - R.E.R.3 0708 Ness El Digital - Lost Tapes, Vol. 1 0708 PCL Bachiflow - XLV 0708 Dostie - Corpus Christi 0808 Speats - Cheap 1208 Kirai - Projekt K, Vol. 2 1408 Rowjay - Free CDF 2 1408 KNLO - CLUB Mixtape 2020 1408 Kirill - From Russia, with Love 1408 O'Krash - Mauvais Garnement II 2108 Dope.Gng - Drogue maison 2108 Léon 'Fa Du Fond - Frog Squad vol. 2 2308 Jay Sea - Y fait beau 2308 Illcue - BORN IN MONTREAL 2808 Kevin Nah - Locked in My World 2808 Souldia - Silence radio 2808 Original Gros Bonnet - Tous les jours printemps 2808 Mandril Musique - Compilation Talents Disparus, Vol. 2Septembre 0409 LaF - Soin Entreprise 0909 Eius Echo - I 1009 GreenWoodz - Are You Ok? 1109 Raccoon - Le set up 1109 Quadracup - ABRAQUADRABRA 1109 Cupidon - Up Next 1109 FEUYÜ - Salüt 1109 Dostie - Balmoral 1109 Shecky - Zik2k20 1409 John Truth badmninto - Réveille! Vol. 1 1809 Flip - Billet d'avion 1809 Imposs - ÉlévaZIIION Société distincte 1809 Pahpay - PAYD 1809 Fredz - Personne ne touche le ciel 1809 L. Teez - The Index to My Inner Thoughts 1809 Sael - Le pommier dÈve 1809 TeslaRosa - Cruise Control 1909 Sami Bad-X - 72 HEURES 2109 John Truth, Badmninto Maxtone95 - Réveille! Vol. 2 2409 Young Mic - Trillgod 2 2509 Les Anticipateurs - Dieux du Québec 2509 Tali-B - Lowkey 2509 Eux Zautes, Catboot Eius Echo - Son dans toute 2509 Lova - Cool LOL 2609 Gablovesarros - AveugleOctobre 0210 Cent-C - 2.0 0710 Rymz - Faiseur de pluie 0910 Shreez - On frap 0910 Cobna - 9 1210 John Truth, Badmninto Maxtone95 - Réveille! Vol. 3 1210 Lowpocus - More Bounce 1610 83 - Récidivistes 1610 E. Santana - Y.T.S.B.K.L.K 1810 Keke Five Star - Dedication 2 2010 Boris Levrai - En Attendant JSDQLVAEC 2 2310 Kay Bandz - Trappin' N Robbin' 2016 rereleased 2310 Kay Bandz - Trust None 2015 rereleased 2310 FouKi - Grignotines EP 2410 Vincent Pryce - Halloween Time, Vol. 2 2610 John Truth, Badmninto Maxtone95 - Réveille! Vol. 4 2710 Chico Amazing - Tour du Québec 2810 Holden Stephan Roy - The Alabama-Quebec Connect 3010 Zach Zoya - Spectrum 3010 Jibré - Monstruosité 3010 Lou Phelps - Extra Extra! 3010 Freaky - Mon art 3010 hrshie - 2OT Overtime Deluxe 3110 Le Chum Silk E - MTL-PhvnkNovembre 0111 Cheak13 - La liberté est menottée dans l'fond d'une camionnette 0311 Maky Lavender - 3 0611 FylX - The X-Files EP 2 Trust No One 1011 Akshun Man - Thugminded Vol. 2 Scarf Ace Mixtape 1111 Velozo Banksta - Guerrier. 1311 Souldia Tizzo - Off 1311 Miles Barnes - Miles Back 1311 Calamine - Boulette Proof 1311 Pres One - Pres One est Patrick Swayze 1311 Lôtre - Un voyage au bout de la noche 1711 Jefferson Bridge - Mêlé 1811 Bozko - De planète en planète 1811 Colo - Le Dernier Apôtre 2011 FouKi - Grignotines de Luxe 2011 MCM - Tenir debout 2011 Someone Very Smooth - Flipside 2011 JaM'C - Rythme Poésie 2511 bill noir - Pizza 2711 DM6 - Godspeed 2711 Lyricest - Jetlag 2711 Lost - Lostalgik 2711 Sans Pression - Nouvelle année 3011 Kalibre - Que du saleDécembre 0412 SLM - SLM The Complete Flex Season 0412 Lil Deezy - Am I Up Next? 0812 Kalibre - Sauce 0912 Krookstar - Karack Krobama 1012 RDCI - SPACE-X 1112 Paranoize - Hablando Claro 2 1112 Prime 3D - Ikonik 1112 Kay Bandz - Mercury The Messenger 1112 DawaMafia - Loyal 1112 Mouss - Self Made 1312 JPS - Carrière 1412 La 1000Lys - Délirium 1812 8ième - Underrated 2312 No Sleep Music M-Press Live - No Sleep In Montreal, Vol. 6 2412 Jbenlad - Sur le feu 2412 Shoddy Cheak13 - Mesures extrêmes Compilation 2912 Le Jib - Parmi des milliers 3112 Connaisseur Ticaso - Normal de l'EstDate incertaine Dalton - Attitude samouraï1</t>
-        </is>
-      </c>
+          <t>Ariba*</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1988,12 +1984,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Du chiffre</t>
+          <t>Au mec des halls*</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ils veulent ma perte mais mes gars je les baise, protège ta meuf on téma ses fesses Nique les beau-parleurs gros jécarte les traitres, après mon teush toi t'auras des ailes Jai 20 e pour les potos 20 e pour les autres 20 e pour le président, le maire, les bleus et les connasses Tous du bétail, d'la bibi jai la médaille Si je te détaille ma vie il mfaut une lame et puis des flammes Pose-toi la question de la raison de la pression, de lagression Ta vie tu comprends pas car là ces sons dla ? jai limpression qut'es sur ma bite Entre eux et moi y a une plaquette qui sépare, des des barres J'suis la cause de chutes cérébrales Entre les meufs et largent, cque jaime tu le sais Jpréfère zapper sept culs et au final taper un Q7, cul sec J'serai millionnaire, les cafards me lont dit Quand je sillonnais les caves, les apparts vides, sur des kilomètres Cet hiver jtiens les cliquos, pété jen ramène le triple Jfais des p'tites pauses, je bronze, je vends, jfais mes tractions, et jfais du chiffre Jvois les autres frimer, pendant qu'moi jsuis en train dtrimer WAllah jvais les faire saigner dis leur que jleur ai préparé le kleenex Une voiture brûlée au dîner, lÉtat maime pas, veut mopprimer Mfaire cantiner, continuer, ma ma ma haine dmande quà briller Dix sept heures lhoraire douverture, jdois taffer pour ma couverture J'aurais pu être proxénète, tellement autour de moi cest couvert d'putes Jpeux me diriger partout, où qujaille gros j'crierais zoo ! Tu m'aimes pas, j'aurais les soutifs, ta meuf met plus de dessous T'es sourd ! Quand j'marche j'deviens de plus en plus parano Comme si j'avais des reusseuh, j'ai moins dix sept aux deux yeux De ce pas, j'viens arracher les salopes Si j'ai un poney, j'l'appelle Shakira, fais l'tour la tess, elle galope B-b-bouffon, tourne pas dans la tess mec, ça c'est pour les vrais pas pour les tapettes qui chient pleins de ? Bouffon-bouffon tu veux nous contrôler ? Tu vas voir les étoiles y'aura des pavés pour te consoler Et je vais évit' évit' éviter les bâtards et les gister Vit'-vit'-vite, patate dans l'videur Vider-vider-vider le coffre de shit Évid-évid-évid-évid-évid-évidemment Rapper rapide c'est simple alors croyaient pas qu'ils sont forts Arrête de cess avant d'pioncer Arrêter c'est bête bon sang d'bonsoir Moi j'ment bats les couilles le rap c'est cool, j'fais ça trois heures et j'suis saouler, parler douzes, v'la les douilles, ça crie ''Zoo'' avant d'niquer les poulets J'vois tout les gens danser comme si c'était un son de boîte J'vois les flics se bourrer car ils sont trop moches et auront trop honte de se voir Si pour se faire connaître suffit de lancer une bouteille de Jack, tu sais qu'j'arrive avec un bidon d'essences et des allumettes Ma-ma magie, j'ai plus d'une quette-pla dans mon sac D'mande a N.O.S, fais l'3arbiya si tu veux du bon tact 9-1, 9-4 la posture t'mets des claques Tout le monde au bon-char Profite d'une émeute pour faire mon casse T'as envie de pousser ? Vas-y gros mets mon son à fond 80 kil' c'est le minimum si tu veux vraiment soulever la fonc' Tu veux ta p'tite meuf, ton teush, tes clopes.. Assez Fais ton buzz, ton beur, on est des millions sur la liste J'marche en regardant le ciel espérant que l'éternel me dirige Fuck le jour où j'arrête de vendre, tout mes ien-cli se mobilise Le rap, mais tu dis une écriture qui n'est pas humaine Si j'capte pas ce que vous dites, c'est que j'écoute mon zgueg qui entre dans un tunnel On m'appelle pas parce que j'suis trop bad, comme un bison qui baise une brebis Tu sais bien que si j'pose sur ton bail, en un son j'vais niquer ta combine Si j'ai grandi de deux centimètres c'est que j'ai deux liasses dans les aires structures Demande à Moraki, combien de beu-her ??????????? J'suis en mode lecture pas de stop ni de pause J'sors un son hop j'explose Entrepreneur ''la barette Ademo'' en couverture du Closer La capote qui sent le shit et l'autre qui sent la beu-her J'suis réactif, j'mène en bateau personne pourtant j'leur fout le mal de mer Tourne sept fois une bite dans ta bouche avant d'parler Si t'es pas en mode zet' et que t'as des dreadlocks te prends pas pour Bob Marley Eh mec tu touches trop de clito' avec ton putain de litrons à 3000 Que des chiens tous les jours, je sers la main à 30 millions d'amis J'maigris tous les jours t'étonnes pas si j'ai la dalle Eh miss tu veux me sucer pour avoir 20e mais nan je préfère le biff Son des halls volume 2 meilleur qu'tous vos albums du siècle Et là j'ai les chevilles qui enflent, normal, elles transportent 50g et du seum J'balade dma rime sur des pis-te-pis-te-pis-te Marche dans la ville esquive les flics et puis les fils de 50e sur la table, la lame mets-la dans un grille pain Ramasse tout un biff, calcule le bénéfice Ils sont bêtes, ils comprennent pas qu'on les baisent Qu'on les blessent devant leurs meuf, et s'il-te-plaît Arrête de chialer parce que tu jalouses notre bai-aise Si j'rappe c'est pour les vrais qui galèrent dans la te-ess Ils sont bêtes ils comprennent pas qu'on les bai-aise Qu'on les blessent devant leurs meuf, et s'il-te-plaît Arrête de chialer parce que tu jalouses notre bai-aise Si j'rappe c'est pour les vrais au parlu ou dans la te-te-tess Bandes d'enculés j'vous baise, Corbeil, '200 Ivry-sur-Haine Tu connais, tu connais... Ademo poto à continuer2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2001,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Je te jure</t>
+          <t>Au mecs des halls</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Made in TZ 91 Tarterêts gros Pour ceux qui crèvent Tu connais On est al Si si Pour la rue On est al Jmamuse plus à calculer le temps qui passe Car que je le compte ou pas, il passera sans moi Jmamuse plus, rare quand je ricane On est devant un jerricane en flamme Chaque jour s'résume à serrer la main dun autre Sfaire la bise, bonjour, au revoir Le yaourt est nature et na pas darôme Chaque jour on marche parce quil le faut Parce que sinon tu crèves Un bouquet de ronces en guise de roses On se demande toujours de quoi sera fait demain Quel couleur guidera nos jours Mais y a que le rouge qui a lair de vin devin? Médite sur cette phrase deux trois quatre fois et plus si besoin est Ademo je suis de cette espèce que seule la rage peut soigner Peut libérer lhistoire de quelques instants La flamme brûle plus que jamais Quand on sait que le sheitan dédaigne nous attendre Le paradis est une luxure quon a du mal à se proposer Ici lhomme sentretue, une fois mort, cest sûr quil voudra pas se reposer Regarde les gens, nos yeux sont vides gros On voit ce quon veut voir donc on jarte ce vieux charclo devant son bistrot Cest triste à dire mais jpense quon va tous mal finir Le tout est bien qui finit bien , jai pas mis le grappin, jsuis pas un alpiniste On se plaint et le vent souffle, moins souvent que lhomme On se plaint, moi le premier, mais jte ljure, jrêve plus quand je dors Devant nos têtes, devant ces appartements qui brillent Tu tes jamais demandé cquun SDF donnerait pour une brosse à dent et un dentifrice ? Jpeux t'parier quil sacrifierait au moins un de ses dents De préférence une carie, quoi ? tu goles-ri ? avoue que cest tendre Des égoïstes cest ce quon est, cest simple, tu le sais Ah non, cest vrai tu sais pas ? Laisse tomber, jsuis pas dhumeur On réagit quau moment où on sent venir le danger Une fois dans la merde on prie Dieu, la faute à qui si tu trembles, mec La faute à l'autre se jeter nos erreurs on sait le faire Autant t'jeter la première pierre, autant donner ses fesses Des momes morflent à l'heure quil est, pourquoi ? Lamour smeurt, Cupidon a préféré troquer son arc contre un puchka Comme beaucoup il a mal interprété le savoir est une arme Car larme na pas de savoir, juste un cadran et une balle On samuse à jouer les gens heureux, les riches ont la poudre au nez Autant qula poudre aux yeux, même ces types sont malheureux Et encore plus que nous peut-être Quand tas tout mais pas damour, le train d'la vie déraille ou tamène sur son rail de cess' A chacun sa façon de vivre la mienne consiste en survivre Une haine consistante et une larme en sursis Demain cest peut-être le tour de lun dentre nous En attendant jte tends la main, le bras aussi restreint que Jamel Debbouze Pas à labri dune rafale ou dun pare-choc Jfais en sorte de rester franc, le moment venu jsaurai être un homme La vie est une pute, va pas me dire quelle a pas de prix Aucune aide, jsuis injoignable car jsuis toujours loin du bout du tunnel On ma dit pisse pas là , pêche ! nique Paname ! Mon voisin est SDF, dort avec des chaussettes, pisse par la fenêtre Il doit sûrement peser 50 kilogrammes Qui le regarde à part Dieu ? dans ma rétine loge un pyromane Ce soir sur le toit dun bâtiment sale, pratiquement die Jbaille, fatigué par les chat, les châtiments man Jai grandi où ? jsais pas, mais jsuis sauvage Gentil ou méchant, jaime bien écrire au calme Et merde, ce soir pour manger jme démerde Des mans veulent des rettes-ba Crois moi que dans le bat jen cache des belles Jai envie de chialer même au moment où jcompte mes sous Mais jsuis homme, donc mes soucis faut qu'j'parle avec les mains plus souvent que les sourds Tu sais ma mif demain va ptêtre être à la rue Que ferais-tu si ton reuf de 6 ans vivait à la dure ? Je suis là à voir mon reup vieillir Jvis la peur de périr Jsuis là rappeur des briques minable, le coeur en débris 21 piges, bientôt 22-22 Timagines les maintes fois, jai entendu les 22 22 Parce que mes rêves font des cauchemars, jdors un oeil ouvert Surveille mes arrières H24, encore plus ça ferait une bonne nouvelle Jsuis un mec éternellement triste, peu despoir Michtonneuse tu gratteras plus avec un banco, quavec moi Très très bizarre les profs furent les premiers à mlavoir dit Ça part en couille comme si jétais le né le soir le premier du mois un samedi Combien de jours combien de nuits jpense à risquer ma vie À faire comme papa, à prendre un calibre, et vider la Brinks Nique ces pédés de volaille, baisez vos races Trop trop XXX, jpeux pas couper des tomates Nabil toi-même tu sais comment on a souffert Y a que toi qui sais comment cétait tous les récupérables dans la poubelle Jai trop mal quand je revois foutus mes anciens Lacoste Trop mal, lenfance est courte comme le temps qua duré ma colle Jvais sûrement bientôt arrêter de rapper Les gens naiment pas le rap, le vrai Bientôt jirais maquetter ma haine Putain jsuis vraiment seul à ctheure cest tout le monde dort La nuit me montre son cul, jaimerais bien quitter tout mon corps Ademo, pardonnez-moi si jsuis foutu Si j'ris à l'envers, mes plaies restent ouvertes, car des couteaux m'pratiquent d'la couture Jsuis comme un pit' dans la tess Une muselière, un collier étrangleur, un mauvais coup dans la tête Si tu mvois de loin, tétonnes pas si moi jte vois pas La vie nest pas nette, jai la rétine dans un hammam Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure Jte jure, jte jure Jte jure2</t>
+          <t>Couplet 1 La vie c'est un truc de ouf sa se lève le matin tôt pour vendre le shit A l'horizon XXX tu peut apercevoir une bande de flic Y'en as qui sont levés a 6 heures du mat On les reverras peut-être dans 5 ans avec un sac et la trace d'une marque magique Personne ne l'est et encore moins Paris ouais Sachant se tenir on as des cafards comme invitées pour dîner J'rap pas pour les miss les connasse on as pas les même idée dommage j'viens juste prendre le biff les dollars J'suis pas un MC, j'suis d'ces zonards qui rigole toujours qui vanne qui cache une souffrance hélas J'viens la où c'est en sortant de GAV qu'on apprend a faire ses lacets Eh merde j'suis trop feignant j'sais pas si j'vais pouvoir taffer C'est trop saignant j'voudrais a point mais la violence nous a dépasser On as tous une flamme dans le regard il y a plus qu'a péter sa garo avec un oeil Ta une pute dans le drap ok ta meuf tu l'appelle tout à l'heure Mais bon, moi a ma montre il est chepa j'ai même pas de montre J'peut p't'être continuer a dormir non faut continuer a dealer C'est pour les frères le reste nique sa grand mère Le son est sten et la gros je vibre et la j't'emmène Refrain x2 C'est pour les frères les jolies les moches applaudissez Baise la police impolis la tess est alcoolisé C'est pour les halel les frères dans l'haram L'été devant le hall et l'hiver dans le bat Couplet 2 XXX t'appelle le 17 nous on travaille nos biceps Quelque traction entre deux trois cliquos que l'ont visser Un son qui glisse il en faut un mais j'le baise en disant nique sa grand mère A ceux qui roule sans permis les mecs XXX l'argent en l'aire Tarterêts c'est de la ou tout part j'oublie pas tout le monde Les mecs derrière les barbelés a cause d'la poucave Se soir sa sent la pagaille monte monte le son belleck a ne pas avoir la barre J'resterai hardcore même dans des son comme as J'suis pas Piggy mais Dark Vador J'resterai cagoulé j'me défonce dans la street J'pense a tout les k-sos qui galère qui trime face aux fachos Avec le corps de ne pas avoir la tête qui brille J'suis en mode haineux très très rare sont les moments de joie XXX on ferra se qu'il faudra dans le noir C'est pour ceux qui sont droit ce qui font le mal pour le bien XXX tcheck on se reverra peut être pas demain Refrain x2 C'est pour les frères les jolies les moches applaudissez Baise la police impolis la tess est alcoolisé C'est pour les halel les frères dans l'haram L'été devant le hall et l'hiver dans le bat</t>
         </is>
       </c>
     </row>
@@ -2022,14 +2018,10 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Rebenga (Original)*</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
-        </is>
-      </c>
+          <t>A.V 16'Art</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2039,12 +2031,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1mn guinze</t>
+          <t>Baisés</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Va falloir faire des choses va falloir do-do-doser Va falloir faire de loseille à la Ronaldo-do-do seul Marre de râler-râler pompe, téma ce p'tit qui crève en bas Tu veux un verre de rouge, tiens mon sang cest du 17 ans d'âge On reste en marge donc, 6-7 en schlag On tvisser dans lbat' fonce à Orly, c'est nous la tête dun avion On attend plus le décollage, et beaucoup se crashent à latterrissage Pas à labri des connards, un gros crachat quand la BAC te dévisage Jsuis en studio pour montrer mon talent Mais rien mempêche de penser quj'ai toujours 100 meuj coincé dans mon pantalon Pour un caleçon coo-coo-cool eh, les convocations tous-tous les mois Cest trop sombre, merde, fuck le pou-pou-pou-poulet Pas assez sonné, d'la façon dun Grec y'a pas de salade dans un texte La basse, la basse dans ma tête jpense à la maille sans arrêt Ca vient, ça part quand ça pète jrappe pas j'chante la merde Tas pas ta place, rentre ta chaîne ça fait cric bruit de fusil Y a pas dve-dve-dvedettes donc ve-ve-venez veinards On est vé-vé-vénères le ve-venin se veut-veut-veut-veut dar Cest pas le coup final et noublie pas le douze qui parle, écoute, qui casse les couilles Aura un coup de blues et un option tout dtitane bruit de fusil Jsuis pas un rappeur juste un mec dla rue poto Faut pas tmettre la rue au dos le soir ça pète ça fume trop tôt On est garé ici viens pas me caresser oh Calmés cest naze vous paraissez bad mais y a eu une fessée Au Carré Sénart</t>
+          <t>C'est comme si j'avais un atavisme C'est comme si j'rappais à la va-vite, nique sa mère, moi, j'suis pas un riche J'suis baisé, j'ai envie d'pleurer à chaque pleine lune Perdu, le genre de fou capable de rêver d'futur quand il voit une belle pute Parce que j'suis plus triste encore que l'film Le Titanic Parce que j'suis baisé, tu pourras plus jamais revoir l'enfant, le p'tit Tarik Baisés, c'est la merde ma couille, faudrait qu'j'pète un coup Baisés, N.O.S, check, on reste intestables Interdiction d'toucher à l'un, au risque de perdre la boule, baise la poulaille On reste pareils X X, dogue argentin Kaboul dans nos lifes X car on graille J'suis baisé, et ça depuis qu'on m'a pé-cou l'enfance Ça fait six ans qu'j'rappe, six ans que rage et peine s'foutent ensemble Baisés, à voir mon reuf vieillir triste Putain, passe-moi l'calibre que j'aille remplir la tirelire Le chauffage coûte cher alors dans la chambre il caille Y'a rien mais tu mets quand même les couverts quand t'as l'ventre qui râle Mais c'est parce que j'ai fait des fautes la plupart d'ma vie J'ai joué hors jeu vu qu'j'ai vu qu'y'avait pas d'arbitre Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail X2 Avant j'voyais un monde parfait maintenant j'veux l'baiser J'fais une croix sur mon rêve de gosse le jour où j'me suis blessé Baisés, parce que j'parle seul comme un malade mental Baisés, la micht' t'attache pas car j'suis pas sentimental Baisés, parce que j'retrouve ma solitude dans l'allée Baisés, parce que j'reste là mais j'voudrais m'en aller Baisés, parce que j'passe des heures à fixer le vide X donc faudra vite faire le vide Le désespoir d'mon père de voir son fils au tribunal Je n'l'ai jamais rendu fier, j'ai la haine, j'vais prendre une arme Baisés, parce que j'ai le souvenir des pe-pe-perquises Baisés, parce qu'on m'a dit petit Ça s'transmet père-fils Baisé par la tristesse, gros, j'ai appris à vivre avec J'la traîne un peu partout sous la capuche qui recouvre ma tête Baisés, parce que j'oublie trop souvent d'prier Dieu Baisés, parce que j'voulais voir loin mais on m'a pris mes yeux Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés putain j'te jure qu'on f'ra l'bail Et c'est parce que je n'savais pas quel X Baisé par ce manque d'amour d'ma mère qui aurait pu m'aider Je suis ce petit du zoo qui vit dans l'passé Récupère ma tétine, contre les chats, gazelle Baisés, faut trouver un toit c't'été, ça sent l'expulsion À cinq dans un une pièce, 'faut pas s'faire d'illusions Baisés, parce que j'croyais qu'ça n'arrivait qu'aux autres Ademo, Son des Halls, ça ça sent l'tiek de zoo ? Ça sent la hess Ça sent la rage Parce que c'est dans les gênes baisés V'la les deux frères prêts à crever dans les airs Percer sous le chant des sirènes C'est pour tous les frères et surs dehors tout l'hiver Merde Ademo, N.O.S Putain d'merde, y'a longtemps qu'y'a eu le S.O.S Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Sur ma tête qu'on f'ra l'bail Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Putain j'te jure qu'on f'ra l'bail</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2048,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>3D</t>
+          <t>Bienvenue</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>The Beat Plug Woah, woah Jet trop opé' pour un plan, pour un feat woah Jet trop foncedé, j'ai trop fumé de la weed ouais Jet trop opé' pour un plan, pour un feat ouais Jet trop foncedé, j'ai trop fumé de la weed woah Ouais, j'ai trop fumé de la weed F430 Ouais, j'ai trop fumé de la weed PNL, IGD Ouais, on a trop fumé de weed 77, Melun Ouais... la weed Nous, si on rappe, khey, c'est pas pour les putes Oui, nous, y a que pour l'gang squad qu'on bute F430 Gova, kamas de ouf ouais, rala en I de ouf ouais La prod, j'la pends de ouf, fais l'fou, j't'envoie le ouz ouais Nous, tous les jours, on fait les djiz bang bang Pendant que d'autres se branlent de ouf 91, 77, Melun, TZ que des gangs de ouf Brabus, Adsa, Lazeur, Pissa démerdeurs de ouf Une heure, un son, tu kiffes ta reum, sois pas jaloux Jet trop opé' pour un plan, pour un feat woah Jet trop foncedé, j'ai trop fumé de la weed ouais Jet trop opé' pour un plan, pour un feat ouais Jet trop foncedé, j'ai trop fumé de la weed woah J'reçois le Snap d'une grosse 'tasse, une grosse taffe en taftaf J'protège ma liasse, j'fais bon taf, j'mets des baffes dans l'atlas Chico chico loco, bambina, poto poto, vaffanculo Hela hela, sniffe ma coca, bella, j'aime la vida loca Fuck you, fuck you, mène ta vie Fuck you, fuck you, ramène ta fille Fuck you, fuck you, j'vends en bas bas Ton boule dansera la lambada Check check, j'm'appelle Adé, mec mec, la haine en 3D Rien que, rien que j'sors du rainté Chèque chèque, il m'faut, pour gambader On rafale la police, on s'fait péter, les sons sous scellés Du taga, d'la tise, j'fais 40 pompes, igo, j'suis pété Ça passe, ça casse, ça kick, on est déter', on a fait les 400 coups Dakatine dans l'mafé, enfermés devant la télé Pas de mandats, j'te demanderais pas où t'étais Le le le, pédé, le le le, pédé Tiens, j'te paye, j'demande à personne d'me prêter Lol lol lol, pédé, lol lol lol, pédé Pour la mula, on te cogne, mula, on est potes Une salope stringuée, ça va vite igo On est dans l'réseau, mon gang te décapite mula J'ai bu du Honey, j'peux plus saquer ta bite gang Fissa fissa, igo t'fait ça rapide Prenez ces malades, igo, libérez Snick Yoyo, parlu, pécule, y a plus d'liquide gang gang J'peux pas faire la gueule, igo, j'suis déjà niqué Du 77 au 91, Sosa broliqué Démarche saccadée avec mon gars Adé F430, IGD, connard, t'es pas prêt Demande à Cosby, la rue, on connaît ses règles Postés au stop, on te braque à l'arrêt On te braque à l'arrêt Postés au stop, on te braque à l'arrêt Ta p'tite sur fait des galipettes sous les draps Après une bonne baise, ça t'fait les bras Tu fais le casseur devant ton miroir Une hagra verbale te remettra en place Ça fait poh, poh dans la tête du videur On attend pas le 14 pour les bombarder woulah zoulou veulent nous condamner woulah zoulou On veut juste du khaliss, madame la juge les condés préparent juste des bavures Faut les haggar, ces bâtards, du matin au soir ouais dis-moi T'inquiète, nous on les baise, baise à la tess Teste, on te ramène les dièses , dis-leur que c'est la hess, on veut de l'espèce c'est le zoo Tout le monde cherche un khedma mais kheddem en cachette Toi, tu fais la hagra, , hendek aux coups de pute Lourd est l'instru donc lourd est Une patate dans tes dents et tu donnes tous tes loves On a pas l'temps d'lover, on veut des lovés Encore une fois, c'est ZA, mitraillette Rafale de balles, j'en place une à L'équipe est bien rodée et tu la connais, la LDT Et c'est plus pareil sans Doomams Un p'tit carnage, j'appelle Ramska, mais où sont mes négros ? Postichés pour du blé sûr Ne viens pas test la LDT ou tu repartiras avec des blessures Woah, woah Jet trop opé' pour un plan, pour un feat woah Jet trop foncedé, j'ai trop fumé de la weed ouais Jet trop opé' pour un plan, pour un feat ouais Jet trop foncedé, j'ai trop fumé de la weed woah Ouais, j'ai trop fumé de la weed F430 Ouais, j'ai trop fumé de la weed PNL, IGD Ouais, on a trop fumé de weed 77, Melun Ouais... la weed The Beat Plug1</t>
+          <t>Aux keufs on met des coups de tête aux jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe Wesh qu'est ce que tu racontes ? C'est le 9-4 Ademo, Rim'K On sait tous que dans la vie, y'a des hauts, y'a des bas... Appelle moi l'c-c-cas l'régal l'vrai vrai gars démon Le mec mec qu'a tes pompes check check ademo J'suis Tarik rappe la dalle a mon éventré J'vis ma ville Manhattan et l'on ma kalash excentré Jvis la parle parle viens vite dans ma salle Là ou gise le mal nique la police et le parlement Jusqu'à Christian Stan, Smith part égales Viens le tapis rouge car ici le festival de Cannes Pas la tête voilà l'son venu d'ailleurs Fait pas la tête pour avoir mon fusil mitrailleur DZ d'armes né ou la rage est embarquée Part, part caisse t'as Paname étendard Vise ma pupille caraï, j'ai un public d'malade Téma fusil kalash, t'es pas futile canarde Ma vie ça a jamais été les roses mais j'ai pas à m'plaindre J'ai les kho, des grosses baffes dans ma lampe d'Aladdin Aux keufs on met des coups de boule aux plus jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe On vient du sous sol doucement on remonte la côte On veut des thunes pour Saint Trop' pour brûler la côte Wesh qu'est ce tu racontes j'suis cramé comme le quartier Et l'début d'calvitie c'est les soucis et le calcaire Chez nous tout à un prix quoi d'bon à part braquer, vendre, arnaquer bienvenue rue de la truanderie Négro y'a plus le temps jte le dis gars, mes reufs sont sur mes épaules Nique les putes le monde s'appelle Pigale J'écris deuspi en mode trop bizarre Ma tête une chicha, mon cerveau fume beaucoup trop près de l'hôpital Mais quand ça bicrave vitamines j'dilapide Nique la flicaille on a les rêves dans du Ricard Ademo Rim'k, ricane qui t'a cramé Bidave ou on t'accrochera au jerrycan Sur ma pelouse des têtes cramé Les pirates des temps modernes ont la paix égaré dans des mirages J'ai mis la barre haute dans ton colon J'ai découvert l'Amérique le 11 septembre loin d'être Christophe Colomb Le son des halls écoute le y'a pas de piles man C'est pour la mif les freres les pauvres, Yanis mon reuf bil-na Peur que de Dieu t'es qui toi pour faire style caille Ademo en mode nique le monde tout ces minables Aux keufs on met des coups de boule Aux plus jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe On vient du sous sol doucement on remonte la côte On veut des thunes pour Saint Trop' pour brûler la côte Wesh qu'est ce tu racontes J'suis cramé comme le quartier et l'début d'calvitie c'est les soucis et le calcaire Chez nous tout à un prix quoi d'bon à part braquer, vendre, arnaquer bienvenue rue de la truanderie Quand j'arrive c'est trop la merde la hess c'est infernal à faire mal J'mettrai jamais mon ptit en internat Hyper mal au coeur t'es la belle jsuis la bête J'ai la peine j'aspire a faire mal aux keufs Alors comme ça ils veulent le bif, ils veulent nos chiffres, ils veulent le shit L'argent du shit, le gramme du shit Ils foutent la merde mais sur la vie d'mes ptit frères Que c'est parce qu'on crève que j'vend du shit tout l'hiver Ils veulent ma peau mon pollen on les appelle la police Mais a poil faut qu'ils posent sur mon poster Ça vend des halls holsters, des all-stars, des émeutes ont l'rôle de merde Ce soir c'est le show ça pète les beuz y'a pas de peace ça matraque ma gueule Comment vivre sans mic ma gueule Tous dans le vif on a pas d'saveur Le son des halls tu connais plus l'temps de déconner Ademo Rim'k pour décoller x2 Aux keufs on met des coups de boule Aux plus jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe On vient du sous sol doucement on remonte la côte On veut des thunes pour Saint Trop' pour brûler la côte Wesh qu'est ce tu racontes J'suis cramé comme le quartier et l'début d'calvitie c'est les soucis et le calcaire Chez nous tout à un prix quoi d'bon à part braquer, vendre, arnaquer bienvenue rue de la truanderie</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2065,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>À l’ammoniaque / Mon dieu</t>
+          <t>Ça vient de la street</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Gegeven aan de bedzijde van Cajsa Lisa, laat op een avond Schitterende nimf, ogen die blaken Weelderig vlees op het sneeuwwitte laken En tengere spieren. De slaap moet zegevieren Want nu komt in al zijn pracht Morpheus, de god der nacht De luiken zijn dicht en de kaarsen zijn gesnoten Wees maar niet bang, de deur is gesloten Geen mens die nu nog stoort en o, de nacht is lang Slaap, zoetelief, bij mijn gezang Slaap, zoetelief, bij mijn gezang Het uur middernacht, het slaat in de toren De leeuwerik, ach, is nog lang niet te horen Nu sluimeren de struiken, maar achter onze luiken Zoetelief, zoals ge ziet Rusten wij, maar slapen niet Hoor eens de donder, hoor je de regen? Plotseling hebben we onweer gekregen De bliksem, zoetelief, of hij zelfs neder sloeg Slaap maar weer in, 't is nog zo vroeg Slaap maar weer in, 't is nog zo vroeg Slaap toch m'n nimf, droom van m'n snaren Totdat de zon de dauw komt vergaren En wij doen lieflijkheden waaraan wij pas nog deden Eerst je mond en dan mijn glas Vliegen er vonken in de as En dan, mon Dieu, ze is bezweken Kijk me toch aan mijn nimf, geef me toch een teken Goddank, ze ademt weer, en godzijdank, ze lacht Schei nu maar uit, slaap zacht, slaap zacht Schei nu maar uit, slaap zacht, slaap zacht</t>
+          <t>On est dans un monde de sale putes, d'hommes sans parole T'inquiète j'me fonds au décor J'suis ce putain de caméléon comme Jarod Voilà le briseur d'instructrices Prisette du mic prisé Freezé la poche à l'ombre j'fais mes propres rayons seul comme Freezer Cris pas, p'tite pédale, c'est la crise, ça se pé-ta Vis d'sky, shit, pétasse c'est la vie des SEGPA qui m'serre de machine On est yomb, 2008 j'veux ma barraka J'porte ma mif comme sur ma carapace J'veux du bon, pas gratuit J'veux du sombre, c'est ça khali Mic ou pompe, t'inquiète pas ça tire Y'a trop d'raisons, t'inquiète pas Fais le mor-morceau La mort c'est mort On vient pour man-man-manger Tout est voué à un doigt J'ai pas de carton rose ni jaune moi Courez tous à droite, quand j'roule à gauche sur l'trottoir Ma-ma-max de flow, matte ma, matte ma Ma mattraque Magma chauffe Ademo mamama Ca vient de la street ouais J'ai besoin du somme clash</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2082,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>À l’heure où je chante</t>
+          <t>Comment ça</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>À lheure où jchante Cest ça, le monde part en couilles Tu connais, tu connais Et pas drigolades, fini lenfance, niquez vos races Moi jcrois même plus en cque jvois, va ldire à ton saint Nicolas Jsuis la rage, la haine incarnée, la tristesse me dévore Jai lsang des Corses, c'lui de lAlgérie, j'saigne sans écorche Mais là où lhomme sest mis à brûler avant davoir découvert le feu Jsais que fabuler quà travers mon ptit reuf Yanis, pour lui jsuis prêt à tuer Jai trop mal grandi, ou plutôt jai grandi trop vite Jme rappelle même plus des bons moments, merde, mon Dieu, on ma menti, faut ldire Quand jai demandé est-ce quun jour on sera tous heureux? On aurai dû mrépondre Tarik, tu sais la vie elle met tout lmonde à terre, tel un coup de feu Jai tapé mes profs, caillassé les keufs, jsuis devenu la rue Celle qui sendort jamais, qui sdébrouille, qui te tue, jtassure Mon Dieu, pourquoi jsuis cputain de démon triste ? Jsuis pas un ange déchu, moi, hein mon Dieu vous mavez appelé Ademo Dire que jrêve plus, faut lfaire merde Regardez mon stylo wilson pleure la vie cest une pute alors quelle aille se faire mettre Jsuis lgenre de mec dur quon peut pas aimer Jpeux sourire et dans la seconde être vénère jai déjà été aussi épais que la bordure dun CD Tous les jours jai envie den planter un, en sautillant Ça mfera aucun effet, jaime ma rage elle est dangereuse comme le silence Cet ami qui ntrahit jamais, parti de rien Jrespecte rien parce que cest tout cque jai, va niquer ta mère Jrap pour les charclo du métro, les mendiants, les SDF Les braqueurs de diligence, les lard-tau, les prostituées sur ldivan Les mecs dla rue, ceux qui dorment dans les caves Ceux qui connaissent les cafards, les rats qui sbattent mais nse relèvent pas J'rap pour mon daron, Sarah, Nabil, les frères qui mservent délectrochoc Si la rue ma greffé son cur, ma miff a hérité du mien Dédicace à ceux qui sont morts, ceux qui sont morts-vivants Dédicace à lEtat qui mbaise au score Vivement le jugement dernier, lappel de nos âmes LEnfer mattend mais dis à Dieu qujsuis déjà mort devant la flèche de son arc Ademo, jai dû tomber dans les pommes pour enfin voir les étoiles Le son des halls, bouche les oreilles dton gosse, ou raconte-lui une histoire Ademo, le son des halls Yeah yeah yeah</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2099,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Aouh*</t>
+          <t>Comme un aveugle</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Because I am not an artist at the moment, I am an artist forever If it's not to look for money I don't go out The bales in the skirts, the donkeys in the bales Crossing the Baldo' in a couple of cars balances Hey, a ghosting and we'll leave you dying Many fronting and I was organizing The babies are reported since I'm landing And they are going to sew their mouth to everyone who is an emissary I'm not a gangster, commissioner, what I am is a businessman Everyone who owes to pay, evryone who promises to fulfill I want a couple of covs, I don't care if they rot Whoever guilders over Tarzan doesn't go back into the jungle I have seen how they move from their own houses I have a switch for a asshole who gets confused If I know that you are a pig, I greet you with my left hand I have a couple of bastards to do absurd things I can make them supply you and receive the buzzers, nigga I want this shit forever This is for those who want to see a Mille before die I've been with the same boys forever They didn't believe in us, asshole, they can die I want this shit forever She bought clothes to see me and now she wants to undress Turn on another Phillie to get me high Yeah-yeah Asshole, if so, I don't want to live Hey-yo, is Ousi Blessing for the mines, yes, if we're going to spend? Yes They are not tough, nah, asshole, if they are not here Me, forever millo, yes, legend since I was born The babies want my children, they want to jump in my D I want this shit forever This is for those who want to see a Mille before die I've been with the same boys forever They didn't believe in us, asshole, they can die I want this shit forever She bought clothes to see me and now she wants to undress Turn on another Phillie to get me high Asshole, if so, I don't want to live Yeah Turn on another Phillie, that I'm going straight to space In the back of the Bentley, asshole, there's plenty of room Sometimes I feel like Don Omar, I live in a palace I am a king, motherfucker, I'm reluctant I feel like I've gone insane And I smoke so much weed that right now I have my strain Everything comes from Paris, that is, I don't use Philipp Plein Al-All black and red like if I'm Kane Tag team, lunch in seraph I gave your ho milk, but it was not from KLIM I'm super pasty, it's not that I drink lean My wife leave me because I didn't want to give her the PIN Motherfucker, that's how I am Nobody sent me, it's that I go for myself I don't solve it tomorrow, that's today And I screwed her even if I shot for The Noise, do you follow me? Ah-ah, yeah, yeah Aha With the same boys forever, since day one, and I don't change to any Yeah I smoke from Tuesday to Tuesday and my mind is on Mars like Bruno Wuf I learned to differentiate the good from the inopportune And now, who's better than me? There isn't even one Yeah, yeah, yeah I count them with my hand to my brothers and close friends The ones I keep from afar, also the ones I love I got used to having this divine security Yup Because I never lose, and when I lose, even losing I'm winning, do you understand? Yeah I got 'em spinning like wheels Uh-huh The tougher of the old, the tougher of the new For sure The toughest of this generation and the one to come Yessir It's almost 20 years, I'm a fucking legend Auh! Thank God, amen, nigga, I'm blessed Blessed That my daughter sees me and says Daddy, you're the best Best Asshole, I don't even snore when I go out Nope If everyone already knows how much I'm worth, Austin Once again I'm here Eternal light Light, light, light Eternal light Uh, uh, uh, ah Ah-ah-ah-ah, na-na-na-na-na Uh, uh Hey, hey, uh, uh, uh At 16 in Mercedes, at 30 in Ferrari Tainy Tainy creating anthems since the 2000's Hey We have more flow than before and more Benjamins More flow Running through the clouds for others to walk, wow, wow, wow All the songs stick like jelly Tell me Classic, Andrea Bocelli Hey Thank you, Luny Tunes, thank you, Nely, hey We change the game, Stephen Curry Hey, hey, hey, hey, hey, hey Since the days of Monta Ellis, we have it I always burn the tracks These people have dema 'cause we never made a demo No And we are legends wherever we stand Tell me Shh, shut up, I let you drop all the weight, Y.O.M.O Hey, hey We have them in depression, cutting themselves like an emo They spend seeing monsters, chupacabras like Chemo But we already know them -now We aren't for gossip No, bye, see ya See ya Hey, let them talk about money and then we move We will talk about this one day when we meet Yeah, yeah, yeah, yeah Hey, hey, hey, hey And it is true that I did not hit the trap No I am not a trap king No, not even a trap god, no I am Bad Bunny and I am bigger than the trap Tell me My music selling like crack Tell me The only one who releases an album and hits all the tracks Nobody knows El Conejo and Tainy are Kobe with Shaq Tainy Check the numbers and you will see that these are facts Tell him' Without naming the track Hey That I'm mad off the tag, that I'm mad off the tag</t>
+          <t>My man, my man, jai une vision amère My man, my man, jai une vision amère Jvois quça parle comme un dimanche Ils tfont tous des messes basses Si tu fumes pas écoute nos sons, tauras la tête dans lespace On vit lmal, nhar Sheitan, cest les coups dfeu qui traisonnent Nul en maths, vu qu'pas besoin dcompter sur les gens quand tes seul Un homme porte ses couilles dans son secteur et dans toutes les ruelles Hors dchez lui, cest plus lmême, là j'parle dhomosexuels Elle cherche un mec, elle veut pas dcelui qui shabille dses soucis Elle a vu lamour dans les boules dcristal qui sort dun costard Gucci Tu lui serres la main, un bon gars, gentil et tout mais pas dargent Timaginais pas quil allait ber-tom après avoir qué-bra la banque Bah tu veux savoir, lui non plus, encore moins qutoi ma gueule Mais bon cétait ça ou laisse crever sa famille ma gueule Wesh ma gueule, wesh ma gueule, sur mon PC jvois qudes biatchs À croire quEve a croqué la pomme dchez Apple Fuck, fuck ceux qui paraissent saints, cest dur si ça paraît simple On vole de nos propres ailes pourtant Dieu sait quon nest pas des anges Jai pas trop l'choix j'ai bicrave tout l'quinquennat dSarkozy Le jour où jvois des singes qui parlent, jaurai trouvé nos sosies No soucy, on est en retard, on nest pas payés à la minute Sors pas ddisquette à un dealer ou il tfait gober la pilule My man, my man, jai une vision amère, jai une vision amère My man, my man, jai une vision amère, jai une vision amère Comme un aveugle my man, comme un aveugle my man Comme un aveugle my man, avec villa et vue sur la mer Tu veux savoir pourquoi Allah? Tu veux savoir pourquoi jprie ? Même avec la tête dans les nuages on lui arrive pas à lcheville Baise pas à côté dun petit il regardera dans ltrou dla serrure Montre pas qutas dlargent grâce au biz ou il arrêtera ses études Sil reste que des têtes sur lterrain cest parcque ça tacle à la gorge À six heure cest ni lréveil ni lvoisin qui tape à ta porte Végéta, Sangohan featuring deux-deux frères ah ouais Tellement fier que jdonnerais même pas dix eus pour baiser Ayem Jsuis Corse-Algérien, pour lhonneur direct jte crève Sur un drapeau un croissant dLune et sur lautre une tête de khel My man, my man, jai une vision amère Comme un aveugle avec villa et vue sur la mer On est pétés donc on sendort à la pub, à la pub Cest la rue jviens dlà où on préfère voir des petits ponts à un but Swaggy swagga, attitude, rap de gangst, de gangst, de gangst Ravie madame appuye sur play steuplait qujte baise Peace N Lovés musical, biz affolé tu sais quarrive la monnaie eurêka Peace N Lovés uniques, avec moi aucune tasse ne fera du shopping Tes pas contente, rentre toi un gode, au moins tauras une copine Ya quaux States que tu peux voir un maton qui vend des albums Bientôt les surveillants dFleury voudront devenir des rappeurs Ahcheum, Ademo mo-mo-mode déflagration Le cur cassé, ya du taga dans la surface de réparation Passons, jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man Jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man My man, my man, jai une vision amère, jai une vision amère My man, my man, jai une vision amère, jai une vision amère Comme un aveugle my man, comme un aveugle my man Comme un aveugle my man, avec villa et vue sur la mer Passons, jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man Jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man My man, my man, jai une vision amère My man, my man, jai une vision amère My man, my man, jai une vision amère</t>
         </is>
       </c>
     </row>
@@ -2124,10 +2116,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ariba*</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
+          <t>Conseil d’ennemis</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ak-paré Wesh igo, wesh igo C'est zoo Wesh igo, wesh igo Nique sa grand-mère J'rap pour les chard-clo et j't'emmerde Wesh igo, c'est zoo Tchek, tchek 24 balais j'dors déjà avec le calibre Sac de balles c'est mort ou vivre donc faites vos paris Jette l'éponge que si la vaisselle est finie et qu'ça brille Donc j'me lance à 91 contre 1 dans un ring Appelle moi Ademo ceux qui m'aiment m'appellent Tarik J'sais faire deux choses, bicrave et puis rapper ma vie J'suis dans le noir mais j'relativise ma ??? J'me tire d'l'obscurité j'verrai p'têtre mieux la lumière Wesh lahuiss tu parles comme ça t'es un chaud T'as rien compris au lieu d'baisé t'iras t'taper une fellation Perdre son temps ne mène à rien Mais bon faudra bien t'baiser vu qu'tu fais l'malin Wesh ma gueule, j'fais du sale pour pas être dans d'beaux draps J'tire une balle si tu joues des épaules et qu'tu montres tes gros bras Tu cherches des histoire va lire des livres Si t'as plus de souvenir on va faire en sorte qu'ta vie défile Y'a des thunes à faire, des affaires à prendre, des billets à compter Tu pues la merde tu vas pas nous faire attendre ou t'la raconter Si tu jactes sois concret mais dans l'attente ne panique pas N'oublies pas que le silence est un ami qui n'trahis pas La vie n'a pas de valeur à côté d'sa fierté J'met la balle au centre des deux yeux pour t'montrer que j'suis fair-play C'est ma cam c'est ma vibe c'est tard Paris gros Viens t'balade dans ma life avale le bail igo enehhh Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi Compte pas trop sur tes gars restes sur tes gardes ennemis J'fais plus la diff' ça m'est égal J'te déclare l'amitié d'mes déclaraaa.. Personne veut m'aider j'craque Tu verras la qu'la face des gens quand ils sont morts pétés j'traque Qui t'soutiennent Tu parles, ils veulent te voir arrêter le rap Et t'conseil pour te voir foncer dans l'mur ??? ??? Le ceaumor Tes clips sonores Ta besoin de lui donc laisse un message après le bip sonore Tu r'viendras quand tout les gars d'l'équipe seront morts Ou qu'ils t'auront parier t'auras beau aboyer Ils t'estimeront tant que ... continuera à broyer Qu'est s'tu croyais ? Que j'allais être gentil Te visser mon son avec un peu de chantilly C'est toujours pour les mêmes c'est-à-dire personne Pour nous la mettre faudra faire fort Ler-par, pourquoi si tu fais pas mieux T'es loin d'être avocat mais on peut t'appeler le baveux Tu veux juger qui toi ? T'es pas Dieu Fais pas la morale garde tes conseils, t'es pas pieux Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2137,12 +2133,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Au mec des halls*</t>
+          <t>Dis leur que j’suis al</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
@@ -2154,12 +2150,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Au mecs des halls</t>
+          <t>Félins délinquants</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Couplet 1 La vie c'est un truc de ouf sa se lève le matin tôt pour vendre le shit A l'horizon XXX tu peut apercevoir une bande de flic Y'en as qui sont levés a 6 heures du mat On les reverras peut-être dans 5 ans avec un sac et la trace d'une marque magique Personne ne l'est et encore moins Paris ouais Sachant se tenir on as des cafards comme invitées pour dîner J'rap pas pour les miss les connasse on as pas les même idée dommage j'viens juste prendre le biff les dollars J'suis pas un MC, j'suis d'ces zonards qui rigole toujours qui vanne qui cache une souffrance hélas J'viens la où c'est en sortant de GAV qu'on apprend a faire ses lacets Eh merde j'suis trop feignant j'sais pas si j'vais pouvoir taffer C'est trop saignant j'voudrais a point mais la violence nous a dépasser On as tous une flamme dans le regard il y a plus qu'a péter sa garo avec un oeil Ta une pute dans le drap ok ta meuf tu l'appelle tout à l'heure Mais bon, moi a ma montre il est chepa j'ai même pas de montre J'peut p't'être continuer a dormir non faut continuer a dealer C'est pour les frères le reste nique sa grand mère Le son est sten et la gros je vibre et la j't'emmène Refrain x2 C'est pour les frères les jolies les moches applaudissez Baise la police impolis la tess est alcoolisé C'est pour les halel les frères dans l'haram L'été devant le hall et l'hiver dans le bat Couplet 2 XXX t'appelle le 17 nous on travaille nos biceps Quelque traction entre deux trois cliquos que l'ont visser Un son qui glisse il en faut un mais j'le baise en disant nique sa grand mère A ceux qui roule sans permis les mecs XXX l'argent en l'aire Tarterêts c'est de la ou tout part j'oublie pas tout le monde Les mecs derrière les barbelés a cause d'la poucave Se soir sa sent la pagaille monte monte le son belleck a ne pas avoir la barre J'resterai hardcore même dans des son comme as J'suis pas Piggy mais Dark Vador J'resterai cagoulé j'me défonce dans la street J'pense a tout les k-sos qui galère qui trime face aux fachos Avec le corps de ne pas avoir la tête qui brille J'suis en mode haineux très très rare sont les moments de joie XXX on ferra se qu'il faudra dans le noir C'est pour ceux qui sont droit ce qui font le mal pour le bien XXX tcheck on se reverra peut être pas demain Refrain x2 C'est pour les frères les jolies les moches applaudissez Baise la police impolis la tess est alcoolisé C'est pour les halel les frères dans l'haram L'été devant le hall et l'hiver dans le bat</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
@@ -2171,10 +2167,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>A.V 16'Art</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>Freestyle (PPRZK)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Ici y'a pas d'histoires d'amour à la Twilight Y'a qu'des loups, des vampires... Ici y'a pas d'histoires d'amour à la Twilight Ok Ici y'a pas d'histoires d'amour à la Twilight Y'a des loups, des vampires mais y'a qu'les trans' qui s'transforment la night Tu veux croquer la vie, belek si t'as mal aux dents Quand t'as la dalle, baiser des moches c'est comme manger des pâtes au thon Ça vend de l'herbe... C'est chez nous qu'achète le fleuriste Tu veux du sale ? T'en aura quand t'iras doucher à Fleury L'adrénaline c'est ton kiff, si c'est ça qui t'tente Prends tes risques, va faire l'amour sans capote en Thaïlande Sur Facebook t'as cru trouver ta femme en faisant une douaa Mais dans le côté obscur on a pas écouté Maitre Yoda Dans l'rap que des boloss qui pointent cliquant J'aime Donc j'actualise pour toucher ma thune tah l'ANPE J'vous fais mes vux, j'vous souhaite une bonne année Avec la santé, dans la maison d'arrêt T'as tiré, t'as cru qu'il allait pas être mort Mais fumer tue, c'est écrit même sur ton paquet d'clopes Ils m'disent Tarik tu fous rien, eh t'en a pas marre ? J'leur dis j'suis comme le Sprite, j'les désaltère et c'est déjà pas mal Comme Harry Potter, poto, j'suis un magicien La différence c'est qu'j'vais chez LV et pas chez l'opticien T'as beau écouter, tu comprendras pas mon délire C'est triste, merde les bourges du 16 qui savent lire entre mes lignes Ils m'ont dit la relève du rap a des punchlines qui cognent Écoutes, j'leur ai dit J'mets la 4, si j'veux voir Les Guignols C'est tout Pour voir les étoiles la huiss, suis quand c'est arabe la miss Yes la patate arrive, tu veux mon blaze ? Tarik Philips Morris dans les poumons, toujours une clope au bec Pâtes aux thons dans la bouche, fourchette dans la douche Dans l'ghetto pas à Saint-Tropez, ouais j'donne pile Met du son, on va leur faire d'façon honnête J'leur détaille ma vie comme j'ai détaille la savonnette Lève ta main si toi aussi tu roules un zdeh dans les gares Si toi aussi t'as pris un pied d'biche pour t'endormir dans des caves Jusqu'au bout un gamin, j'suis prêt à mettre les pendules heeeeen Mec lâche rien, sache que Dieu est avec les endurants C'est la street dans la hess, j'fuck toujours les études Ils connaissent rien donc qui mieux qu'moi peut raconter nos vécus ? L'amour est mort ici J'ai plus l'âge de dire fuck fuck la police La première fois qu'tu m'as vu, j'rabattais des clients d'vant ton lycée Pendant qu't'étais seul en train d'surveiller ta sur Désolé poto mais au heures t'a deschlague ta meuf Caleçon parfumé à la zeb, cocaïne entre les couilles Tout ça pour quitter la sère-mi, j'navigue entre les tours Voit ma vie on l'a met, baise un peu près dans les douzes Wesh alors poto achète avant que les keufs déboulent J'sors du placard, featuring avec cocaïne Du bicarbonate, du coupé-décalé dans ta narine Deux-trois shalgs, 80E l'gramme Sors la came du frigo, mon ex-femme qui te-ma le drame J'dois faire du biff j'dois réussir ou mourrir dans mon bizz L'avenir m'fais pas d'cadeau, mais m'réserve des surprises J'me regarde, j'sais j'suis pas un mec halal Si j'ai juré c'est parce-que l'amour du biff m'avait donné des ailes</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2184,12 +2184,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Baisés</t>
+          <t>Guizmo Ademo Freestyle</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>C'est comme si j'avais un atavisme C'est comme si j'rappais à la va-vite, nique sa mère, moi, j'suis pas un riche J'suis baisé, j'ai envie d'pleurer à chaque pleine lune Perdu, le genre de fou capable de rêver d'futur quand il voit une belle pute Parce que j'suis plus triste encore que l'film Le Titanic Parce que j'suis baisé, tu pourras plus jamais revoir l'enfant, le p'tit Tarik Baisés, c'est la merde ma couille, faudrait qu'j'pète un coup Baisés, N.O.S, check, on reste intestables Interdiction d'toucher à l'un, au risque de perdre la boule, baise la poulaille On reste pareils X X, dogue argentin Kaboul dans nos lifes X car on graille J'suis baisé, et ça depuis qu'on m'a pé-cou l'enfance Ça fait six ans qu'j'rappe, six ans que rage et peine s'foutent ensemble Baisés, à voir mon reuf vieillir triste Putain, passe-moi l'calibre que j'aille remplir la tirelire Le chauffage coûte cher alors dans la chambre il caille Y'a rien mais tu mets quand même les couverts quand t'as l'ventre qui râle Mais c'est parce que j'ai fait des fautes la plupart d'ma vie J'ai joué hors jeu vu qu'j'ai vu qu'y'avait pas d'arbitre Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail X2 Avant j'voyais un monde parfait maintenant j'veux l'baiser J'fais une croix sur mon rêve de gosse le jour où j'me suis blessé Baisés, parce que j'parle seul comme un malade mental Baisés, la micht' t'attache pas car j'suis pas sentimental Baisés, parce que j'retrouve ma solitude dans l'allée Baisés, parce que j'reste là mais j'voudrais m'en aller Baisés, parce que j'passe des heures à fixer le vide X donc faudra vite faire le vide Le désespoir d'mon père de voir son fils au tribunal Je n'l'ai jamais rendu fier, j'ai la haine, j'vais prendre une arme Baisés, parce que j'ai le souvenir des pe-pe-perquises Baisés, parce qu'on m'a dit petit Ça s'transmet père-fils Baisé par la tristesse, gros, j'ai appris à vivre avec J'la traîne un peu partout sous la capuche qui recouvre ma tête Baisés, parce que j'oublie trop souvent d'prier Dieu Baisés, parce que j'voulais voir loin mais on m'a pris mes yeux Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés sur ma tête qu'on f'ra l'bail Baisés nique sa grand-mère on est àl Parce qu'on est baisés parce qu'on est baisés du crâne Parce qu'on est baisés nique sa grand-mère Parce qu'on est baisés putain j'te jure qu'on f'ra l'bail Et c'est parce que je n'savais pas quel X Baisé par ce manque d'amour d'ma mère qui aurait pu m'aider Je suis ce petit du zoo qui vit dans l'passé Récupère ma tétine, contre les chats, gazelle Baisés, faut trouver un toit c't'été, ça sent l'expulsion À cinq dans un une pièce, 'faut pas s'faire d'illusions Baisés, parce que j'croyais qu'ça n'arrivait qu'aux autres Ademo, Son des Halls, ça ça sent l'tiek de zoo ? Ça sent la hess Ça sent la rage Parce que c'est dans les gênes baisés V'la les deux frères prêts à crever dans les airs Percer sous le chant des sirènes C'est pour tous les frères et surs dehors tout l'hiver Merde Ademo, N.O.S Putain d'merde, y'a longtemps qu'y'a eu le S.O.S Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Sur ma tête qu'on f'ra l'bail Baisés Nique sa grand-mère on est àl Parce qu'on est baisés Parce qu'on est baisés du crâne Parce qu'on est baisés Nique sa grand-mère Parce qu'on est baisés Putain j'te jure qu'on f'ra l'bail</t>
+          <t>Ademo, Guizmo, tu connais pas, tu connais rien Pour mes vrais gars gros Ceux qui savent c'que c'est qu'la hess, qui connaissent ça SD prod', négro Rappelle-toi d'ça L'entourage petit J't'appelle petit même si j'ai 20 ans parce que je rappe mieux que toi Écoute-moi, yo, yo J'suis avec mes types en bas d'la tess Y'en a qui emballent la cess, y'en a qui squattent la calèche Alors vite envoie de la fraiche Les à la dèche, y'en a par dessus la tête Il faut pas que tu t'la pète, tous mes di-ban crament la zep' J'me méfie quand un client parle affaires J'peux pas vesqui la perquise en filant par la fenêtre, bah ouais J'habite au 12ème étage, et toutes ces pédales ne font que braquer ou canner ou boucler mes cailles Mais j'ai tous les détails Et je sais c'qu'ils veulent des peines qui pleuvent, et la guerre afin de shooter les balles C'est fou et c'est naze me diront ceux qui connaissent pas le truc mais jouent les bé-chtar Et moi je te rentre mon projet par l'uc, et c'est la merde dans mon coin Y'a de la haine dans mon point, d'la pillave dans ma 'teille et d'la zep' dans mon joint La bicrave dans la tess, la niaks en cachette, la liasse quand t'achètes ouais, les mecs en ont besoin Mais là où c'est gris et triste ça vend poudre et shit, ça goom les flics donc j'rappe que des couplets tristes Et où j'écris, y'a pas d'sentiments Ouais, on s'parle gentillement, mais on s'tappe presque toutes les nuits C'est fou des fois, j'deal pour des fafs et je en m'demandant c'que les poulets savent Mais c'est un mode de vie, avec des codes de rue Fuck despi les grosses tepus, ouais c'est notre devise Moi, j'veux un stock de tise, et un pochtar de zep Pour oublier qu'ma i-v n'est qu'un cauchemar de merde Ademo, Guizmo 9-4, 9-1, 9-2, brrra</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Bienvenue</t>
+          <t>Hass Style</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Aux keufs on met des coups de tête aux jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe Wesh qu'est ce que tu racontes ? C'est le 9-4 Ademo, Rim'K On sait tous que dans la vie, y'a des hauts, y'a des bas... Appelle moi l'c-c-cas l'régal l'vrai vrai gars démon Le mec mec qu'a tes pompes check check ademo J'suis Tarik rappe la dalle a mon éventré J'vis ma ville Manhattan et l'on ma kalash excentré Jvis la parle parle viens vite dans ma salle Là ou gise le mal nique la police et le parlement Jusqu'à Christian Stan, Smith part égales Viens le tapis rouge car ici le festival de Cannes Pas la tête voilà l'son venu d'ailleurs Fait pas la tête pour avoir mon fusil mitrailleur DZ d'armes né ou la rage est embarquée Part, part caisse t'as Paname étendard Vise ma pupille caraï, j'ai un public d'malade Téma fusil kalash, t'es pas futile canarde Ma vie ça a jamais été les roses mais j'ai pas à m'plaindre J'ai les kho, des grosses baffes dans ma lampe d'Aladdin Aux keufs on met des coups de boule aux plus jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe On vient du sous sol doucement on remonte la côte On veut des thunes pour Saint Trop' pour brûler la côte Wesh qu'est ce tu racontes j'suis cramé comme le quartier Et l'début d'calvitie c'est les soucis et le calcaire Chez nous tout à un prix quoi d'bon à part braquer, vendre, arnaquer bienvenue rue de la truanderie Négro y'a plus le temps jte le dis gars, mes reufs sont sur mes épaules Nique les putes le monde s'appelle Pigale J'écris deuspi en mode trop bizarre Ma tête une chicha, mon cerveau fume beaucoup trop près de l'hôpital Mais quand ça bicrave vitamines j'dilapide Nique la flicaille on a les rêves dans du Ricard Ademo Rim'k, ricane qui t'a cramé Bidave ou on t'accrochera au jerrycan Sur ma pelouse des têtes cramé Les pirates des temps modernes ont la paix égaré dans des mirages J'ai mis la barre haute dans ton colon J'ai découvert l'Amérique le 11 septembre loin d'être Christophe Colomb Le son des halls écoute le y'a pas de piles man C'est pour la mif les freres les pauvres, Yanis mon reuf bil-na Peur que de Dieu t'es qui toi pour faire style caille Ademo en mode nique le monde tout ces minables Aux keufs on met des coups de boule Aux plus jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe On vient du sous sol doucement on remonte la côte On veut des thunes pour Saint Trop' pour brûler la côte Wesh qu'est ce tu racontes J'suis cramé comme le quartier et l'début d'calvitie c'est les soucis et le calcaire Chez nous tout à un prix quoi d'bon à part braquer, vendre, arnaquer bienvenue rue de la truanderie Quand j'arrive c'est trop la merde la hess c'est infernal à faire mal J'mettrai jamais mon ptit en internat Hyper mal au coeur t'es la belle jsuis la bête J'ai la peine j'aspire a faire mal aux keufs Alors comme ça ils veulent le bif, ils veulent nos chiffres, ils veulent le shit L'argent du shit, le gramme du shit Ils foutent la merde mais sur la vie d'mes ptit frères Que c'est parce qu'on crève que j'vend du shit tout l'hiver Ils veulent ma peau mon pollen on les appelle la police Mais a poil faut qu'ils posent sur mon poster Ça vend des halls holsters, des all-stars, des émeutes ont l'rôle de merde Ce soir c'est le show ça pète les beuz y'a pas de peace ça matraque ma gueule Comment vivre sans mic ma gueule Tous dans le vif on a pas d'saveur Le son des halls tu connais plus l'temps de déconner Ademo Rim'k pour décoller x2 Aux keufs on met des coups de boule Aux plus jeunes on donne des coups de pouce Aux balances on met des coups de fusil à pompe On vient du sous sol doucement on remonte la côte On veut des thunes pour Saint Trop' pour brûler la côte Wesh qu'est ce tu racontes J'suis cramé comme le quartier et l'début d'calvitie c'est les soucis et le calcaire Chez nous tout à un prix quoi d'bon à part braquer, vendre, arnaquer bienvenue rue de la truanderie</t>
+          <t>Aïe, Son des Halls Ademo, N.O.S, Moraki, RKM 1décis, D-A-2-S-O 9-4, 9-1, 7-8 Kho Brrrra On vi-ser e bas du bloc C C'est la dèche dépêche C'est l'son des halls c'est trop technique Soit pas con, RKM viens traumatiser les autres Ouais sors de l'ombre, Que pour poser dans les studios Brrra N'oublie surtout pas 2008, Le Rap est à nous même si il a l'tétanos A cause des MC, Prod sur Soprano C'est pour les frères qui lâche le terrain Juste pour pisser mon joint C'est passe moi ton bri-briquet Chez moi ça crie-criquet J'reviens allumer la foule Représente Maint'nant t'es prév'nu Si tu m'voit c'est pour les sous J'ai trop d'souci Tar tar Tarterêts, 91-94 Pour les mecs déter, pour les frères de tess On vit dans des ghettos c'est pour ça c'est la hess Pour mon pote Ademo Banlieue banlieue ouais pour le X Qui peut te mettre la fiche test, mother fucker dick petite bitch Y'a pas de baise mais encore moins d'King dans ma street Tu te la pête t'es qu'une mother fucker pute de ma street Si l'on disapche le virus Le scoth sur les bouches le Hascich A l'heure qu'il est ce n'est pas sur les meilleurs que les majeurs J'rappe intensément perfide, pour les faux qui se travestissent Mon blaze c'est 1déçis, j'vais remettre les pendules à l'heure Faire taire tous les amateurs, agresser mes détracteurs de la rue avec que celle-ci nous dessine Sans savoir à quoi ce me prédestine Prêcheur de rap conscient, j'ai l'écriture qui fascine A l'heure où les faux MC's abusent de la rime facile Ademo Son des Halls, écartez vous de mon flow récidive Que dire des textes d'artistes qui passent leur temps à sucer Leur propos comme leurs valeurs s'estompent sous le poids du succès J'ai la rime démoniaque petit appelle moi Les auditeurs je persécute, écris mon mic je perpétue tu perçois le degrés d'application, c'est comme ça que j'honore le but d'une invitation Tu veux du lourd ? Mais mets-toi bien, elle veut mon zboob mais mets-toi bien Z Z Z deux O, ça te pète les os Inchall'Allah on vas survivre, je ne te fait pas de promesses On a un pied dans la tombe et l'autre sur une savonnette On vas grailler seulement si Dieu le veut fou le feu Appelle-moi l'C l'C4, le re-reél gars, l'vrai gars-démon L'me-l'mec qu'a des bombes, check-check Ademo J'suis qui moi, mais qui m'appelle, la zère-mi à l'appel Si l'rap est mort c'est qu'y a mes mains au bout d'sa pelle Y a trop d'pédés-pédés gros, j'mets des gros doigts aux P.Diddy et aux fédé-fédéraux Le son des Hall-Hall, nique les bolosses allez J'vise les molaires, pas les ? Y a qu'des malades qui m'épaulent Maintenant c'est qui qui fait les bailles ?</t>
         </is>
       </c>
     </row>
@@ -2218,12 +2218,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ça vient de la street</t>
+          <t>Le cowboy*</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>On est dans un monde de sale putes, d'hommes sans parole T'inquiète j'me fonds au décor J'suis ce putain de caméléon comme Jarod Voilà le briseur d'instructrices Prisette du mic prisé Freezé la poche à l'ombre j'fais mes propres rayons seul comme Freezer Cris pas, p'tite pédale, c'est la crise, ça se pé-ta Vis d'sky, shit, pétasse c'est la vie des SEGPA qui m'serre de machine On est yomb, 2008 j'veux ma barraka J'porte ma mif comme sur ma carapace J'veux du bon, pas gratuit J'veux du sombre, c'est ça khali Mic ou pompe, t'inquiète pas ça tire Y'a trop d'raisons, t'inquiète pas Fais le mor-morceau La mort c'est mort On vient pour man-man-manger Tout est voué à un doigt J'ai pas de carton rose ni jaune moi Courez tous à droite, quand j'roule à gauche sur l'trottoir Ma-ma-max de flow, matte ma, matte ma Ma mattraque Magma chauffe Ademo mamama Ca vient de la street ouais J'ai besoin du somme clash</t>
+          <t>Rudeboyz Golden Mindz Maluma, baby Dicen por ahí que de amor nadie se muere Ajá Pero yo me siento que bajé al infierno una y mil veces Yeah También dice mi padre que uno tiene lo que se merece Despué' de estar contigo comprobé que no hay refrán que pese Dice De qué sirve entregarlo todo, si te pagan de esta manera? Por qué nunca dijiste que había otro, pa' evitar amargura y penas? Y me hago daño al mirarte en Instagram Nunca pensaste ni en disimular Al menos hubiera' esperado un poco Te valió mierda ver mi cora roto Tú sabes Obvio que me duele que no estás Si antes bebía, hoy estoy tomando más Me estoy tratando de limpiar y no me da No encuentra un detox y cura a esta enfermedad De amores Es lo que uno siente cuando el amor no es correspondido Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido Por ti yo lo he vivido Baby Mal de amores Es lo que uno siente cuando el amor no es correspondido Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido Por ti yo lo he vivido Okey, baby Gracias por nada Eran verdad mis corazonadas Cuando llegabas tarde en la madrugada Wuh Oliendo a cigarro y tú que no fumabas Baby Eran mentiras que yo me aguantaba Ah Pa' seguir contigo no te las cantaba Además tus parcerita' son un combo 'e doblada' Haciéndote el cruce pa' que no te pillara, oh To' lo que publica' no lo creo No, no Foto' vemo', relacione' no sabemo' El karma está en tu contra y sé que la va' a pasar feo Pero te quise tanto que hasta el bien yo te deseo Y me hago daño al mirarte en Instagram Nunca pensaste ni en disimular Al menos hubiera' esperado un poco Te valió mierda ver mi cora roto Obvio que me duele que no estás Si antes bebía, hoy estoy tomando más Me estoy tratando de limpiar y no me da No encuentra un detox y cura a esta enfermedad De amores Es lo que uno siente cuando el amor no es correspondido No-oh Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido Por ti yo lo he vivido Baby Mal de amores Es lo que uno siente cuando el amor no es correspondido Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido No Por ti yo lo he vivido Por ti yo lo he vivido</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Comment ça</t>
+          <t>Le son des halls</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Yeah, yeah Le Son des halls mixtape 2008, yeah, 2009 Le rap a pris une vitesse, ok, j'passe la huitième Paname, on est àl, prépare l'aspirine avant la migraine J'veux la victoire, avec un rêve dans la tête Tu veux pas d'histoires ? Mets pas ta graine dans la mienne J'me tâte, que t'aimes ou t'aimes pas, t'écoutes gars Dans ce rap en mode baseball, ils mettent le vent, moi j'mets des coups de batte 2008, mixtape Le Son des halls 2010, on sera mille têtes à rugir du fond des eaux Hé dé-dé-débile, mon dé-dé-mépi Dé-dé-dé-débit, j'vends des-des-des pills J'ai la phrase qui frise, le ciel écrase et brise ta glace Qui crispe, j'entrave, l'écrit est grave de mon le-sty Mon blase rime au style qui bave Ademo 2-0-0-8 Man j'te montre ma comète, matte le ton de ma colère C'est Madmax, c'est XXX qui marque, ma plume n'a pas le sommeil J'ai mal-mal pardonné, ma marche écrase au nez Mama j'ai mal tourné, j'croyais XXX Votre rap comme un indic, j'le monte ou j'le descends ?? c't'année, Ademo est chaud même en décembre J'ai trop la fait la merde ça rend méchant Tu parles de flow c'est la guerre mec, t'inquiètes pas pour moi j'suis dans les temps Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est bon, j'ai-j'ai bombé bon pour mieux plomber l'son, bon 0-0-8 y aura pas d'plan B ça fait check parfait Impossible d'être, parfait le rêve, passé Me dis pas d'faire, la paix On f'ra tout pour faire croquer la mif et les frères Nous on veut juste manger, plus vendre le shit mais des teilles Mets des tonnes de baffes, base, pesé au milligramme Essonne, Val-de-Marne, trop speed trop bi-bizarre C'est sale, va d'mander comment on finit mal Et comme v'là l'baille Ademo au style mitraille R-r-r-rage, r-r-r-rare, r-r-rafale, sur la tess, r-r-radieuse Fais la pa, fais la pa, fais la passe à personne Fais la pas, fais la, fais la pas, fais la pas la peine Fais la pa, fais la, fais la pa, fais la part des choses Fais, fais la, fais, fais la plage Ademo On a tous un souhait, prions pour l'réaliser Que Dieu m'entende, j'tue l'arbitre avant qu'il vienne me pénaliser J'sais qu'survivre, j'veux vivre, simplement de thunes Le monde un scorpion car pour atteindre le bonheur ici la queue te tue Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est pour mes gros à la recherche de poitrines aussi grosses que Loana Voilà la face la plus connue d'Ademo j'suis trop alarmant Peu d'vocabulaire, le cocard suprême J'ai vodka jus d'pêche pour ta gueule pose ta bouteille Un putain d'morceau, amorcé, mort-vivant Pas d'temps mort ok, j'ai mis mes boules à l'hameçon et vous mordez J'écris sur une boîte de pharmacie et y a pas d'mal Car dans ma vie y a c'que j'mange et c'que j'porte qui n'a pas d'marque J'rap pour les S-SDF, les mecs-mecs déter Qui niquent les profs, les keufs fraudent la S-SNCF Qui check-check les rêvent, qui baisent baisent les traîtres Millions d'paroles, ceux qui restent-restent les mêmes J'prouve prouve grave grave ... Coup de coup de crasse crasse j'goume j'goume crade crade Se fout de se fout de ce rap bouge de bouge de là vieux ... ta gueule 2008 Parce que faut tomber les pommes pour enfin voir les étoiles Le Son des Hall mixtape S't'euplé, bouche les oreilles d'ton gosse et raconte-lui une histoire Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais1</t>
         </is>
       </c>
     </row>
@@ -2252,12 +2252,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Comme un aveugle</t>
+          <t>Ma dose</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>My man, my man, jai une vision amère My man, my man, jai une vision amère Jvois quça parle comme un dimanche Ils tfont tous des messes basses Si tu fumes pas écoute nos sons, tauras la tête dans lespace On vit lmal, nhar Sheitan, cest les coups dfeu qui traisonnent Nul en maths, vu qu'pas besoin dcompter sur les gens quand tes seul Un homme porte ses couilles dans son secteur et dans toutes les ruelles Hors dchez lui, cest plus lmême, là j'parle dhomosexuels Elle cherche un mec, elle veut pas dcelui qui shabille dses soucis Elle a vu lamour dans les boules dcristal qui sort dun costard Gucci Tu lui serres la main, un bon gars, gentil et tout mais pas dargent Timaginais pas quil allait ber-tom après avoir qué-bra la banque Bah tu veux savoir, lui non plus, encore moins qutoi ma gueule Mais bon cétait ça ou laisse crever sa famille ma gueule Wesh ma gueule, wesh ma gueule, sur mon PC jvois qudes biatchs À croire quEve a croqué la pomme dchez Apple Fuck, fuck ceux qui paraissent saints, cest dur si ça paraît simple On vole de nos propres ailes pourtant Dieu sait quon nest pas des anges Jai pas trop l'choix j'ai bicrave tout l'quinquennat dSarkozy Le jour où jvois des singes qui parlent, jaurai trouvé nos sosies No soucy, on est en retard, on nest pas payés à la minute Sors pas ddisquette à un dealer ou il tfait gober la pilule My man, my man, jai une vision amère, jai une vision amère My man, my man, jai une vision amère, jai une vision amère Comme un aveugle my man, comme un aveugle my man Comme un aveugle my man, avec villa et vue sur la mer Tu veux savoir pourquoi Allah? Tu veux savoir pourquoi jprie ? Même avec la tête dans les nuages on lui arrive pas à lcheville Baise pas à côté dun petit il regardera dans ltrou dla serrure Montre pas qutas dlargent grâce au biz ou il arrêtera ses études Sil reste que des têtes sur lterrain cest parcque ça tacle à la gorge À six heure cest ni lréveil ni lvoisin qui tape à ta porte Végéta, Sangohan featuring deux-deux frères ah ouais Tellement fier que jdonnerais même pas dix eus pour baiser Ayem Jsuis Corse-Algérien, pour lhonneur direct jte crève Sur un drapeau un croissant dLune et sur lautre une tête de khel My man, my man, jai une vision amère Comme un aveugle avec villa et vue sur la mer On est pétés donc on sendort à la pub, à la pub Cest la rue jviens dlà où on préfère voir des petits ponts à un but Swaggy swagga, attitude, rap de gangst, de gangst, de gangst Ravie madame appuye sur play steuplait qujte baise Peace N Lovés musical, biz affolé tu sais quarrive la monnaie eurêka Peace N Lovés uniques, avec moi aucune tasse ne fera du shopping Tes pas contente, rentre toi un gode, au moins tauras une copine Ya quaux States que tu peux voir un maton qui vend des albums Bientôt les surveillants dFleury voudront devenir des rappeurs Ahcheum, Ademo mo-mo-mode déflagration Le cur cassé, ya du taga dans la surface de réparation Passons, jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man Jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man My man, my man, jai une vision amère, jai une vision amère My man, my man, jai une vision amère, jai une vision amère Comme un aveugle my man, comme un aveugle my man Comme un aveugle my man, avec villa et vue sur la mer Passons, jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man Jme lève avec mes soucis, jme rendors avec Jtire ma clope, jmarrête quand lfiltre est touché my man My man, my man, jai une vision amère My man, my man, jai une vision amère My man, my man, jai une vision amère</t>
+          <t>Dis à ton pote dpas faire le chaud De npas nous regarder en boîtant N.O.S et Dirty sont durs à contrôler poto va-ten Toujours un shlass dans la manche Wolverine me dit qujsuis pas tendre Fuck ta bande grosse tapin on tapporte le beat en tapant Ta meuf nous aime, elle fait du bruit quand cest calme Maintenant tu lsais ya pas quVan damme qui sait faire le grand-écart Dis à tous les zéros quon va les déposer en Suisse Arrêtez dlécher nos culs, on va vous proposer nos Tes habillé en Prada, Gucci, tas dla thune, tas la cote Une question lami pourquoi quand tu mvois tu mtacles des clopes ? Tas une BM mais ta reum fait ses courses à pied Tu sais qujparle de toi alors tu bouges encore plus ta tête On a des pêchés pourtant on est lessivés Miss tes si belle, arrête de jouir, là tu dépasses les décibels 9-1, que des Mowgli, et Tarzan dans lpérimètre Nous on inspire, les autres expirent, et donc finissent périmés Yen a besoin, donc jleur donne ma do-dose Jleur donne ma do-dose, verre de Jack dans la peau Sers-moi un autre, il mfaut ma do-dose Que les biff coulent à flot, que lon deale dans la zo-one Ton dealer dit ya foye, tinquiète pas quchez nous igo tauras ta dose On est durs à griller comme des litrons dans la poussette On stape des barreaux et les poukaves se barrent à Pucket Les putes qui font les hlel, dis-leur toz Si elles voient pas dmec elles te trompent avec un sex-toys Car elle veut sa do-dose, cest marqué sur son gloss Son mec tourne au hebs, elle fait tourner Son corps plus vite que son phone, bref Tiens ma dose, en grammes, en grammaire Tu veux du son ? Tu veux dla zeb ? On tlattrape, on tlamène MC, jte mets en cloque, coup dcouteau dans tes enceintes Je suis ton père, tes trop nouveau pour faire lan-ien-c Clic clic, cest pas un gun, cest lbruit dta souris Petite bitch retourne dans lporno, tu portes plainte sous X En cellule pompes, Ricoré tient lcafé Igo tu connais comme tes poneys, on tourne dans larène Yen a besoin, donc jleur donne ma do-dose Jleur donne ma do-dose, verre de Jack dans la peau Sers-moi un autre, il mfaut ma do-dose Que les biff coulent à flot, que lon deale dans la zo-one Ton dealer dit ya foye, tinquiète pas quchez nous igo tauras ta dose Ils veulent décrocher dma, ils veulent décrocher dma dose Ils veulent décrocher dma, ils veulent décrocher dma dose Ils veulent décrocher dma dose, cest pas possible, laisse-les Si tessayes doublier, mon son va tle rappeler comme le respect Peace N Lovés Musik, dis à Fif quil pourra pas longtemps nous oublier du site Car il veut sa do-dose, ils veulent tous leur dose gros Jveux die dans ma baignoire, mais jesquive les Claudettes À cause delles tu finis claudo Yen a besoin, donc jleur donne ma do-dose Jleur donne ma do-dose, verre de Jack dans la peau Sers-moi un autre, il mfaut ma do-dose Que les biff coulent à flot, que lon deale dans la zo-one Ton dealer dit ya foye, tinquiète pas quchez nous igo tauras ta dose</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Conseil d’ennemis</t>
+          <t>Maradona</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Ak-paré Wesh igo, wesh igo C'est zoo Wesh igo, wesh igo Nique sa grand-mère J'rap pour les chard-clo et j't'emmerde Wesh igo, c'est zoo Tchek, tchek 24 balais j'dors déjà avec le calibre Sac de balles c'est mort ou vivre donc faites vos paris Jette l'éponge que si la vaisselle est finie et qu'ça brille Donc j'me lance à 91 contre 1 dans un ring Appelle moi Ademo ceux qui m'aiment m'appellent Tarik J'sais faire deux choses, bicrave et puis rapper ma vie J'suis dans le noir mais j'relativise ma ??? J'me tire d'l'obscurité j'verrai p'têtre mieux la lumière Wesh lahuiss tu parles comme ça t'es un chaud T'as rien compris au lieu d'baisé t'iras t'taper une fellation Perdre son temps ne mène à rien Mais bon faudra bien t'baiser vu qu'tu fais l'malin Wesh ma gueule, j'fais du sale pour pas être dans d'beaux draps J'tire une balle si tu joues des épaules et qu'tu montres tes gros bras Tu cherches des histoire va lire des livres Si t'as plus de souvenir on va faire en sorte qu'ta vie défile Y'a des thunes à faire, des affaires à prendre, des billets à compter Tu pues la merde tu vas pas nous faire attendre ou t'la raconter Si tu jactes sois concret mais dans l'attente ne panique pas N'oublies pas que le silence est un ami qui n'trahis pas La vie n'a pas de valeur à côté d'sa fierté J'met la balle au centre des deux yeux pour t'montrer que j'suis fair-play C'est ma cam c'est ma vibe c'est tard Paris gros Viens t'balade dans ma life avale le bail igo enehhh Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi Compte pas trop sur tes gars restes sur tes gardes ennemis J'fais plus la diff' ça m'est égal J'te déclare l'amitié d'mes déclaraaa.. Personne veut m'aider j'craque Tu verras la qu'la face des gens quand ils sont morts pétés j'traque Qui t'soutiennent Tu parles, ils veulent te voir arrêter le rap Et t'conseil pour te voir foncer dans l'mur ??? ??? Le ceaumor Tes clips sonores Ta besoin de lui donc laisse un message après le bip sonore Tu r'viendras quand tout les gars d'l'équipe seront morts Ou qu'ils t'auront parier t'auras beau aboyer Ils t'estimeront tant que ... continuera à broyer Qu'est s'tu croyais ? Que j'allais être gentil Te visser mon son avec un peu de chantilly C'est toujours pour les mêmes c'est-à-dire personne Pour nous la mettre faudra faire fort Ler-par, pourquoi si tu fais pas mieux T'es loin d'être avocat mais on peut t'appeler le baveux Tu veux juger qui toi ? T'es pas Dieu Fais pas la morale garde tes conseils, t'es pas pieux Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi Wesh igo, we-we-wesh igo, wesh igo x2 Bah ouuuuh Wesh igo, we-we-wesh igo, wesh igo x2 C'est qu'un conseil d'ennemi</t>
+          <t>L'argent se fait rare tout est en Peu je le présente, dur de se détendre Comme prendre le soleil de Paris en décembre Ca baise des neuch' qui savent qu'il y a pas de calins Tu recevras pas le yoyo tant que tu tendras pas ta main Je marche dans la rue, la rue, la rue, la lune elle m'aime Pas confiance aux 'tasses vu que ça travaille à la chienne Mec faut pas mettre la charrue avant la beuh Une balle dans la tête, évite les représailles d'une balle dans la beuj 91 n'da je rentre ma bite dans ta dame Comme un semi t'inquiètes pas, je rentre grecs-frites et taga Poto les matons ont les clés comme Passe-partout La vie m'a fait marron comme un ? Un tas de chiens si on pèse le poids de la iv' Ca s'abstient le mois du Ramadan puis ça baise le soir de l'Aïd Des égarés poto, c'est dar c'est tout On peut pas donner nos fesses quand on y cale des douze Ademo un-deux un-deux test le shit, s'il est bon t'inquiète pas on pète le kil' Casse-pipe, on charbonise, risque nos vies pour un peu de dollar Ne compare ni à Rohff ni à Booba nous on se clash pas comme des connards Élevé dans l'honneur ça tire pour le principe Insulte la daronne gros on te la rentre sans vaseline Tu peux rapper avec ton équipe je vous la mets ta3 Maradona Les jaloux vont maigrir comme Madonna Yes ma gueule, on souffre sur le terrain l'hiver, les pieds gelés détaille avec les mains froides On a des feuilles mais pour trouver des nouveaux iencli' à visser On demande si t'as pas des massa Gros calculer les meufs c'est perdre beaucoup d'argent A part si elle vient de loin, de Pologne ou que de l'est est son accent Né dans ce monde avec la dalle, je baise l'instru', le mac' me dit encore 2 minutes avec la femme T'es entre le mal et le bien, moi je vois pas le bien du tout Je suis entre un poto qui roule du shit et une putain qui roule du boule Igo je te jure c'est compliqué, j'ai fait le mal pour le bien dis moi comment je vais m'expliquer ? Fuck le proc', fuck la juge, ils paieront plus que moi Quand je sors je suis comme mon zgeg je suis encore plus dur renoi Breffons, j'évite le regard des pédés, elle est hlel elle est belle mais elle pense qu'à baiser Non j'oublie pas, t'oublies pas quand t'as galéré Je baise pas le rap je lui fais l'amour et poto m'en veux pas de l'aimer Donne nous un concert on le soulève, si ça part de nous c'est pas à cause d'un Wesh Souley Si j'ai une pièce je donne à celui qui crève la dalle Ici quand tu rends service on te rend le service de nadal Kassded' aux frères au placard qui regardent Homer Je mets la pression, attention avec un baromètre Hé l'ingé' mixe-moi bien le son et fais-moi du lourd Chez nous on dit Hamdoullah quand un poulet sort du four La vie est sombre, du mal à avoir de l'ambition Je peux pas chanter Nabi-Nabilla même sous Jack et sous pilon Un jour comme un tigre ou cent ans comme un mouton ? Si un jour j'oublie les miens que Dieu appuie sur le bouton Remplis ton facebook, je dois remplir ma CB J'crois pas aux contes de fées, igo je crois aux comptes à régler Alors maintenant, bien ou bien ? Mon son c'est comme le visage d'un mort, tu t'en souviens Dernière Phillip et j'aurai terminé salement Pas antisémite mais je veux ma villa avec un dog allemand MARADONA</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Dis leur que j’suis al</t>
+          <t>Mets-toi bien</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2303,12 +2303,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Félins délinquants</t>
+          <t>Mon amour, mon ami</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Hey pédé, j'viens t'péter, rien laisser, la baiser, n'pas rêver, RDV sur Saturne La fierté, lhonnêteté, l'amitié, éviter la pitié, j'vends la mort à la pub Elle est bonne, faut qu'elle paye en nature, elle est pure, la feuille est sans ratures Pas majeure mais sa bouche est mature, le shit bulle, les pouces collent, on m'accule Wesh l'alien écailleux, t'es faya, tête ailleurs, dis-moi c'est quand tu sors le Cayenne Ouais la hyène se lâche, fait la chienne, se cache et plus tard se range comme Ayem Deux talons qui sortent de la gova, des bras maigres qui manient le cobra Igo on sort la langue comme Manny, Love Sosa, oui ma connasse Tiens goûte la teub à Adama, gros j'lance mon taga jusqu'en Alabama Ma punch dans ta gorge, la gorge à ta femme, viens voir la souffrance te dire wallah pas mal Igo j'suis sauvage et j'crie ounga wawa, Ounga ounga, le G sur la poucave Ounga ounga, nigga wawawawa, Ounga ounga, tant qu'on fout pas l'darwa J'sais qu'j'suis pas intégré, j'suis père de mes intérêts, les mains dans la merde alors qu'elles sont faites pour les enterrer J'sais combien tu paierais pour te faire opérer, de tout ce mal qui paraît si fort et qui semble empirer Viens m'voir et j'te dirai le prix d'la fonce-dé-dé-dé Si t'as appris à compter-ter-ter, on sera amis, enchanté-té-té Moi c'est Ade', moi c'est Ade' khey, sors la 'teille, vas-y claque le jour de paye J'veux pas d'ton Facebook, rrht tfou, t'sais que j'ai ma main sur ta fesse C'est limpide, ouais c'est deuss, c'est violent, c'est 9.1,on arrive y a d'la peuf' au volant, y a d'la meuf Elle t'a brisé le cur, fallait briser sa chatte, dire au gosse à sa reus' fais la bise à papa Pah, pah, pah, pah, ma haine qui te quen', j'suis en polo, la rage s'voit aux triceps Blablablabla, tu t'écartes tu te perds en direction du hall les cas soc' te visser L'espoir dans le coffre, la chance dans la cava, pardonnez-moi mais nos sorts sont macabres Dis-moi si j'ai tort ou si j'rappe la tate-pa, obscure est la force, le jedi est khabat 9.4 c'est l'Barça, 9.1 c'est l'Brésil, ouais connard, va l'dire à Kery Sinon à part ça, bien t'es pressé ? Non parce que ça va pas terrible Parce que j'suis seul dans ma tête, c'est la rage qui m'a élevé Que j'ai bicrave dans la tess' et qu'mon caleçon n'est pas en LV Faut du liquide, j'laisse pas couler une larme, pas une, pas une, pas une Fais bellek aux femmes, fais bellek aux putes, fais bellek aux paluches, paluches, paluches T'sais qu'on est vifs donc fais pas l'imbécile, on s'vide pas la vessie un meug dans les WC Oui on veut la belle vie, embarquer sur l'ferry, si t'as ché-tou des litres, vas-y mon gars fais signe Tu décolles, jatterris, bientôt j'côtoie des riches, la poudre dans la narine, César fait l'AVC J'l'ai quen' un mercredi, l'amène pas à la mairie, tu l'appelles ma chérie, j'lui mettais la fessée Viens j'te donne RDV, j'suis d'Paris j'suis pressé, igo j'vois tellement d'chiennes, j'mets une laisse sur l'PC J'mets une laisse sur l'PC, j'prends le game en PV, l'rap est mort, j'le déterre pour le ré-enterrer Ma drogue dans l'Gabbana Aux arrivants avec mon gars Bana J'sors ma hein-hein de mon Gabbana Ton oseille dans la poche de mon Gabbana J'fais l'amour à la hess' dans l'allée, elle se rhabille, j'me retourne Bismillah à l'aller, bismillah au retour Sers le trou d'balle à la douane, on déballe et taille-dé redwa Dans mes yeux c'est le vide, mon âme est perchée sur le toit J'vois l'espoir dans les yeux des p'tits, mashallah ça sent l'rêve Une sale envie d'décharger, on vit, on s'égare, on crève Ouais pas d'vie sociale, juste une vie d'cas social Le rap dans un local, va foutre ta schneck au sale Tantôt j'tue l'temps tant, tantôt c'est l'temps qui m'kill J'me sens mutant, tant différent dans la file Ouais j'suis bon qu'à compter, un joint d'beuh sur les lèvres Allez fuck ma bonté, et avec ça fuck mes rêves Tout c'que j'fais charbonner, tous les mêmes tous clonés Six du mat' détrôné à r'dessiner c'qu'est gommé Combien de sacs à pâtes ne savent plus sur quel genou danser Sur quel genou danser Ademo, Ladif Peace and lovés kiff Tout pour la mif' Tout pour le bif' Les sentiments ça ralentit, le cur fermé, là j'suis à fond Tu pètes plus haut que ton cul, on t'monte ton cul touche, touche le plafond On tire sur la laisse, t'aboies, on t'détache, tu perds la voix Nous c'est les gentils armés cramés conscients qu'on perd la foi Wesh à quand l'dernier kil' ? Pas demain, pas maintenant J'te fais danser avec l'oseille à chaque billet un nouveau battement J'tacle junkie potentiel, j'en fais ient ient fidèle Des loups qui fixent la Lune, moi être meilleur ami d'elle Chez nous on partage la hess', le cul d'la haute dans la caisse Casse un tour longue est la laisse, mon ange tu connais l'adresse Le temps d'un clignement les gens changent, moi je change en retrouvant la vue D'aucune poche on est dépendants, là j'suis fonce' en retrouvant la fum' Ils ont les photos, plus les souvenirs, on a les souvenirs, plus les photos Ouais on a même plus les potos, c'est chacun son bénéf', son auto Un gros fer sa mère, j'emmène la misère en balade Une balle pour chaque ennemi de mon frère, ça fait click, gala, gala Un putain d'biff, la mif', une ride en moins sur l'front de mon père Un putain d'biff, la mif', un sourire en plus sur l'visage de mon frère Le dos large, le coeur étroit Ta relation sur une pesette, si t'écoules pas, madame est froide Ce soir j'rentre pas à la maison Les portes se ferment et puis ne s'ouvriront qu'à la prochaine saison La misère dans un SLR, rentrer, tourner, sortir célèbre La vie me donne son cul, j'connais pas l'goût d'ses lèvres24</t>
         </is>
       </c>
     </row>
@@ -2320,12 +2320,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Freestyle (PPRZK)</t>
+          <t>Oh! Oh!</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ici y'a pas d'histoires d'amour à la Twilight Y'a qu'des loups, des vampires... Ici y'a pas d'histoires d'amour à la Twilight Ok Ici y'a pas d'histoires d'amour à la Twilight Y'a des loups, des vampires mais y'a qu'les trans' qui s'transforment la night Tu veux croquer la vie, belek si t'as mal aux dents Quand t'as la dalle, baiser des moches c'est comme manger des pâtes au thon Ça vend de l'herbe... C'est chez nous qu'achète le fleuriste Tu veux du sale ? T'en aura quand t'iras doucher à Fleury L'adrénaline c'est ton kiff, si c'est ça qui t'tente Prends tes risques, va faire l'amour sans capote en Thaïlande Sur Facebook t'as cru trouver ta femme en faisant une douaa Mais dans le côté obscur on a pas écouté Maitre Yoda Dans l'rap que des boloss qui pointent cliquant J'aime Donc j'actualise pour toucher ma thune tah l'ANPE J'vous fais mes vux, j'vous souhaite une bonne année Avec la santé, dans la maison d'arrêt T'as tiré, t'as cru qu'il allait pas être mort Mais fumer tue, c'est écrit même sur ton paquet d'clopes Ils m'disent Tarik tu fous rien, eh t'en a pas marre ? J'leur dis j'suis comme le Sprite, j'les désaltère et c'est déjà pas mal Comme Harry Potter, poto, j'suis un magicien La différence c'est qu'j'vais chez LV et pas chez l'opticien T'as beau écouter, tu comprendras pas mon délire C'est triste, merde les bourges du 16 qui savent lire entre mes lignes Ils m'ont dit la relève du rap a des punchlines qui cognent Écoutes, j'leur ai dit J'mets la 4, si j'veux voir Les Guignols C'est tout Pour voir les étoiles la huiss, suis quand c'est arabe la miss Yes la patate arrive, tu veux mon blaze ? Tarik Philips Morris dans les poumons, toujours une clope au bec Pâtes aux thons dans la bouche, fourchette dans la douche Dans l'ghetto pas à Saint-Tropez, ouais j'donne pile Met du son, on va leur faire d'façon honnête J'leur détaille ma vie comme j'ai détaille la savonnette Lève ta main si toi aussi tu roules un zdeh dans les gares Si toi aussi t'as pris un pied d'biche pour t'endormir dans des caves Jusqu'au bout un gamin, j'suis prêt à mettre les pendules heeeeen Mec lâche rien, sache que Dieu est avec les endurants C'est la street dans la hess, j'fuck toujours les études Ils connaissent rien donc qui mieux qu'moi peut raconter nos vécus ? L'amour est mort ici J'ai plus l'âge de dire fuck fuck la police La première fois qu'tu m'as vu, j'rabattais des clients d'vant ton lycée Pendant qu't'étais seul en train d'surveiller ta sur Désolé poto mais au heures t'a deschlague ta meuf Caleçon parfumé à la zeb, cocaïne entre les couilles Tout ça pour quitter la sère-mi, j'navigue entre les tours Voit ma vie on l'a met, baise un peu près dans les douzes Wesh alors poto achète avant que les keufs déboulent J'sors du placard, featuring avec cocaïne Du bicarbonate, du coupé-décalé dans ta narine Deux-trois shalgs, 80E l'gramme Sors la came du frigo, mon ex-femme qui te-ma le drame J'dois faire du biff j'dois réussir ou mourrir dans mon bizz L'avenir m'fais pas d'cadeau, mais m'réserve des surprises J'me regarde, j'sais j'suis pas un mec halal Si j'ai juré c'est parce-que l'amour du biff m'avait donné des ailes</t>
+          <t>Sisi Son des halls mixtape, 2008, on est al Sisi, ok, ok check Fuck, fuck , bouge ta tête la France j'vais l'habiliter Pan, pan Danja té-ma ses dents sombres Le doigt d'pied sur la détente car j'm'imagine pas marcher sans pompe Qu'est-ce que tu ferais à ma place ? J'classe, j'claque J'ai envie d'thé ramène ma tasse Qui j'suis ? Ademo la voix qui disait a-ç Viens voir sisi j'ai l'as pas l'roi mais qui a dit qu'j'étais un démon Qui a dit Cacao dans mon lait caillé En mode calcinage gore, matinal , hors capitale J'force pas j'mitraille quand même Moins un au score j'peux t'faire perdre comme Zizou qu'égalise Et la qualité, on l'a comme t'as pas idée les bip dans la valise, ton pif dans ma farine Toute ma mif en Jamaïque, que ta clique sente la bague Mon son passera jamais en boîte, mais nique sa mère Ça fait t-t-t-t-t-t-t-t-vraa C'est die, facile les rimes en -aille, alors , écris quand j'graille ... fous le faya .... suite à venir ...</t>
         </is>
       </c>
     </row>
@@ -2337,12 +2337,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Guizmo Ademo Freestyle</t>
+          <t>On paye</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ademo, Guizmo, tu connais pas, tu connais rien Pour mes vrais gars gros Ceux qui savent c'que c'est qu'la hess, qui connaissent ça SD prod', négro Rappelle-toi d'ça L'entourage petit J't'appelle petit même si j'ai 20 ans parce que je rappe mieux que toi Écoute-moi, yo, yo J'suis avec mes types en bas d'la tess Y'en a qui emballent la cess, y'en a qui squattent la calèche Alors vite envoie de la fraiche Les à la dèche, y'en a par dessus la tête Il faut pas que tu t'la pète, tous mes di-ban crament la zep' J'me méfie quand un client parle affaires J'peux pas vesqui la perquise en filant par la fenêtre, bah ouais J'habite au 12ème étage, et toutes ces pédales ne font que braquer ou canner ou boucler mes cailles Mais j'ai tous les détails Et je sais c'qu'ils veulent des peines qui pleuvent, et la guerre afin de shooter les balles C'est fou et c'est naze me diront ceux qui connaissent pas le truc mais jouent les bé-chtar Et moi je te rentre mon projet par l'uc, et c'est la merde dans mon coin Y'a de la haine dans mon point, d'la pillave dans ma 'teille et d'la zep' dans mon joint La bicrave dans la tess, la niaks en cachette, la liasse quand t'achètes ouais, les mecs en ont besoin Mais là où c'est gris et triste ça vend poudre et shit, ça goom les flics donc j'rappe que des couplets tristes Et où j'écris, y'a pas d'sentiments Ouais, on s'parle gentillement, mais on s'tappe presque toutes les nuits C'est fou des fois, j'deal pour des fafs et je en m'demandant c'que les poulets savent Mais c'est un mode de vie, avec des codes de rue Fuck despi les grosses tepus, ouais c'est notre devise Moi, j'veux un stock de tise, et un pochtar de zep Pour oublier qu'ma i-v n'est qu'un cauchemar de merde Ademo, Guizmo 9-4, 9-1, 9-2, brrra</t>
+          <t>Tu sais c'que c'est qu'payer ? Wesh dis pas nan connard Ici tout s'paie, ta gueule, demande à tes parents au chômage On paie salope bah alors fais les choses bien On paie wesh mais pas pour palper tes gros seins Un jour j'ai rêvé d'une banque devant mes chiottes pour mieux chier sur le monde Ademo check j'serai devant les autres T'as pas une galette devant moi si t'as pas la fève Trop vo-vorace dpuis lo-l'orage, niquez vos-vos races Mon p'tit reuf respire mal à ton avis combien la cure ? Combien la m'sure fait la taille de l'habitat Kho, combien la sucent? Coco chaud l'ticket, ta femme est compliquée Pour elle faut l'biff sinon ciao ciao Alors paie, paie, demande à so, à Corbeil Une valise plein d'bif xx sa tête avancée, même un lampadaire à lorteil On paie et cest ça qutaimes Ademo, Meda, check, vlà lthème qui tannonce la couleur Le violet, celle quon préfère On paie, on paie Nique sa mère, on paie Rien nest gratuit dans cmonde de chiennes La vie na pas dprix, pourtant on paie Jusquà en rendre des comptes après lcoup dpelle Depuis toujours on paie Endettés à perpétuité, à peiner On a tous pris cette peine ferme Sept ? coups dshlass dans les reins Tu paies pour vivre, tu paies pour crever En fait on paie pour perdre Y croivent que cest un jeu ces bâtards Un match de baseball ou quoi ? Y sbaladent avec des flashballs et nous avec des battes, cest ça? Cest sale, on paie à la balle, on paie au balon Jveux qules keufs saignent sur ltrottoir Tu crois vraiment que si jte braque tauras la chance que mon arme senraie ? Allez, danse sur ltrottoir Faut que jsorte un son qui paie Cri dguerre suivi dcri dhaine M-E-DA cest oim et dites-moi dalle Dalleux, damné à vie, amené à mort Tu veux fumer pour calmer les bails, gars? Alors paie Létat veut nous endormir mais même quand jdors jpaie La vie cest comme cette rayure sur lskeud Les soucis qui srépètent et tournent en boucle On vit, on meurt, on fume, on dort En gros, on paie, on saigne On paie, on paie Nique sa mère, on paie Rien nest gratuit dans cmonde de chiennes La vie na pas dprix, pourtant on paie Jusquà en rendre des comptes après lcoup dpelle</t>
         </is>
       </c>
     </row>
@@ -2354,12 +2354,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Hass Style</t>
+          <t>On s’dit que</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Aïe, Son des Halls Ademo, N.O.S, Moraki, RKM 1décis, D-A-2-S-O 9-4, 9-1, 7-8 Kho Brrrra On vi-ser e bas du bloc C C'est la dèche dépêche C'est l'son des halls c'est trop technique Soit pas con, RKM viens traumatiser les autres Ouais sors de l'ombre, Que pour poser dans les studios Brrra N'oublie surtout pas 2008, Le Rap est à nous même si il a l'tétanos A cause des MC, Prod sur Soprano C'est pour les frères qui lâche le terrain Juste pour pisser mon joint C'est passe moi ton bri-briquet Chez moi ça crie-criquet J'reviens allumer la foule Représente Maint'nant t'es prév'nu Si tu m'voit c'est pour les sous J'ai trop d'souci Tar tar Tarterêts, 91-94 Pour les mecs déter, pour les frères de tess On vit dans des ghettos c'est pour ça c'est la hess Pour mon pote Ademo Banlieue banlieue ouais pour le X Qui peut te mettre la fiche test, mother fucker dick petite bitch Y'a pas de baise mais encore moins d'King dans ma street Tu te la pête t'es qu'une mother fucker pute de ma street Si l'on disapche le virus Le scoth sur les bouches le Hascich A l'heure qu'il est ce n'est pas sur les meilleurs que les majeurs J'rappe intensément perfide, pour les faux qui se travestissent Mon blaze c'est 1déçis, j'vais remettre les pendules à l'heure Faire taire tous les amateurs, agresser mes détracteurs de la rue avec que celle-ci nous dessine Sans savoir à quoi ce me prédestine Prêcheur de rap conscient, j'ai l'écriture qui fascine A l'heure où les faux MC's abusent de la rime facile Ademo Son des Halls, écartez vous de mon flow récidive Que dire des textes d'artistes qui passent leur temps à sucer Leur propos comme leurs valeurs s'estompent sous le poids du succès J'ai la rime démoniaque petit appelle moi Les auditeurs je persécute, écris mon mic je perpétue tu perçois le degrés d'application, c'est comme ça que j'honore le but d'une invitation Tu veux du lourd ? Mais mets-toi bien, elle veut mon zboob mais mets-toi bien Z Z Z deux O, ça te pète les os Inchall'Allah on vas survivre, je ne te fait pas de promesses On a un pied dans la tombe et l'autre sur une savonnette On vas grailler seulement si Dieu le veut fou le feu Appelle-moi l'C l'C4, le re-reél gars, l'vrai gars-démon L'me-l'mec qu'a des bombes, check-check Ademo J'suis qui moi, mais qui m'appelle, la zère-mi à l'appel Si l'rap est mort c'est qu'y a mes mains au bout d'sa pelle Y a trop d'pédés-pédés gros, j'mets des gros doigts aux P.Diddy et aux fédé-fédéraux Le son des Hall-Hall, nique les bolosses allez J'vise les molaires, pas les ? Y a qu'des malades qui m'épaulent Maintenant c'est qui qui fait les bailles ?</t>
+          <t>On sdoit davoir les reins solides dans un monde de fou Roule avec Dieu avant drouler un oinj, ouais mon couz Jai la rage, rappe pour moi pas pour ta gueule Jai dlinspi, donc ya pas besoin qujme bourre la gueule On est la vie dgangsta, sexe illégal man La nuit, la Lune, Paname, ses petites balades On aime nos balafres, les montre, que tu saches qui on est On sort du hebs les pecs bombés drague les Beyoncé Faut dla thune donc on la cherche tous les jours Pour mettre bien la mif, on emmerde tous les autres On marche la tête haute mais cerveau à lenvers On nique tout, on sdit qude toute façon on goûtera lEnfer On nattend rien, on nest pas instruits avec un brevet Ya qula roue dnos voitures qui tourne et qui finit par crever On gamberge dans les transports, le train a du retard Lun fume, lautre alcool, certains semportent Les claudos sendorment, ignorés dtout lmonde Un dealer passe, donne une pièce et roule un pilon Un bourge a du dégoût davoir vu tout ça Il pense à ce soir, à son club et à sa touze-par On vit sans scomprendre, à sjalouser Ça bicrave tout lannée pour aller à Salouzer Baiser des catins dans les privates Être les kings toute la night, revenir, et re-bicrave On sait refaire le monde, en parlant dhier Une vie dans le haram, demande pardon à chaque prière On sdit qule dînn, ça sera pour plus tard On sdit une femme, plus un plan cul, et puis une tasse Les yeux plus gros que la paire de LV Ya pas dembrouille mais on a toujours lregard énervé On veut la vie drêve donc on dort de plus en plus Les soucis rongent, et plus on y pense, plus on fume On trompe nos femmes, dis pas non yen a plus dun Alors on sfait du mal même en sfaisant du bien On est sauvages, la plus grande race animale On mélange minorité et majorité quand ya une sale image On shabitue à nos vies, même à la merde Avec pour but un mois dans lannée aller à la mer On est bloqués devant la télé tous les soirs instinctivement À écouter sans comprendre un État qui ment On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre pour une cause On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre pour une cause On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre pour une cause On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre juste pour dire Allah u akbar Ouais igo On na quune cause dans cde-mon, quelle que soit ta religion Ya quun Dieu sur Terre un seul, et on oublie notre but Ce son cest pour les vrais, ceux qui msoutiennent Dédicace à K, Lixat, N.O.S, DIrty, RKM mes deux nahas qui tournent, Max et Bad Gardez la Foi, bientôt dehors les frères, inchAllah</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Le cowboy*</t>
+          <t>Ouai ma petite gueule</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Rudeboyz Golden Mindz Maluma, baby Dicen por ahí que de amor nadie se muere Ajá Pero yo me siento que bajé al infierno una y mil veces Yeah También dice mi padre que uno tiene lo que se merece Despué' de estar contigo comprobé que no hay refrán que pese Dice De qué sirve entregarlo todo, si te pagan de esta manera? Por qué nunca dijiste que había otro, pa' evitar amargura y penas? Y me hago daño al mirarte en Instagram Nunca pensaste ni en disimular Al menos hubiera' esperado un poco Te valió mierda ver mi cora roto Tú sabes Obvio que me duele que no estás Si antes bebía, hoy estoy tomando más Me estoy tratando de limpiar y no me da No encuentra un detox y cura a esta enfermedad De amores Es lo que uno siente cuando el amor no es correspondido Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido Por ti yo lo he vivido Baby Mal de amores Es lo que uno siente cuando el amor no es correspondido Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido Por ti yo lo he vivido Okey, baby Gracias por nada Eran verdad mis corazonadas Cuando llegabas tarde en la madrugada Wuh Oliendo a cigarro y tú que no fumabas Baby Eran mentiras que yo me aguantaba Ah Pa' seguir contigo no te las cantaba Además tus parcerita' son un combo 'e doblada' Haciéndote el cruce pa' que no te pillara, oh To' lo que publica' no lo creo No, no Foto' vemo', relacione' no sabemo' El karma está en tu contra y sé que la va' a pasar feo Pero te quise tanto que hasta el bien yo te deseo Y me hago daño al mirarte en Instagram Nunca pensaste ni en disimular Al menos hubiera' esperado un poco Te valió mierda ver mi cora roto Obvio que me duele que no estás Si antes bebía, hoy estoy tomando más Me estoy tratando de limpiar y no me da No encuentra un detox y cura a esta enfermedad De amores Es lo que uno siente cuando el amor no es correspondido No-oh Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido Por ti yo lo he vivido Baby Mal de amores Es lo que uno siente cuando el amor no es correspondido Es el dolor que no le deseo ni a mi peor enemigo Es cuando tratas de entender y no tiene sentido No Por ti yo lo he vivido Por ti yo lo he vivido</t>
+          <t>Ouais m petite gueule, ouais ma petite gueule Tu vas kiffer l'son ma petite gueule J'veux ni d'une femme qui soit une pute Ni d'un homme qui soit une pute J'encule pas un frère, j'ai jamais payé pour une pute Bats les couilles d'ces timps, mes conneries j'les paye assez Fuck la taule c'est pour le frère au mitard sans ses lacets Y'a pas d'hasard, d'hasard dans ma 'sère, tu l'sais En chien comme sans taga, taga dans ma cellule'zer Ouais mes frères, ouais ma mif', merci pour les mandats Sans vous, j'suis voué à la gamelle, sans télé, à faire un bad Les warriors on les baise, ils regardent mal, on les baise Si j'graille tous ces mythos j'vais finir par devenir obèse Faut qu'on opère entre vrais, y'a pas d'secret hesse J'te dis tout, qu'entre vrais, ça parle de peine et d'beurre On prie Allah pour toujours nourrir nos familles J'ai côtoyé tellement d'chiens, plus besoin d'animal d'compagnie Ouais la miss ça vient d'l'Essonne, prend le crime en levrette Pendant le somm' rêve à des sommes, fuck le dream pour le vrai Tu m'aimes pas ? Méchant, tiens y'a mes couilles à frotter Montre-nous pas ton argent, ou on pensera à t'sauter J'ai trop la dalle, mes crocs scieront les barreaux J'paierai ma part de pêchés, et l'Ciel m'dira les taros AK sors le Moët c'est bavon, j'la ken que si elle a des talons Ji3an j'irai me la faire si elle a le boule d'un étalon J'mets ma casquette sur scène, t-shirt Paris Saint-Germain Y'a du vert tu l'sais, Nabil visser ces chiens d'Germains Un pote qui tombe c'est la merde, j'reste toujours seul dans mon affaire J'cantine la plaque di-di-direct, au bigo détails du rêve J'envoie un talon tu connais, j'dis rien mais jamais j'oublierai Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Commission rogatoire, dans mon phone-tel y'a qu'des bonnets Les stups convoquent le répertoire, chaque bitch a deux ballons d'volley Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule J'galère au barreau, j'té-ma l'hélico qui barrode J'suis tous les jours en train d'pousser, t'inquiète c'est la Juge qui m'arrose J'sors du 9-1, serre bien tes seufs, j'viens Préviens tes reufs ou préviens tes reus Ratatatata dis-leur que j'suis pas vivant Ça tire des penaltys, en promenade ou à FIFA Tu sais qu'on a des armes, t'en as aussi y'a quoi ? Tant qu'j'ai deux couilles devant, tu peux en avoir mille derrière toi Bref rien à prouver, cent grammes de plus à la pesée L'oseille veut s'approcher, on va finir par l'accrocher S'en fout d'devenir des stars, on veut l'pécule du statut Sur le terrain dès l'sbah les ients-cli font bouger les statues J'sais qu't'as oublié, mais j'te l'rappelle à temps On a perdu des clients, monté les courses de ta Maman J'suis l'fils de mon daron, j'suis pas l'fils de la rue La Juge veut m'faire ber-tom, j'la baise debout si je n'm'abuse Tu veux un tour de magie ? Avec des madeleines j'fais des crêpes Fleury même un Chinois s'est caler un bloc entre les fesses Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule J'commence trop haut en attaque, j'porte le numéro 18 Tu veux pas d'bolosse dans ta life ? Ok tiens mon 06 Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule J'avance, j'crois, j'pense qu'à un oinj de beuh Écrou 400-362 Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Le monde est sourd, me3lich, j'veux pas lui parler J'suis pas né d'la dernière peine de prison J'crois même qu'j'suis pas né Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Ok on prie Allah pour toujours nourrir nos familles J'ai côtoyé tellement d'chiens, plus besoin d'animal d'compagnie Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Commission rogatoire, dans mon phone-tel y'a qu'des bonnets Les stups convoquent le répertoire, chaque bitch a deux ballons d'volley</t>
         </is>
       </c>
     </row>
@@ -2388,12 +2388,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Le son des halls</t>
+          <t>Pablo Escobar*</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Yeah, yeah Le Son des halls mixtape 2008, yeah, 2009 Le rap a pris une vitesse, ok, j'passe la huitième Paname, on est àl, prépare l'aspirine avant la migraine J'veux la victoire, avec un rêve dans la tête Tu veux pas d'histoires ? Mets pas ta graine dans la mienne J'me tâte, que t'aimes ou t'aimes pas, t'écoutes gars Dans ce rap en mode baseball, ils mettent le vent, moi j'mets des coups de batte 2008, mixtape Le Son des halls 2010, on sera mille têtes à rugir du fond des eaux Hé dé-dé-débile, mon dé-dé-mépi Dé-dé-dé-débit, j'vends des-des-des pills J'ai la phrase qui frise, le ciel écrase et brise ta glace Qui crispe, j'entrave, l'écrit est grave de mon le-sty Mon blase rime au style qui bave Ademo 2-0-0-8 Man j'te montre ma comète, matte le ton de ma colère C'est Madmax, c'est XXX qui marque, ma plume n'a pas le sommeil J'ai mal-mal pardonné, ma marche écrase au nez Mama j'ai mal tourné, j'croyais XXX Votre rap comme un indic, j'le monte ou j'le descends ?? c't'année, Ademo est chaud même en décembre J'ai trop la fait la merde ça rend méchant Tu parles de flow c'est la guerre mec, t'inquiètes pas pour moi j'suis dans les temps Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est bon, j'ai-j'ai bombé bon pour mieux plomber l'son, bon 0-0-8 y aura pas d'plan B ça fait check parfait Impossible d'être, parfait le rêve, passé Me dis pas d'faire, la paix On f'ra tout pour faire croquer la mif et les frères Nous on veut juste manger, plus vendre le shit mais des teilles Mets des tonnes de baffes, base, pesé au milligramme Essonne, Val-de-Marne, trop speed trop bi-bizarre C'est sale, va d'mander comment on finit mal Et comme v'là l'baille Ademo au style mitraille R-r-r-rage, r-r-r-rare, r-r-rafale, sur la tess, r-r-radieuse Fais la pa, fais la pa, fais la passe à personne Fais la pas, fais la, fais la pas, fais la pas la peine Fais la pa, fais la, fais la pa, fais la part des choses Fais, fais la, fais, fais la plage Ademo On a tous un souhait, prions pour l'réaliser Que Dieu m'entende, j'tue l'arbitre avant qu'il vienne me pénaliser J'sais qu'survivre, j'veux vivre, simplement de thunes Le monde un scorpion car pour atteindre le bonheur ici la queue te tue Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais C'est pour mes gros à la recherche de poitrines aussi grosses que Loana Voilà la face la plus connue d'Ademo j'suis trop alarmant Peu d'vocabulaire, le cocard suprême J'ai vodka jus d'pêche pour ta gueule pose ta bouteille Un putain d'morceau, amorcé, mort-vivant Pas d'temps mort ok, j'ai mis mes boules à l'hameçon et vous mordez J'écris sur une boîte de pharmacie et y a pas d'mal Car dans ma vie y a c'que j'mange et c'que j'porte qui n'a pas d'marque J'rap pour les S-SDF, les mecs-mecs déter Qui niquent les profs, les keufs fraudent la S-SNCF Qui check-check les rêvent, qui baisent baisent les traîtres Millions d'paroles, ceux qui restent-restent les mêmes J'prouve prouve grave grave ... Coup de coup de crasse crasse j'goume j'goume crade crade Se fout de se fout de ce rap bouge de bouge de là vieux ... ta gueule 2008 Parce que faut tomber les pommes pour enfin voir les étoiles Le Son des Hall mixtape S't'euplé, bouche les oreilles d'ton gosse et raconte-lui une histoire Le son des halls, le son des halls ! 2008, on fait les dièses Le son des halls, le son des halls ! Viens, on remue la merde Le son des halls, le son des halls ! Trop de problèmes pour tout stopper Le son des halls, le son des halls ! Ademo, trop de haine, tu connais1</t>
+          <t>Pablo, Pablo Escobar Brr Pablo, Pablo, Pablo Escobar Escobar</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2405,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ma dose</t>
+          <t>Rap vner</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Dis à ton pote dpas faire le chaud De npas nous regarder en boîtant N.O.S et Dirty sont durs à contrôler poto va-ten Toujours un shlass dans la manche Wolverine me dit qujsuis pas tendre Fuck ta bande grosse tapin on tapporte le beat en tapant Ta meuf nous aime, elle fait du bruit quand cest calme Maintenant tu lsais ya pas quVan damme qui sait faire le grand-écart Dis à tous les zéros quon va les déposer en Suisse Arrêtez dlécher nos culs, on va vous proposer nos Tes habillé en Prada, Gucci, tas dla thune, tas la cote Une question lami pourquoi quand tu mvois tu mtacles des clopes ? Tas une BM mais ta reum fait ses courses à pied Tu sais qujparle de toi alors tu bouges encore plus ta tête On a des pêchés pourtant on est lessivés Miss tes si belle, arrête de jouir, là tu dépasses les décibels 9-1, que des Mowgli, et Tarzan dans lpérimètre Nous on inspire, les autres expirent, et donc finissent périmés Yen a besoin, donc jleur donne ma do-dose Jleur donne ma do-dose, verre de Jack dans la peau Sers-moi un autre, il mfaut ma do-dose Que les biff coulent à flot, que lon deale dans la zo-one Ton dealer dit ya foye, tinquiète pas quchez nous igo tauras ta dose On est durs à griller comme des litrons dans la poussette On stape des barreaux et les poukaves se barrent à Pucket Les putes qui font les hlel, dis-leur toz Si elles voient pas dmec elles te trompent avec un sex-toys Car elle veut sa do-dose, cest marqué sur son gloss Son mec tourne au hebs, elle fait tourner Son corps plus vite que son phone, bref Tiens ma dose, en grammes, en grammaire Tu veux du son ? Tu veux dla zeb ? On tlattrape, on tlamène MC, jte mets en cloque, coup dcouteau dans tes enceintes Je suis ton père, tes trop nouveau pour faire lan-ien-c Clic clic, cest pas un gun, cest lbruit dta souris Petite bitch retourne dans lporno, tu portes plainte sous X En cellule pompes, Ricoré tient lcafé Igo tu connais comme tes poneys, on tourne dans larène Yen a besoin, donc jleur donne ma do-dose Jleur donne ma do-dose, verre de Jack dans la peau Sers-moi un autre, il mfaut ma do-dose Que les biff coulent à flot, que lon deale dans la zo-one Ton dealer dit ya foye, tinquiète pas quchez nous igo tauras ta dose Ils veulent décrocher dma, ils veulent décrocher dma dose Ils veulent décrocher dma, ils veulent décrocher dma dose Ils veulent décrocher dma dose, cest pas possible, laisse-les Si tessayes doublier, mon son va tle rappeler comme le respect Peace N Lovés Musik, dis à Fif quil pourra pas longtemps nous oublier du site Car il veut sa do-dose, ils veulent tous leur dose gros Jveux die dans ma baignoire, mais jesquive les Claudettes À cause delles tu finis claudo Yen a besoin, donc jleur donne ma do-dose Jleur donne ma do-dose, verre de Jack dans la peau Sers-moi un autre, il mfaut ma do-dose Que les biff coulent à flot, que lon deale dans la zo-one Ton dealer dit ya foye, tinquiète pas quchez nous igo tauras ta dose</t>
+          <t>On a fait l'saut d'l'ange, dans l'magma, la tête la première 9.1 zone franche, ça pue l'zeb, la kebab sauce blanche La bite comme celle qui sort de notre gland Vision d'l'amour une chatte en gros plan La descente est amorcée, hash et sky corsés T'envoient valser dans les bras d'Morphée aller On peut s'procurer tout c'que tu veux, absorbé yeah Et on t'sourit mais on sait que ton nez va morfler Narine droite, narine gauche Ça remplace l'oxygène pollué des parigots Les tox gobent les excta' comme des haribos Et s'en cloquent quand c'est la fin des haricots El Manito en a marre du factice, il veut son MAC-10 en calicot Des coups d'haschisch, gros, comme ses balistos Les petits s'activent tôt, convoitent le bien des aristos Tous brigante dans l'impasse comme Carlito On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner Respect à ceux qui font des mandats, portent le street étendard Au tribunal, s'défendant à la tigre et dragon Ne te causent qui si c'est rentable, la cognent que différentes dames Ne pouvant trouver l'mental de l'idéal gonz' On a la bite et l'bras long, prends ton ticket, sale con Si tu veux l'bras d'fer, ou si tu veux piper la trompe J'rappe la vie des bas fonds, des tés-c' anti-traîtres à fond Qui se lèvent si tes gars tombent, de vise' les sales tronches Nos mères ont depuis longtemps quitter l'balcon hein hein Marre de voir embarquer par des flics ses garçons Mais pour nous le smic, c'est pas bon, c'est pire qu'l'hécatombe Même en étant l'employé du mois, j'vais broyer du noir De plus, littéralement, beaucoup voudraient l'faire Comprends que si l'on stagne, c'est qu'nos pieds sont recouverts d'terre Le plein feeling grâce à nos blundfilis Nos battements de cur militent, à chaque heure, s'divisent sauvagement On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner J'maque, j'maquette Mac Macain, ma g', ma guette J'm'inq', j'm'inquiète pas Mac maqué, y'a pas, y'a pas d'magma lèze-ba L'p'tit mental, et j'rime sans tal', puissance de l'année Et instantanée, je brille dans le bal des balles, tristement taré J'lâche ma cra, cra-cra-cra, sous crack, j'crache tout Dans mes yeux, où la flamme qui cra-cra-crame tout Y'a plus d'âge, et ouais ma belle euh-euh Pour avoir d'la peine, pour savoir qu'la haine aime nous sortir la pelle euh-euh La balle est lancée, pas d'élan c'est, pas grave, aller danse et manigance Et ma séquence détale l'essence, ter-ma les jantes gros J'rime la dalle euh la dalle euh, vis d'la malle et nique la salle salle euh Vise la valeur de mon rap, vise comme ça parle parle euh Ademo, Ténébreuz Click, pas d'carotte ma gueule Tu nous sentiras venir même si t'as l'nez à Michael Jackson Quand j'baise, minus, tu pourrais perdre la vie J'apporte tellement d'virus qu'on d'mande à mon stylo d'mettre un préservatif ouha On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner Le bus' d'la rue c'est diezer donc j'rappe vé-ner Donc j'rappe vé-ner, le son des halls, Ademo, Ademo Tarterêts, Tarterêts 91 jusqu'au 9.4, Putain On est à-l, K-Tana gros, yeah Yeah, tu connais Kevin Ra', tu connais, -mos C'est pour le son des halls mixtape Nos, le fraté, Ade-mo, avant la mixtape, yeah yeah, yeah1</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Maradona</t>
+          <t>Retrouvailles</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>L'argent se fait rare tout est en Peu je le présente, dur de se détendre Comme prendre le soleil de Paris en décembre Ca baise des neuch' qui savent qu'il y a pas de calins Tu recevras pas le yoyo tant que tu tendras pas ta main Je marche dans la rue, la rue, la rue, la lune elle m'aime Pas confiance aux 'tasses vu que ça travaille à la chienne Mec faut pas mettre la charrue avant la beuh Une balle dans la tête, évite les représailles d'une balle dans la beuj 91 n'da je rentre ma bite dans ta dame Comme un semi t'inquiètes pas, je rentre grecs-frites et taga Poto les matons ont les clés comme Passe-partout La vie m'a fait marron comme un ? Un tas de chiens si on pèse le poids de la iv' Ca s'abstient le mois du Ramadan puis ça baise le soir de l'Aïd Des égarés poto, c'est dar c'est tout On peut pas donner nos fesses quand on y cale des douze Ademo un-deux un-deux test le shit, s'il est bon t'inquiète pas on pète le kil' Casse-pipe, on charbonise, risque nos vies pour un peu de dollar Ne compare ni à Rohff ni à Booba nous on se clash pas comme des connards Élevé dans l'honneur ça tire pour le principe Insulte la daronne gros on te la rentre sans vaseline Tu peux rapper avec ton équipe je vous la mets ta3 Maradona Les jaloux vont maigrir comme Madonna Yes ma gueule, on souffre sur le terrain l'hiver, les pieds gelés détaille avec les mains froides On a des feuilles mais pour trouver des nouveaux iencli' à visser On demande si t'as pas des massa Gros calculer les meufs c'est perdre beaucoup d'argent A part si elle vient de loin, de Pologne ou que de l'est est son accent Né dans ce monde avec la dalle, je baise l'instru', le mac' me dit encore 2 minutes avec la femme T'es entre le mal et le bien, moi je vois pas le bien du tout Je suis entre un poto qui roule du shit et une putain qui roule du boule Igo je te jure c'est compliqué, j'ai fait le mal pour le bien dis moi comment je vais m'expliquer ? Fuck le proc', fuck la juge, ils paieront plus que moi Quand je sors je suis comme mon zgeg je suis encore plus dur renoi Breffons, j'évite le regard des pédés, elle est hlel elle est belle mais elle pense qu'à baiser Non j'oublie pas, t'oublies pas quand t'as galéré Je baise pas le rap je lui fais l'amour et poto m'en veux pas de l'aimer Donne nous un concert on le soulève, si ça part de nous c'est pas à cause d'un Wesh Souley Si j'ai une pièce je donne à celui qui crève la dalle Ici quand tu rends service on te rend le service de nadal Kassded' aux frères au placard qui regardent Homer Je mets la pression, attention avec un baromètre Hé l'ingé' mixe-moi bien le son et fais-moi du lourd Chez nous on dit Hamdoullah quand un poulet sort du four La vie est sombre, du mal à avoir de l'ambition Je peux pas chanter Nabi-Nabilla même sous Jack et sous pilon Un jour comme un tigre ou cent ans comme un mouton ? Si un jour j'oublie les miens que Dieu appuie sur le bouton Remplis ton facebook, je dois remplir ma CB J'crois pas aux contes de fées, igo je crois aux comptes à régler Alors maintenant, bien ou bien ? Mon son c'est comme le visage d'un mort, tu t'en souviens Dernière Phillip et j'aurai terminé salement Pas antisémite mais je veux ma villa avec un dog allemand MARADONA</t>
+          <t>Hé, Je reviens dans la partie allez ouvre ta bouche avale Rifle la matrix si j'ai les couilles encore plus grosses qu'avant Tu veux du sale t'en auras, t'iras toucher au D4 Les pecs j'les bombe haha, sous l'tee-shirt j'ai du C4 J'ai pas changé, j'ai évolué Sois tu baisses, soit tu stagnes Soit tu fais tes sons en zonz, en sortant tu fais du cash J'vais t'faire monter en l'air, écoute mon son et c'est fini Tu veux faire l'avion comme lors d'une intervention chez les iris Soûlé soûlé là, j'viens m'défouler La haine m'a trouvé et j'l'ai évacuée sous mes Nike Fort en maths depuis qu'j'compte le temps qui m'reste Le théorème de ma bite hardcore pour ça qu'y a des chiennes qui m'aime La haine me nourri, la hess me sourit Sur eux que j'prend le plancher pour un coup de sure Hein ma vie de galérien, j'fini toujours par l'giro de poulaille Sisi naha continue de tourner, bientôt les retrouvailles x2 J'veux pas faire un titre , j'veux juste vivre ma vie J'ai de la dynamite, ouais je t'invite à fuir J'vend pas de zik l'amis, j'bibi à prix d'amis J'sors ma bite ah oui si tu veux de la vitamine Les mecs j'ai l'seum, j'ai la dalle, j'ai le ventre vide Les MC's pètent un câble tellement je monte vite Je vise je vise le sommet, Jack et mon shit tu veux consommé Du mal j'en suis conscient mais Je t'avance 2-3 quettes histoire de faire un peu d'pépètes Je m'en bas les couilles de prendre perpettes À part dieu personne m'effraie Encore un nique la police, pour faire kiffer mes frères J'rappe pour ceux qui galère dans le hall, toujours on risque de ce faire pété Je m'écarte des pd's, des salopes XXX baisé ramène de la drogue histoire de déstresser Vue que j'ai le 11 dans ma che-po , une grenade pour le comico</t>
         </is>
       </c>
     </row>
@@ -2439,12 +2439,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Mets-toi bien</t>
+          <t>Rien d’un loveur</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Chui pas un lover alors toutes les meufs se mettent loin de moi Chui pas un chanteur, j'ai fait un rêve où tous les keufs se mettent un doigt Chui fils de bandit, mon papa à moi est un gangster Si on respecte les anciens à 22 ans je veux être un ancêtre J'ai pas la taille prévu pour dunker, alors je grimpe sur les tass' J'me demande si je suis bon qu'à détaille, qu'à détaille À la Une y a qu'la thune et la thune voit qu'la lune dans mon tunnel La tumeur de la vie nous tue, une erreur venu de notre tumeur Argent et bails bienvenu au moyen-âge Sex, money, action détail et tout l'monde t'aime comme Mickael Jackson J'm'appel ni Jason, ni Bryan XXX Transforme en Super Sayan, ça cisaille XXX J'suis opérationnel, j'écris c'que j'aime et pis fuck toi On verra l'soleil XXX mais on espère le voir un certain soir J'suis un tigre, j'vivrais jamais comme un mouton Quitte à prendre 20 piges, parce qu'il y a ceux qui tapent le steak et ceux qui s'grattent leurs boutons On est trop, on est, on est on est chaud, on est, on est Dans le ghetto, on est, on est tous à s'tape pour la monnaie Dans le rétro, les condés, condés c'en ai trop, isolé-solé Rien d'un loveur, j'encule toutes les poucaves à la volée J'encule toutes les balances, comment vivre en sachant que t'en ai une ? J'respecte tout les parents, l'impression qu'on m'a chié sur Neptune J'suis la preuve vivante qu'on peut être barge dans le son C'est ce qu'y me rend surpuissant, j'rêve pas d'faire d'la chanson J'ai rêvé de mettre les pauvres à l'abri, c'était un rêve de gosse Désolé mon Dieu mais j'rêve plus que les poches pleines de drogue Venez prendre votre dose, j'veux voir les billets roses Voilà le but d'mon rôle et j'sais que j'vais en chier d'douleur Tu peux te faire péter par un voleur toutes tes économies Fait attention si on sait que t'as un trésor on vient chez toi avec la colonie Foolek à la Vegeta, à la Mark Landers J'ai toujours coupé les XXX très sale, à la Highlanders Par ici, là j'ai le shit allez vite schlaggez lâchez Les dollars venez acheter apprécie la zeb, la vraie Maléfique près de la haine pas de bétises, ta paix j'la baise Allez dire que j'rap que des saletés, Ademo s'en bas les yeu-cou On est trop, on est, on est on est chaud, on est, on est Dans le ghetto, on est, on est tous à s'tape pour la monnaie Dans le rétro, les condés, condés c'en ai trop, isolé-solé Rien d'un loveur, j'encule toutes les poucaves à la volée J'ai rien d'un loveur compare XXX à un lance-roquettes Okay, les pétasses qui m'aiment j'les prends en brochette Petit n'écoute pas ce que je dis des fois je pars en sucette Je peux écrire avec une go entre les jambes ça me pose pas de problème Le rap je m'en tape à part si y'a de l'oseille Ça me fait pas graille c'est les stups qui m'ont payé mon premier projet Son des halls un putain de bail et les mecs sont dopés J'suis opé grave et je m'en bats les couilles je peux même les donner Faudrait qu'on s'en sorte avec la mif les reufrés Mais putain Fleury c'est proche c'est près comme si je la frôlais Haut les mains on entend ça sans être étonné On se dit bonjour tout en sachant que n'importe qui peut se faire lever Choqué un mot qui nous fait bien tous rigoler On en a vu maintenant on veut juste rouler en cabriolet Ricocher entre la tess les keufs et les halls C'est dar prêt à tout négro on a les crocs On est trop, on est, on est on est chaud, on est, on est Dans le ghetto, on est, on est tous à s'tape pour la monnaie Dans le rétro, les condés, condés c'en ai trop, isolé-solé Rien d'un loveur, j'encule toutes les poucaves à la volée</t>
         </is>
       </c>
     </row>
@@ -2456,12 +2456,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Mon amour, mon ami</t>
+          <t>Sans titre</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Hey pédé, j'viens t'péter, rien laisser, la baiser, n'pas rêver, RDV sur Saturne La fierté, lhonnêteté, l'amitié, éviter la pitié, j'vends la mort à la pub Elle est bonne, faut qu'elle paye en nature, elle est pure, la feuille est sans ratures Pas majeure mais sa bouche est mature, le shit bulle, les pouces collent, on m'accule Wesh l'alien écailleux, t'es faya, tête ailleurs, dis-moi c'est quand tu sors le Cayenne Ouais la hyène se lâche, fait la chienne, se cache et plus tard se range comme Ayem Deux talons qui sortent de la gova, des bras maigres qui manient le cobra Igo on sort la langue comme Manny, Love Sosa, oui ma connasse Tiens goûte la teub à Adama, gros j'lance mon taga jusqu'en Alabama Ma punch dans ta gorge, la gorge à ta femme, viens voir la souffrance te dire wallah pas mal Igo j'suis sauvage et j'crie ounga wawa, Ounga ounga, le G sur la poucave Ounga ounga, nigga wawawawa, Ounga ounga, tant qu'on fout pas l'darwa J'sais qu'j'suis pas intégré, j'suis père de mes intérêts, les mains dans la merde alors qu'elles sont faites pour les enterrer J'sais combien tu paierais pour te faire opérer, de tout ce mal qui paraît si fort et qui semble empirer Viens m'voir et j'te dirai le prix d'la fonce-dé-dé-dé Si t'as appris à compter-ter-ter, on sera amis, enchanté-té-té Moi c'est Ade', moi c'est Ade' khey, sors la 'teille, vas-y claque le jour de paye J'veux pas d'ton Facebook, rrht tfou, t'sais que j'ai ma main sur ta fesse C'est limpide, ouais c'est deuss, c'est violent, c'est 9.1,on arrive y a d'la peuf' au volant, y a d'la meuf Elle t'a brisé le cur, fallait briser sa chatte, dire au gosse à sa reus' fais la bise à papa Pah, pah, pah, pah, ma haine qui te quen', j'suis en polo, la rage s'voit aux triceps Blablablabla, tu t'écartes tu te perds en direction du hall les cas soc' te visser L'espoir dans le coffre, la chance dans la cava, pardonnez-moi mais nos sorts sont macabres Dis-moi si j'ai tort ou si j'rappe la tate-pa, obscure est la force, le jedi est khabat 9.4 c'est l'Barça, 9.1 c'est l'Brésil, ouais connard, va l'dire à Kery Sinon à part ça, bien t'es pressé ? Non parce que ça va pas terrible Parce que j'suis seul dans ma tête, c'est la rage qui m'a élevé Que j'ai bicrave dans la tess' et qu'mon caleçon n'est pas en LV Faut du liquide, j'laisse pas couler une larme, pas une, pas une, pas une Fais bellek aux femmes, fais bellek aux putes, fais bellek aux paluches, paluches, paluches T'sais qu'on est vifs donc fais pas l'imbécile, on s'vide pas la vessie un meug dans les WC Oui on veut la belle vie, embarquer sur l'ferry, si t'as ché-tou des litres, vas-y mon gars fais signe Tu décolles, jatterris, bientôt j'côtoie des riches, la poudre dans la narine, César fait l'AVC J'l'ai quen' un mercredi, l'amène pas à la mairie, tu l'appelles ma chérie, j'lui mettais la fessée Viens j'te donne RDV, j'suis d'Paris j'suis pressé, igo j'vois tellement d'chiennes, j'mets une laisse sur l'PC J'mets une laisse sur l'PC, j'prends le game en PV, l'rap est mort, j'le déterre pour le ré-enterrer Ma drogue dans l'Gabbana Aux arrivants avec mon gars Bana J'sors ma hein-hein de mon Gabbana Ton oseille dans la poche de mon Gabbana J'fais l'amour à la hess' dans l'allée, elle se rhabille, j'me retourne Bismillah à l'aller, bismillah au retour Sers le trou d'balle à la douane, on déballe et taille-dé redwa Dans mes yeux c'est le vide, mon âme est perchée sur le toit J'vois l'espoir dans les yeux des p'tits, mashallah ça sent l'rêve Une sale envie d'décharger, on vit, on s'égare, on crève Ouais pas d'vie sociale, juste une vie d'cas social Le rap dans un local, va foutre ta schneck au sale Tantôt j'tue l'temps tant, tantôt c'est l'temps qui m'kill J'me sens mutant, tant différent dans la file Ouais j'suis bon qu'à compter, un joint d'beuh sur les lèvres Allez fuck ma bonté, et avec ça fuck mes rêves Tout c'que j'fais charbonner, tous les mêmes tous clonés Six du mat' détrôné à r'dessiner c'qu'est gommé Combien de sacs à pâtes ne savent plus sur quel genou danser Sur quel genou danser Ademo, Ladif Peace and lovés kiff Tout pour la mif' Tout pour le bif' Les sentiments ça ralentit, le cur fermé, là j'suis à fond Tu pètes plus haut que ton cul, on t'monte ton cul touche, touche le plafond On tire sur la laisse, t'aboies, on t'détache, tu perds la voix Nous c'est les gentils armés cramés conscients qu'on perd la foi Wesh à quand l'dernier kil' ? Pas demain, pas maintenant J'te fais danser avec l'oseille à chaque billet un nouveau battement J'tacle junkie potentiel, j'en fais ient ient fidèle Des loups qui fixent la Lune, moi être meilleur ami d'elle Chez nous on partage la hess', le cul d'la haute dans la caisse Casse un tour longue est la laisse, mon ange tu connais l'adresse Le temps d'un clignement les gens changent, moi je change en retrouvant la vue D'aucune poche on est dépendants, là j'suis fonce' en retrouvant la fum' Ils ont les photos, plus les souvenirs, on a les souvenirs, plus les photos Ouais on a même plus les potos, c'est chacun son bénéf', son auto Un gros fer sa mère, j'emmène la misère en balade Une balle pour chaque ennemi de mon frère, ça fait click, gala, gala Un putain d'biff, la mif', une ride en moins sur l'front de mon père Un putain d'biff, la mif', un sourire en plus sur l'visage de mon frère Le dos large, le coeur étroit Ta relation sur une pesette, si t'écoules pas, madame est froide Ce soir j'rentre pas à la maison Les portes se ferment et puis ne s'ouvriront qu'à la prochaine saison La misère dans un SLR, rentrer, tourner, sortir célèbre La vie me donne son cul, j'connais pas l'goût d'ses lèvres24</t>
+          <t>J'ai pas la vie de rrrrêve, bande d'enculés, j'ai pas la vie d'rêve J'ai pas la vie d'rêve Dis à ceux qui stressent qu'ils baissent leur froc et dis-leur qu'ils s'taisent J'leur fous dans l'zen c'est l'heure qu'il neige J'baise l'Etat vite fait, toujours d'la vitesse T'entends l'déclic BANG ! Joie quand ma montre s'appellera Big Ben Hé connard avance, j'fais pas dans la dentelle J't'la fous dans la dent t'as pas capté ? Prends ma bite ça t'servira d'antenne A part siffler pour prévenir qu'y a les shtars J'suis toujours pour l'PSG, c'est nous les plus vifs dans les stades Eh p'tit pédé, on prend ton corps on s'en sert d'bouclier On voit l'avenir avec beaucoup d'billets J'veux finir comme Maxwell Sheffield Pète la nounou d'l'enfer, mais avoir une nounou d'enfer avec les fesses très lisses Appelle la police, dis-leur que j'les baise, mais non pas comme toi j'les baise p'tit con, j'les baise vraiment Arrête de chialer, t'sens pas chaud car tu portes une arme T'es qu'une merde, à croire qu'ta mère t'a accouché lors d'une chiasse Eh copine, j'ai pas l'time, arrête de wizzer, j'dois faire le bi-ze, j'te l'dis direct baisons, zon pas d'bisous Ouaip ouaip, Ademo j'suis un mister moi, toujours l'mister, pour ça qu'tu m'crains hein ? p'tite chienne J'roulerai jamais en bolide, tant qu'les miens s'ront pas en Boeing, boring, boycott, j't'encule j'suis pas un poète Toujours mon brolic, la même puce cramée, les mêmes bruits Quand on m'appelle dans ma parano, j'appelle en mode allô oui allô oui ? quelqu'un m'entend ? j'dis pas y a foy eh, j'dis y a d'la bonne, d'la beuh ou d'la weed J'vis entouré d'rats et j'ai pas mis d'dentier sous mon coussin 2010 c'est quoi les bails, si j'paye mon grec c'est qu'tu m'passes un bout d'sein Et si tu kiffes pas la sauce, t'auras la mienne après Ça s'prend pour Indiana Jones, vue sur aile, kiffe la scène ? Pétasse, pédale, ferme ta gueule ou j't'enlève tes peusa Tu repartiras à poil, la vie m'a changé, un vrai lézard J'suis Jarod, j'suis Léon, un mélange des deux J'suis l'premier personne, vu qu'Personne, n'a peur de personne We-sheuh, ça tape fort à la porte saute par la f'nê-treuh J'suis pas d'accord pour qu'on m'arrê-teuh, c'est pas la fê-teuh Au passage hommage à Fleury, ou à la Santé d'Fres-nes Et autant dire qu'y a qu'à Chateauroux où la poisse s'y mê-leuh Laisse-les, laisse-les, Ademo POUM ! désolé J'suis esseulé est-ce les bolosses qui vont finir par m'ficeler ? Bou-bou-bouge de là putain J'suis comme Boubou j'lâche pas l'affaire Toujours le dernier d'la classe j'ai pas d'évoluer mentalement J'suis normalement conditionné pour m'défendre de ma force Au contact le tâcle, putain d'tâcle à la gorge Si j'attaque le joueur j'aurai plus rapidement la balle, j'aime pas attendre Allez file, t'as rien à faire ici hein On sait très bien qu'tu regardes si ?? ça t'fera goûter mes os vu qu't'es un chien Nous on assume à chaque choc, on voit pas la vie sans chèque, on a la vue d'un Jackpot check si t'es voué à l'échec Bambino y a pas d'argent facile, c'est du mito, d'mande à ceux au mitard ceux qui connaissent chaque définition du dico Ceux qui se sont secoué la teub comme un Orangina Ceux qui avec le temps ont vu s'effacer chaque moment de leurs images J'me permets d'dire ta mère la pute à l'Etat, au juge, au proc Tu baises des mineurs et c'est toi qui m'juge gros porc ? PEACE, rendez-vous tous là-haut, celui qui va t'juger, wallah tu vas pleurer jusqu'à t'en foutre la honte STOP, j'arrête de parler p'tit pédé, au frères déférés gardez la pêche, toujours liblou ?, personne peut nous sceller Depuis tout p'tit à traîner dans les allées, j'aime marcher seul j'suis taré Les mères pleurent donc les plats toujours servis salés-salés En fous d'vant les gars des rues A vingt ans rouler en Megan, t'as quarante ans toujours rien gagné Tous derrière des vitres teintés, si on tire c'est qu't'avais des vitres fumées T'as des problèmes ? on en a tous, qui va assumer ? T'es dans la hess, wallah tu changes pas d'slip toujours les jours ! T'es dans la hess connard, ton slip il sent l'shit et les couilles T'as gardé combien dans l'même jeans ? Tu vas voir des meufs pour les aveugler mais toujours le même redskin ! Allez file, contrat à mi-temps ou bien les tiges ? ? Imbécile, on n'a pas d'l'argent en faisant de la lessive Tu veux t'appeler Jean-Redoua toi aussi ? Tu veux baiser dans la piscine ? shhh, tais-toi, y a la douane, prends la prochaine sortie, attends ici.. Eh connard c'est méCanique La bise d'vant l'esCalier Si t'es pressé tu vas t'éclater, rentrer t'laver, ressortir armé Ademo, Tarterets là où j'ai grandi Fuck les jaloux, merci mon dieu qu'les miens et moi soient toujours en vie J'ai 91 100 d'chance de pas vivre d'la zik Ademo le mec qu'on n'écoute jamais sans préservatif Et au fait nique le monde, nique les rappeurs, j'suis pas un rappeur moi. Raboulez la thune et tenez-bien vos meufs RHAI</t>
         </is>
       </c>
     </row>
@@ -2473,12 +2473,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Oh! Oh!</t>
+          <t>Skôl*</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Sisi Son des halls mixtape, 2008, on est al Sisi, ok, ok check Fuck, fuck , bouge ta tête la France j'vais l'habiliter Pan, pan Danja té-ma ses dents sombres Le doigt d'pied sur la détente car j'm'imagine pas marcher sans pompe Qu'est-ce que tu ferais à ma place ? J'classe, j'claque J'ai envie d'thé ramène ma tasse Qui j'suis ? Ademo la voix qui disait a-ç Viens voir sisi j'ai l'as pas l'roi mais qui a dit qu'j'étais un démon Qui a dit Cacao dans mon lait caillé En mode calcinage gore, matinal , hors capitale J'force pas j'mitraille quand même Moins un au score j'peux t'faire perdre comme Zizou qu'égalise Et la qualité, on l'a comme t'as pas idée les bip dans la valise, ton pif dans ma farine Toute ma mif en Jamaïque, que ta clique sente la bague Mon son passera jamais en boîte, mais nique sa mère Ça fait t-t-t-t-t-t-t-t-vraa C'est die, facile les rimes en -aille, alors , écris quand j'graille ... fous le faya .... suite à venir ...</t>
+          <t>No veo el final de la lucha No hay un alto el fuego a la vista Un fuego que crece más alto, alimentado por la ignorancia y el orgullo Canibaliza nuestro propio lado Una división mortal Mil espinas venenosas, se alinean en los rincones de mi mente Ahórrame el peso de tu sentimiento Ahórrame los elementos indignos de tu corazón Déjame en paz con la energía Déjame con toda mi malevolencia, en la oscuridad Tomarás lo que quieras cuando me desarmes Toma lo que quieras Desármame Estamos corriendo en la oscuridad La oscuridad Todo lo que sabemos es el precio que pagamos Cuando todo está dicho y hecho Mientras volamos demasiado alto y ardemos en el sol Ardemos en el sol Ardemos en el sol Nos cargamos a nosotros mismos mientras asesinamos el pasado Las llaves del reino, encerradas en vidrio Rezamos por lluvia, y en su lugar obtuvimos sequía Y si nos dieran alas, serían hechas de plomo Hechas de No veo el final de la lucha No hay un alto el fuego a la vista Las mil espinas venenosas, se alinean en los rincones de mi mente Nos encontrarán en nuestras casas No quedará ningún lugar seguro para esconderse Toma lo que quieras Desármame Es el precio que pagamos Estamos corriendo en la oscuridad La oscuridad Todo lo que sabemos es el precio que pagamos Cuando todo está dicho y hecho Mientras volamos demasiado alto y ardemos en el sol Mientras corramos hasta el final No quedará tiempo para fingir Nos merecemos esto, Aprenderemos de lo que hemos hecho? O arderemos en el sol? No veo el final de la lucha No hay un alto el fuego a la vista Un fuego que crece más alto, alimentado por el odio y orgullo ardiente Canibaliza nuestro propio lado Una división que nunca crece Las mil espinas venenosas presionan cada vez más en lo profundo de mi mente</t>
         </is>
       </c>
     </row>
@@ -2490,12 +2490,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>On paye</t>
+          <t>Stupéfaction</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tu sais c'que c'est qu'payer ? Wesh dis pas nan connard Ici tout s'paie, ta gueule, demande à tes parents au chômage On paie salope bah alors fais les choses bien On paie wesh mais pas pour palper tes gros seins Un jour j'ai rêvé d'une banque devant mes chiottes pour mieux chier sur le monde Ademo check j'serai devant les autres T'as pas une galette devant moi si t'as pas la fève Trop vo-vorace dpuis lo-l'orage, niquez vos-vos races Mon p'tit reuf respire mal à ton avis combien la cure ? Combien la m'sure fait la taille de l'habitat Kho, combien la sucent? Coco chaud l'ticket, ta femme est compliquée Pour elle faut l'biff sinon ciao ciao Alors paie, paie, demande à so, à Corbeil Une valise plein d'bif xx sa tête avancée, même un lampadaire à lorteil On paie et cest ça qutaimes Ademo, Meda, check, vlà lthème qui tannonce la couleur Le violet, celle quon préfère On paie, on paie Nique sa mère, on paie Rien nest gratuit dans cmonde de chiennes La vie na pas dprix, pourtant on paie Jusquà en rendre des comptes après lcoup dpelle Depuis toujours on paie Endettés à perpétuité, à peiner On a tous pris cette peine ferme Sept ? coups dshlass dans les reins Tu paies pour vivre, tu paies pour crever En fait on paie pour perdre Y croivent que cest un jeu ces bâtards Un match de baseball ou quoi ? Y sbaladent avec des flashballs et nous avec des battes, cest ça? Cest sale, on paie à la balle, on paie au balon Jveux qules keufs saignent sur ltrottoir Tu crois vraiment que si jte braque tauras la chance que mon arme senraie ? Allez, danse sur ltrottoir Faut que jsorte un son qui paie Cri dguerre suivi dcri dhaine M-E-DA cest oim et dites-moi dalle Dalleux, damné à vie, amené à mort Tu veux fumer pour calmer les bails, gars? Alors paie Létat veut nous endormir mais même quand jdors jpaie La vie cest comme cette rayure sur lskeud Les soucis qui srépètent et tournent en boucle On vit, on meurt, on fume, on dort En gros, on paie, on saigne On paie, on paie Nique sa mère, on paie Rien nest gratuit dans cmonde de chiennes La vie na pas dprix, pourtant on paie Jusquà en rendre des comptes après lcoup dpelle</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>On s’dit que</t>
+          <t>Tar au C4</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>On sdoit davoir les reins solides dans un monde de fou Roule avec Dieu avant drouler un oinj, ouais mon couz Jai la rage, rappe pour moi pas pour ta gueule Jai dlinspi, donc ya pas besoin qujme bourre la gueule On est la vie dgangsta, sexe illégal man La nuit, la Lune, Paname, ses petites balades On aime nos balafres, les montre, que tu saches qui on est On sort du hebs les pecs bombés drague les Beyoncé Faut dla thune donc on la cherche tous les jours Pour mettre bien la mif, on emmerde tous les autres On marche la tête haute mais cerveau à lenvers On nique tout, on sdit qude toute façon on goûtera lEnfer On nattend rien, on nest pas instruits avec un brevet Ya qula roue dnos voitures qui tourne et qui finit par crever On gamberge dans les transports, le train a du retard Lun fume, lautre alcool, certains semportent Les claudos sendorment, ignorés dtout lmonde Un dealer passe, donne une pièce et roule un pilon Un bourge a du dégoût davoir vu tout ça Il pense à ce soir, à son club et à sa touze-par On vit sans scomprendre, à sjalouser Ça bicrave tout lannée pour aller à Salouzer Baiser des catins dans les privates Être les kings toute la night, revenir, et re-bicrave On sait refaire le monde, en parlant dhier Une vie dans le haram, demande pardon à chaque prière On sdit qule dînn, ça sera pour plus tard On sdit une femme, plus un plan cul, et puis une tasse Les yeux plus gros que la paire de LV Ya pas dembrouille mais on a toujours lregard énervé On veut la vie drêve donc on dort de plus en plus Les soucis rongent, et plus on y pense, plus on fume On trompe nos femmes, dis pas non yen a plus dun Alors on sfait du mal même en sfaisant du bien On est sauvages, la plus grande race animale On mélange minorité et majorité quand ya une sale image On shabitue à nos vies, même à la merde Avec pour but un mois dans lannée aller à la mer On est bloqués devant la télé tous les soirs instinctivement À écouter sans comprendre un État qui ment On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre pour une cause On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre pour une cause On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre pour une cause On slève, on scouche, sans aucun but à la foi Alors quon est sur Terre juste pour dire Allah u akbar Ouais igo On na quune cause dans cde-mon, quelle que soit ta religion Ya quun Dieu sur Terre un seul, et on oublie notre but Ce son cest pour les vrais, ceux qui msoutiennent Dédicace à K, Lixat, N.O.S, DIrty, RKM mes deux nahas qui tournent, Max et Bad Gardez la Foi, bientôt dehors les frères, inchAllah</t>
+          <t>XXX</t>
         </is>
       </c>
     </row>
@@ -2524,12 +2524,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ouai ma petite gueule</t>
+          <t>Toujours dans les bye</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ouais m petite gueule, ouais ma petite gueule Tu vas kiffer l'son ma petite gueule J'veux ni d'une femme qui soit une pute Ni d'un homme qui soit une pute J'encule pas un frère, j'ai jamais payé pour une pute Bats les couilles d'ces timps, mes conneries j'les paye assez Fuck la taule c'est pour le frère au mitard sans ses lacets Y'a pas d'hasard, d'hasard dans ma 'sère, tu l'sais En chien comme sans taga, taga dans ma cellule'zer Ouais mes frères, ouais ma mif', merci pour les mandats Sans vous, j'suis voué à la gamelle, sans télé, à faire un bad Les warriors on les baise, ils regardent mal, on les baise Si j'graille tous ces mythos j'vais finir par devenir obèse Faut qu'on opère entre vrais, y'a pas d'secret hesse J'te dis tout, qu'entre vrais, ça parle de peine et d'beurre On prie Allah pour toujours nourrir nos familles J'ai côtoyé tellement d'chiens, plus besoin d'animal d'compagnie Ouais la miss ça vient d'l'Essonne, prend le crime en levrette Pendant le somm' rêve à des sommes, fuck le dream pour le vrai Tu m'aimes pas ? Méchant, tiens y'a mes couilles à frotter Montre-nous pas ton argent, ou on pensera à t'sauter J'ai trop la dalle, mes crocs scieront les barreaux J'paierai ma part de pêchés, et l'Ciel m'dira les taros AK sors le Moët c'est bavon, j'la ken que si elle a des talons Ji3an j'irai me la faire si elle a le boule d'un étalon J'mets ma casquette sur scène, t-shirt Paris Saint-Germain Y'a du vert tu l'sais, Nabil visser ces chiens d'Germains Un pote qui tombe c'est la merde, j'reste toujours seul dans mon affaire J'cantine la plaque di-di-direct, au bigo détails du rêve J'envoie un talon tu connais, j'dis rien mais jamais j'oublierai Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Commission rogatoire, dans mon phone-tel y'a qu'des bonnets Les stups convoquent le répertoire, chaque bitch a deux ballons d'volley Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule J'galère au barreau, j'té-ma l'hélico qui barrode J'suis tous les jours en train d'pousser, t'inquiète c'est la Juge qui m'arrose J'sors du 9-1, serre bien tes seufs, j'viens Préviens tes reufs ou préviens tes reus Ratatatata dis-leur que j'suis pas vivant Ça tire des penaltys, en promenade ou à FIFA Tu sais qu'on a des armes, t'en as aussi y'a quoi ? Tant qu'j'ai deux couilles devant, tu peux en avoir mille derrière toi Bref rien à prouver, cent grammes de plus à la pesée L'oseille veut s'approcher, on va finir par l'accrocher S'en fout d'devenir des stars, on veut l'pécule du statut Sur le terrain dès l'sbah les ients-cli font bouger les statues J'sais qu't'as oublié, mais j'te l'rappelle à temps On a perdu des clients, monté les courses de ta Maman J'suis l'fils de mon daron, j'suis pas l'fils de la rue La Juge veut m'faire ber-tom, j'la baise debout si je n'm'abuse Tu veux un tour de magie ? Avec des madeleines j'fais des crêpes Fleury même un Chinois s'est caler un bloc entre les fesses Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule J'commence trop haut en attaque, j'porte le numéro 18 Tu veux pas d'bolosse dans ta life ? Ok tiens mon 06 Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule J'avance, j'crois, j'pense qu'à un oinj de beuh Écrou 400-362 Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Le monde est sourd, me3lich, j'veux pas lui parler J'suis pas né d'la dernière peine de prison J'crois même qu'j'suis pas né Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Ok on prie Allah pour toujours nourrir nos familles J'ai côtoyé tellement d'chiens, plus besoin d'animal d'compagnie Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Ouais ma petite gueule, ouais ma petite gueule Commission rogatoire, dans mon phone-tel y'a qu'des bonnets Les stups convoquent le répertoire, chaque bitch a deux ballons d'volley</t>
+          <t>Check pour ma vie pour ma rage aime ma grosse aime ta chienne veulent la lune je l'enmene on baise sur ma comaide Y'a pas de comique y'a pas de phozere connard je ressemble a personne gros on est droit meme quand je vise les dollars Les mecs de tess disent ademo arrete pas le rap t'es ouf Mais la chienne qui me thaine je deviens fous je vois pas les sous Me parle pas de rapeur quand je sors du studio j'oublie tous ca Les freres me connaissent ouais quand je pisse quand je dis tous bav Les jaloux portent l'oeil composent le 17 avec un regard La je suis dangereux comme quand un batard me visserent me recale C'est quoi ce delire ? les tapettes jouent les chauds Les chauds font les choses ferment ta gueule ou je te rend sterile Une chienne je lui paye pas un MacDonald Arrete tetola faut que da sess comme dit le zen de maradona Ce soir en hess en beton de la tess ou de les taules lmec du ghetto et toujours dans les bye des cheques ou de les loves de la freche du zen Je sui dans netfix</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Pablo Escobar*</t>
+          <t>Tout pour la monnaie</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Pablo, Pablo Escobar Brr Pablo, Pablo, Pablo Escobar Escobar</t>
+          <t>C'matin cest die jme lève tôt, plus tôt qudhabitude La gueule dans lsac il va faire beau comme à Malibu Alors jme passe un coup d'eau parce que ma tête chauffe Comme la tess comme la merde devant la fête foraine Jsors paire de Stan Smith, survet noir T shirt long serré, Bleu ciel pour faire style Et jmarche seul tout comme dhab debout seul Les soucis sarrangent alors mes ongles sallongent pas à bout d'seum Sur ma route jcroise un poto tchek, bien ou bien frelon cest quoi les diez ? ? tu connais au fait combien l'100 meu-g ? Viens tà lheure jverrais si jai chose-quel Pour linstant jpense à ma mif, faire des gros sous, faire des gros chèques Sisi Ademo ce soir même bât comme dhab Vas-y, vas-y, cest ça, même bail même come? C'matin cest die, jdois faire d'la thune en masse Jveux mon cocktail, ma plage, plus vendre ça pue langoisse Ça y est jsuis devant la gare jmets mes lunettes de vue Pour passer pépère les contrôles ferroviaires que faire de plus ? Si c'nest attendre larrêt d'ma destination Corbeil, jvais dans mon ancien quartier, dans cette aire de lévitation Jcroise 23 patrouilles mais fuck Jsuis déterminé ma vie cest soit j'suis bien soit j'meurs sous l'block Jai rendez vous avec un fantôme pour mon lo-ki Ma parano fait qu'chacun que j'croise en route est analysé au scribe C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène Ok fait parler bails, jespère que c'est du gras que c'est du bon Cest la thune pom-pom-pom, ça a l'air du bon Alors hop dans lsac, on y va Le stress menvahisse jusquau crâne jusquaux fesses Jprends l'chemin du retour, recouvre mon zen des lunettes Du cou la corde au bout jredoute la horde de boules Jsuis dans le train pépèrement, mes sacs loin d'moi Au cas où ça merde, au cas où les chiottes sont pas loin d'moi Jpeux t'dire qu'les gens jles calcule pas ? regarde même pas jlui parle dans lcrâne ya plus d'place A mi-chemin le stress est parti Pourtant yemma cest la vie qui s'joue dans cputain dscénario dla zic Jarrive ok, faut faire vite vite ok Disloqué jentends monsieur vos papiers sil vous plaît Merde, cest bon jai compris faut tracer Le comico ma pris en chasse filoché comme un apache Jsuis dans lpétrain jpense à la mif et devant l'fait acccompli Jgarde les bails, nique leur mère a ces sheitans Ya plus d'temps à perdre ya plus ltemps dfaire Jvois des bâtiments jy rentre vert Jouvre lascenseur jle coince et lâche le sac Le referme pour pas quils crient ces keufs, ces bâtards de rats Jressors, plaquage sur le sol, mon bagage il est où ? dans ton cul à 2 doigts du savatage C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène 48h dgarde a v en mode interrogation Pourquoi tas couru ? Tavais un sac ? 23 insultes fusent tapette 23 claques il m'ruse la tête vu qu'j'la mets a lenvers au stup Jentends des échos comme quoi l'sac aurait été retrouvé Peur d'couler j'suis pas loin du dépôt Les poulets font tout pour m'faire baver, bah voyons ! Pas lbac et tu veux m'plaquer ? Si j'tombe jpense à la mif, à la perte de temps Soit Fleury soit Fresnes on verra bien comment ça merde dedans Et là un keuf rentre avec mon sac, le seum putain Bon bah fuck ça sent pas bon l'cur bat son plein Jaurai p't'être dû courir plus, cest sûr Au pire ? jusquà c'quils me lâchent et nen puissent plus Au lieu d'ça ça a merdé Fallait bien qu'ça arrive au bout d'100 fois sur la ligne du C ou du RER D À Corbeil ça merde, Juvisy ça merde, Ivry ça merde, trop de keufs sa mère Lappel de lordre cest notre vie, cest en nous mec Lhistoire cest quoi ? Cest pour tout, tous on sembrouille check Un lo-ki dans lce-sa, le schtar cest lbail Mais si j'te dis que le sac ? on l'a rotte-ca ça fait mal Ça sauve mais bon, même si on est pas tombé Celui qui a appelé le diez man, va falloir l'plomber C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène</t>
         </is>
       </c>
     </row>
@@ -2558,14 +2558,10 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Rap vner</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>On a fait l'saut d'l'ange, dans l'magma, la tête la première 9.1 zone franche, ça pue l'zeb, la kebab sauce blanche La bite comme celle qui sort de notre gland Vision d'l'amour une chatte en gros plan La descente est amorcée, hash et sky corsés T'envoient valser dans les bras d'Morphée aller On peut s'procurer tout c'que tu veux, absorbé yeah Et on t'sourit mais on sait que ton nez va morfler Narine droite, narine gauche Ça remplace l'oxygène pollué des parigots Les tox gobent les excta' comme des haribos Et s'en cloquent quand c'est la fin des haricots El Manito en a marre du factice, il veut son MAC-10 en calicot Des coups d'haschisch, gros, comme ses balistos Les petits s'activent tôt, convoitent le bien des aristos Tous brigante dans l'impasse comme Carlito On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner Respect à ceux qui font des mandats, portent le street étendard Au tribunal, s'défendant à la tigre et dragon Ne te causent qui si c'est rentable, la cognent que différentes dames Ne pouvant trouver l'mental de l'idéal gonz' On a la bite et l'bras long, prends ton ticket, sale con Si tu veux l'bras d'fer, ou si tu veux piper la trompe J'rappe la vie des bas fonds, des tés-c' anti-traîtres à fond Qui se lèvent si tes gars tombent, de vise' les sales tronches Nos mères ont depuis longtemps quitter l'balcon hein hein Marre de voir embarquer par des flics ses garçons Mais pour nous le smic, c'est pas bon, c'est pire qu'l'hécatombe Même en étant l'employé du mois, j'vais broyer du noir De plus, littéralement, beaucoup voudraient l'faire Comprends que si l'on stagne, c'est qu'nos pieds sont recouverts d'terre Le plein feeling grâce à nos blundfilis Nos battements de cur militent, à chaque heure, s'divisent sauvagement On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner J'maque, j'maquette Mac Macain, ma g', ma guette J'm'inq', j'm'inquiète pas Mac maqué, y'a pas, y'a pas d'magma lèze-ba L'p'tit mental, et j'rime sans tal', puissance de l'année Et instantanée, je brille dans le bal des balles, tristement taré J'lâche ma cra, cra-cra-cra, sous crack, j'crache tout Dans mes yeux, où la flamme qui cra-cra-crame tout Y'a plus d'âge, et ouais ma belle euh-euh Pour avoir d'la peine, pour savoir qu'la haine aime nous sortir la pelle euh-euh La balle est lancée, pas d'élan c'est, pas grave, aller danse et manigance Et ma séquence détale l'essence, ter-ma les jantes gros J'rime la dalle euh la dalle euh, vis d'la malle et nique la salle salle euh Vise la valeur de mon rap, vise comme ça parle parle euh Ademo, Ténébreuz Click, pas d'carotte ma gueule Tu nous sentiras venir même si t'as l'nez à Michael Jackson Quand j'baise, minus, tu pourrais perdre la vie J'apporte tellement d'virus qu'on d'mande à mon stylo d'mettre un préservatif ouha On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner On jette une vision assez nette, le fessier sur la sellette L'6.6.6 voit plus de pêchés que d'hassannets Trop d'frères s'tuent, disons qu'ça s'vé-'ner, le décès sera célèbre Si si, si si, l'bus' d'la rue c'est diezer donc j'rappe vé-ner Le bus' d'la rue c'est diezer donc j'rappe vé-ner Donc j'rappe vé-ner, le son des halls, Ademo, Ademo Tarterêts, Tarterêts 91 jusqu'au 9.4, Putain On est à-l, K-Tana gros, yeah Yeah, tu connais Kevin Ra', tu connais, -mos C'est pour le son des halls mixtape Nos, le fraté, Ade-mo, avant la mixtape, yeah yeah, yeah1</t>
-        </is>
-      </c>
+          <t>Tu connais</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2575,12 +2571,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Retrouvailles</t>
+          <t>Wesh les mecs*</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Hé, Je reviens dans la partie allez ouvre ta bouche avale Rifle la matrix si j'ai les couilles encore plus grosses qu'avant Tu veux du sale t'en auras, t'iras toucher au D4 Les pecs j'les bombe haha, sous l'tee-shirt j'ai du C4 J'ai pas changé, j'ai évolué Sois tu baisses, soit tu stagnes Soit tu fais tes sons en zonz, en sortant tu fais du cash J'vais t'faire monter en l'air, écoute mon son et c'est fini Tu veux faire l'avion comme lors d'une intervention chez les iris Soûlé soûlé là, j'viens m'défouler La haine m'a trouvé et j'l'ai évacuée sous mes Nike Fort en maths depuis qu'j'compte le temps qui m'reste Le théorème de ma bite hardcore pour ça qu'y a des chiennes qui m'aime La haine me nourri, la hess me sourit Sur eux que j'prend le plancher pour un coup de sure Hein ma vie de galérien, j'fini toujours par l'giro de poulaille Sisi naha continue de tourner, bientôt les retrouvailles x2 J'veux pas faire un titre , j'veux juste vivre ma vie J'ai de la dynamite, ouais je t'invite à fuir J'vend pas de zik l'amis, j'bibi à prix d'amis J'sors ma bite ah oui si tu veux de la vitamine Les mecs j'ai l'seum, j'ai la dalle, j'ai le ventre vide Les MC's pètent un câble tellement je monte vite Je vise je vise le sommet, Jack et mon shit tu veux consommé Du mal j'en suis conscient mais Je t'avance 2-3 quettes histoire de faire un peu d'pépètes Je m'en bas les couilles de prendre perpettes À part dieu personne m'effraie Encore un nique la police, pour faire kiffer mes frères J'rappe pour ceux qui galère dans le hall, toujours on risque de ce faire pété Je m'écarte des pd's, des salopes XXX baisé ramène de la drogue histoire de déstresser Vue que j'ai le 11 dans ma che-po , une grenade pour le comico</t>
+          <t>Paroles venant d'un extrait Mais moi jveux que tu danses Tcha tcha tcha tcha Faut que je sorte un flow Le flow dune colombienne Wesh les mecs wesh vous êtes là Posés dans le hall tous sous zetla La vie cest gang ouais jminquiète La khaténa dans la tête Wesh les mecs wesh vous êtes là Posés dans le hall tous sous zetla La vie cest gang ouais jminquiète La khaténa dans la tête</t>
         </is>
       </c>
     </row>
@@ -2592,12 +2588,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Rien d’un loveur</t>
+          <t>Wow</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Chui pas un lover alors toutes les meufs se mettent loin de moi Chui pas un chanteur, j'ai fait un rêve où tous les keufs se mettent un doigt Chui fils de bandit, mon papa à moi est un gangster Si on respecte les anciens à 22 ans je veux être un ancêtre J'ai pas la taille prévu pour dunker, alors je grimpe sur les tass' J'me demande si je suis bon qu'à détaille, qu'à détaille À la Une y a qu'la thune et la thune voit qu'la lune dans mon tunnel La tumeur de la vie nous tue, une erreur venu de notre tumeur Argent et bails bienvenu au moyen-âge Sex, money, action détail et tout l'monde t'aime comme Mickael Jackson J'm'appel ni Jason, ni Bryan XXX Transforme en Super Sayan, ça cisaille XXX J'suis opérationnel, j'écris c'que j'aime et pis fuck toi On verra l'soleil XXX mais on espère le voir un certain soir J'suis un tigre, j'vivrais jamais comme un mouton Quitte à prendre 20 piges, parce qu'il y a ceux qui tapent le steak et ceux qui s'grattent leurs boutons On est trop, on est, on est on est chaud, on est, on est Dans le ghetto, on est, on est tous à s'tape pour la monnaie Dans le rétro, les condés, condés c'en ai trop, isolé-solé Rien d'un loveur, j'encule toutes les poucaves à la volée J'encule toutes les balances, comment vivre en sachant que t'en ai une ? J'respecte tout les parents, l'impression qu'on m'a chié sur Neptune J'suis la preuve vivante qu'on peut être barge dans le son C'est ce qu'y me rend surpuissant, j'rêve pas d'faire d'la chanson J'ai rêvé de mettre les pauvres à l'abri, c'était un rêve de gosse Désolé mon Dieu mais j'rêve plus que les poches pleines de drogue Venez prendre votre dose, j'veux voir les billets roses Voilà le but d'mon rôle et j'sais que j'vais en chier d'douleur Tu peux te faire péter par un voleur toutes tes économies Fait attention si on sait que t'as un trésor on vient chez toi avec la colonie Foolek à la Vegeta, à la Mark Landers J'ai toujours coupé les XXX très sale, à la Highlanders Par ici, là j'ai le shit allez vite schlaggez lâchez Les dollars venez acheter apprécie la zeb, la vraie Maléfique près de la haine pas de bétises, ta paix j'la baise Allez dire que j'rap que des saletés, Ademo s'en bas les yeu-cou On est trop, on est, on est on est chaud, on est, on est Dans le ghetto, on est, on est tous à s'tape pour la monnaie Dans le rétro, les condés, condés c'en ai trop, isolé-solé Rien d'un loveur, j'encule toutes les poucaves à la volée J'ai rien d'un loveur compare XXX à un lance-roquettes Okay, les pétasses qui m'aiment j'les prends en brochette Petit n'écoute pas ce que je dis des fois je pars en sucette Je peux écrire avec une go entre les jambes ça me pose pas de problème Le rap je m'en tape à part si y'a de l'oseille Ça me fait pas graille c'est les stups qui m'ont payé mon premier projet Son des halls un putain de bail et les mecs sont dopés J'suis opé grave et je m'en bats les couilles je peux même les donner Faudrait qu'on s'en sorte avec la mif les reufrés Mais putain Fleury c'est proche c'est près comme si je la frôlais Haut les mains on entend ça sans être étonné On se dit bonjour tout en sachant que n'importe qui peut se faire lever Choqué un mot qui nous fait bien tous rigoler On en a vu maintenant on veut juste rouler en cabriolet Ricocher entre la tess les keufs et les halls C'est dar prêt à tout négro on a les crocs On est trop, on est, on est on est chaud, on est, on est Dans le ghetto, on est, on est tous à s'tape pour la monnaie Dans le rétro, les condés, condés c'en ai trop, isolé-solé Rien d'un loveur, j'encule toutes les poucaves à la volée</t>
+          <t>Négro c'est street street Blarrr dans ta tête chacal Une pute plus une pute égal mes boules et deux bouches gava Ça fait clic-clic tu connais la technique Clic-clic cri cri paw et c'est le déclic Nique ta race et ta femme affame car toujours affamée Gros Dans la face, c'est avarié, j'ai la dalle donc garde les cros Vas-y bouge tes zeub bouge des zeub jusqu'au bout de la night Bouge tout ce que t'a j'men bats les couilles t'en que tu ramène la maille Nous ce qu'on veut c'est la maille, le biff on n'a pas pas l'temps XXX On dé-dérégler putin, t'es t'es con ou quoi Vroum,vroum Et vas-y accélère igo Wow,wow,wow Wow, wow, wow c'est quoi que j'entend là et Moi je dois faire de la tune, le rap je lui baise sa mère la pute XXX de la pur Quand je fait de la pur, j'assume la monter jusqu'à la chute Tu veux du shit viens voir mes chi-chipotes pas ou je t'insulte À qui la faute, à qui la faute si on devient méchant À qui la faute, à qui la faute dit moi Wow, wow, wow N.O.S, Ademo on est pas très tendre Tu la sentis dans ton ahh ta fait Wow, wow, wow Perdu 20 dollars Wow Y'a le ragla Wow À 13 heure y'a les keufs où là Wow, wow, wow Tu pars pour 20 piges Wow Il baise ta copine Wow Un pédé te drague dans ta tête ça fait Wow, wow, wow Les you-voi contrôlent le terrain Et les poulets sont zehef On bibi dans la zone et les autres cités nous déteste Si j'pose sur le son des hall, c'est pour fumer le sept Si j'vends là.. c'est pour faire snifer le seize Chui tout-tout-tout-toujours en infraction à 520 dans la structure et l'autre dans le caleçon Le litrons n'à pas fait de nous des héros pu cramé pu armé les autres villes on baise les hétéros J'me disais pourvue que je me face pas pété avant de posé Pour vous je me face pas pétété avant de buggé Cash-cash-money dans les bacs, litrons dans les caves J'pise mon avenir dans des clicos qui finisse par se poucav Des-des-des gangstas, thugs dans la tête C'est la misère et nos darons lisent le XXX dans la tess À qui la faute, à qui la faute si on devient méchant À qui la faute, à qui la faute dit moi Wow, wow, wow N.O.S, Ademo on est pas très tendre Tu la sentis dans ton ahh ta fait Wow, wow, wow Perdu 20 dollars Wow Y'a le ragla Wow À 13h y'a les keufs où là Wow, wow, wow Tu pars pour 20 piges Wow Il baise ta copine Wow Un pédé te drague dans ta tête ça fait Wow, wow, wow</t>
         </is>
       </c>
     </row>
@@ -2609,12 +2605,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sans titre</t>
+          <t>YA*</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>J'ai pas la vie de rrrrêve, bande d'enculés, j'ai pas la vie d'rêve J'ai pas la vie d'rêve Dis à ceux qui stressent qu'ils baissent leur froc et dis-leur qu'ils s'taisent J'leur fous dans l'zen c'est l'heure qu'il neige J'baise l'Etat vite fait, toujours d'la vitesse T'entends l'déclic BANG ! Joie quand ma montre s'appellera Big Ben Hé connard avance, j'fais pas dans la dentelle J't'la fous dans la dent t'as pas capté ? Prends ma bite ça t'servira d'antenne A part siffler pour prévenir qu'y a les shtars J'suis toujours pour l'PSG, c'est nous les plus vifs dans les stades Eh p'tit pédé, on prend ton corps on s'en sert d'bouclier On voit l'avenir avec beaucoup d'billets J'veux finir comme Maxwell Sheffield Pète la nounou d'l'enfer, mais avoir une nounou d'enfer avec les fesses très lisses Appelle la police, dis-leur que j'les baise, mais non pas comme toi j'les baise p'tit con, j'les baise vraiment Arrête de chialer, t'sens pas chaud car tu portes une arme T'es qu'une merde, à croire qu'ta mère t'a accouché lors d'une chiasse Eh copine, j'ai pas l'time, arrête de wizzer, j'dois faire le bi-ze, j'te l'dis direct baisons, zon pas d'bisous Ouaip ouaip, Ademo j'suis un mister moi, toujours l'mister, pour ça qu'tu m'crains hein ? p'tite chienne J'roulerai jamais en bolide, tant qu'les miens s'ront pas en Boeing, boring, boycott, j't'encule j'suis pas un poète Toujours mon brolic, la même puce cramée, les mêmes bruits Quand on m'appelle dans ma parano, j'appelle en mode allô oui allô oui ? quelqu'un m'entend ? j'dis pas y a foy eh, j'dis y a d'la bonne, d'la beuh ou d'la weed J'vis entouré d'rats et j'ai pas mis d'dentier sous mon coussin 2010 c'est quoi les bails, si j'paye mon grec c'est qu'tu m'passes un bout d'sein Et si tu kiffes pas la sauce, t'auras la mienne après Ça s'prend pour Indiana Jones, vue sur aile, kiffe la scène ? Pétasse, pédale, ferme ta gueule ou j't'enlève tes peusa Tu repartiras à poil, la vie m'a changé, un vrai lézard J'suis Jarod, j'suis Léon, un mélange des deux J'suis l'premier personne, vu qu'Personne, n'a peur de personne We-sheuh, ça tape fort à la porte saute par la f'nê-treuh J'suis pas d'accord pour qu'on m'arrê-teuh, c'est pas la fê-teuh Au passage hommage à Fleury, ou à la Santé d'Fres-nes Et autant dire qu'y a qu'à Chateauroux où la poisse s'y mê-leuh Laisse-les, laisse-les, Ademo POUM ! désolé J'suis esseulé est-ce les bolosses qui vont finir par m'ficeler ? Bou-bou-bouge de là putain J'suis comme Boubou j'lâche pas l'affaire Toujours le dernier d'la classe j'ai pas d'évoluer mentalement J'suis normalement conditionné pour m'défendre de ma force Au contact le tâcle, putain d'tâcle à la gorge Si j'attaque le joueur j'aurai plus rapidement la balle, j'aime pas attendre Allez file, t'as rien à faire ici hein On sait très bien qu'tu regardes si ?? ça t'fera goûter mes os vu qu't'es un chien Nous on assume à chaque choc, on voit pas la vie sans chèque, on a la vue d'un Jackpot check si t'es voué à l'échec Bambino y a pas d'argent facile, c'est du mito, d'mande à ceux au mitard ceux qui connaissent chaque définition du dico Ceux qui se sont secoué la teub comme un Orangina Ceux qui avec le temps ont vu s'effacer chaque moment de leurs images J'me permets d'dire ta mère la pute à l'Etat, au juge, au proc Tu baises des mineurs et c'est toi qui m'juge gros porc ? PEACE, rendez-vous tous là-haut, celui qui va t'juger, wallah tu vas pleurer jusqu'à t'en foutre la honte STOP, j'arrête de parler p'tit pédé, au frères déférés gardez la pêche, toujours liblou ?, personne peut nous sceller Depuis tout p'tit à traîner dans les allées, j'aime marcher seul j'suis taré Les mères pleurent donc les plats toujours servis salés-salés En fous d'vant les gars des rues A vingt ans rouler en Megan, t'as quarante ans toujours rien gagné Tous derrière des vitres teintés, si on tire c'est qu't'avais des vitres fumées T'as des problèmes ? on en a tous, qui va assumer ? T'es dans la hess, wallah tu changes pas d'slip toujours les jours ! T'es dans la hess connard, ton slip il sent l'shit et les couilles T'as gardé combien dans l'même jeans ? Tu vas voir des meufs pour les aveugler mais toujours le même redskin ! Allez file, contrat à mi-temps ou bien les tiges ? ? Imbécile, on n'a pas d'l'argent en faisant de la lessive Tu veux t'appeler Jean-Redoua toi aussi ? Tu veux baiser dans la piscine ? shhh, tais-toi, y a la douane, prends la prochaine sortie, attends ici.. Eh connard c'est méCanique La bise d'vant l'esCalier Si t'es pressé tu vas t'éclater, rentrer t'laver, ressortir armé Ademo, Tarterets là où j'ai grandi Fuck les jaloux, merci mon dieu qu'les miens et moi soient toujours en vie J'ai 91 100 d'chance de pas vivre d'la zik Ademo le mec qu'on n'écoute jamais sans préservatif Et au fait nique le monde, nique les rappeurs, j'suis pas un rappeur moi. Raboulez la thune et tenez-bien vos meufs RHAI</t>
+          <t>Faut quon senjaille, là jsuis dmauvaise humeur Ya quoi dplus normal quun Algérien qui veut faire du beurre ? Si jfais du lourd, jpèse plus le poids des mots Tu connais lhebs, tu connais la rue, bah tu connais Ademo Tu msuis, tu crois qujai des tunes, petit naze Tu mlâcheras dès qutu verras qumes poches sont vides T-Bag Tu fais du son, tu penses être le meilleur boug qui rappe Mais l'heure tourne et ta bouche pue, Tic Tac, arabes et renois ça galère Pourtant nos meilleurs amis sappellent Philipp et Jack Daniels Révolutionnaire donc en dépit pour se faire Ni Sarko, ni Hollande, votent Marine Le Pen Face aux miradors on dira qujsuis illuminé Poto jfais pas dcadeau donc jpasserai pas par quatre cheminées LÉtat mdégoûte, il voudrait quj'vive un Enfer Donc jleur casse les couilles comme un motherfucking string à lenvers Ils augmentent les clopes donc les ients-cli achètent moins dbarrettes Jai demandé dlaide ils mont dit retourne dans ta maison darrêt Ma vie est dure, tout est dur dans la vie Donc jai pas compris quand on ma dit tu fais dlargent facile Petit on mdisait qujétais un trou dballe Mais jtaurais chié sur la gueule si javais été un trou dballe Jai eu la dalle donc jai tapé la barquette On ma dit tu veux manger ? Tu mangeras beaucoup plus aux assiettes Des mots fléchés en attendant la flèche dCupidon Si jai dla peine, jrelativise, dautres ont des peines de prison Et jsais qutu sais quje sais moi Tu marches, tu regardes de travers, tu roules de travers, 't'es pas un mec droit Lhabit nfait pas le moine, donc à poil sera la fille Le jour sera une femme, une chienne sera la nuit Ni Popeye, ni Mary Poppins Les mineurs veulent être dépendants, donc smettent à la nicotine Les rappeurs scroient forts, avec des écrits horribles Spermettent de jouer avec le micro comme Philippe Risoli Les petits écoutent, oublient les sourates Les mots rebeu sortent moins dla bouche des arabes que des tous-bab Et jlance pas des punchlines, jlance des pêches Sur Facebook créer un groupe jpeux pas, jpréfère chanter seul La Marseillaise jlaurais chantée, si elle sappelait la Parisienne Les Bleus jles aurais supporté si ils avaient pas perquis moi et mon petit frère Cest plus les keufs, cest les jeunes qui font la loi Les MCs ont des guns, ouais mais lseul truc quils tirent cest la chasse Et gros nashave, sérieux jte jure jai pas la tête Toujours un truc auquel on tient, tu mens si tu dis qutas rien à perdre Pour survivre certains font la manche dans tes bras Moi jai vendu dla coke aussi blanche que tes bas Tu kiffes, tu sniffes, tu lsais ya pas drecette Les pauvres évacuent par le cul, les riches évacuent par le zen Les tatouages cest plus pour les taulards Maintenant ils tombent en bas du dos des meufs qui aiment trop ça Plus rien mexcite à part si miss tu baises en talons Sinon next vite, un frère en taule, faut qujenvoie un talon Tu kiffes le swag ? Du biff, on fera les bails Cicatrices Gucci, cicatrices LV, voilà mes marques Si ltemps cest dlargent, combien deviennent riches en cinq minutes ? Tout roule comme sur des roulettes ouais, sauf que la roulette est à moitié russe Ça fait des chromes aux ients-cli, comme fait la Chine On svenge en investissant largent sale dans des laveries Le bail cest tcheck-moi si tes un homme, suck-moi si tes une bitch Les traîtres cest à la mode, les poukaves veulent leur featuring Tu fais lmalin, aujourdhui tu jettes ton pain Tu verras demain tu lramasses Tu lregrettes et tu pleures Jporte la rue sans plainte, comme en taule Ce monde ten viens solo et ten repars tout seul Sors du 9-1, TZ et si taimes viens Linstru jlemballe et on va tfaire fumer du seum On ma dit sans argent, ici tes rien Jai dit ya quoi dplus normal Quun Algérien qui veut faire du beurre ?</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2622,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Skôl*</t>
+          <t>Y’a plus d’âge</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>No veo el final de la lucha No hay un alto el fuego a la vista Un fuego que crece más alto, alimentado por la ignorancia y el orgullo Canibaliza nuestro propio lado Una división mortal Mil espinas venenosas, se alinean en los rincones de mi mente Ahórrame el peso de tu sentimiento Ahórrame los elementos indignos de tu corazón Déjame en paz con la energía Déjame con toda mi malevolencia, en la oscuridad Tomarás lo que quieras cuando me desarmes Toma lo que quieras Desármame Estamos corriendo en la oscuridad La oscuridad Todo lo que sabemos es el precio que pagamos Cuando todo está dicho y hecho Mientras volamos demasiado alto y ardemos en el sol Ardemos en el sol Ardemos en el sol Nos cargamos a nosotros mismos mientras asesinamos el pasado Las llaves del reino, encerradas en vidrio Rezamos por lluvia, y en su lugar obtuvimos sequía Y si nos dieran alas, serían hechas de plomo Hechas de No veo el final de la lucha No hay un alto el fuego a la vista Las mil espinas venenosas, se alinean en los rincones de mi mente Nos encontrarán en nuestras casas No quedará ningún lugar seguro para esconderse Toma lo que quieras Desármame Es el precio que pagamos Estamos corriendo en la oscuridad La oscuridad Todo lo que sabemos es el precio que pagamos Cuando todo está dicho y hecho Mientras volamos demasiado alto y ardemos en el sol Mientras corramos hasta el final No quedará tiempo para fingir Nos merecemos esto, Aprenderemos de lo que hemos hecho? O arderemos en el sol? No veo el final de la lucha No hay un alto el fuego a la vista Un fuego que crece más alto, alimentado por el odio y orgullo ardiente Canibaliza nuestro propio lado Una división que nunca crece Las mil espinas venenosas presionan cada vez más en lo profundo de mi mente</t>
+          <t>Y'a plus d'âge, j'sais pas comment j'vais faire pour rapper c'texte Y'a plus d'âge c'est l'thème, y'a plus d'âge pour enculer le système Y'a plus d'âge pour chopper une maladie incurable, y'a plus d'âge pour s'faire baiser par une femme Y'a plus d'âge pour etre dans la merde jusqu'au cou, plus d'âge pour préférer la Jack Daniel's plus qu'leau douce Y'a plus d'âge pour voir une fille à quatre pattes, plus d'âge pour survivre d'un amour briser card-pla Y'a plus d'âge pour finir sa vie dans la rage, tourner la page, couper les liens désert à la hache Y'a plus d'âge pour faire un gosse negro, plus d'âge pour vendre d'la drogue, plus d'âge pour consommer sa mort ouais gros Y'a plus d'âge pour pleurer tout seul tout en douleur, y'a plus d'âge pour crever tousser tout en douceur Y'a plus d'âge pour s'enfiler un glock les gants et l'collant, plus d'âge pour s'evoler dans un mauvais virage au volant Ouais gros dit moi qu'est ce que t'envisage ? peine peine au visage, la haine La haine brille car y'a plus d'âge, chez nous, on traine on traine on vit mal Sa s'baise sa reste bizarre, le respect n'existe plus y'a plus d'âge Ouais gros, les mecs te tirent dessus, pour te dire fils de pute y'a plus y'a plus y'a plus d'âge 13 ans cette miskina te suce, l'respect n'existe plus, y'a plus y'a plus y'a plus d'âge Y'a plus d'âge pour vivre en marge, y'a plus d'âge marche droit ou zig-zag pour être rider y'a plus d'âge Y'a plus d'âge pour voir une pute à genoux sucer, plus d'âge Y'a plus d'âge, à 20 ans y'en a qui ont vécu plus que ceux qui ont 100 ans Pas de chance quand t'a l'air dur, on ne peut que s'enttendre Y'a plus d'âge pour rire, y'a plus d'âge pour pleurer, y'a plus d'âge pour souffrir, non Y'a plus d'âge pour crever, pour passer sous les roues d'une jeep, pour gratter tous les sous du biz Pour finir sous les verrous tu piges ? Y'a plus d'âge pour voir une fille se prostituer, eh, plus qu'une balle, plus d'âge pour n'pas revenir antillais lâche Y'a plus d'âge pour le perdre man, faire mal, y'a plus d'âge pour poucave ou te taire là Y'a plus d'âge demande au juge d'instruction, demande leur rage, perpet' c'est l'âge pour un putin coup d'pompe Ouais gros dit moi qu'est ce que t'envisage ? peine peine au visage, la haine La haine brille car y'a plus d'âge, chez nous, on traine on traine on vit mal Sa s'baise sa reste bizarre, le respect n'existe plus y'a plus d'âge Ouais gros, les mecs te tirent dessus, pour te dire fils de pute y'a plus y'a plus y'a plus d'âge 13 ans cette miskina te suce, l'respect n'existe plus, y'a plus y'a plus y'a plus d'âge Y'a plus d'âge pour goûter la merde, pour écouter la mess, pour couper la tête couz' pour tousser sa haine Y'a plus d'âge pour s'branler, plus d'âge pour niquer ta mère, plus d'âge pour s'dévierger, plus d'âge j'te dis c'est la Hess Plus d'âge pour avoir des cheveux blancs, avoir de belles dents, on pète tout avec l'argent, ok rappel tant Y'a plus d'âge fils de huum pour t'apprendre le respect, y'a plus d'âge pour voir un boloss vouloir tester Plus d'âge pour se repentir ou jouer avec le Sheitan, pour croire ou pour s'mentir vouer au crick du pétard Pédale, pour finir dans tout ses états, brûler la clope et ses taffes, s'munir d'un glock et ses balles Y'a plus d'âge que ce soit pour le divorce ou le ma-ri-age, plus d'âge pour vouloir visiter la robe à Ma-ri-anne Y'a plus d'âge, mais nike ta maman, dégage, y'a plus d'âge pour rêver d'un keuf et sa mort Y'a plus d'âge, j'lève mon doigt en l'air pour tout ses battards, y'a plus d'âge pour dormir seul sur un banc dans la cave Y'a plus d'âge pour s'tuer man c'est l'ère, y'a plus d'âge pour rêver d'un ciel bleu sur nos HLM... HLM...HLM... x2 Ouais gros dit moi qu'est ce que t'envisage ? peine peine au visage, la haine La haine brille car y'a plus d'âge, chez nous, on traine on traine on vit mal Sa s'baise sa reste bizarre, le respect n'existe plus y'a plus d'âge Ouais gros, les mecs te tirent dessus, pour te dire fils de pute y'a plus y'a plus y'a plus d'âge 13 ans cette miskina te suce, l'respect n'existe plus, y'a plus y'a plus y'a plus d'âge Y'aaaa pluuuus d'âââgeee Y'aaaa pluuuus d'âââgeee</t>
         </is>
       </c>
     </row>
@@ -2643,12 +2639,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Stupéfaction</t>
+          <t>Y’a quoi de plus normal ?</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Faut quon senjaille, là jsuis dmauvaise humeur Ya quoi dplus normal quun Algérien qui veut faire du beurre ? Si jfais du lourd, jpèse plus le poids des mots Tu connais lhebs, tu connais la rue, bah tu connais Ademo Tu msuis, tu crois qujai des tunes, petit naze Tu mlâcheras dès qutu verras qumes poches sont vides T-Bag Tu fais du son, tu penses être le meilleur boug qui rappe Mais l'heure tourne et ta bouche pue, Tic Tac, arabes et renois ça galère Pourtant nos meilleurs amis sappellent Philipp et Jack Daniels Révolutionnaire donc en dépit pour se faire Ni Sarko, ni Hollande, votent Marine Le Pen Face aux miradors on dira qujsuis illuminé Poto jfais pas dcadeau donc jpasserai pas par quatre cheminées LÉtat mdégoûte, il voudrait quj'vive un Enfer Donc jleur casse les couilles comme un motherfucking string à lenvers Ils augmentent les clopes donc les ients-cli achètent moins dbarrettes Jai demandé dlaide ils mont dit retourne dans ta maison darrêt Ma vie est dure, tout est dur dans la vie Donc jai pas compris quand on ma dit tu fais dlargent facile Petit on mdisait qujétais un trou dballe Mais jtaurais chié sur la gueule si javais été un trou dballe Jai eu la dalle donc jai tapé la barquette On ma dit tu veux manger ? Tu mangeras beaucoup plus aux assiettes Des mots fléchés en attendant la flèche dCupidon Si jai dla peine, jrelativise, dautres ont des peines de prison Et jsais qutu sais quje sais moi Tu marches, tu regardes de travers, tu roules de travers, 't'es pas un mec droit Lhabit nfait pas le moine, donc à poil sera la fille Le jour sera une femme, une chienne sera la nuit Ni Popeye, ni Mary Poppins Les mineurs veulent être dépendants, donc smettent à la nicotine Les rappeurs scroient forts, avec des écrits horribles Spermettent de jouer avec le micro comme Philippe Risoli Les petits écoutent, oublient les sourates Les mots rebeu sortent moins dla bouche des arabes que des tous-bab Et jlance pas des punchlines, jlance des pêches Sur Facebook créer un groupe jpeux pas, jpréfère chanter seul La Marseillaise jlaurais chantée, si elle sappelait la Parisienne Les Bleus jles aurais supporté si ils avaient pas perquis moi et mon petit frère Cest plus les keufs, cest les jeunes qui font la loi Les MCs ont des guns, ouais mais lseul truc quils tirent cest la chasse Et gros nashave, sérieux jte jure jai pas la tête Toujours un truc auquel on tient, tu mens si tu dis qutas rien à perdre Pour survivre certains font la manche dans tes bras Moi jai vendu dla coke aussi blanche que tes bas Tu kiffes, tu sniffes, tu lsais ya pas drecette Les pauvres évacuent par le cul, les riches évacuent par le zen Les tatouages cest plus pour les taulards Maintenant ils tombent en bas du dos des meufs qui aiment trop ça Plus rien mexcite à part si miss tu baises en talons Sinon next vite, un frère en taule, faut qujenvoie un talon Tu kiffes le swag ? Du biff, on fera les bails Cicatrices Gucci, cicatrices LV, voilà mes marques Si ltemps cest dlargent, combien deviennent riches en cinq minutes ? Tout roule comme sur des roulettes ouais, sauf que la roulette est à moitié russe Ça fait des chromes aux ients-cli, comme fait la Chine On svenge en investissant largent sale dans des laveries Le bail cest tcheck-moi si tes un homme, suck-moi si tes une bitch Les traîtres cest à la mode, les poukaves veulent leur featuring Tu fais lmalin, aujourdhui tu jettes ton pain Tu verras demain tu lramasses Tu lregrettes et tu pleures Jporte la rue sans plainte, comme en taule Ce monde ten viens solo et ten repars tout seul Sors du 9-1, TZ et si taimes viens Linstru jlemballe et on va tfaire fumer du seum On ma dit sans argent, ici tes rien Jai dit ya quoi dplus normal Quun Algérien qui veut faire du beurre ?</t>
         </is>
       </c>
     </row>
@@ -2660,12 +2656,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tar au C4</t>
+          <t>Y’en a</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Y'en à qui tirent, yen a qui friment mais bon qui font de la peine Y'en a qui puise dans la cachette y'en a qui font de la chaine Vaincus yen a qui chient et y'en a qui se la prenne dans l'urètre Y'a ceux qui donnent les coups et ceux qui finissent dans la del Y'en a qui se présèrvent et celles qui se font à l'hotel Y'en a des hlels mais qui finiront dans l'haram à long terme Yen a des musclors qui se pissent dessus devant des maigres Ya ceux qui resortent du chiffre et ceux qui resortent des lettres Y'a ya y'a y'a ceux qui parlent, y'a ya y'a y'a ceux qui agissent Y'a y'a y'a y'a ceux qui enhh y'a ceux qui crr y'a ceux qui brr Y'en a qui se prennent des carottes y'a ceux qui mettent des bananes Y'a ceux qui croient qu'en la drogue y'a ceux qui vend la salade Y'en a qui s'entraident y'en a qui garde jusqu'à un radis Y'en a pour l'enfer y'en aura pas bezef pour le paradis Y'en a qui sont des rappeurs et y'en a qui le sont pas, y'en a qui sont comme moi des mecs de la rue qui encule le rap et son argent Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc et vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a beaucoup des flipettes comme toi Authentique crois moi y'en a pas deux comme moi J'rap avec la mif, le rap c'est à moi, injection sonore vla qu'le rap est frère siamois J'suis OP, j'ai toujours sur moi une paire de gants La maison est grande ouverte j'hesite pas à rentrer dedans Si tu parles j'hesiterai pas à te rentrer dedans Prépare toi à perdre ta langue et puis tes 32 dents Y'en a qui se battent pour manger, qu'on peur du danger, ne trouvent rien d'autre à faire à part attendre et mendier Pas du genre à se mélanger, le bien le mal faut trancher Y'a des fous y'a des barges qu'hésiteraient pas à se venger Décider à pas se ranger, on est venus pour déranger Une feuille blanche, un stylo bic et j'decalque toutes mes pensées Habitués au danger, on est en France pour manger, demain c'est la fête des porcs jvais tous les égorgés Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a qui pensent que le rap est mort et que les mc ont sucombés Y'en a qui pensent qu'on est trop forts et que ton flow est nul à chier Y'en a qui veulent un corps parfait, pendant qu'tous sont bousillés Y'en à qui veulent des gros gamos alors qu'ils sont toujours à pieds Y'en a qui pensent qu'on est hardcore et qu'on ne reculera jamais Y'en a qui veulent croquer le monde alors qu'ils sont pas respectés Y'en a qui, y'en a qui friment, y'en a qui bedavent qui crapotent Frères sont ceux qui savent comment couper une sav' qui restent brave C'est parce que y'en a qui parlent toujours et qui en font le moins, dès que ca part en couilles ils ouvrent tout le temps le cul coffret dans le coin Oui y'en a, y'en a qui galèrent dans les halls, et sa part en taule, dédicase à MC anonyme ma deuxième épaule Y'en a qui gardent la bouche cousue aux interrogatoires, contrairement à ceux qui parlent pour un café noir Donc à tous ces fils de putes, nos chemins se croiseront parce que l'on efface jamais cqu'on balance à l'audition Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler c'est fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, Ademo son des halls, Spike la pioche, Illinas Nastia la mode</t>
         </is>
       </c>
     </row>
@@ -2677,159 +2673,10 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Toujours dans les bye</t>
+          <t>Y’en a (doublon)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
-        <is>
-          <t>Check pour ma vie pour ma rage aime ma grosse aime ta chienne veulent la lune je l'enmene on baise sur ma comaide Y'a pas de comique y'a pas de phozere connard je ressemble a personne gros on est droit meme quand je vise les dollars Les mecs de tess disent ademo arrete pas le rap t'es ouf Mais la chienne qui me thaine je deviens fous je vois pas les sous Me parle pas de rapeur quand je sors du studio j'oublie tous ca Les freres me connaissent ouais quand je pisse quand je dis tous bav Les jaloux portent l'oeil composent le 17 avec un regard La je suis dangereux comme quand un batard me visserent me recale C'est quoi ce delire ? les tapettes jouent les chauds Les chauds font les choses ferment ta gueule ou je te rend sterile Une chienne je lui paye pas un MacDonald Arrete tetola faut que da sess comme dit le zen de maradona Ce soir en hess en beton de la tess ou de les taules lmec du ghetto et toujours dans les bye des cheques ou de les loves de la freche du zen Je sui dans netfix</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Ademo</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Tout pour la monnaie</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>C'matin cest die jme lève tôt, plus tôt qudhabitude La gueule dans lsac il va faire beau comme à Malibu Alors jme passe un coup d'eau parce que ma tête chauffe Comme la tess comme la merde devant la fête foraine Jsors paire de Stan Smith, survet noir T shirt long serré, Bleu ciel pour faire style Et jmarche seul tout comme dhab debout seul Les soucis sarrangent alors mes ongles sallongent pas à bout d'seum Sur ma route jcroise un poto tchek, bien ou bien frelon cest quoi les diez ? ? tu connais au fait combien l'100 meu-g ? Viens tà lheure jverrais si jai chose-quel Pour linstant jpense à ma mif, faire des gros sous, faire des gros chèques Sisi Ademo ce soir même bât comme dhab Vas-y, vas-y, cest ça, même bail même come? C'matin cest die, jdois faire d'la thune en masse Jveux mon cocktail, ma plage, plus vendre ça pue langoisse Ça y est jsuis devant la gare jmets mes lunettes de vue Pour passer pépère les contrôles ferroviaires que faire de plus ? Si c'nest attendre larrêt d'ma destination Corbeil, jvais dans mon ancien quartier, dans cette aire de lévitation Jcroise 23 patrouilles mais fuck Jsuis déterminé ma vie cest soit j'suis bien soit j'meurs sous l'block Jai rendez vous avec un fantôme pour mon lo-ki Ma parano fait qu'chacun que j'croise en route est analysé au scribe C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène Ok fait parler bails, jespère que c'est du gras que c'est du bon Cest la thune pom-pom-pom, ça a l'air du bon Alors hop dans lsac, on y va Le stress menvahisse jusquau crâne jusquaux fesses Jprends l'chemin du retour, recouvre mon zen des lunettes Du cou la corde au bout jredoute la horde de boules Jsuis dans le train pépèrement, mes sacs loin d'moi Au cas où ça merde, au cas où les chiottes sont pas loin d'moi Jpeux t'dire qu'les gens jles calcule pas ? regarde même pas jlui parle dans lcrâne ya plus d'place A mi-chemin le stress est parti Pourtant yemma cest la vie qui s'joue dans cputain dscénario dla zic Jarrive ok, faut faire vite vite ok Disloqué jentends monsieur vos papiers sil vous plaît Merde, cest bon jai compris faut tracer Le comico ma pris en chasse filoché comme un apache Jsuis dans lpétrain jpense à la mif et devant l'fait acccompli Jgarde les bails, nique leur mère a ces sheitans Ya plus d'temps à perdre ya plus ltemps dfaire Jvois des bâtiments jy rentre vert Jouvre lascenseur jle coince et lâche le sac Le referme pour pas quils crient ces keufs, ces bâtards de rats Jressors, plaquage sur le sol, mon bagage il est où ? dans ton cul à 2 doigts du savatage C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène 48h dgarde a v en mode interrogation Pourquoi tas couru ? Tavais un sac ? 23 insultes fusent tapette 23 claques il m'ruse la tête vu qu'j'la mets a lenvers au stup Jentends des échos comme quoi l'sac aurait été retrouvé Peur d'couler j'suis pas loin du dépôt Les poulets font tout pour m'faire baver, bah voyons ! Pas lbac et tu veux m'plaquer ? Si j'tombe jpense à la mif, à la perte de temps Soit Fleury soit Fresnes on verra bien comment ça merde dedans Et là un keuf rentre avec mon sac, le seum putain Bon bah fuck ça sent pas bon l'cur bat son plein Jaurai p't'être dû courir plus, cest sûr Au pire ? jusquà c'quils me lâchent et nen puissent plus Au lieu d'ça ça a merdé Fallait bien qu'ça arrive au bout d'100 fois sur la ligne du C ou du RER D À Corbeil ça merde, Juvisy ça merde, Ivry ça merde, trop de keufs sa mère Lappel de lordre cest notre vie, cest en nous mec Lhistoire cest quoi ? Cest pour tout, tous on sembrouille check Un lo-ki dans lce-sa, le schtar cest lbail Mais si j'te dis que le sac ? on l'a rotte-ca ça fait mal Ça sauve mais bon, même si on est pas tombé Celui qui a appelé le diez man, va falloir l'plomber C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats C'est tout pour la monnaie, pour le biff, cest la night Tout pour la mode, pour la mif, et la maille 91, les mecs, on oubliera jamais Les cris, lenfance, les coups, lbonheur après les combats dans larène</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Ademo</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Tu connais</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Ademo</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Wesh les mecs*</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Paroles venant d'un extrait Mais moi jveux que tu danses Tcha tcha tcha tcha Faut que je sorte un flow Le flow dune colombienne Wesh les mecs wesh vous êtes là Posés dans le hall tous sous zetla La vie cest gang ouais jminquiète La khaténa dans la tête Wesh les mecs wesh vous êtes là Posés dans le hall tous sous zetla La vie cest gang ouais jminquiète La khaténa dans la tête</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Ademo</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Wow</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Négro c'est street street Blarrr dans ta tête chacal Une pute plus une pute égal mes boules et deux bouches gava Ça fait clic-clic tu connais la technique Clic-clic cri cri paw et c'est le déclic Nique ta race et ta femme affame car toujours affamée Gros Dans la face, c'est avarié, j'ai la dalle donc garde les cros Vas-y bouge tes zeub bouge des zeub jusqu'au bout de la night Bouge tout ce que t'a j'men bats les couilles t'en que tu ramène la maille Nous ce qu'on veut c'est la maille, le biff on n'a pas pas l'temps XXX On dé-dérégler putin, t'es t'es con ou quoi Vroum,vroum Et vas-y accélère igo Wow,wow,wow Wow, wow, wow c'est quoi que j'entend là et Moi je dois faire de la tune, le rap je lui baise sa mère la pute XXX de la pur Quand je fait de la pur, j'assume la monter jusqu'à la chute Tu veux du shit viens voir mes chi-chipotes pas ou je t'insulte À qui la faute, à qui la faute si on devient méchant À qui la faute, à qui la faute dit moi Wow, wow, wow N.O.S, Ademo on est pas très tendre Tu la sentis dans ton ahh ta fait Wow, wow, wow Perdu 20 dollars Wow Y'a le ragla Wow À 13 heure y'a les keufs où là Wow, wow, wow Tu pars pour 20 piges Wow Il baise ta copine Wow Un pédé te drague dans ta tête ça fait Wow, wow, wow Les you-voi contrôlent le terrain Et les poulets sont zehef On bibi dans la zone et les autres cités nous déteste Si j'pose sur le son des hall, c'est pour fumer le sept Si j'vends là.. c'est pour faire snifer le seize Chui tout-tout-tout-toujours en infraction à 520 dans la structure et l'autre dans le caleçon Le litrons n'à pas fait de nous des héros pu cramé pu armé les autres villes on baise les hétéros J'me disais pourvue que je me face pas pété avant de posé Pour vous je me face pas pétété avant de buggé Cash-cash-money dans les bacs, litrons dans les caves J'pise mon avenir dans des clicos qui finisse par se poucav Des-des-des gangstas, thugs dans la tête C'est la misère et nos darons lisent le XXX dans la tess À qui la faute, à qui la faute si on devient méchant À qui la faute, à qui la faute dit moi Wow, wow, wow N.O.S, Ademo on est pas très tendre Tu la sentis dans ton ahh ta fait Wow, wow, wow Perdu 20 dollars Wow Y'a le ragla Wow À 13h y'a les keufs où là Wow, wow, wow Tu pars pour 20 piges Wow Il baise ta copine Wow Un pédé te drague dans ta tête ça fait Wow, wow, wow</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Ademo</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>YA*</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Faut quon senjaille, là jsuis dmauvaise humeur Ya quoi dplus normal quun Algérien qui veut faire du beurre ? Si jfais du lourd, jpèse plus le poids des mots Tu connais lhebs, tu connais la rue, bah tu connais Ademo Tu msuis, tu crois qujai des tunes, petit naze Tu mlâcheras dès qutu verras qumes poches sont vides T-Bag Tu fais du son, tu penses être le meilleur boug qui rappe Mais l'heure tourne et ta bouche pue, Tic Tac, arabes et renois ça galère Pourtant nos meilleurs amis sappellent Philipp et Jack Daniels Révolutionnaire donc en dépit pour se faire Ni Sarko, ni Hollande, votent Marine Le Pen Face aux miradors on dira qujsuis illuminé Poto jfais pas dcadeau donc jpasserai pas par quatre cheminées LÉtat mdégoûte, il voudrait quj'vive un Enfer Donc jleur casse les couilles comme un motherfucking string à lenvers Ils augmentent les clopes donc les ients-cli achètent moins dbarrettes Jai demandé dlaide ils mont dit retourne dans ta maison darrêt Ma vie est dure, tout est dur dans la vie Donc jai pas compris quand on ma dit tu fais dlargent facile Petit on mdisait qujétais un trou dballe Mais jtaurais chié sur la gueule si javais été un trou dballe Jai eu la dalle donc jai tapé la barquette On ma dit tu veux manger ? Tu mangeras beaucoup plus aux assiettes Des mots fléchés en attendant la flèche dCupidon Si jai dla peine, jrelativise, dautres ont des peines de prison Et jsais qutu sais quje sais moi Tu marches, tu regardes de travers, tu roules de travers, 't'es pas un mec droit Lhabit nfait pas le moine, donc à poil sera la fille Le jour sera une femme, une chienne sera la nuit Ni Popeye, ni Mary Poppins Les mineurs veulent être dépendants, donc smettent à la nicotine Les rappeurs scroient forts, avec des écrits horribles Spermettent de jouer avec le micro comme Philippe Risoli Les petits écoutent, oublient les sourates Les mots rebeu sortent moins dla bouche des arabes que des tous-bab Et jlance pas des punchlines, jlance des pêches Sur Facebook créer un groupe jpeux pas, jpréfère chanter seul La Marseillaise jlaurais chantée, si elle sappelait la Parisienne Les Bleus jles aurais supporté si ils avaient pas perquis moi et mon petit frère Cest plus les keufs, cest les jeunes qui font la loi Les MCs ont des guns, ouais mais lseul truc quils tirent cest la chasse Et gros nashave, sérieux jte jure jai pas la tête Toujours un truc auquel on tient, tu mens si tu dis qutas rien à perdre Pour survivre certains font la manche dans tes bras Moi jai vendu dla coke aussi blanche que tes bas Tu kiffes, tu sniffes, tu lsais ya pas drecette Les pauvres évacuent par le cul, les riches évacuent par le zen Les tatouages cest plus pour les taulards Maintenant ils tombent en bas du dos des meufs qui aiment trop ça Plus rien mexcite à part si miss tu baises en talons Sinon next vite, un frère en taule, faut qujenvoie un talon Tu kiffes le swag ? Du biff, on fera les bails Cicatrices Gucci, cicatrices LV, voilà mes marques Si ltemps cest dlargent, combien deviennent riches en cinq minutes ? Tout roule comme sur des roulettes ouais, sauf que la roulette est à moitié russe Ça fait des chromes aux ients-cli, comme fait la Chine On svenge en investissant largent sale dans des laveries Le bail cest tcheck-moi si tes un homme, suck-moi si tes une bitch Les traîtres cest à la mode, les poukaves veulent leur featuring Tu fais lmalin, aujourdhui tu jettes ton pain Tu verras demain tu lramasses Tu lregrettes et tu pleures Jporte la rue sans plainte, comme en taule Ce monde ten viens solo et ten repars tout seul Sors du 9-1, TZ et si taimes viens Linstru jlemballe et on va tfaire fumer du seum On ma dit sans argent, ici tes rien Jai dit ya quoi dplus normal Quun Algérien qui veut faire du beurre ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Ademo</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Y’a plus d’âge</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Y'a plus d'âge, j'sais pas comment j'vais faire pour rapper c'texte Y'a plus d'âge c'est l'thème, y'a plus d'âge pour enculer le système Y'a plus d'âge pour chopper une maladie incurable, y'a plus d'âge pour s'faire baiser par une femme Y'a plus d'âge pour etre dans la merde jusqu'au cou, plus d'âge pour préférer la Jack Daniel's plus qu'leau douce Y'a plus d'âge pour voir une fille à quatre pattes, plus d'âge pour survivre d'un amour briser card-pla Y'a plus d'âge pour finir sa vie dans la rage, tourner la page, couper les liens désert à la hache Y'a plus d'âge pour faire un gosse negro, plus d'âge pour vendre d'la drogue, plus d'âge pour consommer sa mort ouais gros Y'a plus d'âge pour pleurer tout seul tout en douleur, y'a plus d'âge pour crever tousser tout en douceur Y'a plus d'âge pour s'enfiler un glock les gants et l'collant, plus d'âge pour s'evoler dans un mauvais virage au volant Ouais gros dit moi qu'est ce que t'envisage ? peine peine au visage, la haine La haine brille car y'a plus d'âge, chez nous, on traine on traine on vit mal Sa s'baise sa reste bizarre, le respect n'existe plus y'a plus d'âge Ouais gros, les mecs te tirent dessus, pour te dire fils de pute y'a plus y'a plus y'a plus d'âge 13 ans cette miskina te suce, l'respect n'existe plus, y'a plus y'a plus y'a plus d'âge Y'a plus d'âge pour vivre en marge, y'a plus d'âge marche droit ou zig-zag pour être rider y'a plus d'âge Y'a plus d'âge pour voir une pute à genoux sucer, plus d'âge Y'a plus d'âge, à 20 ans y'en a qui ont vécu plus que ceux qui ont 100 ans Pas de chance quand t'a l'air dur, on ne peut que s'enttendre Y'a plus d'âge pour rire, y'a plus d'âge pour pleurer, y'a plus d'âge pour souffrir, non Y'a plus d'âge pour crever, pour passer sous les roues d'une jeep, pour gratter tous les sous du biz Pour finir sous les verrous tu piges ? Y'a plus d'âge pour voir une fille se prostituer, eh, plus qu'une balle, plus d'âge pour n'pas revenir antillais lâche Y'a plus d'âge pour le perdre man, faire mal, y'a plus d'âge pour poucave ou te taire là Y'a plus d'âge demande au juge d'instruction, demande leur rage, perpet' c'est l'âge pour un putin coup d'pompe Ouais gros dit moi qu'est ce que t'envisage ? peine peine au visage, la haine La haine brille car y'a plus d'âge, chez nous, on traine on traine on vit mal Sa s'baise sa reste bizarre, le respect n'existe plus y'a plus d'âge Ouais gros, les mecs te tirent dessus, pour te dire fils de pute y'a plus y'a plus y'a plus d'âge 13 ans cette miskina te suce, l'respect n'existe plus, y'a plus y'a plus y'a plus d'âge Y'a plus d'âge pour goûter la merde, pour écouter la mess, pour couper la tête couz' pour tousser sa haine Y'a plus d'âge pour s'branler, plus d'âge pour niquer ta mère, plus d'âge pour s'dévierger, plus d'âge j'te dis c'est la Hess Plus d'âge pour avoir des cheveux blancs, avoir de belles dents, on pète tout avec l'argent, ok rappel tant Y'a plus d'âge fils de huum pour t'apprendre le respect, y'a plus d'âge pour voir un boloss vouloir tester Plus d'âge pour se repentir ou jouer avec le Sheitan, pour croire ou pour s'mentir vouer au crick du pétard Pédale, pour finir dans tout ses états, brûler la clope et ses taffes, s'munir d'un glock et ses balles Y'a plus d'âge que ce soit pour le divorce ou le ma-ri-age, plus d'âge pour vouloir visiter la robe à Ma-ri-anne Y'a plus d'âge, mais nike ta maman, dégage, y'a plus d'âge pour rêver d'un keuf et sa mort Y'a plus d'âge, j'lève mon doigt en l'air pour tout ses battards, y'a plus d'âge pour dormir seul sur un banc dans la cave Y'a plus d'âge pour s'tuer man c'est l'ère, y'a plus d'âge pour rêver d'un ciel bleu sur nos HLM... HLM...HLM... x2 Ouais gros dit moi qu'est ce que t'envisage ? peine peine au visage, la haine La haine brille car y'a plus d'âge, chez nous, on traine on traine on vit mal Sa s'baise sa reste bizarre, le respect n'existe plus y'a plus d'âge Ouais gros, les mecs te tirent dessus, pour te dire fils de pute y'a plus y'a plus y'a plus d'âge 13 ans cette miskina te suce, l'respect n'existe plus, y'a plus y'a plus y'a plus d'âge Y'aaaa pluuuus d'âââgeee Y'aaaa pluuuus d'âââgeee</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Ademo</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Y’a quoi de plus normal ?</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Faut quon senjaille, là jsuis dmauvaise humeur Ya quoi dplus normal quun Algérien qui veut faire du beurre ? Si jfais du lourd, jpèse plus le poids des mots Tu connais lhebs, tu connais la rue, bah tu connais Ademo Tu msuis, tu crois qujai des tunes, petit naze Tu mlâcheras dès qutu verras qumes poches sont vides T-Bag Tu fais du son, tu penses être le meilleur boug qui rappe Mais l'heure tourne et ta bouche pue, Tic Tac, arabes et renois ça galère Pourtant nos meilleurs amis sappellent Philipp et Jack Daniels Révolutionnaire donc en dépit pour se faire Ni Sarko, ni Hollande, votent Marine Le Pen Face aux miradors on dira qujsuis illuminé Poto jfais pas dcadeau donc jpasserai pas par quatre cheminées LÉtat mdégoûte, il voudrait quj'vive un Enfer Donc jleur casse les couilles comme un motherfucking string à lenvers Ils augmentent les clopes donc les ients-cli achètent moins dbarrettes Jai demandé dlaide ils mont dit retourne dans ta maison darrêt Ma vie est dure, tout est dur dans la vie Donc jai pas compris quand on ma dit tu fais dlargent facile Petit on mdisait qujétais un trou dballe Mais jtaurais chié sur la gueule si javais été un trou dballe Jai eu la dalle donc jai tapé la barquette On ma dit tu veux manger ? Tu mangeras beaucoup plus aux assiettes Des mots fléchés en attendant la flèche dCupidon Si jai dla peine, jrelativise, dautres ont des peines de prison Et jsais qutu sais quje sais moi Tu marches, tu regardes de travers, tu roules de travers, 't'es pas un mec droit Lhabit nfait pas le moine, donc à poil sera la fille Le jour sera une femme, une chienne sera la nuit Ni Popeye, ni Mary Poppins Les mineurs veulent être dépendants, donc smettent à la nicotine Les rappeurs scroient forts, avec des écrits horribles Spermettent de jouer avec le micro comme Philippe Risoli Les petits écoutent, oublient les sourates Les mots rebeu sortent moins dla bouche des arabes que des tous-bab Et jlance pas des punchlines, jlance des pêches Sur Facebook créer un groupe jpeux pas, jpréfère chanter seul La Marseillaise jlaurais chantée, si elle sappelait la Parisienne Les Bleus jles aurais supporté si ils avaient pas perquis moi et mon petit frère Cest plus les keufs, cest les jeunes qui font la loi Les MCs ont des guns, ouais mais lseul truc quils tirent cest la chasse Et gros nashave, sérieux jte jure jai pas la tête Toujours un truc auquel on tient, tu mens si tu dis qutas rien à perdre Pour survivre certains font la manche dans tes bras Moi jai vendu dla coke aussi blanche que tes bas Tu kiffes, tu sniffes, tu lsais ya pas drecette Les pauvres évacuent par le cul, les riches évacuent par le zen Les tatouages cest plus pour les taulards Maintenant ils tombent en bas du dos des meufs qui aiment trop ça Plus rien mexcite à part si miss tu baises en talons Sinon next vite, un frère en taule, faut qujenvoie un talon Tu kiffes le swag ? Du biff, on fera les bails Cicatrices Gucci, cicatrices LV, voilà mes marques Si ltemps cest dlargent, combien deviennent riches en cinq minutes ? Tout roule comme sur des roulettes ouais, sauf que la roulette est à moitié russe Ça fait des chromes aux ients-cli, comme fait la Chine On svenge en investissant largent sale dans des laveries Le bail cest tcheck-moi si tes un homme, suck-moi si tes une bitch Les traîtres cest à la mode, les poukaves veulent leur featuring Tu fais lmalin, aujourdhui tu jettes ton pain Tu verras demain tu lramasses Tu lregrettes et tu pleures Jporte la rue sans plainte, comme en taule Ce monde ten viens solo et ten repars tout seul Sors du 9-1, TZ et si taimes viens Linstru jlemballe et on va tfaire fumer du seum On ma dit sans argent, ici tes rien Jai dit ya quoi dplus normal Quun Algérien qui veut faire du beurre ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Ademo</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Y’en a</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Y'en à qui tirent, yen a qui friment mais bon qui font de la peine Y'en a qui puise dans la cachette y'en a qui font de la chaine Vaincus yen a qui chient et y'en a qui se la prenne dans l'urètre Y'a ceux qui donnent les coups et ceux qui finissent dans la del Y'en a qui se présèrvent et celles qui se font à l'hotel Y'en a des hlels mais qui finiront dans l'haram à long terme Yen a des musclors qui se pissent dessus devant des maigres Ya ceux qui resortent du chiffre et ceux qui resortent des lettres Y'a ya y'a y'a ceux qui parlent, y'a ya y'a y'a ceux qui agissent Y'a y'a y'a y'a ceux qui enhh y'a ceux qui crr y'a ceux qui brr Y'en a qui se prennent des carottes y'a ceux qui mettent des bananes Y'a ceux qui croient qu'en la drogue y'a ceux qui vend la salade Y'en a qui s'entraident y'en a qui garde jusqu'à un radis Y'en a pour l'enfer y'en aura pas bezef pour le paradis Y'en a qui sont des rappeurs et y'en a qui le sont pas, y'en a qui sont comme moi des mecs de la rue qui encule le rap et son argent Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc et vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a beaucoup des flipettes comme toi Authentique crois moi y'en a pas deux comme moi J'rap avec la mif, le rap c'est à moi, injection sonore vla qu'le rap est frère siamois J'suis OP, j'ai toujours sur moi une paire de gants La maison est grande ouverte j'hesite pas à rentrer dedans Si tu parles j'hesiterai pas à te rentrer dedans Prépare toi à perdre ta langue et puis tes 32 dents Y'en a qui se battent pour manger, qu'on peur du danger, ne trouvent rien d'autre à faire à part attendre et mendier Pas du genre à se mélanger, le bien le mal faut trancher Y'a des fous y'a des barges qu'hésiteraient pas à se venger Décider à pas se ranger, on est venus pour déranger Une feuille blanche, un stylo bic et j'decalque toutes mes pensées Habitués au danger, on est en France pour manger, demain c'est la fête des porcs jvais tous les égorgés Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a qui pensent que le rap est mort et que les mc ont sucombés Y'en a qui pensent qu'on est trop forts et que ton flow est nul à chier Y'en a qui veulent un corps parfait, pendant qu'tous sont bousillés Y'en à qui veulent des gros gamos alors qu'ils sont toujours à pieds Y'en a qui pensent qu'on est hardcore et qu'on ne reculera jamais Y'en a qui veulent croquer le monde alors qu'ils sont pas respectés Y'en a qui, y'en a qui friment, y'en a qui bedavent qui crapotent Frères sont ceux qui savent comment couper une sav' qui restent brave C'est parce que y'en a qui parlent toujours et qui en font le moins, dès que ca part en couilles ils ouvrent tout le temps le cul coffret dans le coin Oui y'en a, y'en a qui galèrent dans les halls, et sa part en taule, dédicase à MC anonyme ma deuxième épaule Y'en a qui gardent la bouche cousue aux interrogatoires, contrairement à ceux qui parlent pour un café noir Donc à tous ces fils de putes, nos chemins se croiseront parce que l'on efface jamais cqu'on balance à l'audition Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler c'est fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a, y'en a Y'en a, Ademo son des halls, Spike la pioche, Illinas Nastia la mode</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Ademo</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Y’en a (doublon)</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
         <is>
           <t>Y'en à qui tirent, y'en a qui friment mais bon qui font de la peine Y'en a qui puise dans la cachette y'en a qui font de la chaine Vaincus y'en a qui chient et y'en a qui se la prenne dans lurètre Y'a ceux qui donnent les coups et ceux qui finissent dans la del Y'en a qui se présèrvent et celles qui se font à l'hotel Y'en a des hlels mais qui finiront dans l'haram à long terme Y'en a des musclors qui se pissent dessus devant des maigres Y'a ceux qui resortent du chiffre et ceux qui resortent des lettres Y'a y'a y'a y'a ceux qui parlent, y'a y'a y'a y'a ceux qui agissent Y'a y'a y'a y'a ceux qui enhh y'a ceux qui crr y'a ceux qui brr Y'en a qui se prennent des carottes y'a ceux qui mettent des bananes Y'a ceux qui croient qu'en la drogue y'a ceux qui vend la salade Y'en a qui s'entraident y'en a qui garde jusqu'à un radis Y'en a pour l'enfer y'en aura pas bezef pour le paradis Y'en a qui sont des rappeurs et y'en a qui le sont pas, y'en a qui sont comme moi des mecs de la rue qui encule le rap et son argent Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc et vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Yen a, yen a, yen a, yen a, yen a, yen a, yen a, yen a Y'en a beaucoup des flipettes comme toi, Authentique crois moi y'en a pas deux comme moi J'rap avec la mif, le rap c'est à moi, injection sonore vla qu'le rap est frère siamois J'suis OP, j'ai toujours sur moi une paire de gants La maison est grande ouverte j'hesite pas à rentrer dedans Si tu parles j'hesiterai pas à te rentrer dedans Prépare toi à perdre ta langue et puis tes 32 dents Y'en a qui se battent pour manger, qu'on peur du danger, ne trouvent rien d'autre à faire à part attendre et mendier Pas du genre à se mélanger, le bien le mal faut trancher Y'a des fous y'a des barges qu'hésiteraient pas à se venger Décider à pas se ranger, on est venus pour déranger Une feuille blanche, un stylo bic et j'decalque toutes mes pensées Habitués au danger, on est en France pour manger, demain c'est la fête des porcs jvais tous les égorgés Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler ces fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, yen a, yen a, yen a, yen a, yen a, yen a, yen a Y'en a qui pensent que le rap est mort et que les mc ont sucombés Y'en a qui pensent qu'on est trop forts et que ton flow est nul à chier Y'en a qui veulent un corps parfait, pendant qu'tous sont bousillés Y'en à qui veulent des gros gamos alors qu'ils sont toujours à pieds Y'en a qui pensent qu'on est hardcore et qu'on ne reculera jamais Y'en a qui veulent croquer le monde alors qu'ils sont pas respectés Y'en a qui, y'en a qui friment, y'en a qui bedavent qui crapotent Frères sont ceux qui savent comment couper une sav' qui restent brave C'est parce que y'en a qui parlent toujours et qui en font le moins, dès que ca part en couilles ils ouvrent tout le temps le cul coffret dans le coin Oui y'en a, y'en a qui galèrent dans les halls, et sa part en taule, dédicase à MC anonyme ma deuxième épaule Y'en a qui gardent la bouche cousue aux interrogatoires, contrairement à ceux qui parlent pour un café noir Donc à tous ces fils de putes, nos chemins se croiseront parce que l'on efface jamais cqu'on balance à l'audition Y'en a qui sont dans les bails, qui ont pas besoin d'en parler, qui font tout pour aller graille Y'en a y'en a qui parlent sur moi il faut qu'jl'ai eehhh Les médisans laisse les parler c'est fils de ehhh Y'en a y'en a qui veulent la vie de rêve au quartier parce que l'argent oblige Assis sur le banc vert comme gt Y'en a, y'en a Y'en a trop wAllah negro, y'en a trop Y'en a, yen a, yen a, yen a, yen a, yen a, yen a, yen a Y'en a, yen a, yen a, yen a, yen a, yen a, yen a, yen a Y'en a, yen a, yen a, yen a, yen a, yen a, yen a, yen a Y'en a, Ademo son des halls, Spike la pioche, Illinas Nastia la mode</t>
         </is>
